--- a/web/F1v2.xlsx
+++ b/web/F1v2.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InternalSystem\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AB5A90-2066-43DA-9F87-8A5875BF85DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="aYgyubV8cXlpg2tB8G35+FayAORE56vQGLjLHU4E8o9pLWMd/0KCGkmy6YNG4QJ4TrkjkhN8Azx6gaXGPbQgiA==" workbookSaltValue="15jNjLqzr6a5V68y1JCy1Q==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A118FCA-F5DF-44A0-AAE4-FB746DE64AE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="v0yYOyVFcJlAEu5cgRp+1sBPv1E6vFlID6V99hfWQNMVGsTMUUP78qvUGT50asLraH/SLGpck1QoW/oXpQByDQ==" workbookSaltValue="KGfX8L52/N+osSH2ciRmLw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C7A72A4-46D5-4130-84F6-E2BF1F1A15D0}"/>
   </bookViews>
@@ -4663,46 +4663,73 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4720,38 +4747,212 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4778,207 +4979,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6301,8 +6301,8 @@
   </sheetPr>
   <dimension ref="B1:H141"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D9" zoomScale="62" zoomScaleNormal="83" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="62" zoomScaleNormal="83" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" x14ac:dyDescent="0.45"/>
@@ -6317,13 +6317,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
     </row>
     <row r="2" spans="2:6" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="65" t="s">
@@ -6343,12 +6343,12 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="2:6" ht="96" customHeight="1" x14ac:dyDescent="0.45">
@@ -6795,16 +6795,16 @@
       </c>
     </row>
     <row r="31" spans="2:6" s="42" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="135"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="154"/>
     </row>
     <row r="32" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="139" t="s">
+      <c r="B32" s="133" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="38" t="s">
@@ -6816,12 +6816,12 @@
       <c r="E32" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="146" t="s">
+      <c r="F32" s="155" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="140"/>
+      <c r="B33" s="134"/>
       <c r="C33" s="38" t="s">
         <v>222</v>
       </c>
@@ -6831,10 +6831,10 @@
       <c r="E33" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="147"/>
+      <c r="F33" s="156"/>
     </row>
     <row r="34" spans="2:6" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="140"/>
+      <c r="B34" s="134"/>
       <c r="C34" s="38" t="s">
         <v>227</v>
       </c>
@@ -6844,10 +6844,10 @@
       <c r="E34" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="147"/>
+      <c r="F34" s="156"/>
     </row>
     <row r="35" spans="2:6" ht="57.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="140"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="38" t="s">
         <v>228</v>
       </c>
@@ -6857,10 +6857,10 @@
       <c r="E35" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="147"/>
+      <c r="F35" s="156"/>
     </row>
     <row r="36" spans="2:6" ht="72.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="141"/>
+      <c r="B36" s="135"/>
       <c r="C36" s="38" t="s">
         <v>230</v>
       </c>
@@ -6870,19 +6870,19 @@
       <c r="E36" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="148"/>
+      <c r="F36" s="157"/>
     </row>
     <row r="37" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="158" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="151"/>
+      <c r="C37" s="159"/>
+      <c r="D37" s="159"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="160"/>
     </row>
     <row r="38" spans="2:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="139" t="s">
+      <c r="B38" s="133" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="38" t="s">
@@ -6899,7 +6899,7 @@
       </c>
     </row>
     <row r="39" spans="2:6" ht="122.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="140"/>
+      <c r="B39" s="134"/>
       <c r="C39" s="38" t="s">
         <v>461</v>
       </c>
@@ -6914,7 +6914,7 @@
       </c>
     </row>
     <row r="40" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="140"/>
+      <c r="B40" s="134"/>
       <c r="C40" s="38" t="s">
         <v>462</v>
       </c>
@@ -6929,7 +6929,7 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="140"/>
+      <c r="B41" s="134"/>
       <c r="C41" s="38" t="s">
         <v>237</v>
       </c>
@@ -6944,7 +6944,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="140"/>
+      <c r="B42" s="134"/>
       <c r="C42" s="38" t="s">
         <v>463</v>
       </c>
@@ -6959,7 +6959,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="139" t="s">
+      <c r="B43" s="133" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="38" t="s">
@@ -6976,7 +6976,7 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="140"/>
+      <c r="B44" s="134"/>
       <c r="C44" s="38" t="s">
         <v>242</v>
       </c>
@@ -6991,7 +6991,7 @@
       </c>
     </row>
     <row r="45" spans="2:6" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="141"/>
+      <c r="B45" s="135"/>
       <c r="C45" s="38" t="s">
         <v>244</v>
       </c>
@@ -7113,7 +7113,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="154" t="s">
+      <c r="B53" s="161" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="32" t="s">
@@ -7130,7 +7130,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="92.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="155"/>
+      <c r="B54" s="162"/>
       <c r="C54" s="32" t="s">
         <v>258</v>
       </c>
@@ -7145,16 +7145,16 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="47.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="133" t="s">
+      <c r="B55" s="150" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="134"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="135"/>
+      <c r="C55" s="151"/>
+      <c r="D55" s="151"/>
+      <c r="E55" s="151"/>
+      <c r="F55" s="154"/>
     </row>
     <row r="56" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="139" t="s">
+      <c r="B56" s="133" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="38" t="s">
@@ -7171,7 +7171,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="141"/>
+      <c r="B57" s="135"/>
       <c r="C57" s="38" t="s">
         <v>471</v>
       </c>
@@ -7186,7 +7186,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="139" t="s">
+      <c r="B58" s="133" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="38" t="s">
@@ -7203,7 +7203,7 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="141"/>
+      <c r="B59" s="135"/>
       <c r="C59" s="38" t="s">
         <v>471</v>
       </c>
@@ -7218,7 +7218,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="152" t="s">
+      <c r="B60" s="142" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="50" t="s">
@@ -7235,7 +7235,7 @@
       </c>
     </row>
     <row r="61" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="153"/>
+      <c r="B61" s="143"/>
       <c r="C61" s="50" t="s">
         <v>474</v>
       </c>
@@ -7250,7 +7250,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" ht="62.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="152" t="s">
+      <c r="B62" s="142" t="s">
         <v>39</v>
       </c>
       <c r="C62" s="50" t="s">
@@ -7267,7 +7267,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="153"/>
+      <c r="B63" s="143"/>
       <c r="C63" s="50" t="s">
         <v>476</v>
       </c>
@@ -7282,7 +7282,7 @@
       </c>
     </row>
     <row r="64" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="152" t="s">
+      <c r="B64" s="142" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="50" t="s">
@@ -7299,7 +7299,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="153"/>
+      <c r="B65" s="143"/>
       <c r="C65" s="50" t="s">
         <v>478</v>
       </c>
@@ -7314,7 +7314,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="152" t="s">
+      <c r="B66" s="142" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="50" t="s">
@@ -7331,7 +7331,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="153"/>
+      <c r="B67" s="143"/>
       <c r="C67" s="50" t="s">
         <v>480</v>
       </c>
@@ -7346,16 +7346,16 @@
       </c>
     </row>
     <row r="68" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="133" t="s">
+      <c r="B68" s="150" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="134"/>
-      <c r="D68" s="134"/>
-      <c r="E68" s="134"/>
-      <c r="F68" s="135"/>
+      <c r="C68" s="151"/>
+      <c r="D68" s="151"/>
+      <c r="E68" s="151"/>
+      <c r="F68" s="154"/>
     </row>
     <row r="69" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="139" t="s">
+      <c r="B69" s="133" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="38" t="s">
@@ -7372,7 +7372,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="140"/>
+      <c r="B70" s="134"/>
       <c r="C70" s="38" t="s">
         <v>288</v>
       </c>
@@ -7387,7 +7387,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="140"/>
+      <c r="B71" s="134"/>
       <c r="C71" s="38" t="s">
         <v>482</v>
       </c>
@@ -7402,7 +7402,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="140"/>
+      <c r="B72" s="134"/>
       <c r="C72" s="38" t="s">
         <v>483</v>
       </c>
@@ -7417,7 +7417,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="75.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="140"/>
+      <c r="B73" s="134"/>
       <c r="C73" s="38" t="s">
         <v>484</v>
       </c>
@@ -7432,7 +7432,7 @@
       </c>
     </row>
     <row r="74" spans="2:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="141"/>
+      <c r="B74" s="135"/>
       <c r="C74" s="38" t="s">
         <v>485</v>
       </c>
@@ -7447,7 +7447,7 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="139" t="s">
+      <c r="B75" s="133" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="38" t="s">
@@ -7464,7 +7464,7 @@
       </c>
     </row>
     <row r="76" spans="2:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="140"/>
+      <c r="B76" s="134"/>
       <c r="C76" s="38" t="s">
         <v>486</v>
       </c>
@@ -7479,7 +7479,7 @@
       </c>
     </row>
     <row r="77" spans="2:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="140"/>
+      <c r="B77" s="134"/>
       <c r="C77" s="38" t="s">
         <v>304</v>
       </c>
@@ -7494,7 +7494,7 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="140"/>
+      <c r="B78" s="134"/>
       <c r="C78" s="38" t="s">
         <v>306</v>
       </c>
@@ -7509,7 +7509,7 @@
       </c>
     </row>
     <row r="79" spans="2:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="140"/>
+      <c r="B79" s="134"/>
       <c r="C79" s="38" t="s">
         <v>484</v>
       </c>
@@ -7524,7 +7524,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" ht="96.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="141"/>
+      <c r="B80" s="135"/>
       <c r="C80" s="38" t="s">
         <v>309</v>
       </c>
@@ -7539,7 +7539,7 @@
       </c>
     </row>
     <row r="81" spans="2:6" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="139" t="s">
+      <c r="B81" s="133" t="s">
         <v>33</v>
       </c>
       <c r="C81" s="38" t="s">
@@ -7556,7 +7556,7 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="72.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="140"/>
+      <c r="B82" s="134"/>
       <c r="C82" s="38" t="s">
         <v>288</v>
       </c>
@@ -7571,7 +7571,7 @@
       </c>
     </row>
     <row r="83" spans="2:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="140"/>
+      <c r="B83" s="134"/>
       <c r="C83" s="38" t="s">
         <v>304</v>
       </c>
@@ -7586,7 +7586,7 @@
       </c>
     </row>
     <row r="84" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="140"/>
+      <c r="B84" s="134"/>
       <c r="C84" s="38" t="s">
         <v>483</v>
       </c>
@@ -7601,7 +7601,7 @@
       </c>
     </row>
     <row r="85" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="140"/>
+      <c r="B85" s="134"/>
       <c r="C85" s="38" t="s">
         <v>484</v>
       </c>
@@ -7616,7 +7616,7 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="141"/>
+      <c r="B86" s="135"/>
       <c r="C86" s="38" t="s">
         <v>309</v>
       </c>
@@ -7631,16 +7631,16 @@
       </c>
     </row>
     <row r="87" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="133" t="s">
+      <c r="B87" s="150" t="s">
         <v>168</v>
       </c>
-      <c r="C87" s="134"/>
-      <c r="D87" s="134"/>
-      <c r="E87" s="134"/>
-      <c r="F87" s="135"/>
+      <c r="C87" s="151"/>
+      <c r="D87" s="151"/>
+      <c r="E87" s="151"/>
+      <c r="F87" s="154"/>
     </row>
     <row r="88" spans="2:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="B88" s="139" t="s">
+      <c r="B88" s="133" t="s">
         <v>44</v>
       </c>
       <c r="C88" s="38" t="s">
@@ -7657,7 +7657,7 @@
       </c>
     </row>
     <row r="89" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="141"/>
+      <c r="B89" s="135"/>
       <c r="C89" s="38" t="s">
         <v>488</v>
       </c>
@@ -7672,7 +7672,7 @@
       </c>
     </row>
     <row r="90" spans="2:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="139" t="s">
+      <c r="B90" s="133" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="38" t="s">
@@ -7689,7 +7689,7 @@
       </c>
     </row>
     <row r="91" spans="2:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="141"/>
+      <c r="B91" s="135"/>
       <c r="C91" s="38" t="s">
         <v>327</v>
       </c>
@@ -7704,7 +7704,7 @@
       </c>
     </row>
     <row r="92" spans="2:6" ht="51.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="139" t="s">
+      <c r="B92" s="133" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="32" t="s">
@@ -7721,7 +7721,7 @@
       </c>
     </row>
     <row r="93" spans="2:6" ht="52.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="140"/>
+      <c r="B93" s="134"/>
       <c r="C93" s="32" t="s">
         <v>339</v>
       </c>
@@ -7736,7 +7736,7 @@
       </c>
     </row>
     <row r="94" spans="2:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="140"/>
+      <c r="B94" s="134"/>
       <c r="C94" s="32" t="s">
         <v>340</v>
       </c>
@@ -7751,7 +7751,7 @@
       </c>
     </row>
     <row r="95" spans="2:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="140"/>
+      <c r="B95" s="134"/>
       <c r="C95" s="32" t="s">
         <v>343</v>
       </c>
@@ -7766,7 +7766,7 @@
       </c>
     </row>
     <row r="96" spans="2:6" ht="56.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="140"/>
+      <c r="B96" s="134"/>
       <c r="C96" s="32" t="s">
         <v>346</v>
       </c>
@@ -7781,7 +7781,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="140"/>
+      <c r="B97" s="134"/>
       <c r="C97" s="32" t="s">
         <v>490</v>
       </c>
@@ -7796,7 +7796,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="141"/>
+      <c r="B98" s="135"/>
       <c r="C98" s="32" t="s">
         <v>491</v>
       </c>
@@ -7811,7 +7811,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" s="48" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="157" t="s">
+      <c r="B99" s="147" t="s">
         <v>131</v>
       </c>
       <c r="C99" s="32" t="s">
@@ -7828,7 +7828,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="158"/>
+      <c r="B100" s="148"/>
       <c r="C100" s="32" t="s">
         <v>351</v>
       </c>
@@ -7843,7 +7843,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B101" s="158"/>
+      <c r="B101" s="148"/>
       <c r="C101" s="54" t="s">
         <v>493</v>
       </c>
@@ -7858,7 +7858,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="159"/>
+      <c r="B102" s="149"/>
       <c r="C102" s="54" t="s">
         <v>444</v>
       </c>
@@ -7873,13 +7873,13 @@
       </c>
     </row>
     <row r="103" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B103" s="133" t="s">
+      <c r="B103" s="150" t="s">
         <v>355</v>
       </c>
-      <c r="C103" s="134"/>
-      <c r="D103" s="134"/>
-      <c r="E103" s="134"/>
-      <c r="F103" s="135"/>
+      <c r="C103" s="151"/>
+      <c r="D103" s="151"/>
+      <c r="E103" s="151"/>
+      <c r="F103" s="154"/>
       <c r="H103" s="25" t="s">
         <v>448</v>
       </c>
@@ -7902,7 +7902,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B105" s="139" t="s">
+      <c r="B105" s="133" t="s">
         <v>46</v>
       </c>
       <c r="C105" s="38" t="s">
@@ -7919,7 +7919,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B106" s="140"/>
+      <c r="B106" s="134"/>
       <c r="C106" s="38" t="s">
         <v>359</v>
       </c>
@@ -7934,7 +7934,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" ht="83.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="140"/>
+      <c r="B107" s="134"/>
       <c r="C107" s="38" t="s">
         <v>360</v>
       </c>
@@ -7949,7 +7949,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="140"/>
+      <c r="B108" s="134"/>
       <c r="C108" s="38" t="s">
         <v>496</v>
       </c>
@@ -7964,7 +7964,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="140"/>
+      <c r="B109" s="134"/>
       <c r="C109" s="38" t="s">
         <v>365</v>
       </c>
@@ -7979,7 +7979,7 @@
       </c>
     </row>
     <row r="110" spans="2:8" ht="104.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B110" s="140"/>
+      <c r="B110" s="134"/>
       <c r="C110" s="38" t="s">
         <v>371</v>
       </c>
@@ -7994,7 +7994,7 @@
       </c>
     </row>
     <row r="111" spans="2:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B111" s="140"/>
+      <c r="B111" s="134"/>
       <c r="C111" s="38" t="s">
         <v>372</v>
       </c>
@@ -8009,7 +8009,7 @@
       </c>
     </row>
     <row r="112" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="140"/>
+      <c r="B112" s="134"/>
       <c r="C112" s="38" t="s">
         <v>374</v>
       </c>
@@ -8024,7 +8024,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" ht="98.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B113" s="140"/>
+      <c r="B113" s="134"/>
       <c r="C113" s="38" t="s">
         <v>375</v>
       </c>
@@ -8039,7 +8039,7 @@
       </c>
     </row>
     <row r="114" spans="2:6" ht="96.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B114" s="144" t="s">
+      <c r="B114" s="145" t="s">
         <v>149</v>
       </c>
       <c r="C114" s="32" t="s">
@@ -8056,7 +8056,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B115" s="145"/>
+      <c r="B115" s="146"/>
       <c r="C115" s="32" t="s">
         <v>381</v>
       </c>
@@ -8071,16 +8071,16 @@
       </c>
     </row>
     <row r="116" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B116" s="133" t="s">
+      <c r="B116" s="150" t="s">
         <v>170</v>
       </c>
-      <c r="C116" s="134"/>
-      <c r="D116" s="134"/>
-      <c r="E116" s="134"/>
-      <c r="F116" s="134"/>
+      <c r="C116" s="151"/>
+      <c r="D116" s="151"/>
+      <c r="E116" s="151"/>
+      <c r="F116" s="151"/>
     </row>
     <row r="117" spans="2:6" ht="92.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B117" s="139" t="s">
+      <c r="B117" s="133" t="s">
         <v>35</v>
       </c>
       <c r="C117" s="38" t="s">
@@ -8097,7 +8097,7 @@
       </c>
     </row>
     <row r="118" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="140"/>
+      <c r="B118" s="134"/>
       <c r="C118" s="38" t="s">
         <v>384</v>
       </c>
@@ -8112,7 +8112,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="140"/>
+      <c r="B119" s="134"/>
       <c r="C119" s="38" t="s">
         <v>392</v>
       </c>
@@ -8127,7 +8127,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B120" s="140"/>
+      <c r="B120" s="134"/>
       <c r="C120" s="38" t="s">
         <v>393</v>
       </c>
@@ -8142,7 +8142,7 @@
       </c>
     </row>
     <row r="121" spans="2:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B121" s="141"/>
+      <c r="B121" s="135"/>
       <c r="C121" s="38" t="s">
         <v>394</v>
       </c>
@@ -8157,7 +8157,7 @@
       </c>
     </row>
     <row r="122" spans="2:6" ht="87.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="156" t="s">
+      <c r="B122" s="144" t="s">
         <v>173</v>
       </c>
       <c r="C122" s="38" t="s">
@@ -8174,7 +8174,7 @@
       </c>
     </row>
     <row r="123" spans="2:6" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B123" s="144"/>
+      <c r="B123" s="145"/>
       <c r="C123" s="38" t="s">
         <v>402</v>
       </c>
@@ -8189,7 +8189,7 @@
       </c>
     </row>
     <row r="124" spans="2:6" ht="120.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B124" s="145"/>
+      <c r="B124" s="146"/>
       <c r="C124" s="38" t="s">
         <v>405</v>
       </c>
@@ -8204,16 +8204,16 @@
       </c>
     </row>
     <row r="125" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="133" t="s">
+      <c r="B125" s="150" t="s">
         <v>176</v>
       </c>
-      <c r="C125" s="134"/>
-      <c r="D125" s="134"/>
-      <c r="E125" s="134"/>
-      <c r="F125" s="135"/>
+      <c r="C125" s="151"/>
+      <c r="D125" s="151"/>
+      <c r="E125" s="151"/>
+      <c r="F125" s="154"/>
     </row>
     <row r="126" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B126" s="139" t="s">
+      <c r="B126" s="133" t="s">
         <v>47</v>
       </c>
       <c r="C126" s="38" t="s">
@@ -8230,7 +8230,7 @@
       </c>
     </row>
     <row r="127" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B127" s="140"/>
+      <c r="B127" s="134"/>
       <c r="C127" s="58" t="s">
         <v>409</v>
       </c>
@@ -8245,7 +8245,7 @@
       </c>
     </row>
     <row r="128" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B128" s="140"/>
+      <c r="B128" s="134"/>
       <c r="C128" s="38" t="s">
         <v>503</v>
       </c>
@@ -8260,7 +8260,7 @@
       </c>
     </row>
     <row r="129" spans="2:6" ht="77.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B129" s="141"/>
+      <c r="B129" s="135"/>
       <c r="C129" s="38" t="s">
         <v>414</v>
       </c>
@@ -8275,16 +8275,16 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B130" s="133" t="s">
+      <c r="B130" s="150" t="s">
         <v>177</v>
       </c>
-      <c r="C130" s="134"/>
-      <c r="D130" s="134"/>
-      <c r="E130" s="134"/>
-      <c r="F130" s="135"/>
+      <c r="C130" s="151"/>
+      <c r="D130" s="151"/>
+      <c r="E130" s="151"/>
+      <c r="F130" s="154"/>
     </row>
     <row r="131" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B131" s="139" t="s">
+      <c r="B131" s="133" t="s">
         <v>36</v>
       </c>
       <c r="C131" s="38" t="s">
@@ -8301,7 +8301,7 @@
       </c>
     </row>
     <row r="132" spans="2:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B132" s="140"/>
+      <c r="B132" s="134"/>
       <c r="C132" s="38" t="s">
         <v>430</v>
       </c>
@@ -8316,7 +8316,7 @@
       </c>
     </row>
     <row r="133" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="140"/>
+      <c r="B133" s="134"/>
       <c r="C133" s="38" t="s">
         <v>431</v>
       </c>
@@ -8331,7 +8331,7 @@
       </c>
     </row>
     <row r="134" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B134" s="141"/>
+      <c r="B134" s="135"/>
       <c r="C134" s="38" t="s">
         <v>504</v>
       </c>
@@ -8346,7 +8346,7 @@
       </c>
     </row>
     <row r="135" spans="2:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B135" s="139" t="s">
+      <c r="B135" s="133" t="s">
         <v>505</v>
       </c>
       <c r="C135" s="38" t="s">
@@ -8363,7 +8363,7 @@
       </c>
     </row>
     <row r="136" spans="2:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B136" s="140"/>
+      <c r="B136" s="134"/>
       <c r="C136" s="38" t="s">
         <v>435</v>
       </c>
@@ -8376,7 +8376,7 @@
       <c r="F136" s="137"/>
     </row>
     <row r="137" spans="2:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B137" s="140"/>
+      <c r="B137" s="134"/>
       <c r="C137" s="38" t="s">
         <v>436</v>
       </c>
@@ -8389,7 +8389,7 @@
       <c r="F137" s="137"/>
     </row>
     <row r="138" spans="2:6" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B138" s="140"/>
+      <c r="B138" s="134"/>
       <c r="C138" s="38" t="s">
         <v>437</v>
       </c>
@@ -8402,7 +8402,7 @@
       <c r="F138" s="137"/>
     </row>
     <row r="139" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B139" s="140"/>
+      <c r="B139" s="134"/>
       <c r="C139" s="38" t="s">
         <v>438</v>
       </c>
@@ -8415,7 +8415,7 @@
       <c r="F139" s="137"/>
     </row>
     <row r="140" spans="2:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B140" s="140"/>
+      <c r="B140" s="134"/>
       <c r="C140" s="38" t="s">
         <v>439</v>
       </c>
@@ -8428,7 +8428,7 @@
       <c r="F140" s="137"/>
     </row>
     <row r="141" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B141" s="141"/>
+      <c r="B141" s="135"/>
       <c r="C141" s="60" t="s">
         <v>440</v>
       </c>
@@ -8442,23 +8442,11 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="B105:B113"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="F135:F141"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B131:B134"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B114:B115"/>
@@ -8475,11 +8463,23 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="F135:F141"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B105:B113"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B60:B61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="26" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8503,7 +8503,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="46.5" x14ac:dyDescent="0.7"/>
@@ -8524,92 +8524,92 @@
       <c r="A1" s="130" t="s">
         <v>630</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="165" t="s">
+      <c r="B1" s="230"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="166"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="165" t="s">
+      <c r="E1" s="233"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="232" t="s">
         <v>629</v>
       </c>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="168" t="s">
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="234"/>
+      <c r="O1" s="234"/>
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="235" t="s">
         <v>641</v>
       </c>
-      <c r="S1" s="168"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="170" t="s">
+      <c r="S1" s="235"/>
+      <c r="T1" s="234"/>
+      <c r="U1" s="234"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="237" t="s">
         <v>631</v>
       </c>
-      <c r="X1" s="171"/>
+      <c r="X1" s="238"/>
       <c r="Y1" s="131"/>
       <c r="Z1" s="132" t="s">
         <v>632</v>
       </c>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="167"/>
-      <c r="AC1" s="226" t="s">
+      <c r="AA1" s="234"/>
+      <c r="AB1" s="234"/>
+      <c r="AC1" s="177" t="s">
         <v>638</v>
       </c>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="227"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="183" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228"/>
-      <c r="O2" s="228"/>
-      <c r="P2" s="228"/>
-      <c r="Q2" s="228"/>
-      <c r="R2" s="228"/>
-      <c r="S2" s="228"/>
-      <c r="T2" s="228"/>
-      <c r="U2" s="228"/>
-      <c r="V2" s="228"/>
-      <c r="W2" s="228"/>
-      <c r="X2" s="228"/>
-      <c r="Y2" s="228"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="228"/>
-      <c r="AB2" s="228"/>
-      <c r="AC2" s="228"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="183"/>
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="183"/>
       <c r="AD2" s="67"/>
     </row>
     <row r="3" spans="1:32" s="7" customFormat="1" ht="86.25" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
       <c r="G3" s="7" t="s">
         <v>1</v>
       </c>
@@ -8655,119 +8655,119 @@
       <c r="AD4" s="71"/>
     </row>
     <row r="5" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="237"/>
-      <c r="L5" s="237"/>
-      <c r="M5" s="237"/>
-      <c r="N5" s="237"/>
-      <c r="O5" s="237"/>
-      <c r="P5" s="237"/>
-      <c r="Q5" s="237"/>
-      <c r="R5" s="237"/>
-      <c r="S5" s="237"/>
-      <c r="T5" s="237"/>
-      <c r="U5" s="237"/>
-      <c r="V5" s="237"/>
-      <c r="W5" s="237"/>
-      <c r="X5" s="237"/>
-      <c r="Y5" s="237"/>
-      <c r="Z5" s="237"/>
-      <c r="AA5" s="237"/>
-      <c r="AB5" s="237"/>
-      <c r="AC5" s="237"/>
-      <c r="AD5" s="237"/>
-      <c r="AE5" s="237"/>
-      <c r="AF5" s="237"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="166"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="166"/>
+      <c r="U5" s="166"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="166"/>
+      <c r="X5" s="166"/>
+      <c r="Y5" s="166"/>
+      <c r="Z5" s="166"/>
+      <c r="AA5" s="166"/>
+      <c r="AB5" s="166"/>
+      <c r="AC5" s="166"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="166"/>
+      <c r="AF5" s="166"/>
     </row>
     <row r="6" spans="1:32" s="24" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A6" s="222" t="s">
+      <c r="A6" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="222" t="s">
+      <c r="B6" s="227" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="221" t="s">
+      <c r="C6" s="226" t="s">
         <v>508</v>
       </c>
-      <c r="D6" s="210" t="s">
+      <c r="D6" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="211"/>
-      <c r="F6" s="212" t="s">
+      <c r="E6" s="182"/>
+      <c r="F6" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="211"/>
-      <c r="H6" s="212" t="s">
+      <c r="G6" s="182"/>
+      <c r="H6" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="211"/>
-      <c r="J6" s="212" t="s">
+      <c r="I6" s="182"/>
+      <c r="J6" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="211"/>
-      <c r="L6" s="212" t="s">
+      <c r="K6" s="182"/>
+      <c r="L6" s="181" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="211"/>
-      <c r="N6" s="212" t="s">
+      <c r="M6" s="182"/>
+      <c r="N6" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="211"/>
-      <c r="P6" s="212" t="s">
+      <c r="O6" s="182"/>
+      <c r="P6" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="211"/>
-      <c r="R6" s="212" t="s">
+      <c r="Q6" s="182"/>
+      <c r="R6" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="211"/>
-      <c r="T6" s="212" t="s">
+      <c r="S6" s="182"/>
+      <c r="T6" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="211"/>
-      <c r="V6" s="212" t="s">
+      <c r="U6" s="182"/>
+      <c r="V6" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="211"/>
-      <c r="X6" s="212" t="s">
+      <c r="W6" s="182"/>
+      <c r="X6" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="211"/>
-      <c r="Z6" s="212" t="s">
+      <c r="Y6" s="182"/>
+      <c r="Z6" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="211"/>
-      <c r="AB6" s="209" t="s">
+      <c r="AA6" s="182"/>
+      <c r="AB6" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="AC6" s="223" t="s">
+      <c r="AC6" s="189" t="s">
         <v>628</v>
       </c>
-      <c r="AD6" s="186" t="s">
+      <c r="AD6" s="173" t="s">
         <v>639</v>
       </c>
-      <c r="AE6" s="172" t="s">
+      <c r="AE6" s="165" t="s">
         <v>640</v>
       </c>
-      <c r="AF6" s="172" t="s">
+      <c r="AF6" s="165" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:32" s="24" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A7" s="222"/>
-      <c r="B7" s="222"/>
-      <c r="C7" s="221"/>
+      <c r="A7" s="227"/>
+      <c r="B7" s="227"/>
+      <c r="C7" s="226"/>
       <c r="D7" s="74" t="s">
         <v>14</v>
       </c>
@@ -8840,14 +8840,14 @@
       <c r="AA7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB7" s="209"/>
-      <c r="AC7" s="197"/>
-      <c r="AD7" s="186"/>
-      <c r="AE7" s="172"/>
-      <c r="AF7" s="172"/>
+      <c r="AB7" s="199"/>
+      <c r="AC7" s="190"/>
+      <c r="AD7" s="173"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="165"/>
     </row>
     <row r="8" spans="1:32" s="10" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A8" s="229" t="s">
+      <c r="A8" s="185" t="s">
         <v>141</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -8884,7 +8884,7 @@
         <f t="shared" ref="AB8:AB12" si="0">SUM(D8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="224" t="str">
+      <c r="AC8" s="170" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D9&gt;D8," * F01-02 " &amp;D6&amp;" "&amp; D7&amp; " is more than F01-01"&amp;CHAR(10),""),IF(E9&gt;E8," * F01-02 " &amp;D6&amp;" "&amp; E7&amp; " is more than F01-01"&amp;CHAR(10),""),
@@ -8903,18 +8903,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD8" s="235" t="str">
+      <c r="AD8" s="176" t="str">
         <f>CONCATENATE(AC8,AC10,AC11,AC12,AC14,AC15,AC16,AC17,AC19,AC21,AC23,AC25,AC27,AC29,AC31,AC33,AC35)</f>
         <v/>
       </c>
       <c r="AE8" s="117"/>
-      <c r="AF8" s="236" t="str">
+      <c r="AF8" s="164" t="str">
         <f>CONCATENATE(AE8,AE9,AE10,AE11,AE12,AE13,AE14,AE15,AE16,AE17,AE18,AE19,AE20,AE21,AE22,AE23,AE24,AE25,AE26,AE27,AE28,AE29,AE30,AE31,AE32,AE33,AE34,AE35,AE36)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:32" s="10" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A9" s="230"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="15" t="s">
         <v>507</v>
       </c>
@@ -8949,13 +8949,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="225"/>
-      <c r="AD9" s="235"/>
+      <c r="AC9" s="171"/>
+      <c r="AD9" s="176"/>
       <c r="AE9" s="117"/>
-      <c r="AF9" s="236"/>
+      <c r="AF9" s="164"/>
     </row>
     <row r="10" spans="1:32" s="10" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A10" s="230"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="15" t="s">
         <v>509</v>
       </c>
@@ -9009,12 +9009,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD10" s="235"/>
+      <c r="AD10" s="176"/>
       <c r="AE10" s="117"/>
-      <c r="AF10" s="236"/>
+      <c r="AF10" s="164"/>
     </row>
     <row r="11" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="230"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="15" t="s">
         <v>510</v>
       </c>
@@ -9050,12 +9050,12 @@
         <v>0</v>
       </c>
       <c r="AC11" s="111"/>
-      <c r="AD11" s="235"/>
+      <c r="AD11" s="176"/>
       <c r="AE11" s="117"/>
-      <c r="AF11" s="236"/>
+      <c r="AF11" s="164"/>
     </row>
     <row r="12" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="230"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="15" t="s">
         <v>511</v>
       </c>
@@ -9090,7 +9090,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="224" t="str">
+      <c r="AC12" s="170" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D13&gt;D12," * Positive F01-06 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested  F01-05"&amp;CHAR(10),""),IF(E13&gt;E12," * Positive F01-06 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested  F01-05"&amp;CHAR(10),""),
@@ -9109,7 +9109,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD12" s="235"/>
+      <c r="AD12" s="176"/>
       <c r="AE12" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9117,10 +9117,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF12" s="236"/>
+      <c r="AF12" s="164"/>
     </row>
     <row r="13" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="230"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="15" t="s">
         <v>512</v>
       </c>
@@ -9155,13 +9155,13 @@
         <f>SUM(D13:AA13)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="225"/>
-      <c r="AD13" s="235"/>
+      <c r="AC13" s="171"/>
+      <c r="AD13" s="176"/>
       <c r="AE13" s="117"/>
-      <c r="AF13" s="236"/>
+      <c r="AF13" s="164"/>
     </row>
     <row r="14" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="230"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="15" t="s">
         <v>513</v>
       </c>
@@ -9197,12 +9197,12 @@
         <v>0</v>
       </c>
       <c r="AC14" s="111"/>
-      <c r="AD14" s="235"/>
+      <c r="AD14" s="176"/>
       <c r="AE14" s="117"/>
-      <c r="AF14" s="236"/>
+      <c r="AF14" s="164"/>
     </row>
     <row r="15" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="230"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="15" t="s">
         <v>514</v>
       </c>
@@ -9238,12 +9238,12 @@
         <v>0</v>
       </c>
       <c r="AC15" s="111"/>
-      <c r="AD15" s="235"/>
+      <c r="AD15" s="176"/>
       <c r="AE15" s="117"/>
-      <c r="AF15" s="236"/>
+      <c r="AF15" s="164"/>
     </row>
     <row r="16" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="230"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="15" t="s">
         <v>515</v>
       </c>
@@ -9279,12 +9279,12 @@
         <v>0</v>
       </c>
       <c r="AC16" s="111"/>
-      <c r="AD16" s="235"/>
+      <c r="AD16" s="176"/>
       <c r="AE16" s="117"/>
-      <c r="AF16" s="236"/>
+      <c r="AF16" s="164"/>
     </row>
     <row r="17" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="184" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -9321,7 +9321,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="224" t="str">
+      <c r="AC17" s="170" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D18&gt;D17," * Positive F01-11 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested  F01-10"&amp;CHAR(10),""),IF(E18&gt;E17," * Positive F01-11 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested  F01-10"&amp;CHAR(10),""),
@@ -9340,7 +9340,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD17" s="235"/>
+      <c r="AD17" s="176"/>
       <c r="AE17" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9348,10 +9348,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF17" s="236"/>
+      <c r="AF17" s="164"/>
     </row>
     <row r="18" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="188"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="15" t="s">
         <v>517</v>
       </c>
@@ -9386,13 +9386,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="225"/>
-      <c r="AD18" s="235"/>
+      <c r="AC18" s="171"/>
+      <c r="AD18" s="176"/>
       <c r="AE18" s="117"/>
-      <c r="AF18" s="236"/>
+      <c r="AF18" s="164"/>
     </row>
     <row r="19" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="188" t="s">
+      <c r="A19" s="184" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -9429,7 +9429,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="224" t="str">
+      <c r="AC19" s="170" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D20&gt;D19," * Positive F01-13 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-12"&amp;CHAR(10),""),IF(E20&gt;E19," * Positive F01-13 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-12"&amp;CHAR(10),""),
@@ -9448,7 +9448,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD19" s="235"/>
+      <c r="AD19" s="176"/>
       <c r="AE19" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9456,10 +9456,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF19" s="236"/>
+      <c r="AF19" s="164"/>
     </row>
     <row r="20" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="188"/>
+      <c r="A20" s="184"/>
       <c r="B20" s="15" t="s">
         <v>519</v>
       </c>
@@ -9494,8 +9494,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="225"/>
-      <c r="AD20" s="235"/>
+      <c r="AC20" s="171"/>
+      <c r="AD20" s="176"/>
       <c r="AE20" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9510,10 +9510,10 @@
 "")</f>
         <v/>
       </c>
-      <c r="AF20" s="236"/>
+      <c r="AF20" s="164"/>
     </row>
     <row r="21" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="184" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -9550,7 +9550,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="224" t="str">
+      <c r="AC21" s="170" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D22&gt;D21," * Positive F01-15 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-14"&amp;CHAR(10),""),IF(E22&gt;E21," * Positive F01-15 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-14"&amp;CHAR(10),""),
@@ -9569,7 +9569,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD21" s="235"/>
+      <c r="AD21" s="176"/>
       <c r="AE21" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9577,10 +9577,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF21" s="236"/>
+      <c r="AF21" s="164"/>
     </row>
     <row r="22" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A22" s="188"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="15" t="s">
         <v>519</v>
       </c>
@@ -9615,13 +9615,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="225"/>
-      <c r="AD22" s="235"/>
+      <c r="AC22" s="171"/>
+      <c r="AD22" s="176"/>
       <c r="AE22" s="117"/>
-      <c r="AF22" s="236"/>
+      <c r="AF22" s="164"/>
     </row>
     <row r="23" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A23" s="188" t="s">
+      <c r="A23" s="184" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -9658,7 +9658,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="224" t="str">
+      <c r="AC23" s="170" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D24&gt;D23," * Positive F01-17 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-16"&amp;CHAR(10),""),IF(E24&gt;E23," * Positive F01-17 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-16"&amp;CHAR(10),""),
@@ -9677,7 +9677,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD23" s="235"/>
+      <c r="AD23" s="176"/>
       <c r="AE23" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9685,10 +9685,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF23" s="236"/>
+      <c r="AF23" s="164"/>
     </row>
     <row r="24" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A24" s="188"/>
+      <c r="A24" s="184"/>
       <c r="B24" s="15" t="s">
         <v>519</v>
       </c>
@@ -9723,13 +9723,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="225"/>
-      <c r="AD24" s="235"/>
+      <c r="AC24" s="171"/>
+      <c r="AD24" s="176"/>
       <c r="AE24" s="117"/>
-      <c r="AF24" s="236"/>
+      <c r="AF24" s="164"/>
     </row>
     <row r="25" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="184" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -9766,7 +9766,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="224" t="str">
+      <c r="AC25" s="170" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D26&gt;D25," * Positive F01-19 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-18"&amp;CHAR(10),""),IF(E26&gt;E25," * Positive F01-19 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-18"&amp;CHAR(10),""),
@@ -9785,7 +9785,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD25" s="235"/>
+      <c r="AD25" s="176"/>
       <c r="AE25" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9793,10 +9793,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF25" s="236"/>
+      <c r="AF25" s="164"/>
     </row>
     <row r="26" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A26" s="188"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="15" t="s">
         <v>519</v>
       </c>
@@ -9831,13 +9831,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="225"/>
-      <c r="AD26" s="235"/>
+      <c r="AC26" s="171"/>
+      <c r="AD26" s="176"/>
       <c r="AE26" s="117"/>
-      <c r="AF26" s="236"/>
+      <c r="AF26" s="164"/>
     </row>
     <row r="27" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A27" s="188" t="s">
+      <c r="A27" s="184" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -9874,7 +9874,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="224" t="str">
+      <c r="AC27" s="170" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D28&gt;D27," * Positive F01-21 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-20"&amp;CHAR(10),""),IF(E28&gt;E27," * Positive F01-21 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-20"&amp;CHAR(10),""),
@@ -9893,7 +9893,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD27" s="235"/>
+      <c r="AD27" s="176"/>
       <c r="AE27" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9901,10 +9901,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF27" s="236"/>
+      <c r="AF27" s="164"/>
     </row>
     <row r="28" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A28" s="188"/>
+      <c r="A28" s="184"/>
       <c r="B28" s="15" t="s">
         <v>519</v>
       </c>
@@ -9939,13 +9939,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="225"/>
-      <c r="AD28" s="235"/>
+      <c r="AC28" s="171"/>
+      <c r="AD28" s="176"/>
       <c r="AE28" s="117"/>
-      <c r="AF28" s="236"/>
+      <c r="AF28" s="164"/>
     </row>
     <row r="29" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A29" s="188" t="s">
+      <c r="A29" s="184" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -9982,7 +9982,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="224" t="str">
+      <c r="AC29" s="170" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D30&gt;D29," * Positive F01-23 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-22"&amp;CHAR(10),""),IF(E30&gt;E29," * Positive F01-23 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-22"&amp;CHAR(10),""),
@@ -10001,7 +10001,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD29" s="235"/>
+      <c r="AD29" s="176"/>
       <c r="AE29" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10009,10 +10009,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF29" s="236"/>
+      <c r="AF29" s="164"/>
     </row>
     <row r="30" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A30" s="188"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="15" t="s">
         <v>519</v>
       </c>
@@ -10047,13 +10047,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="225"/>
-      <c r="AD30" s="235"/>
+      <c r="AC30" s="171"/>
+      <c r="AD30" s="176"/>
       <c r="AE30" s="117"/>
-      <c r="AF30" s="236"/>
+      <c r="AF30" s="164"/>
     </row>
     <row r="31" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A31" s="188" t="s">
+      <c r="A31" s="184" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -10090,7 +10090,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="224" t="str">
+      <c r="AC31" s="170" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D32&gt;D31," * Positive F01-25 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-24"&amp;CHAR(10),""),IF(E32&gt;E31," * Positive F01-25 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-24"&amp;CHAR(10),""),
@@ -10109,7 +10109,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD31" s="235"/>
+      <c r="AD31" s="176"/>
       <c r="AE31" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10117,10 +10117,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF31" s="236"/>
+      <c r="AF31" s="164"/>
     </row>
     <row r="32" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A32" s="188"/>
+      <c r="A32" s="184"/>
       <c r="B32" s="15" t="s">
         <v>519</v>
       </c>
@@ -10155,13 +10155,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="225"/>
-      <c r="AD32" s="235"/>
+      <c r="AC32" s="171"/>
+      <c r="AD32" s="176"/>
       <c r="AE32" s="117"/>
-      <c r="AF32" s="236"/>
+      <c r="AF32" s="164"/>
     </row>
     <row r="33" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A33" s="177" t="s">
+      <c r="A33" s="200" t="s">
         <v>133</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -10198,7 +10198,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="224" t="str">
+      <c r="AC33" s="170" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D34&gt;D33," * Positive F01-27 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-26"&amp;CHAR(10),""),IF(E34&gt;E33," * Positive F01-27 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-26"&amp;CHAR(10),""),
@@ -10217,7 +10217,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD33" s="235"/>
+      <c r="AD33" s="176"/>
       <c r="AE33" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10225,10 +10225,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF33" s="236"/>
+      <c r="AF33" s="164"/>
     </row>
     <row r="34" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A34" s="178"/>
+      <c r="A34" s="201"/>
       <c r="B34" s="15" t="s">
         <v>519</v>
       </c>
@@ -10263,13 +10263,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="225"/>
-      <c r="AD34" s="235"/>
+      <c r="AC34" s="171"/>
+      <c r="AD34" s="176"/>
       <c r="AE34" s="117"/>
-      <c r="AF34" s="236"/>
+      <c r="AF34" s="164"/>
     </row>
     <row r="35" spans="1:32" s="18" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A35" s="219" t="s">
+      <c r="A35" s="209" t="s">
         <v>157</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -10378,7 +10378,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="224" t="str">
+      <c r="AC35" s="170" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D36&gt;D35," * Totals HTS Positive F01-29 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Total Tested F01-28"&amp;CHAR(10),""),IF(E36&gt;E35," * Totals HTS Positive F01-29 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Total Tested F01-28"&amp;CHAR(10),""),
@@ -10397,7 +10397,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD35" s="235"/>
+      <c r="AD35" s="176"/>
       <c r="AE35" s="118" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10405,10 +10405,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF35" s="236"/>
+      <c r="AF35" s="164"/>
     </row>
     <row r="36" spans="1:32" s="18" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A36" s="220"/>
+      <c r="A36" s="210"/>
       <c r="B36" s="107" t="s">
         <v>522</v>
       </c>
@@ -10515,8 +10515,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC36" s="234"/>
-      <c r="AD36" s="235"/>
+      <c r="AC36" s="172"/>
+      <c r="AD36" s="176"/>
       <c r="AE36" s="118" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10524,122 +10524,122 @@
 )</f>
         <v/>
       </c>
-      <c r="AF36" s="236"/>
+      <c r="AF36" s="164"/>
     </row>
     <row r="37" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A37" s="238" t="s">
+      <c r="A37" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="238"/>
-      <c r="C37" s="238"/>
-      <c r="D37" s="238"/>
-      <c r="E37" s="238"/>
-      <c r="F37" s="238"/>
-      <c r="G37" s="238"/>
-      <c r="H37" s="238"/>
-      <c r="I37" s="238"/>
-      <c r="J37" s="238"/>
-      <c r="K37" s="238"/>
-      <c r="L37" s="238"/>
-      <c r="M37" s="238"/>
-      <c r="N37" s="238"/>
-      <c r="O37" s="238"/>
-      <c r="P37" s="238"/>
-      <c r="Q37" s="238"/>
-      <c r="R37" s="238"/>
-      <c r="S37" s="238"/>
-      <c r="T37" s="238"/>
-      <c r="U37" s="238"/>
-      <c r="V37" s="238"/>
-      <c r="W37" s="238"/>
-      <c r="X37" s="238"/>
-      <c r="Y37" s="238"/>
-      <c r="Z37" s="238"/>
-      <c r="AA37" s="238"/>
-      <c r="AB37" s="238"/>
-      <c r="AC37" s="238"/>
-      <c r="AD37" s="238"/>
-      <c r="AE37" s="238"/>
-      <c r="AF37" s="238"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="167"/>
+      <c r="K37" s="167"/>
+      <c r="L37" s="167"/>
+      <c r="M37" s="167"/>
+      <c r="N37" s="167"/>
+      <c r="O37" s="167"/>
+      <c r="P37" s="167"/>
+      <c r="Q37" s="167"/>
+      <c r="R37" s="167"/>
+      <c r="S37" s="167"/>
+      <c r="T37" s="167"/>
+      <c r="U37" s="167"/>
+      <c r="V37" s="167"/>
+      <c r="W37" s="167"/>
+      <c r="X37" s="167"/>
+      <c r="Y37" s="167"/>
+      <c r="Z37" s="167"/>
+      <c r="AA37" s="167"/>
+      <c r="AB37" s="167"/>
+      <c r="AC37" s="167"/>
+      <c r="AD37" s="167"/>
+      <c r="AE37" s="167"/>
+      <c r="AF37" s="167"/>
     </row>
     <row r="38" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A38" s="204" t="s">
+      <c r="A38" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="204" t="s">
+      <c r="B38" s="191" t="s">
         <v>594</v>
       </c>
-      <c r="C38" s="202" t="s">
+      <c r="C38" s="187" t="s">
         <v>508</v>
       </c>
-      <c r="D38" s="213"/>
-      <c r="E38" s="214"/>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="182" t="s">
+      <c r="D38" s="203"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="204"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="198" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="174"/>
-      <c r="L38" s="173" t="s">
+      <c r="K38" s="180"/>
+      <c r="L38" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="174"/>
-      <c r="N38" s="173" t="s">
+      <c r="M38" s="180"/>
+      <c r="N38" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="O38" s="174"/>
-      <c r="P38" s="173" t="s">
+      <c r="O38" s="180"/>
+      <c r="P38" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="Q38" s="174"/>
-      <c r="R38" s="173" t="s">
+      <c r="Q38" s="180"/>
+      <c r="R38" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="S38" s="174"/>
-      <c r="T38" s="173" t="s">
+      <c r="S38" s="180"/>
+      <c r="T38" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="U38" s="174"/>
-      <c r="V38" s="173" t="s">
+      <c r="U38" s="180"/>
+      <c r="V38" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="W38" s="174"/>
-      <c r="X38" s="173" t="s">
+      <c r="W38" s="180"/>
+      <c r="X38" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="Y38" s="174"/>
-      <c r="Z38" s="173" t="s">
+      <c r="Y38" s="180"/>
+      <c r="Z38" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="AA38" s="174"/>
-      <c r="AB38" s="175" t="s">
+      <c r="AA38" s="180"/>
+      <c r="AB38" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AC38" s="186" t="s">
+      <c r="AC38" s="173" t="s">
         <v>628</v>
       </c>
-      <c r="AD38" s="186" t="s">
+      <c r="AD38" s="173" t="s">
         <v>639</v>
       </c>
-      <c r="AE38" s="172" t="s">
+      <c r="AE38" s="165" t="s">
         <v>640</v>
       </c>
-      <c r="AF38" s="172" t="s">
+      <c r="AF38" s="165" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="39" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A39" s="205"/>
-      <c r="B39" s="205"/>
-      <c r="C39" s="203"/>
-      <c r="D39" s="216"/>
-      <c r="E39" s="217"/>
-      <c r="F39" s="217"/>
-      <c r="G39" s="217"/>
-      <c r="H39" s="217"/>
-      <c r="I39" s="218"/>
+      <c r="A39" s="192"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="207"/>
+      <c r="H39" s="207"/>
+      <c r="I39" s="208"/>
       <c r="J39" s="74" t="s">
         <v>14</v>
       </c>
@@ -10694,14 +10694,14 @@
       <c r="AA39" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB39" s="176"/>
-      <c r="AC39" s="186"/>
-      <c r="AD39" s="186"/>
-      <c r="AE39" s="172"/>
-      <c r="AF39" s="172"/>
+      <c r="AB39" s="197"/>
+      <c r="AC39" s="173"/>
+      <c r="AD39" s="173"/>
+      <c r="AE39" s="165"/>
+      <c r="AF39" s="165"/>
     </row>
     <row r="40" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A40" s="188" t="s">
+      <c r="A40" s="184" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -10739,18 +10739,18 @@
         <v>0</v>
       </c>
       <c r="AC40" s="112"/>
-      <c r="AD40" s="183" t="str">
+      <c r="AD40" s="222" t="str">
         <f>CONCATENATE(AC40,AC41,AC42,AC43,AC44)</f>
         <v/>
       </c>
       <c r="AE40" s="117"/>
-      <c r="AF40" s="231" t="str">
+      <c r="AF40" s="163" t="str">
         <f>CONCATENATE(AE40,AE41,AE42,AE43,AE44)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A41" s="188"/>
+      <c r="A41" s="184"/>
       <c r="B41" s="15" t="s">
         <v>222</v>
       </c>
@@ -10786,12 +10786,12 @@
         <v>0</v>
       </c>
       <c r="AC41" s="112"/>
-      <c r="AD41" s="184"/>
+      <c r="AD41" s="225"/>
       <c r="AE41" s="117"/>
-      <c r="AF41" s="231"/>
+      <c r="AF41" s="163"/>
     </row>
     <row r="42" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A42" s="188"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="15" t="s">
         <v>524</v>
       </c>
@@ -10827,12 +10827,12 @@
         <v>0</v>
       </c>
       <c r="AC42" s="112"/>
-      <c r="AD42" s="184"/>
+      <c r="AD42" s="225"/>
       <c r="AE42" s="117"/>
-      <c r="AF42" s="231"/>
+      <c r="AF42" s="163"/>
     </row>
     <row r="43" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A43" s="188"/>
+      <c r="A43" s="184"/>
       <c r="B43" s="15" t="s">
         <v>525</v>
       </c>
@@ -10868,12 +10868,12 @@
         <v>0</v>
       </c>
       <c r="AC43" s="112"/>
-      <c r="AD43" s="184"/>
+      <c r="AD43" s="225"/>
       <c r="AE43" s="117"/>
-      <c r="AF43" s="231"/>
+      <c r="AF43" s="163"/>
     </row>
     <row r="44" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A44" s="177"/>
+      <c r="A44" s="200"/>
       <c r="B44" s="99" t="s">
         <v>526</v>
       </c>
@@ -10909,54 +10909,54 @@
         <v>0</v>
       </c>
       <c r="AC44" s="113"/>
-      <c r="AD44" s="184"/>
+      <c r="AD44" s="225"/>
       <c r="AE44" s="119"/>
-      <c r="AF44" s="231"/>
+      <c r="AF44" s="163"/>
     </row>
     <row r="45" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A45" s="238" t="s">
+      <c r="A45" s="167" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="238"/>
-      <c r="C45" s="238"/>
-      <c r="D45" s="238"/>
-      <c r="E45" s="238"/>
-      <c r="F45" s="238"/>
-      <c r="G45" s="238"/>
-      <c r="H45" s="238"/>
-      <c r="I45" s="238"/>
-      <c r="J45" s="238"/>
-      <c r="K45" s="238"/>
-      <c r="L45" s="238"/>
-      <c r="M45" s="238"/>
-      <c r="N45" s="238"/>
-      <c r="O45" s="238"/>
-      <c r="P45" s="238"/>
-      <c r="Q45" s="238"/>
-      <c r="R45" s="238"/>
-      <c r="S45" s="238"/>
-      <c r="T45" s="238"/>
-      <c r="U45" s="238"/>
-      <c r="V45" s="238"/>
-      <c r="W45" s="238"/>
-      <c r="X45" s="238"/>
-      <c r="Y45" s="238"/>
-      <c r="Z45" s="238"/>
-      <c r="AA45" s="238"/>
-      <c r="AB45" s="238"/>
-      <c r="AC45" s="238"/>
-      <c r="AD45" s="238"/>
-      <c r="AE45" s="238"/>
-      <c r="AF45" s="238"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="167"/>
+      <c r="I45" s="167"/>
+      <c r="J45" s="167"/>
+      <c r="K45" s="167"/>
+      <c r="L45" s="167"/>
+      <c r="M45" s="167"/>
+      <c r="N45" s="167"/>
+      <c r="O45" s="167"/>
+      <c r="P45" s="167"/>
+      <c r="Q45" s="167"/>
+      <c r="R45" s="167"/>
+      <c r="S45" s="167"/>
+      <c r="T45" s="167"/>
+      <c r="U45" s="167"/>
+      <c r="V45" s="167"/>
+      <c r="W45" s="167"/>
+      <c r="X45" s="167"/>
+      <c r="Y45" s="167"/>
+      <c r="Z45" s="167"/>
+      <c r="AA45" s="167"/>
+      <c r="AB45" s="167"/>
+      <c r="AC45" s="167"/>
+      <c r="AD45" s="167"/>
+      <c r="AE45" s="167"/>
+      <c r="AF45" s="167"/>
     </row>
     <row r="46" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A46" s="204" t="s">
+      <c r="A46" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="204" t="s">
+      <c r="B46" s="191" t="s">
         <v>594</v>
       </c>
-      <c r="C46" s="202" t="s">
+      <c r="C46" s="187" t="s">
         <v>508</v>
       </c>
       <c r="D46" s="78"/>
@@ -10965,62 +10965,62 @@
       <c r="G46" s="79"/>
       <c r="H46" s="79"/>
       <c r="I46" s="80"/>
-      <c r="J46" s="173" t="s">
+      <c r="J46" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="174"/>
-      <c r="L46" s="173" t="s">
+      <c r="K46" s="180"/>
+      <c r="L46" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="174"/>
-      <c r="N46" s="173" t="s">
+      <c r="M46" s="180"/>
+      <c r="N46" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="O46" s="174"/>
-      <c r="P46" s="173" t="s">
+      <c r="O46" s="180"/>
+      <c r="P46" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="Q46" s="174"/>
-      <c r="R46" s="173" t="s">
+      <c r="Q46" s="180"/>
+      <c r="R46" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="S46" s="174"/>
-      <c r="T46" s="173" t="s">
+      <c r="S46" s="180"/>
+      <c r="T46" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="U46" s="174"/>
-      <c r="V46" s="173" t="s">
+      <c r="U46" s="180"/>
+      <c r="V46" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="W46" s="174"/>
-      <c r="X46" s="173" t="s">
+      <c r="W46" s="180"/>
+      <c r="X46" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="Y46" s="174"/>
-      <c r="Z46" s="173" t="s">
+      <c r="Y46" s="180"/>
+      <c r="Z46" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="AA46" s="174"/>
-      <c r="AB46" s="175" t="s">
+      <c r="AA46" s="180"/>
+      <c r="AB46" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AC46" s="186" t="s">
+      <c r="AC46" s="173" t="s">
         <v>628</v>
       </c>
-      <c r="AD46" s="186" t="s">
+      <c r="AD46" s="173" t="s">
         <v>639</v>
       </c>
-      <c r="AE46" s="172" t="s">
+      <c r="AE46" s="165" t="s">
         <v>640</v>
       </c>
-      <c r="AF46" s="172" t="s">
+      <c r="AF46" s="165" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="47" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A47" s="205"/>
-      <c r="B47" s="205"/>
-      <c r="C47" s="203"/>
+      <c r="A47" s="192"/>
+      <c r="B47" s="192"/>
+      <c r="C47" s="188"/>
       <c r="D47" s="78"/>
       <c r="E47" s="79"/>
       <c r="F47" s="79"/>
@@ -11081,14 +11081,14 @@
       <c r="AA47" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB47" s="176"/>
-      <c r="AC47" s="186"/>
-      <c r="AD47" s="186"/>
-      <c r="AE47" s="172"/>
-      <c r="AF47" s="172"/>
+      <c r="AB47" s="197"/>
+      <c r="AC47" s="173"/>
+      <c r="AD47" s="173"/>
+      <c r="AE47" s="165"/>
+      <c r="AF47" s="165"/>
     </row>
     <row r="48" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A48" s="179" t="s">
+      <c r="A48" s="193" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -11125,7 +11125,7 @@
         <f>SUM(D48:AA48)</f>
         <v>0</v>
       </c>
-      <c r="AC48" s="232" t="str">
+      <c r="AC48" s="168" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D49&gt;D48," * Eligible for PrEP  for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Assessed for HIV risk"&amp;CHAR(10),""),IF(E49&gt;E48," * Eligible for PrEP  for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Assessed for HIV risk"&amp;CHAR(10),""),
@@ -11144,18 +11144,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD48" s="191" t="str">
+      <c r="AD48" s="223" t="str">
         <f>CONCATENATE(AC48,AC50,AC51,AC52,AC53,AC55,AC56,AC57,AC58,AC59,AC60,AC61,AC62,AC63,AC64)</f>
         <v/>
       </c>
       <c r="AE48" s="117"/>
-      <c r="AF48" s="231" t="str">
+      <c r="AF48" s="163" t="str">
         <f>CONCATENATE(AE48,AE49,AE50,AE51,AE52,AE53,AE54,AE55,AE56,AE57,AE58,AE59,AE60,AE61,AE62,AE63,AE64)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A49" s="180"/>
+      <c r="A49" s="194"/>
       <c r="B49" s="15" t="s">
         <v>633</v>
       </c>
@@ -11190,13 +11190,13 @@
         <f t="shared" ref="AB49:AB62" si="5">SUM(D49:AA49)</f>
         <v>0</v>
       </c>
-      <c r="AC49" s="233"/>
-      <c r="AD49" s="192"/>
+      <c r="AC49" s="169"/>
+      <c r="AD49" s="224"/>
       <c r="AE49" s="117"/>
-      <c r="AF49" s="231"/>
+      <c r="AF49" s="163"/>
     </row>
     <row r="50" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A50" s="180"/>
+      <c r="A50" s="194"/>
       <c r="B50" s="15" t="s">
         <v>528</v>
       </c>
@@ -11250,7 +11250,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD50" s="192"/>
+      <c r="AD50" s="224"/>
       <c r="AE50" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -11258,10 +11258,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF50" s="231"/>
+      <c r="AF50" s="163"/>
     </row>
     <row r="51" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A51" s="180"/>
+      <c r="A51" s="194"/>
       <c r="B51" s="15" t="s">
         <v>237</v>
       </c>
@@ -11297,12 +11297,12 @@
         <v>0</v>
       </c>
       <c r="AC51" s="112"/>
-      <c r="AD51" s="192"/>
+      <c r="AD51" s="224"/>
       <c r="AE51" s="117"/>
-      <c r="AF51" s="231"/>
+      <c r="AF51" s="163"/>
     </row>
     <row r="52" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A52" s="180"/>
+      <c r="A52" s="194"/>
       <c r="B52" s="15" t="s">
         <v>529</v>
       </c>
@@ -11338,12 +11338,12 @@
         <v>0</v>
       </c>
       <c r="AC52" s="112"/>
-      <c r="AD52" s="192"/>
+      <c r="AD52" s="224"/>
       <c r="AE52" s="117"/>
-      <c r="AF52" s="231"/>
+      <c r="AF52" s="163"/>
     </row>
     <row r="53" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A53" s="188" t="s">
+      <c r="A53" s="184" t="s">
         <v>37</v>
       </c>
       <c r="B53" s="15" t="s">
@@ -11380,7 +11380,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="189" t="str">
+      <c r="AC53" s="174" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D54&gt;D53," * F02-07 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F02-06"&amp;CHAR(10),""),IF(E54&gt;E53," * F02-07 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F02-06"&amp;CHAR(10),""),
@@ -11399,12 +11399,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD53" s="192"/>
+      <c r="AD53" s="224"/>
       <c r="AE53" s="117"/>
-      <c r="AF53" s="231"/>
+      <c r="AF53" s="163"/>
     </row>
     <row r="54" spans="1:32" s="10" customFormat="1" ht="83.85" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A54" s="188"/>
+      <c r="A54" s="184"/>
       <c r="B54" s="15" t="s">
         <v>530</v>
       </c>
@@ -11439,13 +11439,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="190"/>
-      <c r="AD54" s="192"/>
+      <c r="AC54" s="175"/>
+      <c r="AD54" s="224"/>
       <c r="AE54" s="117"/>
-      <c r="AF54" s="231"/>
+      <c r="AF54" s="163"/>
     </row>
     <row r="55" spans="1:32" s="10" customFormat="1" ht="83.85" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A55" s="188"/>
+      <c r="A55" s="184"/>
       <c r="B55" s="15" t="s">
         <v>531</v>
       </c>
@@ -11481,12 +11481,12 @@
         <v>0</v>
       </c>
       <c r="AC55" s="112"/>
-      <c r="AD55" s="192"/>
+      <c r="AD55" s="224"/>
       <c r="AE55" s="117"/>
-      <c r="AF55" s="231"/>
+      <c r="AF55" s="163"/>
     </row>
     <row r="56" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A56" s="177" t="s">
+      <c r="A56" s="200" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -11524,12 +11524,12 @@
         <v>0</v>
       </c>
       <c r="AC56" s="112"/>
-      <c r="AD56" s="192"/>
+      <c r="AD56" s="224"/>
       <c r="AE56" s="117"/>
-      <c r="AF56" s="231"/>
+      <c r="AF56" s="163"/>
     </row>
     <row r="57" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A57" s="193"/>
+      <c r="A57" s="211"/>
       <c r="B57" s="15" t="s">
         <v>533</v>
       </c>
@@ -11565,12 +11565,12 @@
         <v>0</v>
       </c>
       <c r="AC57" s="112"/>
-      <c r="AD57" s="192"/>
+      <c r="AD57" s="224"/>
       <c r="AE57" s="117"/>
-      <c r="AF57" s="231"/>
+      <c r="AF57" s="163"/>
     </row>
     <row r="58" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A58" s="193"/>
+      <c r="A58" s="211"/>
       <c r="B58" s="15" t="s">
         <v>248</v>
       </c>
@@ -11606,12 +11606,12 @@
         <v>0</v>
       </c>
       <c r="AC58" s="112"/>
-      <c r="AD58" s="192"/>
+      <c r="AD58" s="224"/>
       <c r="AE58" s="117"/>
-      <c r="AF58" s="231"/>
+      <c r="AF58" s="163"/>
     </row>
     <row r="59" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A59" s="193"/>
+      <c r="A59" s="211"/>
       <c r="B59" s="15" t="s">
         <v>534</v>
       </c>
@@ -11647,12 +11647,12 @@
         <v>0</v>
       </c>
       <c r="AC59" s="112"/>
-      <c r="AD59" s="192"/>
+      <c r="AD59" s="224"/>
       <c r="AE59" s="117"/>
-      <c r="AF59" s="231"/>
+      <c r="AF59" s="163"/>
     </row>
     <row r="60" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A60" s="193"/>
+      <c r="A60" s="211"/>
       <c r="B60" s="15" t="s">
         <v>535</v>
       </c>
@@ -11688,12 +11688,12 @@
         <v>0</v>
       </c>
       <c r="AC60" s="112"/>
-      <c r="AD60" s="192"/>
+      <c r="AD60" s="224"/>
       <c r="AE60" s="117"/>
-      <c r="AF60" s="231"/>
+      <c r="AF60" s="163"/>
     </row>
     <row r="61" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A61" s="193"/>
+      <c r="A61" s="211"/>
       <c r="B61" s="15" t="s">
         <v>536</v>
       </c>
@@ -11729,12 +11729,12 @@
         <v>0</v>
       </c>
       <c r="AC61" s="112"/>
-      <c r="AD61" s="192"/>
+      <c r="AD61" s="224"/>
       <c r="AE61" s="117"/>
-      <c r="AF61" s="231"/>
+      <c r="AF61" s="163"/>
     </row>
     <row r="62" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A62" s="178"/>
+      <c r="A62" s="201"/>
       <c r="B62" s="15" t="s">
         <v>537</v>
       </c>
@@ -11770,12 +11770,12 @@
         <v>0</v>
       </c>
       <c r="AC62" s="112"/>
-      <c r="AD62" s="192"/>
+      <c r="AD62" s="224"/>
       <c r="AE62" s="117"/>
-      <c r="AF62" s="231"/>
+      <c r="AF62" s="163"/>
     </row>
     <row r="63" spans="1:32" s="10" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A63" s="177" t="s">
+      <c r="A63" s="200" t="s">
         <v>134</v>
       </c>
       <c r="B63" s="93" t="s">
@@ -11810,12 +11810,12 @@
       <c r="AA63" s="87"/>
       <c r="AB63" s="125"/>
       <c r="AC63" s="112"/>
-      <c r="AD63" s="192"/>
+      <c r="AD63" s="224"/>
       <c r="AE63" s="117"/>
-      <c r="AF63" s="231"/>
+      <c r="AF63" s="163"/>
     </row>
     <row r="64" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A64" s="193"/>
+      <c r="A64" s="211"/>
       <c r="B64" s="104" t="s">
         <v>539</v>
       </c>
@@ -11848,124 +11848,124 @@
       <c r="AA64" s="101"/>
       <c r="AB64" s="126"/>
       <c r="AC64" s="113"/>
-      <c r="AD64" s="192"/>
+      <c r="AD64" s="224"/>
       <c r="AE64" s="119"/>
-      <c r="AF64" s="231"/>
+      <c r="AF64" s="163"/>
     </row>
     <row r="65" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A65" s="238" t="s">
+      <c r="A65" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="238"/>
-      <c r="C65" s="238"/>
-      <c r="D65" s="238"/>
-      <c r="E65" s="238"/>
-      <c r="F65" s="238"/>
-      <c r="G65" s="238"/>
-      <c r="H65" s="238"/>
-      <c r="I65" s="238"/>
-      <c r="J65" s="238"/>
-      <c r="K65" s="238"/>
-      <c r="L65" s="238"/>
-      <c r="M65" s="238"/>
-      <c r="N65" s="238"/>
-      <c r="O65" s="238"/>
-      <c r="P65" s="238"/>
-      <c r="Q65" s="238"/>
-      <c r="R65" s="238"/>
-      <c r="S65" s="238"/>
-      <c r="T65" s="238"/>
-      <c r="U65" s="238"/>
-      <c r="V65" s="238"/>
-      <c r="W65" s="238"/>
-      <c r="X65" s="238"/>
-      <c r="Y65" s="238"/>
-      <c r="Z65" s="238"/>
-      <c r="AA65" s="238"/>
-      <c r="AB65" s="238"/>
-      <c r="AC65" s="238"/>
-      <c r="AD65" s="238"/>
-      <c r="AE65" s="238"/>
-      <c r="AF65" s="238"/>
+      <c r="B65" s="167"/>
+      <c r="C65" s="167"/>
+      <c r="D65" s="167"/>
+      <c r="E65" s="167"/>
+      <c r="F65" s="167"/>
+      <c r="G65" s="167"/>
+      <c r="H65" s="167"/>
+      <c r="I65" s="167"/>
+      <c r="J65" s="167"/>
+      <c r="K65" s="167"/>
+      <c r="L65" s="167"/>
+      <c r="M65" s="167"/>
+      <c r="N65" s="167"/>
+      <c r="O65" s="167"/>
+      <c r="P65" s="167"/>
+      <c r="Q65" s="167"/>
+      <c r="R65" s="167"/>
+      <c r="S65" s="167"/>
+      <c r="T65" s="167"/>
+      <c r="U65" s="167"/>
+      <c r="V65" s="167"/>
+      <c r="W65" s="167"/>
+      <c r="X65" s="167"/>
+      <c r="Y65" s="167"/>
+      <c r="Z65" s="167"/>
+      <c r="AA65" s="167"/>
+      <c r="AB65" s="167"/>
+      <c r="AC65" s="167"/>
+      <c r="AD65" s="167"/>
+      <c r="AE65" s="167"/>
+      <c r="AF65" s="167"/>
     </row>
     <row r="66" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A66" s="204" t="s">
+      <c r="A66" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="204" t="s">
+      <c r="B66" s="191" t="s">
         <v>594</v>
       </c>
-      <c r="C66" s="202" t="s">
+      <c r="C66" s="187" t="s">
         <v>508</v>
       </c>
-      <c r="D66" s="182" t="s">
+      <c r="D66" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="174"/>
-      <c r="F66" s="173" t="s">
+      <c r="E66" s="180"/>
+      <c r="F66" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="174"/>
-      <c r="H66" s="173" t="s">
+      <c r="G66" s="180"/>
+      <c r="H66" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="I66" s="174"/>
-      <c r="J66" s="173" t="s">
+      <c r="I66" s="180"/>
+      <c r="J66" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="174"/>
-      <c r="L66" s="173" t="s">
+      <c r="K66" s="180"/>
+      <c r="L66" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="174"/>
-      <c r="N66" s="173" t="s">
+      <c r="M66" s="180"/>
+      <c r="N66" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="O66" s="174"/>
-      <c r="P66" s="173" t="s">
+      <c r="O66" s="180"/>
+      <c r="P66" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="Q66" s="174"/>
-      <c r="R66" s="173" t="s">
+      <c r="Q66" s="180"/>
+      <c r="R66" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="S66" s="174"/>
-      <c r="T66" s="173" t="s">
+      <c r="S66" s="180"/>
+      <c r="T66" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="U66" s="174"/>
-      <c r="V66" s="173" t="s">
+      <c r="U66" s="180"/>
+      <c r="V66" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="W66" s="174"/>
-      <c r="X66" s="173" t="s">
+      <c r="W66" s="180"/>
+      <c r="X66" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="Y66" s="174"/>
-      <c r="Z66" s="173" t="s">
+      <c r="Y66" s="180"/>
+      <c r="Z66" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="AA66" s="174"/>
-      <c r="AB66" s="175" t="s">
+      <c r="AA66" s="180"/>
+      <c r="AB66" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AC66" s="186" t="s">
+      <c r="AC66" s="173" t="s">
         <v>628</v>
       </c>
-      <c r="AD66" s="186" t="s">
+      <c r="AD66" s="173" t="s">
         <v>639</v>
       </c>
-      <c r="AE66" s="172" t="s">
+      <c r="AE66" s="165" t="s">
         <v>640</v>
       </c>
-      <c r="AF66" s="172" t="s">
+      <c r="AF66" s="165" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="67" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A67" s="205"/>
-      <c r="B67" s="205"/>
-      <c r="C67" s="203"/>
+      <c r="A67" s="192"/>
+      <c r="B67" s="192"/>
+      <c r="C67" s="188"/>
       <c r="D67" s="73" t="s">
         <v>14</v>
       </c>
@@ -12038,14 +12038,14 @@
       <c r="AA67" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB67" s="176"/>
-      <c r="AC67" s="186"/>
-      <c r="AD67" s="186"/>
-      <c r="AE67" s="172"/>
-      <c r="AF67" s="172"/>
+      <c r="AB67" s="197"/>
+      <c r="AC67" s="173"/>
+      <c r="AD67" s="173"/>
+      <c r="AE67" s="165"/>
+      <c r="AF67" s="165"/>
     </row>
     <row r="68" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A68" s="177" t="s">
+      <c r="A68" s="200" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -12101,18 +12101,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD68" s="187" t="str">
+      <c r="AD68" s="221" t="str">
         <f>CONCATENATE(AC68,AC69,AC70,AC71,AC72,AC73,AC74,AC75,AC76,AC77,AC78,AC79)</f>
         <v/>
       </c>
       <c r="AE68" s="117"/>
-      <c r="AF68" s="231" t="str">
+      <c r="AF68" s="163" t="str">
         <f>CONCATENATE(AE68,AE69,AE70,AE71,AE72,AE73,AE74,AE75,AE76,AE77,AE78,AE79)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A69" s="193"/>
+      <c r="A69" s="211"/>
       <c r="B69" s="15" t="s">
         <v>541</v>
       </c>
@@ -12166,12 +12166,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD69" s="187"/>
+      <c r="AD69" s="221"/>
       <c r="AE69" s="117"/>
-      <c r="AF69" s="231"/>
+      <c r="AF69" s="163"/>
     </row>
     <row r="70" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A70" s="177" t="s">
+      <c r="A70" s="200" t="s">
         <v>32</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -12227,12 +12227,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD70" s="187"/>
+      <c r="AD70" s="221"/>
       <c r="AE70" s="117"/>
-      <c r="AF70" s="231"/>
+      <c r="AF70" s="163"/>
     </row>
     <row r="71" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A71" s="193"/>
+      <c r="A71" s="211"/>
       <c r="B71" s="15" t="s">
         <v>541</v>
       </c>
@@ -12286,12 +12286,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD71" s="187"/>
+      <c r="AD71" s="221"/>
       <c r="AE71" s="117"/>
-      <c r="AF71" s="231"/>
+      <c r="AF71" s="163"/>
     </row>
     <row r="72" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A72" s="206" t="s">
+      <c r="A72" s="212" t="s">
         <v>38</v>
       </c>
       <c r="B72" s="20" t="s">
@@ -12329,12 +12329,12 @@
         <v>0</v>
       </c>
       <c r="AC72" s="112"/>
-      <c r="AD72" s="187"/>
+      <c r="AD72" s="221"/>
       <c r="AE72" s="117"/>
-      <c r="AF72" s="231"/>
+      <c r="AF72" s="163"/>
     </row>
     <row r="73" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A73" s="206"/>
+      <c r="A73" s="212"/>
       <c r="B73" s="20" t="s">
         <v>544</v>
       </c>
@@ -12370,12 +12370,12 @@
         <v>0</v>
       </c>
       <c r="AC73" s="112"/>
-      <c r="AD73" s="187"/>
+      <c r="AD73" s="221"/>
       <c r="AE73" s="117"/>
-      <c r="AF73" s="231"/>
+      <c r="AF73" s="163"/>
     </row>
     <row r="74" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A74" s="206" t="s">
+      <c r="A74" s="212" t="s">
         <v>39</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -12413,12 +12413,12 @@
         <v>0</v>
       </c>
       <c r="AC74" s="112"/>
-      <c r="AD74" s="187"/>
+      <c r="AD74" s="221"/>
       <c r="AE74" s="117"/>
-      <c r="AF74" s="231"/>
+      <c r="AF74" s="163"/>
     </row>
     <row r="75" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A75" s="206"/>
+      <c r="A75" s="212"/>
       <c r="B75" s="20" t="s">
         <v>545</v>
       </c>
@@ -12454,12 +12454,12 @@
         <v>0</v>
       </c>
       <c r="AC75" s="112"/>
-      <c r="AD75" s="187"/>
+      <c r="AD75" s="221"/>
       <c r="AE75" s="117"/>
-      <c r="AF75" s="231"/>
+      <c r="AF75" s="163"/>
     </row>
     <row r="76" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A76" s="206" t="s">
+      <c r="A76" s="212" t="s">
         <v>40</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -12497,12 +12497,12 @@
         <v>0</v>
       </c>
       <c r="AC76" s="112"/>
-      <c r="AD76" s="187"/>
+      <c r="AD76" s="221"/>
       <c r="AE76" s="117"/>
-      <c r="AF76" s="231"/>
+      <c r="AF76" s="163"/>
     </row>
     <row r="77" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A77" s="206"/>
+      <c r="A77" s="212"/>
       <c r="B77" s="20" t="s">
         <v>546</v>
       </c>
@@ -12538,12 +12538,12 @@
         <v>0</v>
       </c>
       <c r="AC77" s="112"/>
-      <c r="AD77" s="187"/>
+      <c r="AD77" s="221"/>
       <c r="AE77" s="117"/>
-      <c r="AF77" s="231"/>
+      <c r="AF77" s="163"/>
     </row>
     <row r="78" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A78" s="206" t="s">
+      <c r="A78" s="212" t="s">
         <v>41</v>
       </c>
       <c r="B78" s="20" t="s">
@@ -12581,12 +12581,12 @@
         <v>0</v>
       </c>
       <c r="AC78" s="112"/>
-      <c r="AD78" s="187"/>
+      <c r="AD78" s="221"/>
       <c r="AE78" s="117"/>
-      <c r="AF78" s="231"/>
+      <c r="AF78" s="163"/>
     </row>
     <row r="79" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A79" s="207"/>
+      <c r="A79" s="213"/>
       <c r="B79" s="102" t="s">
         <v>547</v>
       </c>
@@ -12622,54 +12622,54 @@
         <v>0</v>
       </c>
       <c r="AC79" s="113"/>
-      <c r="AD79" s="183"/>
+      <c r="AD79" s="222"/>
       <c r="AE79" s="119"/>
-      <c r="AF79" s="231"/>
+      <c r="AF79" s="163"/>
     </row>
     <row r="80" spans="1:32" s="8" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A80" s="238" t="s">
+      <c r="A80" s="167" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="238"/>
-      <c r="C80" s="238"/>
-      <c r="D80" s="238"/>
-      <c r="E80" s="238"/>
-      <c r="F80" s="238"/>
-      <c r="G80" s="238"/>
-      <c r="H80" s="238"/>
-      <c r="I80" s="238"/>
-      <c r="J80" s="238"/>
-      <c r="K80" s="238"/>
-      <c r="L80" s="238"/>
-      <c r="M80" s="238"/>
-      <c r="N80" s="238"/>
-      <c r="O80" s="238"/>
-      <c r="P80" s="238"/>
-      <c r="Q80" s="238"/>
-      <c r="R80" s="238"/>
-      <c r="S80" s="238"/>
-      <c r="T80" s="238"/>
-      <c r="U80" s="238"/>
-      <c r="V80" s="238"/>
-      <c r="W80" s="238"/>
-      <c r="X80" s="238"/>
-      <c r="Y80" s="238"/>
-      <c r="Z80" s="238"/>
-      <c r="AA80" s="238"/>
-      <c r="AB80" s="238"/>
-      <c r="AC80" s="238"/>
-      <c r="AD80" s="238"/>
-      <c r="AE80" s="238"/>
-      <c r="AF80" s="238"/>
+      <c r="B80" s="167"/>
+      <c r="C80" s="167"/>
+      <c r="D80" s="167"/>
+      <c r="E80" s="167"/>
+      <c r="F80" s="167"/>
+      <c r="G80" s="167"/>
+      <c r="H80" s="167"/>
+      <c r="I80" s="167"/>
+      <c r="J80" s="167"/>
+      <c r="K80" s="167"/>
+      <c r="L80" s="167"/>
+      <c r="M80" s="167"/>
+      <c r="N80" s="167"/>
+      <c r="O80" s="167"/>
+      <c r="P80" s="167"/>
+      <c r="Q80" s="167"/>
+      <c r="R80" s="167"/>
+      <c r="S80" s="167"/>
+      <c r="T80" s="167"/>
+      <c r="U80" s="167"/>
+      <c r="V80" s="167"/>
+      <c r="W80" s="167"/>
+      <c r="X80" s="167"/>
+      <c r="Y80" s="167"/>
+      <c r="Z80" s="167"/>
+      <c r="AA80" s="167"/>
+      <c r="AB80" s="167"/>
+      <c r="AC80" s="167"/>
+      <c r="AD80" s="167"/>
+      <c r="AE80" s="167"/>
+      <c r="AF80" s="167"/>
     </row>
     <row r="81" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A81" s="204" t="s">
+      <c r="A81" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="B81" s="204" t="s">
+      <c r="B81" s="191" t="s">
         <v>594</v>
       </c>
-      <c r="C81" s="202" t="s">
+      <c r="C81" s="187" t="s">
         <v>508</v>
       </c>
       <c r="D81" s="78"/>
@@ -12680,58 +12680,58 @@
       <c r="I81" s="79"/>
       <c r="J81" s="79"/>
       <c r="K81" s="80"/>
-      <c r="L81" s="182" t="s">
+      <c r="L81" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="M81" s="174"/>
-      <c r="N81" s="173" t="s">
+      <c r="M81" s="180"/>
+      <c r="N81" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="O81" s="174"/>
-      <c r="P81" s="173" t="s">
+      <c r="O81" s="180"/>
+      <c r="P81" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="Q81" s="174"/>
-      <c r="R81" s="173" t="s">
+      <c r="Q81" s="180"/>
+      <c r="R81" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="S81" s="174"/>
-      <c r="T81" s="173" t="s">
+      <c r="S81" s="180"/>
+      <c r="T81" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="U81" s="174"/>
-      <c r="V81" s="173" t="s">
+      <c r="U81" s="180"/>
+      <c r="V81" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="W81" s="174"/>
-      <c r="X81" s="173" t="s">
+      <c r="W81" s="180"/>
+      <c r="X81" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="Y81" s="174"/>
-      <c r="Z81" s="173" t="s">
+      <c r="Y81" s="180"/>
+      <c r="Z81" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="AA81" s="174"/>
-      <c r="AB81" s="175" t="s">
+      <c r="AA81" s="180"/>
+      <c r="AB81" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AC81" s="186" t="s">
+      <c r="AC81" s="173" t="s">
         <v>628</v>
       </c>
-      <c r="AD81" s="186" t="s">
+      <c r="AD81" s="173" t="s">
         <v>639</v>
       </c>
-      <c r="AE81" s="172" t="s">
+      <c r="AE81" s="165" t="s">
         <v>640</v>
       </c>
-      <c r="AF81" s="172" t="s">
+      <c r="AF81" s="165" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="82" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A82" s="205"/>
-      <c r="B82" s="205"/>
-      <c r="C82" s="203"/>
+      <c r="A82" s="192"/>
+      <c r="B82" s="192"/>
+      <c r="C82" s="188"/>
       <c r="D82" s="75"/>
       <c r="E82" s="76"/>
       <c r="F82" s="76"/>
@@ -12788,14 +12788,14 @@
       <c r="AA82" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB82" s="176"/>
-      <c r="AC82" s="186"/>
-      <c r="AD82" s="186"/>
-      <c r="AE82" s="172"/>
-      <c r="AF82" s="172"/>
+      <c r="AB82" s="197"/>
+      <c r="AC82" s="173"/>
+      <c r="AD82" s="173"/>
+      <c r="AE82" s="165"/>
+      <c r="AF82" s="165"/>
     </row>
     <row r="83" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A83" s="177" t="s">
+      <c r="A83" s="200" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -12833,18 +12833,18 @@
         <v>0</v>
       </c>
       <c r="AC83" s="112"/>
-      <c r="AD83" s="187" t="str">
+      <c r="AD83" s="221" t="str">
         <f>CONCATENATE(AC83,AC84,AC85,AC86,AC87,AC88,AC89,AC90,AC91,AC92,AC93,AC94,AC95,AC96,AC97,AC98,AC99,AC100)</f>
         <v/>
       </c>
       <c r="AE83" s="117"/>
-      <c r="AF83" s="231" t="str">
+      <c r="AF83" s="163" t="str">
         <f>CONCATENATE(AE83,AE84,AE85,AE86,AE87,AE88,AE89,AE90,AE91,AE92,AE93,AE94,AE95,AE96,AE97,AE98,AE99,AE100)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A84" s="193"/>
+      <c r="A84" s="211"/>
       <c r="B84" s="15" t="s">
         <v>288</v>
       </c>
@@ -12898,12 +12898,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD84" s="187"/>
+      <c r="AD84" s="221"/>
       <c r="AE84" s="117"/>
-      <c r="AF84" s="231"/>
+      <c r="AF84" s="163"/>
     </row>
     <row r="85" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A85" s="193"/>
+      <c r="A85" s="211"/>
       <c r="B85" s="15" t="s">
         <v>549</v>
       </c>
@@ -12939,12 +12939,12 @@
         <v>0</v>
       </c>
       <c r="AC85" s="112"/>
-      <c r="AD85" s="187"/>
+      <c r="AD85" s="221"/>
       <c r="AE85" s="117"/>
-      <c r="AF85" s="231"/>
+      <c r="AF85" s="163"/>
     </row>
     <row r="86" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A86" s="193"/>
+      <c r="A86" s="211"/>
       <c r="B86" s="15" t="s">
         <v>550</v>
       </c>
@@ -12980,12 +12980,12 @@
         <v>0</v>
       </c>
       <c r="AC86" s="112"/>
-      <c r="AD86" s="187"/>
+      <c r="AD86" s="221"/>
       <c r="AE86" s="117"/>
-      <c r="AF86" s="231"/>
+      <c r="AF86" s="163"/>
     </row>
     <row r="87" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A87" s="193"/>
+      <c r="A87" s="211"/>
       <c r="B87" s="15" t="s">
         <v>551</v>
       </c>
@@ -13021,12 +13021,12 @@
         <v>0</v>
       </c>
       <c r="AC87" s="112"/>
-      <c r="AD87" s="187"/>
+      <c r="AD87" s="221"/>
       <c r="AE87" s="117"/>
-      <c r="AF87" s="231"/>
+      <c r="AF87" s="163"/>
     </row>
     <row r="88" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A88" s="178"/>
+      <c r="A88" s="201"/>
       <c r="B88" s="15" t="s">
         <v>552</v>
       </c>
@@ -13062,12 +13062,12 @@
         <v>0</v>
       </c>
       <c r="AC88" s="112"/>
-      <c r="AD88" s="187"/>
+      <c r="AD88" s="221"/>
       <c r="AE88" s="117"/>
-      <c r="AF88" s="231"/>
+      <c r="AF88" s="163"/>
     </row>
     <row r="89" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A89" s="177" t="s">
+      <c r="A89" s="200" t="s">
         <v>42</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -13105,12 +13105,12 @@
         <v>0</v>
       </c>
       <c r="AC89" s="112"/>
-      <c r="AD89" s="187"/>
+      <c r="AD89" s="221"/>
       <c r="AE89" s="117"/>
-      <c r="AF89" s="231"/>
+      <c r="AF89" s="163"/>
     </row>
     <row r="90" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A90" s="193"/>
+      <c r="A90" s="211"/>
       <c r="B90" s="15" t="s">
         <v>553</v>
       </c>
@@ -13164,12 +13164,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD90" s="187"/>
+      <c r="AD90" s="221"/>
       <c r="AE90" s="117"/>
-      <c r="AF90" s="231"/>
+      <c r="AF90" s="163"/>
     </row>
     <row r="91" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A91" s="193"/>
+      <c r="A91" s="211"/>
       <c r="B91" s="15" t="s">
         <v>304</v>
       </c>
@@ -13205,12 +13205,12 @@
         <v>0</v>
       </c>
       <c r="AC91" s="112"/>
-      <c r="AD91" s="187"/>
+      <c r="AD91" s="221"/>
       <c r="AE91" s="117"/>
-      <c r="AF91" s="231"/>
+      <c r="AF91" s="163"/>
     </row>
     <row r="92" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A92" s="193"/>
+      <c r="A92" s="211"/>
       <c r="B92" s="15" t="s">
         <v>554</v>
       </c>
@@ -13246,12 +13246,12 @@
         <v>0</v>
       </c>
       <c r="AC92" s="112"/>
-      <c r="AD92" s="187"/>
+      <c r="AD92" s="221"/>
       <c r="AE92" s="117"/>
-      <c r="AF92" s="231"/>
+      <c r="AF92" s="163"/>
     </row>
     <row r="93" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A93" s="193"/>
+      <c r="A93" s="211"/>
       <c r="B93" s="15" t="s">
         <v>551</v>
       </c>
@@ -13287,12 +13287,12 @@
         <v>0</v>
       </c>
       <c r="AC93" s="112"/>
-      <c r="AD93" s="187"/>
+      <c r="AD93" s="221"/>
       <c r="AE93" s="117"/>
-      <c r="AF93" s="231"/>
+      <c r="AF93" s="163"/>
     </row>
     <row r="94" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A94" s="178"/>
+      <c r="A94" s="201"/>
       <c r="B94" s="15" t="s">
         <v>309</v>
       </c>
@@ -13346,12 +13346,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD94" s="187"/>
+      <c r="AD94" s="221"/>
       <c r="AE94" s="117"/>
-      <c r="AF94" s="231"/>
+      <c r="AF94" s="163"/>
     </row>
     <row r="95" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A95" s="177" t="s">
+      <c r="A95" s="200" t="s">
         <v>33</v>
       </c>
       <c r="B95" s="15" t="s">
@@ -13389,12 +13389,12 @@
         <v>0</v>
       </c>
       <c r="AC95" s="112"/>
-      <c r="AD95" s="187"/>
+      <c r="AD95" s="221"/>
       <c r="AE95" s="117"/>
-      <c r="AF95" s="231"/>
+      <c r="AF95" s="163"/>
     </row>
     <row r="96" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A96" s="193"/>
+      <c r="A96" s="211"/>
       <c r="B96" s="15" t="s">
         <v>288</v>
       </c>
@@ -13448,12 +13448,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD96" s="187"/>
+      <c r="AD96" s="221"/>
       <c r="AE96" s="117"/>
-      <c r="AF96" s="231"/>
+      <c r="AF96" s="163"/>
     </row>
     <row r="97" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A97" s="193"/>
+      <c r="A97" s="211"/>
       <c r="B97" s="15" t="s">
         <v>304</v>
       </c>
@@ -13489,12 +13489,12 @@
         <v>0</v>
       </c>
       <c r="AC97" s="112"/>
-      <c r="AD97" s="187"/>
+      <c r="AD97" s="221"/>
       <c r="AE97" s="117"/>
-      <c r="AF97" s="231"/>
+      <c r="AF97" s="163"/>
     </row>
     <row r="98" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A98" s="193"/>
+      <c r="A98" s="211"/>
       <c r="B98" s="15" t="s">
         <v>550</v>
       </c>
@@ -13530,12 +13530,12 @@
         <v>0</v>
       </c>
       <c r="AC98" s="112"/>
-      <c r="AD98" s="187"/>
+      <c r="AD98" s="221"/>
       <c r="AE98" s="117"/>
-      <c r="AF98" s="231"/>
+      <c r="AF98" s="163"/>
     </row>
     <row r="99" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A99" s="193"/>
+      <c r="A99" s="211"/>
       <c r="B99" s="15" t="s">
         <v>551</v>
       </c>
@@ -13571,12 +13571,12 @@
         <v>0</v>
       </c>
       <c r="AC99" s="112"/>
-      <c r="AD99" s="187"/>
+      <c r="AD99" s="221"/>
       <c r="AE99" s="117"/>
-      <c r="AF99" s="231"/>
+      <c r="AF99" s="163"/>
     </row>
     <row r="100" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A100" s="193"/>
+      <c r="A100" s="211"/>
       <c r="B100" s="99" t="s">
         <v>309</v>
       </c>
@@ -13612,124 +13612,124 @@
         <v>0</v>
       </c>
       <c r="AC100" s="113"/>
-      <c r="AD100" s="187"/>
+      <c r="AD100" s="221"/>
       <c r="AE100" s="117"/>
-      <c r="AF100" s="231"/>
+      <c r="AF100" s="163"/>
     </row>
     <row r="101" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A101" s="238" t="s">
+      <c r="A101" s="167" t="s">
         <v>153</v>
       </c>
-      <c r="B101" s="238"/>
-      <c r="C101" s="238"/>
-      <c r="D101" s="238"/>
-      <c r="E101" s="238"/>
-      <c r="F101" s="238"/>
-      <c r="G101" s="238"/>
-      <c r="H101" s="238"/>
-      <c r="I101" s="238"/>
-      <c r="J101" s="238"/>
-      <c r="K101" s="238"/>
-      <c r="L101" s="238"/>
-      <c r="M101" s="238"/>
-      <c r="N101" s="238"/>
-      <c r="O101" s="238"/>
-      <c r="P101" s="238"/>
-      <c r="Q101" s="238"/>
-      <c r="R101" s="238"/>
-      <c r="S101" s="238"/>
-      <c r="T101" s="238"/>
-      <c r="U101" s="238"/>
-      <c r="V101" s="238"/>
-      <c r="W101" s="238"/>
-      <c r="X101" s="238"/>
-      <c r="Y101" s="238"/>
-      <c r="Z101" s="238"/>
-      <c r="AA101" s="238"/>
-      <c r="AB101" s="238"/>
-      <c r="AC101" s="238"/>
-      <c r="AD101" s="238"/>
-      <c r="AE101" s="238"/>
-      <c r="AF101" s="238"/>
+      <c r="B101" s="167"/>
+      <c r="C101" s="167"/>
+      <c r="D101" s="167"/>
+      <c r="E101" s="167"/>
+      <c r="F101" s="167"/>
+      <c r="G101" s="167"/>
+      <c r="H101" s="167"/>
+      <c r="I101" s="167"/>
+      <c r="J101" s="167"/>
+      <c r="K101" s="167"/>
+      <c r="L101" s="167"/>
+      <c r="M101" s="167"/>
+      <c r="N101" s="167"/>
+      <c r="O101" s="167"/>
+      <c r="P101" s="167"/>
+      <c r="Q101" s="167"/>
+      <c r="R101" s="167"/>
+      <c r="S101" s="167"/>
+      <c r="T101" s="167"/>
+      <c r="U101" s="167"/>
+      <c r="V101" s="167"/>
+      <c r="W101" s="167"/>
+      <c r="X101" s="167"/>
+      <c r="Y101" s="167"/>
+      <c r="Z101" s="167"/>
+      <c r="AA101" s="167"/>
+      <c r="AB101" s="167"/>
+      <c r="AC101" s="167"/>
+      <c r="AD101" s="167"/>
+      <c r="AE101" s="167"/>
+      <c r="AF101" s="167"/>
     </row>
     <row r="102" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A102" s="204" t="s">
+      <c r="A102" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="B102" s="204" t="s">
+      <c r="B102" s="191" t="s">
         <v>594</v>
       </c>
-      <c r="C102" s="202" t="s">
+      <c r="C102" s="187" t="s">
         <v>508</v>
       </c>
-      <c r="D102" s="182" t="s">
+      <c r="D102" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="174"/>
-      <c r="F102" s="173" t="s">
+      <c r="E102" s="180"/>
+      <c r="F102" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="174"/>
-      <c r="H102" s="173" t="s">
+      <c r="G102" s="180"/>
+      <c r="H102" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="I102" s="174"/>
-      <c r="J102" s="173" t="s">
+      <c r="I102" s="180"/>
+      <c r="J102" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="K102" s="174"/>
-      <c r="L102" s="173" t="s">
+      <c r="K102" s="180"/>
+      <c r="L102" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="174"/>
-      <c r="N102" s="173" t="s">
+      <c r="M102" s="180"/>
+      <c r="N102" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="O102" s="174"/>
-      <c r="P102" s="173" t="s">
+      <c r="O102" s="180"/>
+      <c r="P102" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="Q102" s="174"/>
-      <c r="R102" s="173" t="s">
+      <c r="Q102" s="180"/>
+      <c r="R102" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="S102" s="174"/>
-      <c r="T102" s="173" t="s">
+      <c r="S102" s="180"/>
+      <c r="T102" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="U102" s="174"/>
-      <c r="V102" s="173" t="s">
+      <c r="U102" s="180"/>
+      <c r="V102" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="W102" s="174"/>
-      <c r="X102" s="173" t="s">
+      <c r="W102" s="180"/>
+      <c r="X102" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="Y102" s="174"/>
-      <c r="Z102" s="173" t="s">
+      <c r="Y102" s="180"/>
+      <c r="Z102" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="AA102" s="174"/>
-      <c r="AB102" s="175" t="s">
+      <c r="AA102" s="180"/>
+      <c r="AB102" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AC102" s="186" t="s">
+      <c r="AC102" s="173" t="s">
         <v>628</v>
       </c>
-      <c r="AD102" s="186" t="s">
+      <c r="AD102" s="173" t="s">
         <v>639</v>
       </c>
-      <c r="AE102" s="172" t="s">
+      <c r="AE102" s="165" t="s">
         <v>640</v>
       </c>
-      <c r="AF102" s="172" t="s">
+      <c r="AF102" s="165" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="103" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A103" s="205"/>
-      <c r="B103" s="205"/>
-      <c r="C103" s="203"/>
+      <c r="A103" s="192"/>
+      <c r="B103" s="192"/>
+      <c r="C103" s="188"/>
       <c r="D103" s="73" t="s">
         <v>14</v>
       </c>
@@ -13802,14 +13802,14 @@
       <c r="AA103" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB103" s="176"/>
-      <c r="AC103" s="186"/>
-      <c r="AD103" s="186"/>
-      <c r="AE103" s="172"/>
-      <c r="AF103" s="172"/>
+      <c r="AB103" s="197"/>
+      <c r="AC103" s="173"/>
+      <c r="AD103" s="173"/>
+      <c r="AE103" s="165"/>
+      <c r="AF103" s="165"/>
     </row>
     <row r="104" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A104" s="177" t="s">
+      <c r="A104" s="200" t="s">
         <v>44</v>
       </c>
       <c r="B104" s="15" t="s">
@@ -13846,7 +13846,7 @@
         <f>SUM(D104:AA104)</f>
         <v>0</v>
       </c>
-      <c r="AC104" s="189" t="str">
+      <c r="AC104" s="174" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D105&gt;D104," * F05-02 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-01"&amp;CHAR(10),""),IF(E105&gt;E104," * F05-02 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-01"&amp;CHAR(10),""),
@@ -13865,18 +13865,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD104" s="187" t="str">
+      <c r="AD104" s="221" t="str">
         <f>CONCATENATE(AC104,AC106,AC107,AC108,AC109,AC111,AC113,AC115,AC117,AC118)</f>
         <v xml:space="preserve">  </v>
       </c>
       <c r="AE104" s="117"/>
-      <c r="AF104" s="231" t="str">
+      <c r="AF104" s="163" t="str">
         <f>CONCATENATE(AE104,AE105,AE106,AE107,AE108,AE109,AE110,AE111,AE112,AE113,AE114,AE115,AE116,AE117,AE118)</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A105" s="178"/>
+      <c r="A105" s="201"/>
       <c r="B105" s="15" t="s">
         <v>556</v>
       </c>
@@ -13911,13 +13911,13 @@
         <f t="shared" ref="AB105:AB118" si="8">SUM(D105:AA105)</f>
         <v>0</v>
       </c>
-      <c r="AC105" s="190"/>
-      <c r="AD105" s="187"/>
+      <c r="AC105" s="175"/>
+      <c r="AD105" s="221"/>
       <c r="AE105" s="117"/>
-      <c r="AF105" s="231"/>
+      <c r="AF105" s="163"/>
     </row>
     <row r="106" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A106" s="177" t="s">
+      <c r="A106" s="200" t="s">
         <v>45</v>
       </c>
       <c r="B106" s="15" t="s">
@@ -13957,12 +13957,12 @@
       <c r="AC106" s="112" t="s">
         <v>634</v>
       </c>
-      <c r="AD106" s="187"/>
+      <c r="AD106" s="221"/>
       <c r="AE106" s="117"/>
-      <c r="AF106" s="231"/>
+      <c r="AF106" s="163"/>
     </row>
     <row r="107" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A107" s="178"/>
+      <c r="A107" s="201"/>
       <c r="B107" s="15" t="s">
         <v>327</v>
       </c>
@@ -13998,12 +13998,12 @@
         <v>0</v>
       </c>
       <c r="AC107" s="112"/>
-      <c r="AD107" s="187"/>
+      <c r="AD107" s="221"/>
       <c r="AE107" s="117"/>
-      <c r="AF107" s="231"/>
+      <c r="AF107" s="163"/>
     </row>
     <row r="108" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A108" s="179" t="s">
+      <c r="A108" s="193" t="s">
         <v>34</v>
       </c>
       <c r="B108" s="93" t="s">
@@ -14059,12 +14059,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD108" s="187"/>
+      <c r="AD108" s="221"/>
       <c r="AE108" s="117"/>
-      <c r="AF108" s="231"/>
+      <c r="AF108" s="163"/>
     </row>
     <row r="109" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A109" s="180"/>
+      <c r="A109" s="194"/>
       <c r="B109" s="93" t="s">
         <v>559</v>
       </c>
@@ -14099,7 +14099,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC109" s="189" t="str">
+      <c r="AC109" s="174" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D110&gt;D109," * F05-07 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-06"&amp;CHAR(10),""),IF(E110&gt;E109," * F05-07 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-06"&amp;CHAR(10),""),
@@ -14118,12 +14118,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD109" s="187"/>
+      <c r="AD109" s="221"/>
       <c r="AE109" s="117"/>
-      <c r="AF109" s="231"/>
+      <c r="AF109" s="163"/>
     </row>
     <row r="110" spans="1:32" s="12" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A110" s="180"/>
+      <c r="A110" s="194"/>
       <c r="B110" s="93" t="s">
         <v>560</v>
       </c>
@@ -14158,13 +14158,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC110" s="190"/>
-      <c r="AD110" s="187"/>
+      <c r="AC110" s="175"/>
+      <c r="AD110" s="221"/>
       <c r="AE110" s="117"/>
-      <c r="AF110" s="231"/>
+      <c r="AF110" s="163"/>
     </row>
     <row r="111" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A111" s="180"/>
+      <c r="A111" s="194"/>
       <c r="B111" s="93" t="s">
         <v>561</v>
       </c>
@@ -14199,7 +14199,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC111" s="189" t="str">
+      <c r="AC111" s="174" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D112&gt;D111," * F05-09 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-08"&amp;CHAR(10),""),IF(E112&gt;E111," * F05-09 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-08"&amp;CHAR(10),""),
@@ -14218,12 +14218,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD111" s="187"/>
+      <c r="AD111" s="221"/>
       <c r="AE111" s="117"/>
-      <c r="AF111" s="231"/>
+      <c r="AF111" s="163"/>
     </row>
     <row r="112" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A112" s="180"/>
+      <c r="A112" s="194"/>
       <c r="B112" s="93" t="s">
         <v>562</v>
       </c>
@@ -14258,13 +14258,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC112" s="190"/>
-      <c r="AD112" s="187"/>
+      <c r="AC112" s="175"/>
+      <c r="AD112" s="221"/>
       <c r="AE112" s="117"/>
-      <c r="AF112" s="231"/>
+      <c r="AF112" s="163"/>
     </row>
     <row r="113" spans="1:32" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A113" s="180"/>
+      <c r="A113" s="194"/>
       <c r="B113" s="93" t="s">
         <v>563</v>
       </c>
@@ -14299,7 +14299,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC113" s="189" t="str">
+      <c r="AC113" s="174" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D114&gt;D113," * F05-11 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-10"&amp;CHAR(10),""),IF(E114&gt;E113," * F05-11 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-10"&amp;CHAR(10),""),
@@ -14318,12 +14318,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD113" s="187"/>
+      <c r="AD113" s="221"/>
       <c r="AE113" s="117"/>
-      <c r="AF113" s="231"/>
+      <c r="AF113" s="163"/>
     </row>
     <row r="114" spans="1:32" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A114" s="181"/>
+      <c r="A114" s="229"/>
       <c r="B114" s="93" t="s">
         <v>564</v>
       </c>
@@ -14358,13 +14358,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC114" s="190"/>
-      <c r="AD114" s="187"/>
+      <c r="AC114" s="175"/>
+      <c r="AD114" s="221"/>
       <c r="AE114" s="117"/>
-      <c r="AF114" s="231"/>
+      <c r="AF114" s="163"/>
     </row>
     <row r="115" spans="1:32" s="12" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A115" s="179" t="s">
+      <c r="A115" s="193" t="s">
         <v>131</v>
       </c>
       <c r="B115" s="93" t="s">
@@ -14401,7 +14401,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC115" s="189" t="str">
+      <c r="AC115" s="174" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D116&gt;D115," * F05-13 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-12"&amp;CHAR(10),""),IF(E116&gt;E115," * F05-13 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-12"&amp;CHAR(10),""),
@@ -14420,12 +14420,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD115" s="187"/>
+      <c r="AD115" s="221"/>
       <c r="AE115" s="117"/>
-      <c r="AF115" s="231"/>
+      <c r="AF115" s="163"/>
     </row>
     <row r="116" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A116" s="180"/>
+      <c r="A116" s="194"/>
       <c r="B116" s="93" t="s">
         <v>351</v>
       </c>
@@ -14460,13 +14460,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC116" s="190"/>
-      <c r="AD116" s="187"/>
+      <c r="AC116" s="175"/>
+      <c r="AD116" s="221"/>
       <c r="AE116" s="117"/>
-      <c r="AF116" s="231"/>
+      <c r="AF116" s="163"/>
     </row>
     <row r="117" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A117" s="180"/>
+      <c r="A117" s="194"/>
       <c r="B117" s="93" t="s">
         <v>565</v>
       </c>
@@ -14520,12 +14520,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD117" s="187"/>
+      <c r="AD117" s="221"/>
       <c r="AE117" s="117"/>
-      <c r="AF117" s="231"/>
+      <c r="AF117" s="163"/>
     </row>
     <row r="118" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A118" s="180"/>
+      <c r="A118" s="194"/>
       <c r="B118" s="104" t="s">
         <v>566</v>
       </c>
@@ -14579,124 +14579,124 @@
 )</f>
         <v/>
       </c>
-      <c r="AD118" s="183"/>
+      <c r="AD118" s="222"/>
       <c r="AE118" s="119"/>
-      <c r="AF118" s="231"/>
+      <c r="AF118" s="163"/>
     </row>
     <row r="119" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A119" s="238" t="s">
+      <c r="A119" s="167" t="s">
         <v>155</v>
       </c>
-      <c r="B119" s="238"/>
-      <c r="C119" s="238"/>
-      <c r="D119" s="238"/>
-      <c r="E119" s="238"/>
-      <c r="F119" s="238"/>
-      <c r="G119" s="238"/>
-      <c r="H119" s="238"/>
-      <c r="I119" s="238"/>
-      <c r="J119" s="238"/>
-      <c r="K119" s="238"/>
-      <c r="L119" s="238"/>
-      <c r="M119" s="238"/>
-      <c r="N119" s="238"/>
-      <c r="O119" s="238"/>
-      <c r="P119" s="238"/>
-      <c r="Q119" s="238"/>
-      <c r="R119" s="238"/>
-      <c r="S119" s="238"/>
-      <c r="T119" s="238"/>
-      <c r="U119" s="238"/>
-      <c r="V119" s="238"/>
-      <c r="W119" s="238"/>
-      <c r="X119" s="238"/>
-      <c r="Y119" s="238"/>
-      <c r="Z119" s="238"/>
-      <c r="AA119" s="238"/>
-      <c r="AB119" s="238"/>
-      <c r="AC119" s="238"/>
-      <c r="AD119" s="238"/>
-      <c r="AE119" s="238"/>
-      <c r="AF119" s="238"/>
+      <c r="B119" s="167"/>
+      <c r="C119" s="167"/>
+      <c r="D119" s="167"/>
+      <c r="E119" s="167"/>
+      <c r="F119" s="167"/>
+      <c r="G119" s="167"/>
+      <c r="H119" s="167"/>
+      <c r="I119" s="167"/>
+      <c r="J119" s="167"/>
+      <c r="K119" s="167"/>
+      <c r="L119" s="167"/>
+      <c r="M119" s="167"/>
+      <c r="N119" s="167"/>
+      <c r="O119" s="167"/>
+      <c r="P119" s="167"/>
+      <c r="Q119" s="167"/>
+      <c r="R119" s="167"/>
+      <c r="S119" s="167"/>
+      <c r="T119" s="167"/>
+      <c r="U119" s="167"/>
+      <c r="V119" s="167"/>
+      <c r="W119" s="167"/>
+      <c r="X119" s="167"/>
+      <c r="Y119" s="167"/>
+      <c r="Z119" s="167"/>
+      <c r="AA119" s="167"/>
+      <c r="AB119" s="167"/>
+      <c r="AC119" s="167"/>
+      <c r="AD119" s="167"/>
+      <c r="AE119" s="167"/>
+      <c r="AF119" s="167"/>
     </row>
     <row r="120" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A120" s="204" t="s">
+      <c r="A120" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="B120" s="204" t="s">
+      <c r="B120" s="191" t="s">
         <v>594</v>
       </c>
-      <c r="C120" s="202" t="s">
+      <c r="C120" s="187" t="s">
         <v>508</v>
       </c>
-      <c r="D120" s="182" t="s">
+      <c r="D120" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="174"/>
-      <c r="F120" s="173" t="s">
+      <c r="E120" s="180"/>
+      <c r="F120" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="174"/>
-      <c r="H120" s="173" t="s">
+      <c r="G120" s="180"/>
+      <c r="H120" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="I120" s="174"/>
-      <c r="J120" s="173" t="s">
+      <c r="I120" s="180"/>
+      <c r="J120" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="K120" s="174"/>
-      <c r="L120" s="173" t="s">
+      <c r="K120" s="180"/>
+      <c r="L120" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="M120" s="174"/>
-      <c r="N120" s="173" t="s">
+      <c r="M120" s="180"/>
+      <c r="N120" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="O120" s="174"/>
-      <c r="P120" s="173" t="s">
+      <c r="O120" s="180"/>
+      <c r="P120" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="Q120" s="174"/>
-      <c r="R120" s="173" t="s">
+      <c r="Q120" s="180"/>
+      <c r="R120" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="S120" s="174"/>
-      <c r="T120" s="173" t="s">
+      <c r="S120" s="180"/>
+      <c r="T120" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="U120" s="174"/>
-      <c r="V120" s="173" t="s">
+      <c r="U120" s="180"/>
+      <c r="V120" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="W120" s="174"/>
-      <c r="X120" s="173" t="s">
+      <c r="W120" s="180"/>
+      <c r="X120" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="Y120" s="174"/>
-      <c r="Z120" s="173" t="s">
+      <c r="Y120" s="180"/>
+      <c r="Z120" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="AA120" s="174"/>
-      <c r="AB120" s="175" t="s">
+      <c r="AA120" s="180"/>
+      <c r="AB120" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AC120" s="186" t="s">
+      <c r="AC120" s="173" t="s">
         <v>628</v>
       </c>
-      <c r="AD120" s="186" t="s">
+      <c r="AD120" s="173" t="s">
         <v>639</v>
       </c>
-      <c r="AE120" s="172" t="s">
+      <c r="AE120" s="165" t="s">
         <v>640</v>
       </c>
-      <c r="AF120" s="172" t="s">
+      <c r="AF120" s="165" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="121" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A121" s="205"/>
-      <c r="B121" s="205"/>
-      <c r="C121" s="203"/>
+      <c r="A121" s="192"/>
+      <c r="B121" s="192"/>
+      <c r="C121" s="188"/>
       <c r="D121" s="73" t="s">
         <v>14</v>
       </c>
@@ -14769,11 +14769,11 @@
       <c r="AA121" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB121" s="176"/>
-      <c r="AC121" s="186"/>
-      <c r="AD121" s="186"/>
-      <c r="AE121" s="172"/>
-      <c r="AF121" s="172"/>
+      <c r="AB121" s="197"/>
+      <c r="AC121" s="173"/>
+      <c r="AD121" s="173"/>
+      <c r="AE121" s="165"/>
+      <c r="AF121" s="165"/>
     </row>
     <row r="122" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A122" s="69" t="s">
@@ -14832,7 +14832,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD122" s="183" t="str">
+      <c r="AD122" s="222" t="str">
         <f>CONCATENATE(AC122,AC123,AC124,AC125,AC126,AC128,AC130,AC132)</f>
         <v/>
       </c>
@@ -14841,13 +14841,13 @@
 CONCATENATE(IF(AB122&gt;AB124," * New ANC is greater than initial test at ANC "&amp;CHAR(10),""),"")</f>
         <v/>
       </c>
-      <c r="AF122" s="231" t="str">
+      <c r="AF122" s="163" t="str">
         <f>CONCATENATE(AE122,AE123,AE124,AE125,AE126,AE127,AE128,AE129,AE130,AE131,AE132,AE133)</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A123" s="177" t="s">
+      <c r="A123" s="200" t="s">
         <v>46</v>
       </c>
       <c r="B123" s="15" t="s">
@@ -14903,7 +14903,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD123" s="184"/>
+      <c r="AD123" s="225"/>
       <c r="AE123" s="116" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -14923,10 +14923,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF123" s="231"/>
+      <c r="AF123" s="163"/>
     </row>
     <row r="124" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A124" s="193"/>
+      <c r="A124" s="211"/>
       <c r="B124" s="15" t="s">
         <v>569</v>
       </c>
@@ -14980,12 +14980,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD124" s="184"/>
+      <c r="AD124" s="225"/>
       <c r="AE124" s="117"/>
-      <c r="AF124" s="231"/>
+      <c r="AF124" s="163"/>
     </row>
     <row r="125" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A125" s="193"/>
+      <c r="A125" s="211"/>
       <c r="B125" s="15" t="s">
         <v>570</v>
       </c>
@@ -15039,12 +15039,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD125" s="184"/>
+      <c r="AD125" s="225"/>
       <c r="AE125" s="117"/>
-      <c r="AF125" s="231"/>
+      <c r="AF125" s="163"/>
     </row>
     <row r="126" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A126" s="193"/>
+      <c r="A126" s="211"/>
       <c r="B126" s="15" t="s">
         <v>571</v>
       </c>
@@ -15079,7 +15079,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC126" s="189" t="str">
+      <c r="AC126" s="174" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D127&gt;D126," * F06-06 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-05"&amp;CHAR(10),""),IF(E127&gt;E126," * F06-06 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-05"&amp;CHAR(10),""),
@@ -15098,12 +15098,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD126" s="184"/>
+      <c r="AD126" s="225"/>
       <c r="AE126" s="117"/>
-      <c r="AF126" s="231"/>
+      <c r="AF126" s="163"/>
     </row>
     <row r="127" spans="1:32" s="10" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A127" s="193"/>
+      <c r="A127" s="211"/>
       <c r="B127" s="15" t="s">
         <v>636</v>
       </c>
@@ -15138,13 +15138,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC127" s="190"/>
-      <c r="AD127" s="184"/>
+      <c r="AC127" s="175"/>
+      <c r="AD127" s="225"/>
       <c r="AE127" s="117"/>
-      <c r="AF127" s="231"/>
+      <c r="AF127" s="163"/>
     </row>
     <row r="128" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A128" s="193"/>
+      <c r="A128" s="211"/>
       <c r="B128" s="15" t="s">
         <v>572</v>
       </c>
@@ -15179,7 +15179,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC128" s="189" t="str">
+      <c r="AC128" s="174" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D129&gt;D128," * F06-08 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-07"&amp;CHAR(10),""),IF(E129&gt;E128," * F06-08 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-07"&amp;CHAR(10),""),
@@ -15198,12 +15198,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD128" s="184"/>
+      <c r="AD128" s="225"/>
       <c r="AE128" s="117"/>
-      <c r="AF128" s="231"/>
+      <c r="AF128" s="163"/>
     </row>
     <row r="129" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A129" s="193"/>
+      <c r="A129" s="211"/>
       <c r="B129" s="15" t="s">
         <v>637</v>
       </c>
@@ -15238,13 +15238,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC129" s="190"/>
-      <c r="AD129" s="184"/>
+      <c r="AC129" s="175"/>
+      <c r="AD129" s="225"/>
       <c r="AE129" s="117"/>
-      <c r="AF129" s="231"/>
+      <c r="AF129" s="163"/>
     </row>
     <row r="130" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A130" s="193"/>
+      <c r="A130" s="211"/>
       <c r="B130" s="15" t="s">
         <v>573</v>
       </c>
@@ -15279,7 +15279,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC130" s="189" t="str">
+      <c r="AC130" s="174" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D131&gt;D130," * F06-10 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-09"&amp;CHAR(10),""),IF(E131&gt;E130," * F06-10 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-09"&amp;CHAR(10),""),
@@ -15298,12 +15298,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD130" s="184"/>
+      <c r="AD130" s="225"/>
       <c r="AE130" s="117"/>
-      <c r="AF130" s="231"/>
+      <c r="AF130" s="163"/>
     </row>
     <row r="131" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A131" s="193"/>
+      <c r="A131" s="211"/>
       <c r="B131" s="15" t="s">
         <v>635</v>
       </c>
@@ -15338,13 +15338,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC131" s="190"/>
-      <c r="AD131" s="184"/>
+      <c r="AC131" s="175"/>
+      <c r="AD131" s="225"/>
       <c r="AE131" s="117"/>
-      <c r="AF131" s="231"/>
+      <c r="AF131" s="163"/>
     </row>
     <row r="132" spans="1:32" s="10" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A132" s="194" t="s">
+      <c r="A132" s="219" t="s">
         <v>149</v>
       </c>
       <c r="B132" s="15" t="s">
@@ -15381,7 +15381,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC132" s="189" t="str">
+      <c r="AC132" s="174" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D133&gt;D132," * F06-12 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-11"&amp;CHAR(10),""),IF(E133&gt;E132," * F06-12 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-11"&amp;CHAR(10),""),
@@ -15400,12 +15400,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD132" s="184"/>
+      <c r="AD132" s="225"/>
       <c r="AE132" s="117"/>
-      <c r="AF132" s="231"/>
+      <c r="AF132" s="163"/>
     </row>
     <row r="133" spans="1:32" s="10" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A133" s="195"/>
+      <c r="A133" s="220"/>
       <c r="B133" s="99" t="s">
         <v>575</v>
       </c>
@@ -15440,125 +15440,125 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC133" s="198"/>
-      <c r="AD133" s="184"/>
+      <c r="AC133" s="218"/>
+      <c r="AD133" s="225"/>
       <c r="AE133" s="119"/>
-      <c r="AF133" s="231"/>
+      <c r="AF133" s="163"/>
     </row>
     <row r="134" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A134" s="238" t="s">
+      <c r="A134" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="B134" s="238"/>
-      <c r="C134" s="238"/>
-      <c r="D134" s="238"/>
-      <c r="E134" s="238"/>
-      <c r="F134" s="238"/>
-      <c r="G134" s="238"/>
-      <c r="H134" s="238"/>
-      <c r="I134" s="238"/>
-      <c r="J134" s="238"/>
-      <c r="K134" s="238"/>
-      <c r="L134" s="238"/>
-      <c r="M134" s="238"/>
-      <c r="N134" s="238"/>
-      <c r="O134" s="238"/>
-      <c r="P134" s="238"/>
-      <c r="Q134" s="238"/>
-      <c r="R134" s="238"/>
-      <c r="S134" s="238"/>
-      <c r="T134" s="238"/>
-      <c r="U134" s="238"/>
-      <c r="V134" s="238"/>
-      <c r="W134" s="238"/>
-      <c r="X134" s="238"/>
-      <c r="Y134" s="238"/>
-      <c r="Z134" s="238"/>
-      <c r="AA134" s="238"/>
-      <c r="AB134" s="238"/>
-      <c r="AC134" s="238"/>
-      <c r="AD134" s="238"/>
-      <c r="AE134" s="238"/>
-      <c r="AF134" s="238"/>
+      <c r="B134" s="167"/>
+      <c r="C134" s="167"/>
+      <c r="D134" s="167"/>
+      <c r="E134" s="167"/>
+      <c r="F134" s="167"/>
+      <c r="G134" s="167"/>
+      <c r="H134" s="167"/>
+      <c r="I134" s="167"/>
+      <c r="J134" s="167"/>
+      <c r="K134" s="167"/>
+      <c r="L134" s="167"/>
+      <c r="M134" s="167"/>
+      <c r="N134" s="167"/>
+      <c r="O134" s="167"/>
+      <c r="P134" s="167"/>
+      <c r="Q134" s="167"/>
+      <c r="R134" s="167"/>
+      <c r="S134" s="167"/>
+      <c r="T134" s="167"/>
+      <c r="U134" s="167"/>
+      <c r="V134" s="167"/>
+      <c r="W134" s="167"/>
+      <c r="X134" s="167"/>
+      <c r="Y134" s="167"/>
+      <c r="Z134" s="167"/>
+      <c r="AA134" s="167"/>
+      <c r="AB134" s="167"/>
+      <c r="AC134" s="167"/>
+      <c r="AD134" s="167"/>
+      <c r="AE134" s="167"/>
+      <c r="AF134" s="167"/>
     </row>
     <row r="135" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A135" s="204" t="s">
+      <c r="A135" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="B135" s="204" t="s">
+      <c r="B135" s="191" t="s">
         <v>594</v>
       </c>
-      <c r="C135" s="202" t="s">
+      <c r="C135" s="187" t="s">
         <v>508</v>
       </c>
-      <c r="D135" s="182" t="s">
+      <c r="D135" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="174"/>
-      <c r="F135" s="173" t="s">
+      <c r="E135" s="180"/>
+      <c r="F135" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="174"/>
-      <c r="H135" s="173" t="s">
+      <c r="G135" s="180"/>
+      <c r="H135" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="I135" s="174"/>
-      <c r="J135" s="173" t="s">
+      <c r="I135" s="180"/>
+      <c r="J135" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="K135" s="174"/>
-      <c r="L135" s="173" t="s">
+      <c r="K135" s="180"/>
+      <c r="L135" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="M135" s="174"/>
-      <c r="N135" s="173" t="s">
+      <c r="M135" s="180"/>
+      <c r="N135" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="O135" s="174"/>
-      <c r="P135" s="173" t="s">
+      <c r="O135" s="180"/>
+      <c r="P135" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="Q135" s="174"/>
-      <c r="R135" s="173" t="s">
+      <c r="Q135" s="180"/>
+      <c r="R135" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="S135" s="174"/>
-      <c r="T135" s="173" t="s">
+      <c r="S135" s="180"/>
+      <c r="T135" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="U135" s="174"/>
-      <c r="V135" s="173" t="s">
+      <c r="U135" s="180"/>
+      <c r="V135" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="W135" s="174"/>
-      <c r="X135" s="173" t="s">
+      <c r="W135" s="180"/>
+      <c r="X135" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="Y135" s="174"/>
-      <c r="Z135" s="173" t="s">
+      <c r="Y135" s="180"/>
+      <c r="Z135" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="AA135" s="174"/>
-      <c r="AB135" s="175" t="s">
+      <c r="AA135" s="180"/>
+      <c r="AB135" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AC135" s="186" t="s">
+      <c r="AC135" s="173" t="s">
         <v>628</v>
       </c>
-      <c r="AD135" s="186" t="s">
+      <c r="AD135" s="173" t="s">
         <v>639</v>
       </c>
-      <c r="AE135" s="172" t="s">
+      <c r="AE135" s="165" t="s">
         <v>640</v>
       </c>
-      <c r="AF135" s="172" t="s">
+      <c r="AF135" s="165" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="136" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A136" s="205"/>
-      <c r="B136" s="205"/>
-      <c r="C136" s="203"/>
+      <c r="A136" s="192"/>
+      <c r="B136" s="192"/>
+      <c r="C136" s="188"/>
       <c r="D136" s="73" t="s">
         <v>14</v>
       </c>
@@ -15631,14 +15631,14 @@
       <c r="AA136" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB136" s="176"/>
-      <c r="AC136" s="186"/>
-      <c r="AD136" s="186"/>
-      <c r="AE136" s="172"/>
-      <c r="AF136" s="172"/>
+      <c r="AB136" s="197"/>
+      <c r="AC136" s="173"/>
+      <c r="AD136" s="173"/>
+      <c r="AE136" s="165"/>
+      <c r="AF136" s="165"/>
     </row>
     <row r="137" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A137" s="188" t="s">
+      <c r="A137" s="184" t="s">
         <v>35</v>
       </c>
       <c r="B137" s="15" t="s">
@@ -15676,7 +15676,7 @@
         <v>0</v>
       </c>
       <c r="AC137" s="112"/>
-      <c r="AD137" s="183" t="str">
+      <c r="AD137" s="222" t="str">
         <f>CONCATENATE(AC137,AC138,AC139,AC140,AC141,AC142,AC143,AC144)</f>
         <v/>
       </c>
@@ -15699,13 +15699,13 @@
 )</f>
         <v/>
       </c>
-      <c r="AF137" s="231" t="str">
+      <c r="AF137" s="163" t="str">
         <f>CONCATENATE(AE137,AE138,AE139,AE140,AE141,AE142,AE143,AE144)</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A138" s="188"/>
+      <c r="A138" s="184"/>
       <c r="B138" s="15" t="s">
         <v>577</v>
       </c>
@@ -15759,7 +15759,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD138" s="184"/>
+      <c r="AD138" s="225"/>
       <c r="AE138" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15779,10 +15779,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF138" s="231"/>
+      <c r="AF138" s="163"/>
     </row>
     <row r="139" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A139" s="188"/>
+      <c r="A139" s="184"/>
       <c r="B139" s="15" t="s">
         <v>578</v>
       </c>
@@ -15836,7 +15836,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD139" s="184"/>
+      <c r="AD139" s="225"/>
       <c r="AE139" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15856,10 +15856,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF139" s="231"/>
+      <c r="AF139" s="163"/>
     </row>
     <row r="140" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A140" s="188"/>
+      <c r="A140" s="184"/>
       <c r="B140" s="15" t="s">
         <v>579</v>
       </c>
@@ -15913,7 +15913,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD140" s="184"/>
+      <c r="AD140" s="225"/>
       <c r="AE140" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15933,10 +15933,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF140" s="231"/>
+      <c r="AF140" s="163"/>
     </row>
     <row r="141" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A141" s="188"/>
+      <c r="A141" s="184"/>
       <c r="B141" s="15" t="s">
         <v>580</v>
       </c>
@@ -15972,12 +15972,12 @@
         <v>0</v>
       </c>
       <c r="AC141" s="112"/>
-      <c r="AD141" s="184"/>
+      <c r="AD141" s="225"/>
       <c r="AE141" s="117"/>
-      <c r="AF141" s="231"/>
+      <c r="AF141" s="163"/>
     </row>
     <row r="142" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A142" s="188" t="s">
+      <c r="A142" s="184" t="s">
         <v>145</v>
       </c>
       <c r="B142" s="15" t="s">
@@ -16033,7 +16033,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD142" s="184"/>
+      <c r="AD142" s="225"/>
       <c r="AE142" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16053,10 +16053,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF142" s="231"/>
+      <c r="AF142" s="163"/>
     </row>
     <row r="143" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A143" s="188"/>
+      <c r="A143" s="184"/>
       <c r="B143" s="15" t="s">
         <v>581</v>
       </c>
@@ -16110,7 +16110,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD143" s="184"/>
+      <c r="AD143" s="225"/>
       <c r="AE143" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16130,10 +16130,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF143" s="231"/>
+      <c r="AF143" s="163"/>
     </row>
     <row r="144" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A144" s="177"/>
+      <c r="A144" s="200"/>
       <c r="B144" s="99" t="s">
         <v>582</v>
       </c>
@@ -16187,7 +16187,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD144" s="184"/>
+      <c r="AD144" s="225"/>
       <c r="AE144" s="119" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16207,122 +16207,122 @@
 )</f>
         <v/>
       </c>
-      <c r="AF144" s="231"/>
+      <c r="AF144" s="163"/>
     </row>
     <row r="145" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A145" s="238" t="s">
+      <c r="A145" s="167" t="s">
         <v>156</v>
       </c>
-      <c r="B145" s="238"/>
-      <c r="C145" s="238"/>
-      <c r="D145" s="238"/>
-      <c r="E145" s="238"/>
-      <c r="F145" s="238"/>
-      <c r="G145" s="238"/>
-      <c r="H145" s="238"/>
-      <c r="I145" s="238"/>
-      <c r="J145" s="238"/>
-      <c r="K145" s="238"/>
-      <c r="L145" s="238"/>
-      <c r="M145" s="238"/>
-      <c r="N145" s="238"/>
-      <c r="O145" s="238"/>
-      <c r="P145" s="238"/>
-      <c r="Q145" s="238"/>
-      <c r="R145" s="238"/>
-      <c r="S145" s="238"/>
-      <c r="T145" s="238"/>
-      <c r="U145" s="238"/>
-      <c r="V145" s="238"/>
-      <c r="W145" s="238"/>
-      <c r="X145" s="238"/>
-      <c r="Y145" s="238"/>
-      <c r="Z145" s="238"/>
-      <c r="AA145" s="238"/>
-      <c r="AB145" s="238"/>
-      <c r="AC145" s="238"/>
-      <c r="AD145" s="238"/>
-      <c r="AE145" s="238"/>
-      <c r="AF145" s="238"/>
+      <c r="B145" s="167"/>
+      <c r="C145" s="167"/>
+      <c r="D145" s="167"/>
+      <c r="E145" s="167"/>
+      <c r="F145" s="167"/>
+      <c r="G145" s="167"/>
+      <c r="H145" s="167"/>
+      <c r="I145" s="167"/>
+      <c r="J145" s="167"/>
+      <c r="K145" s="167"/>
+      <c r="L145" s="167"/>
+      <c r="M145" s="167"/>
+      <c r="N145" s="167"/>
+      <c r="O145" s="167"/>
+      <c r="P145" s="167"/>
+      <c r="Q145" s="167"/>
+      <c r="R145" s="167"/>
+      <c r="S145" s="167"/>
+      <c r="T145" s="167"/>
+      <c r="U145" s="167"/>
+      <c r="V145" s="167"/>
+      <c r="W145" s="167"/>
+      <c r="X145" s="167"/>
+      <c r="Y145" s="167"/>
+      <c r="Z145" s="167"/>
+      <c r="AA145" s="167"/>
+      <c r="AB145" s="167"/>
+      <c r="AC145" s="167"/>
+      <c r="AD145" s="167"/>
+      <c r="AE145" s="167"/>
+      <c r="AF145" s="167"/>
     </row>
     <row r="146" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A146" s="204" t="s">
+      <c r="A146" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="B146" s="204" t="s">
+      <c r="B146" s="191" t="s">
         <v>594</v>
       </c>
-      <c r="C146" s="202" t="s">
+      <c r="C146" s="187" t="s">
         <v>508</v>
       </c>
-      <c r="D146" s="182" t="s">
+      <c r="D146" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="E146" s="174"/>
-      <c r="F146" s="173" t="s">
+      <c r="E146" s="180"/>
+      <c r="F146" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="G146" s="174"/>
-      <c r="H146" s="173" t="s">
+      <c r="G146" s="180"/>
+      <c r="H146" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="I146" s="174"/>
-      <c r="J146" s="173" t="s">
+      <c r="I146" s="180"/>
+      <c r="J146" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="K146" s="174"/>
-      <c r="L146" s="173" t="s">
+      <c r="K146" s="180"/>
+      <c r="L146" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="M146" s="174"/>
-      <c r="N146" s="173" t="s">
+      <c r="M146" s="180"/>
+      <c r="N146" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="O146" s="174"/>
-      <c r="P146" s="173" t="s">
+      <c r="O146" s="180"/>
+      <c r="P146" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="Q146" s="174"/>
-      <c r="R146" s="173" t="s">
+      <c r="Q146" s="180"/>
+      <c r="R146" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="S146" s="174"/>
-      <c r="T146" s="173" t="s">
+      <c r="S146" s="180"/>
+      <c r="T146" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="U146" s="174"/>
-      <c r="V146" s="173" t="s">
+      <c r="U146" s="180"/>
+      <c r="V146" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="W146" s="174"/>
-      <c r="X146" s="173" t="s">
+      <c r="W146" s="180"/>
+      <c r="X146" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="Y146" s="174"/>
-      <c r="Z146" s="173" t="s">
+      <c r="Y146" s="180"/>
+      <c r="Z146" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="AA146" s="174"/>
-      <c r="AB146" s="200" t="s">
+      <c r="AA146" s="180"/>
+      <c r="AB146" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="AC146" s="196" t="s">
+      <c r="AC146" s="217" t="s">
         <v>628</v>
       </c>
-      <c r="AD146" s="186" t="s">
+      <c r="AD146" s="173" t="s">
         <v>639</v>
       </c>
-      <c r="AE146" s="172" t="s">
+      <c r="AE146" s="165" t="s">
         <v>640</v>
       </c>
-      <c r="AF146" s="172" t="s">
+      <c r="AF146" s="165" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="147" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A147" s="205"/>
-      <c r="B147" s="205"/>
-      <c r="C147" s="203"/>
+      <c r="A147" s="192"/>
+      <c r="B147" s="192"/>
+      <c r="C147" s="188"/>
       <c r="D147" s="73" t="s">
         <v>14</v>
       </c>
@@ -16395,14 +16395,14 @@
       <c r="AA147" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB147" s="201"/>
-      <c r="AC147" s="197"/>
-      <c r="AD147" s="186"/>
-      <c r="AE147" s="172"/>
-      <c r="AF147" s="172"/>
+      <c r="AB147" s="216"/>
+      <c r="AC147" s="190"/>
+      <c r="AD147" s="173"/>
+      <c r="AE147" s="165"/>
+      <c r="AF147" s="165"/>
     </row>
     <row r="148" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A148" s="177" t="s">
+      <c r="A148" s="200" t="s">
         <v>47</v>
       </c>
       <c r="B148" s="15" t="s">
@@ -16458,7 +16458,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD148" s="183" t="str">
+      <c r="AD148" s="222" t="str">
         <f>CONCATENATE(AC148,AC149,AC150,AC151)</f>
         <v/>
       </c>
@@ -16481,13 +16481,13 @@
 )</f>
         <v/>
       </c>
-      <c r="AF148" s="231" t="str">
+      <c r="AF148" s="163" t="str">
         <f>CONCATENATE(AE148,AE149,AE150,AE151)</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:32" s="10" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A149" s="193"/>
+      <c r="A149" s="211"/>
       <c r="B149" s="94" t="s">
         <v>584</v>
       </c>
@@ -16541,7 +16541,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD149" s="184"/>
+      <c r="AD149" s="225"/>
       <c r="AE149" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16549,10 +16549,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF149" s="231"/>
+      <c r="AF149" s="163"/>
     </row>
     <row r="150" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A150" s="193"/>
+      <c r="A150" s="211"/>
       <c r="B150" s="15" t="s">
         <v>585</v>
       </c>
@@ -16588,12 +16588,12 @@
         <v>0</v>
       </c>
       <c r="AC150" s="112"/>
-      <c r="AD150" s="184"/>
+      <c r="AD150" s="225"/>
       <c r="AE150" s="117"/>
-      <c r="AF150" s="231"/>
+      <c r="AF150" s="163"/>
     </row>
     <row r="151" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A151" s="193"/>
+      <c r="A151" s="211"/>
       <c r="B151" s="99" t="s">
         <v>586</v>
       </c>
@@ -16647,124 +16647,124 @@
 )</f>
         <v/>
       </c>
-      <c r="AD151" s="184"/>
+      <c r="AD151" s="225"/>
       <c r="AE151" s="119"/>
-      <c r="AF151" s="231"/>
+      <c r="AF151" s="163"/>
     </row>
     <row r="152" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A152" s="238" t="s">
+      <c r="A152" s="167" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="238"/>
-      <c r="C152" s="238"/>
-      <c r="D152" s="238"/>
-      <c r="E152" s="238"/>
-      <c r="F152" s="238"/>
-      <c r="G152" s="238"/>
-      <c r="H152" s="238"/>
-      <c r="I152" s="238"/>
-      <c r="J152" s="238"/>
-      <c r="K152" s="238"/>
-      <c r="L152" s="238"/>
-      <c r="M152" s="238"/>
-      <c r="N152" s="238"/>
-      <c r="O152" s="238"/>
-      <c r="P152" s="238"/>
-      <c r="Q152" s="238"/>
-      <c r="R152" s="238"/>
-      <c r="S152" s="238"/>
-      <c r="T152" s="238"/>
-      <c r="U152" s="238"/>
-      <c r="V152" s="238"/>
-      <c r="W152" s="238"/>
-      <c r="X152" s="238"/>
-      <c r="Y152" s="238"/>
-      <c r="Z152" s="238"/>
-      <c r="AA152" s="238"/>
-      <c r="AB152" s="238"/>
-      <c r="AC152" s="238"/>
-      <c r="AD152" s="238"/>
-      <c r="AE152" s="238"/>
-      <c r="AF152" s="238"/>
+      <c r="B152" s="167"/>
+      <c r="C152" s="167"/>
+      <c r="D152" s="167"/>
+      <c r="E152" s="167"/>
+      <c r="F152" s="167"/>
+      <c r="G152" s="167"/>
+      <c r="H152" s="167"/>
+      <c r="I152" s="167"/>
+      <c r="J152" s="167"/>
+      <c r="K152" s="167"/>
+      <c r="L152" s="167"/>
+      <c r="M152" s="167"/>
+      <c r="N152" s="167"/>
+      <c r="O152" s="167"/>
+      <c r="P152" s="167"/>
+      <c r="Q152" s="167"/>
+      <c r="R152" s="167"/>
+      <c r="S152" s="167"/>
+      <c r="T152" s="167"/>
+      <c r="U152" s="167"/>
+      <c r="V152" s="167"/>
+      <c r="W152" s="167"/>
+      <c r="X152" s="167"/>
+      <c r="Y152" s="167"/>
+      <c r="Z152" s="167"/>
+      <c r="AA152" s="167"/>
+      <c r="AB152" s="167"/>
+      <c r="AC152" s="167"/>
+      <c r="AD152" s="167"/>
+      <c r="AE152" s="167"/>
+      <c r="AF152" s="167"/>
     </row>
     <row r="153" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A153" s="204" t="s">
+      <c r="A153" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="B153" s="204" t="s">
+      <c r="B153" s="191" t="s">
         <v>594</v>
       </c>
-      <c r="C153" s="202" t="s">
+      <c r="C153" s="187" t="s">
         <v>508</v>
       </c>
-      <c r="D153" s="182" t="s">
+      <c r="D153" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="E153" s="174"/>
-      <c r="F153" s="173" t="s">
+      <c r="E153" s="180"/>
+      <c r="F153" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="G153" s="174"/>
-      <c r="H153" s="173" t="s">
+      <c r="G153" s="180"/>
+      <c r="H153" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="I153" s="174"/>
-      <c r="J153" s="173" t="s">
+      <c r="I153" s="180"/>
+      <c r="J153" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="K153" s="174"/>
-      <c r="L153" s="173" t="s">
+      <c r="K153" s="180"/>
+      <c r="L153" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="M153" s="174"/>
-      <c r="N153" s="173" t="s">
+      <c r="M153" s="180"/>
+      <c r="N153" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="O153" s="174"/>
-      <c r="P153" s="173" t="s">
+      <c r="O153" s="180"/>
+      <c r="P153" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="Q153" s="174"/>
-      <c r="R153" s="173" t="s">
+      <c r="Q153" s="180"/>
+      <c r="R153" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="S153" s="174"/>
-      <c r="T153" s="173" t="s">
+      <c r="S153" s="180"/>
+      <c r="T153" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="U153" s="174"/>
-      <c r="V153" s="173" t="s">
+      <c r="U153" s="180"/>
+      <c r="V153" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="W153" s="174"/>
-      <c r="X153" s="173" t="s">
+      <c r="W153" s="180"/>
+      <c r="X153" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="Y153" s="174"/>
-      <c r="Z153" s="173" t="s">
+      <c r="Y153" s="180"/>
+      <c r="Z153" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="AA153" s="174"/>
-      <c r="AB153" s="200" t="s">
+      <c r="AA153" s="180"/>
+      <c r="AB153" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="AC153" s="196" t="s">
+      <c r="AC153" s="217" t="s">
         <v>628</v>
       </c>
-      <c r="AD153" s="186" t="s">
+      <c r="AD153" s="173" t="s">
         <v>639</v>
       </c>
-      <c r="AE153" s="172" t="s">
+      <c r="AE153" s="165" t="s">
         <v>640</v>
       </c>
-      <c r="AF153" s="172" t="s">
+      <c r="AF153" s="165" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="154" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A154" s="205"/>
-      <c r="B154" s="205"/>
-      <c r="C154" s="203"/>
+      <c r="A154" s="192"/>
+      <c r="B154" s="192"/>
+      <c r="C154" s="188"/>
       <c r="D154" s="73" t="s">
         <v>14</v>
       </c>
@@ -16837,14 +16837,14 @@
       <c r="AA154" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB154" s="201"/>
-      <c r="AC154" s="197"/>
-      <c r="AD154" s="186"/>
-      <c r="AE154" s="172"/>
-      <c r="AF154" s="172"/>
+      <c r="AB154" s="216"/>
+      <c r="AC154" s="190"/>
+      <c r="AD154" s="173"/>
+      <c r="AE154" s="165"/>
+      <c r="AF154" s="165"/>
     </row>
     <row r="155" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A155" s="177" t="s">
+      <c r="A155" s="200" t="s">
         <v>36</v>
       </c>
       <c r="B155" s="15" t="s">
@@ -16900,18 +16900,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD155" s="183" t="str">
+      <c r="AD155" s="222" t="str">
         <f>CONCATENATE(AC155,AC156,AC157,AC158,AC159,AC160,AC161,AC162,AC163,AC164,AC165)</f>
         <v/>
       </c>
       <c r="AE155" s="117"/>
-      <c r="AF155" s="231" t="str">
+      <c r="AF155" s="163" t="str">
         <f>CONCATENATE(AE155,AE156,AE157,AE158,AE159,AE160,AE161,AE162,AE163,AE164,AE165)</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:32" s="10" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A156" s="193"/>
+      <c r="A156" s="211"/>
       <c r="B156" s="15" t="s">
         <v>430</v>
       </c>
@@ -16947,12 +16947,12 @@
         <v>0</v>
       </c>
       <c r="AC156" s="112"/>
-      <c r="AD156" s="184"/>
+      <c r="AD156" s="225"/>
       <c r="AE156" s="117"/>
-      <c r="AF156" s="231"/>
+      <c r="AF156" s="163"/>
     </row>
     <row r="157" spans="1:32" s="10" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A157" s="193"/>
+      <c r="A157" s="211"/>
       <c r="B157" s="15" t="s">
         <v>431</v>
       </c>
@@ -16988,12 +16988,12 @@
         <v>0</v>
       </c>
       <c r="AC157" s="112"/>
-      <c r="AD157" s="184"/>
+      <c r="AD157" s="225"/>
       <c r="AE157" s="117"/>
-      <c r="AF157" s="231"/>
+      <c r="AF157" s="163"/>
     </row>
     <row r="158" spans="1:32" s="10" customFormat="1" ht="88.35" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A158" s="178"/>
+      <c r="A158" s="201"/>
       <c r="B158" s="15" t="s">
         <v>588</v>
       </c>
@@ -17029,12 +17029,12 @@
         <v>0</v>
       </c>
       <c r="AC158" s="112"/>
-      <c r="AD158" s="184"/>
+      <c r="AD158" s="225"/>
       <c r="AE158" s="117"/>
-      <c r="AF158" s="231"/>
+      <c r="AF158" s="163"/>
     </row>
     <row r="159" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A159" s="188" t="s">
+      <c r="A159" s="184" t="s">
         <v>146</v>
       </c>
       <c r="B159" s="15" t="s">
@@ -17072,12 +17072,12 @@
         <v>0</v>
       </c>
       <c r="AC159" s="112"/>
-      <c r="AD159" s="184"/>
+      <c r="AD159" s="225"/>
       <c r="AE159" s="117"/>
-      <c r="AF159" s="231"/>
+      <c r="AF159" s="163"/>
     </row>
     <row r="160" spans="1:32" s="10" customFormat="1" ht="161.44999999999999" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A160" s="188"/>
+      <c r="A160" s="184"/>
       <c r="B160" s="15" t="s">
         <v>435</v>
       </c>
@@ -17113,12 +17113,12 @@
         <v>0</v>
       </c>
       <c r="AC160" s="112"/>
-      <c r="AD160" s="184"/>
+      <c r="AD160" s="225"/>
       <c r="AE160" s="117"/>
-      <c r="AF160" s="231"/>
+      <c r="AF160" s="163"/>
     </row>
     <row r="161" spans="1:32" s="10" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A161" s="188"/>
+      <c r="A161" s="184"/>
       <c r="B161" s="15" t="s">
         <v>590</v>
       </c>
@@ -17154,12 +17154,12 @@
         <v>0</v>
       </c>
       <c r="AC161" s="112"/>
-      <c r="AD161" s="184"/>
+      <c r="AD161" s="225"/>
       <c r="AE161" s="117"/>
-      <c r="AF161" s="231"/>
+      <c r="AF161" s="163"/>
     </row>
     <row r="162" spans="1:32" s="10" customFormat="1" ht="158.1" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A162" s="188"/>
+      <c r="A162" s="184"/>
       <c r="B162" s="15" t="s">
         <v>591</v>
       </c>
@@ -17195,12 +17195,12 @@
         <v>0</v>
       </c>
       <c r="AC162" s="112"/>
-      <c r="AD162" s="184"/>
+      <c r="AD162" s="225"/>
       <c r="AE162" s="117"/>
-      <c r="AF162" s="231"/>
+      <c r="AF162" s="163"/>
     </row>
     <row r="163" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A163" s="188"/>
+      <c r="A163" s="184"/>
       <c r="B163" s="15" t="s">
         <v>438</v>
       </c>
@@ -17236,12 +17236,12 @@
         <v>0</v>
       </c>
       <c r="AC163" s="112"/>
-      <c r="AD163" s="184"/>
+      <c r="AD163" s="225"/>
       <c r="AE163" s="117"/>
-      <c r="AF163" s="231"/>
+      <c r="AF163" s="163"/>
     </row>
     <row r="164" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A164" s="188"/>
+      <c r="A164" s="184"/>
       <c r="B164" s="15" t="s">
         <v>592</v>
       </c>
@@ -17277,12 +17277,12 @@
         <v>0</v>
       </c>
       <c r="AC164" s="112"/>
-      <c r="AD164" s="184"/>
+      <c r="AD164" s="225"/>
       <c r="AE164" s="117"/>
-      <c r="AF164" s="231"/>
+      <c r="AF164" s="163"/>
     </row>
     <row r="165" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="1">
-      <c r="A165" s="199"/>
+      <c r="A165" s="214"/>
       <c r="B165" s="95" t="s">
         <v>593</v>
       </c>
@@ -17318,9 +17318,9 @@
         <v>0</v>
       </c>
       <c r="AC165" s="115"/>
-      <c r="AD165" s="185"/>
+      <c r="AD165" s="228"/>
       <c r="AE165" s="117"/>
-      <c r="AF165" s="231"/>
+      <c r="AF165" s="163"/>
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.7">
       <c r="A166" s="6"/>
@@ -17360,8 +17360,276 @@
       <c r="M169" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qeKJ43j34xlra1eHzt3sZ1h9IFAgsM8YJP+QGKBRFTYVjkj7NAKaC2hcd0E2qPqeOPtid2odC9E/Zn29YlH2SA==" saltValue="ZZpjmgUAOBjBRKtbizRygw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jKYMwuxP0bwDFs5HRzijgLBzxCbekLuEebW/svApJ6Pfb108P7Tfgt/XLp0wjn+JYysDsRE0igqnlGVJI2NgOw==" saltValue="EMar4nLSEBT7JWR0N8/wQg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="292">
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AE153:AE154"/>
+    <mergeCell ref="X146:Y146"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="Z120:AA120"/>
+    <mergeCell ref="AB120:AB121"/>
+    <mergeCell ref="AB135:AB136"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="P153:Q153"/>
+    <mergeCell ref="R153:S153"/>
+    <mergeCell ref="T153:U153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="AD155:AD165"/>
+    <mergeCell ref="AD148:AD151"/>
+    <mergeCell ref="AD137:AD144"/>
+    <mergeCell ref="AD135:AD136"/>
+    <mergeCell ref="AD146:AD147"/>
+    <mergeCell ref="AD153:AD154"/>
+    <mergeCell ref="AD122:AD133"/>
+    <mergeCell ref="AD120:AD121"/>
+    <mergeCell ref="AD104:AD118"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="AD102:AD103"/>
+    <mergeCell ref="AD83:AD100"/>
+    <mergeCell ref="AD81:AD82"/>
+    <mergeCell ref="AD68:AD79"/>
+    <mergeCell ref="AD66:AD67"/>
+    <mergeCell ref="AD48:AD64"/>
+    <mergeCell ref="AD46:AD47"/>
+    <mergeCell ref="AD40:AD44"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="A123:A131"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="R120:S120"/>
+    <mergeCell ref="T120:U120"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X120:Y120"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="V135:W135"/>
+    <mergeCell ref="X135:Y135"/>
+    <mergeCell ref="Z135:AA135"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="R135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="AC153:AC154"/>
+    <mergeCell ref="AC146:AC147"/>
+    <mergeCell ref="AC135:AC136"/>
+    <mergeCell ref="AC120:AC121"/>
+    <mergeCell ref="AC102:AC103"/>
+    <mergeCell ref="AC130:AC131"/>
+    <mergeCell ref="AC132:AC133"/>
+    <mergeCell ref="AC128:AC129"/>
+    <mergeCell ref="AC126:AC127"/>
+    <mergeCell ref="AC109:AC110"/>
+    <mergeCell ref="AC104:AC105"/>
+    <mergeCell ref="V102:W102"/>
+    <mergeCell ref="X102:Y102"/>
+    <mergeCell ref="Z102:AA102"/>
+    <mergeCell ref="AB102:AB103"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="V153:W153"/>
+    <mergeCell ref="X153:Y153"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="Z146:AA146"/>
+    <mergeCell ref="AB146:AB147"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="R146:S146"/>
+    <mergeCell ref="T146:U146"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="Z153:AA153"/>
+    <mergeCell ref="AB153:AB154"/>
+    <mergeCell ref="V146:W146"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="AE81:AE82"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="AC66:AC67"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="AB81:AB82"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="D38:I39"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="AE46:AE47"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="AB66:AB67"/>
+    <mergeCell ref="AE66:AE67"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="AC53:AC54"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="AF68:AF79"/>
+    <mergeCell ref="AF83:AF100"/>
+    <mergeCell ref="AF104:AF118"/>
+    <mergeCell ref="AF122:AF133"/>
+    <mergeCell ref="AF137:AF144"/>
+    <mergeCell ref="AF148:AF151"/>
+    <mergeCell ref="AC48:AC49"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AE102:AE103"/>
+    <mergeCell ref="AE120:AE121"/>
+    <mergeCell ref="AC115:AC116"/>
+    <mergeCell ref="AC113:AC114"/>
+    <mergeCell ref="AC111:AC112"/>
+    <mergeCell ref="AC46:AC47"/>
+    <mergeCell ref="AD8:AD36"/>
+    <mergeCell ref="AE146:AE147"/>
+    <mergeCell ref="AE135:AE136"/>
     <mergeCell ref="AF155:AF165"/>
     <mergeCell ref="AF8:AF36"/>
     <mergeCell ref="AF6:AF7"/>
@@ -17386,274 +17654,6 @@
     <mergeCell ref="A37:AF37"/>
     <mergeCell ref="AF40:AF44"/>
     <mergeCell ref="AF48:AF64"/>
-    <mergeCell ref="AF68:AF79"/>
-    <mergeCell ref="AF83:AF100"/>
-    <mergeCell ref="AF104:AF118"/>
-    <mergeCell ref="AF122:AF133"/>
-    <mergeCell ref="AF137:AF144"/>
-    <mergeCell ref="AF148:AF151"/>
-    <mergeCell ref="AC48:AC49"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AE102:AE103"/>
-    <mergeCell ref="AE120:AE121"/>
-    <mergeCell ref="AC115:AC116"/>
-    <mergeCell ref="AC113:AC114"/>
-    <mergeCell ref="AC111:AC112"/>
-    <mergeCell ref="AC46:AC47"/>
-    <mergeCell ref="AD8:AD36"/>
-    <mergeCell ref="AE146:AE147"/>
-    <mergeCell ref="AE135:AE136"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="A2:AC2"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="AE46:AE47"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="D38:I39"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="AB66:AB67"/>
-    <mergeCell ref="AE66:AE67"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="AB81:AB82"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="AE81:AE82"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="V153:W153"/>
-    <mergeCell ref="X153:Y153"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="Z146:AA146"/>
-    <mergeCell ref="AB146:AB147"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="L146:M146"/>
-    <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="R146:S146"/>
-    <mergeCell ref="T146:U146"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="Z153:AA153"/>
-    <mergeCell ref="AB153:AB154"/>
-    <mergeCell ref="V146:W146"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="AC66:AC67"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="AC153:AC154"/>
-    <mergeCell ref="AC146:AC147"/>
-    <mergeCell ref="AC135:AC136"/>
-    <mergeCell ref="AC120:AC121"/>
-    <mergeCell ref="AC102:AC103"/>
-    <mergeCell ref="AC130:AC131"/>
-    <mergeCell ref="AC132:AC133"/>
-    <mergeCell ref="AC128:AC129"/>
-    <mergeCell ref="AC126:AC127"/>
-    <mergeCell ref="AC109:AC110"/>
-    <mergeCell ref="AC104:AC105"/>
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="V102:W102"/>
-    <mergeCell ref="X102:Y102"/>
-    <mergeCell ref="Z102:AA102"/>
-    <mergeCell ref="AB102:AB103"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="V135:W135"/>
-    <mergeCell ref="X135:Y135"/>
-    <mergeCell ref="Z135:AA135"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="R135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="A123:A131"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="R120:S120"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="X120:Y120"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="AD102:AD103"/>
-    <mergeCell ref="AD83:AD100"/>
-    <mergeCell ref="AD81:AD82"/>
-    <mergeCell ref="AD68:AD79"/>
-    <mergeCell ref="AD66:AD67"/>
-    <mergeCell ref="AD48:AD64"/>
-    <mergeCell ref="AD46:AD47"/>
-    <mergeCell ref="AD40:AD44"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="AC53:AC54"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="AB46:AB47"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="AD155:AD165"/>
-    <mergeCell ref="AD148:AD151"/>
-    <mergeCell ref="AD137:AD144"/>
-    <mergeCell ref="AD135:AD136"/>
-    <mergeCell ref="AD146:AD147"/>
-    <mergeCell ref="AD153:AD154"/>
-    <mergeCell ref="AD122:AD133"/>
-    <mergeCell ref="AD120:AD121"/>
-    <mergeCell ref="AD104:AD118"/>
-    <mergeCell ref="AE153:AE154"/>
-    <mergeCell ref="X146:Y146"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="Z120:AA120"/>
-    <mergeCell ref="AB120:AB121"/>
-    <mergeCell ref="AB135:AB136"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="P153:Q153"/>
-    <mergeCell ref="R153:S153"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="AA1:AB1"/>
   </mergeCells>
   <conditionalFormatting sqref="AC8">
     <cfRule type="notContainsBlanks" dxfId="59" priority="68">

--- a/web/F1v2.xlsx
+++ b/web/F1v2.xlsx
@@ -8,8 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InternalSystem\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A118FCA-F5DF-44A0-AAE4-FB746DE64AE8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="v0yYOyVFcJlAEu5cgRp+1sBPv1E6vFlID6V99hfWQNMVGsTMUUP78qvUGT50asLraH/SLGpck1QoW/oXpQByDQ==" workbookSaltValue="KGfX8L52/N+osSH2ciRmLw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA87AFB-9F7F-4A62-8BD4-D1BC41F14DCC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C7A72A4-46D5-4130-84F6-E2BF1F1A15D0}"/>
   </bookViews>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="643">
   <si>
     <t>County______________________</t>
   </si>
@@ -3575,12 +3574,15 @@
   <si>
     <t>County</t>
   </si>
+  <si>
+    <t>Form 1A  version 1.0.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3864,6 +3866,14 @@
     <font>
       <b/>
       <sz val="102"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="55"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4283,7 +4293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4663,6 +4673,24 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4672,14 +4700,59 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4690,296 +4763,252 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6317,13 +6346,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="2" spans="2:6" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="65" t="s">
@@ -6343,12 +6372,12 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="160" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="2:6" ht="96" customHeight="1" x14ac:dyDescent="0.45">
@@ -6795,16 +6824,16 @@
       </c>
     </row>
     <row r="31" spans="2:6" s="42" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="150" t="s">
+      <c r="B31" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="154"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="135"/>
     </row>
     <row r="32" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="139" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="38" t="s">
@@ -6816,12 +6845,12 @@
       <c r="E32" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="155" t="s">
+      <c r="F32" s="146" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="134"/>
+      <c r="B33" s="140"/>
       <c r="C33" s="38" t="s">
         <v>222</v>
       </c>
@@ -6831,10 +6860,10 @@
       <c r="E33" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="156"/>
+      <c r="F33" s="147"/>
     </row>
     <row r="34" spans="2:6" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="134"/>
+      <c r="B34" s="140"/>
       <c r="C34" s="38" t="s">
         <v>227</v>
       </c>
@@ -6844,10 +6873,10 @@
       <c r="E34" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="156"/>
+      <c r="F34" s="147"/>
     </row>
     <row r="35" spans="2:6" ht="57.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="134"/>
+      <c r="B35" s="140"/>
       <c r="C35" s="38" t="s">
         <v>228</v>
       </c>
@@ -6857,10 +6886,10 @@
       <c r="E35" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="156"/>
+      <c r="F35" s="147"/>
     </row>
     <row r="36" spans="2:6" ht="72.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="135"/>
+      <c r="B36" s="141"/>
       <c r="C36" s="38" t="s">
         <v>230</v>
       </c>
@@ -6870,19 +6899,19 @@
       <c r="E36" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="157"/>
+      <c r="F36" s="148"/>
     </row>
     <row r="37" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="158" t="s">
+      <c r="B37" s="149" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="159"/>
-      <c r="D37" s="159"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="160"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="151"/>
     </row>
     <row r="38" spans="2:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="133" t="s">
+      <c r="B38" s="139" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="38" t="s">
@@ -6899,7 +6928,7 @@
       </c>
     </row>
     <row r="39" spans="2:6" ht="122.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="134"/>
+      <c r="B39" s="140"/>
       <c r="C39" s="38" t="s">
         <v>461</v>
       </c>
@@ -6914,7 +6943,7 @@
       </c>
     </row>
     <row r="40" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="134"/>
+      <c r="B40" s="140"/>
       <c r="C40" s="38" t="s">
         <v>462</v>
       </c>
@@ -6929,7 +6958,7 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="134"/>
+      <c r="B41" s="140"/>
       <c r="C41" s="38" t="s">
         <v>237</v>
       </c>
@@ -6944,7 +6973,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="134"/>
+      <c r="B42" s="140"/>
       <c r="C42" s="38" t="s">
         <v>463</v>
       </c>
@@ -6959,7 +6988,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="133" t="s">
+      <c r="B43" s="139" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="38" t="s">
@@ -6976,7 +7005,7 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="134"/>
+      <c r="B44" s="140"/>
       <c r="C44" s="38" t="s">
         <v>242</v>
       </c>
@@ -6991,7 +7020,7 @@
       </c>
     </row>
     <row r="45" spans="2:6" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="135"/>
+      <c r="B45" s="141"/>
       <c r="C45" s="38" t="s">
         <v>244</v>
       </c>
@@ -7113,7 +7142,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="161" t="s">
+      <c r="B53" s="154" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="32" t="s">
@@ -7130,7 +7159,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="92.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="162"/>
+      <c r="B54" s="155"/>
       <c r="C54" s="32" t="s">
         <v>258</v>
       </c>
@@ -7145,16 +7174,16 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="47.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="150" t="s">
+      <c r="B55" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="151"/>
-      <c r="D55" s="151"/>
-      <c r="E55" s="151"/>
-      <c r="F55" s="154"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="134"/>
+      <c r="F55" s="135"/>
     </row>
     <row r="56" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="133" t="s">
+      <c r="B56" s="139" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="38" t="s">
@@ -7171,7 +7200,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="135"/>
+      <c r="B57" s="141"/>
       <c r="C57" s="38" t="s">
         <v>471</v>
       </c>
@@ -7186,7 +7215,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="133" t="s">
+      <c r="B58" s="139" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="38" t="s">
@@ -7203,7 +7232,7 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="135"/>
+      <c r="B59" s="141"/>
       <c r="C59" s="38" t="s">
         <v>471</v>
       </c>
@@ -7218,7 +7247,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="142" t="s">
+      <c r="B60" s="152" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="50" t="s">
@@ -7235,7 +7264,7 @@
       </c>
     </row>
     <row r="61" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="143"/>
+      <c r="B61" s="153"/>
       <c r="C61" s="50" t="s">
         <v>474</v>
       </c>
@@ -7250,7 +7279,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" ht="62.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="142" t="s">
+      <c r="B62" s="152" t="s">
         <v>39</v>
       </c>
       <c r="C62" s="50" t="s">
@@ -7267,7 +7296,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="143"/>
+      <c r="B63" s="153"/>
       <c r="C63" s="50" t="s">
         <v>476</v>
       </c>
@@ -7282,7 +7311,7 @@
       </c>
     </row>
     <row r="64" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="142" t="s">
+      <c r="B64" s="152" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="50" t="s">
@@ -7299,7 +7328,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="143"/>
+      <c r="B65" s="153"/>
       <c r="C65" s="50" t="s">
         <v>478</v>
       </c>
@@ -7314,7 +7343,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="142" t="s">
+      <c r="B66" s="152" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="50" t="s">
@@ -7331,7 +7360,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="143"/>
+      <c r="B67" s="153"/>
       <c r="C67" s="50" t="s">
         <v>480</v>
       </c>
@@ -7346,16 +7375,16 @@
       </c>
     </row>
     <row r="68" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="150" t="s">
+      <c r="B68" s="133" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="151"/>
-      <c r="D68" s="151"/>
-      <c r="E68" s="151"/>
-      <c r="F68" s="154"/>
+      <c r="C68" s="134"/>
+      <c r="D68" s="134"/>
+      <c r="E68" s="134"/>
+      <c r="F68" s="135"/>
     </row>
     <row r="69" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="133" t="s">
+      <c r="B69" s="139" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="38" t="s">
@@ -7372,7 +7401,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="134"/>
+      <c r="B70" s="140"/>
       <c r="C70" s="38" t="s">
         <v>288</v>
       </c>
@@ -7387,7 +7416,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="134"/>
+      <c r="B71" s="140"/>
       <c r="C71" s="38" t="s">
         <v>482</v>
       </c>
@@ -7402,7 +7431,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="134"/>
+      <c r="B72" s="140"/>
       <c r="C72" s="38" t="s">
         <v>483</v>
       </c>
@@ -7417,7 +7446,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="75.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="134"/>
+      <c r="B73" s="140"/>
       <c r="C73" s="38" t="s">
         <v>484</v>
       </c>
@@ -7432,7 +7461,7 @@
       </c>
     </row>
     <row r="74" spans="2:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="135"/>
+      <c r="B74" s="141"/>
       <c r="C74" s="38" t="s">
         <v>485</v>
       </c>
@@ -7447,7 +7476,7 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="133" t="s">
+      <c r="B75" s="139" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="38" t="s">
@@ -7464,7 +7493,7 @@
       </c>
     </row>
     <row r="76" spans="2:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="134"/>
+      <c r="B76" s="140"/>
       <c r="C76" s="38" t="s">
         <v>486</v>
       </c>
@@ -7479,7 +7508,7 @@
       </c>
     </row>
     <row r="77" spans="2:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="134"/>
+      <c r="B77" s="140"/>
       <c r="C77" s="38" t="s">
         <v>304</v>
       </c>
@@ -7494,7 +7523,7 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="134"/>
+      <c r="B78" s="140"/>
       <c r="C78" s="38" t="s">
         <v>306</v>
       </c>
@@ -7509,7 +7538,7 @@
       </c>
     </row>
     <row r="79" spans="2:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="134"/>
+      <c r="B79" s="140"/>
       <c r="C79" s="38" t="s">
         <v>484</v>
       </c>
@@ -7524,7 +7553,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" ht="96.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="135"/>
+      <c r="B80" s="141"/>
       <c r="C80" s="38" t="s">
         <v>309</v>
       </c>
@@ -7539,7 +7568,7 @@
       </c>
     </row>
     <row r="81" spans="2:6" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="133" t="s">
+      <c r="B81" s="139" t="s">
         <v>33</v>
       </c>
       <c r="C81" s="38" t="s">
@@ -7556,7 +7585,7 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="72.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="134"/>
+      <c r="B82" s="140"/>
       <c r="C82" s="38" t="s">
         <v>288</v>
       </c>
@@ -7571,7 +7600,7 @@
       </c>
     </row>
     <row r="83" spans="2:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="134"/>
+      <c r="B83" s="140"/>
       <c r="C83" s="38" t="s">
         <v>304</v>
       </c>
@@ -7586,7 +7615,7 @@
       </c>
     </row>
     <row r="84" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="134"/>
+      <c r="B84" s="140"/>
       <c r="C84" s="38" t="s">
         <v>483</v>
       </c>
@@ -7601,7 +7630,7 @@
       </c>
     </row>
     <row r="85" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="134"/>
+      <c r="B85" s="140"/>
       <c r="C85" s="38" t="s">
         <v>484</v>
       </c>
@@ -7616,7 +7645,7 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="135"/>
+      <c r="B86" s="141"/>
       <c r="C86" s="38" t="s">
         <v>309</v>
       </c>
@@ -7631,16 +7660,16 @@
       </c>
     </row>
     <row r="87" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="150" t="s">
+      <c r="B87" s="133" t="s">
         <v>168</v>
       </c>
-      <c r="C87" s="151"/>
-      <c r="D87" s="151"/>
-      <c r="E87" s="151"/>
-      <c r="F87" s="154"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="134"/>
+      <c r="F87" s="135"/>
     </row>
     <row r="88" spans="2:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="B88" s="133" t="s">
+      <c r="B88" s="139" t="s">
         <v>44</v>
       </c>
       <c r="C88" s="38" t="s">
@@ -7657,7 +7686,7 @@
       </c>
     </row>
     <row r="89" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="135"/>
+      <c r="B89" s="141"/>
       <c r="C89" s="38" t="s">
         <v>488</v>
       </c>
@@ -7672,7 +7701,7 @@
       </c>
     </row>
     <row r="90" spans="2:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="133" t="s">
+      <c r="B90" s="139" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="38" t="s">
@@ -7689,7 +7718,7 @@
       </c>
     </row>
     <row r="91" spans="2:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="135"/>
+      <c r="B91" s="141"/>
       <c r="C91" s="38" t="s">
         <v>327</v>
       </c>
@@ -7704,7 +7733,7 @@
       </c>
     </row>
     <row r="92" spans="2:6" ht="51.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="133" t="s">
+      <c r="B92" s="139" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="32" t="s">
@@ -7721,7 +7750,7 @@
       </c>
     </row>
     <row r="93" spans="2:6" ht="52.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="134"/>
+      <c r="B93" s="140"/>
       <c r="C93" s="32" t="s">
         <v>339</v>
       </c>
@@ -7736,7 +7765,7 @@
       </c>
     </row>
     <row r="94" spans="2:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="134"/>
+      <c r="B94" s="140"/>
       <c r="C94" s="32" t="s">
         <v>340</v>
       </c>
@@ -7751,7 +7780,7 @@
       </c>
     </row>
     <row r="95" spans="2:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="134"/>
+      <c r="B95" s="140"/>
       <c r="C95" s="32" t="s">
         <v>343</v>
       </c>
@@ -7766,7 +7795,7 @@
       </c>
     </row>
     <row r="96" spans="2:6" ht="56.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="134"/>
+      <c r="B96" s="140"/>
       <c r="C96" s="32" t="s">
         <v>346</v>
       </c>
@@ -7781,7 +7810,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="134"/>
+      <c r="B97" s="140"/>
       <c r="C97" s="32" t="s">
         <v>490</v>
       </c>
@@ -7796,7 +7825,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="135"/>
+      <c r="B98" s="141"/>
       <c r="C98" s="32" t="s">
         <v>491</v>
       </c>
@@ -7811,7 +7840,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" s="48" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="147" t="s">
+      <c r="B99" s="157" t="s">
         <v>131</v>
       </c>
       <c r="C99" s="32" t="s">
@@ -7828,7 +7857,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="148"/>
+      <c r="B100" s="158"/>
       <c r="C100" s="32" t="s">
         <v>351</v>
       </c>
@@ -7843,7 +7872,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B101" s="148"/>
+      <c r="B101" s="158"/>
       <c r="C101" s="54" t="s">
         <v>493</v>
       </c>
@@ -7858,7 +7887,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="149"/>
+      <c r="B102" s="159"/>
       <c r="C102" s="54" t="s">
         <v>444</v>
       </c>
@@ -7873,13 +7902,13 @@
       </c>
     </row>
     <row r="103" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B103" s="150" t="s">
+      <c r="B103" s="133" t="s">
         <v>355</v>
       </c>
-      <c r="C103" s="151"/>
-      <c r="D103" s="151"/>
-      <c r="E103" s="151"/>
-      <c r="F103" s="154"/>
+      <c r="C103" s="134"/>
+      <c r="D103" s="134"/>
+      <c r="E103" s="134"/>
+      <c r="F103" s="135"/>
       <c r="H103" s="25" t="s">
         <v>448</v>
       </c>
@@ -7902,7 +7931,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B105" s="133" t="s">
+      <c r="B105" s="139" t="s">
         <v>46</v>
       </c>
       <c r="C105" s="38" t="s">
@@ -7919,7 +7948,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B106" s="134"/>
+      <c r="B106" s="140"/>
       <c r="C106" s="38" t="s">
         <v>359</v>
       </c>
@@ -7934,7 +7963,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" ht="83.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="134"/>
+      <c r="B107" s="140"/>
       <c r="C107" s="38" t="s">
         <v>360</v>
       </c>
@@ -7949,7 +7978,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="134"/>
+      <c r="B108" s="140"/>
       <c r="C108" s="38" t="s">
         <v>496</v>
       </c>
@@ -7964,7 +7993,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="134"/>
+      <c r="B109" s="140"/>
       <c r="C109" s="38" t="s">
         <v>365</v>
       </c>
@@ -7979,7 +8008,7 @@
       </c>
     </row>
     <row r="110" spans="2:8" ht="104.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B110" s="134"/>
+      <c r="B110" s="140"/>
       <c r="C110" s="38" t="s">
         <v>371</v>
       </c>
@@ -7994,7 +8023,7 @@
       </c>
     </row>
     <row r="111" spans="2:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B111" s="134"/>
+      <c r="B111" s="140"/>
       <c r="C111" s="38" t="s">
         <v>372</v>
       </c>
@@ -8009,7 +8038,7 @@
       </c>
     </row>
     <row r="112" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="134"/>
+      <c r="B112" s="140"/>
       <c r="C112" s="38" t="s">
         <v>374</v>
       </c>
@@ -8024,7 +8053,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" ht="98.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B113" s="134"/>
+      <c r="B113" s="140"/>
       <c r="C113" s="38" t="s">
         <v>375</v>
       </c>
@@ -8039,7 +8068,7 @@
       </c>
     </row>
     <row r="114" spans="2:6" ht="96.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B114" s="145" t="s">
+      <c r="B114" s="144" t="s">
         <v>149</v>
       </c>
       <c r="C114" s="32" t="s">
@@ -8056,7 +8085,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B115" s="146"/>
+      <c r="B115" s="145"/>
       <c r="C115" s="32" t="s">
         <v>381</v>
       </c>
@@ -8071,16 +8100,16 @@
       </c>
     </row>
     <row r="116" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B116" s="150" t="s">
+      <c r="B116" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="C116" s="151"/>
-      <c r="D116" s="151"/>
-      <c r="E116" s="151"/>
-      <c r="F116" s="151"/>
+      <c r="C116" s="134"/>
+      <c r="D116" s="134"/>
+      <c r="E116" s="134"/>
+      <c r="F116" s="134"/>
     </row>
     <row r="117" spans="2:6" ht="92.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B117" s="133" t="s">
+      <c r="B117" s="139" t="s">
         <v>35</v>
       </c>
       <c r="C117" s="38" t="s">
@@ -8097,7 +8126,7 @@
       </c>
     </row>
     <row r="118" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="134"/>
+      <c r="B118" s="140"/>
       <c r="C118" s="38" t="s">
         <v>384</v>
       </c>
@@ -8112,7 +8141,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="134"/>
+      <c r="B119" s="140"/>
       <c r="C119" s="38" t="s">
         <v>392</v>
       </c>
@@ -8127,7 +8156,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B120" s="134"/>
+      <c r="B120" s="140"/>
       <c r="C120" s="38" t="s">
         <v>393</v>
       </c>
@@ -8142,7 +8171,7 @@
       </c>
     </row>
     <row r="121" spans="2:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B121" s="135"/>
+      <c r="B121" s="141"/>
       <c r="C121" s="38" t="s">
         <v>394</v>
       </c>
@@ -8157,7 +8186,7 @@
       </c>
     </row>
     <row r="122" spans="2:6" ht="87.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="144" t="s">
+      <c r="B122" s="156" t="s">
         <v>173</v>
       </c>
       <c r="C122" s="38" t="s">
@@ -8174,7 +8203,7 @@
       </c>
     </row>
     <row r="123" spans="2:6" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B123" s="145"/>
+      <c r="B123" s="144"/>
       <c r="C123" s="38" t="s">
         <v>402</v>
       </c>
@@ -8189,7 +8218,7 @@
       </c>
     </row>
     <row r="124" spans="2:6" ht="120.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B124" s="146"/>
+      <c r="B124" s="145"/>
       <c r="C124" s="38" t="s">
         <v>405</v>
       </c>
@@ -8204,16 +8233,16 @@
       </c>
     </row>
     <row r="125" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="150" t="s">
+      <c r="B125" s="133" t="s">
         <v>176</v>
       </c>
-      <c r="C125" s="151"/>
-      <c r="D125" s="151"/>
-      <c r="E125" s="151"/>
-      <c r="F125" s="154"/>
+      <c r="C125" s="134"/>
+      <c r="D125" s="134"/>
+      <c r="E125" s="134"/>
+      <c r="F125" s="135"/>
     </row>
     <row r="126" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B126" s="133" t="s">
+      <c r="B126" s="139" t="s">
         <v>47</v>
       </c>
       <c r="C126" s="38" t="s">
@@ -8230,7 +8259,7 @@
       </c>
     </row>
     <row r="127" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B127" s="134"/>
+      <c r="B127" s="140"/>
       <c r="C127" s="58" t="s">
         <v>409</v>
       </c>
@@ -8245,7 +8274,7 @@
       </c>
     </row>
     <row r="128" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B128" s="134"/>
+      <c r="B128" s="140"/>
       <c r="C128" s="38" t="s">
         <v>503</v>
       </c>
@@ -8260,7 +8289,7 @@
       </c>
     </row>
     <row r="129" spans="2:6" ht="77.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B129" s="135"/>
+      <c r="B129" s="141"/>
       <c r="C129" s="38" t="s">
         <v>414</v>
       </c>
@@ -8275,16 +8304,16 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B130" s="150" t="s">
+      <c r="B130" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="C130" s="151"/>
-      <c r="D130" s="151"/>
-      <c r="E130" s="151"/>
-      <c r="F130" s="154"/>
+      <c r="C130" s="134"/>
+      <c r="D130" s="134"/>
+      <c r="E130" s="134"/>
+      <c r="F130" s="135"/>
     </row>
     <row r="131" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B131" s="133" t="s">
+      <c r="B131" s="139" t="s">
         <v>36</v>
       </c>
       <c r="C131" s="38" t="s">
@@ -8301,7 +8330,7 @@
       </c>
     </row>
     <row r="132" spans="2:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B132" s="134"/>
+      <c r="B132" s="140"/>
       <c r="C132" s="38" t="s">
         <v>430</v>
       </c>
@@ -8316,7 +8345,7 @@
       </c>
     </row>
     <row r="133" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="134"/>
+      <c r="B133" s="140"/>
       <c r="C133" s="38" t="s">
         <v>431</v>
       </c>
@@ -8331,7 +8360,7 @@
       </c>
     </row>
     <row r="134" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B134" s="135"/>
+      <c r="B134" s="141"/>
       <c r="C134" s="38" t="s">
         <v>504</v>
       </c>
@@ -8346,7 +8375,7 @@
       </c>
     </row>
     <row r="135" spans="2:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B135" s="133" t="s">
+      <c r="B135" s="139" t="s">
         <v>505</v>
       </c>
       <c r="C135" s="38" t="s">
@@ -8363,7 +8392,7 @@
       </c>
     </row>
     <row r="136" spans="2:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B136" s="134"/>
+      <c r="B136" s="140"/>
       <c r="C136" s="38" t="s">
         <v>435</v>
       </c>
@@ -8376,7 +8405,7 @@
       <c r="F136" s="137"/>
     </row>
     <row r="137" spans="2:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B137" s="134"/>
+      <c r="B137" s="140"/>
       <c r="C137" s="38" t="s">
         <v>436</v>
       </c>
@@ -8389,7 +8418,7 @@
       <c r="F137" s="137"/>
     </row>
     <row r="138" spans="2:6" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B138" s="134"/>
+      <c r="B138" s="140"/>
       <c r="C138" s="38" t="s">
         <v>437</v>
       </c>
@@ -8402,7 +8431,7 @@
       <c r="F138" s="137"/>
     </row>
     <row r="139" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B139" s="134"/>
+      <c r="B139" s="140"/>
       <c r="C139" s="38" t="s">
         <v>438</v>
       </c>
@@ -8415,7 +8444,7 @@
       <c r="F139" s="137"/>
     </row>
     <row r="140" spans="2:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B140" s="134"/>
+      <c r="B140" s="140"/>
       <c r="C140" s="38" t="s">
         <v>439</v>
       </c>
@@ -8428,7 +8457,7 @@
       <c r="F140" s="137"/>
     </row>
     <row r="141" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B141" s="135"/>
+      <c r="B141" s="141"/>
       <c r="C141" s="60" t="s">
         <v>440</v>
       </c>
@@ -8442,11 +8471,23 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="F135:F141"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B105:B113"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B116:F116"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B114:B115"/>
@@ -8463,23 +8504,11 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="B105:B113"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="F135:F141"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B131:B134"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="26" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8499,11 +8528,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F795B4-C53C-4558-AAD9-28AB113E7C55}">
   <dimension ref="A1:AF169"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="20" zoomScaleNormal="20" zoomScaleSheetLayoutView="23" zoomScalePageLayoutView="21" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="19" zoomScaleNormal="19" zoomScaleSheetLayoutView="23" zoomScalePageLayoutView="21" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="46.5" x14ac:dyDescent="0.7"/>
@@ -8524,92 +8553,92 @@
       <c r="A1" s="130" t="s">
         <v>630</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="232" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="229" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="233"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="232" t="s">
+      <c r="E1" s="230"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="229" t="s">
         <v>629</v>
       </c>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="234"/>
-      <c r="P1" s="234"/>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="235" t="s">
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="164" t="s">
         <v>641</v>
       </c>
-      <c r="S1" s="235"/>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="236"/>
-      <c r="W1" s="237" t="s">
+      <c r="S1" s="164"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="166" t="s">
         <v>631</v>
       </c>
-      <c r="X1" s="238"/>
+      <c r="X1" s="167"/>
       <c r="Y1" s="131"/>
       <c r="Z1" s="132" t="s">
         <v>632</v>
       </c>
-      <c r="AA1" s="234"/>
-      <c r="AB1" s="234"/>
-      <c r="AC1" s="177" t="s">
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="220" t="s">
         <v>638</v>
       </c>
-      <c r="AD1" s="178"/>
-      <c r="AE1" s="178"/>
-      <c r="AF1" s="178"/>
+      <c r="AD1" s="221"/>
+      <c r="AE1" s="221"/>
+      <c r="AF1" s="221"/>
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="222" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="183"/>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="183"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="222"/>
+      <c r="N2" s="222"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="222"/>
+      <c r="Q2" s="222"/>
+      <c r="R2" s="222"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="222"/>
+      <c r="U2" s="222"/>
+      <c r="V2" s="222"/>
+      <c r="W2" s="222"/>
+      <c r="X2" s="222"/>
+      <c r="Y2" s="222"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="222"/>
+      <c r="AB2" s="222"/>
+      <c r="AC2" s="222"/>
       <c r="AD2" s="67"/>
     </row>
-    <row r="3" spans="1:32" s="7" customFormat="1" ht="86.25" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A3" s="195" t="s">
+    <row r="3" spans="1:32" s="7" customFormat="1" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
+      <c r="A3" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
       <c r="G3" s="7" t="s">
         <v>1</v>
       </c>
@@ -8622,152 +8651,156 @@
       <c r="AC3" s="71"/>
       <c r="AD3" s="71"/>
     </row>
-    <row r="4" spans="1:32" s="1" customFormat="1" ht="47.25" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="14"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
+    <row r="4" spans="1:32" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="241" t="s">
+        <v>642</v>
+      </c>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="242"/>
+      <c r="N4" s="242"/>
+      <c r="O4" s="242"/>
+      <c r="P4" s="242"/>
+      <c r="Q4" s="242"/>
+      <c r="R4" s="242"/>
+      <c r="S4" s="242"/>
+      <c r="T4" s="242"/>
+      <c r="U4" s="242"/>
+      <c r="V4" s="242"/>
+      <c r="W4" s="242"/>
+      <c r="X4" s="242"/>
+      <c r="Y4" s="242"/>
+      <c r="Z4" s="242"/>
+      <c r="AA4" s="242"/>
+      <c r="AB4" s="242"/>
+      <c r="AC4" s="242"/>
+      <c r="AD4" s="242"/>
+      <c r="AE4" s="242"/>
+      <c r="AF4" s="243"/>
     </row>
     <row r="5" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="166"/>
-      <c r="R5" s="166"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="166"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="166"/>
-      <c r="W5" s="166"/>
-      <c r="X5" s="166"/>
-      <c r="Y5" s="166"/>
-      <c r="Z5" s="166"/>
-      <c r="AA5" s="166"/>
-      <c r="AB5" s="166"/>
-      <c r="AC5" s="166"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="166"/>
-      <c r="AF5" s="166"/>
+      <c r="B5" s="239"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="239"/>
+      <c r="M5" s="239"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="239"/>
+      <c r="P5" s="239"/>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="239"/>
+      <c r="S5" s="239"/>
+      <c r="T5" s="239"/>
+      <c r="U5" s="239"/>
+      <c r="V5" s="239"/>
+      <c r="W5" s="239"/>
+      <c r="X5" s="239"/>
+      <c r="Y5" s="239"/>
+      <c r="Z5" s="239"/>
+      <c r="AA5" s="239"/>
+      <c r="AB5" s="239"/>
+      <c r="AC5" s="239"/>
+      <c r="AD5" s="239"/>
+      <c r="AE5" s="239"/>
+      <c r="AF5" s="240"/>
     </row>
     <row r="6" spans="1:32" s="24" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A6" s="227" t="s">
+      <c r="A6" s="192" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="227" t="s">
+      <c r="B6" s="192" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="226" t="s">
+      <c r="C6" s="191" t="s">
         <v>508</v>
       </c>
-      <c r="D6" s="202" t="s">
+      <c r="D6" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="182"/>
-      <c r="F6" s="181" t="s">
+      <c r="E6" s="190"/>
+      <c r="F6" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="182"/>
-      <c r="H6" s="181" t="s">
+      <c r="G6" s="190"/>
+      <c r="H6" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="182"/>
-      <c r="J6" s="181" t="s">
+      <c r="I6" s="190"/>
+      <c r="J6" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="182"/>
-      <c r="L6" s="181" t="s">
+      <c r="K6" s="190"/>
+      <c r="L6" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="182"/>
-      <c r="N6" s="181" t="s">
+      <c r="M6" s="190"/>
+      <c r="N6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="182"/>
-      <c r="P6" s="181" t="s">
+      <c r="O6" s="190"/>
+      <c r="P6" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="181" t="s">
+      <c r="Q6" s="190"/>
+      <c r="R6" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="182"/>
-      <c r="T6" s="181" t="s">
+      <c r="S6" s="190"/>
+      <c r="T6" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="182"/>
-      <c r="V6" s="181" t="s">
+      <c r="U6" s="190"/>
+      <c r="V6" s="189" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="182"/>
-      <c r="X6" s="181" t="s">
+      <c r="W6" s="190"/>
+      <c r="X6" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="182"/>
-      <c r="Z6" s="181" t="s">
+      <c r="Y6" s="190"/>
+      <c r="Z6" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="182"/>
-      <c r="AB6" s="199" t="s">
+      <c r="AA6" s="190"/>
+      <c r="AB6" s="226" t="s">
         <v>24</v>
       </c>
-      <c r="AC6" s="189" t="s">
+      <c r="AC6" s="225" t="s">
         <v>628</v>
       </c>
-      <c r="AD6" s="173" t="s">
+      <c r="AD6" s="186" t="s">
         <v>639</v>
       </c>
-      <c r="AE6" s="165" t="s">
+      <c r="AE6" s="168" t="s">
         <v>640</v>
       </c>
-      <c r="AF6" s="165" t="s">
+      <c r="AF6" s="168" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:32" s="24" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A7" s="227"/>
-      <c r="B7" s="227"/>
-      <c r="C7" s="226"/>
+      <c r="A7" s="192"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="191"/>
       <c r="D7" s="74" t="s">
         <v>14</v>
       </c>
@@ -8840,14 +8873,14 @@
       <c r="AA7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB7" s="199"/>
-      <c r="AC7" s="190"/>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="165"/>
-      <c r="AF7" s="165"/>
+      <c r="AB7" s="226"/>
+      <c r="AC7" s="199"/>
+      <c r="AD7" s="186"/>
+      <c r="AE7" s="168"/>
+      <c r="AF7" s="168"/>
     </row>
     <row r="8" spans="1:32" s="10" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="223" t="s">
         <v>141</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -8861,7 +8894,7 @@
       <c r="F8" s="120"/>
       <c r="G8" s="120"/>
       <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
+      <c r="I8" s="244"/>
       <c r="J8" s="120"/>
       <c r="K8" s="120"/>
       <c r="L8" s="120"/>
@@ -8884,7 +8917,7 @@
         <f t="shared" ref="AB8:AB12" si="0">SUM(D8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="170" t="str">
+      <c r="AC8" s="216" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D9&gt;D8," * F01-02 " &amp;D6&amp;" "&amp; D7&amp; " is more than F01-01"&amp;CHAR(10),""),IF(E9&gt;E8," * F01-02 " &amp;D6&amp;" "&amp; E7&amp; " is more than F01-01"&amp;CHAR(10),""),
@@ -8903,18 +8936,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD8" s="176" t="str">
+      <c r="AD8" s="235" t="str">
         <f>CONCATENATE(AC8,AC10,AC11,AC12,AC14,AC15,AC16,AC17,AC19,AC21,AC23,AC25,AC27,AC29,AC31,AC33,AC35)</f>
         <v/>
       </c>
       <c r="AE8" s="117"/>
-      <c r="AF8" s="164" t="str">
+      <c r="AF8" s="236" t="str">
         <f>CONCATENATE(AE8,AE9,AE10,AE11,AE12,AE13,AE14,AE15,AE16,AE17,AE18,AE19,AE20,AE21,AE22,AE23,AE24,AE25,AE26,AE27,AE28,AE29,AE30,AE31,AE32,AE33,AE34,AE35,AE36)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:32" s="10" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A9" s="186"/>
+      <c r="A9" s="224"/>
       <c r="B9" s="15" t="s">
         <v>507</v>
       </c>
@@ -8949,13 +8982,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="171"/>
-      <c r="AD9" s="176"/>
+      <c r="AC9" s="217"/>
+      <c r="AD9" s="235"/>
       <c r="AE9" s="117"/>
-      <c r="AF9" s="164"/>
+      <c r="AF9" s="236"/>
     </row>
     <row r="10" spans="1:32" s="10" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A10" s="186"/>
+      <c r="A10" s="224"/>
       <c r="B10" s="15" t="s">
         <v>509</v>
       </c>
@@ -9009,12 +9042,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD10" s="176"/>
+      <c r="AD10" s="235"/>
       <c r="AE10" s="117"/>
-      <c r="AF10" s="164"/>
+      <c r="AF10" s="236"/>
     </row>
     <row r="11" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="186"/>
+      <c r="A11" s="224"/>
       <c r="B11" s="15" t="s">
         <v>510</v>
       </c>
@@ -9050,12 +9083,12 @@
         <v>0</v>
       </c>
       <c r="AC11" s="111"/>
-      <c r="AD11" s="176"/>
+      <c r="AD11" s="235"/>
       <c r="AE11" s="117"/>
-      <c r="AF11" s="164"/>
+      <c r="AF11" s="236"/>
     </row>
     <row r="12" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="186"/>
+      <c r="A12" s="224"/>
       <c r="B12" s="15" t="s">
         <v>511</v>
       </c>
@@ -9090,7 +9123,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="170" t="str">
+      <c r="AC12" s="216" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D13&gt;D12," * Positive F01-06 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested  F01-05"&amp;CHAR(10),""),IF(E13&gt;E12," * Positive F01-06 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested  F01-05"&amp;CHAR(10),""),
@@ -9109,7 +9142,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD12" s="176"/>
+      <c r="AD12" s="235"/>
       <c r="AE12" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9117,10 +9150,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF12" s="164"/>
+      <c r="AF12" s="236"/>
     </row>
     <row r="13" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="186"/>
+      <c r="A13" s="224"/>
       <c r="B13" s="15" t="s">
         <v>512</v>
       </c>
@@ -9155,13 +9188,13 @@
         <f>SUM(D13:AA13)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="171"/>
-      <c r="AD13" s="176"/>
+      <c r="AC13" s="217"/>
+      <c r="AD13" s="235"/>
       <c r="AE13" s="117"/>
-      <c r="AF13" s="164"/>
+      <c r="AF13" s="236"/>
     </row>
     <row r="14" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
+      <c r="A14" s="224"/>
       <c r="B14" s="15" t="s">
         <v>513</v>
       </c>
@@ -9197,12 +9230,12 @@
         <v>0</v>
       </c>
       <c r="AC14" s="111"/>
-      <c r="AD14" s="176"/>
+      <c r="AD14" s="235"/>
       <c r="AE14" s="117"/>
-      <c r="AF14" s="164"/>
+      <c r="AF14" s="236"/>
     </row>
     <row r="15" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="186"/>
+      <c r="A15" s="224"/>
       <c r="B15" s="15" t="s">
         <v>514</v>
       </c>
@@ -9238,12 +9271,12 @@
         <v>0</v>
       </c>
       <c r="AC15" s="111"/>
-      <c r="AD15" s="176"/>
+      <c r="AD15" s="235"/>
       <c r="AE15" s="117"/>
-      <c r="AF15" s="164"/>
+      <c r="AF15" s="236"/>
     </row>
     <row r="16" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="186"/>
+      <c r="A16" s="224"/>
       <c r="B16" s="15" t="s">
         <v>515</v>
       </c>
@@ -9279,12 +9312,12 @@
         <v>0</v>
       </c>
       <c r="AC16" s="111"/>
-      <c r="AD16" s="176"/>
+      <c r="AD16" s="235"/>
       <c r="AE16" s="117"/>
-      <c r="AF16" s="164"/>
+      <c r="AF16" s="236"/>
     </row>
     <row r="17" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="184" t="s">
+      <c r="A17" s="188" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -9321,7 +9354,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="170" t="str">
+      <c r="AC17" s="216" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D18&gt;D17," * Positive F01-11 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested  F01-10"&amp;CHAR(10),""),IF(E18&gt;E17," * Positive F01-11 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested  F01-10"&amp;CHAR(10),""),
@@ -9340,7 +9373,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD17" s="176"/>
+      <c r="AD17" s="235"/>
       <c r="AE17" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9348,10 +9381,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF17" s="164"/>
+      <c r="AF17" s="236"/>
     </row>
     <row r="18" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="184"/>
+      <c r="A18" s="188"/>
       <c r="B18" s="15" t="s">
         <v>517</v>
       </c>
@@ -9386,13 +9419,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="171"/>
-      <c r="AD18" s="176"/>
+      <c r="AC18" s="217"/>
+      <c r="AD18" s="235"/>
       <c r="AE18" s="117"/>
-      <c r="AF18" s="164"/>
+      <c r="AF18" s="236"/>
     </row>
     <row r="19" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="184" t="s">
+      <c r="A19" s="188" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -9429,7 +9462,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="170" t="str">
+      <c r="AC19" s="216" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D20&gt;D19," * Positive F01-13 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-12"&amp;CHAR(10),""),IF(E20&gt;E19," * Positive F01-13 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-12"&amp;CHAR(10),""),
@@ -9448,7 +9481,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD19" s="176"/>
+      <c r="AD19" s="235"/>
       <c r="AE19" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9456,10 +9489,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF19" s="164"/>
+      <c r="AF19" s="236"/>
     </row>
     <row r="20" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="184"/>
+      <c r="A20" s="188"/>
       <c r="B20" s="15" t="s">
         <v>519</v>
       </c>
@@ -9494,8 +9527,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="171"/>
-      <c r="AD20" s="176"/>
+      <c r="AC20" s="217"/>
+      <c r="AD20" s="235"/>
       <c r="AE20" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9510,10 +9543,10 @@
 "")</f>
         <v/>
       </c>
-      <c r="AF20" s="164"/>
+      <c r="AF20" s="236"/>
     </row>
     <row r="21" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A21" s="184" t="s">
+      <c r="A21" s="188" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -9550,7 +9583,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="170" t="str">
+      <c r="AC21" s="216" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D22&gt;D21," * Positive F01-15 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-14"&amp;CHAR(10),""),IF(E22&gt;E21," * Positive F01-15 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-14"&amp;CHAR(10),""),
@@ -9569,7 +9602,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD21" s="176"/>
+      <c r="AD21" s="235"/>
       <c r="AE21" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9577,10 +9610,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF21" s="164"/>
+      <c r="AF21" s="236"/>
     </row>
     <row r="22" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A22" s="184"/>
+      <c r="A22" s="188"/>
       <c r="B22" s="15" t="s">
         <v>519</v>
       </c>
@@ -9615,13 +9648,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="171"/>
-      <c r="AD22" s="176"/>
+      <c r="AC22" s="217"/>
+      <c r="AD22" s="235"/>
       <c r="AE22" s="117"/>
-      <c r="AF22" s="164"/>
+      <c r="AF22" s="236"/>
     </row>
     <row r="23" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A23" s="184" t="s">
+      <c r="A23" s="188" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -9658,7 +9691,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="170" t="str">
+      <c r="AC23" s="216" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D24&gt;D23," * Positive F01-17 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-16"&amp;CHAR(10),""),IF(E24&gt;E23," * Positive F01-17 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-16"&amp;CHAR(10),""),
@@ -9677,7 +9710,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD23" s="176"/>
+      <c r="AD23" s="235"/>
       <c r="AE23" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9685,10 +9718,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF23" s="164"/>
+      <c r="AF23" s="236"/>
     </row>
     <row r="24" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A24" s="184"/>
+      <c r="A24" s="188"/>
       <c r="B24" s="15" t="s">
         <v>519</v>
       </c>
@@ -9723,13 +9756,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="171"/>
-      <c r="AD24" s="176"/>
+      <c r="AC24" s="217"/>
+      <c r="AD24" s="235"/>
       <c r="AE24" s="117"/>
-      <c r="AF24" s="164"/>
+      <c r="AF24" s="236"/>
     </row>
     <row r="25" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A25" s="184" t="s">
+      <c r="A25" s="188" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -9766,7 +9799,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="170" t="str">
+      <c r="AC25" s="216" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D26&gt;D25," * Positive F01-19 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-18"&amp;CHAR(10),""),IF(E26&gt;E25," * Positive F01-19 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-18"&amp;CHAR(10),""),
@@ -9785,7 +9818,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD25" s="176"/>
+      <c r="AD25" s="235"/>
       <c r="AE25" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9793,10 +9826,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF25" s="164"/>
+      <c r="AF25" s="236"/>
     </row>
     <row r="26" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A26" s="184"/>
+      <c r="A26" s="188"/>
       <c r="B26" s="15" t="s">
         <v>519</v>
       </c>
@@ -9831,13 +9864,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="171"/>
-      <c r="AD26" s="176"/>
+      <c r="AC26" s="217"/>
+      <c r="AD26" s="235"/>
       <c r="AE26" s="117"/>
-      <c r="AF26" s="164"/>
+      <c r="AF26" s="236"/>
     </row>
     <row r="27" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A27" s="184" t="s">
+      <c r="A27" s="188" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -9874,7 +9907,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="170" t="str">
+      <c r="AC27" s="216" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D28&gt;D27," * Positive F01-21 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-20"&amp;CHAR(10),""),IF(E28&gt;E27," * Positive F01-21 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-20"&amp;CHAR(10),""),
@@ -9893,7 +9926,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD27" s="176"/>
+      <c r="AD27" s="235"/>
       <c r="AE27" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9901,10 +9934,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF27" s="164"/>
+      <c r="AF27" s="236"/>
     </row>
     <row r="28" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A28" s="184"/>
+      <c r="A28" s="188"/>
       <c r="B28" s="15" t="s">
         <v>519</v>
       </c>
@@ -9939,13 +9972,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="171"/>
-      <c r="AD28" s="176"/>
+      <c r="AC28" s="217"/>
+      <c r="AD28" s="235"/>
       <c r="AE28" s="117"/>
-      <c r="AF28" s="164"/>
+      <c r="AF28" s="236"/>
     </row>
     <row r="29" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A29" s="184" t="s">
+      <c r="A29" s="188" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -9982,7 +10015,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="170" t="str">
+      <c r="AC29" s="216" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D30&gt;D29," * Positive F01-23 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-22"&amp;CHAR(10),""),IF(E30&gt;E29," * Positive F01-23 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-22"&amp;CHAR(10),""),
@@ -10001,7 +10034,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD29" s="176"/>
+      <c r="AD29" s="235"/>
       <c r="AE29" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10009,10 +10042,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF29" s="164"/>
+      <c r="AF29" s="236"/>
     </row>
     <row r="30" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A30" s="184"/>
+      <c r="A30" s="188"/>
       <c r="B30" s="15" t="s">
         <v>519</v>
       </c>
@@ -10047,13 +10080,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="171"/>
-      <c r="AD30" s="176"/>
+      <c r="AC30" s="217"/>
+      <c r="AD30" s="235"/>
       <c r="AE30" s="117"/>
-      <c r="AF30" s="164"/>
+      <c r="AF30" s="236"/>
     </row>
     <row r="31" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A31" s="184" t="s">
+      <c r="A31" s="188" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -10090,7 +10123,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="170" t="str">
+      <c r="AC31" s="216" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D32&gt;D31," * Positive F01-25 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-24"&amp;CHAR(10),""),IF(E32&gt;E31," * Positive F01-25 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-24"&amp;CHAR(10),""),
@@ -10109,7 +10142,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD31" s="176"/>
+      <c r="AD31" s="235"/>
       <c r="AE31" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10117,10 +10150,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF31" s="164"/>
+      <c r="AF31" s="236"/>
     </row>
     <row r="32" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A32" s="184"/>
+      <c r="A32" s="188"/>
       <c r="B32" s="15" t="s">
         <v>519</v>
       </c>
@@ -10155,13 +10188,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="171"/>
-      <c r="AD32" s="176"/>
+      <c r="AC32" s="217"/>
+      <c r="AD32" s="235"/>
       <c r="AE32" s="117"/>
-      <c r="AF32" s="164"/>
+      <c r="AF32" s="236"/>
     </row>
     <row r="33" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A33" s="200" t="s">
+      <c r="A33" s="173" t="s">
         <v>133</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -10198,7 +10231,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="170" t="str">
+      <c r="AC33" s="216" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D34&gt;D33," * Positive F01-27 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-26"&amp;CHAR(10),""),IF(E34&gt;E33," * Positive F01-27 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-26"&amp;CHAR(10),""),
@@ -10217,7 +10250,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD33" s="176"/>
+      <c r="AD33" s="235"/>
       <c r="AE33" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10225,10 +10258,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF33" s="164"/>
+      <c r="AF33" s="236"/>
     </row>
     <row r="34" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A34" s="201"/>
+      <c r="A34" s="174"/>
       <c r="B34" s="15" t="s">
         <v>519</v>
       </c>
@@ -10263,13 +10296,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="171"/>
-      <c r="AD34" s="176"/>
+      <c r="AC34" s="217"/>
+      <c r="AD34" s="235"/>
       <c r="AE34" s="117"/>
-      <c r="AF34" s="164"/>
+      <c r="AF34" s="236"/>
     </row>
     <row r="35" spans="1:32" s="18" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A35" s="209" t="s">
+      <c r="A35" s="218" t="s">
         <v>157</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -10378,7 +10411,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="170" t="str">
+      <c r="AC35" s="216" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D36&gt;D35," * Totals HTS Positive F01-29 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Total Tested F01-28"&amp;CHAR(10),""),IF(E36&gt;E35," * Totals HTS Positive F01-29 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Total Tested F01-28"&amp;CHAR(10),""),
@@ -10397,7 +10430,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD35" s="176"/>
+      <c r="AD35" s="235"/>
       <c r="AE35" s="118" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10405,10 +10438,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF35" s="164"/>
+      <c r="AF35" s="236"/>
     </row>
     <row r="36" spans="1:32" s="18" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A36" s="210"/>
+      <c r="A36" s="219"/>
       <c r="B36" s="107" t="s">
         <v>522</v>
       </c>
@@ -10515,8 +10548,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC36" s="172"/>
-      <c r="AD36" s="176"/>
+      <c r="AC36" s="234"/>
+      <c r="AD36" s="235"/>
       <c r="AE36" s="118" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10524,122 +10557,122 @@
 )</f>
         <v/>
       </c>
-      <c r="AF36" s="164"/>
+      <c r="AF36" s="236"/>
     </row>
     <row r="37" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A37" s="167" t="s">
+      <c r="A37" s="237" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="167"/>
-      <c r="L37" s="167"/>
-      <c r="M37" s="167"/>
-      <c r="N37" s="167"/>
-      <c r="O37" s="167"/>
-      <c r="P37" s="167"/>
-      <c r="Q37" s="167"/>
-      <c r="R37" s="167"/>
-      <c r="S37" s="167"/>
-      <c r="T37" s="167"/>
-      <c r="U37" s="167"/>
-      <c r="V37" s="167"/>
-      <c r="W37" s="167"/>
-      <c r="X37" s="167"/>
-      <c r="Y37" s="167"/>
-      <c r="Z37" s="167"/>
-      <c r="AA37" s="167"/>
-      <c r="AB37" s="167"/>
-      <c r="AC37" s="167"/>
-      <c r="AD37" s="167"/>
-      <c r="AE37" s="167"/>
-      <c r="AF37" s="167"/>
+      <c r="B37" s="237"/>
+      <c r="C37" s="237"/>
+      <c r="D37" s="237"/>
+      <c r="E37" s="237"/>
+      <c r="F37" s="237"/>
+      <c r="G37" s="237"/>
+      <c r="H37" s="237"/>
+      <c r="I37" s="237"/>
+      <c r="J37" s="237"/>
+      <c r="K37" s="237"/>
+      <c r="L37" s="237"/>
+      <c r="M37" s="237"/>
+      <c r="N37" s="237"/>
+      <c r="O37" s="237"/>
+      <c r="P37" s="237"/>
+      <c r="Q37" s="237"/>
+      <c r="R37" s="237"/>
+      <c r="S37" s="237"/>
+      <c r="T37" s="237"/>
+      <c r="U37" s="237"/>
+      <c r="V37" s="237"/>
+      <c r="W37" s="237"/>
+      <c r="X37" s="237"/>
+      <c r="Y37" s="237"/>
+      <c r="Z37" s="237"/>
+      <c r="AA37" s="237"/>
+      <c r="AB37" s="237"/>
+      <c r="AC37" s="237"/>
+      <c r="AD37" s="237"/>
+      <c r="AE37" s="237"/>
+      <c r="AF37" s="237"/>
     </row>
     <row r="38" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A38" s="191" t="s">
+      <c r="A38" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="191" t="s">
+      <c r="B38" s="181" t="s">
         <v>594</v>
       </c>
-      <c r="C38" s="187" t="s">
+      <c r="C38" s="179" t="s">
         <v>508</v>
       </c>
-      <c r="D38" s="203"/>
-      <c r="E38" s="204"/>
-      <c r="F38" s="204"/>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="198" t="s">
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="212"/>
+      <c r="J38" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="180"/>
-      <c r="L38" s="179" t="s">
+      <c r="K38" s="170"/>
+      <c r="L38" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="180"/>
-      <c r="N38" s="179" t="s">
+      <c r="M38" s="170"/>
+      <c r="N38" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="O38" s="180"/>
-      <c r="P38" s="179" t="s">
+      <c r="O38" s="170"/>
+      <c r="P38" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="179" t="s">
+      <c r="Q38" s="170"/>
+      <c r="R38" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="S38" s="180"/>
-      <c r="T38" s="179" t="s">
+      <c r="S38" s="170"/>
+      <c r="T38" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="U38" s="180"/>
-      <c r="V38" s="179" t="s">
+      <c r="U38" s="170"/>
+      <c r="V38" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="W38" s="180"/>
-      <c r="X38" s="179" t="s">
+      <c r="W38" s="170"/>
+      <c r="X38" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="Y38" s="180"/>
-      <c r="Z38" s="179" t="s">
+      <c r="Y38" s="170"/>
+      <c r="Z38" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="AA38" s="180"/>
-      <c r="AB38" s="196" t="s">
+      <c r="AA38" s="170"/>
+      <c r="AB38" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="AC38" s="173" t="s">
+      <c r="AC38" s="186" t="s">
         <v>628</v>
       </c>
-      <c r="AD38" s="173" t="s">
+      <c r="AD38" s="186" t="s">
         <v>639</v>
       </c>
-      <c r="AE38" s="165" t="s">
+      <c r="AE38" s="168" t="s">
         <v>640</v>
       </c>
-      <c r="AF38" s="165" t="s">
+      <c r="AF38" s="168" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="39" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A39" s="192"/>
-      <c r="B39" s="192"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="206"/>
-      <c r="E39" s="207"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="207"/>
-      <c r="H39" s="207"/>
-      <c r="I39" s="208"/>
+      <c r="A39" s="182"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="213"/>
+      <c r="E39" s="214"/>
+      <c r="F39" s="214"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="214"/>
+      <c r="I39" s="215"/>
       <c r="J39" s="74" t="s">
         <v>14</v>
       </c>
@@ -10694,14 +10727,14 @@
       <c r="AA39" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB39" s="197"/>
-      <c r="AC39" s="173"/>
-      <c r="AD39" s="173"/>
-      <c r="AE39" s="165"/>
-      <c r="AF39" s="165"/>
+      <c r="AB39" s="172"/>
+      <c r="AC39" s="186"/>
+      <c r="AD39" s="186"/>
+      <c r="AE39" s="168"/>
+      <c r="AF39" s="168"/>
     </row>
     <row r="40" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A40" s="184" t="s">
+      <c r="A40" s="188" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -10739,18 +10772,18 @@
         <v>0</v>
       </c>
       <c r="AC40" s="112"/>
-      <c r="AD40" s="222" t="str">
+      <c r="AD40" s="183" t="str">
         <f>CONCATENATE(AC40,AC41,AC42,AC43,AC44)</f>
         <v/>
       </c>
       <c r="AE40" s="117"/>
-      <c r="AF40" s="163" t="str">
+      <c r="AF40" s="231" t="str">
         <f>CONCATENATE(AE40,AE41,AE42,AE43,AE44)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A41" s="184"/>
+      <c r="A41" s="188"/>
       <c r="B41" s="15" t="s">
         <v>222</v>
       </c>
@@ -10786,12 +10819,12 @@
         <v>0</v>
       </c>
       <c r="AC41" s="112"/>
-      <c r="AD41" s="225"/>
+      <c r="AD41" s="184"/>
       <c r="AE41" s="117"/>
-      <c r="AF41" s="163"/>
+      <c r="AF41" s="231"/>
     </row>
     <row r="42" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A42" s="184"/>
+      <c r="A42" s="188"/>
       <c r="B42" s="15" t="s">
         <v>524</v>
       </c>
@@ -10827,12 +10860,12 @@
         <v>0</v>
       </c>
       <c r="AC42" s="112"/>
-      <c r="AD42" s="225"/>
+      <c r="AD42" s="184"/>
       <c r="AE42" s="117"/>
-      <c r="AF42" s="163"/>
+      <c r="AF42" s="231"/>
     </row>
     <row r="43" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A43" s="184"/>
+      <c r="A43" s="188"/>
       <c r="B43" s="15" t="s">
         <v>525</v>
       </c>
@@ -10868,12 +10901,12 @@
         <v>0</v>
       </c>
       <c r="AC43" s="112"/>
-      <c r="AD43" s="225"/>
+      <c r="AD43" s="184"/>
       <c r="AE43" s="117"/>
-      <c r="AF43" s="163"/>
+      <c r="AF43" s="231"/>
     </row>
     <row r="44" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A44" s="200"/>
+      <c r="A44" s="173"/>
       <c r="B44" s="99" t="s">
         <v>526</v>
       </c>
@@ -10909,54 +10942,54 @@
         <v>0</v>
       </c>
       <c r="AC44" s="113"/>
-      <c r="AD44" s="225"/>
+      <c r="AD44" s="184"/>
       <c r="AE44" s="119"/>
-      <c r="AF44" s="163"/>
+      <c r="AF44" s="231"/>
     </row>
     <row r="45" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A45" s="167" t="s">
+      <c r="A45" s="237" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
-      <c r="F45" s="167"/>
-      <c r="G45" s="167"/>
-      <c r="H45" s="167"/>
-      <c r="I45" s="167"/>
-      <c r="J45" s="167"/>
-      <c r="K45" s="167"/>
-      <c r="L45" s="167"/>
-      <c r="M45" s="167"/>
-      <c r="N45" s="167"/>
-      <c r="O45" s="167"/>
-      <c r="P45" s="167"/>
-      <c r="Q45" s="167"/>
-      <c r="R45" s="167"/>
-      <c r="S45" s="167"/>
-      <c r="T45" s="167"/>
-      <c r="U45" s="167"/>
-      <c r="V45" s="167"/>
-      <c r="W45" s="167"/>
-      <c r="X45" s="167"/>
-      <c r="Y45" s="167"/>
-      <c r="Z45" s="167"/>
-      <c r="AA45" s="167"/>
-      <c r="AB45" s="167"/>
-      <c r="AC45" s="167"/>
-      <c r="AD45" s="167"/>
-      <c r="AE45" s="167"/>
-      <c r="AF45" s="167"/>
+      <c r="B45" s="237"/>
+      <c r="C45" s="237"/>
+      <c r="D45" s="237"/>
+      <c r="E45" s="237"/>
+      <c r="F45" s="237"/>
+      <c r="G45" s="237"/>
+      <c r="H45" s="237"/>
+      <c r="I45" s="237"/>
+      <c r="J45" s="237"/>
+      <c r="K45" s="237"/>
+      <c r="L45" s="237"/>
+      <c r="M45" s="237"/>
+      <c r="N45" s="237"/>
+      <c r="O45" s="237"/>
+      <c r="P45" s="237"/>
+      <c r="Q45" s="237"/>
+      <c r="R45" s="237"/>
+      <c r="S45" s="237"/>
+      <c r="T45" s="237"/>
+      <c r="U45" s="237"/>
+      <c r="V45" s="237"/>
+      <c r="W45" s="237"/>
+      <c r="X45" s="237"/>
+      <c r="Y45" s="237"/>
+      <c r="Z45" s="237"/>
+      <c r="AA45" s="237"/>
+      <c r="AB45" s="237"/>
+      <c r="AC45" s="237"/>
+      <c r="AD45" s="237"/>
+      <c r="AE45" s="237"/>
+      <c r="AF45" s="237"/>
     </row>
     <row r="46" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A46" s="191" t="s">
+      <c r="A46" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="191" t="s">
+      <c r="B46" s="181" t="s">
         <v>594</v>
       </c>
-      <c r="C46" s="187" t="s">
+      <c r="C46" s="179" t="s">
         <v>508</v>
       </c>
       <c r="D46" s="78"/>
@@ -10965,62 +10998,62 @@
       <c r="G46" s="79"/>
       <c r="H46" s="79"/>
       <c r="I46" s="80"/>
-      <c r="J46" s="179" t="s">
+      <c r="J46" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="180"/>
-      <c r="L46" s="179" t="s">
+      <c r="K46" s="170"/>
+      <c r="L46" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="180"/>
-      <c r="N46" s="179" t="s">
+      <c r="M46" s="170"/>
+      <c r="N46" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="O46" s="180"/>
-      <c r="P46" s="179" t="s">
+      <c r="O46" s="170"/>
+      <c r="P46" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="Q46" s="180"/>
-      <c r="R46" s="179" t="s">
+      <c r="Q46" s="170"/>
+      <c r="R46" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="S46" s="180"/>
-      <c r="T46" s="179" t="s">
+      <c r="S46" s="170"/>
+      <c r="T46" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="U46" s="180"/>
-      <c r="V46" s="179" t="s">
+      <c r="U46" s="170"/>
+      <c r="V46" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="W46" s="180"/>
-      <c r="X46" s="179" t="s">
+      <c r="W46" s="170"/>
+      <c r="X46" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="Y46" s="180"/>
-      <c r="Z46" s="179" t="s">
+      <c r="Y46" s="170"/>
+      <c r="Z46" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="AA46" s="180"/>
-      <c r="AB46" s="196" t="s">
+      <c r="AA46" s="170"/>
+      <c r="AB46" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="AC46" s="173" t="s">
+      <c r="AC46" s="186" t="s">
         <v>628</v>
       </c>
-      <c r="AD46" s="173" t="s">
+      <c r="AD46" s="186" t="s">
         <v>639</v>
       </c>
-      <c r="AE46" s="165" t="s">
+      <c r="AE46" s="168" t="s">
         <v>640</v>
       </c>
-      <c r="AF46" s="165" t="s">
+      <c r="AF46" s="168" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="47" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A47" s="192"/>
-      <c r="B47" s="192"/>
-      <c r="C47" s="188"/>
+      <c r="A47" s="182"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="180"/>
       <c r="D47" s="78"/>
       <c r="E47" s="79"/>
       <c r="F47" s="79"/>
@@ -11081,14 +11114,14 @@
       <c r="AA47" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB47" s="197"/>
-      <c r="AC47" s="173"/>
-      <c r="AD47" s="173"/>
-      <c r="AE47" s="165"/>
-      <c r="AF47" s="165"/>
+      <c r="AB47" s="172"/>
+      <c r="AC47" s="186"/>
+      <c r="AD47" s="186"/>
+      <c r="AE47" s="168"/>
+      <c r="AF47" s="168"/>
     </row>
     <row r="48" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A48" s="193" t="s">
+      <c r="A48" s="175" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -11125,7 +11158,7 @@
         <f>SUM(D48:AA48)</f>
         <v>0</v>
       </c>
-      <c r="AC48" s="168" t="str">
+      <c r="AC48" s="232" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D49&gt;D48," * Eligible for PrEP  for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Assessed for HIV risk"&amp;CHAR(10),""),IF(E49&gt;E48," * Eligible for PrEP  for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Assessed for HIV risk"&amp;CHAR(10),""),
@@ -11144,18 +11177,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD48" s="223" t="str">
+      <c r="AD48" s="193" t="str">
         <f>CONCATENATE(AC48,AC50,AC51,AC52,AC53,AC55,AC56,AC57,AC58,AC59,AC60,AC61,AC62,AC63,AC64)</f>
         <v/>
       </c>
       <c r="AE48" s="117"/>
-      <c r="AF48" s="163" t="str">
+      <c r="AF48" s="231" t="str">
         <f>CONCATENATE(AE48,AE49,AE50,AE51,AE52,AE53,AE54,AE55,AE56,AE57,AE58,AE59,AE60,AE61,AE62,AE63,AE64)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A49" s="194"/>
+      <c r="A49" s="176"/>
       <c r="B49" s="15" t="s">
         <v>633</v>
       </c>
@@ -11190,13 +11223,13 @@
         <f t="shared" ref="AB49:AB62" si="5">SUM(D49:AA49)</f>
         <v>0</v>
       </c>
-      <c r="AC49" s="169"/>
-      <c r="AD49" s="224"/>
+      <c r="AC49" s="233"/>
+      <c r="AD49" s="194"/>
       <c r="AE49" s="117"/>
-      <c r="AF49" s="163"/>
+      <c r="AF49" s="231"/>
     </row>
     <row r="50" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A50" s="194"/>
+      <c r="A50" s="176"/>
       <c r="B50" s="15" t="s">
         <v>528</v>
       </c>
@@ -11250,7 +11283,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD50" s="224"/>
+      <c r="AD50" s="194"/>
       <c r="AE50" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -11258,10 +11291,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF50" s="163"/>
+      <c r="AF50" s="231"/>
     </row>
     <row r="51" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A51" s="194"/>
+      <c r="A51" s="176"/>
       <c r="B51" s="15" t="s">
         <v>237</v>
       </c>
@@ -11297,12 +11330,12 @@
         <v>0</v>
       </c>
       <c r="AC51" s="112"/>
-      <c r="AD51" s="224"/>
+      <c r="AD51" s="194"/>
       <c r="AE51" s="117"/>
-      <c r="AF51" s="163"/>
+      <c r="AF51" s="231"/>
     </row>
     <row r="52" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A52" s="194"/>
+      <c r="A52" s="176"/>
       <c r="B52" s="15" t="s">
         <v>529</v>
       </c>
@@ -11338,12 +11371,12 @@
         <v>0</v>
       </c>
       <c r="AC52" s="112"/>
-      <c r="AD52" s="224"/>
+      <c r="AD52" s="194"/>
       <c r="AE52" s="117"/>
-      <c r="AF52" s="163"/>
+      <c r="AF52" s="231"/>
     </row>
     <row r="53" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A53" s="184" t="s">
+      <c r="A53" s="188" t="s">
         <v>37</v>
       </c>
       <c r="B53" s="15" t="s">
@@ -11380,7 +11413,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="174" t="str">
+      <c r="AC53" s="200" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D54&gt;D53," * F02-07 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F02-06"&amp;CHAR(10),""),IF(E54&gt;E53," * F02-07 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F02-06"&amp;CHAR(10),""),
@@ -11399,12 +11432,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD53" s="224"/>
+      <c r="AD53" s="194"/>
       <c r="AE53" s="117"/>
-      <c r="AF53" s="163"/>
+      <c r="AF53" s="231"/>
     </row>
     <row r="54" spans="1:32" s="10" customFormat="1" ht="83.85" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A54" s="184"/>
+      <c r="A54" s="188"/>
       <c r="B54" s="15" t="s">
         <v>530</v>
       </c>
@@ -11439,13 +11472,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="175"/>
-      <c r="AD54" s="224"/>
+      <c r="AC54" s="201"/>
+      <c r="AD54" s="194"/>
       <c r="AE54" s="117"/>
-      <c r="AF54" s="163"/>
+      <c r="AF54" s="231"/>
     </row>
     <row r="55" spans="1:32" s="10" customFormat="1" ht="83.85" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A55" s="184"/>
+      <c r="A55" s="188"/>
       <c r="B55" s="15" t="s">
         <v>531</v>
       </c>
@@ -11481,12 +11514,12 @@
         <v>0</v>
       </c>
       <c r="AC55" s="112"/>
-      <c r="AD55" s="224"/>
+      <c r="AD55" s="194"/>
       <c r="AE55" s="117"/>
-      <c r="AF55" s="163"/>
+      <c r="AF55" s="231"/>
     </row>
     <row r="56" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A56" s="200" t="s">
+      <c r="A56" s="173" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -11524,12 +11557,12 @@
         <v>0</v>
       </c>
       <c r="AC56" s="112"/>
-      <c r="AD56" s="224"/>
+      <c r="AD56" s="194"/>
       <c r="AE56" s="117"/>
-      <c r="AF56" s="163"/>
+      <c r="AF56" s="231"/>
     </row>
     <row r="57" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A57" s="211"/>
+      <c r="A57" s="195"/>
       <c r="B57" s="15" t="s">
         <v>533</v>
       </c>
@@ -11565,12 +11598,12 @@
         <v>0</v>
       </c>
       <c r="AC57" s="112"/>
-      <c r="AD57" s="224"/>
+      <c r="AD57" s="194"/>
       <c r="AE57" s="117"/>
-      <c r="AF57" s="163"/>
+      <c r="AF57" s="231"/>
     </row>
     <row r="58" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A58" s="211"/>
+      <c r="A58" s="195"/>
       <c r="B58" s="15" t="s">
         <v>248</v>
       </c>
@@ -11606,12 +11639,12 @@
         <v>0</v>
       </c>
       <c r="AC58" s="112"/>
-      <c r="AD58" s="224"/>
+      <c r="AD58" s="194"/>
       <c r="AE58" s="117"/>
-      <c r="AF58" s="163"/>
+      <c r="AF58" s="231"/>
     </row>
     <row r="59" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A59" s="211"/>
+      <c r="A59" s="195"/>
       <c r="B59" s="15" t="s">
         <v>534</v>
       </c>
@@ -11647,12 +11680,12 @@
         <v>0</v>
       </c>
       <c r="AC59" s="112"/>
-      <c r="AD59" s="224"/>
+      <c r="AD59" s="194"/>
       <c r="AE59" s="117"/>
-      <c r="AF59" s="163"/>
+      <c r="AF59" s="231"/>
     </row>
     <row r="60" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A60" s="211"/>
+      <c r="A60" s="195"/>
       <c r="B60" s="15" t="s">
         <v>535</v>
       </c>
@@ -11688,12 +11721,12 @@
         <v>0</v>
       </c>
       <c r="AC60" s="112"/>
-      <c r="AD60" s="224"/>
+      <c r="AD60" s="194"/>
       <c r="AE60" s="117"/>
-      <c r="AF60" s="163"/>
+      <c r="AF60" s="231"/>
     </row>
     <row r="61" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A61" s="211"/>
+      <c r="A61" s="195"/>
       <c r="B61" s="15" t="s">
         <v>536</v>
       </c>
@@ -11729,12 +11762,12 @@
         <v>0</v>
       </c>
       <c r="AC61" s="112"/>
-      <c r="AD61" s="224"/>
+      <c r="AD61" s="194"/>
       <c r="AE61" s="117"/>
-      <c r="AF61" s="163"/>
+      <c r="AF61" s="231"/>
     </row>
     <row r="62" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A62" s="201"/>
+      <c r="A62" s="174"/>
       <c r="B62" s="15" t="s">
         <v>537</v>
       </c>
@@ -11770,12 +11803,12 @@
         <v>0</v>
       </c>
       <c r="AC62" s="112"/>
-      <c r="AD62" s="224"/>
+      <c r="AD62" s="194"/>
       <c r="AE62" s="117"/>
-      <c r="AF62" s="163"/>
+      <c r="AF62" s="231"/>
     </row>
     <row r="63" spans="1:32" s="10" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A63" s="200" t="s">
+      <c r="A63" s="173" t="s">
         <v>134</v>
       </c>
       <c r="B63" s="93" t="s">
@@ -11810,12 +11843,12 @@
       <c r="AA63" s="87"/>
       <c r="AB63" s="125"/>
       <c r="AC63" s="112"/>
-      <c r="AD63" s="224"/>
+      <c r="AD63" s="194"/>
       <c r="AE63" s="117"/>
-      <c r="AF63" s="163"/>
+      <c r="AF63" s="231"/>
     </row>
     <row r="64" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A64" s="211"/>
+      <c r="A64" s="195"/>
       <c r="B64" s="104" t="s">
         <v>539</v>
       </c>
@@ -11848,124 +11881,124 @@
       <c r="AA64" s="101"/>
       <c r="AB64" s="126"/>
       <c r="AC64" s="113"/>
-      <c r="AD64" s="224"/>
+      <c r="AD64" s="194"/>
       <c r="AE64" s="119"/>
-      <c r="AF64" s="163"/>
+      <c r="AF64" s="231"/>
     </row>
     <row r="65" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A65" s="167" t="s">
+      <c r="A65" s="237" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="167"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="167"/>
-      <c r="E65" s="167"/>
-      <c r="F65" s="167"/>
-      <c r="G65" s="167"/>
-      <c r="H65" s="167"/>
-      <c r="I65" s="167"/>
-      <c r="J65" s="167"/>
-      <c r="K65" s="167"/>
-      <c r="L65" s="167"/>
-      <c r="M65" s="167"/>
-      <c r="N65" s="167"/>
-      <c r="O65" s="167"/>
-      <c r="P65" s="167"/>
-      <c r="Q65" s="167"/>
-      <c r="R65" s="167"/>
-      <c r="S65" s="167"/>
-      <c r="T65" s="167"/>
-      <c r="U65" s="167"/>
-      <c r="V65" s="167"/>
-      <c r="W65" s="167"/>
-      <c r="X65" s="167"/>
-      <c r="Y65" s="167"/>
-      <c r="Z65" s="167"/>
-      <c r="AA65" s="167"/>
-      <c r="AB65" s="167"/>
-      <c r="AC65" s="167"/>
-      <c r="AD65" s="167"/>
-      <c r="AE65" s="167"/>
-      <c r="AF65" s="167"/>
+      <c r="B65" s="237"/>
+      <c r="C65" s="237"/>
+      <c r="D65" s="237"/>
+      <c r="E65" s="237"/>
+      <c r="F65" s="237"/>
+      <c r="G65" s="237"/>
+      <c r="H65" s="237"/>
+      <c r="I65" s="237"/>
+      <c r="J65" s="237"/>
+      <c r="K65" s="237"/>
+      <c r="L65" s="237"/>
+      <c r="M65" s="237"/>
+      <c r="N65" s="237"/>
+      <c r="O65" s="237"/>
+      <c r="P65" s="237"/>
+      <c r="Q65" s="237"/>
+      <c r="R65" s="237"/>
+      <c r="S65" s="237"/>
+      <c r="T65" s="237"/>
+      <c r="U65" s="237"/>
+      <c r="V65" s="237"/>
+      <c r="W65" s="237"/>
+      <c r="X65" s="237"/>
+      <c r="Y65" s="237"/>
+      <c r="Z65" s="237"/>
+      <c r="AA65" s="237"/>
+      <c r="AB65" s="237"/>
+      <c r="AC65" s="237"/>
+      <c r="AD65" s="237"/>
+      <c r="AE65" s="237"/>
+      <c r="AF65" s="237"/>
     </row>
     <row r="66" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A66" s="191" t="s">
+      <c r="A66" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="191" t="s">
+      <c r="B66" s="181" t="s">
         <v>594</v>
       </c>
-      <c r="C66" s="187" t="s">
+      <c r="C66" s="179" t="s">
         <v>508</v>
       </c>
-      <c r="D66" s="198" t="s">
+      <c r="D66" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="180"/>
-      <c r="F66" s="179" t="s">
+      <c r="E66" s="170"/>
+      <c r="F66" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="180"/>
-      <c r="H66" s="179" t="s">
+      <c r="G66" s="170"/>
+      <c r="H66" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="I66" s="180"/>
-      <c r="J66" s="179" t="s">
+      <c r="I66" s="170"/>
+      <c r="J66" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="180"/>
-      <c r="L66" s="179" t="s">
+      <c r="K66" s="170"/>
+      <c r="L66" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="180"/>
-      <c r="N66" s="179" t="s">
+      <c r="M66" s="170"/>
+      <c r="N66" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="O66" s="180"/>
-      <c r="P66" s="179" t="s">
+      <c r="O66" s="170"/>
+      <c r="P66" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="Q66" s="180"/>
-      <c r="R66" s="179" t="s">
+      <c r="Q66" s="170"/>
+      <c r="R66" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="S66" s="180"/>
-      <c r="T66" s="179" t="s">
+      <c r="S66" s="170"/>
+      <c r="T66" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="U66" s="180"/>
-      <c r="V66" s="179" t="s">
+      <c r="U66" s="170"/>
+      <c r="V66" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="W66" s="180"/>
-      <c r="X66" s="179" t="s">
+      <c r="W66" s="170"/>
+      <c r="X66" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="Y66" s="180"/>
-      <c r="Z66" s="179" t="s">
+      <c r="Y66" s="170"/>
+      <c r="Z66" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="AA66" s="180"/>
-      <c r="AB66" s="196" t="s">
+      <c r="AA66" s="170"/>
+      <c r="AB66" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="AC66" s="173" t="s">
+      <c r="AC66" s="186" t="s">
         <v>628</v>
       </c>
-      <c r="AD66" s="173" t="s">
+      <c r="AD66" s="186" t="s">
         <v>639</v>
       </c>
-      <c r="AE66" s="165" t="s">
+      <c r="AE66" s="168" t="s">
         <v>640</v>
       </c>
-      <c r="AF66" s="165" t="s">
+      <c r="AF66" s="168" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="67" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A67" s="192"/>
-      <c r="B67" s="192"/>
-      <c r="C67" s="188"/>
+      <c r="A67" s="182"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="180"/>
       <c r="D67" s="73" t="s">
         <v>14</v>
       </c>
@@ -12038,14 +12071,14 @@
       <c r="AA67" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB67" s="197"/>
-      <c r="AC67" s="173"/>
-      <c r="AD67" s="173"/>
-      <c r="AE67" s="165"/>
-      <c r="AF67" s="165"/>
+      <c r="AB67" s="172"/>
+      <c r="AC67" s="186"/>
+      <c r="AD67" s="186"/>
+      <c r="AE67" s="168"/>
+      <c r="AF67" s="168"/>
     </row>
     <row r="68" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A68" s="200" t="s">
+      <c r="A68" s="173" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -12101,18 +12134,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD68" s="221" t="str">
+      <c r="AD68" s="187" t="str">
         <f>CONCATENATE(AC68,AC69,AC70,AC71,AC72,AC73,AC74,AC75,AC76,AC77,AC78,AC79)</f>
         <v/>
       </c>
       <c r="AE68" s="117"/>
-      <c r="AF68" s="163" t="str">
+      <c r="AF68" s="231" t="str">
         <f>CONCATENATE(AE68,AE69,AE70,AE71,AE72,AE73,AE74,AE75,AE76,AE77,AE78,AE79)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A69" s="211"/>
+      <c r="A69" s="195"/>
       <c r="B69" s="15" t="s">
         <v>541</v>
       </c>
@@ -12166,12 +12199,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD69" s="221"/>
+      <c r="AD69" s="187"/>
       <c r="AE69" s="117"/>
-      <c r="AF69" s="163"/>
+      <c r="AF69" s="231"/>
     </row>
     <row r="70" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A70" s="200" t="s">
+      <c r="A70" s="173" t="s">
         <v>32</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -12227,12 +12260,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD70" s="221"/>
+      <c r="AD70" s="187"/>
       <c r="AE70" s="117"/>
-      <c r="AF70" s="163"/>
+      <c r="AF70" s="231"/>
     </row>
     <row r="71" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A71" s="211"/>
+      <c r="A71" s="195"/>
       <c r="B71" s="15" t="s">
         <v>541</v>
       </c>
@@ -12286,12 +12319,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD71" s="221"/>
+      <c r="AD71" s="187"/>
       <c r="AE71" s="117"/>
-      <c r="AF71" s="163"/>
+      <c r="AF71" s="231"/>
     </row>
     <row r="72" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A72" s="212" t="s">
+      <c r="A72" s="206" t="s">
         <v>38</v>
       </c>
       <c r="B72" s="20" t="s">
@@ -12329,12 +12362,12 @@
         <v>0</v>
       </c>
       <c r="AC72" s="112"/>
-      <c r="AD72" s="221"/>
+      <c r="AD72" s="187"/>
       <c r="AE72" s="117"/>
-      <c r="AF72" s="163"/>
+      <c r="AF72" s="231"/>
     </row>
     <row r="73" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A73" s="212"/>
+      <c r="A73" s="206"/>
       <c r="B73" s="20" t="s">
         <v>544</v>
       </c>
@@ -12370,12 +12403,12 @@
         <v>0</v>
       </c>
       <c r="AC73" s="112"/>
-      <c r="AD73" s="221"/>
+      <c r="AD73" s="187"/>
       <c r="AE73" s="117"/>
-      <c r="AF73" s="163"/>
+      <c r="AF73" s="231"/>
     </row>
     <row r="74" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A74" s="212" t="s">
+      <c r="A74" s="206" t="s">
         <v>39</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -12413,12 +12446,12 @@
         <v>0</v>
       </c>
       <c r="AC74" s="112"/>
-      <c r="AD74" s="221"/>
+      <c r="AD74" s="187"/>
       <c r="AE74" s="117"/>
-      <c r="AF74" s="163"/>
+      <c r="AF74" s="231"/>
     </row>
     <row r="75" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A75" s="212"/>
+      <c r="A75" s="206"/>
       <c r="B75" s="20" t="s">
         <v>545</v>
       </c>
@@ -12454,12 +12487,12 @@
         <v>0</v>
       </c>
       <c r="AC75" s="112"/>
-      <c r="AD75" s="221"/>
+      <c r="AD75" s="187"/>
       <c r="AE75" s="117"/>
-      <c r="AF75" s="163"/>
+      <c r="AF75" s="231"/>
     </row>
     <row r="76" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A76" s="212" t="s">
+      <c r="A76" s="206" t="s">
         <v>40</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -12497,12 +12530,12 @@
         <v>0</v>
       </c>
       <c r="AC76" s="112"/>
-      <c r="AD76" s="221"/>
+      <c r="AD76" s="187"/>
       <c r="AE76" s="117"/>
-      <c r="AF76" s="163"/>
+      <c r="AF76" s="231"/>
     </row>
     <row r="77" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A77" s="212"/>
+      <c r="A77" s="206"/>
       <c r="B77" s="20" t="s">
         <v>546</v>
       </c>
@@ -12538,12 +12571,12 @@
         <v>0</v>
       </c>
       <c r="AC77" s="112"/>
-      <c r="AD77" s="221"/>
+      <c r="AD77" s="187"/>
       <c r="AE77" s="117"/>
-      <c r="AF77" s="163"/>
+      <c r="AF77" s="231"/>
     </row>
     <row r="78" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A78" s="212" t="s">
+      <c r="A78" s="206" t="s">
         <v>41</v>
       </c>
       <c r="B78" s="20" t="s">
@@ -12581,12 +12614,12 @@
         <v>0</v>
       </c>
       <c r="AC78" s="112"/>
-      <c r="AD78" s="221"/>
+      <c r="AD78" s="187"/>
       <c r="AE78" s="117"/>
-      <c r="AF78" s="163"/>
+      <c r="AF78" s="231"/>
     </row>
     <row r="79" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A79" s="213"/>
+      <c r="A79" s="207"/>
       <c r="B79" s="102" t="s">
         <v>547</v>
       </c>
@@ -12622,54 +12655,54 @@
         <v>0</v>
       </c>
       <c r="AC79" s="113"/>
-      <c r="AD79" s="222"/>
+      <c r="AD79" s="183"/>
       <c r="AE79" s="119"/>
-      <c r="AF79" s="163"/>
+      <c r="AF79" s="231"/>
     </row>
     <row r="80" spans="1:32" s="8" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A80" s="167" t="s">
+      <c r="A80" s="237" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="167"/>
-      <c r="C80" s="167"/>
-      <c r="D80" s="167"/>
-      <c r="E80" s="167"/>
-      <c r="F80" s="167"/>
-      <c r="G80" s="167"/>
-      <c r="H80" s="167"/>
-      <c r="I80" s="167"/>
-      <c r="J80" s="167"/>
-      <c r="K80" s="167"/>
-      <c r="L80" s="167"/>
-      <c r="M80" s="167"/>
-      <c r="N80" s="167"/>
-      <c r="O80" s="167"/>
-      <c r="P80" s="167"/>
-      <c r="Q80" s="167"/>
-      <c r="R80" s="167"/>
-      <c r="S80" s="167"/>
-      <c r="T80" s="167"/>
-      <c r="U80" s="167"/>
-      <c r="V80" s="167"/>
-      <c r="W80" s="167"/>
-      <c r="X80" s="167"/>
-      <c r="Y80" s="167"/>
-      <c r="Z80" s="167"/>
-      <c r="AA80" s="167"/>
-      <c r="AB80" s="167"/>
-      <c r="AC80" s="167"/>
-      <c r="AD80" s="167"/>
-      <c r="AE80" s="167"/>
-      <c r="AF80" s="167"/>
+      <c r="B80" s="237"/>
+      <c r="C80" s="237"/>
+      <c r="D80" s="237"/>
+      <c r="E80" s="237"/>
+      <c r="F80" s="237"/>
+      <c r="G80" s="237"/>
+      <c r="H80" s="237"/>
+      <c r="I80" s="237"/>
+      <c r="J80" s="237"/>
+      <c r="K80" s="237"/>
+      <c r="L80" s="237"/>
+      <c r="M80" s="237"/>
+      <c r="N80" s="237"/>
+      <c r="O80" s="237"/>
+      <c r="P80" s="237"/>
+      <c r="Q80" s="237"/>
+      <c r="R80" s="237"/>
+      <c r="S80" s="237"/>
+      <c r="T80" s="237"/>
+      <c r="U80" s="237"/>
+      <c r="V80" s="237"/>
+      <c r="W80" s="237"/>
+      <c r="X80" s="237"/>
+      <c r="Y80" s="237"/>
+      <c r="Z80" s="237"/>
+      <c r="AA80" s="237"/>
+      <c r="AB80" s="237"/>
+      <c r="AC80" s="237"/>
+      <c r="AD80" s="237"/>
+      <c r="AE80" s="237"/>
+      <c r="AF80" s="237"/>
     </row>
     <row r="81" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A81" s="191" t="s">
+      <c r="A81" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="B81" s="191" t="s">
+      <c r="B81" s="181" t="s">
         <v>594</v>
       </c>
-      <c r="C81" s="187" t="s">
+      <c r="C81" s="179" t="s">
         <v>508</v>
       </c>
       <c r="D81" s="78"/>
@@ -12680,58 +12713,58 @@
       <c r="I81" s="79"/>
       <c r="J81" s="79"/>
       <c r="K81" s="80"/>
-      <c r="L81" s="198" t="s">
+      <c r="L81" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="M81" s="180"/>
-      <c r="N81" s="179" t="s">
+      <c r="M81" s="170"/>
+      <c r="N81" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="O81" s="180"/>
-      <c r="P81" s="179" t="s">
+      <c r="O81" s="170"/>
+      <c r="P81" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="Q81" s="180"/>
-      <c r="R81" s="179" t="s">
+      <c r="Q81" s="170"/>
+      <c r="R81" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="S81" s="180"/>
-      <c r="T81" s="179" t="s">
+      <c r="S81" s="170"/>
+      <c r="T81" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="U81" s="180"/>
-      <c r="V81" s="179" t="s">
+      <c r="U81" s="170"/>
+      <c r="V81" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="W81" s="180"/>
-      <c r="X81" s="179" t="s">
+      <c r="W81" s="170"/>
+      <c r="X81" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="Y81" s="180"/>
-      <c r="Z81" s="179" t="s">
+      <c r="Y81" s="170"/>
+      <c r="Z81" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="AA81" s="180"/>
-      <c r="AB81" s="196" t="s">
+      <c r="AA81" s="170"/>
+      <c r="AB81" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="AC81" s="173" t="s">
+      <c r="AC81" s="186" t="s">
         <v>628</v>
       </c>
-      <c r="AD81" s="173" t="s">
+      <c r="AD81" s="186" t="s">
         <v>639</v>
       </c>
-      <c r="AE81" s="165" t="s">
+      <c r="AE81" s="168" t="s">
         <v>640</v>
       </c>
-      <c r="AF81" s="165" t="s">
+      <c r="AF81" s="168" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="82" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A82" s="192"/>
-      <c r="B82" s="192"/>
-      <c r="C82" s="188"/>
+      <c r="A82" s="182"/>
+      <c r="B82" s="182"/>
+      <c r="C82" s="180"/>
       <c r="D82" s="75"/>
       <c r="E82" s="76"/>
       <c r="F82" s="76"/>
@@ -12788,14 +12821,14 @@
       <c r="AA82" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB82" s="197"/>
-      <c r="AC82" s="173"/>
-      <c r="AD82" s="173"/>
-      <c r="AE82" s="165"/>
-      <c r="AF82" s="165"/>
+      <c r="AB82" s="172"/>
+      <c r="AC82" s="186"/>
+      <c r="AD82" s="186"/>
+      <c r="AE82" s="168"/>
+      <c r="AF82" s="168"/>
     </row>
     <row r="83" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A83" s="200" t="s">
+      <c r="A83" s="173" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -12833,18 +12866,18 @@
         <v>0</v>
       </c>
       <c r="AC83" s="112"/>
-      <c r="AD83" s="221" t="str">
+      <c r="AD83" s="187" t="str">
         <f>CONCATENATE(AC83,AC84,AC85,AC86,AC87,AC88,AC89,AC90,AC91,AC92,AC93,AC94,AC95,AC96,AC97,AC98,AC99,AC100)</f>
         <v/>
       </c>
       <c r="AE83" s="117"/>
-      <c r="AF83" s="163" t="str">
+      <c r="AF83" s="231" t="str">
         <f>CONCATENATE(AE83,AE84,AE85,AE86,AE87,AE88,AE89,AE90,AE91,AE92,AE93,AE94,AE95,AE96,AE97,AE98,AE99,AE100)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A84" s="211"/>
+      <c r="A84" s="195"/>
       <c r="B84" s="15" t="s">
         <v>288</v>
       </c>
@@ -12898,12 +12931,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD84" s="221"/>
+      <c r="AD84" s="187"/>
       <c r="AE84" s="117"/>
-      <c r="AF84" s="163"/>
+      <c r="AF84" s="231"/>
     </row>
     <row r="85" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A85" s="211"/>
+      <c r="A85" s="195"/>
       <c r="B85" s="15" t="s">
         <v>549</v>
       </c>
@@ -12939,12 +12972,12 @@
         <v>0</v>
       </c>
       <c r="AC85" s="112"/>
-      <c r="AD85" s="221"/>
+      <c r="AD85" s="187"/>
       <c r="AE85" s="117"/>
-      <c r="AF85" s="163"/>
+      <c r="AF85" s="231"/>
     </row>
     <row r="86" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A86" s="211"/>
+      <c r="A86" s="195"/>
       <c r="B86" s="15" t="s">
         <v>550</v>
       </c>
@@ -12980,12 +13013,12 @@
         <v>0</v>
       </c>
       <c r="AC86" s="112"/>
-      <c r="AD86" s="221"/>
+      <c r="AD86" s="187"/>
       <c r="AE86" s="117"/>
-      <c r="AF86" s="163"/>
+      <c r="AF86" s="231"/>
     </row>
     <row r="87" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A87" s="211"/>
+      <c r="A87" s="195"/>
       <c r="B87" s="15" t="s">
         <v>551</v>
       </c>
@@ -13021,12 +13054,12 @@
         <v>0</v>
       </c>
       <c r="AC87" s="112"/>
-      <c r="AD87" s="221"/>
+      <c r="AD87" s="187"/>
       <c r="AE87" s="117"/>
-      <c r="AF87" s="163"/>
+      <c r="AF87" s="231"/>
     </row>
     <row r="88" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A88" s="201"/>
+      <c r="A88" s="174"/>
       <c r="B88" s="15" t="s">
         <v>552</v>
       </c>
@@ -13062,12 +13095,12 @@
         <v>0</v>
       </c>
       <c r="AC88" s="112"/>
-      <c r="AD88" s="221"/>
+      <c r="AD88" s="187"/>
       <c r="AE88" s="117"/>
-      <c r="AF88" s="163"/>
+      <c r="AF88" s="231"/>
     </row>
     <row r="89" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A89" s="200" t="s">
+      <c r="A89" s="173" t="s">
         <v>42</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -13105,12 +13138,12 @@
         <v>0</v>
       </c>
       <c r="AC89" s="112"/>
-      <c r="AD89" s="221"/>
+      <c r="AD89" s="187"/>
       <c r="AE89" s="117"/>
-      <c r="AF89" s="163"/>
+      <c r="AF89" s="231"/>
     </row>
     <row r="90" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A90" s="211"/>
+      <c r="A90" s="195"/>
       <c r="B90" s="15" t="s">
         <v>553</v>
       </c>
@@ -13164,12 +13197,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD90" s="221"/>
+      <c r="AD90" s="187"/>
       <c r="AE90" s="117"/>
-      <c r="AF90" s="163"/>
+      <c r="AF90" s="231"/>
     </row>
     <row r="91" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A91" s="211"/>
+      <c r="A91" s="195"/>
       <c r="B91" s="15" t="s">
         <v>304</v>
       </c>
@@ -13205,12 +13238,12 @@
         <v>0</v>
       </c>
       <c r="AC91" s="112"/>
-      <c r="AD91" s="221"/>
+      <c r="AD91" s="187"/>
       <c r="AE91" s="117"/>
-      <c r="AF91" s="163"/>
+      <c r="AF91" s="231"/>
     </row>
     <row r="92" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A92" s="211"/>
+      <c r="A92" s="195"/>
       <c r="B92" s="15" t="s">
         <v>554</v>
       </c>
@@ -13246,12 +13279,12 @@
         <v>0</v>
       </c>
       <c r="AC92" s="112"/>
-      <c r="AD92" s="221"/>
+      <c r="AD92" s="187"/>
       <c r="AE92" s="117"/>
-      <c r="AF92" s="163"/>
+      <c r="AF92" s="231"/>
     </row>
     <row r="93" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A93" s="211"/>
+      <c r="A93" s="195"/>
       <c r="B93" s="15" t="s">
         <v>551</v>
       </c>
@@ -13287,12 +13320,12 @@
         <v>0</v>
       </c>
       <c r="AC93" s="112"/>
-      <c r="AD93" s="221"/>
+      <c r="AD93" s="187"/>
       <c r="AE93" s="117"/>
-      <c r="AF93" s="163"/>
+      <c r="AF93" s="231"/>
     </row>
     <row r="94" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A94" s="201"/>
+      <c r="A94" s="174"/>
       <c r="B94" s="15" t="s">
         <v>309</v>
       </c>
@@ -13346,12 +13379,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD94" s="221"/>
+      <c r="AD94" s="187"/>
       <c r="AE94" s="117"/>
-      <c r="AF94" s="163"/>
+      <c r="AF94" s="231"/>
     </row>
     <row r="95" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A95" s="200" t="s">
+      <c r="A95" s="173" t="s">
         <v>33</v>
       </c>
       <c r="B95" s="15" t="s">
@@ -13389,12 +13422,12 @@
         <v>0</v>
       </c>
       <c r="AC95" s="112"/>
-      <c r="AD95" s="221"/>
+      <c r="AD95" s="187"/>
       <c r="AE95" s="117"/>
-      <c r="AF95" s="163"/>
+      <c r="AF95" s="231"/>
     </row>
     <row r="96" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A96" s="211"/>
+      <c r="A96" s="195"/>
       <c r="B96" s="15" t="s">
         <v>288</v>
       </c>
@@ -13448,12 +13481,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD96" s="221"/>
+      <c r="AD96" s="187"/>
       <c r="AE96" s="117"/>
-      <c r="AF96" s="163"/>
+      <c r="AF96" s="231"/>
     </row>
     <row r="97" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A97" s="211"/>
+      <c r="A97" s="195"/>
       <c r="B97" s="15" t="s">
         <v>304</v>
       </c>
@@ -13489,12 +13522,12 @@
         <v>0</v>
       </c>
       <c r="AC97" s="112"/>
-      <c r="AD97" s="221"/>
+      <c r="AD97" s="187"/>
       <c r="AE97" s="117"/>
-      <c r="AF97" s="163"/>
+      <c r="AF97" s="231"/>
     </row>
     <row r="98" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A98" s="211"/>
+      <c r="A98" s="195"/>
       <c r="B98" s="15" t="s">
         <v>550</v>
       </c>
@@ -13530,12 +13563,12 @@
         <v>0</v>
       </c>
       <c r="AC98" s="112"/>
-      <c r="AD98" s="221"/>
+      <c r="AD98" s="187"/>
       <c r="AE98" s="117"/>
-      <c r="AF98" s="163"/>
+      <c r="AF98" s="231"/>
     </row>
     <row r="99" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A99" s="211"/>
+      <c r="A99" s="195"/>
       <c r="B99" s="15" t="s">
         <v>551</v>
       </c>
@@ -13571,12 +13604,12 @@
         <v>0</v>
       </c>
       <c r="AC99" s="112"/>
-      <c r="AD99" s="221"/>
+      <c r="AD99" s="187"/>
       <c r="AE99" s="117"/>
-      <c r="AF99" s="163"/>
+      <c r="AF99" s="231"/>
     </row>
     <row r="100" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A100" s="211"/>
+      <c r="A100" s="195"/>
       <c r="B100" s="99" t="s">
         <v>309</v>
       </c>
@@ -13612,124 +13645,124 @@
         <v>0</v>
       </c>
       <c r="AC100" s="113"/>
-      <c r="AD100" s="221"/>
+      <c r="AD100" s="187"/>
       <c r="AE100" s="117"/>
-      <c r="AF100" s="163"/>
+      <c r="AF100" s="231"/>
     </row>
     <row r="101" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A101" s="167" t="s">
+      <c r="A101" s="237" t="s">
         <v>153</v>
       </c>
-      <c r="B101" s="167"/>
-      <c r="C101" s="167"/>
-      <c r="D101" s="167"/>
-      <c r="E101" s="167"/>
-      <c r="F101" s="167"/>
-      <c r="G101" s="167"/>
-      <c r="H101" s="167"/>
-      <c r="I101" s="167"/>
-      <c r="J101" s="167"/>
-      <c r="K101" s="167"/>
-      <c r="L101" s="167"/>
-      <c r="M101" s="167"/>
-      <c r="N101" s="167"/>
-      <c r="O101" s="167"/>
-      <c r="P101" s="167"/>
-      <c r="Q101" s="167"/>
-      <c r="R101" s="167"/>
-      <c r="S101" s="167"/>
-      <c r="T101" s="167"/>
-      <c r="U101" s="167"/>
-      <c r="V101" s="167"/>
-      <c r="W101" s="167"/>
-      <c r="X101" s="167"/>
-      <c r="Y101" s="167"/>
-      <c r="Z101" s="167"/>
-      <c r="AA101" s="167"/>
-      <c r="AB101" s="167"/>
-      <c r="AC101" s="167"/>
-      <c r="AD101" s="167"/>
-      <c r="AE101" s="167"/>
-      <c r="AF101" s="167"/>
+      <c r="B101" s="237"/>
+      <c r="C101" s="237"/>
+      <c r="D101" s="237"/>
+      <c r="E101" s="237"/>
+      <c r="F101" s="237"/>
+      <c r="G101" s="237"/>
+      <c r="H101" s="237"/>
+      <c r="I101" s="237"/>
+      <c r="J101" s="237"/>
+      <c r="K101" s="237"/>
+      <c r="L101" s="237"/>
+      <c r="M101" s="237"/>
+      <c r="N101" s="237"/>
+      <c r="O101" s="237"/>
+      <c r="P101" s="237"/>
+      <c r="Q101" s="237"/>
+      <c r="R101" s="237"/>
+      <c r="S101" s="237"/>
+      <c r="T101" s="237"/>
+      <c r="U101" s="237"/>
+      <c r="V101" s="237"/>
+      <c r="W101" s="237"/>
+      <c r="X101" s="237"/>
+      <c r="Y101" s="237"/>
+      <c r="Z101" s="237"/>
+      <c r="AA101" s="237"/>
+      <c r="AB101" s="237"/>
+      <c r="AC101" s="237"/>
+      <c r="AD101" s="237"/>
+      <c r="AE101" s="237"/>
+      <c r="AF101" s="237"/>
     </row>
     <row r="102" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A102" s="191" t="s">
+      <c r="A102" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="B102" s="191" t="s">
+      <c r="B102" s="181" t="s">
         <v>594</v>
       </c>
-      <c r="C102" s="187" t="s">
+      <c r="C102" s="179" t="s">
         <v>508</v>
       </c>
-      <c r="D102" s="198" t="s">
+      <c r="D102" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="180"/>
-      <c r="F102" s="179" t="s">
+      <c r="E102" s="170"/>
+      <c r="F102" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="180"/>
-      <c r="H102" s="179" t="s">
+      <c r="G102" s="170"/>
+      <c r="H102" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="I102" s="180"/>
-      <c r="J102" s="179" t="s">
+      <c r="I102" s="170"/>
+      <c r="J102" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="K102" s="180"/>
-      <c r="L102" s="179" t="s">
+      <c r="K102" s="170"/>
+      <c r="L102" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="180"/>
-      <c r="N102" s="179" t="s">
+      <c r="M102" s="170"/>
+      <c r="N102" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="O102" s="180"/>
-      <c r="P102" s="179" t="s">
+      <c r="O102" s="170"/>
+      <c r="P102" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="Q102" s="180"/>
-      <c r="R102" s="179" t="s">
+      <c r="Q102" s="170"/>
+      <c r="R102" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="S102" s="180"/>
-      <c r="T102" s="179" t="s">
+      <c r="S102" s="170"/>
+      <c r="T102" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="U102" s="180"/>
-      <c r="V102" s="179" t="s">
+      <c r="U102" s="170"/>
+      <c r="V102" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="W102" s="180"/>
-      <c r="X102" s="179" t="s">
+      <c r="W102" s="170"/>
+      <c r="X102" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="Y102" s="180"/>
-      <c r="Z102" s="179" t="s">
+      <c r="Y102" s="170"/>
+      <c r="Z102" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="AA102" s="180"/>
-      <c r="AB102" s="196" t="s">
+      <c r="AA102" s="170"/>
+      <c r="AB102" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="AC102" s="173" t="s">
+      <c r="AC102" s="186" t="s">
         <v>628</v>
       </c>
-      <c r="AD102" s="173" t="s">
+      <c r="AD102" s="186" t="s">
         <v>639</v>
       </c>
-      <c r="AE102" s="165" t="s">
+      <c r="AE102" s="168" t="s">
         <v>640</v>
       </c>
-      <c r="AF102" s="165" t="s">
+      <c r="AF102" s="168" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="103" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A103" s="192"/>
-      <c r="B103" s="192"/>
-      <c r="C103" s="188"/>
+      <c r="A103" s="182"/>
+      <c r="B103" s="182"/>
+      <c r="C103" s="180"/>
       <c r="D103" s="73" t="s">
         <v>14</v>
       </c>
@@ -13802,14 +13835,14 @@
       <c r="AA103" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB103" s="197"/>
-      <c r="AC103" s="173"/>
-      <c r="AD103" s="173"/>
-      <c r="AE103" s="165"/>
-      <c r="AF103" s="165"/>
+      <c r="AB103" s="172"/>
+      <c r="AC103" s="186"/>
+      <c r="AD103" s="186"/>
+      <c r="AE103" s="168"/>
+      <c r="AF103" s="168"/>
     </row>
     <row r="104" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A104" s="200" t="s">
+      <c r="A104" s="173" t="s">
         <v>44</v>
       </c>
       <c r="B104" s="15" t="s">
@@ -13846,7 +13879,7 @@
         <f>SUM(D104:AA104)</f>
         <v>0</v>
       </c>
-      <c r="AC104" s="174" t="str">
+      <c r="AC104" s="200" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D105&gt;D104," * F05-02 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-01"&amp;CHAR(10),""),IF(E105&gt;E104," * F05-02 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-01"&amp;CHAR(10),""),
@@ -13865,18 +13898,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD104" s="221" t="str">
+      <c r="AD104" s="187" t="str">
         <f>CONCATENATE(AC104,AC106,AC107,AC108,AC109,AC111,AC113,AC115,AC117,AC118)</f>
         <v xml:space="preserve">  </v>
       </c>
       <c r="AE104" s="117"/>
-      <c r="AF104" s="163" t="str">
+      <c r="AF104" s="231" t="str">
         <f>CONCATENATE(AE104,AE105,AE106,AE107,AE108,AE109,AE110,AE111,AE112,AE113,AE114,AE115,AE116,AE117,AE118)</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A105" s="201"/>
+      <c r="A105" s="174"/>
       <c r="B105" s="15" t="s">
         <v>556</v>
       </c>
@@ -13911,13 +13944,13 @@
         <f t="shared" ref="AB105:AB118" si="8">SUM(D105:AA105)</f>
         <v>0</v>
       </c>
-      <c r="AC105" s="175"/>
-      <c r="AD105" s="221"/>
+      <c r="AC105" s="201"/>
+      <c r="AD105" s="187"/>
       <c r="AE105" s="117"/>
-      <c r="AF105" s="163"/>
+      <c r="AF105" s="231"/>
     </row>
     <row r="106" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A106" s="200" t="s">
+      <c r="A106" s="173" t="s">
         <v>45</v>
       </c>
       <c r="B106" s="15" t="s">
@@ -13957,12 +13990,12 @@
       <c r="AC106" s="112" t="s">
         <v>634</v>
       </c>
-      <c r="AD106" s="221"/>
+      <c r="AD106" s="187"/>
       <c r="AE106" s="117"/>
-      <c r="AF106" s="163"/>
+      <c r="AF106" s="231"/>
     </row>
     <row r="107" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A107" s="201"/>
+      <c r="A107" s="174"/>
       <c r="B107" s="15" t="s">
         <v>327</v>
       </c>
@@ -13998,12 +14031,12 @@
         <v>0</v>
       </c>
       <c r="AC107" s="112"/>
-      <c r="AD107" s="221"/>
+      <c r="AD107" s="187"/>
       <c r="AE107" s="117"/>
-      <c r="AF107" s="163"/>
+      <c r="AF107" s="231"/>
     </row>
     <row r="108" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A108" s="193" t="s">
+      <c r="A108" s="175" t="s">
         <v>34</v>
       </c>
       <c r="B108" s="93" t="s">
@@ -14059,12 +14092,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD108" s="221"/>
+      <c r="AD108" s="187"/>
       <c r="AE108" s="117"/>
-      <c r="AF108" s="163"/>
+      <c r="AF108" s="231"/>
     </row>
     <row r="109" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A109" s="194"/>
+      <c r="A109" s="176"/>
       <c r="B109" s="93" t="s">
         <v>559</v>
       </c>
@@ -14099,7 +14132,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC109" s="174" t="str">
+      <c r="AC109" s="200" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D110&gt;D109," * F05-07 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-06"&amp;CHAR(10),""),IF(E110&gt;E109," * F05-07 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-06"&amp;CHAR(10),""),
@@ -14118,12 +14151,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD109" s="221"/>
+      <c r="AD109" s="187"/>
       <c r="AE109" s="117"/>
-      <c r="AF109" s="163"/>
+      <c r="AF109" s="231"/>
     </row>
     <row r="110" spans="1:32" s="12" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A110" s="194"/>
+      <c r="A110" s="176"/>
       <c r="B110" s="93" t="s">
         <v>560</v>
       </c>
@@ -14158,13 +14191,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC110" s="175"/>
-      <c r="AD110" s="221"/>
+      <c r="AC110" s="201"/>
+      <c r="AD110" s="187"/>
       <c r="AE110" s="117"/>
-      <c r="AF110" s="163"/>
+      <c r="AF110" s="231"/>
     </row>
     <row r="111" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A111" s="194"/>
+      <c r="A111" s="176"/>
       <c r="B111" s="93" t="s">
         <v>561</v>
       </c>
@@ -14199,7 +14232,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC111" s="174" t="str">
+      <c r="AC111" s="200" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D112&gt;D111," * F05-09 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-08"&amp;CHAR(10),""),IF(E112&gt;E111," * F05-09 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-08"&amp;CHAR(10),""),
@@ -14218,12 +14251,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD111" s="221"/>
+      <c r="AD111" s="187"/>
       <c r="AE111" s="117"/>
-      <c r="AF111" s="163"/>
+      <c r="AF111" s="231"/>
     </row>
     <row r="112" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A112" s="194"/>
+      <c r="A112" s="176"/>
       <c r="B112" s="93" t="s">
         <v>562</v>
       </c>
@@ -14258,13 +14291,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC112" s="175"/>
-      <c r="AD112" s="221"/>
+      <c r="AC112" s="201"/>
+      <c r="AD112" s="187"/>
       <c r="AE112" s="117"/>
-      <c r="AF112" s="163"/>
+      <c r="AF112" s="231"/>
     </row>
     <row r="113" spans="1:32" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A113" s="194"/>
+      <c r="A113" s="176"/>
       <c r="B113" s="93" t="s">
         <v>563</v>
       </c>
@@ -14299,7 +14332,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC113" s="174" t="str">
+      <c r="AC113" s="200" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D114&gt;D113," * F05-11 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-10"&amp;CHAR(10),""),IF(E114&gt;E113," * F05-11 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-10"&amp;CHAR(10),""),
@@ -14318,12 +14351,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD113" s="221"/>
+      <c r="AD113" s="187"/>
       <c r="AE113" s="117"/>
-      <c r="AF113" s="163"/>
+      <c r="AF113" s="231"/>
     </row>
     <row r="114" spans="1:32" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A114" s="229"/>
+      <c r="A114" s="177"/>
       <c r="B114" s="93" t="s">
         <v>564</v>
       </c>
@@ -14358,13 +14391,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC114" s="175"/>
-      <c r="AD114" s="221"/>
+      <c r="AC114" s="201"/>
+      <c r="AD114" s="187"/>
       <c r="AE114" s="117"/>
-      <c r="AF114" s="163"/>
+      <c r="AF114" s="231"/>
     </row>
     <row r="115" spans="1:32" s="12" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A115" s="193" t="s">
+      <c r="A115" s="175" t="s">
         <v>131</v>
       </c>
       <c r="B115" s="93" t="s">
@@ -14401,7 +14434,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC115" s="174" t="str">
+      <c r="AC115" s="200" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D116&gt;D115," * F05-13 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-12"&amp;CHAR(10),""),IF(E116&gt;E115," * F05-13 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-12"&amp;CHAR(10),""),
@@ -14420,12 +14453,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD115" s="221"/>
+      <c r="AD115" s="187"/>
       <c r="AE115" s="117"/>
-      <c r="AF115" s="163"/>
+      <c r="AF115" s="231"/>
     </row>
     <row r="116" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A116" s="194"/>
+      <c r="A116" s="176"/>
       <c r="B116" s="93" t="s">
         <v>351</v>
       </c>
@@ -14460,13 +14493,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC116" s="175"/>
-      <c r="AD116" s="221"/>
+      <c r="AC116" s="201"/>
+      <c r="AD116" s="187"/>
       <c r="AE116" s="117"/>
-      <c r="AF116" s="163"/>
+      <c r="AF116" s="231"/>
     </row>
     <row r="117" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A117" s="194"/>
+      <c r="A117" s="176"/>
       <c r="B117" s="93" t="s">
         <v>565</v>
       </c>
@@ -14520,17 +14553,17 @@
 )</f>
         <v/>
       </c>
-      <c r="AD117" s="221"/>
+      <c r="AD117" s="187"/>
       <c r="AE117" s="117"/>
-      <c r="AF117" s="163"/>
+      <c r="AF117" s="231"/>
     </row>
     <row r="118" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A118" s="194"/>
+      <c r="A118" s="176"/>
       <c r="B118" s="104" t="s">
         <v>566</v>
       </c>
       <c r="C118" s="105" t="s">
-        <v>205</v>
+        <v>443</v>
       </c>
       <c r="D118" s="128"/>
       <c r="E118" s="128"/>
@@ -14579,124 +14612,124 @@
 )</f>
         <v/>
       </c>
-      <c r="AD118" s="222"/>
+      <c r="AD118" s="183"/>
       <c r="AE118" s="119"/>
-      <c r="AF118" s="163"/>
+      <c r="AF118" s="231"/>
     </row>
     <row r="119" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A119" s="167" t="s">
+      <c r="A119" s="237" t="s">
         <v>155</v>
       </c>
-      <c r="B119" s="167"/>
-      <c r="C119" s="167"/>
-      <c r="D119" s="167"/>
-      <c r="E119" s="167"/>
-      <c r="F119" s="167"/>
-      <c r="G119" s="167"/>
-      <c r="H119" s="167"/>
-      <c r="I119" s="167"/>
-      <c r="J119" s="167"/>
-      <c r="K119" s="167"/>
-      <c r="L119" s="167"/>
-      <c r="M119" s="167"/>
-      <c r="N119" s="167"/>
-      <c r="O119" s="167"/>
-      <c r="P119" s="167"/>
-      <c r="Q119" s="167"/>
-      <c r="R119" s="167"/>
-      <c r="S119" s="167"/>
-      <c r="T119" s="167"/>
-      <c r="U119" s="167"/>
-      <c r="V119" s="167"/>
-      <c r="W119" s="167"/>
-      <c r="X119" s="167"/>
-      <c r="Y119" s="167"/>
-      <c r="Z119" s="167"/>
-      <c r="AA119" s="167"/>
-      <c r="AB119" s="167"/>
-      <c r="AC119" s="167"/>
-      <c r="AD119" s="167"/>
-      <c r="AE119" s="167"/>
-      <c r="AF119" s="167"/>
+      <c r="B119" s="237"/>
+      <c r="C119" s="237"/>
+      <c r="D119" s="237"/>
+      <c r="E119" s="237"/>
+      <c r="F119" s="237"/>
+      <c r="G119" s="237"/>
+      <c r="H119" s="237"/>
+      <c r="I119" s="237"/>
+      <c r="J119" s="237"/>
+      <c r="K119" s="237"/>
+      <c r="L119" s="237"/>
+      <c r="M119" s="237"/>
+      <c r="N119" s="237"/>
+      <c r="O119" s="237"/>
+      <c r="P119" s="237"/>
+      <c r="Q119" s="237"/>
+      <c r="R119" s="237"/>
+      <c r="S119" s="237"/>
+      <c r="T119" s="237"/>
+      <c r="U119" s="237"/>
+      <c r="V119" s="237"/>
+      <c r="W119" s="237"/>
+      <c r="X119" s="237"/>
+      <c r="Y119" s="237"/>
+      <c r="Z119" s="237"/>
+      <c r="AA119" s="237"/>
+      <c r="AB119" s="237"/>
+      <c r="AC119" s="237"/>
+      <c r="AD119" s="237"/>
+      <c r="AE119" s="237"/>
+      <c r="AF119" s="237"/>
     </row>
     <row r="120" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A120" s="191" t="s">
+      <c r="A120" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="B120" s="191" t="s">
+      <c r="B120" s="181" t="s">
         <v>594</v>
       </c>
-      <c r="C120" s="187" t="s">
+      <c r="C120" s="179" t="s">
         <v>508</v>
       </c>
-      <c r="D120" s="198" t="s">
+      <c r="D120" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="180"/>
-      <c r="F120" s="179" t="s">
+      <c r="E120" s="170"/>
+      <c r="F120" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="180"/>
-      <c r="H120" s="179" t="s">
+      <c r="G120" s="170"/>
+      <c r="H120" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="I120" s="180"/>
-      <c r="J120" s="179" t="s">
+      <c r="I120" s="170"/>
+      <c r="J120" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="K120" s="180"/>
-      <c r="L120" s="179" t="s">
+      <c r="K120" s="170"/>
+      <c r="L120" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M120" s="180"/>
-      <c r="N120" s="179" t="s">
+      <c r="M120" s="170"/>
+      <c r="N120" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="O120" s="180"/>
-      <c r="P120" s="179" t="s">
+      <c r="O120" s="170"/>
+      <c r="P120" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="Q120" s="180"/>
-      <c r="R120" s="179" t="s">
+      <c r="Q120" s="170"/>
+      <c r="R120" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="S120" s="180"/>
-      <c r="T120" s="179" t="s">
+      <c r="S120" s="170"/>
+      <c r="T120" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="U120" s="180"/>
-      <c r="V120" s="179" t="s">
+      <c r="U120" s="170"/>
+      <c r="V120" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="W120" s="180"/>
-      <c r="X120" s="179" t="s">
+      <c r="W120" s="170"/>
+      <c r="X120" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="Y120" s="180"/>
-      <c r="Z120" s="179" t="s">
+      <c r="Y120" s="170"/>
+      <c r="Z120" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="AA120" s="180"/>
-      <c r="AB120" s="196" t="s">
+      <c r="AA120" s="170"/>
+      <c r="AB120" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="AC120" s="173" t="s">
+      <c r="AC120" s="186" t="s">
         <v>628</v>
       </c>
-      <c r="AD120" s="173" t="s">
+      <c r="AD120" s="186" t="s">
         <v>639</v>
       </c>
-      <c r="AE120" s="165" t="s">
+      <c r="AE120" s="168" t="s">
         <v>640</v>
       </c>
-      <c r="AF120" s="165" t="s">
+      <c r="AF120" s="168" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="121" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A121" s="192"/>
-      <c r="B121" s="192"/>
-      <c r="C121" s="188"/>
+      <c r="A121" s="182"/>
+      <c r="B121" s="182"/>
+      <c r="C121" s="180"/>
       <c r="D121" s="73" t="s">
         <v>14</v>
       </c>
@@ -14769,11 +14802,11 @@
       <c r="AA121" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB121" s="197"/>
-      <c r="AC121" s="173"/>
-      <c r="AD121" s="173"/>
-      <c r="AE121" s="165"/>
-      <c r="AF121" s="165"/>
+      <c r="AB121" s="172"/>
+      <c r="AC121" s="186"/>
+      <c r="AD121" s="186"/>
+      <c r="AE121" s="168"/>
+      <c r="AF121" s="168"/>
     </row>
     <row r="122" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A122" s="69" t="s">
@@ -14832,7 +14865,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD122" s="222" t="str">
+      <c r="AD122" s="183" t="str">
         <f>CONCATENATE(AC122,AC123,AC124,AC125,AC126,AC128,AC130,AC132)</f>
         <v/>
       </c>
@@ -14841,13 +14874,13 @@
 CONCATENATE(IF(AB122&gt;AB124," * New ANC is greater than initial test at ANC "&amp;CHAR(10),""),"")</f>
         <v/>
       </c>
-      <c r="AF122" s="163" t="str">
+      <c r="AF122" s="231" t="str">
         <f>CONCATENATE(AE122,AE123,AE124,AE125,AE126,AE127,AE128,AE129,AE130,AE131,AE132,AE133)</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A123" s="200" t="s">
+      <c r="A123" s="173" t="s">
         <v>46</v>
       </c>
       <c r="B123" s="15" t="s">
@@ -14903,7 +14936,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD123" s="225"/>
+      <c r="AD123" s="184"/>
       <c r="AE123" s="116" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -14923,10 +14956,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF123" s="163"/>
+      <c r="AF123" s="231"/>
     </row>
     <row r="124" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A124" s="211"/>
+      <c r="A124" s="195"/>
       <c r="B124" s="15" t="s">
         <v>569</v>
       </c>
@@ -14980,12 +15013,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD124" s="225"/>
+      <c r="AD124" s="184"/>
       <c r="AE124" s="117"/>
-      <c r="AF124" s="163"/>
+      <c r="AF124" s="231"/>
     </row>
     <row r="125" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A125" s="211"/>
+      <c r="A125" s="195"/>
       <c r="B125" s="15" t="s">
         <v>570</v>
       </c>
@@ -15039,12 +15072,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD125" s="225"/>
+      <c r="AD125" s="184"/>
       <c r="AE125" s="117"/>
-      <c r="AF125" s="163"/>
+      <c r="AF125" s="231"/>
     </row>
     <row r="126" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A126" s="211"/>
+      <c r="A126" s="195"/>
       <c r="B126" s="15" t="s">
         <v>571</v>
       </c>
@@ -15079,7 +15112,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC126" s="174" t="str">
+      <c r="AC126" s="200" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D127&gt;D126," * F06-06 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-05"&amp;CHAR(10),""),IF(E127&gt;E126," * F06-06 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-05"&amp;CHAR(10),""),
@@ -15098,12 +15131,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD126" s="225"/>
+      <c r="AD126" s="184"/>
       <c r="AE126" s="117"/>
-      <c r="AF126" s="163"/>
+      <c r="AF126" s="231"/>
     </row>
     <row r="127" spans="1:32" s="10" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A127" s="211"/>
+      <c r="A127" s="195"/>
       <c r="B127" s="15" t="s">
         <v>636</v>
       </c>
@@ -15138,13 +15171,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC127" s="175"/>
-      <c r="AD127" s="225"/>
+      <c r="AC127" s="201"/>
+      <c r="AD127" s="184"/>
       <c r="AE127" s="117"/>
-      <c r="AF127" s="163"/>
+      <c r="AF127" s="231"/>
     </row>
     <row r="128" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A128" s="211"/>
+      <c r="A128" s="195"/>
       <c r="B128" s="15" t="s">
         <v>572</v>
       </c>
@@ -15179,7 +15212,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC128" s="174" t="str">
+      <c r="AC128" s="200" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D129&gt;D128," * F06-08 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-07"&amp;CHAR(10),""),IF(E129&gt;E128," * F06-08 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-07"&amp;CHAR(10),""),
@@ -15198,12 +15231,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD128" s="225"/>
+      <c r="AD128" s="184"/>
       <c r="AE128" s="117"/>
-      <c r="AF128" s="163"/>
+      <c r="AF128" s="231"/>
     </row>
     <row r="129" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A129" s="211"/>
+      <c r="A129" s="195"/>
       <c r="B129" s="15" t="s">
         <v>637</v>
       </c>
@@ -15238,13 +15271,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC129" s="175"/>
-      <c r="AD129" s="225"/>
+      <c r="AC129" s="201"/>
+      <c r="AD129" s="184"/>
       <c r="AE129" s="117"/>
-      <c r="AF129" s="163"/>
+      <c r="AF129" s="231"/>
     </row>
     <row r="130" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A130" s="211"/>
+      <c r="A130" s="195"/>
       <c r="B130" s="15" t="s">
         <v>573</v>
       </c>
@@ -15279,7 +15312,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC130" s="174" t="str">
+      <c r="AC130" s="200" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D131&gt;D130," * F06-10 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-09"&amp;CHAR(10),""),IF(E131&gt;E130," * F06-10 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-09"&amp;CHAR(10),""),
@@ -15298,12 +15331,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD130" s="225"/>
+      <c r="AD130" s="184"/>
       <c r="AE130" s="117"/>
-      <c r="AF130" s="163"/>
+      <c r="AF130" s="231"/>
     </row>
     <row r="131" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A131" s="211"/>
+      <c r="A131" s="195"/>
       <c r="B131" s="15" t="s">
         <v>635</v>
       </c>
@@ -15338,13 +15371,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC131" s="175"/>
-      <c r="AD131" s="225"/>
+      <c r="AC131" s="201"/>
+      <c r="AD131" s="184"/>
       <c r="AE131" s="117"/>
-      <c r="AF131" s="163"/>
+      <c r="AF131" s="231"/>
     </row>
     <row r="132" spans="1:32" s="10" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A132" s="219" t="s">
+      <c r="A132" s="196" t="s">
         <v>149</v>
       </c>
       <c r="B132" s="15" t="s">
@@ -15381,7 +15414,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC132" s="174" t="str">
+      <c r="AC132" s="200" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D133&gt;D132," * F06-12 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-11"&amp;CHAR(10),""),IF(E133&gt;E132," * F06-12 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-11"&amp;CHAR(10),""),
@@ -15400,12 +15433,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD132" s="225"/>
+      <c r="AD132" s="184"/>
       <c r="AE132" s="117"/>
-      <c r="AF132" s="163"/>
+      <c r="AF132" s="231"/>
     </row>
     <row r="133" spans="1:32" s="10" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A133" s="220"/>
+      <c r="A133" s="197"/>
       <c r="B133" s="99" t="s">
         <v>575</v>
       </c>
@@ -15440,125 +15473,125 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC133" s="218"/>
-      <c r="AD133" s="225"/>
+      <c r="AC133" s="202"/>
+      <c r="AD133" s="184"/>
       <c r="AE133" s="119"/>
-      <c r="AF133" s="163"/>
+      <c r="AF133" s="231"/>
     </row>
     <row r="134" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A134" s="167" t="s">
+      <c r="A134" s="237" t="s">
         <v>154</v>
       </c>
-      <c r="B134" s="167"/>
-      <c r="C134" s="167"/>
-      <c r="D134" s="167"/>
-      <c r="E134" s="167"/>
-      <c r="F134" s="167"/>
-      <c r="G134" s="167"/>
-      <c r="H134" s="167"/>
-      <c r="I134" s="167"/>
-      <c r="J134" s="167"/>
-      <c r="K134" s="167"/>
-      <c r="L134" s="167"/>
-      <c r="M134" s="167"/>
-      <c r="N134" s="167"/>
-      <c r="O134" s="167"/>
-      <c r="P134" s="167"/>
-      <c r="Q134" s="167"/>
-      <c r="R134" s="167"/>
-      <c r="S134" s="167"/>
-      <c r="T134" s="167"/>
-      <c r="U134" s="167"/>
-      <c r="V134" s="167"/>
-      <c r="W134" s="167"/>
-      <c r="X134" s="167"/>
-      <c r="Y134" s="167"/>
-      <c r="Z134" s="167"/>
-      <c r="AA134" s="167"/>
-      <c r="AB134" s="167"/>
-      <c r="AC134" s="167"/>
-      <c r="AD134" s="167"/>
-      <c r="AE134" s="167"/>
-      <c r="AF134" s="167"/>
+      <c r="B134" s="237"/>
+      <c r="C134" s="237"/>
+      <c r="D134" s="237"/>
+      <c r="E134" s="237"/>
+      <c r="F134" s="237"/>
+      <c r="G134" s="237"/>
+      <c r="H134" s="237"/>
+      <c r="I134" s="237"/>
+      <c r="J134" s="237"/>
+      <c r="K134" s="237"/>
+      <c r="L134" s="237"/>
+      <c r="M134" s="237"/>
+      <c r="N134" s="237"/>
+      <c r="O134" s="237"/>
+      <c r="P134" s="237"/>
+      <c r="Q134" s="237"/>
+      <c r="R134" s="237"/>
+      <c r="S134" s="237"/>
+      <c r="T134" s="237"/>
+      <c r="U134" s="237"/>
+      <c r="V134" s="237"/>
+      <c r="W134" s="237"/>
+      <c r="X134" s="237"/>
+      <c r="Y134" s="237"/>
+      <c r="Z134" s="237"/>
+      <c r="AA134" s="237"/>
+      <c r="AB134" s="237"/>
+      <c r="AC134" s="237"/>
+      <c r="AD134" s="237"/>
+      <c r="AE134" s="237"/>
+      <c r="AF134" s="237"/>
     </row>
     <row r="135" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A135" s="191" t="s">
+      <c r="A135" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="B135" s="191" t="s">
+      <c r="B135" s="181" t="s">
         <v>594</v>
       </c>
-      <c r="C135" s="187" t="s">
+      <c r="C135" s="179" t="s">
         <v>508</v>
       </c>
-      <c r="D135" s="198" t="s">
+      <c r="D135" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="180"/>
-      <c r="F135" s="179" t="s">
+      <c r="E135" s="170"/>
+      <c r="F135" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="180"/>
-      <c r="H135" s="179" t="s">
+      <c r="G135" s="170"/>
+      <c r="H135" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="I135" s="180"/>
-      <c r="J135" s="179" t="s">
+      <c r="I135" s="170"/>
+      <c r="J135" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="K135" s="180"/>
-      <c r="L135" s="179" t="s">
+      <c r="K135" s="170"/>
+      <c r="L135" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M135" s="180"/>
-      <c r="N135" s="179" t="s">
+      <c r="M135" s="170"/>
+      <c r="N135" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="O135" s="180"/>
-      <c r="P135" s="179" t="s">
+      <c r="O135" s="170"/>
+      <c r="P135" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="Q135" s="180"/>
-      <c r="R135" s="179" t="s">
+      <c r="Q135" s="170"/>
+      <c r="R135" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="S135" s="180"/>
-      <c r="T135" s="179" t="s">
+      <c r="S135" s="170"/>
+      <c r="T135" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="U135" s="180"/>
-      <c r="V135" s="179" t="s">
+      <c r="U135" s="170"/>
+      <c r="V135" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="W135" s="180"/>
-      <c r="X135" s="179" t="s">
+      <c r="W135" s="170"/>
+      <c r="X135" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="Y135" s="180"/>
-      <c r="Z135" s="179" t="s">
+      <c r="Y135" s="170"/>
+      <c r="Z135" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="AA135" s="180"/>
-      <c r="AB135" s="196" t="s">
+      <c r="AA135" s="170"/>
+      <c r="AB135" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="AC135" s="173" t="s">
+      <c r="AC135" s="186" t="s">
         <v>628</v>
       </c>
-      <c r="AD135" s="173" t="s">
+      <c r="AD135" s="186" t="s">
         <v>639</v>
       </c>
-      <c r="AE135" s="165" t="s">
+      <c r="AE135" s="168" t="s">
         <v>640</v>
       </c>
-      <c r="AF135" s="165" t="s">
+      <c r="AF135" s="168" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="136" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A136" s="192"/>
-      <c r="B136" s="192"/>
-      <c r="C136" s="188"/>
+      <c r="A136" s="182"/>
+      <c r="B136" s="182"/>
+      <c r="C136" s="180"/>
       <c r="D136" s="73" t="s">
         <v>14</v>
       </c>
@@ -15631,14 +15664,14 @@
       <c r="AA136" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB136" s="197"/>
-      <c r="AC136" s="173"/>
-      <c r="AD136" s="173"/>
-      <c r="AE136" s="165"/>
-      <c r="AF136" s="165"/>
+      <c r="AB136" s="172"/>
+      <c r="AC136" s="186"/>
+      <c r="AD136" s="186"/>
+      <c r="AE136" s="168"/>
+      <c r="AF136" s="168"/>
     </row>
     <row r="137" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A137" s="184" t="s">
+      <c r="A137" s="188" t="s">
         <v>35</v>
       </c>
       <c r="B137" s="15" t="s">
@@ -15676,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="AC137" s="112"/>
-      <c r="AD137" s="222" t="str">
+      <c r="AD137" s="183" t="str">
         <f>CONCATENATE(AC137,AC138,AC139,AC140,AC141,AC142,AC143,AC144)</f>
         <v/>
       </c>
@@ -15699,13 +15732,13 @@
 )</f>
         <v/>
       </c>
-      <c r="AF137" s="163" t="str">
+      <c r="AF137" s="231" t="str">
         <f>CONCATENATE(AE137,AE138,AE139,AE140,AE141,AE142,AE143,AE144)</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A138" s="184"/>
+      <c r="A138" s="188"/>
       <c r="B138" s="15" t="s">
         <v>577</v>
       </c>
@@ -15759,7 +15792,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD138" s="225"/>
+      <c r="AD138" s="184"/>
       <c r="AE138" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15779,10 +15812,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF138" s="163"/>
+      <c r="AF138" s="231"/>
     </row>
     <row r="139" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A139" s="184"/>
+      <c r="A139" s="188"/>
       <c r="B139" s="15" t="s">
         <v>578</v>
       </c>
@@ -15836,7 +15869,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD139" s="225"/>
+      <c r="AD139" s="184"/>
       <c r="AE139" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15856,10 +15889,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF139" s="163"/>
+      <c r="AF139" s="231"/>
     </row>
     <row r="140" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A140" s="184"/>
+      <c r="A140" s="188"/>
       <c r="B140" s="15" t="s">
         <v>579</v>
       </c>
@@ -15913,7 +15946,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD140" s="225"/>
+      <c r="AD140" s="184"/>
       <c r="AE140" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15933,10 +15966,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF140" s="163"/>
+      <c r="AF140" s="231"/>
     </row>
     <row r="141" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A141" s="184"/>
+      <c r="A141" s="188"/>
       <c r="B141" s="15" t="s">
         <v>580</v>
       </c>
@@ -15972,12 +16005,12 @@
         <v>0</v>
       </c>
       <c r="AC141" s="112"/>
-      <c r="AD141" s="225"/>
+      <c r="AD141" s="184"/>
       <c r="AE141" s="117"/>
-      <c r="AF141" s="163"/>
+      <c r="AF141" s="231"/>
     </row>
     <row r="142" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A142" s="184" t="s">
+      <c r="A142" s="188" t="s">
         <v>145</v>
       </c>
       <c r="B142" s="15" t="s">
@@ -16033,7 +16066,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD142" s="225"/>
+      <c r="AD142" s="184"/>
       <c r="AE142" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16053,10 +16086,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF142" s="163"/>
+      <c r="AF142" s="231"/>
     </row>
     <row r="143" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A143" s="184"/>
+      <c r="A143" s="188"/>
       <c r="B143" s="15" t="s">
         <v>581</v>
       </c>
@@ -16110,7 +16143,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD143" s="225"/>
+      <c r="AD143" s="184"/>
       <c r="AE143" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16130,10 +16163,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF143" s="163"/>
+      <c r="AF143" s="231"/>
     </row>
     <row r="144" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A144" s="200"/>
+      <c r="A144" s="173"/>
       <c r="B144" s="99" t="s">
         <v>582</v>
       </c>
@@ -16187,7 +16220,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD144" s="225"/>
+      <c r="AD144" s="184"/>
       <c r="AE144" s="119" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16207,122 +16240,122 @@
 )</f>
         <v/>
       </c>
-      <c r="AF144" s="163"/>
+      <c r="AF144" s="231"/>
     </row>
     <row r="145" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A145" s="167" t="s">
+      <c r="A145" s="237" t="s">
         <v>156</v>
       </c>
-      <c r="B145" s="167"/>
-      <c r="C145" s="167"/>
-      <c r="D145" s="167"/>
-      <c r="E145" s="167"/>
-      <c r="F145" s="167"/>
-      <c r="G145" s="167"/>
-      <c r="H145" s="167"/>
-      <c r="I145" s="167"/>
-      <c r="J145" s="167"/>
-      <c r="K145" s="167"/>
-      <c r="L145" s="167"/>
-      <c r="M145" s="167"/>
-      <c r="N145" s="167"/>
-      <c r="O145" s="167"/>
-      <c r="P145" s="167"/>
-      <c r="Q145" s="167"/>
-      <c r="R145" s="167"/>
-      <c r="S145" s="167"/>
-      <c r="T145" s="167"/>
-      <c r="U145" s="167"/>
-      <c r="V145" s="167"/>
-      <c r="W145" s="167"/>
-      <c r="X145" s="167"/>
-      <c r="Y145" s="167"/>
-      <c r="Z145" s="167"/>
-      <c r="AA145" s="167"/>
-      <c r="AB145" s="167"/>
-      <c r="AC145" s="167"/>
-      <c r="AD145" s="167"/>
-      <c r="AE145" s="167"/>
-      <c r="AF145" s="167"/>
+      <c r="B145" s="237"/>
+      <c r="C145" s="237"/>
+      <c r="D145" s="237"/>
+      <c r="E145" s="237"/>
+      <c r="F145" s="237"/>
+      <c r="G145" s="237"/>
+      <c r="H145" s="237"/>
+      <c r="I145" s="237"/>
+      <c r="J145" s="237"/>
+      <c r="K145" s="237"/>
+      <c r="L145" s="237"/>
+      <c r="M145" s="237"/>
+      <c r="N145" s="237"/>
+      <c r="O145" s="237"/>
+      <c r="P145" s="237"/>
+      <c r="Q145" s="237"/>
+      <c r="R145" s="237"/>
+      <c r="S145" s="237"/>
+      <c r="T145" s="237"/>
+      <c r="U145" s="237"/>
+      <c r="V145" s="237"/>
+      <c r="W145" s="237"/>
+      <c r="X145" s="237"/>
+      <c r="Y145" s="237"/>
+      <c r="Z145" s="237"/>
+      <c r="AA145" s="237"/>
+      <c r="AB145" s="237"/>
+      <c r="AC145" s="237"/>
+      <c r="AD145" s="237"/>
+      <c r="AE145" s="237"/>
+      <c r="AF145" s="237"/>
     </row>
     <row r="146" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A146" s="191" t="s">
+      <c r="A146" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="B146" s="191" t="s">
+      <c r="B146" s="181" t="s">
         <v>594</v>
       </c>
-      <c r="C146" s="187" t="s">
+      <c r="C146" s="179" t="s">
         <v>508</v>
       </c>
-      <c r="D146" s="198" t="s">
+      <c r="D146" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="E146" s="180"/>
-      <c r="F146" s="179" t="s">
+      <c r="E146" s="170"/>
+      <c r="F146" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="G146" s="180"/>
-      <c r="H146" s="179" t="s">
+      <c r="G146" s="170"/>
+      <c r="H146" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="I146" s="180"/>
-      <c r="J146" s="179" t="s">
+      <c r="I146" s="170"/>
+      <c r="J146" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="K146" s="180"/>
-      <c r="L146" s="179" t="s">
+      <c r="K146" s="170"/>
+      <c r="L146" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M146" s="180"/>
-      <c r="N146" s="179" t="s">
+      <c r="M146" s="170"/>
+      <c r="N146" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="O146" s="180"/>
-      <c r="P146" s="179" t="s">
+      <c r="O146" s="170"/>
+      <c r="P146" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="Q146" s="180"/>
-      <c r="R146" s="179" t="s">
+      <c r="Q146" s="170"/>
+      <c r="R146" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="S146" s="180"/>
-      <c r="T146" s="179" t="s">
+      <c r="S146" s="170"/>
+      <c r="T146" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="U146" s="180"/>
-      <c r="V146" s="179" t="s">
+      <c r="U146" s="170"/>
+      <c r="V146" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="W146" s="180"/>
-      <c r="X146" s="179" t="s">
+      <c r="W146" s="170"/>
+      <c r="X146" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="Y146" s="180"/>
-      <c r="Z146" s="179" t="s">
+      <c r="Y146" s="170"/>
+      <c r="Z146" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="AA146" s="180"/>
-      <c r="AB146" s="215" t="s">
+      <c r="AA146" s="170"/>
+      <c r="AB146" s="204" t="s">
         <v>24</v>
       </c>
-      <c r="AC146" s="217" t="s">
+      <c r="AC146" s="198" t="s">
         <v>628</v>
       </c>
-      <c r="AD146" s="173" t="s">
+      <c r="AD146" s="186" t="s">
         <v>639</v>
       </c>
-      <c r="AE146" s="165" t="s">
+      <c r="AE146" s="168" t="s">
         <v>640</v>
       </c>
-      <c r="AF146" s="165" t="s">
+      <c r="AF146" s="168" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="147" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A147" s="192"/>
-      <c r="B147" s="192"/>
-      <c r="C147" s="188"/>
+      <c r="A147" s="182"/>
+      <c r="B147" s="182"/>
+      <c r="C147" s="180"/>
       <c r="D147" s="73" t="s">
         <v>14</v>
       </c>
@@ -16395,14 +16428,14 @@
       <c r="AA147" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB147" s="216"/>
-      <c r="AC147" s="190"/>
-      <c r="AD147" s="173"/>
-      <c r="AE147" s="165"/>
-      <c r="AF147" s="165"/>
+      <c r="AB147" s="205"/>
+      <c r="AC147" s="199"/>
+      <c r="AD147" s="186"/>
+      <c r="AE147" s="168"/>
+      <c r="AF147" s="168"/>
     </row>
     <row r="148" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A148" s="200" t="s">
+      <c r="A148" s="173" t="s">
         <v>47</v>
       </c>
       <c r="B148" s="15" t="s">
@@ -16458,7 +16491,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD148" s="222" t="str">
+      <c r="AD148" s="183" t="str">
         <f>CONCATENATE(AC148,AC149,AC150,AC151)</f>
         <v/>
       </c>
@@ -16481,13 +16514,13 @@
 )</f>
         <v/>
       </c>
-      <c r="AF148" s="163" t="str">
+      <c r="AF148" s="231" t="str">
         <f>CONCATENATE(AE148,AE149,AE150,AE151)</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:32" s="10" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A149" s="211"/>
+      <c r="A149" s="195"/>
       <c r="B149" s="94" t="s">
         <v>584</v>
       </c>
@@ -16541,7 +16574,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD149" s="225"/>
+      <c r="AD149" s="184"/>
       <c r="AE149" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16549,10 +16582,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF149" s="163"/>
+      <c r="AF149" s="231"/>
     </row>
     <row r="150" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A150" s="211"/>
+      <c r="A150" s="195"/>
       <c r="B150" s="15" t="s">
         <v>585</v>
       </c>
@@ -16588,12 +16621,12 @@
         <v>0</v>
       </c>
       <c r="AC150" s="112"/>
-      <c r="AD150" s="225"/>
+      <c r="AD150" s="184"/>
       <c r="AE150" s="117"/>
-      <c r="AF150" s="163"/>
+      <c r="AF150" s="231"/>
     </row>
     <row r="151" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A151" s="211"/>
+      <c r="A151" s="195"/>
       <c r="B151" s="99" t="s">
         <v>586</v>
       </c>
@@ -16647,124 +16680,124 @@
 )</f>
         <v/>
       </c>
-      <c r="AD151" s="225"/>
+      <c r="AD151" s="184"/>
       <c r="AE151" s="119"/>
-      <c r="AF151" s="163"/>
+      <c r="AF151" s="231"/>
     </row>
     <row r="152" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A152" s="167" t="s">
+      <c r="A152" s="237" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="167"/>
-      <c r="C152" s="167"/>
-      <c r="D152" s="167"/>
-      <c r="E152" s="167"/>
-      <c r="F152" s="167"/>
-      <c r="G152" s="167"/>
-      <c r="H152" s="167"/>
-      <c r="I152" s="167"/>
-      <c r="J152" s="167"/>
-      <c r="K152" s="167"/>
-      <c r="L152" s="167"/>
-      <c r="M152" s="167"/>
-      <c r="N152" s="167"/>
-      <c r="O152" s="167"/>
-      <c r="P152" s="167"/>
-      <c r="Q152" s="167"/>
-      <c r="R152" s="167"/>
-      <c r="S152" s="167"/>
-      <c r="T152" s="167"/>
-      <c r="U152" s="167"/>
-      <c r="V152" s="167"/>
-      <c r="W152" s="167"/>
-      <c r="X152" s="167"/>
-      <c r="Y152" s="167"/>
-      <c r="Z152" s="167"/>
-      <c r="AA152" s="167"/>
-      <c r="AB152" s="167"/>
-      <c r="AC152" s="167"/>
-      <c r="AD152" s="167"/>
-      <c r="AE152" s="167"/>
-      <c r="AF152" s="167"/>
+      <c r="B152" s="237"/>
+      <c r="C152" s="237"/>
+      <c r="D152" s="237"/>
+      <c r="E152" s="237"/>
+      <c r="F152" s="237"/>
+      <c r="G152" s="237"/>
+      <c r="H152" s="237"/>
+      <c r="I152" s="237"/>
+      <c r="J152" s="237"/>
+      <c r="K152" s="237"/>
+      <c r="L152" s="237"/>
+      <c r="M152" s="237"/>
+      <c r="N152" s="237"/>
+      <c r="O152" s="237"/>
+      <c r="P152" s="237"/>
+      <c r="Q152" s="237"/>
+      <c r="R152" s="237"/>
+      <c r="S152" s="237"/>
+      <c r="T152" s="237"/>
+      <c r="U152" s="237"/>
+      <c r="V152" s="237"/>
+      <c r="W152" s="237"/>
+      <c r="X152" s="237"/>
+      <c r="Y152" s="237"/>
+      <c r="Z152" s="237"/>
+      <c r="AA152" s="237"/>
+      <c r="AB152" s="237"/>
+      <c r="AC152" s="237"/>
+      <c r="AD152" s="237"/>
+      <c r="AE152" s="237"/>
+      <c r="AF152" s="237"/>
     </row>
     <row r="153" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A153" s="191" t="s">
+      <c r="A153" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="B153" s="191" t="s">
+      <c r="B153" s="181" t="s">
         <v>594</v>
       </c>
-      <c r="C153" s="187" t="s">
+      <c r="C153" s="179" t="s">
         <v>508</v>
       </c>
-      <c r="D153" s="198" t="s">
+      <c r="D153" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="E153" s="180"/>
-      <c r="F153" s="179" t="s">
+      <c r="E153" s="170"/>
+      <c r="F153" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="G153" s="180"/>
-      <c r="H153" s="179" t="s">
+      <c r="G153" s="170"/>
+      <c r="H153" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="I153" s="180"/>
-      <c r="J153" s="179" t="s">
+      <c r="I153" s="170"/>
+      <c r="J153" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="K153" s="180"/>
-      <c r="L153" s="179" t="s">
+      <c r="K153" s="170"/>
+      <c r="L153" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="M153" s="180"/>
-      <c r="N153" s="179" t="s">
+      <c r="M153" s="170"/>
+      <c r="N153" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="O153" s="180"/>
-      <c r="P153" s="179" t="s">
+      <c r="O153" s="170"/>
+      <c r="P153" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="Q153" s="180"/>
-      <c r="R153" s="179" t="s">
+      <c r="Q153" s="170"/>
+      <c r="R153" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="S153" s="180"/>
-      <c r="T153" s="179" t="s">
+      <c r="S153" s="170"/>
+      <c r="T153" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="U153" s="180"/>
-      <c r="V153" s="179" t="s">
+      <c r="U153" s="170"/>
+      <c r="V153" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="W153" s="180"/>
-      <c r="X153" s="179" t="s">
+      <c r="W153" s="170"/>
+      <c r="X153" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="Y153" s="180"/>
-      <c r="Z153" s="179" t="s">
+      <c r="Y153" s="170"/>
+      <c r="Z153" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="AA153" s="180"/>
-      <c r="AB153" s="215" t="s">
+      <c r="AA153" s="170"/>
+      <c r="AB153" s="204" t="s">
         <v>24</v>
       </c>
-      <c r="AC153" s="217" t="s">
+      <c r="AC153" s="198" t="s">
         <v>628</v>
       </c>
-      <c r="AD153" s="173" t="s">
+      <c r="AD153" s="186" t="s">
         <v>639</v>
       </c>
-      <c r="AE153" s="165" t="s">
+      <c r="AE153" s="168" t="s">
         <v>640</v>
       </c>
-      <c r="AF153" s="165" t="s">
+      <c r="AF153" s="168" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="154" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A154" s="192"/>
-      <c r="B154" s="192"/>
-      <c r="C154" s="188"/>
+      <c r="A154" s="182"/>
+      <c r="B154" s="182"/>
+      <c r="C154" s="180"/>
       <c r="D154" s="73" t="s">
         <v>14</v>
       </c>
@@ -16837,14 +16870,14 @@
       <c r="AA154" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB154" s="216"/>
-      <c r="AC154" s="190"/>
-      <c r="AD154" s="173"/>
-      <c r="AE154" s="165"/>
-      <c r="AF154" s="165"/>
+      <c r="AB154" s="205"/>
+      <c r="AC154" s="199"/>
+      <c r="AD154" s="186"/>
+      <c r="AE154" s="168"/>
+      <c r="AF154" s="168"/>
     </row>
     <row r="155" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A155" s="200" t="s">
+      <c r="A155" s="173" t="s">
         <v>36</v>
       </c>
       <c r="B155" s="15" t="s">
@@ -16900,18 +16933,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD155" s="222" t="str">
+      <c r="AD155" s="183" t="str">
         <f>CONCATENATE(AC155,AC156,AC157,AC158,AC159,AC160,AC161,AC162,AC163,AC164,AC165)</f>
         <v/>
       </c>
       <c r="AE155" s="117"/>
-      <c r="AF155" s="163" t="str">
+      <c r="AF155" s="231" t="str">
         <f>CONCATENATE(AE155,AE156,AE157,AE158,AE159,AE160,AE161,AE162,AE163,AE164,AE165)</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:32" s="10" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A156" s="211"/>
+      <c r="A156" s="195"/>
       <c r="B156" s="15" t="s">
         <v>430</v>
       </c>
@@ -16947,12 +16980,12 @@
         <v>0</v>
       </c>
       <c r="AC156" s="112"/>
-      <c r="AD156" s="225"/>
+      <c r="AD156" s="184"/>
       <c r="AE156" s="117"/>
-      <c r="AF156" s="163"/>
+      <c r="AF156" s="231"/>
     </row>
     <row r="157" spans="1:32" s="10" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A157" s="211"/>
+      <c r="A157" s="195"/>
       <c r="B157" s="15" t="s">
         <v>431</v>
       </c>
@@ -16988,12 +17021,12 @@
         <v>0</v>
       </c>
       <c r="AC157" s="112"/>
-      <c r="AD157" s="225"/>
+      <c r="AD157" s="184"/>
       <c r="AE157" s="117"/>
-      <c r="AF157" s="163"/>
+      <c r="AF157" s="231"/>
     </row>
     <row r="158" spans="1:32" s="10" customFormat="1" ht="88.35" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A158" s="201"/>
+      <c r="A158" s="174"/>
       <c r="B158" s="15" t="s">
         <v>588</v>
       </c>
@@ -17029,12 +17062,12 @@
         <v>0</v>
       </c>
       <c r="AC158" s="112"/>
-      <c r="AD158" s="225"/>
+      <c r="AD158" s="184"/>
       <c r="AE158" s="117"/>
-      <c r="AF158" s="163"/>
+      <c r="AF158" s="231"/>
     </row>
     <row r="159" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A159" s="184" t="s">
+      <c r="A159" s="188" t="s">
         <v>146</v>
       </c>
       <c r="B159" s="15" t="s">
@@ -17072,12 +17105,12 @@
         <v>0</v>
       </c>
       <c r="AC159" s="112"/>
-      <c r="AD159" s="225"/>
+      <c r="AD159" s="184"/>
       <c r="AE159" s="117"/>
-      <c r="AF159" s="163"/>
+      <c r="AF159" s="231"/>
     </row>
     <row r="160" spans="1:32" s="10" customFormat="1" ht="161.44999999999999" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A160" s="184"/>
+      <c r="A160" s="188"/>
       <c r="B160" s="15" t="s">
         <v>435</v>
       </c>
@@ -17113,12 +17146,12 @@
         <v>0</v>
       </c>
       <c r="AC160" s="112"/>
-      <c r="AD160" s="225"/>
+      <c r="AD160" s="184"/>
       <c r="AE160" s="117"/>
-      <c r="AF160" s="163"/>
+      <c r="AF160" s="231"/>
     </row>
     <row r="161" spans="1:32" s="10" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A161" s="184"/>
+      <c r="A161" s="188"/>
       <c r="B161" s="15" t="s">
         <v>590</v>
       </c>
@@ -17154,12 +17187,12 @@
         <v>0</v>
       </c>
       <c r="AC161" s="112"/>
-      <c r="AD161" s="225"/>
+      <c r="AD161" s="184"/>
       <c r="AE161" s="117"/>
-      <c r="AF161" s="163"/>
+      <c r="AF161" s="231"/>
     </row>
     <row r="162" spans="1:32" s="10" customFormat="1" ht="158.1" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A162" s="184"/>
+      <c r="A162" s="188"/>
       <c r="B162" s="15" t="s">
         <v>591</v>
       </c>
@@ -17195,12 +17228,12 @@
         <v>0</v>
       </c>
       <c r="AC162" s="112"/>
-      <c r="AD162" s="225"/>
+      <c r="AD162" s="184"/>
       <c r="AE162" s="117"/>
-      <c r="AF162" s="163"/>
+      <c r="AF162" s="231"/>
     </row>
     <row r="163" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A163" s="184"/>
+      <c r="A163" s="188"/>
       <c r="B163" s="15" t="s">
         <v>438</v>
       </c>
@@ -17236,12 +17269,12 @@
         <v>0</v>
       </c>
       <c r="AC163" s="112"/>
-      <c r="AD163" s="225"/>
+      <c r="AD163" s="184"/>
       <c r="AE163" s="117"/>
-      <c r="AF163" s="163"/>
+      <c r="AF163" s="231"/>
     </row>
     <row r="164" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A164" s="184"/>
+      <c r="A164" s="188"/>
       <c r="B164" s="15" t="s">
         <v>592</v>
       </c>
@@ -17277,12 +17310,12 @@
         <v>0</v>
       </c>
       <c r="AC164" s="112"/>
-      <c r="AD164" s="225"/>
+      <c r="AD164" s="184"/>
       <c r="AE164" s="117"/>
-      <c r="AF164" s="163"/>
+      <c r="AF164" s="231"/>
     </row>
     <row r="165" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="1">
-      <c r="A165" s="214"/>
+      <c r="A165" s="203"/>
       <c r="B165" s="95" t="s">
         <v>593</v>
       </c>
@@ -17318,9 +17351,9 @@
         <v>0</v>
       </c>
       <c r="AC165" s="115"/>
-      <c r="AD165" s="228"/>
+      <c r="AD165" s="185"/>
       <c r="AE165" s="117"/>
-      <c r="AF165" s="163"/>
+      <c r="AF165" s="231"/>
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.7">
       <c r="A166" s="6"/>
@@ -17360,120 +17393,161 @@
       <c r="M169" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jKYMwuxP0bwDFs5HRzijgLBzxCbekLuEebW/svApJ6Pfb108P7Tfgt/XLp0wjn+JYysDsRE0igqnlGVJI2NgOw==" saltValue="EMar4nLSEBT7JWR0N8/wQg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
-  <mergeCells count="292">
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AE153:AE154"/>
-    <mergeCell ref="X146:Y146"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="Z120:AA120"/>
-    <mergeCell ref="AB120:AB121"/>
-    <mergeCell ref="AB135:AB136"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="P153:Q153"/>
-    <mergeCell ref="R153:S153"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="AD155:AD165"/>
-    <mergeCell ref="AD148:AD151"/>
-    <mergeCell ref="AD137:AD144"/>
-    <mergeCell ref="AD135:AD136"/>
-    <mergeCell ref="AD146:AD147"/>
-    <mergeCell ref="AD153:AD154"/>
-    <mergeCell ref="AD122:AD133"/>
-    <mergeCell ref="AD120:AD121"/>
-    <mergeCell ref="AD104:AD118"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="AB46:AB47"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="AD102:AD103"/>
-    <mergeCell ref="AD83:AD100"/>
-    <mergeCell ref="AD81:AD82"/>
-    <mergeCell ref="AD68:AD79"/>
-    <mergeCell ref="AD66:AD67"/>
-    <mergeCell ref="AD48:AD64"/>
-    <mergeCell ref="AD46:AD47"/>
-    <mergeCell ref="AD40:AD44"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="A123:A131"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="R120:S120"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="X120:Y120"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="V135:W135"/>
-    <mergeCell ref="X135:Y135"/>
-    <mergeCell ref="Z135:AA135"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="R135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="AC153:AC154"/>
-    <mergeCell ref="AC146:AC147"/>
-    <mergeCell ref="AC135:AC136"/>
-    <mergeCell ref="AC120:AC121"/>
-    <mergeCell ref="AC102:AC103"/>
-    <mergeCell ref="AC130:AC131"/>
-    <mergeCell ref="AC132:AC133"/>
-    <mergeCell ref="AC128:AC129"/>
-    <mergeCell ref="AC126:AC127"/>
-    <mergeCell ref="AC109:AC110"/>
-    <mergeCell ref="AC104:AC105"/>
-    <mergeCell ref="V102:W102"/>
-    <mergeCell ref="X102:Y102"/>
-    <mergeCell ref="Z102:AA102"/>
-    <mergeCell ref="AB102:AB103"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="T102:U102"/>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="293">
+    <mergeCell ref="AF155:AF165"/>
+    <mergeCell ref="AF8:AF36"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="A5:AF5"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AF46:AF47"/>
+    <mergeCell ref="AF66:AF67"/>
+    <mergeCell ref="AF81:AF82"/>
+    <mergeCell ref="AF102:AF103"/>
+    <mergeCell ref="AF120:AF121"/>
+    <mergeCell ref="AF135:AF136"/>
+    <mergeCell ref="AF146:AF147"/>
+    <mergeCell ref="AF153:AF154"/>
+    <mergeCell ref="A152:AF152"/>
+    <mergeCell ref="A145:AF145"/>
+    <mergeCell ref="A134:AF134"/>
+    <mergeCell ref="A119:AF119"/>
+    <mergeCell ref="A101:AF101"/>
+    <mergeCell ref="A80:AF80"/>
+    <mergeCell ref="A65:AF65"/>
+    <mergeCell ref="A45:AF45"/>
+    <mergeCell ref="A37:AF37"/>
+    <mergeCell ref="AF40:AF44"/>
+    <mergeCell ref="AF48:AF64"/>
+    <mergeCell ref="AF68:AF79"/>
+    <mergeCell ref="AF83:AF100"/>
+    <mergeCell ref="AF104:AF118"/>
+    <mergeCell ref="AF122:AF133"/>
+    <mergeCell ref="AF137:AF144"/>
+    <mergeCell ref="AF148:AF151"/>
+    <mergeCell ref="AC48:AC49"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AE102:AE103"/>
+    <mergeCell ref="AE120:AE121"/>
+    <mergeCell ref="AC115:AC116"/>
+    <mergeCell ref="AC113:AC114"/>
+    <mergeCell ref="AC111:AC112"/>
+    <mergeCell ref="AC46:AC47"/>
+    <mergeCell ref="AD8:AD36"/>
+    <mergeCell ref="AE146:AE147"/>
+    <mergeCell ref="AE135:AE136"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="AE46:AE47"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="AB66:AB67"/>
+    <mergeCell ref="AE66:AE67"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="AC53:AC54"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="D38:I39"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A4:AF4"/>
+    <mergeCell ref="AE81:AE82"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="AC66:AC67"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="AB81:AB82"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
     <mergeCell ref="A159:A165"/>
     <mergeCell ref="V153:W153"/>
     <mergeCell ref="X153:Y153"/>
@@ -17498,162 +17572,122 @@
     <mergeCell ref="V146:W146"/>
     <mergeCell ref="A155:A158"/>
     <mergeCell ref="L153:M153"/>
+    <mergeCell ref="AC153:AC154"/>
+    <mergeCell ref="AC146:AC147"/>
+    <mergeCell ref="AC135:AC136"/>
+    <mergeCell ref="AC120:AC121"/>
+    <mergeCell ref="AC102:AC103"/>
+    <mergeCell ref="AC130:AC131"/>
+    <mergeCell ref="AC132:AC133"/>
+    <mergeCell ref="AC128:AC129"/>
+    <mergeCell ref="AC126:AC127"/>
+    <mergeCell ref="AC109:AC110"/>
+    <mergeCell ref="AC104:AC105"/>
+    <mergeCell ref="V135:W135"/>
+    <mergeCell ref="X135:Y135"/>
+    <mergeCell ref="Z135:AA135"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="R135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="AD46:AD47"/>
+    <mergeCell ref="AD40:AD44"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="A123:A131"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="R120:S120"/>
+    <mergeCell ref="T120:U120"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X120:Y120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="V102:W102"/>
+    <mergeCell ref="X102:Y102"/>
+    <mergeCell ref="Z102:AA102"/>
+    <mergeCell ref="AB102:AB103"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="T102:U102"/>
     <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="AE81:AE82"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="AC66:AC67"/>
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="AB81:AB82"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="AD155:AD165"/>
+    <mergeCell ref="AD148:AD151"/>
+    <mergeCell ref="AD137:AD144"/>
+    <mergeCell ref="AD135:AD136"/>
+    <mergeCell ref="AD146:AD147"/>
+    <mergeCell ref="AD153:AD154"/>
+    <mergeCell ref="AD122:AD133"/>
+    <mergeCell ref="AD120:AD121"/>
+    <mergeCell ref="AD104:AD118"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="P153:Q153"/>
+    <mergeCell ref="R153:S153"/>
+    <mergeCell ref="T153:U153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A142:A144"/>
     <mergeCell ref="A120:A121"/>
     <mergeCell ref="B120:B121"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="D38:I39"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="AE46:AE47"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="AB66:AB67"/>
-    <mergeCell ref="AE66:AE67"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="AC53:AC54"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="A2:AC2"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="AF68:AF79"/>
-    <mergeCell ref="AF83:AF100"/>
-    <mergeCell ref="AF104:AF118"/>
-    <mergeCell ref="AF122:AF133"/>
-    <mergeCell ref="AF137:AF144"/>
-    <mergeCell ref="AF148:AF151"/>
-    <mergeCell ref="AC48:AC49"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AE102:AE103"/>
-    <mergeCell ref="AE120:AE121"/>
-    <mergeCell ref="AC115:AC116"/>
-    <mergeCell ref="AC113:AC114"/>
-    <mergeCell ref="AC111:AC112"/>
-    <mergeCell ref="AC46:AC47"/>
-    <mergeCell ref="AD8:AD36"/>
-    <mergeCell ref="AE146:AE147"/>
-    <mergeCell ref="AE135:AE136"/>
-    <mergeCell ref="AF155:AF165"/>
-    <mergeCell ref="AF8:AF36"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="A5:AF5"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AF46:AF47"/>
-    <mergeCell ref="AF66:AF67"/>
-    <mergeCell ref="AF81:AF82"/>
-    <mergeCell ref="AF102:AF103"/>
-    <mergeCell ref="AF120:AF121"/>
-    <mergeCell ref="AF135:AF136"/>
-    <mergeCell ref="AF146:AF147"/>
-    <mergeCell ref="AF153:AF154"/>
-    <mergeCell ref="A152:AF152"/>
-    <mergeCell ref="A145:AF145"/>
-    <mergeCell ref="A134:AF134"/>
-    <mergeCell ref="A119:AF119"/>
-    <mergeCell ref="A101:AF101"/>
-    <mergeCell ref="A80:AF80"/>
-    <mergeCell ref="A65:AF65"/>
-    <mergeCell ref="A45:AF45"/>
-    <mergeCell ref="A37:AF37"/>
-    <mergeCell ref="AF40:AF44"/>
-    <mergeCell ref="AF48:AF64"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AE153:AE154"/>
+    <mergeCell ref="X146:Y146"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="Z120:AA120"/>
+    <mergeCell ref="AB120:AB121"/>
+    <mergeCell ref="AB135:AB136"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AD102:AD103"/>
+    <mergeCell ref="AD83:AD100"/>
+    <mergeCell ref="AD81:AD82"/>
+    <mergeCell ref="AD68:AD79"/>
+    <mergeCell ref="AD66:AD67"/>
+    <mergeCell ref="AD48:AD64"/>
   </mergeCells>
   <conditionalFormatting sqref="AC8">
     <cfRule type="notContainsBlanks" dxfId="59" priority="68">
@@ -17960,6 +17994,12 @@
       <formula>LEN(TRIM(AD8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Non-Numeric or abnormal value" error="Enter Numbers only between 0 and 99999" sqref="D8:AA34 D40:AA44 D48:AA64 D68:AA79 D83:AA100 D104:AA118 D122:AA133 D137:AA144 D148:AA151 D155:AA165 AB63 AB64" xr:uid="{B89F7BEB-D895-441B-9690-CF40DBC25312}">
+      <formula1>0</formula1>
+      <formula2>99999</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811023622047" right="7.8740157480315001E-2" top="0.196850393700787" bottom="0.196850393700787" header="0.2" footer="0.118110236220472"/>
   <pageSetup scale="10" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/web/F1v2.xlsx
+++ b/web/F1v2.xlsx
@@ -8,7 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InternalSystem\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA87AFB-9F7F-4A62-8BD4-D1BC41F14DCC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE41FBFF-F2EC-408D-9AE2-26DE212D4B06}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="a4gUMdZCGkDDzElfhkvI/brsAlzI4GhD8wwWIVFJCtcL8IfIwqWYpVjV2Q6nijKW2ipnQ8sfmugbKli0802lfw==" workbookSaltValue="1iepslPG5jc+WSQINC8vKA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C7A72A4-46D5-4130-84F6-E2BF1F1A15D0}"/>
   </bookViews>
@@ -8532,7 +8533,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="46.5" x14ac:dyDescent="0.7"/>
@@ -17393,7 +17394,7 @@
       <c r="M169" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4WZilSs7uZt/zlYIp3TlBPjgmiAmqsoltWO5wogQT3UYToi36AhdfZVmN12ELOcC/AOtey/lHB3w2vtCP9DAGA==" saltValue="P69NfVudgKBKdOdezb3AFA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="293">
     <mergeCell ref="AF155:AF165"/>
     <mergeCell ref="AF8:AF36"/>

--- a/web/F1v2.xlsx
+++ b/web/F1v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InternalSystem\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GeofreyNyabuto\NetbeansProjects\InternalSystem\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE41FBFF-F2EC-408D-9AE2-26DE212D4B06}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C8B61-4EDB-4CEC-A3B3-5793FF950179}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="a4gUMdZCGkDDzElfhkvI/brsAlzI4GhD8wwWIVFJCtcL8IfIwqWYpVjV2Q6nijKW2ipnQ8sfmugbKli0802lfw==" workbookSaltValue="1iepslPG5jc+WSQINC8vKA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C7A72A4-46D5-4130-84F6-E2BF1F1A15D0}"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="642">
   <si>
     <t>County______________________</t>
   </si>
@@ -3511,9 +3511,6 @@
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <r>
@@ -4674,342 +4671,342 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6347,13 +6344,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="2:6" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="65" t="s">
@@ -6373,16 +6370,16 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="162"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="2:6" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="137" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -6399,7 +6396,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="137"/>
+      <c r="B5" s="138"/>
       <c r="C5" s="32" t="s">
         <v>182</v>
       </c>
@@ -6414,7 +6411,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="96" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="137"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="32" t="s">
         <v>184</v>
       </c>
@@ -6429,7 +6426,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="137"/>
+      <c r="B7" s="138"/>
       <c r="C7" s="32" t="s">
         <v>185</v>
       </c>
@@ -6444,7 +6441,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="137"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="32" t="s">
         <v>187</v>
       </c>
@@ -6459,7 +6456,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="137"/>
+      <c r="B9" s="138"/>
       <c r="C9" s="32" t="s">
         <v>191</v>
       </c>
@@ -6474,7 +6471,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="137"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="32" t="s">
         <v>192</v>
       </c>
@@ -6489,7 +6486,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="137"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="32" t="s">
         <v>195</v>
       </c>
@@ -6504,7 +6501,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="138"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="32" t="s">
         <v>196</v>
       </c>
@@ -6825,16 +6822,16 @@
       </c>
     </row>
     <row r="31" spans="2:6" s="42" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="135"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="155"/>
     </row>
     <row r="32" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="139" t="s">
+      <c r="B32" s="134" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="38" t="s">
@@ -6846,12 +6843,12 @@
       <c r="E32" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="146" t="s">
+      <c r="F32" s="156" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="140"/>
+      <c r="B33" s="135"/>
       <c r="C33" s="38" t="s">
         <v>222</v>
       </c>
@@ -6861,10 +6858,10 @@
       <c r="E33" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="147"/>
+      <c r="F33" s="157"/>
     </row>
     <row r="34" spans="2:6" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="140"/>
+      <c r="B34" s="135"/>
       <c r="C34" s="38" t="s">
         <v>227</v>
       </c>
@@ -6874,10 +6871,10 @@
       <c r="E34" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="147"/>
+      <c r="F34" s="157"/>
     </row>
     <row r="35" spans="2:6" ht="57.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="140"/>
+      <c r="B35" s="135"/>
       <c r="C35" s="38" t="s">
         <v>228</v>
       </c>
@@ -6887,10 +6884,10 @@
       <c r="E35" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="147"/>
+      <c r="F35" s="157"/>
     </row>
     <row r="36" spans="2:6" ht="72.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="141"/>
+      <c r="B36" s="136"/>
       <c r="C36" s="38" t="s">
         <v>230</v>
       </c>
@@ -6900,19 +6897,19 @@
       <c r="E36" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="148"/>
+      <c r="F36" s="158"/>
     </row>
     <row r="37" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="151"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="161"/>
     </row>
     <row r="38" spans="2:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="139" t="s">
+      <c r="B38" s="134" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="38" t="s">
@@ -6929,7 +6926,7 @@
       </c>
     </row>
     <row r="39" spans="2:6" ht="122.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="140"/>
+      <c r="B39" s="135"/>
       <c r="C39" s="38" t="s">
         <v>461</v>
       </c>
@@ -6944,7 +6941,7 @@
       </c>
     </row>
     <row r="40" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="140"/>
+      <c r="B40" s="135"/>
       <c r="C40" s="38" t="s">
         <v>462</v>
       </c>
@@ -6959,7 +6956,7 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="140"/>
+      <c r="B41" s="135"/>
       <c r="C41" s="38" t="s">
         <v>237</v>
       </c>
@@ -6974,7 +6971,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="140"/>
+      <c r="B42" s="135"/>
       <c r="C42" s="38" t="s">
         <v>463</v>
       </c>
@@ -6989,7 +6986,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="139" t="s">
+      <c r="B43" s="134" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="38" t="s">
@@ -7006,7 +7003,7 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="140"/>
+      <c r="B44" s="135"/>
       <c r="C44" s="38" t="s">
         <v>242</v>
       </c>
@@ -7021,7 +7018,7 @@
       </c>
     </row>
     <row r="45" spans="2:6" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="141"/>
+      <c r="B45" s="136"/>
       <c r="C45" s="38" t="s">
         <v>244</v>
       </c>
@@ -7143,7 +7140,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="154" t="s">
+      <c r="B53" s="162" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="32" t="s">
@@ -7160,7 +7157,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="92.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="155"/>
+      <c r="B54" s="163"/>
       <c r="C54" s="32" t="s">
         <v>258</v>
       </c>
@@ -7175,16 +7172,16 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="47.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="133" t="s">
+      <c r="B55" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="134"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="135"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="152"/>
+      <c r="E55" s="152"/>
+      <c r="F55" s="155"/>
     </row>
     <row r="56" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="139" t="s">
+      <c r="B56" s="134" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="38" t="s">
@@ -7201,7 +7198,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="141"/>
+      <c r="B57" s="136"/>
       <c r="C57" s="38" t="s">
         <v>471</v>
       </c>
@@ -7216,7 +7213,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="139" t="s">
+      <c r="B58" s="134" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="38" t="s">
@@ -7233,7 +7230,7 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="141"/>
+      <c r="B59" s="136"/>
       <c r="C59" s="38" t="s">
         <v>471</v>
       </c>
@@ -7248,7 +7245,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="152" t="s">
+      <c r="B60" s="143" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="50" t="s">
@@ -7265,7 +7262,7 @@
       </c>
     </row>
     <row r="61" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="153"/>
+      <c r="B61" s="144"/>
       <c r="C61" s="50" t="s">
         <v>474</v>
       </c>
@@ -7280,7 +7277,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" ht="62.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="152" t="s">
+      <c r="B62" s="143" t="s">
         <v>39</v>
       </c>
       <c r="C62" s="50" t="s">
@@ -7297,7 +7294,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="153"/>
+      <c r="B63" s="144"/>
       <c r="C63" s="50" t="s">
         <v>476</v>
       </c>
@@ -7312,7 +7309,7 @@
       </c>
     </row>
     <row r="64" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="152" t="s">
+      <c r="B64" s="143" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="50" t="s">
@@ -7329,7 +7326,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="153"/>
+      <c r="B65" s="144"/>
       <c r="C65" s="50" t="s">
         <v>478</v>
       </c>
@@ -7344,7 +7341,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="152" t="s">
+      <c r="B66" s="143" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="50" t="s">
@@ -7361,7 +7358,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="153"/>
+      <c r="B67" s="144"/>
       <c r="C67" s="50" t="s">
         <v>480</v>
       </c>
@@ -7376,16 +7373,16 @@
       </c>
     </row>
     <row r="68" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="133" t="s">
+      <c r="B68" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="134"/>
-      <c r="D68" s="134"/>
-      <c r="E68" s="134"/>
-      <c r="F68" s="135"/>
+      <c r="C68" s="152"/>
+      <c r="D68" s="152"/>
+      <c r="E68" s="152"/>
+      <c r="F68" s="155"/>
     </row>
     <row r="69" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="139" t="s">
+      <c r="B69" s="134" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="38" t="s">
@@ -7402,7 +7399,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="140"/>
+      <c r="B70" s="135"/>
       <c r="C70" s="38" t="s">
         <v>288</v>
       </c>
@@ -7417,7 +7414,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="140"/>
+      <c r="B71" s="135"/>
       <c r="C71" s="38" t="s">
         <v>482</v>
       </c>
@@ -7432,7 +7429,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="140"/>
+      <c r="B72" s="135"/>
       <c r="C72" s="38" t="s">
         <v>483</v>
       </c>
@@ -7447,7 +7444,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="75.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="140"/>
+      <c r="B73" s="135"/>
       <c r="C73" s="38" t="s">
         <v>484</v>
       </c>
@@ -7462,7 +7459,7 @@
       </c>
     </row>
     <row r="74" spans="2:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="141"/>
+      <c r="B74" s="136"/>
       <c r="C74" s="38" t="s">
         <v>485</v>
       </c>
@@ -7477,7 +7474,7 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="139" t="s">
+      <c r="B75" s="134" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="38" t="s">
@@ -7494,7 +7491,7 @@
       </c>
     </row>
     <row r="76" spans="2:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="140"/>
+      <c r="B76" s="135"/>
       <c r="C76" s="38" t="s">
         <v>486</v>
       </c>
@@ -7509,7 +7506,7 @@
       </c>
     </row>
     <row r="77" spans="2:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="140"/>
+      <c r="B77" s="135"/>
       <c r="C77" s="38" t="s">
         <v>304</v>
       </c>
@@ -7524,7 +7521,7 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="140"/>
+      <c r="B78" s="135"/>
       <c r="C78" s="38" t="s">
         <v>306</v>
       </c>
@@ -7539,7 +7536,7 @@
       </c>
     </row>
     <row r="79" spans="2:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="140"/>
+      <c r="B79" s="135"/>
       <c r="C79" s="38" t="s">
         <v>484</v>
       </c>
@@ -7554,7 +7551,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" ht="96.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="141"/>
+      <c r="B80" s="136"/>
       <c r="C80" s="38" t="s">
         <v>309</v>
       </c>
@@ -7569,7 +7566,7 @@
       </c>
     </row>
     <row r="81" spans="2:6" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="139" t="s">
+      <c r="B81" s="134" t="s">
         <v>33</v>
       </c>
       <c r="C81" s="38" t="s">
@@ -7586,7 +7583,7 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="72.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="140"/>
+      <c r="B82" s="135"/>
       <c r="C82" s="38" t="s">
         <v>288</v>
       </c>
@@ -7601,7 +7598,7 @@
       </c>
     </row>
     <row r="83" spans="2:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="140"/>
+      <c r="B83" s="135"/>
       <c r="C83" s="38" t="s">
         <v>304</v>
       </c>
@@ -7616,7 +7613,7 @@
       </c>
     </row>
     <row r="84" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="140"/>
+      <c r="B84" s="135"/>
       <c r="C84" s="38" t="s">
         <v>483</v>
       </c>
@@ -7631,7 +7628,7 @@
       </c>
     </row>
     <row r="85" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="140"/>
+      <c r="B85" s="135"/>
       <c r="C85" s="38" t="s">
         <v>484</v>
       </c>
@@ -7646,7 +7643,7 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="141"/>
+      <c r="B86" s="136"/>
       <c r="C86" s="38" t="s">
         <v>309</v>
       </c>
@@ -7661,16 +7658,16 @@
       </c>
     </row>
     <row r="87" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="133" t="s">
+      <c r="B87" s="151" t="s">
         <v>168</v>
       </c>
-      <c r="C87" s="134"/>
-      <c r="D87" s="134"/>
-      <c r="E87" s="134"/>
-      <c r="F87" s="135"/>
+      <c r="C87" s="152"/>
+      <c r="D87" s="152"/>
+      <c r="E87" s="152"/>
+      <c r="F87" s="155"/>
     </row>
     <row r="88" spans="2:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="B88" s="139" t="s">
+      <c r="B88" s="134" t="s">
         <v>44</v>
       </c>
       <c r="C88" s="38" t="s">
@@ -7687,7 +7684,7 @@
       </c>
     </row>
     <row r="89" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="141"/>
+      <c r="B89" s="136"/>
       <c r="C89" s="38" t="s">
         <v>488</v>
       </c>
@@ -7702,7 +7699,7 @@
       </c>
     </row>
     <row r="90" spans="2:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="139" t="s">
+      <c r="B90" s="134" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="38" t="s">
@@ -7719,7 +7716,7 @@
       </c>
     </row>
     <row r="91" spans="2:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="141"/>
+      <c r="B91" s="136"/>
       <c r="C91" s="38" t="s">
         <v>327</v>
       </c>
@@ -7734,7 +7731,7 @@
       </c>
     </row>
     <row r="92" spans="2:6" ht="51.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="139" t="s">
+      <c r="B92" s="134" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="32" t="s">
@@ -7751,7 +7748,7 @@
       </c>
     </row>
     <row r="93" spans="2:6" ht="52.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="140"/>
+      <c r="B93" s="135"/>
       <c r="C93" s="32" t="s">
         <v>339</v>
       </c>
@@ -7766,7 +7763,7 @@
       </c>
     </row>
     <row r="94" spans="2:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="140"/>
+      <c r="B94" s="135"/>
       <c r="C94" s="32" t="s">
         <v>340</v>
       </c>
@@ -7781,7 +7778,7 @@
       </c>
     </row>
     <row r="95" spans="2:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="140"/>
+      <c r="B95" s="135"/>
       <c r="C95" s="32" t="s">
         <v>343</v>
       </c>
@@ -7796,7 +7793,7 @@
       </c>
     </row>
     <row r="96" spans="2:6" ht="56.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="140"/>
+      <c r="B96" s="135"/>
       <c r="C96" s="32" t="s">
         <v>346</v>
       </c>
@@ -7811,7 +7808,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="140"/>
+      <c r="B97" s="135"/>
       <c r="C97" s="32" t="s">
         <v>490</v>
       </c>
@@ -7826,7 +7823,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="141"/>
+      <c r="B98" s="136"/>
       <c r="C98" s="32" t="s">
         <v>491</v>
       </c>
@@ -7841,7 +7838,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" s="48" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="157" t="s">
+      <c r="B99" s="148" t="s">
         <v>131</v>
       </c>
       <c r="C99" s="32" t="s">
@@ -7858,7 +7855,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="158"/>
+      <c r="B100" s="149"/>
       <c r="C100" s="32" t="s">
         <v>351</v>
       </c>
@@ -7873,7 +7870,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B101" s="158"/>
+      <c r="B101" s="149"/>
       <c r="C101" s="54" t="s">
         <v>493</v>
       </c>
@@ -7888,7 +7885,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="159"/>
+      <c r="B102" s="150"/>
       <c r="C102" s="54" t="s">
         <v>444</v>
       </c>
@@ -7903,13 +7900,13 @@
       </c>
     </row>
     <row r="103" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B103" s="133" t="s">
+      <c r="B103" s="151" t="s">
         <v>355</v>
       </c>
-      <c r="C103" s="134"/>
-      <c r="D103" s="134"/>
-      <c r="E103" s="134"/>
-      <c r="F103" s="135"/>
+      <c r="C103" s="152"/>
+      <c r="D103" s="152"/>
+      <c r="E103" s="152"/>
+      <c r="F103" s="155"/>
       <c r="H103" s="25" t="s">
         <v>448</v>
       </c>
@@ -7932,7 +7929,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B105" s="139" t="s">
+      <c r="B105" s="134" t="s">
         <v>46</v>
       </c>
       <c r="C105" s="38" t="s">
@@ -7949,7 +7946,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B106" s="140"/>
+      <c r="B106" s="135"/>
       <c r="C106" s="38" t="s">
         <v>359</v>
       </c>
@@ -7964,7 +7961,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" ht="83.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="140"/>
+      <c r="B107" s="135"/>
       <c r="C107" s="38" t="s">
         <v>360</v>
       </c>
@@ -7979,7 +7976,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="140"/>
+      <c r="B108" s="135"/>
       <c r="C108" s="38" t="s">
         <v>496</v>
       </c>
@@ -7994,7 +7991,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="140"/>
+      <c r="B109" s="135"/>
       <c r="C109" s="38" t="s">
         <v>365</v>
       </c>
@@ -8009,7 +8006,7 @@
       </c>
     </row>
     <row r="110" spans="2:8" ht="104.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B110" s="140"/>
+      <c r="B110" s="135"/>
       <c r="C110" s="38" t="s">
         <v>371</v>
       </c>
@@ -8024,7 +8021,7 @@
       </c>
     </row>
     <row r="111" spans="2:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B111" s="140"/>
+      <c r="B111" s="135"/>
       <c r="C111" s="38" t="s">
         <v>372</v>
       </c>
@@ -8039,7 +8036,7 @@
       </c>
     </row>
     <row r="112" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="140"/>
+      <c r="B112" s="135"/>
       <c r="C112" s="38" t="s">
         <v>374</v>
       </c>
@@ -8054,7 +8051,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" ht="98.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B113" s="140"/>
+      <c r="B113" s="135"/>
       <c r="C113" s="38" t="s">
         <v>375</v>
       </c>
@@ -8069,7 +8066,7 @@
       </c>
     </row>
     <row r="114" spans="2:6" ht="96.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B114" s="144" t="s">
+      <c r="B114" s="146" t="s">
         <v>149</v>
       </c>
       <c r="C114" s="32" t="s">
@@ -8086,7 +8083,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B115" s="145"/>
+      <c r="B115" s="147"/>
       <c r="C115" s="32" t="s">
         <v>381</v>
       </c>
@@ -8101,16 +8098,16 @@
       </c>
     </row>
     <row r="116" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B116" s="133" t="s">
+      <c r="B116" s="151" t="s">
         <v>170</v>
       </c>
-      <c r="C116" s="134"/>
-      <c r="D116" s="134"/>
-      <c r="E116" s="134"/>
-      <c r="F116" s="134"/>
+      <c r="C116" s="152"/>
+      <c r="D116" s="152"/>
+      <c r="E116" s="152"/>
+      <c r="F116" s="152"/>
     </row>
     <row r="117" spans="2:6" ht="92.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B117" s="139" t="s">
+      <c r="B117" s="134" t="s">
         <v>35</v>
       </c>
       <c r="C117" s="38" t="s">
@@ -8127,7 +8124,7 @@
       </c>
     </row>
     <row r="118" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="140"/>
+      <c r="B118" s="135"/>
       <c r="C118" s="38" t="s">
         <v>384</v>
       </c>
@@ -8142,7 +8139,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="140"/>
+      <c r="B119" s="135"/>
       <c r="C119" s="38" t="s">
         <v>392</v>
       </c>
@@ -8157,7 +8154,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B120" s="140"/>
+      <c r="B120" s="135"/>
       <c r="C120" s="38" t="s">
         <v>393</v>
       </c>
@@ -8172,7 +8169,7 @@
       </c>
     </row>
     <row r="121" spans="2:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B121" s="141"/>
+      <c r="B121" s="136"/>
       <c r="C121" s="38" t="s">
         <v>394</v>
       </c>
@@ -8187,7 +8184,7 @@
       </c>
     </row>
     <row r="122" spans="2:6" ht="87.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="156" t="s">
+      <c r="B122" s="145" t="s">
         <v>173</v>
       </c>
       <c r="C122" s="38" t="s">
@@ -8204,7 +8201,7 @@
       </c>
     </row>
     <row r="123" spans="2:6" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B123" s="144"/>
+      <c r="B123" s="146"/>
       <c r="C123" s="38" t="s">
         <v>402</v>
       </c>
@@ -8219,7 +8216,7 @@
       </c>
     </row>
     <row r="124" spans="2:6" ht="120.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B124" s="145"/>
+      <c r="B124" s="147"/>
       <c r="C124" s="38" t="s">
         <v>405</v>
       </c>
@@ -8234,16 +8231,16 @@
       </c>
     </row>
     <row r="125" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="133" t="s">
+      <c r="B125" s="151" t="s">
         <v>176</v>
       </c>
-      <c r="C125" s="134"/>
-      <c r="D125" s="134"/>
-      <c r="E125" s="134"/>
-      <c r="F125" s="135"/>
+      <c r="C125" s="152"/>
+      <c r="D125" s="152"/>
+      <c r="E125" s="152"/>
+      <c r="F125" s="155"/>
     </row>
     <row r="126" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B126" s="139" t="s">
+      <c r="B126" s="134" t="s">
         <v>47</v>
       </c>
       <c r="C126" s="38" t="s">
@@ -8260,7 +8257,7 @@
       </c>
     </row>
     <row r="127" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B127" s="140"/>
+      <c r="B127" s="135"/>
       <c r="C127" s="58" t="s">
         <v>409</v>
       </c>
@@ -8275,7 +8272,7 @@
       </c>
     </row>
     <row r="128" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B128" s="140"/>
+      <c r="B128" s="135"/>
       <c r="C128" s="38" t="s">
         <v>503</v>
       </c>
@@ -8290,7 +8287,7 @@
       </c>
     </row>
     <row r="129" spans="2:6" ht="77.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B129" s="141"/>
+      <c r="B129" s="136"/>
       <c r="C129" s="38" t="s">
         <v>414</v>
       </c>
@@ -8305,16 +8302,16 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B130" s="133" t="s">
+      <c r="B130" s="151" t="s">
         <v>177</v>
       </c>
-      <c r="C130" s="134"/>
-      <c r="D130" s="134"/>
-      <c r="E130" s="134"/>
-      <c r="F130" s="135"/>
+      <c r="C130" s="152"/>
+      <c r="D130" s="152"/>
+      <c r="E130" s="152"/>
+      <c r="F130" s="155"/>
     </row>
     <row r="131" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B131" s="139" t="s">
+      <c r="B131" s="134" t="s">
         <v>36</v>
       </c>
       <c r="C131" s="38" t="s">
@@ -8331,7 +8328,7 @@
       </c>
     </row>
     <row r="132" spans="2:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B132" s="140"/>
+      <c r="B132" s="135"/>
       <c r="C132" s="38" t="s">
         <v>430</v>
       </c>
@@ -8346,7 +8343,7 @@
       </c>
     </row>
     <row r="133" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="140"/>
+      <c r="B133" s="135"/>
       <c r="C133" s="38" t="s">
         <v>431</v>
       </c>
@@ -8361,7 +8358,7 @@
       </c>
     </row>
     <row r="134" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B134" s="141"/>
+      <c r="B134" s="136"/>
       <c r="C134" s="38" t="s">
         <v>504</v>
       </c>
@@ -8376,7 +8373,7 @@
       </c>
     </row>
     <row r="135" spans="2:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B135" s="139" t="s">
+      <c r="B135" s="134" t="s">
         <v>505</v>
       </c>
       <c r="C135" s="38" t="s">
@@ -8388,12 +8385,12 @@
       <c r="E135" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="F135" s="136" t="s">
+      <c r="F135" s="137" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="136" spans="2:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B136" s="140"/>
+      <c r="B136" s="135"/>
       <c r="C136" s="38" t="s">
         <v>435</v>
       </c>
@@ -8403,10 +8400,10 @@
       <c r="E136" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="F136" s="137"/>
+      <c r="F136" s="138"/>
     </row>
     <row r="137" spans="2:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B137" s="140"/>
+      <c r="B137" s="135"/>
       <c r="C137" s="38" t="s">
         <v>436</v>
       </c>
@@ -8416,10 +8413,10 @@
       <c r="E137" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F137" s="137"/>
+      <c r="F137" s="138"/>
     </row>
     <row r="138" spans="2:6" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B138" s="140"/>
+      <c r="B138" s="135"/>
       <c r="C138" s="38" t="s">
         <v>437</v>
       </c>
@@ -8429,10 +8426,10 @@
       <c r="E138" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F138" s="137"/>
+      <c r="F138" s="138"/>
     </row>
     <row r="139" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B139" s="140"/>
+      <c r="B139" s="135"/>
       <c r="C139" s="38" t="s">
         <v>438</v>
       </c>
@@ -8442,10 +8439,10 @@
       <c r="E139" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F139" s="137"/>
+      <c r="F139" s="138"/>
     </row>
     <row r="140" spans="2:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B140" s="140"/>
+      <c r="B140" s="135"/>
       <c r="C140" s="38" t="s">
         <v>439</v>
       </c>
@@ -8455,10 +8452,10 @@
       <c r="E140" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F140" s="137"/>
+      <c r="F140" s="138"/>
     </row>
     <row r="141" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B141" s="141"/>
+      <c r="B141" s="136"/>
       <c r="C141" s="60" t="s">
         <v>440</v>
       </c>
@@ -8468,27 +8465,15 @@
       <c r="E141" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="F141" s="138"/>
+      <c r="F141" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="B105:B113"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="F135:F141"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B131:B134"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B114:B115"/>
@@ -8505,11 +8490,23 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="F135:F141"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B105:B113"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B60:B61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="26" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8533,7 +8530,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="46.5" x14ac:dyDescent="0.7"/>
@@ -8554,92 +8551,92 @@
       <c r="A1" s="130" t="s">
         <v>630</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="229" t="s">
+      <c r="B1" s="195"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="197" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="230"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="229" t="s">
+      <c r="E1" s="198"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="197" t="s">
         <v>629</v>
       </c>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="164" t="s">
-        <v>641</v>
-      </c>
-      <c r="S1" s="164"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="166" t="s">
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="239" t="s">
+        <v>640</v>
+      </c>
+      <c r="S1" s="239"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="240"/>
+      <c r="W1" s="241" t="s">
         <v>631</v>
       </c>
-      <c r="X1" s="167"/>
+      <c r="X1" s="242"/>
       <c r="Y1" s="131"/>
       <c r="Z1" s="132" t="s">
         <v>632</v>
       </c>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="220" t="s">
-        <v>638</v>
-      </c>
-      <c r="AD1" s="221"/>
-      <c r="AE1" s="221"/>
-      <c r="AF1" s="221"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="180" t="s">
+        <v>637</v>
+      </c>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="186" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="222"/>
-      <c r="Q2" s="222"/>
-      <c r="R2" s="222"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="222"/>
-      <c r="Y2" s="222"/>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="222"/>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="222"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="186"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="186"/>
+      <c r="W2" s="186"/>
+      <c r="X2" s="186"/>
+      <c r="Y2" s="186"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="186"/>
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="186"/>
       <c r="AD2" s="67"/>
     </row>
     <row r="3" spans="1:32" s="7" customFormat="1" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
       <c r="G3" s="7" t="s">
         <v>1</v>
       </c>
@@ -8653,155 +8650,155 @@
       <c r="AD3" s="71"/>
     </row>
     <row r="4" spans="1:32" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="241" t="s">
-        <v>642</v>
-      </c>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
-      <c r="O4" s="242"/>
-      <c r="P4" s="242"/>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="242"/>
-      <c r="S4" s="242"/>
-      <c r="T4" s="242"/>
-      <c r="U4" s="242"/>
-      <c r="V4" s="242"/>
-      <c r="W4" s="242"/>
-      <c r="X4" s="242"/>
-      <c r="Y4" s="242"/>
-      <c r="Z4" s="242"/>
-      <c r="AA4" s="242"/>
-      <c r="AB4" s="242"/>
-      <c r="AC4" s="242"/>
-      <c r="AD4" s="242"/>
-      <c r="AE4" s="242"/>
-      <c r="AF4" s="243"/>
+      <c r="A4" s="218" t="s">
+        <v>641</v>
+      </c>
+      <c r="B4" s="219"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="219"/>
+      <c r="K4" s="219"/>
+      <c r="L4" s="219"/>
+      <c r="M4" s="219"/>
+      <c r="N4" s="219"/>
+      <c r="O4" s="219"/>
+      <c r="P4" s="219"/>
+      <c r="Q4" s="219"/>
+      <c r="R4" s="219"/>
+      <c r="S4" s="219"/>
+      <c r="T4" s="219"/>
+      <c r="U4" s="219"/>
+      <c r="V4" s="219"/>
+      <c r="W4" s="219"/>
+      <c r="X4" s="219"/>
+      <c r="Y4" s="219"/>
+      <c r="Z4" s="219"/>
+      <c r="AA4" s="219"/>
+      <c r="AB4" s="219"/>
+      <c r="AC4" s="219"/>
+      <c r="AD4" s="219"/>
+      <c r="AE4" s="219"/>
+      <c r="AF4" s="220"/>
     </row>
     <row r="5" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A5" s="238" t="s">
+      <c r="A5" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-      <c r="U5" s="239"/>
-      <c r="V5" s="239"/>
-      <c r="W5" s="239"/>
-      <c r="X5" s="239"/>
-      <c r="Y5" s="239"/>
-      <c r="Z5" s="239"/>
-      <c r="AA5" s="239"/>
-      <c r="AB5" s="239"/>
-      <c r="AC5" s="239"/>
-      <c r="AD5" s="239"/>
-      <c r="AE5" s="239"/>
-      <c r="AF5" s="240"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="168"/>
+      <c r="V5" s="168"/>
+      <c r="W5" s="168"/>
+      <c r="X5" s="168"/>
+      <c r="Y5" s="168"/>
+      <c r="Z5" s="168"/>
+      <c r="AA5" s="168"/>
+      <c r="AB5" s="168"/>
+      <c r="AC5" s="168"/>
+      <c r="AD5" s="168"/>
+      <c r="AE5" s="168"/>
+      <c r="AF5" s="169"/>
     </row>
     <row r="6" spans="1:32" s="24" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="233" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="192" t="s">
+      <c r="B6" s="233" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="232" t="s">
         <v>508</v>
       </c>
-      <c r="D6" s="209" t="s">
+      <c r="D6" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="190"/>
-      <c r="F6" s="189" t="s">
+      <c r="E6" s="185"/>
+      <c r="F6" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="190"/>
-      <c r="H6" s="189" t="s">
+      <c r="G6" s="185"/>
+      <c r="H6" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="190"/>
-      <c r="J6" s="189" t="s">
+      <c r="I6" s="185"/>
+      <c r="J6" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="190"/>
-      <c r="L6" s="189" t="s">
+      <c r="K6" s="185"/>
+      <c r="L6" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="190"/>
-      <c r="N6" s="189" t="s">
+      <c r="M6" s="185"/>
+      <c r="N6" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="190"/>
-      <c r="P6" s="189" t="s">
+      <c r="O6" s="185"/>
+      <c r="P6" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="190"/>
-      <c r="R6" s="189" t="s">
+      <c r="Q6" s="185"/>
+      <c r="R6" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="190"/>
-      <c r="T6" s="189" t="s">
+      <c r="S6" s="185"/>
+      <c r="T6" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="190"/>
-      <c r="V6" s="189" t="s">
+      <c r="U6" s="185"/>
+      <c r="V6" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="190"/>
-      <c r="X6" s="189" t="s">
+      <c r="W6" s="185"/>
+      <c r="X6" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="190"/>
-      <c r="Z6" s="189" t="s">
+      <c r="Y6" s="185"/>
+      <c r="Z6" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="190"/>
-      <c r="AB6" s="226" t="s">
+      <c r="AA6" s="185"/>
+      <c r="AB6" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="AC6" s="225" t="s">
+      <c r="AC6" s="192" t="s">
         <v>628</v>
       </c>
-      <c r="AD6" s="186" t="s">
+      <c r="AD6" s="176" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE6" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AE6" s="168" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF6" s="168" t="s">
-        <v>640</v>
+      <c r="AF6" s="166" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:32" s="24" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A7" s="192"/>
-      <c r="B7" s="192"/>
-      <c r="C7" s="191"/>
+      <c r="A7" s="233"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="232"/>
       <c r="D7" s="74" t="s">
         <v>14</v>
       </c>
@@ -8874,14 +8871,14 @@
       <c r="AA7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB7" s="226"/>
-      <c r="AC7" s="199"/>
-      <c r="AD7" s="186"/>
-      <c r="AE7" s="168"/>
-      <c r="AF7" s="168"/>
+      <c r="AB7" s="194"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="176"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="166"/>
     </row>
     <row r="8" spans="1:32" s="10" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="188" t="s">
         <v>141</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -8895,7 +8892,7 @@
       <c r="F8" s="120"/>
       <c r="G8" s="120"/>
       <c r="H8" s="120"/>
-      <c r="I8" s="244"/>
+      <c r="I8" s="133"/>
       <c r="J8" s="120"/>
       <c r="K8" s="120"/>
       <c r="L8" s="120"/>
@@ -8918,7 +8915,7 @@
         <f t="shared" ref="AB8:AB12" si="0">SUM(D8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="216" t="str">
+      <c r="AC8" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D9&gt;D8," * F01-02 " &amp;D6&amp;" "&amp; D7&amp; " is more than F01-01"&amp;CHAR(10),""),IF(E9&gt;E8," * F01-02 " &amp;D6&amp;" "&amp; E7&amp; " is more than F01-01"&amp;CHAR(10),""),
@@ -8937,18 +8934,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD8" s="235" t="str">
+      <c r="AD8" s="179" t="str">
         <f>CONCATENATE(AC8,AC10,AC11,AC12,AC14,AC15,AC16,AC17,AC19,AC21,AC23,AC25,AC27,AC29,AC31,AC33,AC35)</f>
         <v/>
       </c>
       <c r="AE8" s="117"/>
-      <c r="AF8" s="236" t="str">
+      <c r="AF8" s="165" t="str">
         <f>CONCATENATE(AE8,AE9,AE10,AE11,AE12,AE13,AE14,AE15,AE16,AE17,AE18,AE19,AE20,AE21,AE22,AE23,AE24,AE25,AE26,AE27,AE28,AE29,AE30,AE31,AE32,AE33,AE34,AE35,AE36)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:32" s="10" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A9" s="224"/>
+      <c r="A9" s="189"/>
       <c r="B9" s="15" t="s">
         <v>507</v>
       </c>
@@ -8983,13 +8980,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="217"/>
-      <c r="AD9" s="235"/>
+      <c r="AC9" s="174"/>
+      <c r="AD9" s="179"/>
       <c r="AE9" s="117"/>
-      <c r="AF9" s="236"/>
+      <c r="AF9" s="165"/>
     </row>
     <row r="10" spans="1:32" s="10" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A10" s="224"/>
+      <c r="A10" s="189"/>
       <c r="B10" s="15" t="s">
         <v>509</v>
       </c>
@@ -9043,12 +9040,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD10" s="235"/>
+      <c r="AD10" s="179"/>
       <c r="AE10" s="117"/>
-      <c r="AF10" s="236"/>
+      <c r="AF10" s="165"/>
     </row>
     <row r="11" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="224"/>
+      <c r="A11" s="189"/>
       <c r="B11" s="15" t="s">
         <v>510</v>
       </c>
@@ -9084,12 +9081,12 @@
         <v>0</v>
       </c>
       <c r="AC11" s="111"/>
-      <c r="AD11" s="235"/>
+      <c r="AD11" s="179"/>
       <c r="AE11" s="117"/>
-      <c r="AF11" s="236"/>
+      <c r="AF11" s="165"/>
     </row>
     <row r="12" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="224"/>
+      <c r="A12" s="189"/>
       <c r="B12" s="15" t="s">
         <v>511</v>
       </c>
@@ -9124,7 +9121,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="216" t="str">
+      <c r="AC12" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D13&gt;D12," * Positive F01-06 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested  F01-05"&amp;CHAR(10),""),IF(E13&gt;E12," * Positive F01-06 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested  F01-05"&amp;CHAR(10),""),
@@ -9143,7 +9140,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD12" s="235"/>
+      <c r="AD12" s="179"/>
       <c r="AE12" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9151,10 +9148,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF12" s="236"/>
+      <c r="AF12" s="165"/>
     </row>
     <row r="13" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="224"/>
+      <c r="A13" s="189"/>
       <c r="B13" s="15" t="s">
         <v>512</v>
       </c>
@@ -9189,13 +9186,13 @@
         <f>SUM(D13:AA13)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="217"/>
-      <c r="AD13" s="235"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="179"/>
       <c r="AE13" s="117"/>
-      <c r="AF13" s="236"/>
+      <c r="AF13" s="165"/>
     </row>
     <row r="14" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="224"/>
+      <c r="A14" s="189"/>
       <c r="B14" s="15" t="s">
         <v>513</v>
       </c>
@@ -9231,12 +9228,12 @@
         <v>0</v>
       </c>
       <c r="AC14" s="111"/>
-      <c r="AD14" s="235"/>
+      <c r="AD14" s="179"/>
       <c r="AE14" s="117"/>
-      <c r="AF14" s="236"/>
+      <c r="AF14" s="165"/>
     </row>
     <row r="15" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="224"/>
+      <c r="A15" s="189"/>
       <c r="B15" s="15" t="s">
         <v>514</v>
       </c>
@@ -9272,12 +9269,12 @@
         <v>0</v>
       </c>
       <c r="AC15" s="111"/>
-      <c r="AD15" s="235"/>
+      <c r="AD15" s="179"/>
       <c r="AE15" s="117"/>
-      <c r="AF15" s="236"/>
+      <c r="AF15" s="165"/>
     </row>
     <row r="16" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="224"/>
+      <c r="A16" s="189"/>
       <c r="B16" s="15" t="s">
         <v>515</v>
       </c>
@@ -9313,12 +9310,12 @@
         <v>0</v>
       </c>
       <c r="AC16" s="111"/>
-      <c r="AD16" s="235"/>
+      <c r="AD16" s="179"/>
       <c r="AE16" s="117"/>
-      <c r="AF16" s="236"/>
+      <c r="AF16" s="165"/>
     </row>
     <row r="17" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="187" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -9355,7 +9352,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="216" t="str">
+      <c r="AC17" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D18&gt;D17," * Positive F01-11 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested  F01-10"&amp;CHAR(10),""),IF(E18&gt;E17," * Positive F01-11 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested  F01-10"&amp;CHAR(10),""),
@@ -9374,7 +9371,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD17" s="235"/>
+      <c r="AD17" s="179"/>
       <c r="AE17" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9382,10 +9379,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF17" s="236"/>
+      <c r="AF17" s="165"/>
     </row>
     <row r="18" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="188"/>
+      <c r="A18" s="187"/>
       <c r="B18" s="15" t="s">
         <v>517</v>
       </c>
@@ -9420,13 +9417,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="217"/>
-      <c r="AD18" s="235"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="179"/>
       <c r="AE18" s="117"/>
-      <c r="AF18" s="236"/>
+      <c r="AF18" s="165"/>
     </row>
     <row r="19" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="188" t="s">
+      <c r="A19" s="187" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -9463,7 +9460,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="216" t="str">
+      <c r="AC19" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D20&gt;D19," * Positive F01-13 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-12"&amp;CHAR(10),""),IF(E20&gt;E19," * Positive F01-13 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-12"&amp;CHAR(10),""),
@@ -9482,7 +9479,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD19" s="235"/>
+      <c r="AD19" s="179"/>
       <c r="AE19" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9490,10 +9487,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF19" s="236"/>
+      <c r="AF19" s="165"/>
     </row>
     <row r="20" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="188"/>
+      <c r="A20" s="187"/>
       <c r="B20" s="15" t="s">
         <v>519</v>
       </c>
@@ -9528,8 +9525,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="217"/>
-      <c r="AD20" s="235"/>
+      <c r="AC20" s="174"/>
+      <c r="AD20" s="179"/>
       <c r="AE20" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9544,10 +9541,10 @@
 "")</f>
         <v/>
       </c>
-      <c r="AF20" s="236"/>
+      <c r="AF20" s="165"/>
     </row>
     <row r="21" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="187" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -9584,7 +9581,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="216" t="str">
+      <c r="AC21" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D22&gt;D21," * Positive F01-15 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-14"&amp;CHAR(10),""),IF(E22&gt;E21," * Positive F01-15 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-14"&amp;CHAR(10),""),
@@ -9603,7 +9600,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD21" s="235"/>
+      <c r="AD21" s="179"/>
       <c r="AE21" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9611,10 +9608,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF21" s="236"/>
+      <c r="AF21" s="165"/>
     </row>
     <row r="22" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A22" s="188"/>
+      <c r="A22" s="187"/>
       <c r="B22" s="15" t="s">
         <v>519</v>
       </c>
@@ -9649,13 +9646,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="217"/>
-      <c r="AD22" s="235"/>
+      <c r="AC22" s="174"/>
+      <c r="AD22" s="179"/>
       <c r="AE22" s="117"/>
-      <c r="AF22" s="236"/>
+      <c r="AF22" s="165"/>
     </row>
     <row r="23" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A23" s="188" t="s">
+      <c r="A23" s="187" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -9692,7 +9689,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="216" t="str">
+      <c r="AC23" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D24&gt;D23," * Positive F01-17 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-16"&amp;CHAR(10),""),IF(E24&gt;E23," * Positive F01-17 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-16"&amp;CHAR(10),""),
@@ -9711,7 +9708,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD23" s="235"/>
+      <c r="AD23" s="179"/>
       <c r="AE23" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9719,10 +9716,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF23" s="236"/>
+      <c r="AF23" s="165"/>
     </row>
     <row r="24" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A24" s="188"/>
+      <c r="A24" s="187"/>
       <c r="B24" s="15" t="s">
         <v>519</v>
       </c>
@@ -9757,13 +9754,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="217"/>
-      <c r="AD24" s="235"/>
+      <c r="AC24" s="174"/>
+      <c r="AD24" s="179"/>
       <c r="AE24" s="117"/>
-      <c r="AF24" s="236"/>
+      <c r="AF24" s="165"/>
     </row>
     <row r="25" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="187" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -9800,7 +9797,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="216" t="str">
+      <c r="AC25" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D26&gt;D25," * Positive F01-19 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-18"&amp;CHAR(10),""),IF(E26&gt;E25," * Positive F01-19 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-18"&amp;CHAR(10),""),
@@ -9819,7 +9816,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD25" s="235"/>
+      <c r="AD25" s="179"/>
       <c r="AE25" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9827,10 +9824,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF25" s="236"/>
+      <c r="AF25" s="165"/>
     </row>
     <row r="26" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A26" s="188"/>
+      <c r="A26" s="187"/>
       <c r="B26" s="15" t="s">
         <v>519</v>
       </c>
@@ -9865,13 +9862,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="217"/>
-      <c r="AD26" s="235"/>
+      <c r="AC26" s="174"/>
+      <c r="AD26" s="179"/>
       <c r="AE26" s="117"/>
-      <c r="AF26" s="236"/>
+      <c r="AF26" s="165"/>
     </row>
     <row r="27" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A27" s="188" t="s">
+      <c r="A27" s="187" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -9908,7 +9905,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="216" t="str">
+      <c r="AC27" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D28&gt;D27," * Positive F01-21 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-20"&amp;CHAR(10),""),IF(E28&gt;E27," * Positive F01-21 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-20"&amp;CHAR(10),""),
@@ -9927,7 +9924,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD27" s="235"/>
+      <c r="AD27" s="179"/>
       <c r="AE27" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9935,10 +9932,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF27" s="236"/>
+      <c r="AF27" s="165"/>
     </row>
     <row r="28" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A28" s="188"/>
+      <c r="A28" s="187"/>
       <c r="B28" s="15" t="s">
         <v>519</v>
       </c>
@@ -9973,13 +9970,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="217"/>
-      <c r="AD28" s="235"/>
+      <c r="AC28" s="174"/>
+      <c r="AD28" s="179"/>
       <c r="AE28" s="117"/>
-      <c r="AF28" s="236"/>
+      <c r="AF28" s="165"/>
     </row>
     <row r="29" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A29" s="188" t="s">
+      <c r="A29" s="187" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -10016,7 +10013,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="216" t="str">
+      <c r="AC29" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D30&gt;D29," * Positive F01-23 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-22"&amp;CHAR(10),""),IF(E30&gt;E29," * Positive F01-23 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-22"&amp;CHAR(10),""),
@@ -10035,7 +10032,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD29" s="235"/>
+      <c r="AD29" s="179"/>
       <c r="AE29" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10043,10 +10040,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF29" s="236"/>
+      <c r="AF29" s="165"/>
     </row>
     <row r="30" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A30" s="188"/>
+      <c r="A30" s="187"/>
       <c r="B30" s="15" t="s">
         <v>519</v>
       </c>
@@ -10081,13 +10078,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="217"/>
-      <c r="AD30" s="235"/>
+      <c r="AC30" s="174"/>
+      <c r="AD30" s="179"/>
       <c r="AE30" s="117"/>
-      <c r="AF30" s="236"/>
+      <c r="AF30" s="165"/>
     </row>
     <row r="31" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A31" s="188" t="s">
+      <c r="A31" s="187" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -10124,7 +10121,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="216" t="str">
+      <c r="AC31" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D32&gt;D31," * Positive F01-25 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-24"&amp;CHAR(10),""),IF(E32&gt;E31," * Positive F01-25 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-24"&amp;CHAR(10),""),
@@ -10143,7 +10140,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD31" s="235"/>
+      <c r="AD31" s="179"/>
       <c r="AE31" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10151,10 +10148,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF31" s="236"/>
+      <c r="AF31" s="165"/>
     </row>
     <row r="32" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A32" s="188"/>
+      <c r="A32" s="187"/>
       <c r="B32" s="15" t="s">
         <v>519</v>
       </c>
@@ -10189,13 +10186,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="217"/>
-      <c r="AD32" s="235"/>
+      <c r="AC32" s="174"/>
+      <c r="AD32" s="179"/>
       <c r="AE32" s="117"/>
-      <c r="AF32" s="236"/>
+      <c r="AF32" s="165"/>
     </row>
     <row r="33" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A33" s="173" t="s">
+      <c r="A33" s="206" t="s">
         <v>133</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -10232,7 +10229,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="216" t="str">
+      <c r="AC33" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D34&gt;D33," * Positive F01-27 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-26"&amp;CHAR(10),""),IF(E34&gt;E33," * Positive F01-27 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-26"&amp;CHAR(10),""),
@@ -10251,7 +10248,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD33" s="235"/>
+      <c r="AD33" s="179"/>
       <c r="AE33" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10259,10 +10256,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF33" s="236"/>
+      <c r="AF33" s="165"/>
     </row>
     <row r="34" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A34" s="174"/>
+      <c r="A34" s="208"/>
       <c r="B34" s="15" t="s">
         <v>519</v>
       </c>
@@ -10297,13 +10294,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="217"/>
-      <c r="AD34" s="235"/>
+      <c r="AC34" s="174"/>
+      <c r="AD34" s="179"/>
       <c r="AE34" s="117"/>
-      <c r="AF34" s="236"/>
+      <c r="AF34" s="165"/>
     </row>
     <row r="35" spans="1:32" s="18" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A35" s="218" t="s">
+      <c r="A35" s="204" t="s">
         <v>157</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -10412,7 +10409,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="216" t="str">
+      <c r="AC35" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D36&gt;D35," * Totals HTS Positive F01-29 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Total Tested F01-28"&amp;CHAR(10),""),IF(E36&gt;E35," * Totals HTS Positive F01-29 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Total Tested F01-28"&amp;CHAR(10),""),
@@ -10431,7 +10428,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD35" s="235"/>
+      <c r="AD35" s="179"/>
       <c r="AE35" s="118" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10439,10 +10436,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF35" s="236"/>
+      <c r="AF35" s="165"/>
     </row>
     <row r="36" spans="1:32" s="18" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A36" s="219"/>
+      <c r="A36" s="205"/>
       <c r="B36" s="107" t="s">
         <v>522</v>
       </c>
@@ -10549,8 +10546,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC36" s="234"/>
-      <c r="AD36" s="235"/>
+      <c r="AC36" s="175"/>
+      <c r="AD36" s="179"/>
       <c r="AE36" s="118" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10558,122 +10555,122 @@
 )</f>
         <v/>
       </c>
-      <c r="AF36" s="236"/>
+      <c r="AF36" s="165"/>
     </row>
     <row r="37" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A37" s="237" t="s">
+      <c r="A37" s="170" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="237"/>
-      <c r="C37" s="237"/>
-      <c r="D37" s="237"/>
-      <c r="E37" s="237"/>
-      <c r="F37" s="237"/>
-      <c r="G37" s="237"/>
-      <c r="H37" s="237"/>
-      <c r="I37" s="237"/>
-      <c r="J37" s="237"/>
-      <c r="K37" s="237"/>
-      <c r="L37" s="237"/>
-      <c r="M37" s="237"/>
-      <c r="N37" s="237"/>
-      <c r="O37" s="237"/>
-      <c r="P37" s="237"/>
-      <c r="Q37" s="237"/>
-      <c r="R37" s="237"/>
-      <c r="S37" s="237"/>
-      <c r="T37" s="237"/>
-      <c r="U37" s="237"/>
-      <c r="V37" s="237"/>
-      <c r="W37" s="237"/>
-      <c r="X37" s="237"/>
-      <c r="Y37" s="237"/>
-      <c r="Z37" s="237"/>
-      <c r="AA37" s="237"/>
-      <c r="AB37" s="237"/>
-      <c r="AC37" s="237"/>
-      <c r="AD37" s="237"/>
-      <c r="AE37" s="237"/>
-      <c r="AF37" s="237"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="170"/>
+      <c r="L37" s="170"/>
+      <c r="M37" s="170"/>
+      <c r="N37" s="170"/>
+      <c r="O37" s="170"/>
+      <c r="P37" s="170"/>
+      <c r="Q37" s="170"/>
+      <c r="R37" s="170"/>
+      <c r="S37" s="170"/>
+      <c r="T37" s="170"/>
+      <c r="U37" s="170"/>
+      <c r="V37" s="170"/>
+      <c r="W37" s="170"/>
+      <c r="X37" s="170"/>
+      <c r="Y37" s="170"/>
+      <c r="Z37" s="170"/>
+      <c r="AA37" s="170"/>
+      <c r="AB37" s="170"/>
+      <c r="AC37" s="170"/>
+      <c r="AD37" s="170"/>
+      <c r="AE37" s="170"/>
+      <c r="AF37" s="170"/>
     </row>
     <row r="38" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A38" s="181" t="s">
+      <c r="A38" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="181" t="s">
+      <c r="B38" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C38" s="179" t="s">
+      <c r="C38" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D38" s="210"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="211"/>
-      <c r="G38" s="211"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="212"/>
-      <c r="J38" s="178" t="s">
+      <c r="D38" s="212"/>
+      <c r="E38" s="213"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="170"/>
-      <c r="L38" s="169" t="s">
+      <c r="K38" s="183"/>
+      <c r="L38" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="170"/>
-      <c r="N38" s="169" t="s">
+      <c r="M38" s="183"/>
+      <c r="N38" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O38" s="170"/>
-      <c r="P38" s="169" t="s">
+      <c r="O38" s="183"/>
+      <c r="P38" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q38" s="170"/>
-      <c r="R38" s="169" t="s">
+      <c r="Q38" s="183"/>
+      <c r="R38" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S38" s="170"/>
-      <c r="T38" s="169" t="s">
+      <c r="S38" s="183"/>
+      <c r="T38" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U38" s="170"/>
-      <c r="V38" s="169" t="s">
+      <c r="U38" s="183"/>
+      <c r="V38" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W38" s="170"/>
-      <c r="X38" s="169" t="s">
+      <c r="W38" s="183"/>
+      <c r="X38" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y38" s="170"/>
-      <c r="Z38" s="169" t="s">
+      <c r="Y38" s="183"/>
+      <c r="Z38" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA38" s="170"/>
-      <c r="AB38" s="171" t="s">
+      <c r="AA38" s="183"/>
+      <c r="AB38" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC38" s="186" t="s">
+      <c r="AC38" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD38" s="186" t="s">
+      <c r="AD38" s="176" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE38" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AE38" s="168" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF38" s="168" t="s">
-        <v>640</v>
+      <c r="AF38" s="166" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A39" s="182"/>
-      <c r="B39" s="182"/>
-      <c r="C39" s="180"/>
-      <c r="D39" s="213"/>
-      <c r="E39" s="214"/>
-      <c r="F39" s="214"/>
-      <c r="G39" s="214"/>
-      <c r="H39" s="214"/>
-      <c r="I39" s="215"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="201"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="215"/>
+      <c r="E39" s="216"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="216"/>
+      <c r="H39" s="216"/>
+      <c r="I39" s="217"/>
       <c r="J39" s="74" t="s">
         <v>14</v>
       </c>
@@ -10728,14 +10725,14 @@
       <c r="AA39" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB39" s="172"/>
-      <c r="AC39" s="186"/>
-      <c r="AD39" s="186"/>
-      <c r="AE39" s="168"/>
-      <c r="AF39" s="168"/>
+      <c r="AB39" s="203"/>
+      <c r="AC39" s="176"/>
+      <c r="AD39" s="176"/>
+      <c r="AE39" s="166"/>
+      <c r="AF39" s="166"/>
     </row>
     <row r="40" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A40" s="188" t="s">
+      <c r="A40" s="187" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -10773,18 +10770,18 @@
         <v>0</v>
       </c>
       <c r="AC40" s="112"/>
-      <c r="AD40" s="183" t="str">
+      <c r="AD40" s="228" t="str">
         <f>CONCATENATE(AC40,AC41,AC42,AC43,AC44)</f>
         <v/>
       </c>
       <c r="AE40" s="117"/>
-      <c r="AF40" s="231" t="str">
+      <c r="AF40" s="164" t="str">
         <f>CONCATENATE(AE40,AE41,AE42,AE43,AE44)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A41" s="188"/>
+      <c r="A41" s="187"/>
       <c r="B41" s="15" t="s">
         <v>222</v>
       </c>
@@ -10820,12 +10817,12 @@
         <v>0</v>
       </c>
       <c r="AC41" s="112"/>
-      <c r="AD41" s="184"/>
+      <c r="AD41" s="229"/>
       <c r="AE41" s="117"/>
-      <c r="AF41" s="231"/>
+      <c r="AF41" s="164"/>
     </row>
     <row r="42" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A42" s="188"/>
+      <c r="A42" s="187"/>
       <c r="B42" s="15" t="s">
         <v>524</v>
       </c>
@@ -10861,12 +10858,12 @@
         <v>0</v>
       </c>
       <c r="AC42" s="112"/>
-      <c r="AD42" s="184"/>
+      <c r="AD42" s="229"/>
       <c r="AE42" s="117"/>
-      <c r="AF42" s="231"/>
+      <c r="AF42" s="164"/>
     </row>
     <row r="43" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A43" s="188"/>
+      <c r="A43" s="187"/>
       <c r="B43" s="15" t="s">
         <v>525</v>
       </c>
@@ -10902,12 +10899,12 @@
         <v>0</v>
       </c>
       <c r="AC43" s="112"/>
-      <c r="AD43" s="184"/>
+      <c r="AD43" s="229"/>
       <c r="AE43" s="117"/>
-      <c r="AF43" s="231"/>
+      <c r="AF43" s="164"/>
     </row>
     <row r="44" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A44" s="173"/>
+      <c r="A44" s="206"/>
       <c r="B44" s="99" t="s">
         <v>526</v>
       </c>
@@ -10943,54 +10940,54 @@
         <v>0</v>
       </c>
       <c r="AC44" s="113"/>
-      <c r="AD44" s="184"/>
+      <c r="AD44" s="229"/>
       <c r="AE44" s="119"/>
-      <c r="AF44" s="231"/>
+      <c r="AF44" s="164"/>
     </row>
     <row r="45" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A45" s="237" t="s">
+      <c r="A45" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="237"/>
-      <c r="C45" s="237"/>
-      <c r="D45" s="237"/>
-      <c r="E45" s="237"/>
-      <c r="F45" s="237"/>
-      <c r="G45" s="237"/>
-      <c r="H45" s="237"/>
-      <c r="I45" s="237"/>
-      <c r="J45" s="237"/>
-      <c r="K45" s="237"/>
-      <c r="L45" s="237"/>
-      <c r="M45" s="237"/>
-      <c r="N45" s="237"/>
-      <c r="O45" s="237"/>
-      <c r="P45" s="237"/>
-      <c r="Q45" s="237"/>
-      <c r="R45" s="237"/>
-      <c r="S45" s="237"/>
-      <c r="T45" s="237"/>
-      <c r="U45" s="237"/>
-      <c r="V45" s="237"/>
-      <c r="W45" s="237"/>
-      <c r="X45" s="237"/>
-      <c r="Y45" s="237"/>
-      <c r="Z45" s="237"/>
-      <c r="AA45" s="237"/>
-      <c r="AB45" s="237"/>
-      <c r="AC45" s="237"/>
-      <c r="AD45" s="237"/>
-      <c r="AE45" s="237"/>
-      <c r="AF45" s="237"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="170"/>
+      <c r="K45" s="170"/>
+      <c r="L45" s="170"/>
+      <c r="M45" s="170"/>
+      <c r="N45" s="170"/>
+      <c r="O45" s="170"/>
+      <c r="P45" s="170"/>
+      <c r="Q45" s="170"/>
+      <c r="R45" s="170"/>
+      <c r="S45" s="170"/>
+      <c r="T45" s="170"/>
+      <c r="U45" s="170"/>
+      <c r="V45" s="170"/>
+      <c r="W45" s="170"/>
+      <c r="X45" s="170"/>
+      <c r="Y45" s="170"/>
+      <c r="Z45" s="170"/>
+      <c r="AA45" s="170"/>
+      <c r="AB45" s="170"/>
+      <c r="AC45" s="170"/>
+      <c r="AD45" s="170"/>
+      <c r="AE45" s="170"/>
+      <c r="AF45" s="170"/>
     </row>
     <row r="46" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A46" s="181" t="s">
+      <c r="A46" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="181" t="s">
+      <c r="B46" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C46" s="179" t="s">
+      <c r="C46" s="190" t="s">
         <v>508</v>
       </c>
       <c r="D46" s="78"/>
@@ -10999,62 +10996,62 @@
       <c r="G46" s="79"/>
       <c r="H46" s="79"/>
       <c r="I46" s="80"/>
-      <c r="J46" s="169" t="s">
+      <c r="J46" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="170"/>
-      <c r="L46" s="169" t="s">
+      <c r="K46" s="183"/>
+      <c r="L46" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="170"/>
-      <c r="N46" s="169" t="s">
+      <c r="M46" s="183"/>
+      <c r="N46" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O46" s="170"/>
-      <c r="P46" s="169" t="s">
+      <c r="O46" s="183"/>
+      <c r="P46" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q46" s="170"/>
-      <c r="R46" s="169" t="s">
+      <c r="Q46" s="183"/>
+      <c r="R46" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S46" s="170"/>
-      <c r="T46" s="169" t="s">
+      <c r="S46" s="183"/>
+      <c r="T46" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U46" s="170"/>
-      <c r="V46" s="169" t="s">
+      <c r="U46" s="183"/>
+      <c r="V46" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W46" s="170"/>
-      <c r="X46" s="169" t="s">
+      <c r="W46" s="183"/>
+      <c r="X46" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y46" s="170"/>
-      <c r="Z46" s="169" t="s">
+      <c r="Y46" s="183"/>
+      <c r="Z46" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA46" s="170"/>
-      <c r="AB46" s="171" t="s">
+      <c r="AA46" s="183"/>
+      <c r="AB46" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC46" s="186" t="s">
+      <c r="AC46" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD46" s="186" t="s">
+      <c r="AD46" s="176" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE46" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AE46" s="168" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF46" s="168" t="s">
-        <v>640</v>
+      <c r="AF46" s="166" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="47" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A47" s="182"/>
-      <c r="B47" s="182"/>
-      <c r="C47" s="180"/>
+      <c r="A47" s="201"/>
+      <c r="B47" s="201"/>
+      <c r="C47" s="191"/>
       <c r="D47" s="78"/>
       <c r="E47" s="79"/>
       <c r="F47" s="79"/>
@@ -11115,14 +11112,14 @@
       <c r="AA47" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB47" s="172"/>
-      <c r="AC47" s="186"/>
-      <c r="AD47" s="186"/>
-      <c r="AE47" s="168"/>
-      <c r="AF47" s="168"/>
+      <c r="AB47" s="203"/>
+      <c r="AC47" s="176"/>
+      <c r="AD47" s="176"/>
+      <c r="AE47" s="166"/>
+      <c r="AF47" s="166"/>
     </row>
     <row r="48" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A48" s="175" t="s">
+      <c r="A48" s="230" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -11159,7 +11156,7 @@
         <f>SUM(D48:AA48)</f>
         <v>0</v>
       </c>
-      <c r="AC48" s="232" t="str">
+      <c r="AC48" s="171" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D49&gt;D48," * Eligible for PrEP  for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Assessed for HIV risk"&amp;CHAR(10),""),IF(E49&gt;E48," * Eligible for PrEP  for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Assessed for HIV risk"&amp;CHAR(10),""),
@@ -11178,18 +11175,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD48" s="193" t="str">
+      <c r="AD48" s="243" t="str">
         <f>CONCATENATE(AC48,AC50,AC51,AC52,AC53,AC55,AC56,AC57,AC58,AC59,AC60,AC61,AC62,AC63,AC64)</f>
         <v/>
       </c>
       <c r="AE48" s="117"/>
-      <c r="AF48" s="231" t="str">
+      <c r="AF48" s="164" t="str">
         <f>CONCATENATE(AE48,AE49,AE50,AE51,AE52,AE53,AE54,AE55,AE56,AE57,AE58,AE59,AE60,AE61,AE62,AE63,AE64)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A49" s="176"/>
+      <c r="A49" s="231"/>
       <c r="B49" s="15" t="s">
         <v>633</v>
       </c>
@@ -11224,13 +11221,13 @@
         <f t="shared" ref="AB49:AB62" si="5">SUM(D49:AA49)</f>
         <v>0</v>
       </c>
-      <c r="AC49" s="233"/>
-      <c r="AD49" s="194"/>
+      <c r="AC49" s="172"/>
+      <c r="AD49" s="244"/>
       <c r="AE49" s="117"/>
-      <c r="AF49" s="231"/>
+      <c r="AF49" s="164"/>
     </row>
     <row r="50" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A50" s="176"/>
+      <c r="A50" s="231"/>
       <c r="B50" s="15" t="s">
         <v>528</v>
       </c>
@@ -11284,7 +11281,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD50" s="194"/>
+      <c r="AD50" s="244"/>
       <c r="AE50" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -11292,10 +11289,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF50" s="231"/>
+      <c r="AF50" s="164"/>
     </row>
     <row r="51" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A51" s="176"/>
+      <c r="A51" s="231"/>
       <c r="B51" s="15" t="s">
         <v>237</v>
       </c>
@@ -11331,12 +11328,12 @@
         <v>0</v>
       </c>
       <c r="AC51" s="112"/>
-      <c r="AD51" s="194"/>
+      <c r="AD51" s="244"/>
       <c r="AE51" s="117"/>
-      <c r="AF51" s="231"/>
+      <c r="AF51" s="164"/>
     </row>
     <row r="52" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A52" s="176"/>
+      <c r="A52" s="231"/>
       <c r="B52" s="15" t="s">
         <v>529</v>
       </c>
@@ -11372,12 +11369,12 @@
         <v>0</v>
       </c>
       <c r="AC52" s="112"/>
-      <c r="AD52" s="194"/>
+      <c r="AD52" s="244"/>
       <c r="AE52" s="117"/>
-      <c r="AF52" s="231"/>
+      <c r="AF52" s="164"/>
     </row>
     <row r="53" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A53" s="188" t="s">
+      <c r="A53" s="187" t="s">
         <v>37</v>
       </c>
       <c r="B53" s="15" t="s">
@@ -11414,7 +11411,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="200" t="str">
+      <c r="AC53" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D54&gt;D53," * F02-07 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F02-06"&amp;CHAR(10),""),IF(E54&gt;E53," * F02-07 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F02-06"&amp;CHAR(10),""),
@@ -11433,12 +11430,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD53" s="194"/>
+      <c r="AD53" s="244"/>
       <c r="AE53" s="117"/>
-      <c r="AF53" s="231"/>
+      <c r="AF53" s="164"/>
     </row>
     <row r="54" spans="1:32" s="10" customFormat="1" ht="83.85" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A54" s="188"/>
+      <c r="A54" s="187"/>
       <c r="B54" s="15" t="s">
         <v>530</v>
       </c>
@@ -11473,13 +11470,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="201"/>
-      <c r="AD54" s="194"/>
+      <c r="AC54" s="178"/>
+      <c r="AD54" s="244"/>
       <c r="AE54" s="117"/>
-      <c r="AF54" s="231"/>
+      <c r="AF54" s="164"/>
     </row>
     <row r="55" spans="1:32" s="10" customFormat="1" ht="83.85" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A55" s="188"/>
+      <c r="A55" s="187"/>
       <c r="B55" s="15" t="s">
         <v>531</v>
       </c>
@@ -11515,12 +11512,12 @@
         <v>0</v>
       </c>
       <c r="AC55" s="112"/>
-      <c r="AD55" s="194"/>
+      <c r="AD55" s="244"/>
       <c r="AE55" s="117"/>
-      <c r="AF55" s="231"/>
+      <c r="AF55" s="164"/>
     </row>
     <row r="56" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A56" s="173" t="s">
+      <c r="A56" s="206" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -11558,12 +11555,12 @@
         <v>0</v>
       </c>
       <c r="AC56" s="112"/>
-      <c r="AD56" s="194"/>
+      <c r="AD56" s="244"/>
       <c r="AE56" s="117"/>
-      <c r="AF56" s="231"/>
+      <c r="AF56" s="164"/>
     </row>
     <row r="57" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A57" s="195"/>
+      <c r="A57" s="207"/>
       <c r="B57" s="15" t="s">
         <v>533</v>
       </c>
@@ -11599,12 +11596,12 @@
         <v>0</v>
       </c>
       <c r="AC57" s="112"/>
-      <c r="AD57" s="194"/>
+      <c r="AD57" s="244"/>
       <c r="AE57" s="117"/>
-      <c r="AF57" s="231"/>
+      <c r="AF57" s="164"/>
     </row>
     <row r="58" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A58" s="195"/>
+      <c r="A58" s="207"/>
       <c r="B58" s="15" t="s">
         <v>248</v>
       </c>
@@ -11640,12 +11637,12 @@
         <v>0</v>
       </c>
       <c r="AC58" s="112"/>
-      <c r="AD58" s="194"/>
+      <c r="AD58" s="244"/>
       <c r="AE58" s="117"/>
-      <c r="AF58" s="231"/>
+      <c r="AF58" s="164"/>
     </row>
     <row r="59" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A59" s="195"/>
+      <c r="A59" s="207"/>
       <c r="B59" s="15" t="s">
         <v>534</v>
       </c>
@@ -11681,12 +11678,12 @@
         <v>0</v>
       </c>
       <c r="AC59" s="112"/>
-      <c r="AD59" s="194"/>
+      <c r="AD59" s="244"/>
       <c r="AE59" s="117"/>
-      <c r="AF59" s="231"/>
+      <c r="AF59" s="164"/>
     </row>
     <row r="60" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A60" s="195"/>
+      <c r="A60" s="207"/>
       <c r="B60" s="15" t="s">
         <v>535</v>
       </c>
@@ -11722,12 +11719,12 @@
         <v>0</v>
       </c>
       <c r="AC60" s="112"/>
-      <c r="AD60" s="194"/>
+      <c r="AD60" s="244"/>
       <c r="AE60" s="117"/>
-      <c r="AF60" s="231"/>
+      <c r="AF60" s="164"/>
     </row>
     <row r="61" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A61" s="195"/>
+      <c r="A61" s="207"/>
       <c r="B61" s="15" t="s">
         <v>536</v>
       </c>
@@ -11763,12 +11760,12 @@
         <v>0</v>
       </c>
       <c r="AC61" s="112"/>
-      <c r="AD61" s="194"/>
+      <c r="AD61" s="244"/>
       <c r="AE61" s="117"/>
-      <c r="AF61" s="231"/>
+      <c r="AF61" s="164"/>
     </row>
     <row r="62" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A62" s="174"/>
+      <c r="A62" s="208"/>
       <c r="B62" s="15" t="s">
         <v>537</v>
       </c>
@@ -11804,12 +11801,12 @@
         <v>0</v>
       </c>
       <c r="AC62" s="112"/>
-      <c r="AD62" s="194"/>
+      <c r="AD62" s="244"/>
       <c r="AE62" s="117"/>
-      <c r="AF62" s="231"/>
+      <c r="AF62" s="164"/>
     </row>
     <row r="63" spans="1:32" s="10" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A63" s="173" t="s">
+      <c r="A63" s="206" t="s">
         <v>134</v>
       </c>
       <c r="B63" s="93" t="s">
@@ -11844,12 +11841,12 @@
       <c r="AA63" s="87"/>
       <c r="AB63" s="125"/>
       <c r="AC63" s="112"/>
-      <c r="AD63" s="194"/>
+      <c r="AD63" s="244"/>
       <c r="AE63" s="117"/>
-      <c r="AF63" s="231"/>
+      <c r="AF63" s="164"/>
     </row>
     <row r="64" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A64" s="195"/>
+      <c r="A64" s="207"/>
       <c r="B64" s="104" t="s">
         <v>539</v>
       </c>
@@ -11882,124 +11879,124 @@
       <c r="AA64" s="101"/>
       <c r="AB64" s="126"/>
       <c r="AC64" s="113"/>
-      <c r="AD64" s="194"/>
+      <c r="AD64" s="244"/>
       <c r="AE64" s="119"/>
-      <c r="AF64" s="231"/>
+      <c r="AF64" s="164"/>
     </row>
     <row r="65" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A65" s="237" t="s">
+      <c r="A65" s="170" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="237"/>
-      <c r="C65" s="237"/>
-      <c r="D65" s="237"/>
-      <c r="E65" s="237"/>
-      <c r="F65" s="237"/>
-      <c r="G65" s="237"/>
-      <c r="H65" s="237"/>
-      <c r="I65" s="237"/>
-      <c r="J65" s="237"/>
-      <c r="K65" s="237"/>
-      <c r="L65" s="237"/>
-      <c r="M65" s="237"/>
-      <c r="N65" s="237"/>
-      <c r="O65" s="237"/>
-      <c r="P65" s="237"/>
-      <c r="Q65" s="237"/>
-      <c r="R65" s="237"/>
-      <c r="S65" s="237"/>
-      <c r="T65" s="237"/>
-      <c r="U65" s="237"/>
-      <c r="V65" s="237"/>
-      <c r="W65" s="237"/>
-      <c r="X65" s="237"/>
-      <c r="Y65" s="237"/>
-      <c r="Z65" s="237"/>
-      <c r="AA65" s="237"/>
-      <c r="AB65" s="237"/>
-      <c r="AC65" s="237"/>
-      <c r="AD65" s="237"/>
-      <c r="AE65" s="237"/>
-      <c r="AF65" s="237"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="170"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="170"/>
+      <c r="F65" s="170"/>
+      <c r="G65" s="170"/>
+      <c r="H65" s="170"/>
+      <c r="I65" s="170"/>
+      <c r="J65" s="170"/>
+      <c r="K65" s="170"/>
+      <c r="L65" s="170"/>
+      <c r="M65" s="170"/>
+      <c r="N65" s="170"/>
+      <c r="O65" s="170"/>
+      <c r="P65" s="170"/>
+      <c r="Q65" s="170"/>
+      <c r="R65" s="170"/>
+      <c r="S65" s="170"/>
+      <c r="T65" s="170"/>
+      <c r="U65" s="170"/>
+      <c r="V65" s="170"/>
+      <c r="W65" s="170"/>
+      <c r="X65" s="170"/>
+      <c r="Y65" s="170"/>
+      <c r="Z65" s="170"/>
+      <c r="AA65" s="170"/>
+      <c r="AB65" s="170"/>
+      <c r="AC65" s="170"/>
+      <c r="AD65" s="170"/>
+      <c r="AE65" s="170"/>
+      <c r="AF65" s="170"/>
     </row>
     <row r="66" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A66" s="181" t="s">
+      <c r="A66" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="181" t="s">
+      <c r="B66" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C66" s="179" t="s">
+      <c r="C66" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D66" s="178" t="s">
+      <c r="D66" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="170"/>
-      <c r="F66" s="169" t="s">
+      <c r="E66" s="183"/>
+      <c r="F66" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="170"/>
-      <c r="H66" s="169" t="s">
+      <c r="G66" s="183"/>
+      <c r="H66" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I66" s="170"/>
-      <c r="J66" s="169" t="s">
+      <c r="I66" s="183"/>
+      <c r="J66" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="170"/>
-      <c r="L66" s="169" t="s">
+      <c r="K66" s="183"/>
+      <c r="L66" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="170"/>
-      <c r="N66" s="169" t="s">
+      <c r="M66" s="183"/>
+      <c r="N66" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O66" s="170"/>
-      <c r="P66" s="169" t="s">
+      <c r="O66" s="183"/>
+      <c r="P66" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q66" s="170"/>
-      <c r="R66" s="169" t="s">
+      <c r="Q66" s="183"/>
+      <c r="R66" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S66" s="170"/>
-      <c r="T66" s="169" t="s">
+      <c r="S66" s="183"/>
+      <c r="T66" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U66" s="170"/>
-      <c r="V66" s="169" t="s">
+      <c r="U66" s="183"/>
+      <c r="V66" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W66" s="170"/>
-      <c r="X66" s="169" t="s">
+      <c r="W66" s="183"/>
+      <c r="X66" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y66" s="170"/>
-      <c r="Z66" s="169" t="s">
+      <c r="Y66" s="183"/>
+      <c r="Z66" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA66" s="170"/>
-      <c r="AB66" s="171" t="s">
+      <c r="AA66" s="183"/>
+      <c r="AB66" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC66" s="186" t="s">
+      <c r="AC66" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD66" s="186" t="s">
+      <c r="AD66" s="176" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE66" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AE66" s="168" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF66" s="168" t="s">
-        <v>640</v>
+      <c r="AF66" s="166" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A67" s="182"/>
-      <c r="B67" s="182"/>
-      <c r="C67" s="180"/>
+      <c r="A67" s="201"/>
+      <c r="B67" s="201"/>
+      <c r="C67" s="191"/>
       <c r="D67" s="73" t="s">
         <v>14</v>
       </c>
@@ -12072,14 +12069,14 @@
       <c r="AA67" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB67" s="172"/>
-      <c r="AC67" s="186"/>
-      <c r="AD67" s="186"/>
-      <c r="AE67" s="168"/>
-      <c r="AF67" s="168"/>
+      <c r="AB67" s="203"/>
+      <c r="AC67" s="176"/>
+      <c r="AD67" s="176"/>
+      <c r="AE67" s="166"/>
+      <c r="AF67" s="166"/>
     </row>
     <row r="68" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A68" s="173" t="s">
+      <c r="A68" s="206" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -12135,18 +12132,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD68" s="187" t="str">
+      <c r="AD68" s="235" t="str">
         <f>CONCATENATE(AC68,AC69,AC70,AC71,AC72,AC73,AC74,AC75,AC76,AC77,AC78,AC79)</f>
         <v/>
       </c>
       <c r="AE68" s="117"/>
-      <c r="AF68" s="231" t="str">
+      <c r="AF68" s="164" t="str">
         <f>CONCATENATE(AE68,AE69,AE70,AE71,AE72,AE73,AE74,AE75,AE76,AE77,AE78,AE79)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A69" s="195"/>
+      <c r="A69" s="207"/>
       <c r="B69" s="15" t="s">
         <v>541</v>
       </c>
@@ -12200,12 +12197,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD69" s="187"/>
+      <c r="AD69" s="235"/>
       <c r="AE69" s="117"/>
-      <c r="AF69" s="231"/>
+      <c r="AF69" s="164"/>
     </row>
     <row r="70" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A70" s="173" t="s">
+      <c r="A70" s="206" t="s">
         <v>32</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -12261,12 +12258,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD70" s="187"/>
+      <c r="AD70" s="235"/>
       <c r="AE70" s="117"/>
-      <c r="AF70" s="231"/>
+      <c r="AF70" s="164"/>
     </row>
     <row r="71" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A71" s="195"/>
+      <c r="A71" s="207"/>
       <c r="B71" s="15" t="s">
         <v>541</v>
       </c>
@@ -12320,12 +12317,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD71" s="187"/>
+      <c r="AD71" s="235"/>
       <c r="AE71" s="117"/>
-      <c r="AF71" s="231"/>
+      <c r="AF71" s="164"/>
     </row>
     <row r="72" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A72" s="206" t="s">
+      <c r="A72" s="221" t="s">
         <v>38</v>
       </c>
       <c r="B72" s="20" t="s">
@@ -12363,12 +12360,12 @@
         <v>0</v>
       </c>
       <c r="AC72" s="112"/>
-      <c r="AD72" s="187"/>
+      <c r="AD72" s="235"/>
       <c r="AE72" s="117"/>
-      <c r="AF72" s="231"/>
+      <c r="AF72" s="164"/>
     </row>
     <row r="73" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A73" s="206"/>
+      <c r="A73" s="221"/>
       <c r="B73" s="20" t="s">
         <v>544</v>
       </c>
@@ -12404,12 +12401,12 @@
         <v>0</v>
       </c>
       <c r="AC73" s="112"/>
-      <c r="AD73" s="187"/>
+      <c r="AD73" s="235"/>
       <c r="AE73" s="117"/>
-      <c r="AF73" s="231"/>
+      <c r="AF73" s="164"/>
     </row>
     <row r="74" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A74" s="206" t="s">
+      <c r="A74" s="221" t="s">
         <v>39</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -12447,12 +12444,12 @@
         <v>0</v>
       </c>
       <c r="AC74" s="112"/>
-      <c r="AD74" s="187"/>
+      <c r="AD74" s="235"/>
       <c r="AE74" s="117"/>
-      <c r="AF74" s="231"/>
+      <c r="AF74" s="164"/>
     </row>
     <row r="75" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A75" s="206"/>
+      <c r="A75" s="221"/>
       <c r="B75" s="20" t="s">
         <v>545</v>
       </c>
@@ -12488,12 +12485,12 @@
         <v>0</v>
       </c>
       <c r="AC75" s="112"/>
-      <c r="AD75" s="187"/>
+      <c r="AD75" s="235"/>
       <c r="AE75" s="117"/>
-      <c r="AF75" s="231"/>
+      <c r="AF75" s="164"/>
     </row>
     <row r="76" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A76" s="206" t="s">
+      <c r="A76" s="221" t="s">
         <v>40</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -12531,12 +12528,12 @@
         <v>0</v>
       </c>
       <c r="AC76" s="112"/>
-      <c r="AD76" s="187"/>
+      <c r="AD76" s="235"/>
       <c r="AE76" s="117"/>
-      <c r="AF76" s="231"/>
+      <c r="AF76" s="164"/>
     </row>
     <row r="77" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A77" s="206"/>
+      <c r="A77" s="221"/>
       <c r="B77" s="20" t="s">
         <v>546</v>
       </c>
@@ -12572,12 +12569,12 @@
         <v>0</v>
       </c>
       <c r="AC77" s="112"/>
-      <c r="AD77" s="187"/>
+      <c r="AD77" s="235"/>
       <c r="AE77" s="117"/>
-      <c r="AF77" s="231"/>
+      <c r="AF77" s="164"/>
     </row>
     <row r="78" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A78" s="206" t="s">
+      <c r="A78" s="221" t="s">
         <v>41</v>
       </c>
       <c r="B78" s="20" t="s">
@@ -12615,12 +12612,12 @@
         <v>0</v>
       </c>
       <c r="AC78" s="112"/>
-      <c r="AD78" s="187"/>
+      <c r="AD78" s="235"/>
       <c r="AE78" s="117"/>
-      <c r="AF78" s="231"/>
+      <c r="AF78" s="164"/>
     </row>
     <row r="79" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A79" s="207"/>
+      <c r="A79" s="222"/>
       <c r="B79" s="102" t="s">
         <v>547</v>
       </c>
@@ -12656,54 +12653,54 @@
         <v>0</v>
       </c>
       <c r="AC79" s="113"/>
-      <c r="AD79" s="183"/>
+      <c r="AD79" s="228"/>
       <c r="AE79" s="119"/>
-      <c r="AF79" s="231"/>
+      <c r="AF79" s="164"/>
     </row>
     <row r="80" spans="1:32" s="8" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A80" s="237" t="s">
+      <c r="A80" s="170" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="237"/>
-      <c r="C80" s="237"/>
-      <c r="D80" s="237"/>
-      <c r="E80" s="237"/>
-      <c r="F80" s="237"/>
-      <c r="G80" s="237"/>
-      <c r="H80" s="237"/>
-      <c r="I80" s="237"/>
-      <c r="J80" s="237"/>
-      <c r="K80" s="237"/>
-      <c r="L80" s="237"/>
-      <c r="M80" s="237"/>
-      <c r="N80" s="237"/>
-      <c r="O80" s="237"/>
-      <c r="P80" s="237"/>
-      <c r="Q80" s="237"/>
-      <c r="R80" s="237"/>
-      <c r="S80" s="237"/>
-      <c r="T80" s="237"/>
-      <c r="U80" s="237"/>
-      <c r="V80" s="237"/>
-      <c r="W80" s="237"/>
-      <c r="X80" s="237"/>
-      <c r="Y80" s="237"/>
-      <c r="Z80" s="237"/>
-      <c r="AA80" s="237"/>
-      <c r="AB80" s="237"/>
-      <c r="AC80" s="237"/>
-      <c r="AD80" s="237"/>
-      <c r="AE80" s="237"/>
-      <c r="AF80" s="237"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="170"/>
+      <c r="F80" s="170"/>
+      <c r="G80" s="170"/>
+      <c r="H80" s="170"/>
+      <c r="I80" s="170"/>
+      <c r="J80" s="170"/>
+      <c r="K80" s="170"/>
+      <c r="L80" s="170"/>
+      <c r="M80" s="170"/>
+      <c r="N80" s="170"/>
+      <c r="O80" s="170"/>
+      <c r="P80" s="170"/>
+      <c r="Q80" s="170"/>
+      <c r="R80" s="170"/>
+      <c r="S80" s="170"/>
+      <c r="T80" s="170"/>
+      <c r="U80" s="170"/>
+      <c r="V80" s="170"/>
+      <c r="W80" s="170"/>
+      <c r="X80" s="170"/>
+      <c r="Y80" s="170"/>
+      <c r="Z80" s="170"/>
+      <c r="AA80" s="170"/>
+      <c r="AB80" s="170"/>
+      <c r="AC80" s="170"/>
+      <c r="AD80" s="170"/>
+      <c r="AE80" s="170"/>
+      <c r="AF80" s="170"/>
     </row>
     <row r="81" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A81" s="181" t="s">
+      <c r="A81" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B81" s="181" t="s">
+      <c r="B81" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C81" s="179" t="s">
+      <c r="C81" s="190" t="s">
         <v>508</v>
       </c>
       <c r="D81" s="78"/>
@@ -12714,58 +12711,58 @@
       <c r="I81" s="79"/>
       <c r="J81" s="79"/>
       <c r="K81" s="80"/>
-      <c r="L81" s="178" t="s">
+      <c r="L81" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="M81" s="170"/>
-      <c r="N81" s="169" t="s">
+      <c r="M81" s="183"/>
+      <c r="N81" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O81" s="170"/>
-      <c r="P81" s="169" t="s">
+      <c r="O81" s="183"/>
+      <c r="P81" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q81" s="170"/>
-      <c r="R81" s="169" t="s">
+      <c r="Q81" s="183"/>
+      <c r="R81" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S81" s="170"/>
-      <c r="T81" s="169" t="s">
+      <c r="S81" s="183"/>
+      <c r="T81" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U81" s="170"/>
-      <c r="V81" s="169" t="s">
+      <c r="U81" s="183"/>
+      <c r="V81" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W81" s="170"/>
-      <c r="X81" s="169" t="s">
+      <c r="W81" s="183"/>
+      <c r="X81" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y81" s="170"/>
-      <c r="Z81" s="169" t="s">
+      <c r="Y81" s="183"/>
+      <c r="Z81" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA81" s="170"/>
-      <c r="AB81" s="171" t="s">
+      <c r="AA81" s="183"/>
+      <c r="AB81" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC81" s="186" t="s">
+      <c r="AC81" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD81" s="186" t="s">
+      <c r="AD81" s="176" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE81" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AE81" s="168" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF81" s="168" t="s">
-        <v>640</v>
+      <c r="AF81" s="166" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="82" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A82" s="182"/>
-      <c r="B82" s="182"/>
-      <c r="C82" s="180"/>
+      <c r="A82" s="201"/>
+      <c r="B82" s="201"/>
+      <c r="C82" s="191"/>
       <c r="D82" s="75"/>
       <c r="E82" s="76"/>
       <c r="F82" s="76"/>
@@ -12822,14 +12819,14 @@
       <c r="AA82" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB82" s="172"/>
-      <c r="AC82" s="186"/>
-      <c r="AD82" s="186"/>
-      <c r="AE82" s="168"/>
-      <c r="AF82" s="168"/>
+      <c r="AB82" s="203"/>
+      <c r="AC82" s="176"/>
+      <c r="AD82" s="176"/>
+      <c r="AE82" s="166"/>
+      <c r="AF82" s="166"/>
     </row>
     <row r="83" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A83" s="173" t="s">
+      <c r="A83" s="206" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -12867,18 +12864,18 @@
         <v>0</v>
       </c>
       <c r="AC83" s="112"/>
-      <c r="AD83" s="187" t="str">
+      <c r="AD83" s="235" t="str">
         <f>CONCATENATE(AC83,AC84,AC85,AC86,AC87,AC88,AC89,AC90,AC91,AC92,AC93,AC94,AC95,AC96,AC97,AC98,AC99,AC100)</f>
         <v/>
       </c>
       <c r="AE83" s="117"/>
-      <c r="AF83" s="231" t="str">
+      <c r="AF83" s="164" t="str">
         <f>CONCATENATE(AE83,AE84,AE85,AE86,AE87,AE88,AE89,AE90,AE91,AE92,AE93,AE94,AE95,AE96,AE97,AE98,AE99,AE100)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A84" s="195"/>
+      <c r="A84" s="207"/>
       <c r="B84" s="15" t="s">
         <v>288</v>
       </c>
@@ -12932,12 +12929,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD84" s="187"/>
+      <c r="AD84" s="235"/>
       <c r="AE84" s="117"/>
-      <c r="AF84" s="231"/>
+      <c r="AF84" s="164"/>
     </row>
     <row r="85" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A85" s="195"/>
+      <c r="A85" s="207"/>
       <c r="B85" s="15" t="s">
         <v>549</v>
       </c>
@@ -12973,12 +12970,12 @@
         <v>0</v>
       </c>
       <c r="AC85" s="112"/>
-      <c r="AD85" s="187"/>
+      <c r="AD85" s="235"/>
       <c r="AE85" s="117"/>
-      <c r="AF85" s="231"/>
+      <c r="AF85" s="164"/>
     </row>
     <row r="86" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A86" s="195"/>
+      <c r="A86" s="207"/>
       <c r="B86" s="15" t="s">
         <v>550</v>
       </c>
@@ -13014,12 +13011,12 @@
         <v>0</v>
       </c>
       <c r="AC86" s="112"/>
-      <c r="AD86" s="187"/>
+      <c r="AD86" s="235"/>
       <c r="AE86" s="117"/>
-      <c r="AF86" s="231"/>
+      <c r="AF86" s="164"/>
     </row>
     <row r="87" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A87" s="195"/>
+      <c r="A87" s="207"/>
       <c r="B87" s="15" t="s">
         <v>551</v>
       </c>
@@ -13055,12 +13052,12 @@
         <v>0</v>
       </c>
       <c r="AC87" s="112"/>
-      <c r="AD87" s="187"/>
+      <c r="AD87" s="235"/>
       <c r="AE87" s="117"/>
-      <c r="AF87" s="231"/>
+      <c r="AF87" s="164"/>
     </row>
     <row r="88" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A88" s="174"/>
+      <c r="A88" s="208"/>
       <c r="B88" s="15" t="s">
         <v>552</v>
       </c>
@@ -13096,12 +13093,12 @@
         <v>0</v>
       </c>
       <c r="AC88" s="112"/>
-      <c r="AD88" s="187"/>
+      <c r="AD88" s="235"/>
       <c r="AE88" s="117"/>
-      <c r="AF88" s="231"/>
+      <c r="AF88" s="164"/>
     </row>
     <row r="89" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A89" s="173" t="s">
+      <c r="A89" s="206" t="s">
         <v>42</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -13139,12 +13136,12 @@
         <v>0</v>
       </c>
       <c r="AC89" s="112"/>
-      <c r="AD89" s="187"/>
+      <c r="AD89" s="235"/>
       <c r="AE89" s="117"/>
-      <c r="AF89" s="231"/>
+      <c r="AF89" s="164"/>
     </row>
     <row r="90" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A90" s="195"/>
+      <c r="A90" s="207"/>
       <c r="B90" s="15" t="s">
         <v>553</v>
       </c>
@@ -13198,12 +13195,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD90" s="187"/>
+      <c r="AD90" s="235"/>
       <c r="AE90" s="117"/>
-      <c r="AF90" s="231"/>
+      <c r="AF90" s="164"/>
     </row>
     <row r="91" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A91" s="195"/>
+      <c r="A91" s="207"/>
       <c r="B91" s="15" t="s">
         <v>304</v>
       </c>
@@ -13239,12 +13236,12 @@
         <v>0</v>
       </c>
       <c r="AC91" s="112"/>
-      <c r="AD91" s="187"/>
+      <c r="AD91" s="235"/>
       <c r="AE91" s="117"/>
-      <c r="AF91" s="231"/>
+      <c r="AF91" s="164"/>
     </row>
     <row r="92" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A92" s="195"/>
+      <c r="A92" s="207"/>
       <c r="B92" s="15" t="s">
         <v>554</v>
       </c>
@@ -13280,12 +13277,12 @@
         <v>0</v>
       </c>
       <c r="AC92" s="112"/>
-      <c r="AD92" s="187"/>
+      <c r="AD92" s="235"/>
       <c r="AE92" s="117"/>
-      <c r="AF92" s="231"/>
+      <c r="AF92" s="164"/>
     </row>
     <row r="93" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A93" s="195"/>
+      <c r="A93" s="207"/>
       <c r="B93" s="15" t="s">
         <v>551</v>
       </c>
@@ -13321,12 +13318,12 @@
         <v>0</v>
       </c>
       <c r="AC93" s="112"/>
-      <c r="AD93" s="187"/>
+      <c r="AD93" s="235"/>
       <c r="AE93" s="117"/>
-      <c r="AF93" s="231"/>
+      <c r="AF93" s="164"/>
     </row>
     <row r="94" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A94" s="174"/>
+      <c r="A94" s="208"/>
       <c r="B94" s="15" t="s">
         <v>309</v>
       </c>
@@ -13380,12 +13377,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD94" s="187"/>
+      <c r="AD94" s="235"/>
       <c r="AE94" s="117"/>
-      <c r="AF94" s="231"/>
+      <c r="AF94" s="164"/>
     </row>
     <row r="95" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A95" s="173" t="s">
+      <c r="A95" s="206" t="s">
         <v>33</v>
       </c>
       <c r="B95" s="15" t="s">
@@ -13423,12 +13420,12 @@
         <v>0</v>
       </c>
       <c r="AC95" s="112"/>
-      <c r="AD95" s="187"/>
+      <c r="AD95" s="235"/>
       <c r="AE95" s="117"/>
-      <c r="AF95" s="231"/>
+      <c r="AF95" s="164"/>
     </row>
     <row r="96" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A96" s="195"/>
+      <c r="A96" s="207"/>
       <c r="B96" s="15" t="s">
         <v>288</v>
       </c>
@@ -13482,12 +13479,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD96" s="187"/>
+      <c r="AD96" s="235"/>
       <c r="AE96" s="117"/>
-      <c r="AF96" s="231"/>
+      <c r="AF96" s="164"/>
     </row>
     <row r="97" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A97" s="195"/>
+      <c r="A97" s="207"/>
       <c r="B97" s="15" t="s">
         <v>304</v>
       </c>
@@ -13523,12 +13520,12 @@
         <v>0</v>
       </c>
       <c r="AC97" s="112"/>
-      <c r="AD97" s="187"/>
+      <c r="AD97" s="235"/>
       <c r="AE97" s="117"/>
-      <c r="AF97" s="231"/>
+      <c r="AF97" s="164"/>
     </row>
     <row r="98" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A98" s="195"/>
+      <c r="A98" s="207"/>
       <c r="B98" s="15" t="s">
         <v>550</v>
       </c>
@@ -13564,12 +13561,12 @@
         <v>0</v>
       </c>
       <c r="AC98" s="112"/>
-      <c r="AD98" s="187"/>
+      <c r="AD98" s="235"/>
       <c r="AE98" s="117"/>
-      <c r="AF98" s="231"/>
+      <c r="AF98" s="164"/>
     </row>
     <row r="99" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A99" s="195"/>
+      <c r="A99" s="207"/>
       <c r="B99" s="15" t="s">
         <v>551</v>
       </c>
@@ -13605,12 +13602,12 @@
         <v>0</v>
       </c>
       <c r="AC99" s="112"/>
-      <c r="AD99" s="187"/>
+      <c r="AD99" s="235"/>
       <c r="AE99" s="117"/>
-      <c r="AF99" s="231"/>
+      <c r="AF99" s="164"/>
     </row>
     <row r="100" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A100" s="195"/>
+      <c r="A100" s="207"/>
       <c r="B100" s="99" t="s">
         <v>309</v>
       </c>
@@ -13646,124 +13643,124 @@
         <v>0</v>
       </c>
       <c r="AC100" s="113"/>
-      <c r="AD100" s="187"/>
+      <c r="AD100" s="235"/>
       <c r="AE100" s="117"/>
-      <c r="AF100" s="231"/>
+      <c r="AF100" s="164"/>
     </row>
     <row r="101" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A101" s="237" t="s">
+      <c r="A101" s="170" t="s">
         <v>153</v>
       </c>
-      <c r="B101" s="237"/>
-      <c r="C101" s="237"/>
-      <c r="D101" s="237"/>
-      <c r="E101" s="237"/>
-      <c r="F101" s="237"/>
-      <c r="G101" s="237"/>
-      <c r="H101" s="237"/>
-      <c r="I101" s="237"/>
-      <c r="J101" s="237"/>
-      <c r="K101" s="237"/>
-      <c r="L101" s="237"/>
-      <c r="M101" s="237"/>
-      <c r="N101" s="237"/>
-      <c r="O101" s="237"/>
-      <c r="P101" s="237"/>
-      <c r="Q101" s="237"/>
-      <c r="R101" s="237"/>
-      <c r="S101" s="237"/>
-      <c r="T101" s="237"/>
-      <c r="U101" s="237"/>
-      <c r="V101" s="237"/>
-      <c r="W101" s="237"/>
-      <c r="X101" s="237"/>
-      <c r="Y101" s="237"/>
-      <c r="Z101" s="237"/>
-      <c r="AA101" s="237"/>
-      <c r="AB101" s="237"/>
-      <c r="AC101" s="237"/>
-      <c r="AD101" s="237"/>
-      <c r="AE101" s="237"/>
-      <c r="AF101" s="237"/>
+      <c r="B101" s="170"/>
+      <c r="C101" s="170"/>
+      <c r="D101" s="170"/>
+      <c r="E101" s="170"/>
+      <c r="F101" s="170"/>
+      <c r="G101" s="170"/>
+      <c r="H101" s="170"/>
+      <c r="I101" s="170"/>
+      <c r="J101" s="170"/>
+      <c r="K101" s="170"/>
+      <c r="L101" s="170"/>
+      <c r="M101" s="170"/>
+      <c r="N101" s="170"/>
+      <c r="O101" s="170"/>
+      <c r="P101" s="170"/>
+      <c r="Q101" s="170"/>
+      <c r="R101" s="170"/>
+      <c r="S101" s="170"/>
+      <c r="T101" s="170"/>
+      <c r="U101" s="170"/>
+      <c r="V101" s="170"/>
+      <c r="W101" s="170"/>
+      <c r="X101" s="170"/>
+      <c r="Y101" s="170"/>
+      <c r="Z101" s="170"/>
+      <c r="AA101" s="170"/>
+      <c r="AB101" s="170"/>
+      <c r="AC101" s="170"/>
+      <c r="AD101" s="170"/>
+      <c r="AE101" s="170"/>
+      <c r="AF101" s="170"/>
     </row>
     <row r="102" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A102" s="181" t="s">
+      <c r="A102" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B102" s="181" t="s">
+      <c r="B102" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C102" s="179" t="s">
+      <c r="C102" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D102" s="178" t="s">
+      <c r="D102" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="170"/>
-      <c r="F102" s="169" t="s">
+      <c r="E102" s="183"/>
+      <c r="F102" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="170"/>
-      <c r="H102" s="169" t="s">
+      <c r="G102" s="183"/>
+      <c r="H102" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I102" s="170"/>
-      <c r="J102" s="169" t="s">
+      <c r="I102" s="183"/>
+      <c r="J102" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K102" s="170"/>
-      <c r="L102" s="169" t="s">
+      <c r="K102" s="183"/>
+      <c r="L102" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="170"/>
-      <c r="N102" s="169" t="s">
+      <c r="M102" s="183"/>
+      <c r="N102" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O102" s="170"/>
-      <c r="P102" s="169" t="s">
+      <c r="O102" s="183"/>
+      <c r="P102" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q102" s="170"/>
-      <c r="R102" s="169" t="s">
+      <c r="Q102" s="183"/>
+      <c r="R102" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S102" s="170"/>
-      <c r="T102" s="169" t="s">
+      <c r="S102" s="183"/>
+      <c r="T102" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U102" s="170"/>
-      <c r="V102" s="169" t="s">
+      <c r="U102" s="183"/>
+      <c r="V102" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W102" s="170"/>
-      <c r="X102" s="169" t="s">
+      <c r="W102" s="183"/>
+      <c r="X102" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y102" s="170"/>
-      <c r="Z102" s="169" t="s">
+      <c r="Y102" s="183"/>
+      <c r="Z102" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA102" s="170"/>
-      <c r="AB102" s="171" t="s">
+      <c r="AA102" s="183"/>
+      <c r="AB102" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC102" s="186" t="s">
+      <c r="AC102" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD102" s="186" t="s">
+      <c r="AD102" s="176" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE102" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AE102" s="168" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF102" s="168" t="s">
-        <v>640</v>
+      <c r="AF102" s="166" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="103" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A103" s="182"/>
-      <c r="B103" s="182"/>
-      <c r="C103" s="180"/>
+      <c r="A103" s="201"/>
+      <c r="B103" s="201"/>
+      <c r="C103" s="191"/>
       <c r="D103" s="73" t="s">
         <v>14</v>
       </c>
@@ -13836,14 +13833,14 @@
       <c r="AA103" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB103" s="172"/>
-      <c r="AC103" s="186"/>
-      <c r="AD103" s="186"/>
-      <c r="AE103" s="168"/>
-      <c r="AF103" s="168"/>
+      <c r="AB103" s="203"/>
+      <c r="AC103" s="176"/>
+      <c r="AD103" s="176"/>
+      <c r="AE103" s="166"/>
+      <c r="AF103" s="166"/>
     </row>
     <row r="104" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A104" s="173" t="s">
+      <c r="A104" s="206" t="s">
         <v>44</v>
       </c>
       <c r="B104" s="15" t="s">
@@ -13880,7 +13877,7 @@
         <f>SUM(D104:AA104)</f>
         <v>0</v>
       </c>
-      <c r="AC104" s="200" t="str">
+      <c r="AC104" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D105&gt;D104," * F05-02 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-01"&amp;CHAR(10),""),IF(E105&gt;E104," * F05-02 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-01"&amp;CHAR(10),""),
@@ -13899,18 +13896,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD104" s="187" t="str">
+      <c r="AD104" s="235" t="str">
         <f>CONCATENATE(AC104,AC106,AC107,AC108,AC109,AC111,AC113,AC115,AC117,AC118)</f>
-        <v xml:space="preserve">  </v>
+        <v/>
       </c>
       <c r="AE104" s="117"/>
-      <c r="AF104" s="231" t="str">
+      <c r="AF104" s="164" t="str">
         <f>CONCATENATE(AE104,AE105,AE106,AE107,AE108,AE109,AE110,AE111,AE112,AE113,AE114,AE115,AE116,AE117,AE118)</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A105" s="174"/>
+      <c r="A105" s="208"/>
       <c r="B105" s="15" t="s">
         <v>556</v>
       </c>
@@ -13945,13 +13942,13 @@
         <f t="shared" ref="AB105:AB118" si="8">SUM(D105:AA105)</f>
         <v>0</v>
       </c>
-      <c r="AC105" s="201"/>
-      <c r="AD105" s="187"/>
+      <c r="AC105" s="178"/>
+      <c r="AD105" s="235"/>
       <c r="AE105" s="117"/>
-      <c r="AF105" s="231"/>
+      <c r="AF105" s="164"/>
     </row>
     <row r="106" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A106" s="173" t="s">
+      <c r="A106" s="206" t="s">
         <v>45</v>
       </c>
       <c r="B106" s="15" t="s">
@@ -13988,15 +13985,31 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC106" s="112" t="s">
-        <v>634</v>
-      </c>
-      <c r="AD106" s="187"/>
+      <c r="AC106" s="112" t="str">
+        <f xml:space="preserve">
+CONCATENATE(
+IF(D107&gt;D106," * F05-04 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-03"&amp;CHAR(10),""),IF(E107&gt;E106," * F05-04 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-03"&amp;CHAR(10),""),
+IF(F107&gt;F106," * F05-04 for Age " &amp;F6&amp;" "&amp; F7&amp; " is more than F05-03"&amp;CHAR(10),""),IF(G107&gt;G106," * F05-04 for Age " &amp;F6&amp;" "&amp; G7&amp; " is more than F05-03"&amp;CHAR(10),""),
+IF(H107&gt;H106," * F05-04 for Age " &amp;H6&amp;" "&amp; H7&amp; " is more than F05-03"&amp;CHAR(10),""),IF(I107&gt;I106," * F05-04 for Age " &amp;H6&amp;" "&amp; I7&amp; " is more than F05-03"&amp;CHAR(10),""),
+IF(J107&gt;J106," * F05-04 for Age " &amp;J6&amp;" "&amp; J7&amp; " is more than F05-03"&amp;CHAR(10),""),IF(K107&gt;K106," * F05-04 for Age " &amp;J6&amp;" "&amp; K7&amp; " is more than F05-03"&amp;CHAR(10),""),
+IF(L107&gt;L106," * F05-04 for Age " &amp;L6&amp;" "&amp; L7&amp; " is more than F05-03"&amp;CHAR(10),""),IF(M107&gt;M106," * F05-04 for Age " &amp;L6&amp;" "&amp; M7&amp; " is more than F05-03"&amp;CHAR(10),""),
+IF(N107&gt;N106," * F05-04 for Age " &amp;N6&amp;" "&amp; N7&amp; " is more than F05-03"&amp;CHAR(10),""),IF(O107&gt;O106," * F05-04 for Age " &amp;N6&amp;" "&amp; O7&amp; " is more than F05-03"&amp;CHAR(10),""),
+IF(P107&gt;P106," * F05-04 for Age " &amp;P6&amp;" "&amp; P7&amp; " is more than F05-03"&amp;CHAR(10),""),IF(Q107&gt;Q106," * F05-04 for Age " &amp;P6&amp;" "&amp; Q7&amp; " is more than F05-03"&amp;CHAR(10),""),
+IF(R107&gt;R106," * F05-04 for Age " &amp;R6&amp;" "&amp; R7&amp; " is more than F05-03"&amp;CHAR(10),""),IF(S107&gt;S106," * F05-04 for Age " &amp;R6&amp;" "&amp; S7&amp; " is more than F05-03"&amp;CHAR(10),""),
+IF(T107&gt;T106," * F05-04 for Age " &amp;T6&amp;" "&amp; T7&amp; " is more than F05-03"&amp;CHAR(10),""),IF(U107&gt;U106," * F05-04 for Age " &amp;T6&amp;" "&amp; U7&amp; " is more than F05-03"&amp;CHAR(10),""),
+IF(V107&gt;V106," * F05-04 for Age " &amp;V6&amp;" "&amp; V7&amp; " is more than F05-03"&amp;CHAR(10),""),IF(W107&gt;W106," * F05-04 for Age " &amp;V6&amp;" "&amp; W7&amp; " is more than F05-03"&amp;CHAR(10),""),
+IF(X107&gt;X106," * F05-04 for Age " &amp;X6&amp;" "&amp; X7&amp; " is more than F05-03"&amp;CHAR(10),""),IF(Y107&gt;Y106," * F05-04 for Age " &amp;X6&amp;" "&amp; Y7&amp; " is more than F05-03"&amp;CHAR(10),""),
+IF(Z107&gt;Z106," * F05-04 for Age " &amp;Z6&amp;" "&amp; Z7&amp; " is more than F05-03"&amp;CHAR(10),""),IF(AA107&gt;AA106," * F05-04 for Age " &amp;Z6&amp;" "&amp; AA7&amp; " is more than F05-03"&amp;CHAR(10),""),
+IF(AB107&gt;AB106," * Total F05-04 is more than Total F05-03"&amp;CHAR(10),"")
+)</f>
+        <v/>
+      </c>
+      <c r="AD106" s="235"/>
       <c r="AE106" s="117"/>
-      <c r="AF106" s="231"/>
+      <c r="AF106" s="164"/>
     </row>
     <row r="107" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A107" s="174"/>
+      <c r="A107" s="208"/>
       <c r="B107" s="15" t="s">
         <v>327</v>
       </c>
@@ -14032,12 +14045,12 @@
         <v>0</v>
       </c>
       <c r="AC107" s="112"/>
-      <c r="AD107" s="187"/>
+      <c r="AD107" s="235"/>
       <c r="AE107" s="117"/>
-      <c r="AF107" s="231"/>
+      <c r="AF107" s="164"/>
     </row>
     <row r="108" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A108" s="175" t="s">
+      <c r="A108" s="230" t="s">
         <v>34</v>
       </c>
       <c r="B108" s="93" t="s">
@@ -14093,12 +14106,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD108" s="187"/>
+      <c r="AD108" s="235"/>
       <c r="AE108" s="117"/>
-      <c r="AF108" s="231"/>
+      <c r="AF108" s="164"/>
     </row>
     <row r="109" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A109" s="176"/>
+      <c r="A109" s="231"/>
       <c r="B109" s="93" t="s">
         <v>559</v>
       </c>
@@ -14133,7 +14146,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC109" s="200" t="str">
+      <c r="AC109" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D110&gt;D109," * F05-07 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-06"&amp;CHAR(10),""),IF(E110&gt;E109," * F05-07 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-06"&amp;CHAR(10),""),
@@ -14152,12 +14165,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD109" s="187"/>
+      <c r="AD109" s="235"/>
       <c r="AE109" s="117"/>
-      <c r="AF109" s="231"/>
+      <c r="AF109" s="164"/>
     </row>
     <row r="110" spans="1:32" s="12" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A110" s="176"/>
+      <c r="A110" s="231"/>
       <c r="B110" s="93" t="s">
         <v>560</v>
       </c>
@@ -14192,13 +14205,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC110" s="201"/>
-      <c r="AD110" s="187"/>
+      <c r="AC110" s="178"/>
+      <c r="AD110" s="235"/>
       <c r="AE110" s="117"/>
-      <c r="AF110" s="231"/>
+      <c r="AF110" s="164"/>
     </row>
     <row r="111" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A111" s="176"/>
+      <c r="A111" s="231"/>
       <c r="B111" s="93" t="s">
         <v>561</v>
       </c>
@@ -14233,7 +14246,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC111" s="200" t="str">
+      <c r="AC111" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D112&gt;D111," * F05-09 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-08"&amp;CHAR(10),""),IF(E112&gt;E111," * F05-09 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-08"&amp;CHAR(10),""),
@@ -14252,12 +14265,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD111" s="187"/>
+      <c r="AD111" s="235"/>
       <c r="AE111" s="117"/>
-      <c r="AF111" s="231"/>
+      <c r="AF111" s="164"/>
     </row>
     <row r="112" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A112" s="176"/>
+      <c r="A112" s="231"/>
       <c r="B112" s="93" t="s">
         <v>562</v>
       </c>
@@ -14292,13 +14305,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC112" s="201"/>
-      <c r="AD112" s="187"/>
+      <c r="AC112" s="178"/>
+      <c r="AD112" s="235"/>
       <c r="AE112" s="117"/>
-      <c r="AF112" s="231"/>
+      <c r="AF112" s="164"/>
     </row>
     <row r="113" spans="1:32" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A113" s="176"/>
+      <c r="A113" s="231"/>
       <c r="B113" s="93" t="s">
         <v>563</v>
       </c>
@@ -14333,7 +14346,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC113" s="200" t="str">
+      <c r="AC113" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D114&gt;D113," * F05-11 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-10"&amp;CHAR(10),""),IF(E114&gt;E113," * F05-11 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-10"&amp;CHAR(10),""),
@@ -14352,12 +14365,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD113" s="187"/>
+      <c r="AD113" s="235"/>
       <c r="AE113" s="117"/>
-      <c r="AF113" s="231"/>
+      <c r="AF113" s="164"/>
     </row>
     <row r="114" spans="1:32" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A114" s="177"/>
+      <c r="A114" s="236"/>
       <c r="B114" s="93" t="s">
         <v>564</v>
       </c>
@@ -14392,13 +14405,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC114" s="201"/>
-      <c r="AD114" s="187"/>
+      <c r="AC114" s="178"/>
+      <c r="AD114" s="235"/>
       <c r="AE114" s="117"/>
-      <c r="AF114" s="231"/>
+      <c r="AF114" s="164"/>
     </row>
     <row r="115" spans="1:32" s="12" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A115" s="175" t="s">
+      <c r="A115" s="230" t="s">
         <v>131</v>
       </c>
       <c r="B115" s="93" t="s">
@@ -14435,7 +14448,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC115" s="200" t="str">
+      <c r="AC115" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D116&gt;D115," * F05-13 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-12"&amp;CHAR(10),""),IF(E116&gt;E115," * F05-13 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-12"&amp;CHAR(10),""),
@@ -14454,12 +14467,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD115" s="187"/>
+      <c r="AD115" s="235"/>
       <c r="AE115" s="117"/>
-      <c r="AF115" s="231"/>
+      <c r="AF115" s="164"/>
     </row>
     <row r="116" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A116" s="176"/>
+      <c r="A116" s="231"/>
       <c r="B116" s="93" t="s">
         <v>351</v>
       </c>
@@ -14494,13 +14507,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC116" s="201"/>
-      <c r="AD116" s="187"/>
+      <c r="AC116" s="178"/>
+      <c r="AD116" s="235"/>
       <c r="AE116" s="117"/>
-      <c r="AF116" s="231"/>
+      <c r="AF116" s="164"/>
     </row>
     <row r="117" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A117" s="176"/>
+      <c r="A117" s="231"/>
       <c r="B117" s="93" t="s">
         <v>565</v>
       </c>
@@ -14554,12 +14567,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD117" s="187"/>
+      <c r="AD117" s="235"/>
       <c r="AE117" s="117"/>
-      <c r="AF117" s="231"/>
+      <c r="AF117" s="164"/>
     </row>
     <row r="118" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A118" s="176"/>
+      <c r="A118" s="231"/>
       <c r="B118" s="104" t="s">
         <v>566</v>
       </c>
@@ -14613,124 +14626,124 @@
 )</f>
         <v/>
       </c>
-      <c r="AD118" s="183"/>
+      <c r="AD118" s="228"/>
       <c r="AE118" s="119"/>
-      <c r="AF118" s="231"/>
+      <c r="AF118" s="164"/>
     </row>
     <row r="119" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A119" s="237" t="s">
+      <c r="A119" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="B119" s="237"/>
-      <c r="C119" s="237"/>
-      <c r="D119" s="237"/>
-      <c r="E119" s="237"/>
-      <c r="F119" s="237"/>
-      <c r="G119" s="237"/>
-      <c r="H119" s="237"/>
-      <c r="I119" s="237"/>
-      <c r="J119" s="237"/>
-      <c r="K119" s="237"/>
-      <c r="L119" s="237"/>
-      <c r="M119" s="237"/>
-      <c r="N119" s="237"/>
-      <c r="O119" s="237"/>
-      <c r="P119" s="237"/>
-      <c r="Q119" s="237"/>
-      <c r="R119" s="237"/>
-      <c r="S119" s="237"/>
-      <c r="T119" s="237"/>
-      <c r="U119" s="237"/>
-      <c r="V119" s="237"/>
-      <c r="W119" s="237"/>
-      <c r="X119" s="237"/>
-      <c r="Y119" s="237"/>
-      <c r="Z119" s="237"/>
-      <c r="AA119" s="237"/>
-      <c r="AB119" s="237"/>
-      <c r="AC119" s="237"/>
-      <c r="AD119" s="237"/>
-      <c r="AE119" s="237"/>
-      <c r="AF119" s="237"/>
+      <c r="B119" s="170"/>
+      <c r="C119" s="170"/>
+      <c r="D119" s="170"/>
+      <c r="E119" s="170"/>
+      <c r="F119" s="170"/>
+      <c r="G119" s="170"/>
+      <c r="H119" s="170"/>
+      <c r="I119" s="170"/>
+      <c r="J119" s="170"/>
+      <c r="K119" s="170"/>
+      <c r="L119" s="170"/>
+      <c r="M119" s="170"/>
+      <c r="N119" s="170"/>
+      <c r="O119" s="170"/>
+      <c r="P119" s="170"/>
+      <c r="Q119" s="170"/>
+      <c r="R119" s="170"/>
+      <c r="S119" s="170"/>
+      <c r="T119" s="170"/>
+      <c r="U119" s="170"/>
+      <c r="V119" s="170"/>
+      <c r="W119" s="170"/>
+      <c r="X119" s="170"/>
+      <c r="Y119" s="170"/>
+      <c r="Z119" s="170"/>
+      <c r="AA119" s="170"/>
+      <c r="AB119" s="170"/>
+      <c r="AC119" s="170"/>
+      <c r="AD119" s="170"/>
+      <c r="AE119" s="170"/>
+      <c r="AF119" s="170"/>
     </row>
     <row r="120" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A120" s="181" t="s">
+      <c r="A120" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B120" s="181" t="s">
+      <c r="B120" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C120" s="179" t="s">
+      <c r="C120" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D120" s="178" t="s">
+      <c r="D120" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="170"/>
-      <c r="F120" s="169" t="s">
+      <c r="E120" s="183"/>
+      <c r="F120" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="170"/>
-      <c r="H120" s="169" t="s">
+      <c r="G120" s="183"/>
+      <c r="H120" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I120" s="170"/>
-      <c r="J120" s="169" t="s">
+      <c r="I120" s="183"/>
+      <c r="J120" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K120" s="170"/>
-      <c r="L120" s="169" t="s">
+      <c r="K120" s="183"/>
+      <c r="L120" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M120" s="170"/>
-      <c r="N120" s="169" t="s">
+      <c r="M120" s="183"/>
+      <c r="N120" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O120" s="170"/>
-      <c r="P120" s="169" t="s">
+      <c r="O120" s="183"/>
+      <c r="P120" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q120" s="170"/>
-      <c r="R120" s="169" t="s">
+      <c r="Q120" s="183"/>
+      <c r="R120" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S120" s="170"/>
-      <c r="T120" s="169" t="s">
+      <c r="S120" s="183"/>
+      <c r="T120" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U120" s="170"/>
-      <c r="V120" s="169" t="s">
+      <c r="U120" s="183"/>
+      <c r="V120" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W120" s="170"/>
-      <c r="X120" s="169" t="s">
+      <c r="W120" s="183"/>
+      <c r="X120" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y120" s="170"/>
-      <c r="Z120" s="169" t="s">
+      <c r="Y120" s="183"/>
+      <c r="Z120" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA120" s="170"/>
-      <c r="AB120" s="171" t="s">
+      <c r="AA120" s="183"/>
+      <c r="AB120" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC120" s="186" t="s">
+      <c r="AC120" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD120" s="186" t="s">
+      <c r="AD120" s="176" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE120" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AE120" s="168" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF120" s="168" t="s">
-        <v>640</v>
+      <c r="AF120" s="166" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="121" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A121" s="182"/>
-      <c r="B121" s="182"/>
-      <c r="C121" s="180"/>
+      <c r="A121" s="201"/>
+      <c r="B121" s="201"/>
+      <c r="C121" s="191"/>
       <c r="D121" s="73" t="s">
         <v>14</v>
       </c>
@@ -14803,11 +14816,11 @@
       <c r="AA121" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB121" s="172"/>
-      <c r="AC121" s="186"/>
-      <c r="AD121" s="186"/>
-      <c r="AE121" s="168"/>
-      <c r="AF121" s="168"/>
+      <c r="AB121" s="203"/>
+      <c r="AC121" s="176"/>
+      <c r="AD121" s="176"/>
+      <c r="AE121" s="166"/>
+      <c r="AF121" s="166"/>
     </row>
     <row r="122" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A122" s="69" t="s">
@@ -14866,22 +14879,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD122" s="183" t="str">
+      <c r="AD122" s="228" t="str">
         <f>CONCATENATE(AC122,AC123,AC124,AC125,AC126,AC128,AC130,AC132)</f>
         <v/>
       </c>
-      <c r="AE122" s="116" t="str">
-        <f xml:space="preserve">
-CONCATENATE(IF(AB122&gt;AB124," * New ANC is greater than initial test at ANC "&amp;CHAR(10),""),"")</f>
-        <v/>
-      </c>
-      <c r="AF122" s="231" t="str">
+      <c r="AE122" s="116"/>
+      <c r="AF122" s="164" t="str">
         <f>CONCATENATE(AE122,AE123,AE124,AE125,AE126,AE127,AE128,AE129,AE130,AE131,AE132,AE133)</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A123" s="173" t="s">
+      <c r="A123" s="206" t="s">
         <v>46</v>
       </c>
       <c r="B123" s="15" t="s">
@@ -14937,7 +14946,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD123" s="184"/>
+      <c r="AD123" s="229"/>
       <c r="AE123" s="116" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -14957,10 +14966,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF123" s="231"/>
+      <c r="AF123" s="164"/>
     </row>
     <row r="124" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A124" s="195"/>
+      <c r="A124" s="207"/>
       <c r="B124" s="15" t="s">
         <v>569</v>
       </c>
@@ -15014,12 +15023,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD124" s="184"/>
+      <c r="AD124" s="229"/>
       <c r="AE124" s="117"/>
-      <c r="AF124" s="231"/>
+      <c r="AF124" s="164"/>
     </row>
     <row r="125" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A125" s="195"/>
+      <c r="A125" s="207"/>
       <c r="B125" s="15" t="s">
         <v>570</v>
       </c>
@@ -15073,12 +15082,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD125" s="184"/>
+      <c r="AD125" s="229"/>
       <c r="AE125" s="117"/>
-      <c r="AF125" s="231"/>
+      <c r="AF125" s="164"/>
     </row>
     <row r="126" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A126" s="195"/>
+      <c r="A126" s="207"/>
       <c r="B126" s="15" t="s">
         <v>571</v>
       </c>
@@ -15113,7 +15122,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC126" s="200" t="str">
+      <c r="AC126" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D127&gt;D126," * F06-06 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-05"&amp;CHAR(10),""),IF(E127&gt;E126," * F06-06 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-05"&amp;CHAR(10),""),
@@ -15132,14 +15141,14 @@
 )</f>
         <v/>
       </c>
-      <c r="AD126" s="184"/>
+      <c r="AD126" s="229"/>
       <c r="AE126" s="117"/>
-      <c r="AF126" s="231"/>
+      <c r="AF126" s="164"/>
     </row>
     <row r="127" spans="1:32" s="10" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A127" s="195"/>
+      <c r="A127" s="207"/>
       <c r="B127" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C127" s="81" t="s">
         <v>367</v>
@@ -15172,13 +15181,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC127" s="201"/>
-      <c r="AD127" s="184"/>
+      <c r="AC127" s="178"/>
+      <c r="AD127" s="229"/>
       <c r="AE127" s="117"/>
-      <c r="AF127" s="231"/>
+      <c r="AF127" s="164"/>
     </row>
     <row r="128" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A128" s="195"/>
+      <c r="A128" s="207"/>
       <c r="B128" s="15" t="s">
         <v>572</v>
       </c>
@@ -15213,7 +15222,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC128" s="200" t="str">
+      <c r="AC128" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D129&gt;D128," * F06-08 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-07"&amp;CHAR(10),""),IF(E129&gt;E128," * F06-08 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-07"&amp;CHAR(10),""),
@@ -15232,14 +15241,14 @@
 )</f>
         <v/>
       </c>
-      <c r="AD128" s="184"/>
+      <c r="AD128" s="229"/>
       <c r="AE128" s="117"/>
-      <c r="AF128" s="231"/>
+      <c r="AF128" s="164"/>
     </row>
     <row r="129" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A129" s="195"/>
+      <c r="A129" s="207"/>
       <c r="B129" s="15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C129" s="81" t="s">
         <v>619</v>
@@ -15272,13 +15281,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC129" s="201"/>
-      <c r="AD129" s="184"/>
+      <c r="AC129" s="178"/>
+      <c r="AD129" s="229"/>
       <c r="AE129" s="117"/>
-      <c r="AF129" s="231"/>
+      <c r="AF129" s="164"/>
     </row>
     <row r="130" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A130" s="195"/>
+      <c r="A130" s="207"/>
       <c r="B130" s="15" t="s">
         <v>573</v>
       </c>
@@ -15313,7 +15322,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC130" s="200" t="str">
+      <c r="AC130" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D131&gt;D130," * F06-10 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-09"&amp;CHAR(10),""),IF(E131&gt;E130," * F06-10 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-09"&amp;CHAR(10),""),
@@ -15332,14 +15341,14 @@
 )</f>
         <v/>
       </c>
-      <c r="AD130" s="184"/>
+      <c r="AD130" s="229"/>
       <c r="AE130" s="117"/>
-      <c r="AF130" s="231"/>
+      <c r="AF130" s="164"/>
     </row>
     <row r="131" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A131" s="195"/>
+      <c r="A131" s="207"/>
       <c r="B131" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C131" s="81" t="s">
         <v>377</v>
@@ -15372,13 +15381,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC131" s="201"/>
-      <c r="AD131" s="184"/>
+      <c r="AC131" s="178"/>
+      <c r="AD131" s="229"/>
       <c r="AE131" s="117"/>
-      <c r="AF131" s="231"/>
+      <c r="AF131" s="164"/>
     </row>
     <row r="132" spans="1:32" s="10" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A132" s="196" t="s">
+      <c r="A132" s="237" t="s">
         <v>149</v>
       </c>
       <c r="B132" s="15" t="s">
@@ -15415,7 +15424,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC132" s="200" t="str">
+      <c r="AC132" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D133&gt;D132," * F06-12 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-11"&amp;CHAR(10),""),IF(E133&gt;E132," * F06-12 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-11"&amp;CHAR(10),""),
@@ -15434,12 +15443,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD132" s="184"/>
+      <c r="AD132" s="229"/>
       <c r="AE132" s="117"/>
-      <c r="AF132" s="231"/>
+      <c r="AF132" s="164"/>
     </row>
     <row r="133" spans="1:32" s="10" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A133" s="197"/>
+      <c r="A133" s="238"/>
       <c r="B133" s="99" t="s">
         <v>575</v>
       </c>
@@ -15474,125 +15483,125 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC133" s="202"/>
-      <c r="AD133" s="184"/>
+      <c r="AC133" s="227"/>
+      <c r="AD133" s="229"/>
       <c r="AE133" s="119"/>
-      <c r="AF133" s="231"/>
+      <c r="AF133" s="164"/>
     </row>
     <row r="134" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A134" s="237" t="s">
+      <c r="A134" s="170" t="s">
         <v>154</v>
       </c>
-      <c r="B134" s="237"/>
-      <c r="C134" s="237"/>
-      <c r="D134" s="237"/>
-      <c r="E134" s="237"/>
-      <c r="F134" s="237"/>
-      <c r="G134" s="237"/>
-      <c r="H134" s="237"/>
-      <c r="I134" s="237"/>
-      <c r="J134" s="237"/>
-      <c r="K134" s="237"/>
-      <c r="L134" s="237"/>
-      <c r="M134" s="237"/>
-      <c r="N134" s="237"/>
-      <c r="O134" s="237"/>
-      <c r="P134" s="237"/>
-      <c r="Q134" s="237"/>
-      <c r="R134" s="237"/>
-      <c r="S134" s="237"/>
-      <c r="T134" s="237"/>
-      <c r="U134" s="237"/>
-      <c r="V134" s="237"/>
-      <c r="W134" s="237"/>
-      <c r="X134" s="237"/>
-      <c r="Y134" s="237"/>
-      <c r="Z134" s="237"/>
-      <c r="AA134" s="237"/>
-      <c r="AB134" s="237"/>
-      <c r="AC134" s="237"/>
-      <c r="AD134" s="237"/>
-      <c r="AE134" s="237"/>
-      <c r="AF134" s="237"/>
+      <c r="B134" s="170"/>
+      <c r="C134" s="170"/>
+      <c r="D134" s="170"/>
+      <c r="E134" s="170"/>
+      <c r="F134" s="170"/>
+      <c r="G134" s="170"/>
+      <c r="H134" s="170"/>
+      <c r="I134" s="170"/>
+      <c r="J134" s="170"/>
+      <c r="K134" s="170"/>
+      <c r="L134" s="170"/>
+      <c r="M134" s="170"/>
+      <c r="N134" s="170"/>
+      <c r="O134" s="170"/>
+      <c r="P134" s="170"/>
+      <c r="Q134" s="170"/>
+      <c r="R134" s="170"/>
+      <c r="S134" s="170"/>
+      <c r="T134" s="170"/>
+      <c r="U134" s="170"/>
+      <c r="V134" s="170"/>
+      <c r="W134" s="170"/>
+      <c r="X134" s="170"/>
+      <c r="Y134" s="170"/>
+      <c r="Z134" s="170"/>
+      <c r="AA134" s="170"/>
+      <c r="AB134" s="170"/>
+      <c r="AC134" s="170"/>
+      <c r="AD134" s="170"/>
+      <c r="AE134" s="170"/>
+      <c r="AF134" s="170"/>
     </row>
     <row r="135" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A135" s="181" t="s">
+      <c r="A135" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B135" s="181" t="s">
+      <c r="B135" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C135" s="179" t="s">
+      <c r="C135" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D135" s="178" t="s">
+      <c r="D135" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="170"/>
-      <c r="F135" s="169" t="s">
+      <c r="E135" s="183"/>
+      <c r="F135" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="170"/>
-      <c r="H135" s="169" t="s">
+      <c r="G135" s="183"/>
+      <c r="H135" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I135" s="170"/>
-      <c r="J135" s="169" t="s">
+      <c r="I135" s="183"/>
+      <c r="J135" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K135" s="170"/>
-      <c r="L135" s="169" t="s">
+      <c r="K135" s="183"/>
+      <c r="L135" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M135" s="170"/>
-      <c r="N135" s="169" t="s">
+      <c r="M135" s="183"/>
+      <c r="N135" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O135" s="170"/>
-      <c r="P135" s="169" t="s">
+      <c r="O135" s="183"/>
+      <c r="P135" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q135" s="170"/>
-      <c r="R135" s="169" t="s">
+      <c r="Q135" s="183"/>
+      <c r="R135" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S135" s="170"/>
-      <c r="T135" s="169" t="s">
+      <c r="S135" s="183"/>
+      <c r="T135" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U135" s="170"/>
-      <c r="V135" s="169" t="s">
+      <c r="U135" s="183"/>
+      <c r="V135" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W135" s="170"/>
-      <c r="X135" s="169" t="s">
+      <c r="W135" s="183"/>
+      <c r="X135" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y135" s="170"/>
-      <c r="Z135" s="169" t="s">
+      <c r="Y135" s="183"/>
+      <c r="Z135" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA135" s="170"/>
-      <c r="AB135" s="171" t="s">
+      <c r="AA135" s="183"/>
+      <c r="AB135" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC135" s="186" t="s">
+      <c r="AC135" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD135" s="186" t="s">
+      <c r="AD135" s="176" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE135" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AE135" s="168" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF135" s="168" t="s">
-        <v>640</v>
+      <c r="AF135" s="166" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="136" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A136" s="182"/>
-      <c r="B136" s="182"/>
-      <c r="C136" s="180"/>
+      <c r="A136" s="201"/>
+      <c r="B136" s="201"/>
+      <c r="C136" s="191"/>
       <c r="D136" s="73" t="s">
         <v>14</v>
       </c>
@@ -15665,14 +15674,14 @@
       <c r="AA136" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB136" s="172"/>
-      <c r="AC136" s="186"/>
-      <c r="AD136" s="186"/>
-      <c r="AE136" s="168"/>
-      <c r="AF136" s="168"/>
+      <c r="AB136" s="203"/>
+      <c r="AC136" s="176"/>
+      <c r="AD136" s="176"/>
+      <c r="AE136" s="166"/>
+      <c r="AF136" s="166"/>
     </row>
     <row r="137" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A137" s="188" t="s">
+      <c r="A137" s="187" t="s">
         <v>35</v>
       </c>
       <c r="B137" s="15" t="s">
@@ -15710,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AC137" s="112"/>
-      <c r="AD137" s="183" t="str">
+      <c r="AD137" s="228" t="str">
         <f>CONCATENATE(AC137,AC138,AC139,AC140,AC141,AC142,AC143,AC144)</f>
         <v/>
       </c>
@@ -15733,13 +15742,13 @@
 )</f>
         <v/>
       </c>
-      <c r="AF137" s="231" t="str">
+      <c r="AF137" s="164" t="str">
         <f>CONCATENATE(AE137,AE138,AE139,AE140,AE141,AE142,AE143,AE144)</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A138" s="188"/>
+      <c r="A138" s="187"/>
       <c r="B138" s="15" t="s">
         <v>577</v>
       </c>
@@ -15793,7 +15802,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD138" s="184"/>
+      <c r="AD138" s="229"/>
       <c r="AE138" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15813,10 +15822,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF138" s="231"/>
+      <c r="AF138" s="164"/>
     </row>
     <row r="139" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A139" s="188"/>
+      <c r="A139" s="187"/>
       <c r="B139" s="15" t="s">
         <v>578</v>
       </c>
@@ -15870,7 +15879,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD139" s="184"/>
+      <c r="AD139" s="229"/>
       <c r="AE139" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15890,10 +15899,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF139" s="231"/>
+      <c r="AF139" s="164"/>
     </row>
     <row r="140" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A140" s="188"/>
+      <c r="A140" s="187"/>
       <c r="B140" s="15" t="s">
         <v>579</v>
       </c>
@@ -15947,7 +15956,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD140" s="184"/>
+      <c r="AD140" s="229"/>
       <c r="AE140" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15967,10 +15976,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF140" s="231"/>
+      <c r="AF140" s="164"/>
     </row>
     <row r="141" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A141" s="188"/>
+      <c r="A141" s="187"/>
       <c r="B141" s="15" t="s">
         <v>580</v>
       </c>
@@ -16006,12 +16015,12 @@
         <v>0</v>
       </c>
       <c r="AC141" s="112"/>
-      <c r="AD141" s="184"/>
+      <c r="AD141" s="229"/>
       <c r="AE141" s="117"/>
-      <c r="AF141" s="231"/>
+      <c r="AF141" s="164"/>
     </row>
     <row r="142" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A142" s="188" t="s">
+      <c r="A142" s="187" t="s">
         <v>145</v>
       </c>
       <c r="B142" s="15" t="s">
@@ -16067,7 +16076,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD142" s="184"/>
+      <c r="AD142" s="229"/>
       <c r="AE142" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16087,10 +16096,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF142" s="231"/>
+      <c r="AF142" s="164"/>
     </row>
     <row r="143" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A143" s="188"/>
+      <c r="A143" s="187"/>
       <c r="B143" s="15" t="s">
         <v>581</v>
       </c>
@@ -16144,7 +16153,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD143" s="184"/>
+      <c r="AD143" s="229"/>
       <c r="AE143" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16164,10 +16173,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF143" s="231"/>
+      <c r="AF143" s="164"/>
     </row>
     <row r="144" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A144" s="173"/>
+      <c r="A144" s="206"/>
       <c r="B144" s="99" t="s">
         <v>582</v>
       </c>
@@ -16221,7 +16230,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD144" s="184"/>
+      <c r="AD144" s="229"/>
       <c r="AE144" s="119" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16241,122 +16250,122 @@
 )</f>
         <v/>
       </c>
-      <c r="AF144" s="231"/>
+      <c r="AF144" s="164"/>
     </row>
     <row r="145" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A145" s="237" t="s">
+      <c r="A145" s="170" t="s">
         <v>156</v>
       </c>
-      <c r="B145" s="237"/>
-      <c r="C145" s="237"/>
-      <c r="D145" s="237"/>
-      <c r="E145" s="237"/>
-      <c r="F145" s="237"/>
-      <c r="G145" s="237"/>
-      <c r="H145" s="237"/>
-      <c r="I145" s="237"/>
-      <c r="J145" s="237"/>
-      <c r="K145" s="237"/>
-      <c r="L145" s="237"/>
-      <c r="M145" s="237"/>
-      <c r="N145" s="237"/>
-      <c r="O145" s="237"/>
-      <c r="P145" s="237"/>
-      <c r="Q145" s="237"/>
-      <c r="R145" s="237"/>
-      <c r="S145" s="237"/>
-      <c r="T145" s="237"/>
-      <c r="U145" s="237"/>
-      <c r="V145" s="237"/>
-      <c r="W145" s="237"/>
-      <c r="X145" s="237"/>
-      <c r="Y145" s="237"/>
-      <c r="Z145" s="237"/>
-      <c r="AA145" s="237"/>
-      <c r="AB145" s="237"/>
-      <c r="AC145" s="237"/>
-      <c r="AD145" s="237"/>
-      <c r="AE145" s="237"/>
-      <c r="AF145" s="237"/>
+      <c r="B145" s="170"/>
+      <c r="C145" s="170"/>
+      <c r="D145" s="170"/>
+      <c r="E145" s="170"/>
+      <c r="F145" s="170"/>
+      <c r="G145" s="170"/>
+      <c r="H145" s="170"/>
+      <c r="I145" s="170"/>
+      <c r="J145" s="170"/>
+      <c r="K145" s="170"/>
+      <c r="L145" s="170"/>
+      <c r="M145" s="170"/>
+      <c r="N145" s="170"/>
+      <c r="O145" s="170"/>
+      <c r="P145" s="170"/>
+      <c r="Q145" s="170"/>
+      <c r="R145" s="170"/>
+      <c r="S145" s="170"/>
+      <c r="T145" s="170"/>
+      <c r="U145" s="170"/>
+      <c r="V145" s="170"/>
+      <c r="W145" s="170"/>
+      <c r="X145" s="170"/>
+      <c r="Y145" s="170"/>
+      <c r="Z145" s="170"/>
+      <c r="AA145" s="170"/>
+      <c r="AB145" s="170"/>
+      <c r="AC145" s="170"/>
+      <c r="AD145" s="170"/>
+      <c r="AE145" s="170"/>
+      <c r="AF145" s="170"/>
     </row>
     <row r="146" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A146" s="181" t="s">
+      <c r="A146" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B146" s="181" t="s">
+      <c r="B146" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C146" s="179" t="s">
+      <c r="C146" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D146" s="178" t="s">
+      <c r="D146" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E146" s="170"/>
-      <c r="F146" s="169" t="s">
+      <c r="E146" s="183"/>
+      <c r="F146" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G146" s="170"/>
-      <c r="H146" s="169" t="s">
+      <c r="G146" s="183"/>
+      <c r="H146" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I146" s="170"/>
-      <c r="J146" s="169" t="s">
+      <c r="I146" s="183"/>
+      <c r="J146" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K146" s="170"/>
-      <c r="L146" s="169" t="s">
+      <c r="K146" s="183"/>
+      <c r="L146" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M146" s="170"/>
-      <c r="N146" s="169" t="s">
+      <c r="M146" s="183"/>
+      <c r="N146" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O146" s="170"/>
-      <c r="P146" s="169" t="s">
+      <c r="O146" s="183"/>
+      <c r="P146" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q146" s="170"/>
-      <c r="R146" s="169" t="s">
+      <c r="Q146" s="183"/>
+      <c r="R146" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S146" s="170"/>
-      <c r="T146" s="169" t="s">
+      <c r="S146" s="183"/>
+      <c r="T146" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U146" s="170"/>
-      <c r="V146" s="169" t="s">
+      <c r="U146" s="183"/>
+      <c r="V146" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W146" s="170"/>
-      <c r="X146" s="169" t="s">
+      <c r="W146" s="183"/>
+      <c r="X146" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y146" s="170"/>
-      <c r="Z146" s="169" t="s">
+      <c r="Y146" s="183"/>
+      <c r="Z146" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA146" s="170"/>
-      <c r="AB146" s="204" t="s">
+      <c r="AA146" s="183"/>
+      <c r="AB146" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="AC146" s="198" t="s">
+      <c r="AC146" s="226" t="s">
         <v>628</v>
       </c>
-      <c r="AD146" s="186" t="s">
+      <c r="AD146" s="176" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE146" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AE146" s="168" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF146" s="168" t="s">
-        <v>640</v>
+      <c r="AF146" s="166" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="147" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A147" s="182"/>
-      <c r="B147" s="182"/>
-      <c r="C147" s="180"/>
+      <c r="A147" s="201"/>
+      <c r="B147" s="201"/>
+      <c r="C147" s="191"/>
       <c r="D147" s="73" t="s">
         <v>14</v>
       </c>
@@ -16429,14 +16438,14 @@
       <c r="AA147" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB147" s="205"/>
-      <c r="AC147" s="199"/>
-      <c r="AD147" s="186"/>
-      <c r="AE147" s="168"/>
-      <c r="AF147" s="168"/>
+      <c r="AB147" s="225"/>
+      <c r="AC147" s="193"/>
+      <c r="AD147" s="176"/>
+      <c r="AE147" s="166"/>
+      <c r="AF147" s="166"/>
     </row>
     <row r="148" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A148" s="173" t="s">
+      <c r="A148" s="206" t="s">
         <v>47</v>
       </c>
       <c r="B148" s="15" t="s">
@@ -16492,7 +16501,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD148" s="183" t="str">
+      <c r="AD148" s="228" t="str">
         <f>CONCATENATE(AC148,AC149,AC150,AC151)</f>
         <v/>
       </c>
@@ -16515,13 +16524,13 @@
 )</f>
         <v/>
       </c>
-      <c r="AF148" s="231" t="str">
+      <c r="AF148" s="164" t="str">
         <f>CONCATENATE(AE148,AE149,AE150,AE151)</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:32" s="10" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A149" s="195"/>
+      <c r="A149" s="207"/>
       <c r="B149" s="94" t="s">
         <v>584</v>
       </c>
@@ -16575,7 +16584,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD149" s="184"/>
+      <c r="AD149" s="229"/>
       <c r="AE149" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16583,10 +16592,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF149" s="231"/>
+      <c r="AF149" s="164"/>
     </row>
     <row r="150" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A150" s="195"/>
+      <c r="A150" s="207"/>
       <c r="B150" s="15" t="s">
         <v>585</v>
       </c>
@@ -16622,12 +16631,12 @@
         <v>0</v>
       </c>
       <c r="AC150" s="112"/>
-      <c r="AD150" s="184"/>
+      <c r="AD150" s="229"/>
       <c r="AE150" s="117"/>
-      <c r="AF150" s="231"/>
+      <c r="AF150" s="164"/>
     </row>
     <row r="151" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A151" s="195"/>
+      <c r="A151" s="207"/>
       <c r="B151" s="99" t="s">
         <v>586</v>
       </c>
@@ -16681,124 +16690,124 @@
 )</f>
         <v/>
       </c>
-      <c r="AD151" s="184"/>
+      <c r="AD151" s="229"/>
       <c r="AE151" s="119"/>
-      <c r="AF151" s="231"/>
+      <c r="AF151" s="164"/>
     </row>
     <row r="152" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A152" s="237" t="s">
+      <c r="A152" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="237"/>
-      <c r="C152" s="237"/>
-      <c r="D152" s="237"/>
-      <c r="E152" s="237"/>
-      <c r="F152" s="237"/>
-      <c r="G152" s="237"/>
-      <c r="H152" s="237"/>
-      <c r="I152" s="237"/>
-      <c r="J152" s="237"/>
-      <c r="K152" s="237"/>
-      <c r="L152" s="237"/>
-      <c r="M152" s="237"/>
-      <c r="N152" s="237"/>
-      <c r="O152" s="237"/>
-      <c r="P152" s="237"/>
-      <c r="Q152" s="237"/>
-      <c r="R152" s="237"/>
-      <c r="S152" s="237"/>
-      <c r="T152" s="237"/>
-      <c r="U152" s="237"/>
-      <c r="V152" s="237"/>
-      <c r="W152" s="237"/>
-      <c r="X152" s="237"/>
-      <c r="Y152" s="237"/>
-      <c r="Z152" s="237"/>
-      <c r="AA152" s="237"/>
-      <c r="AB152" s="237"/>
-      <c r="AC152" s="237"/>
-      <c r="AD152" s="237"/>
-      <c r="AE152" s="237"/>
-      <c r="AF152" s="237"/>
+      <c r="B152" s="170"/>
+      <c r="C152" s="170"/>
+      <c r="D152" s="170"/>
+      <c r="E152" s="170"/>
+      <c r="F152" s="170"/>
+      <c r="G152" s="170"/>
+      <c r="H152" s="170"/>
+      <c r="I152" s="170"/>
+      <c r="J152" s="170"/>
+      <c r="K152" s="170"/>
+      <c r="L152" s="170"/>
+      <c r="M152" s="170"/>
+      <c r="N152" s="170"/>
+      <c r="O152" s="170"/>
+      <c r="P152" s="170"/>
+      <c r="Q152" s="170"/>
+      <c r="R152" s="170"/>
+      <c r="S152" s="170"/>
+      <c r="T152" s="170"/>
+      <c r="U152" s="170"/>
+      <c r="V152" s="170"/>
+      <c r="W152" s="170"/>
+      <c r="X152" s="170"/>
+      <c r="Y152" s="170"/>
+      <c r="Z152" s="170"/>
+      <c r="AA152" s="170"/>
+      <c r="AB152" s="170"/>
+      <c r="AC152" s="170"/>
+      <c r="AD152" s="170"/>
+      <c r="AE152" s="170"/>
+      <c r="AF152" s="170"/>
     </row>
     <row r="153" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A153" s="181" t="s">
+      <c r="A153" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B153" s="181" t="s">
+      <c r="B153" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C153" s="179" t="s">
+      <c r="C153" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D153" s="178" t="s">
+      <c r="D153" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E153" s="170"/>
-      <c r="F153" s="169" t="s">
+      <c r="E153" s="183"/>
+      <c r="F153" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G153" s="170"/>
-      <c r="H153" s="169" t="s">
+      <c r="G153" s="183"/>
+      <c r="H153" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I153" s="170"/>
-      <c r="J153" s="169" t="s">
+      <c r="I153" s="183"/>
+      <c r="J153" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K153" s="170"/>
-      <c r="L153" s="169" t="s">
+      <c r="K153" s="183"/>
+      <c r="L153" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M153" s="170"/>
-      <c r="N153" s="169" t="s">
+      <c r="M153" s="183"/>
+      <c r="N153" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O153" s="170"/>
-      <c r="P153" s="169" t="s">
+      <c r="O153" s="183"/>
+      <c r="P153" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q153" s="170"/>
-      <c r="R153" s="169" t="s">
+      <c r="Q153" s="183"/>
+      <c r="R153" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S153" s="170"/>
-      <c r="T153" s="169" t="s">
+      <c r="S153" s="183"/>
+      <c r="T153" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U153" s="170"/>
-      <c r="V153" s="169" t="s">
+      <c r="U153" s="183"/>
+      <c r="V153" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W153" s="170"/>
-      <c r="X153" s="169" t="s">
+      <c r="W153" s="183"/>
+      <c r="X153" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y153" s="170"/>
-      <c r="Z153" s="169" t="s">
+      <c r="Y153" s="183"/>
+      <c r="Z153" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA153" s="170"/>
-      <c r="AB153" s="204" t="s">
+      <c r="AA153" s="183"/>
+      <c r="AB153" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="AC153" s="198" t="s">
+      <c r="AC153" s="226" t="s">
         <v>628</v>
       </c>
-      <c r="AD153" s="186" t="s">
+      <c r="AD153" s="176" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE153" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AE153" s="168" t="s">
-        <v>640</v>
-      </c>
-      <c r="AF153" s="168" t="s">
-        <v>640</v>
+      <c r="AF153" s="166" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="154" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A154" s="182"/>
-      <c r="B154" s="182"/>
-      <c r="C154" s="180"/>
+      <c r="A154" s="201"/>
+      <c r="B154" s="201"/>
+      <c r="C154" s="191"/>
       <c r="D154" s="73" t="s">
         <v>14</v>
       </c>
@@ -16871,14 +16880,14 @@
       <c r="AA154" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB154" s="205"/>
-      <c r="AC154" s="199"/>
-      <c r="AD154" s="186"/>
-      <c r="AE154" s="168"/>
-      <c r="AF154" s="168"/>
+      <c r="AB154" s="225"/>
+      <c r="AC154" s="193"/>
+      <c r="AD154" s="176"/>
+      <c r="AE154" s="166"/>
+      <c r="AF154" s="166"/>
     </row>
     <row r="155" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A155" s="173" t="s">
+      <c r="A155" s="206" t="s">
         <v>36</v>
       </c>
       <c r="B155" s="15" t="s">
@@ -16934,18 +16943,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD155" s="183" t="str">
+      <c r="AD155" s="228" t="str">
         <f>CONCATENATE(AC155,AC156,AC157,AC158,AC159,AC160,AC161,AC162,AC163,AC164,AC165)</f>
         <v/>
       </c>
       <c r="AE155" s="117"/>
-      <c r="AF155" s="231" t="str">
+      <c r="AF155" s="164" t="str">
         <f>CONCATENATE(AE155,AE156,AE157,AE158,AE159,AE160,AE161,AE162,AE163,AE164,AE165)</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:32" s="10" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A156" s="195"/>
+      <c r="A156" s="207"/>
       <c r="B156" s="15" t="s">
         <v>430</v>
       </c>
@@ -16981,12 +16990,12 @@
         <v>0</v>
       </c>
       <c r="AC156" s="112"/>
-      <c r="AD156" s="184"/>
+      <c r="AD156" s="229"/>
       <c r="AE156" s="117"/>
-      <c r="AF156" s="231"/>
+      <c r="AF156" s="164"/>
     </row>
     <row r="157" spans="1:32" s="10" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A157" s="195"/>
+      <c r="A157" s="207"/>
       <c r="B157" s="15" t="s">
         <v>431</v>
       </c>
@@ -17022,12 +17031,12 @@
         <v>0</v>
       </c>
       <c r="AC157" s="112"/>
-      <c r="AD157" s="184"/>
+      <c r="AD157" s="229"/>
       <c r="AE157" s="117"/>
-      <c r="AF157" s="231"/>
+      <c r="AF157" s="164"/>
     </row>
     <row r="158" spans="1:32" s="10" customFormat="1" ht="88.35" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A158" s="174"/>
+      <c r="A158" s="208"/>
       <c r="B158" s="15" t="s">
         <v>588</v>
       </c>
@@ -17063,12 +17072,12 @@
         <v>0</v>
       </c>
       <c r="AC158" s="112"/>
-      <c r="AD158" s="184"/>
+      <c r="AD158" s="229"/>
       <c r="AE158" s="117"/>
-      <c r="AF158" s="231"/>
+      <c r="AF158" s="164"/>
     </row>
     <row r="159" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A159" s="188" t="s">
+      <c r="A159" s="187" t="s">
         <v>146</v>
       </c>
       <c r="B159" s="15" t="s">
@@ -17106,12 +17115,12 @@
         <v>0</v>
       </c>
       <c r="AC159" s="112"/>
-      <c r="AD159" s="184"/>
+      <c r="AD159" s="229"/>
       <c r="AE159" s="117"/>
-      <c r="AF159" s="231"/>
+      <c r="AF159" s="164"/>
     </row>
     <row r="160" spans="1:32" s="10" customFormat="1" ht="161.44999999999999" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A160" s="188"/>
+      <c r="A160" s="187"/>
       <c r="B160" s="15" t="s">
         <v>435</v>
       </c>
@@ -17147,12 +17156,12 @@
         <v>0</v>
       </c>
       <c r="AC160" s="112"/>
-      <c r="AD160" s="184"/>
+      <c r="AD160" s="229"/>
       <c r="AE160" s="117"/>
-      <c r="AF160" s="231"/>
+      <c r="AF160" s="164"/>
     </row>
     <row r="161" spans="1:32" s="10" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A161" s="188"/>
+      <c r="A161" s="187"/>
       <c r="B161" s="15" t="s">
         <v>590</v>
       </c>
@@ -17188,12 +17197,12 @@
         <v>0</v>
       </c>
       <c r="AC161" s="112"/>
-      <c r="AD161" s="184"/>
+      <c r="AD161" s="229"/>
       <c r="AE161" s="117"/>
-      <c r="AF161" s="231"/>
+      <c r="AF161" s="164"/>
     </row>
     <row r="162" spans="1:32" s="10" customFormat="1" ht="158.1" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A162" s="188"/>
+      <c r="A162" s="187"/>
       <c r="B162" s="15" t="s">
         <v>591</v>
       </c>
@@ -17229,12 +17238,12 @@
         <v>0</v>
       </c>
       <c r="AC162" s="112"/>
-      <c r="AD162" s="184"/>
+      <c r="AD162" s="229"/>
       <c r="AE162" s="117"/>
-      <c r="AF162" s="231"/>
+      <c r="AF162" s="164"/>
     </row>
     <row r="163" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A163" s="188"/>
+      <c r="A163" s="187"/>
       <c r="B163" s="15" t="s">
         <v>438</v>
       </c>
@@ -17270,12 +17279,12 @@
         <v>0</v>
       </c>
       <c r="AC163" s="112"/>
-      <c r="AD163" s="184"/>
+      <c r="AD163" s="229"/>
       <c r="AE163" s="117"/>
-      <c r="AF163" s="231"/>
+      <c r="AF163" s="164"/>
     </row>
     <row r="164" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A164" s="188"/>
+      <c r="A164" s="187"/>
       <c r="B164" s="15" t="s">
         <v>592</v>
       </c>
@@ -17311,12 +17320,12 @@
         <v>0</v>
       </c>
       <c r="AC164" s="112"/>
-      <c r="AD164" s="184"/>
+      <c r="AD164" s="229"/>
       <c r="AE164" s="117"/>
-      <c r="AF164" s="231"/>
+      <c r="AF164" s="164"/>
     </row>
     <row r="165" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="1">
-      <c r="A165" s="203"/>
+      <c r="A165" s="223"/>
       <c r="B165" s="95" t="s">
         <v>593</v>
       </c>
@@ -17352,9 +17361,9 @@
         <v>0</v>
       </c>
       <c r="AC165" s="115"/>
-      <c r="AD165" s="185"/>
+      <c r="AD165" s="234"/>
       <c r="AE165" s="117"/>
-      <c r="AF165" s="231"/>
+      <c r="AF165" s="164"/>
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.7">
       <c r="A166" s="6"/>
@@ -17394,8 +17403,277 @@
       <c r="M169" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4WZilSs7uZt/zlYIp3TlBPjgmiAmqsoltWO5wogQT3UYToi36AhdfZVmN12ELOcC/AOtey/lHB3w2vtCP9DAGA==" saltValue="P69NfVudgKBKdOdezb3AFA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BynSrhim50J2QUyv69Nt+cNNTuJZ6u+bY4YIVDRaOGqJ2Hqx5TdagcajrPce2b+kJX7io9jCzPXkbx29TRJ1Rg==" saltValue="AieI+8+e3npEf/6M/nSsPQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="293">
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AE153:AE154"/>
+    <mergeCell ref="X146:Y146"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="Z120:AA120"/>
+    <mergeCell ref="AB120:AB121"/>
+    <mergeCell ref="AB135:AB136"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AD102:AD103"/>
+    <mergeCell ref="AD83:AD100"/>
+    <mergeCell ref="AD81:AD82"/>
+    <mergeCell ref="AD68:AD79"/>
+    <mergeCell ref="AD66:AD67"/>
+    <mergeCell ref="AD48:AD64"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="P153:Q153"/>
+    <mergeCell ref="R153:S153"/>
+    <mergeCell ref="T153:U153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="AD155:AD165"/>
+    <mergeCell ref="AD148:AD151"/>
+    <mergeCell ref="AD137:AD144"/>
+    <mergeCell ref="AD135:AD136"/>
+    <mergeCell ref="AD146:AD147"/>
+    <mergeCell ref="AD153:AD154"/>
+    <mergeCell ref="AD122:AD133"/>
+    <mergeCell ref="AD120:AD121"/>
+    <mergeCell ref="AD104:AD118"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="AD46:AD47"/>
+    <mergeCell ref="AD40:AD44"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="A123:A131"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="R120:S120"/>
+    <mergeCell ref="T120:U120"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X120:Y120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="V102:W102"/>
+    <mergeCell ref="X102:Y102"/>
+    <mergeCell ref="Z102:AA102"/>
+    <mergeCell ref="AB102:AB103"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="V135:W135"/>
+    <mergeCell ref="X135:Y135"/>
+    <mergeCell ref="Z135:AA135"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="R135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="AC153:AC154"/>
+    <mergeCell ref="AC146:AC147"/>
+    <mergeCell ref="AC135:AC136"/>
+    <mergeCell ref="AC120:AC121"/>
+    <mergeCell ref="AC102:AC103"/>
+    <mergeCell ref="AC130:AC131"/>
+    <mergeCell ref="AC132:AC133"/>
+    <mergeCell ref="AC128:AC129"/>
+    <mergeCell ref="AC126:AC127"/>
+    <mergeCell ref="AC109:AC110"/>
+    <mergeCell ref="AC104:AC105"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="V153:W153"/>
+    <mergeCell ref="X153:Y153"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="Z146:AA146"/>
+    <mergeCell ref="AB146:AB147"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="R146:S146"/>
+    <mergeCell ref="T146:U146"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="Z153:AA153"/>
+    <mergeCell ref="AB153:AB154"/>
+    <mergeCell ref="V146:W146"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="AE81:AE82"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="AC66:AC67"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="AB81:AB82"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="D38:I39"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A4:AF4"/>
+    <mergeCell ref="AE46:AE47"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="AB66:AB67"/>
+    <mergeCell ref="AE66:AE67"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="AC53:AC54"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="AF68:AF79"/>
+    <mergeCell ref="AF83:AF100"/>
+    <mergeCell ref="AF104:AF118"/>
+    <mergeCell ref="AF122:AF133"/>
+    <mergeCell ref="AF137:AF144"/>
+    <mergeCell ref="AF148:AF151"/>
+    <mergeCell ref="AC48:AC49"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AE102:AE103"/>
+    <mergeCell ref="AE120:AE121"/>
+    <mergeCell ref="AC115:AC116"/>
+    <mergeCell ref="AC113:AC114"/>
+    <mergeCell ref="AC111:AC112"/>
+    <mergeCell ref="AC46:AC47"/>
+    <mergeCell ref="AD8:AD36"/>
+    <mergeCell ref="AE146:AE147"/>
+    <mergeCell ref="AE135:AE136"/>
     <mergeCell ref="AF155:AF165"/>
     <mergeCell ref="AF8:AF36"/>
     <mergeCell ref="AF6:AF7"/>
@@ -17420,275 +17698,6 @@
     <mergeCell ref="A37:AF37"/>
     <mergeCell ref="AF40:AF44"/>
     <mergeCell ref="AF48:AF64"/>
-    <mergeCell ref="AF68:AF79"/>
-    <mergeCell ref="AF83:AF100"/>
-    <mergeCell ref="AF104:AF118"/>
-    <mergeCell ref="AF122:AF133"/>
-    <mergeCell ref="AF137:AF144"/>
-    <mergeCell ref="AF148:AF151"/>
-    <mergeCell ref="AC48:AC49"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AE102:AE103"/>
-    <mergeCell ref="AE120:AE121"/>
-    <mergeCell ref="AC115:AC116"/>
-    <mergeCell ref="AC113:AC114"/>
-    <mergeCell ref="AC111:AC112"/>
-    <mergeCell ref="AC46:AC47"/>
-    <mergeCell ref="AD8:AD36"/>
-    <mergeCell ref="AE146:AE147"/>
-    <mergeCell ref="AE135:AE136"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="A2:AC2"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="AE46:AE47"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="AB66:AB67"/>
-    <mergeCell ref="AE66:AE67"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="AC53:AC54"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="D38:I39"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A4:AF4"/>
-    <mergeCell ref="AE81:AE82"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="AC66:AC67"/>
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="AB81:AB82"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="V153:W153"/>
-    <mergeCell ref="X153:Y153"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="Z146:AA146"/>
-    <mergeCell ref="AB146:AB147"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="L146:M146"/>
-    <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="R146:S146"/>
-    <mergeCell ref="T146:U146"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="Z153:AA153"/>
-    <mergeCell ref="AB153:AB154"/>
-    <mergeCell ref="V146:W146"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="AC153:AC154"/>
-    <mergeCell ref="AC146:AC147"/>
-    <mergeCell ref="AC135:AC136"/>
-    <mergeCell ref="AC120:AC121"/>
-    <mergeCell ref="AC102:AC103"/>
-    <mergeCell ref="AC130:AC131"/>
-    <mergeCell ref="AC132:AC133"/>
-    <mergeCell ref="AC128:AC129"/>
-    <mergeCell ref="AC126:AC127"/>
-    <mergeCell ref="AC109:AC110"/>
-    <mergeCell ref="AC104:AC105"/>
-    <mergeCell ref="V135:W135"/>
-    <mergeCell ref="X135:Y135"/>
-    <mergeCell ref="Z135:AA135"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="R135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="AD46:AD47"/>
-    <mergeCell ref="AD40:AD44"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="A123:A131"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="R120:S120"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="X120:Y120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="V102:W102"/>
-    <mergeCell ref="X102:Y102"/>
-    <mergeCell ref="Z102:AA102"/>
-    <mergeCell ref="AB102:AB103"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="AD155:AD165"/>
-    <mergeCell ref="AD148:AD151"/>
-    <mergeCell ref="AD137:AD144"/>
-    <mergeCell ref="AD135:AD136"/>
-    <mergeCell ref="AD146:AD147"/>
-    <mergeCell ref="AD153:AD154"/>
-    <mergeCell ref="AD122:AD133"/>
-    <mergeCell ref="AD120:AD121"/>
-    <mergeCell ref="AD104:AD118"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="P153:Q153"/>
-    <mergeCell ref="R153:S153"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AE153:AE154"/>
-    <mergeCell ref="X146:Y146"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="Z120:AA120"/>
-    <mergeCell ref="AB120:AB121"/>
-    <mergeCell ref="AB135:AB136"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="AB46:AB47"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AD102:AD103"/>
-    <mergeCell ref="AD83:AD100"/>
-    <mergeCell ref="AD81:AD82"/>
-    <mergeCell ref="AD68:AD79"/>
-    <mergeCell ref="AD66:AD67"/>
-    <mergeCell ref="AD48:AD64"/>
   </mergeCells>
   <conditionalFormatting sqref="AC8">
     <cfRule type="notContainsBlanks" dxfId="59" priority="68">

--- a/web/F1v2.xlsx
+++ b/web/F1v2.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GeofreyNyabuto\NetbeansProjects\InternalSystem\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InternalSystem\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C8B61-4EDB-4CEC-A3B3-5793FF950179}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A827751C-9712-49F5-AAC8-6CB558B7F102}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="a4gUMdZCGkDDzElfhkvI/brsAlzI4GhD8wwWIVFJCtcL8IfIwqWYpVjV2Q6nijKW2ipnQ8sfmugbKli0802lfw==" workbookSaltValue="1iepslPG5jc+WSQINC8vKA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C7A72A4-46D5-4130-84F6-E2BF1F1A15D0}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" activeTab="1" xr2:uid="{1C7A72A4-46D5-4130-84F6-E2BF1F1A15D0}"/>
   </bookViews>
   <sheets>
     <sheet name="InstructionsForm1A" sheetId="3" r:id="rId1"/>
@@ -4675,6 +4675,24 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4684,14 +4702,59 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4702,78 +4765,237 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4785,228 +5007,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6344,13 +6344,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
     </row>
     <row r="2" spans="2:6" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="65" t="s">
@@ -6370,12 +6370,12 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="2:6" ht="96" customHeight="1" x14ac:dyDescent="0.45">
@@ -6822,16 +6822,16 @@
       </c>
     </row>
     <row r="31" spans="2:6" s="42" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="151" t="s">
+      <c r="B31" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="155"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="136"/>
     </row>
     <row r="32" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="134" t="s">
+      <c r="B32" s="140" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="38" t="s">
@@ -6843,12 +6843,12 @@
       <c r="E32" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="156" t="s">
+      <c r="F32" s="147" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="135"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="38" t="s">
         <v>222</v>
       </c>
@@ -6858,10 +6858,10 @@
       <c r="E33" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="157"/>
+      <c r="F33" s="148"/>
     </row>
     <row r="34" spans="2:6" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="135"/>
+      <c r="B34" s="141"/>
       <c r="C34" s="38" t="s">
         <v>227</v>
       </c>
@@ -6871,10 +6871,10 @@
       <c r="E34" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="157"/>
+      <c r="F34" s="148"/>
     </row>
     <row r="35" spans="2:6" ht="57.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="135"/>
+      <c r="B35" s="141"/>
       <c r="C35" s="38" t="s">
         <v>228</v>
       </c>
@@ -6884,10 +6884,10 @@
       <c r="E35" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="157"/>
+      <c r="F35" s="148"/>
     </row>
     <row r="36" spans="2:6" ht="72.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="136"/>
+      <c r="B36" s="142"/>
       <c r="C36" s="38" t="s">
         <v>230</v>
       </c>
@@ -6897,19 +6897,19 @@
       <c r="E36" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="158"/>
+      <c r="F36" s="149"/>
     </row>
     <row r="37" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="159" t="s">
+      <c r="B37" s="150" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="160"/>
-      <c r="D37" s="160"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="161"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="152"/>
     </row>
     <row r="38" spans="2:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="134" t="s">
+      <c r="B38" s="140" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="38" t="s">
@@ -6926,7 +6926,7 @@
       </c>
     </row>
     <row r="39" spans="2:6" ht="122.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="135"/>
+      <c r="B39" s="141"/>
       <c r="C39" s="38" t="s">
         <v>461</v>
       </c>
@@ -6941,7 +6941,7 @@
       </c>
     </row>
     <row r="40" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="135"/>
+      <c r="B40" s="141"/>
       <c r="C40" s="38" t="s">
         <v>462</v>
       </c>
@@ -6956,7 +6956,7 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="135"/>
+      <c r="B41" s="141"/>
       <c r="C41" s="38" t="s">
         <v>237</v>
       </c>
@@ -6971,7 +6971,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="135"/>
+      <c r="B42" s="141"/>
       <c r="C42" s="38" t="s">
         <v>463</v>
       </c>
@@ -6986,7 +6986,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="134" t="s">
+      <c r="B43" s="140" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="38" t="s">
@@ -7003,7 +7003,7 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="135"/>
+      <c r="B44" s="141"/>
       <c r="C44" s="38" t="s">
         <v>242</v>
       </c>
@@ -7018,7 +7018,7 @@
       </c>
     </row>
     <row r="45" spans="2:6" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="136"/>
+      <c r="B45" s="142"/>
       <c r="C45" s="38" t="s">
         <v>244</v>
       </c>
@@ -7140,7 +7140,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="162" t="s">
+      <c r="B53" s="155" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="32" t="s">
@@ -7157,7 +7157,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="92.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="163"/>
+      <c r="B54" s="156"/>
       <c r="C54" s="32" t="s">
         <v>258</v>
       </c>
@@ -7172,16 +7172,16 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="47.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="152"/>
-      <c r="D55" s="152"/>
-      <c r="E55" s="152"/>
-      <c r="F55" s="155"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="136"/>
     </row>
     <row r="56" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="134" t="s">
+      <c r="B56" s="140" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="38" t="s">
@@ -7198,7 +7198,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="136"/>
+      <c r="B57" s="142"/>
       <c r="C57" s="38" t="s">
         <v>471</v>
       </c>
@@ -7213,7 +7213,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="134" t="s">
+      <c r="B58" s="140" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="38" t="s">
@@ -7230,7 +7230,7 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="136"/>
+      <c r="B59" s="142"/>
       <c r="C59" s="38" t="s">
         <v>471</v>
       </c>
@@ -7245,7 +7245,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="143" t="s">
+      <c r="B60" s="153" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="50" t="s">
@@ -7262,7 +7262,7 @@
       </c>
     </row>
     <row r="61" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="144"/>
+      <c r="B61" s="154"/>
       <c r="C61" s="50" t="s">
         <v>474</v>
       </c>
@@ -7277,7 +7277,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" ht="62.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="143" t="s">
+      <c r="B62" s="153" t="s">
         <v>39</v>
       </c>
       <c r="C62" s="50" t="s">
@@ -7294,7 +7294,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="144"/>
+      <c r="B63" s="154"/>
       <c r="C63" s="50" t="s">
         <v>476</v>
       </c>
@@ -7309,7 +7309,7 @@
       </c>
     </row>
     <row r="64" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="143" t="s">
+      <c r="B64" s="153" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="50" t="s">
@@ -7326,7 +7326,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="144"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="50" t="s">
         <v>478</v>
       </c>
@@ -7341,7 +7341,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="143" t="s">
+      <c r="B66" s="153" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="50" t="s">
@@ -7358,7 +7358,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="144"/>
+      <c r="B67" s="154"/>
       <c r="C67" s="50" t="s">
         <v>480</v>
       </c>
@@ -7373,16 +7373,16 @@
       </c>
     </row>
     <row r="68" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="151" t="s">
+      <c r="B68" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="152"/>
-      <c r="D68" s="152"/>
-      <c r="E68" s="152"/>
-      <c r="F68" s="155"/>
+      <c r="C68" s="135"/>
+      <c r="D68" s="135"/>
+      <c r="E68" s="135"/>
+      <c r="F68" s="136"/>
     </row>
     <row r="69" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="134" t="s">
+      <c r="B69" s="140" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="38" t="s">
@@ -7399,7 +7399,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="135"/>
+      <c r="B70" s="141"/>
       <c r="C70" s="38" t="s">
         <v>288</v>
       </c>
@@ -7414,7 +7414,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="135"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="38" t="s">
         <v>482</v>
       </c>
@@ -7429,7 +7429,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="135"/>
+      <c r="B72" s="141"/>
       <c r="C72" s="38" t="s">
         <v>483</v>
       </c>
@@ -7444,7 +7444,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="75.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="135"/>
+      <c r="B73" s="141"/>
       <c r="C73" s="38" t="s">
         <v>484</v>
       </c>
@@ -7459,7 +7459,7 @@
       </c>
     </row>
     <row r="74" spans="2:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="136"/>
+      <c r="B74" s="142"/>
       <c r="C74" s="38" t="s">
         <v>485</v>
       </c>
@@ -7474,7 +7474,7 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="134" t="s">
+      <c r="B75" s="140" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="38" t="s">
@@ -7491,7 +7491,7 @@
       </c>
     </row>
     <row r="76" spans="2:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="135"/>
+      <c r="B76" s="141"/>
       <c r="C76" s="38" t="s">
         <v>486</v>
       </c>
@@ -7506,7 +7506,7 @@
       </c>
     </row>
     <row r="77" spans="2:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="135"/>
+      <c r="B77" s="141"/>
       <c r="C77" s="38" t="s">
         <v>304</v>
       </c>
@@ -7521,7 +7521,7 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="135"/>
+      <c r="B78" s="141"/>
       <c r="C78" s="38" t="s">
         <v>306</v>
       </c>
@@ -7536,7 +7536,7 @@
       </c>
     </row>
     <row r="79" spans="2:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="135"/>
+      <c r="B79" s="141"/>
       <c r="C79" s="38" t="s">
         <v>484</v>
       </c>
@@ -7551,7 +7551,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" ht="96.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="136"/>
+      <c r="B80" s="142"/>
       <c r="C80" s="38" t="s">
         <v>309</v>
       </c>
@@ -7566,7 +7566,7 @@
       </c>
     </row>
     <row r="81" spans="2:6" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="134" t="s">
+      <c r="B81" s="140" t="s">
         <v>33</v>
       </c>
       <c r="C81" s="38" t="s">
@@ -7583,7 +7583,7 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="72.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="135"/>
+      <c r="B82" s="141"/>
       <c r="C82" s="38" t="s">
         <v>288</v>
       </c>
@@ -7598,7 +7598,7 @@
       </c>
     </row>
     <row r="83" spans="2:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="135"/>
+      <c r="B83" s="141"/>
       <c r="C83" s="38" t="s">
         <v>304</v>
       </c>
@@ -7613,7 +7613,7 @@
       </c>
     </row>
     <row r="84" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="135"/>
+      <c r="B84" s="141"/>
       <c r="C84" s="38" t="s">
         <v>483</v>
       </c>
@@ -7628,7 +7628,7 @@
       </c>
     </row>
     <row r="85" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="135"/>
+      <c r="B85" s="141"/>
       <c r="C85" s="38" t="s">
         <v>484</v>
       </c>
@@ -7643,7 +7643,7 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="136"/>
+      <c r="B86" s="142"/>
       <c r="C86" s="38" t="s">
         <v>309</v>
       </c>
@@ -7658,16 +7658,16 @@
       </c>
     </row>
     <row r="87" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="151" t="s">
+      <c r="B87" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="C87" s="152"/>
-      <c r="D87" s="152"/>
-      <c r="E87" s="152"/>
-      <c r="F87" s="155"/>
+      <c r="C87" s="135"/>
+      <c r="D87" s="135"/>
+      <c r="E87" s="135"/>
+      <c r="F87" s="136"/>
     </row>
     <row r="88" spans="2:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="B88" s="134" t="s">
+      <c r="B88" s="140" t="s">
         <v>44</v>
       </c>
       <c r="C88" s="38" t="s">
@@ -7684,7 +7684,7 @@
       </c>
     </row>
     <row r="89" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="136"/>
+      <c r="B89" s="142"/>
       <c r="C89" s="38" t="s">
         <v>488</v>
       </c>
@@ -7699,7 +7699,7 @@
       </c>
     </row>
     <row r="90" spans="2:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="134" t="s">
+      <c r="B90" s="140" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="38" t="s">
@@ -7716,7 +7716,7 @@
       </c>
     </row>
     <row r="91" spans="2:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="136"/>
+      <c r="B91" s="142"/>
       <c r="C91" s="38" t="s">
         <v>327</v>
       </c>
@@ -7731,7 +7731,7 @@
       </c>
     </row>
     <row r="92" spans="2:6" ht="51.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="134" t="s">
+      <c r="B92" s="140" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="32" t="s">
@@ -7748,7 +7748,7 @@
       </c>
     </row>
     <row r="93" spans="2:6" ht="52.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="135"/>
+      <c r="B93" s="141"/>
       <c r="C93" s="32" t="s">
         <v>339</v>
       </c>
@@ -7763,7 +7763,7 @@
       </c>
     </row>
     <row r="94" spans="2:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="135"/>
+      <c r="B94" s="141"/>
       <c r="C94" s="32" t="s">
         <v>340</v>
       </c>
@@ -7778,7 +7778,7 @@
       </c>
     </row>
     <row r="95" spans="2:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="135"/>
+      <c r="B95" s="141"/>
       <c r="C95" s="32" t="s">
         <v>343</v>
       </c>
@@ -7793,7 +7793,7 @@
       </c>
     </row>
     <row r="96" spans="2:6" ht="56.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="135"/>
+      <c r="B96" s="141"/>
       <c r="C96" s="32" t="s">
         <v>346</v>
       </c>
@@ -7808,7 +7808,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="135"/>
+      <c r="B97" s="141"/>
       <c r="C97" s="32" t="s">
         <v>490</v>
       </c>
@@ -7823,7 +7823,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="136"/>
+      <c r="B98" s="142"/>
       <c r="C98" s="32" t="s">
         <v>491</v>
       </c>
@@ -7838,7 +7838,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" s="48" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="148" t="s">
+      <c r="B99" s="158" t="s">
         <v>131</v>
       </c>
       <c r="C99" s="32" t="s">
@@ -7855,7 +7855,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="149"/>
+      <c r="B100" s="159"/>
       <c r="C100" s="32" t="s">
         <v>351</v>
       </c>
@@ -7870,7 +7870,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B101" s="149"/>
+      <c r="B101" s="159"/>
       <c r="C101" s="54" t="s">
         <v>493</v>
       </c>
@@ -7885,7 +7885,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="150"/>
+      <c r="B102" s="160"/>
       <c r="C102" s="54" t="s">
         <v>444</v>
       </c>
@@ -7900,13 +7900,13 @@
       </c>
     </row>
     <row r="103" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B103" s="151" t="s">
+      <c r="B103" s="134" t="s">
         <v>355</v>
       </c>
-      <c r="C103" s="152"/>
-      <c r="D103" s="152"/>
-      <c r="E103" s="152"/>
-      <c r="F103" s="155"/>
+      <c r="C103" s="135"/>
+      <c r="D103" s="135"/>
+      <c r="E103" s="135"/>
+      <c r="F103" s="136"/>
       <c r="H103" s="25" t="s">
         <v>448</v>
       </c>
@@ -7929,7 +7929,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B105" s="134" t="s">
+      <c r="B105" s="140" t="s">
         <v>46</v>
       </c>
       <c r="C105" s="38" t="s">
@@ -7946,7 +7946,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B106" s="135"/>
+      <c r="B106" s="141"/>
       <c r="C106" s="38" t="s">
         <v>359</v>
       </c>
@@ -7961,7 +7961,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" ht="83.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="135"/>
+      <c r="B107" s="141"/>
       <c r="C107" s="38" t="s">
         <v>360</v>
       </c>
@@ -7976,7 +7976,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="135"/>
+      <c r="B108" s="141"/>
       <c r="C108" s="38" t="s">
         <v>496</v>
       </c>
@@ -7991,7 +7991,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="135"/>
+      <c r="B109" s="141"/>
       <c r="C109" s="38" t="s">
         <v>365</v>
       </c>
@@ -8006,7 +8006,7 @@
       </c>
     </row>
     <row r="110" spans="2:8" ht="104.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B110" s="135"/>
+      <c r="B110" s="141"/>
       <c r="C110" s="38" t="s">
         <v>371</v>
       </c>
@@ -8021,7 +8021,7 @@
       </c>
     </row>
     <row r="111" spans="2:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B111" s="135"/>
+      <c r="B111" s="141"/>
       <c r="C111" s="38" t="s">
         <v>372</v>
       </c>
@@ -8036,7 +8036,7 @@
       </c>
     </row>
     <row r="112" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="135"/>
+      <c r="B112" s="141"/>
       <c r="C112" s="38" t="s">
         <v>374</v>
       </c>
@@ -8051,7 +8051,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" ht="98.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B113" s="135"/>
+      <c r="B113" s="141"/>
       <c r="C113" s="38" t="s">
         <v>375</v>
       </c>
@@ -8066,7 +8066,7 @@
       </c>
     </row>
     <row r="114" spans="2:6" ht="96.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B114" s="146" t="s">
+      <c r="B114" s="145" t="s">
         <v>149</v>
       </c>
       <c r="C114" s="32" t="s">
@@ -8083,7 +8083,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B115" s="147"/>
+      <c r="B115" s="146"/>
       <c r="C115" s="32" t="s">
         <v>381</v>
       </c>
@@ -8098,16 +8098,16 @@
       </c>
     </row>
     <row r="116" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B116" s="151" t="s">
+      <c r="B116" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="C116" s="152"/>
-      <c r="D116" s="152"/>
-      <c r="E116" s="152"/>
-      <c r="F116" s="152"/>
+      <c r="C116" s="135"/>
+      <c r="D116" s="135"/>
+      <c r="E116" s="135"/>
+      <c r="F116" s="135"/>
     </row>
     <row r="117" spans="2:6" ht="92.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B117" s="134" t="s">
+      <c r="B117" s="140" t="s">
         <v>35</v>
       </c>
       <c r="C117" s="38" t="s">
@@ -8124,7 +8124,7 @@
       </c>
     </row>
     <row r="118" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="135"/>
+      <c r="B118" s="141"/>
       <c r="C118" s="38" t="s">
         <v>384</v>
       </c>
@@ -8139,7 +8139,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="135"/>
+      <c r="B119" s="141"/>
       <c r="C119" s="38" t="s">
         <v>392</v>
       </c>
@@ -8154,7 +8154,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B120" s="135"/>
+      <c r="B120" s="141"/>
       <c r="C120" s="38" t="s">
         <v>393</v>
       </c>
@@ -8169,7 +8169,7 @@
       </c>
     </row>
     <row r="121" spans="2:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B121" s="136"/>
+      <c r="B121" s="142"/>
       <c r="C121" s="38" t="s">
         <v>394</v>
       </c>
@@ -8184,7 +8184,7 @@
       </c>
     </row>
     <row r="122" spans="2:6" ht="87.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="145" t="s">
+      <c r="B122" s="157" t="s">
         <v>173</v>
       </c>
       <c r="C122" s="38" t="s">
@@ -8201,7 +8201,7 @@
       </c>
     </row>
     <row r="123" spans="2:6" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B123" s="146"/>
+      <c r="B123" s="145"/>
       <c r="C123" s="38" t="s">
         <v>402</v>
       </c>
@@ -8216,7 +8216,7 @@
       </c>
     </row>
     <row r="124" spans="2:6" ht="120.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B124" s="147"/>
+      <c r="B124" s="146"/>
       <c r="C124" s="38" t="s">
         <v>405</v>
       </c>
@@ -8231,16 +8231,16 @@
       </c>
     </row>
     <row r="125" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="151" t="s">
+      <c r="B125" s="134" t="s">
         <v>176</v>
       </c>
-      <c r="C125" s="152"/>
-      <c r="D125" s="152"/>
-      <c r="E125" s="152"/>
-      <c r="F125" s="155"/>
+      <c r="C125" s="135"/>
+      <c r="D125" s="135"/>
+      <c r="E125" s="135"/>
+      <c r="F125" s="136"/>
     </row>
     <row r="126" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B126" s="134" t="s">
+      <c r="B126" s="140" t="s">
         <v>47</v>
       </c>
       <c r="C126" s="38" t="s">
@@ -8257,7 +8257,7 @@
       </c>
     </row>
     <row r="127" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B127" s="135"/>
+      <c r="B127" s="141"/>
       <c r="C127" s="58" t="s">
         <v>409</v>
       </c>
@@ -8272,7 +8272,7 @@
       </c>
     </row>
     <row r="128" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B128" s="135"/>
+      <c r="B128" s="141"/>
       <c r="C128" s="38" t="s">
         <v>503</v>
       </c>
@@ -8287,7 +8287,7 @@
       </c>
     </row>
     <row r="129" spans="2:6" ht="77.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B129" s="136"/>
+      <c r="B129" s="142"/>
       <c r="C129" s="38" t="s">
         <v>414</v>
       </c>
@@ -8302,16 +8302,16 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B130" s="151" t="s">
+      <c r="B130" s="134" t="s">
         <v>177</v>
       </c>
-      <c r="C130" s="152"/>
-      <c r="D130" s="152"/>
-      <c r="E130" s="152"/>
-      <c r="F130" s="155"/>
+      <c r="C130" s="135"/>
+      <c r="D130" s="135"/>
+      <c r="E130" s="135"/>
+      <c r="F130" s="136"/>
     </row>
     <row r="131" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B131" s="134" t="s">
+      <c r="B131" s="140" t="s">
         <v>36</v>
       </c>
       <c r="C131" s="38" t="s">
@@ -8328,7 +8328,7 @@
       </c>
     </row>
     <row r="132" spans="2:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B132" s="135"/>
+      <c r="B132" s="141"/>
       <c r="C132" s="38" t="s">
         <v>430</v>
       </c>
@@ -8343,7 +8343,7 @@
       </c>
     </row>
     <row r="133" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="135"/>
+      <c r="B133" s="141"/>
       <c r="C133" s="38" t="s">
         <v>431</v>
       </c>
@@ -8358,7 +8358,7 @@
       </c>
     </row>
     <row r="134" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B134" s="136"/>
+      <c r="B134" s="142"/>
       <c r="C134" s="38" t="s">
         <v>504</v>
       </c>
@@ -8373,7 +8373,7 @@
       </c>
     </row>
     <row r="135" spans="2:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B135" s="134" t="s">
+      <c r="B135" s="140" t="s">
         <v>505</v>
       </c>
       <c r="C135" s="38" t="s">
@@ -8390,7 +8390,7 @@
       </c>
     </row>
     <row r="136" spans="2:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B136" s="135"/>
+      <c r="B136" s="141"/>
       <c r="C136" s="38" t="s">
         <v>435</v>
       </c>
@@ -8403,7 +8403,7 @@
       <c r="F136" s="138"/>
     </row>
     <row r="137" spans="2:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B137" s="135"/>
+      <c r="B137" s="141"/>
       <c r="C137" s="38" t="s">
         <v>436</v>
       </c>
@@ -8416,7 +8416,7 @@
       <c r="F137" s="138"/>
     </row>
     <row r="138" spans="2:6" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B138" s="135"/>
+      <c r="B138" s="141"/>
       <c r="C138" s="38" t="s">
         <v>437</v>
       </c>
@@ -8429,7 +8429,7 @@
       <c r="F138" s="138"/>
     </row>
     <row r="139" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B139" s="135"/>
+      <c r="B139" s="141"/>
       <c r="C139" s="38" t="s">
         <v>438</v>
       </c>
@@ -8442,7 +8442,7 @@
       <c r="F139" s="138"/>
     </row>
     <row r="140" spans="2:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B140" s="135"/>
+      <c r="B140" s="141"/>
       <c r="C140" s="38" t="s">
         <v>439</v>
       </c>
@@ -8455,7 +8455,7 @@
       <c r="F140" s="138"/>
     </row>
     <row r="141" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B141" s="136"/>
+      <c r="B141" s="142"/>
       <c r="C141" s="60" t="s">
         <v>440</v>
       </c>
@@ -8469,11 +8469,23 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="F135:F141"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B105:B113"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B116:F116"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B114:B115"/>
@@ -8490,23 +8502,11 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="B105:B113"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="F135:F141"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B131:B134"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="26" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8530,7 +8530,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="46.5" x14ac:dyDescent="0.7"/>
@@ -8541,9 +8541,8 @@
     <col min="4" max="27" width="24.28515625" style="5" customWidth="1"/>
     <col min="28" max="28" width="62.140625" style="5" customWidth="1"/>
     <col min="29" max="29" width="182.42578125" style="72" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="182.42578125" style="72" customWidth="1"/>
-    <col min="31" max="31" width="185" style="2" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="185" style="2" customWidth="1"/>
+    <col min="30" max="30" width="116.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="191.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -8551,82 +8550,82 @@
       <c r="A1" s="130" t="s">
         <v>630</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="197" t="s">
+      <c r="B1" s="231"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="233" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="198"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="197" t="s">
+      <c r="E1" s="234"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="233" t="s">
         <v>629</v>
       </c>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="239" t="s">
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165" t="s">
         <v>640</v>
       </c>
-      <c r="S1" s="239"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
-      <c r="V1" s="240"/>
-      <c r="W1" s="241" t="s">
+      <c r="S1" s="165"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="167" t="s">
         <v>631</v>
       </c>
-      <c r="X1" s="242"/>
+      <c r="X1" s="168"/>
       <c r="Y1" s="131"/>
       <c r="Z1" s="132" t="s">
         <v>632</v>
       </c>
-      <c r="AA1" s="199"/>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="180" t="s">
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="224" t="s">
         <v>637</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="181"/>
+      <c r="AD1" s="225"/>
+      <c r="AE1" s="225"/>
+      <c r="AF1" s="225"/>
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="226" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="186"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
+      <c r="M2" s="226"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="226"/>
+      <c r="AB2" s="226"/>
+      <c r="AC2" s="226"/>
       <c r="AD2" s="67"/>
     </row>
     <row r="3" spans="1:32" s="7" customFormat="1" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
@@ -8650,155 +8649,155 @@
       <c r="AD3" s="71"/>
     </row>
     <row r="4" spans="1:32" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="218" t="s">
+      <c r="A4" s="217" t="s">
         <v>641</v>
       </c>
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="219"/>
-      <c r="K4" s="219"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="219"/>
-      <c r="N4" s="219"/>
-      <c r="O4" s="219"/>
-      <c r="P4" s="219"/>
-      <c r="Q4" s="219"/>
-      <c r="R4" s="219"/>
-      <c r="S4" s="219"/>
-      <c r="T4" s="219"/>
-      <c r="U4" s="219"/>
-      <c r="V4" s="219"/>
-      <c r="W4" s="219"/>
-      <c r="X4" s="219"/>
-      <c r="Y4" s="219"/>
-      <c r="Z4" s="219"/>
-      <c r="AA4" s="219"/>
-      <c r="AB4" s="219"/>
-      <c r="AC4" s="219"/>
-      <c r="AD4" s="219"/>
-      <c r="AE4" s="219"/>
-      <c r="AF4" s="220"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
+      <c r="K4" s="218"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="218"/>
+      <c r="N4" s="218"/>
+      <c r="O4" s="218"/>
+      <c r="P4" s="218"/>
+      <c r="Q4" s="218"/>
+      <c r="R4" s="218"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="218"/>
+      <c r="U4" s="218"/>
+      <c r="V4" s="218"/>
+      <c r="W4" s="218"/>
+      <c r="X4" s="218"/>
+      <c r="Y4" s="218"/>
+      <c r="Z4" s="218"/>
+      <c r="AA4" s="218"/>
+      <c r="AB4" s="218"/>
+      <c r="AC4" s="218"/>
+      <c r="AD4" s="218"/>
+      <c r="AE4" s="218"/>
+      <c r="AF4" s="219"/>
     </row>
     <row r="5" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="168"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="168"/>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="168"/>
-      <c r="AE5" s="168"/>
-      <c r="AF5" s="169"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="242"/>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="242"/>
+      <c r="R5" s="242"/>
+      <c r="S5" s="242"/>
+      <c r="T5" s="242"/>
+      <c r="U5" s="242"/>
+      <c r="V5" s="242"/>
+      <c r="W5" s="242"/>
+      <c r="X5" s="242"/>
+      <c r="Y5" s="242"/>
+      <c r="Z5" s="242"/>
+      <c r="AA5" s="242"/>
+      <c r="AB5" s="242"/>
+      <c r="AC5" s="242"/>
+      <c r="AD5" s="242"/>
+      <c r="AE5" s="242"/>
+      <c r="AF5" s="243"/>
     </row>
     <row r="6" spans="1:32" s="24" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A6" s="233" t="s">
+      <c r="A6" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="233" t="s">
+      <c r="B6" s="197" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="232" t="s">
+      <c r="C6" s="196" t="s">
         <v>508</v>
       </c>
-      <c r="D6" s="211" t="s">
+      <c r="D6" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="185"/>
-      <c r="F6" s="184" t="s">
+      <c r="E6" s="195"/>
+      <c r="F6" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="185"/>
-      <c r="H6" s="184" t="s">
+      <c r="G6" s="195"/>
+      <c r="H6" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="185"/>
-      <c r="J6" s="184" t="s">
+      <c r="I6" s="195"/>
+      <c r="J6" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="185"/>
-      <c r="L6" s="184" t="s">
+      <c r="K6" s="195"/>
+      <c r="L6" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="185"/>
-      <c r="N6" s="184" t="s">
+      <c r="M6" s="195"/>
+      <c r="N6" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="185"/>
-      <c r="P6" s="184" t="s">
+      <c r="O6" s="195"/>
+      <c r="P6" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="185"/>
-      <c r="R6" s="184" t="s">
+      <c r="Q6" s="195"/>
+      <c r="R6" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="185"/>
-      <c r="T6" s="184" t="s">
+      <c r="S6" s="195"/>
+      <c r="T6" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="185"/>
-      <c r="V6" s="184" t="s">
+      <c r="U6" s="195"/>
+      <c r="V6" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="185"/>
-      <c r="X6" s="184" t="s">
+      <c r="W6" s="195"/>
+      <c r="X6" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="185"/>
-      <c r="Z6" s="184" t="s">
+      <c r="Y6" s="195"/>
+      <c r="Z6" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="185"/>
-      <c r="AB6" s="194" t="s">
+      <c r="AA6" s="195"/>
+      <c r="AB6" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="AC6" s="192" t="s">
+      <c r="AC6" s="229" t="s">
         <v>628</v>
       </c>
-      <c r="AD6" s="176" t="s">
+      <c r="AD6" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE6" s="166" t="s">
+      <c r="AE6" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF6" s="166" t="s">
+      <c r="AF6" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:32" s="24" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A7" s="233"/>
-      <c r="B7" s="233"/>
-      <c r="C7" s="232"/>
+      <c r="A7" s="197"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="196"/>
       <c r="D7" s="74" t="s">
         <v>14</v>
       </c>
@@ -8871,14 +8870,14 @@
       <c r="AA7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB7" s="194"/>
-      <c r="AC7" s="193"/>
-      <c r="AD7" s="176"/>
-      <c r="AE7" s="166"/>
-      <c r="AF7" s="166"/>
+      <c r="AB7" s="230"/>
+      <c r="AC7" s="200"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="169"/>
+      <c r="AF7" s="169"/>
     </row>
     <row r="8" spans="1:32" s="10" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="227" t="s">
         <v>141</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -8915,7 +8914,7 @@
         <f t="shared" ref="AB8:AB12" si="0">SUM(D8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="173" t="str">
+      <c r="AC8" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D9&gt;D8," * F01-02 " &amp;D6&amp;" "&amp; D7&amp; " is more than F01-01"&amp;CHAR(10),""),IF(E9&gt;E8," * F01-02 " &amp;D6&amp;" "&amp; E7&amp; " is more than F01-01"&amp;CHAR(10),""),
@@ -8934,18 +8933,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD8" s="179" t="str">
+      <c r="AD8" s="239" t="str">
         <f>CONCATENATE(AC8,AC10,AC11,AC12,AC14,AC15,AC16,AC17,AC19,AC21,AC23,AC25,AC27,AC29,AC31,AC33,AC35)</f>
         <v/>
       </c>
       <c r="AE8" s="117"/>
-      <c r="AF8" s="165" t="str">
+      <c r="AF8" s="240" t="str">
         <f>CONCATENATE(AE8,AE9,AE10,AE11,AE12,AE13,AE14,AE15,AE16,AE17,AE18,AE19,AE20,AE21,AE22,AE23,AE24,AE25,AE26,AE27,AE28,AE29,AE30,AE31,AE32,AE33,AE34,AE35,AE36)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:32" s="10" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A9" s="189"/>
+      <c r="A9" s="228"/>
       <c r="B9" s="15" t="s">
         <v>507</v>
       </c>
@@ -8980,13 +8979,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="174"/>
-      <c r="AD9" s="179"/>
+      <c r="AC9" s="221"/>
+      <c r="AD9" s="239"/>
       <c r="AE9" s="117"/>
-      <c r="AF9" s="165"/>
+      <c r="AF9" s="240"/>
     </row>
     <row r="10" spans="1:32" s="10" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A10" s="189"/>
+      <c r="A10" s="228"/>
       <c r="B10" s="15" t="s">
         <v>509</v>
       </c>
@@ -9040,12 +9039,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD10" s="179"/>
+      <c r="AD10" s="239"/>
       <c r="AE10" s="117"/>
-      <c r="AF10" s="165"/>
+      <c r="AF10" s="240"/>
     </row>
     <row r="11" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="189"/>
+      <c r="A11" s="228"/>
       <c r="B11" s="15" t="s">
         <v>510</v>
       </c>
@@ -9081,12 +9080,12 @@
         <v>0</v>
       </c>
       <c r="AC11" s="111"/>
-      <c r="AD11" s="179"/>
+      <c r="AD11" s="239"/>
       <c r="AE11" s="117"/>
-      <c r="AF11" s="165"/>
+      <c r="AF11" s="240"/>
     </row>
     <row r="12" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="189"/>
+      <c r="A12" s="228"/>
       <c r="B12" s="15" t="s">
         <v>511</v>
       </c>
@@ -9121,7 +9120,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="173" t="str">
+      <c r="AC12" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D13&gt;D12," * Positive F01-06 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested  F01-05"&amp;CHAR(10),""),IF(E13&gt;E12," * Positive F01-06 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested  F01-05"&amp;CHAR(10),""),
@@ -9140,7 +9139,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD12" s="179"/>
+      <c r="AD12" s="239"/>
       <c r="AE12" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9148,10 +9147,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF12" s="165"/>
+      <c r="AF12" s="240"/>
     </row>
     <row r="13" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="189"/>
+      <c r="A13" s="228"/>
       <c r="B13" s="15" t="s">
         <v>512</v>
       </c>
@@ -9186,13 +9185,13 @@
         <f>SUM(D13:AA13)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="174"/>
-      <c r="AD13" s="179"/>
+      <c r="AC13" s="221"/>
+      <c r="AD13" s="239"/>
       <c r="AE13" s="117"/>
-      <c r="AF13" s="165"/>
+      <c r="AF13" s="240"/>
     </row>
     <row r="14" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="189"/>
+      <c r="A14" s="228"/>
       <c r="B14" s="15" t="s">
         <v>513</v>
       </c>
@@ -9228,12 +9227,12 @@
         <v>0</v>
       </c>
       <c r="AC14" s="111"/>
-      <c r="AD14" s="179"/>
+      <c r="AD14" s="239"/>
       <c r="AE14" s="117"/>
-      <c r="AF14" s="165"/>
+      <c r="AF14" s="240"/>
     </row>
     <row r="15" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="189"/>
+      <c r="A15" s="228"/>
       <c r="B15" s="15" t="s">
         <v>514</v>
       </c>
@@ -9269,12 +9268,12 @@
         <v>0</v>
       </c>
       <c r="AC15" s="111"/>
-      <c r="AD15" s="179"/>
+      <c r="AD15" s="239"/>
       <c r="AE15" s="117"/>
-      <c r="AF15" s="165"/>
+      <c r="AF15" s="240"/>
     </row>
     <row r="16" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="189"/>
+      <c r="A16" s="228"/>
       <c r="B16" s="15" t="s">
         <v>515</v>
       </c>
@@ -9310,12 +9309,12 @@
         <v>0</v>
       </c>
       <c r="AC16" s="111"/>
-      <c r="AD16" s="179"/>
+      <c r="AD16" s="239"/>
       <c r="AE16" s="117"/>
-      <c r="AF16" s="165"/>
+      <c r="AF16" s="240"/>
     </row>
     <row r="17" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="187" t="s">
+      <c r="A17" s="191" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -9352,7 +9351,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="173" t="str">
+      <c r="AC17" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D18&gt;D17," * Positive F01-11 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested  F01-10"&amp;CHAR(10),""),IF(E18&gt;E17," * Positive F01-11 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested  F01-10"&amp;CHAR(10),""),
@@ -9371,7 +9370,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD17" s="179"/>
+      <c r="AD17" s="239"/>
       <c r="AE17" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9379,10 +9378,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF17" s="165"/>
+      <c r="AF17" s="240"/>
     </row>
     <row r="18" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="187"/>
+      <c r="A18" s="191"/>
       <c r="B18" s="15" t="s">
         <v>517</v>
       </c>
@@ -9417,13 +9416,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="174"/>
-      <c r="AD18" s="179"/>
+      <c r="AC18" s="221"/>
+      <c r="AD18" s="239"/>
       <c r="AE18" s="117"/>
-      <c r="AF18" s="165"/>
+      <c r="AF18" s="240"/>
     </row>
     <row r="19" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="187" t="s">
+      <c r="A19" s="191" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -9460,7 +9459,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="173" t="str">
+      <c r="AC19" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D20&gt;D19," * Positive F01-13 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-12"&amp;CHAR(10),""),IF(E20&gt;E19," * Positive F01-13 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-12"&amp;CHAR(10),""),
@@ -9479,7 +9478,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD19" s="179"/>
+      <c r="AD19" s="239"/>
       <c r="AE19" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9487,10 +9486,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF19" s="165"/>
+      <c r="AF19" s="240"/>
     </row>
     <row r="20" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="187"/>
+      <c r="A20" s="191"/>
       <c r="B20" s="15" t="s">
         <v>519</v>
       </c>
@@ -9525,8 +9524,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="174"/>
-      <c r="AD20" s="179"/>
+      <c r="AC20" s="221"/>
+      <c r="AD20" s="239"/>
       <c r="AE20" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9541,10 +9540,10 @@
 "")</f>
         <v/>
       </c>
-      <c r="AF20" s="165"/>
+      <c r="AF20" s="240"/>
     </row>
     <row r="21" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A21" s="187" t="s">
+      <c r="A21" s="191" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -9581,7 +9580,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="173" t="str">
+      <c r="AC21" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D22&gt;D21," * Positive F01-15 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-14"&amp;CHAR(10),""),IF(E22&gt;E21," * Positive F01-15 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-14"&amp;CHAR(10),""),
@@ -9600,7 +9599,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD21" s="179"/>
+      <c r="AD21" s="239"/>
       <c r="AE21" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9608,10 +9607,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF21" s="165"/>
+      <c r="AF21" s="240"/>
     </row>
     <row r="22" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A22" s="187"/>
+      <c r="A22" s="191"/>
       <c r="B22" s="15" t="s">
         <v>519</v>
       </c>
@@ -9646,13 +9645,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="174"/>
-      <c r="AD22" s="179"/>
+      <c r="AC22" s="221"/>
+      <c r="AD22" s="239"/>
       <c r="AE22" s="117"/>
-      <c r="AF22" s="165"/>
+      <c r="AF22" s="240"/>
     </row>
     <row r="23" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A23" s="187" t="s">
+      <c r="A23" s="191" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -9689,7 +9688,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="173" t="str">
+      <c r="AC23" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D24&gt;D23," * Positive F01-17 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-16"&amp;CHAR(10),""),IF(E24&gt;E23," * Positive F01-17 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-16"&amp;CHAR(10),""),
@@ -9708,7 +9707,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD23" s="179"/>
+      <c r="AD23" s="239"/>
       <c r="AE23" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9716,10 +9715,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF23" s="165"/>
+      <c r="AF23" s="240"/>
     </row>
     <row r="24" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A24" s="187"/>
+      <c r="A24" s="191"/>
       <c r="B24" s="15" t="s">
         <v>519</v>
       </c>
@@ -9754,13 +9753,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="174"/>
-      <c r="AD24" s="179"/>
+      <c r="AC24" s="221"/>
+      <c r="AD24" s="239"/>
       <c r="AE24" s="117"/>
-      <c r="AF24" s="165"/>
+      <c r="AF24" s="240"/>
     </row>
     <row r="25" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A25" s="187" t="s">
+      <c r="A25" s="191" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -9797,7 +9796,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="173" t="str">
+      <c r="AC25" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D26&gt;D25," * Positive F01-19 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-18"&amp;CHAR(10),""),IF(E26&gt;E25," * Positive F01-19 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-18"&amp;CHAR(10),""),
@@ -9816,7 +9815,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD25" s="179"/>
+      <c r="AD25" s="239"/>
       <c r="AE25" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9824,10 +9823,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF25" s="165"/>
+      <c r="AF25" s="240"/>
     </row>
     <row r="26" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A26" s="187"/>
+      <c r="A26" s="191"/>
       <c r="B26" s="15" t="s">
         <v>519</v>
       </c>
@@ -9862,13 +9861,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="174"/>
-      <c r="AD26" s="179"/>
+      <c r="AC26" s="221"/>
+      <c r="AD26" s="239"/>
       <c r="AE26" s="117"/>
-      <c r="AF26" s="165"/>
+      <c r="AF26" s="240"/>
     </row>
     <row r="27" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A27" s="187" t="s">
+      <c r="A27" s="191" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -9905,7 +9904,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="173" t="str">
+      <c r="AC27" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D28&gt;D27," * Positive F01-21 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-20"&amp;CHAR(10),""),IF(E28&gt;E27," * Positive F01-21 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-20"&amp;CHAR(10),""),
@@ -9924,7 +9923,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD27" s="179"/>
+      <c r="AD27" s="239"/>
       <c r="AE27" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9932,10 +9931,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF27" s="165"/>
+      <c r="AF27" s="240"/>
     </row>
     <row r="28" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A28" s="187"/>
+      <c r="A28" s="191"/>
       <c r="B28" s="15" t="s">
         <v>519</v>
       </c>
@@ -9970,13 +9969,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="174"/>
-      <c r="AD28" s="179"/>
+      <c r="AC28" s="221"/>
+      <c r="AD28" s="239"/>
       <c r="AE28" s="117"/>
-      <c r="AF28" s="165"/>
+      <c r="AF28" s="240"/>
     </row>
     <row r="29" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A29" s="187" t="s">
+      <c r="A29" s="191" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -10013,7 +10012,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="173" t="str">
+      <c r="AC29" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D30&gt;D29," * Positive F01-23 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-22"&amp;CHAR(10),""),IF(E30&gt;E29," * Positive F01-23 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-22"&amp;CHAR(10),""),
@@ -10032,7 +10031,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD29" s="179"/>
+      <c r="AD29" s="239"/>
       <c r="AE29" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10040,10 +10039,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF29" s="165"/>
+      <c r="AF29" s="240"/>
     </row>
     <row r="30" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A30" s="187"/>
+      <c r="A30" s="191"/>
       <c r="B30" s="15" t="s">
         <v>519</v>
       </c>
@@ -10078,13 +10077,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="174"/>
-      <c r="AD30" s="179"/>
+      <c r="AC30" s="221"/>
+      <c r="AD30" s="239"/>
       <c r="AE30" s="117"/>
-      <c r="AF30" s="165"/>
+      <c r="AF30" s="240"/>
     </row>
     <row r="31" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A31" s="187" t="s">
+      <c r="A31" s="191" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -10121,7 +10120,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="173" t="str">
+      <c r="AC31" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D32&gt;D31," * Positive F01-25 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-24"&amp;CHAR(10),""),IF(E32&gt;E31," * Positive F01-25 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-24"&amp;CHAR(10),""),
@@ -10140,7 +10139,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD31" s="179"/>
+      <c r="AD31" s="239"/>
       <c r="AE31" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10148,10 +10147,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF31" s="165"/>
+      <c r="AF31" s="240"/>
     </row>
     <row r="32" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A32" s="187"/>
+      <c r="A32" s="191"/>
       <c r="B32" s="15" t="s">
         <v>519</v>
       </c>
@@ -10186,13 +10185,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="174"/>
-      <c r="AD32" s="179"/>
+      <c r="AC32" s="221"/>
+      <c r="AD32" s="239"/>
       <c r="AE32" s="117"/>
-      <c r="AF32" s="165"/>
+      <c r="AF32" s="240"/>
     </row>
     <row r="33" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A33" s="206" t="s">
+      <c r="A33" s="179" t="s">
         <v>133</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -10229,7 +10228,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="173" t="str">
+      <c r="AC33" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D34&gt;D33," * Positive F01-27 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-26"&amp;CHAR(10),""),IF(E34&gt;E33," * Positive F01-27 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-26"&amp;CHAR(10),""),
@@ -10248,7 +10247,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD33" s="179"/>
+      <c r="AD33" s="239"/>
       <c r="AE33" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10256,10 +10255,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF33" s="165"/>
+      <c r="AF33" s="240"/>
     </row>
     <row r="34" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A34" s="208"/>
+      <c r="A34" s="180"/>
       <c r="B34" s="15" t="s">
         <v>519</v>
       </c>
@@ -10294,13 +10293,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="174"/>
-      <c r="AD34" s="179"/>
+      <c r="AC34" s="221"/>
+      <c r="AD34" s="239"/>
       <c r="AE34" s="117"/>
-      <c r="AF34" s="165"/>
+      <c r="AF34" s="240"/>
     </row>
     <row r="35" spans="1:32" s="18" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A35" s="204" t="s">
+      <c r="A35" s="222" t="s">
         <v>157</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -10409,7 +10408,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="173" t="str">
+      <c r="AC35" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D36&gt;D35," * Totals HTS Positive F01-29 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Total Tested F01-28"&amp;CHAR(10),""),IF(E36&gt;E35," * Totals HTS Positive F01-29 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Total Tested F01-28"&amp;CHAR(10),""),
@@ -10428,7 +10427,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD35" s="179"/>
+      <c r="AD35" s="239"/>
       <c r="AE35" s="118" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10436,10 +10435,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF35" s="165"/>
+      <c r="AF35" s="240"/>
     </row>
     <row r="36" spans="1:32" s="18" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A36" s="205"/>
+      <c r="A36" s="223"/>
       <c r="B36" s="107" t="s">
         <v>522</v>
       </c>
@@ -10546,8 +10545,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC36" s="175"/>
-      <c r="AD36" s="179"/>
+      <c r="AC36" s="238"/>
+      <c r="AD36" s="239"/>
       <c r="AE36" s="118" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10555,122 +10554,122 @@
 )</f>
         <v/>
       </c>
-      <c r="AF36" s="165"/>
+      <c r="AF36" s="240"/>
     </row>
     <row r="37" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A37" s="170" t="s">
+      <c r="A37" s="244" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="170"/>
-      <c r="L37" s="170"/>
-      <c r="M37" s="170"/>
-      <c r="N37" s="170"/>
-      <c r="O37" s="170"/>
-      <c r="P37" s="170"/>
-      <c r="Q37" s="170"/>
-      <c r="R37" s="170"/>
-      <c r="S37" s="170"/>
-      <c r="T37" s="170"/>
-      <c r="U37" s="170"/>
-      <c r="V37" s="170"/>
-      <c r="W37" s="170"/>
-      <c r="X37" s="170"/>
-      <c r="Y37" s="170"/>
-      <c r="Z37" s="170"/>
-      <c r="AA37" s="170"/>
-      <c r="AB37" s="170"/>
-      <c r="AC37" s="170"/>
-      <c r="AD37" s="170"/>
-      <c r="AE37" s="170"/>
-      <c r="AF37" s="170"/>
+      <c r="B37" s="244"/>
+      <c r="C37" s="244"/>
+      <c r="D37" s="244"/>
+      <c r="E37" s="244"/>
+      <c r="F37" s="244"/>
+      <c r="G37" s="244"/>
+      <c r="H37" s="244"/>
+      <c r="I37" s="244"/>
+      <c r="J37" s="244"/>
+      <c r="K37" s="244"/>
+      <c r="L37" s="244"/>
+      <c r="M37" s="244"/>
+      <c r="N37" s="244"/>
+      <c r="O37" s="244"/>
+      <c r="P37" s="244"/>
+      <c r="Q37" s="244"/>
+      <c r="R37" s="244"/>
+      <c r="S37" s="244"/>
+      <c r="T37" s="244"/>
+      <c r="U37" s="244"/>
+      <c r="V37" s="244"/>
+      <c r="W37" s="244"/>
+      <c r="X37" s="244"/>
+      <c r="Y37" s="244"/>
+      <c r="Z37" s="244"/>
+      <c r="AA37" s="244"/>
+      <c r="AB37" s="244"/>
+      <c r="AC37" s="244"/>
+      <c r="AD37" s="244"/>
+      <c r="AE37" s="244"/>
+      <c r="AF37" s="244"/>
     </row>
     <row r="38" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A38" s="200" t="s">
+      <c r="A38" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="200" t="s">
+      <c r="B38" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C38" s="190" t="s">
+      <c r="C38" s="185" t="s">
         <v>508</v>
       </c>
-      <c r="D38" s="212"/>
-      <c r="E38" s="213"/>
-      <c r="F38" s="213"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="210" t="s">
+      <c r="D38" s="211"/>
+      <c r="E38" s="212"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="212"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="213"/>
+      <c r="J38" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="183"/>
-      <c r="L38" s="182" t="s">
+      <c r="K38" s="171"/>
+      <c r="L38" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="183"/>
-      <c r="N38" s="182" t="s">
+      <c r="M38" s="171"/>
+      <c r="N38" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O38" s="183"/>
-      <c r="P38" s="182" t="s">
+      <c r="O38" s="171"/>
+      <c r="P38" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q38" s="183"/>
-      <c r="R38" s="182" t="s">
+      <c r="Q38" s="171"/>
+      <c r="R38" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S38" s="183"/>
-      <c r="T38" s="182" t="s">
+      <c r="S38" s="171"/>
+      <c r="T38" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U38" s="183"/>
-      <c r="V38" s="182" t="s">
+      <c r="U38" s="171"/>
+      <c r="V38" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W38" s="183"/>
-      <c r="X38" s="182" t="s">
+      <c r="W38" s="171"/>
+      <c r="X38" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y38" s="183"/>
-      <c r="Z38" s="182" t="s">
+      <c r="Y38" s="171"/>
+      <c r="Z38" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA38" s="183"/>
-      <c r="AB38" s="202" t="s">
+      <c r="AA38" s="171"/>
+      <c r="AB38" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="AC38" s="176" t="s">
+      <c r="AC38" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="AD38" s="176" t="s">
+      <c r="AD38" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE38" s="166" t="s">
+      <c r="AE38" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF38" s="166" t="s">
+      <c r="AF38" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A39" s="201"/>
-      <c r="B39" s="201"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="215"/>
-      <c r="E39" s="216"/>
-      <c r="F39" s="216"/>
-      <c r="G39" s="216"/>
-      <c r="H39" s="216"/>
-      <c r="I39" s="217"/>
+      <c r="A39" s="188"/>
+      <c r="B39" s="188"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="214"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="215"/>
+      <c r="I39" s="216"/>
       <c r="J39" s="74" t="s">
         <v>14</v>
       </c>
@@ -10725,14 +10724,14 @@
       <c r="AA39" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB39" s="203"/>
-      <c r="AC39" s="176"/>
-      <c r="AD39" s="176"/>
-      <c r="AE39" s="166"/>
-      <c r="AF39" s="166"/>
+      <c r="AB39" s="173"/>
+      <c r="AC39" s="174"/>
+      <c r="AD39" s="174"/>
+      <c r="AE39" s="169"/>
+      <c r="AF39" s="169"/>
     </row>
     <row r="40" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A40" s="187" t="s">
+      <c r="A40" s="191" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -10770,18 +10769,18 @@
         <v>0</v>
       </c>
       <c r="AC40" s="112"/>
-      <c r="AD40" s="228" t="str">
+      <c r="AD40" s="176" t="str">
         <f>CONCATENATE(AC40,AC41,AC42,AC43,AC44)</f>
         <v/>
       </c>
       <c r="AE40" s="117"/>
-      <c r="AF40" s="164" t="str">
+      <c r="AF40" s="235" t="str">
         <f>CONCATENATE(AE40,AE41,AE42,AE43,AE44)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A41" s="187"/>
+      <c r="A41" s="191"/>
       <c r="B41" s="15" t="s">
         <v>222</v>
       </c>
@@ -10817,12 +10816,12 @@
         <v>0</v>
       </c>
       <c r="AC41" s="112"/>
-      <c r="AD41" s="229"/>
+      <c r="AD41" s="192"/>
       <c r="AE41" s="117"/>
-      <c r="AF41" s="164"/>
+      <c r="AF41" s="235"/>
     </row>
     <row r="42" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A42" s="187"/>
+      <c r="A42" s="191"/>
       <c r="B42" s="15" t="s">
         <v>524</v>
       </c>
@@ -10858,12 +10857,12 @@
         <v>0</v>
       </c>
       <c r="AC42" s="112"/>
-      <c r="AD42" s="229"/>
+      <c r="AD42" s="192"/>
       <c r="AE42" s="117"/>
-      <c r="AF42" s="164"/>
+      <c r="AF42" s="235"/>
     </row>
     <row r="43" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A43" s="187"/>
+      <c r="A43" s="191"/>
       <c r="B43" s="15" t="s">
         <v>525</v>
       </c>
@@ -10899,12 +10898,12 @@
         <v>0</v>
       </c>
       <c r="AC43" s="112"/>
-      <c r="AD43" s="229"/>
+      <c r="AD43" s="192"/>
       <c r="AE43" s="117"/>
-      <c r="AF43" s="164"/>
+      <c r="AF43" s="235"/>
     </row>
     <row r="44" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A44" s="206"/>
+      <c r="A44" s="179"/>
       <c r="B44" s="99" t="s">
         <v>526</v>
       </c>
@@ -10940,54 +10939,54 @@
         <v>0</v>
       </c>
       <c r="AC44" s="113"/>
-      <c r="AD44" s="229"/>
+      <c r="AD44" s="192"/>
       <c r="AE44" s="119"/>
-      <c r="AF44" s="164"/>
+      <c r="AF44" s="235"/>
     </row>
     <row r="45" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A45" s="170" t="s">
+      <c r="A45" s="244" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="170"/>
-      <c r="J45" s="170"/>
-      <c r="K45" s="170"/>
-      <c r="L45" s="170"/>
-      <c r="M45" s="170"/>
-      <c r="N45" s="170"/>
-      <c r="O45" s="170"/>
-      <c r="P45" s="170"/>
-      <c r="Q45" s="170"/>
-      <c r="R45" s="170"/>
-      <c r="S45" s="170"/>
-      <c r="T45" s="170"/>
-      <c r="U45" s="170"/>
-      <c r="V45" s="170"/>
-      <c r="W45" s="170"/>
-      <c r="X45" s="170"/>
-      <c r="Y45" s="170"/>
-      <c r="Z45" s="170"/>
-      <c r="AA45" s="170"/>
-      <c r="AB45" s="170"/>
-      <c r="AC45" s="170"/>
-      <c r="AD45" s="170"/>
-      <c r="AE45" s="170"/>
-      <c r="AF45" s="170"/>
+      <c r="B45" s="244"/>
+      <c r="C45" s="244"/>
+      <c r="D45" s="244"/>
+      <c r="E45" s="244"/>
+      <c r="F45" s="244"/>
+      <c r="G45" s="244"/>
+      <c r="H45" s="244"/>
+      <c r="I45" s="244"/>
+      <c r="J45" s="244"/>
+      <c r="K45" s="244"/>
+      <c r="L45" s="244"/>
+      <c r="M45" s="244"/>
+      <c r="N45" s="244"/>
+      <c r="O45" s="244"/>
+      <c r="P45" s="244"/>
+      <c r="Q45" s="244"/>
+      <c r="R45" s="244"/>
+      <c r="S45" s="244"/>
+      <c r="T45" s="244"/>
+      <c r="U45" s="244"/>
+      <c r="V45" s="244"/>
+      <c r="W45" s="244"/>
+      <c r="X45" s="244"/>
+      <c r="Y45" s="244"/>
+      <c r="Z45" s="244"/>
+      <c r="AA45" s="244"/>
+      <c r="AB45" s="244"/>
+      <c r="AC45" s="244"/>
+      <c r="AD45" s="244"/>
+      <c r="AE45" s="244"/>
+      <c r="AF45" s="244"/>
     </row>
     <row r="46" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A46" s="200" t="s">
+      <c r="A46" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="200" t="s">
+      <c r="B46" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C46" s="190" t="s">
+      <c r="C46" s="185" t="s">
         <v>508</v>
       </c>
       <c r="D46" s="78"/>
@@ -10996,62 +10995,62 @@
       <c r="G46" s="79"/>
       <c r="H46" s="79"/>
       <c r="I46" s="80"/>
-      <c r="J46" s="182" t="s">
+      <c r="J46" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="183"/>
-      <c r="L46" s="182" t="s">
+      <c r="K46" s="171"/>
+      <c r="L46" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="183"/>
-      <c r="N46" s="182" t="s">
+      <c r="M46" s="171"/>
+      <c r="N46" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O46" s="183"/>
-      <c r="P46" s="182" t="s">
+      <c r="O46" s="171"/>
+      <c r="P46" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q46" s="183"/>
-      <c r="R46" s="182" t="s">
+      <c r="Q46" s="171"/>
+      <c r="R46" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S46" s="183"/>
-      <c r="T46" s="182" t="s">
+      <c r="S46" s="171"/>
+      <c r="T46" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U46" s="183"/>
-      <c r="V46" s="182" t="s">
+      <c r="U46" s="171"/>
+      <c r="V46" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W46" s="183"/>
-      <c r="X46" s="182" t="s">
+      <c r="W46" s="171"/>
+      <c r="X46" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y46" s="183"/>
-      <c r="Z46" s="182" t="s">
+      <c r="Y46" s="171"/>
+      <c r="Z46" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA46" s="183"/>
-      <c r="AB46" s="202" t="s">
+      <c r="AA46" s="171"/>
+      <c r="AB46" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="AC46" s="176" t="s">
+      <c r="AC46" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="AD46" s="176" t="s">
+      <c r="AD46" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE46" s="166" t="s">
+      <c r="AE46" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF46" s="166" t="s">
+      <c r="AF46" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="47" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A47" s="201"/>
-      <c r="B47" s="201"/>
-      <c r="C47" s="191"/>
+      <c r="A47" s="188"/>
+      <c r="B47" s="188"/>
+      <c r="C47" s="186"/>
       <c r="D47" s="78"/>
       <c r="E47" s="79"/>
       <c r="F47" s="79"/>
@@ -11112,14 +11111,14 @@
       <c r="AA47" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB47" s="203"/>
-      <c r="AC47" s="176"/>
-      <c r="AD47" s="176"/>
-      <c r="AE47" s="166"/>
-      <c r="AF47" s="166"/>
+      <c r="AB47" s="173"/>
+      <c r="AC47" s="174"/>
+      <c r="AD47" s="174"/>
+      <c r="AE47" s="169"/>
+      <c r="AF47" s="169"/>
     </row>
     <row r="48" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A48" s="230" t="s">
+      <c r="A48" s="181" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -11156,7 +11155,7 @@
         <f>SUM(D48:AA48)</f>
         <v>0</v>
       </c>
-      <c r="AC48" s="171" t="str">
+      <c r="AC48" s="236" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D49&gt;D48," * Eligible for PrEP  for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Assessed for HIV risk"&amp;CHAR(10),""),IF(E49&gt;E48," * Eligible for PrEP  for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Assessed for HIV risk"&amp;CHAR(10),""),
@@ -11175,18 +11174,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD48" s="243" t="str">
+      <c r="AD48" s="177" t="str">
         <f>CONCATENATE(AC48,AC50,AC51,AC52,AC53,AC55,AC56,AC57,AC58,AC59,AC60,AC61,AC62,AC63,AC64)</f>
         <v/>
       </c>
       <c r="AE48" s="117"/>
-      <c r="AF48" s="164" t="str">
+      <c r="AF48" s="235" t="str">
         <f>CONCATENATE(AE48,AE49,AE50,AE51,AE52,AE53,AE54,AE55,AE56,AE57,AE58,AE59,AE60,AE61,AE62,AE63,AE64)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A49" s="231"/>
+      <c r="A49" s="182"/>
       <c r="B49" s="15" t="s">
         <v>633</v>
       </c>
@@ -11221,13 +11220,13 @@
         <f t="shared" ref="AB49:AB62" si="5">SUM(D49:AA49)</f>
         <v>0</v>
       </c>
-      <c r="AC49" s="172"/>
-      <c r="AD49" s="244"/>
+      <c r="AC49" s="237"/>
+      <c r="AD49" s="178"/>
       <c r="AE49" s="117"/>
-      <c r="AF49" s="164"/>
+      <c r="AF49" s="235"/>
     </row>
     <row r="50" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A50" s="231"/>
+      <c r="A50" s="182"/>
       <c r="B50" s="15" t="s">
         <v>528</v>
       </c>
@@ -11281,7 +11280,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD50" s="244"/>
+      <c r="AD50" s="178"/>
       <c r="AE50" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -11289,10 +11288,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF50" s="164"/>
+      <c r="AF50" s="235"/>
     </row>
     <row r="51" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A51" s="231"/>
+      <c r="A51" s="182"/>
       <c r="B51" s="15" t="s">
         <v>237</v>
       </c>
@@ -11328,12 +11327,12 @@
         <v>0</v>
       </c>
       <c r="AC51" s="112"/>
-      <c r="AD51" s="244"/>
+      <c r="AD51" s="178"/>
       <c r="AE51" s="117"/>
-      <c r="AF51" s="164"/>
+      <c r="AF51" s="235"/>
     </row>
     <row r="52" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A52" s="231"/>
+      <c r="A52" s="182"/>
       <c r="B52" s="15" t="s">
         <v>529</v>
       </c>
@@ -11369,12 +11368,12 @@
         <v>0</v>
       </c>
       <c r="AC52" s="112"/>
-      <c r="AD52" s="244"/>
+      <c r="AD52" s="178"/>
       <c r="AE52" s="117"/>
-      <c r="AF52" s="164"/>
+      <c r="AF52" s="235"/>
     </row>
     <row r="53" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A53" s="187" t="s">
+      <c r="A53" s="191" t="s">
         <v>37</v>
       </c>
       <c r="B53" s="15" t="s">
@@ -11411,7 +11410,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="177" t="str">
+      <c r="AC53" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D54&gt;D53," * F02-07 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F02-06"&amp;CHAR(10),""),IF(E54&gt;E53," * F02-07 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F02-06"&amp;CHAR(10),""),
@@ -11430,12 +11429,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD53" s="244"/>
+      <c r="AD53" s="178"/>
       <c r="AE53" s="117"/>
-      <c r="AF53" s="164"/>
+      <c r="AF53" s="235"/>
     </row>
     <row r="54" spans="1:32" s="10" customFormat="1" ht="83.85" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A54" s="187"/>
+      <c r="A54" s="191"/>
       <c r="B54" s="15" t="s">
         <v>530</v>
       </c>
@@ -11470,13 +11469,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="178"/>
-      <c r="AD54" s="244"/>
+      <c r="AC54" s="202"/>
+      <c r="AD54" s="178"/>
       <c r="AE54" s="117"/>
-      <c r="AF54" s="164"/>
+      <c r="AF54" s="235"/>
     </row>
     <row r="55" spans="1:32" s="10" customFormat="1" ht="83.85" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A55" s="187"/>
+      <c r="A55" s="191"/>
       <c r="B55" s="15" t="s">
         <v>531</v>
       </c>
@@ -11512,12 +11511,12 @@
         <v>0</v>
       </c>
       <c r="AC55" s="112"/>
-      <c r="AD55" s="244"/>
+      <c r="AD55" s="178"/>
       <c r="AE55" s="117"/>
-      <c r="AF55" s="164"/>
+      <c r="AF55" s="235"/>
     </row>
     <row r="56" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A56" s="206" t="s">
+      <c r="A56" s="179" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -11555,12 +11554,12 @@
         <v>0</v>
       </c>
       <c r="AC56" s="112"/>
-      <c r="AD56" s="244"/>
+      <c r="AD56" s="178"/>
       <c r="AE56" s="117"/>
-      <c r="AF56" s="164"/>
+      <c r="AF56" s="235"/>
     </row>
     <row r="57" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A57" s="207"/>
+      <c r="A57" s="198"/>
       <c r="B57" s="15" t="s">
         <v>533</v>
       </c>
@@ -11596,12 +11595,12 @@
         <v>0</v>
       </c>
       <c r="AC57" s="112"/>
-      <c r="AD57" s="244"/>
+      <c r="AD57" s="178"/>
       <c r="AE57" s="117"/>
-      <c r="AF57" s="164"/>
+      <c r="AF57" s="235"/>
     </row>
     <row r="58" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A58" s="207"/>
+      <c r="A58" s="198"/>
       <c r="B58" s="15" t="s">
         <v>248</v>
       </c>
@@ -11637,12 +11636,12 @@
         <v>0</v>
       </c>
       <c r="AC58" s="112"/>
-      <c r="AD58" s="244"/>
+      <c r="AD58" s="178"/>
       <c r="AE58" s="117"/>
-      <c r="AF58" s="164"/>
+      <c r="AF58" s="235"/>
     </row>
     <row r="59" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A59" s="207"/>
+      <c r="A59" s="198"/>
       <c r="B59" s="15" t="s">
         <v>534</v>
       </c>
@@ -11678,12 +11677,12 @@
         <v>0</v>
       </c>
       <c r="AC59" s="112"/>
-      <c r="AD59" s="244"/>
+      <c r="AD59" s="178"/>
       <c r="AE59" s="117"/>
-      <c r="AF59" s="164"/>
+      <c r="AF59" s="235"/>
     </row>
     <row r="60" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A60" s="207"/>
+      <c r="A60" s="198"/>
       <c r="B60" s="15" t="s">
         <v>535</v>
       </c>
@@ -11719,12 +11718,12 @@
         <v>0</v>
       </c>
       <c r="AC60" s="112"/>
-      <c r="AD60" s="244"/>
+      <c r="AD60" s="178"/>
       <c r="AE60" s="117"/>
-      <c r="AF60" s="164"/>
+      <c r="AF60" s="235"/>
     </row>
     <row r="61" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A61" s="207"/>
+      <c r="A61" s="198"/>
       <c r="B61" s="15" t="s">
         <v>536</v>
       </c>
@@ -11760,12 +11759,12 @@
         <v>0</v>
       </c>
       <c r="AC61" s="112"/>
-      <c r="AD61" s="244"/>
+      <c r="AD61" s="178"/>
       <c r="AE61" s="117"/>
-      <c r="AF61" s="164"/>
+      <c r="AF61" s="235"/>
     </row>
     <row r="62" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A62" s="208"/>
+      <c r="A62" s="180"/>
       <c r="B62" s="15" t="s">
         <v>537</v>
       </c>
@@ -11801,12 +11800,12 @@
         <v>0</v>
       </c>
       <c r="AC62" s="112"/>
-      <c r="AD62" s="244"/>
+      <c r="AD62" s="178"/>
       <c r="AE62" s="117"/>
-      <c r="AF62" s="164"/>
+      <c r="AF62" s="235"/>
     </row>
     <row r="63" spans="1:32" s="10" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A63" s="206" t="s">
+      <c r="A63" s="179" t="s">
         <v>134</v>
       </c>
       <c r="B63" s="93" t="s">
@@ -11841,12 +11840,12 @@
       <c r="AA63" s="87"/>
       <c r="AB63" s="125"/>
       <c r="AC63" s="112"/>
-      <c r="AD63" s="244"/>
+      <c r="AD63" s="178"/>
       <c r="AE63" s="117"/>
-      <c r="AF63" s="164"/>
+      <c r="AF63" s="235"/>
     </row>
     <row r="64" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A64" s="207"/>
+      <c r="A64" s="198"/>
       <c r="B64" s="104" t="s">
         <v>539</v>
       </c>
@@ -11879,124 +11878,124 @@
       <c r="AA64" s="101"/>
       <c r="AB64" s="126"/>
       <c r="AC64" s="113"/>
-      <c r="AD64" s="244"/>
+      <c r="AD64" s="178"/>
       <c r="AE64" s="119"/>
-      <c r="AF64" s="164"/>
+      <c r="AF64" s="235"/>
     </row>
     <row r="65" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A65" s="170" t="s">
+      <c r="A65" s="244" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="170"/>
-      <c r="C65" s="170"/>
-      <c r="D65" s="170"/>
-      <c r="E65" s="170"/>
-      <c r="F65" s="170"/>
-      <c r="G65" s="170"/>
-      <c r="H65" s="170"/>
-      <c r="I65" s="170"/>
-      <c r="J65" s="170"/>
-      <c r="K65" s="170"/>
-      <c r="L65" s="170"/>
-      <c r="M65" s="170"/>
-      <c r="N65" s="170"/>
-      <c r="O65" s="170"/>
-      <c r="P65" s="170"/>
-      <c r="Q65" s="170"/>
-      <c r="R65" s="170"/>
-      <c r="S65" s="170"/>
-      <c r="T65" s="170"/>
-      <c r="U65" s="170"/>
-      <c r="V65" s="170"/>
-      <c r="W65" s="170"/>
-      <c r="X65" s="170"/>
-      <c r="Y65" s="170"/>
-      <c r="Z65" s="170"/>
-      <c r="AA65" s="170"/>
-      <c r="AB65" s="170"/>
-      <c r="AC65" s="170"/>
-      <c r="AD65" s="170"/>
-      <c r="AE65" s="170"/>
-      <c r="AF65" s="170"/>
+      <c r="B65" s="244"/>
+      <c r="C65" s="244"/>
+      <c r="D65" s="244"/>
+      <c r="E65" s="244"/>
+      <c r="F65" s="244"/>
+      <c r="G65" s="244"/>
+      <c r="H65" s="244"/>
+      <c r="I65" s="244"/>
+      <c r="J65" s="244"/>
+      <c r="K65" s="244"/>
+      <c r="L65" s="244"/>
+      <c r="M65" s="244"/>
+      <c r="N65" s="244"/>
+      <c r="O65" s="244"/>
+      <c r="P65" s="244"/>
+      <c r="Q65" s="244"/>
+      <c r="R65" s="244"/>
+      <c r="S65" s="244"/>
+      <c r="T65" s="244"/>
+      <c r="U65" s="244"/>
+      <c r="V65" s="244"/>
+      <c r="W65" s="244"/>
+      <c r="X65" s="244"/>
+      <c r="Y65" s="244"/>
+      <c r="Z65" s="244"/>
+      <c r="AA65" s="244"/>
+      <c r="AB65" s="244"/>
+      <c r="AC65" s="244"/>
+      <c r="AD65" s="244"/>
+      <c r="AE65" s="244"/>
+      <c r="AF65" s="244"/>
     </row>
     <row r="66" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A66" s="200" t="s">
+      <c r="A66" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="200" t="s">
+      <c r="B66" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C66" s="190" t="s">
+      <c r="C66" s="185" t="s">
         <v>508</v>
       </c>
-      <c r="D66" s="210" t="s">
+      <c r="D66" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="183"/>
-      <c r="F66" s="182" t="s">
+      <c r="E66" s="171"/>
+      <c r="F66" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="183"/>
-      <c r="H66" s="182" t="s">
+      <c r="G66" s="171"/>
+      <c r="H66" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="I66" s="183"/>
-      <c r="J66" s="182" t="s">
+      <c r="I66" s="171"/>
+      <c r="J66" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="183"/>
-      <c r="L66" s="182" t="s">
+      <c r="K66" s="171"/>
+      <c r="L66" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="183"/>
-      <c r="N66" s="182" t="s">
+      <c r="M66" s="171"/>
+      <c r="N66" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O66" s="183"/>
-      <c r="P66" s="182" t="s">
+      <c r="O66" s="171"/>
+      <c r="P66" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q66" s="183"/>
-      <c r="R66" s="182" t="s">
+      <c r="Q66" s="171"/>
+      <c r="R66" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S66" s="183"/>
-      <c r="T66" s="182" t="s">
+      <c r="S66" s="171"/>
+      <c r="T66" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U66" s="183"/>
-      <c r="V66" s="182" t="s">
+      <c r="U66" s="171"/>
+      <c r="V66" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W66" s="183"/>
-      <c r="X66" s="182" t="s">
+      <c r="W66" s="171"/>
+      <c r="X66" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y66" s="183"/>
-      <c r="Z66" s="182" t="s">
+      <c r="Y66" s="171"/>
+      <c r="Z66" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA66" s="183"/>
-      <c r="AB66" s="202" t="s">
+      <c r="AA66" s="171"/>
+      <c r="AB66" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="AC66" s="176" t="s">
+      <c r="AC66" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="AD66" s="176" t="s">
+      <c r="AD66" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE66" s="166" t="s">
+      <c r="AE66" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF66" s="166" t="s">
+      <c r="AF66" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A67" s="201"/>
-      <c r="B67" s="201"/>
-      <c r="C67" s="191"/>
+      <c r="A67" s="188"/>
+      <c r="B67" s="188"/>
+      <c r="C67" s="186"/>
       <c r="D67" s="73" t="s">
         <v>14</v>
       </c>
@@ -12069,14 +12068,14 @@
       <c r="AA67" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB67" s="203"/>
-      <c r="AC67" s="176"/>
-      <c r="AD67" s="176"/>
-      <c r="AE67" s="166"/>
-      <c r="AF67" s="166"/>
+      <c r="AB67" s="173"/>
+      <c r="AC67" s="174"/>
+      <c r="AD67" s="174"/>
+      <c r="AE67" s="169"/>
+      <c r="AF67" s="169"/>
     </row>
     <row r="68" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A68" s="206" t="s">
+      <c r="A68" s="179" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -12132,18 +12131,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD68" s="235" t="str">
+      <c r="AD68" s="175" t="str">
         <f>CONCATENATE(AC68,AC69,AC70,AC71,AC72,AC73,AC74,AC75,AC76,AC77,AC78,AC79)</f>
         <v/>
       </c>
       <c r="AE68" s="117"/>
-      <c r="AF68" s="164" t="str">
+      <c r="AF68" s="235" t="str">
         <f>CONCATENATE(AE68,AE69,AE70,AE71,AE72,AE73,AE74,AE75,AE76,AE77,AE78,AE79)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A69" s="207"/>
+      <c r="A69" s="198"/>
       <c r="B69" s="15" t="s">
         <v>541</v>
       </c>
@@ -12197,12 +12196,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD69" s="235"/>
+      <c r="AD69" s="175"/>
       <c r="AE69" s="117"/>
-      <c r="AF69" s="164"/>
+      <c r="AF69" s="235"/>
     </row>
     <row r="70" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A70" s="206" t="s">
+      <c r="A70" s="179" t="s">
         <v>32</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -12258,12 +12257,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD70" s="235"/>
+      <c r="AD70" s="175"/>
       <c r="AE70" s="117"/>
-      <c r="AF70" s="164"/>
+      <c r="AF70" s="235"/>
     </row>
     <row r="71" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A71" s="207"/>
+      <c r="A71" s="198"/>
       <c r="B71" s="15" t="s">
         <v>541</v>
       </c>
@@ -12317,12 +12316,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD71" s="235"/>
+      <c r="AD71" s="175"/>
       <c r="AE71" s="117"/>
-      <c r="AF71" s="164"/>
+      <c r="AF71" s="235"/>
     </row>
     <row r="72" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A72" s="221" t="s">
+      <c r="A72" s="207" t="s">
         <v>38</v>
       </c>
       <c r="B72" s="20" t="s">
@@ -12360,12 +12359,12 @@
         <v>0</v>
       </c>
       <c r="AC72" s="112"/>
-      <c r="AD72" s="235"/>
+      <c r="AD72" s="175"/>
       <c r="AE72" s="117"/>
-      <c r="AF72" s="164"/>
+      <c r="AF72" s="235"/>
     </row>
     <row r="73" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A73" s="221"/>
+      <c r="A73" s="207"/>
       <c r="B73" s="20" t="s">
         <v>544</v>
       </c>
@@ -12401,12 +12400,12 @@
         <v>0</v>
       </c>
       <c r="AC73" s="112"/>
-      <c r="AD73" s="235"/>
+      <c r="AD73" s="175"/>
       <c r="AE73" s="117"/>
-      <c r="AF73" s="164"/>
+      <c r="AF73" s="235"/>
     </row>
     <row r="74" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A74" s="221" t="s">
+      <c r="A74" s="207" t="s">
         <v>39</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -12444,12 +12443,12 @@
         <v>0</v>
       </c>
       <c r="AC74" s="112"/>
-      <c r="AD74" s="235"/>
+      <c r="AD74" s="175"/>
       <c r="AE74" s="117"/>
-      <c r="AF74" s="164"/>
+      <c r="AF74" s="235"/>
     </row>
     <row r="75" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A75" s="221"/>
+      <c r="A75" s="207"/>
       <c r="B75" s="20" t="s">
         <v>545</v>
       </c>
@@ -12485,12 +12484,12 @@
         <v>0</v>
       </c>
       <c r="AC75" s="112"/>
-      <c r="AD75" s="235"/>
+      <c r="AD75" s="175"/>
       <c r="AE75" s="117"/>
-      <c r="AF75" s="164"/>
+      <c r="AF75" s="235"/>
     </row>
     <row r="76" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A76" s="221" t="s">
+      <c r="A76" s="207" t="s">
         <v>40</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -12528,12 +12527,12 @@
         <v>0</v>
       </c>
       <c r="AC76" s="112"/>
-      <c r="AD76" s="235"/>
+      <c r="AD76" s="175"/>
       <c r="AE76" s="117"/>
-      <c r="AF76" s="164"/>
+      <c r="AF76" s="235"/>
     </row>
     <row r="77" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A77" s="221"/>
+      <c r="A77" s="207"/>
       <c r="B77" s="20" t="s">
         <v>546</v>
       </c>
@@ -12569,12 +12568,12 @@
         <v>0</v>
       </c>
       <c r="AC77" s="112"/>
-      <c r="AD77" s="235"/>
+      <c r="AD77" s="175"/>
       <c r="AE77" s="117"/>
-      <c r="AF77" s="164"/>
+      <c r="AF77" s="235"/>
     </row>
     <row r="78" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A78" s="221" t="s">
+      <c r="A78" s="207" t="s">
         <v>41</v>
       </c>
       <c r="B78" s="20" t="s">
@@ -12612,12 +12611,12 @@
         <v>0</v>
       </c>
       <c r="AC78" s="112"/>
-      <c r="AD78" s="235"/>
+      <c r="AD78" s="175"/>
       <c r="AE78" s="117"/>
-      <c r="AF78" s="164"/>
+      <c r="AF78" s="235"/>
     </row>
     <row r="79" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A79" s="222"/>
+      <c r="A79" s="208"/>
       <c r="B79" s="102" t="s">
         <v>547</v>
       </c>
@@ -12653,54 +12652,54 @@
         <v>0</v>
       </c>
       <c r="AC79" s="113"/>
-      <c r="AD79" s="228"/>
+      <c r="AD79" s="176"/>
       <c r="AE79" s="119"/>
-      <c r="AF79" s="164"/>
+      <c r="AF79" s="235"/>
     </row>
     <row r="80" spans="1:32" s="8" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A80" s="170" t="s">
+      <c r="A80" s="244" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="170"/>
-      <c r="C80" s="170"/>
-      <c r="D80" s="170"/>
-      <c r="E80" s="170"/>
-      <c r="F80" s="170"/>
-      <c r="G80" s="170"/>
-      <c r="H80" s="170"/>
-      <c r="I80" s="170"/>
-      <c r="J80" s="170"/>
-      <c r="K80" s="170"/>
-      <c r="L80" s="170"/>
-      <c r="M80" s="170"/>
-      <c r="N80" s="170"/>
-      <c r="O80" s="170"/>
-      <c r="P80" s="170"/>
-      <c r="Q80" s="170"/>
-      <c r="R80" s="170"/>
-      <c r="S80" s="170"/>
-      <c r="T80" s="170"/>
-      <c r="U80" s="170"/>
-      <c r="V80" s="170"/>
-      <c r="W80" s="170"/>
-      <c r="X80" s="170"/>
-      <c r="Y80" s="170"/>
-      <c r="Z80" s="170"/>
-      <c r="AA80" s="170"/>
-      <c r="AB80" s="170"/>
-      <c r="AC80" s="170"/>
-      <c r="AD80" s="170"/>
-      <c r="AE80" s="170"/>
-      <c r="AF80" s="170"/>
+      <c r="B80" s="244"/>
+      <c r="C80" s="244"/>
+      <c r="D80" s="244"/>
+      <c r="E80" s="244"/>
+      <c r="F80" s="244"/>
+      <c r="G80" s="244"/>
+      <c r="H80" s="244"/>
+      <c r="I80" s="244"/>
+      <c r="J80" s="244"/>
+      <c r="K80" s="244"/>
+      <c r="L80" s="244"/>
+      <c r="M80" s="244"/>
+      <c r="N80" s="244"/>
+      <c r="O80" s="244"/>
+      <c r="P80" s="244"/>
+      <c r="Q80" s="244"/>
+      <c r="R80" s="244"/>
+      <c r="S80" s="244"/>
+      <c r="T80" s="244"/>
+      <c r="U80" s="244"/>
+      <c r="V80" s="244"/>
+      <c r="W80" s="244"/>
+      <c r="X80" s="244"/>
+      <c r="Y80" s="244"/>
+      <c r="Z80" s="244"/>
+      <c r="AA80" s="244"/>
+      <c r="AB80" s="244"/>
+      <c r="AC80" s="244"/>
+      <c r="AD80" s="244"/>
+      <c r="AE80" s="244"/>
+      <c r="AF80" s="244"/>
     </row>
     <row r="81" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A81" s="200" t="s">
+      <c r="A81" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B81" s="200" t="s">
+      <c r="B81" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C81" s="190" t="s">
+      <c r="C81" s="185" t="s">
         <v>508</v>
       </c>
       <c r="D81" s="78"/>
@@ -12711,58 +12710,58 @@
       <c r="I81" s="79"/>
       <c r="J81" s="79"/>
       <c r="K81" s="80"/>
-      <c r="L81" s="210" t="s">
+      <c r="L81" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="M81" s="183"/>
-      <c r="N81" s="182" t="s">
+      <c r="M81" s="171"/>
+      <c r="N81" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O81" s="183"/>
-      <c r="P81" s="182" t="s">
+      <c r="O81" s="171"/>
+      <c r="P81" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q81" s="183"/>
-      <c r="R81" s="182" t="s">
+      <c r="Q81" s="171"/>
+      <c r="R81" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S81" s="183"/>
-      <c r="T81" s="182" t="s">
+      <c r="S81" s="171"/>
+      <c r="T81" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U81" s="183"/>
-      <c r="V81" s="182" t="s">
+      <c r="U81" s="171"/>
+      <c r="V81" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W81" s="183"/>
-      <c r="X81" s="182" t="s">
+      <c r="W81" s="171"/>
+      <c r="X81" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y81" s="183"/>
-      <c r="Z81" s="182" t="s">
+      <c r="Y81" s="171"/>
+      <c r="Z81" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA81" s="183"/>
-      <c r="AB81" s="202" t="s">
+      <c r="AA81" s="171"/>
+      <c r="AB81" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="AC81" s="176" t="s">
+      <c r="AC81" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="AD81" s="176" t="s">
+      <c r="AD81" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE81" s="166" t="s">
+      <c r="AE81" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF81" s="166" t="s">
+      <c r="AF81" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="82" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A82" s="201"/>
-      <c r="B82" s="201"/>
-      <c r="C82" s="191"/>
+      <c r="A82" s="188"/>
+      <c r="B82" s="188"/>
+      <c r="C82" s="186"/>
       <c r="D82" s="75"/>
       <c r="E82" s="76"/>
       <c r="F82" s="76"/>
@@ -12819,14 +12818,14 @@
       <c r="AA82" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB82" s="203"/>
-      <c r="AC82" s="176"/>
-      <c r="AD82" s="176"/>
-      <c r="AE82" s="166"/>
-      <c r="AF82" s="166"/>
+      <c r="AB82" s="173"/>
+      <c r="AC82" s="174"/>
+      <c r="AD82" s="174"/>
+      <c r="AE82" s="169"/>
+      <c r="AF82" s="169"/>
     </row>
     <row r="83" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A83" s="206" t="s">
+      <c r="A83" s="179" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -12864,18 +12863,18 @@
         <v>0</v>
       </c>
       <c r="AC83" s="112"/>
-      <c r="AD83" s="235" t="str">
+      <c r="AD83" s="175" t="str">
         <f>CONCATENATE(AC83,AC84,AC85,AC86,AC87,AC88,AC89,AC90,AC91,AC92,AC93,AC94,AC95,AC96,AC97,AC98,AC99,AC100)</f>
         <v/>
       </c>
       <c r="AE83" s="117"/>
-      <c r="AF83" s="164" t="str">
+      <c r="AF83" s="235" t="str">
         <f>CONCATENATE(AE83,AE84,AE85,AE86,AE87,AE88,AE89,AE90,AE91,AE92,AE93,AE94,AE95,AE96,AE97,AE98,AE99,AE100)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A84" s="207"/>
+      <c r="A84" s="198"/>
       <c r="B84" s="15" t="s">
         <v>288</v>
       </c>
@@ -12929,12 +12928,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD84" s="235"/>
+      <c r="AD84" s="175"/>
       <c r="AE84" s="117"/>
-      <c r="AF84" s="164"/>
+      <c r="AF84" s="235"/>
     </row>
     <row r="85" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A85" s="207"/>
+      <c r="A85" s="198"/>
       <c r="B85" s="15" t="s">
         <v>549</v>
       </c>
@@ -12970,12 +12969,12 @@
         <v>0</v>
       </c>
       <c r="AC85" s="112"/>
-      <c r="AD85" s="235"/>
+      <c r="AD85" s="175"/>
       <c r="AE85" s="117"/>
-      <c r="AF85" s="164"/>
+      <c r="AF85" s="235"/>
     </row>
     <row r="86" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A86" s="207"/>
+      <c r="A86" s="198"/>
       <c r="B86" s="15" t="s">
         <v>550</v>
       </c>
@@ -13011,12 +13010,12 @@
         <v>0</v>
       </c>
       <c r="AC86" s="112"/>
-      <c r="AD86" s="235"/>
+      <c r="AD86" s="175"/>
       <c r="AE86" s="117"/>
-      <c r="AF86" s="164"/>
+      <c r="AF86" s="235"/>
     </row>
     <row r="87" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A87" s="207"/>
+      <c r="A87" s="198"/>
       <c r="B87" s="15" t="s">
         <v>551</v>
       </c>
@@ -13052,12 +13051,12 @@
         <v>0</v>
       </c>
       <c r="AC87" s="112"/>
-      <c r="AD87" s="235"/>
+      <c r="AD87" s="175"/>
       <c r="AE87" s="117"/>
-      <c r="AF87" s="164"/>
+      <c r="AF87" s="235"/>
     </row>
     <row r="88" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A88" s="208"/>
+      <c r="A88" s="180"/>
       <c r="B88" s="15" t="s">
         <v>552</v>
       </c>
@@ -13093,12 +13092,12 @@
         <v>0</v>
       </c>
       <c r="AC88" s="112"/>
-      <c r="AD88" s="235"/>
+      <c r="AD88" s="175"/>
       <c r="AE88" s="117"/>
-      <c r="AF88" s="164"/>
+      <c r="AF88" s="235"/>
     </row>
     <row r="89" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A89" s="206" t="s">
+      <c r="A89" s="179" t="s">
         <v>42</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -13136,12 +13135,12 @@
         <v>0</v>
       </c>
       <c r="AC89" s="112"/>
-      <c r="AD89" s="235"/>
+      <c r="AD89" s="175"/>
       <c r="AE89" s="117"/>
-      <c r="AF89" s="164"/>
+      <c r="AF89" s="235"/>
     </row>
     <row r="90" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A90" s="207"/>
+      <c r="A90" s="198"/>
       <c r="B90" s="15" t="s">
         <v>553</v>
       </c>
@@ -13195,12 +13194,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD90" s="235"/>
+      <c r="AD90" s="175"/>
       <c r="AE90" s="117"/>
-      <c r="AF90" s="164"/>
+      <c r="AF90" s="235"/>
     </row>
     <row r="91" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A91" s="207"/>
+      <c r="A91" s="198"/>
       <c r="B91" s="15" t="s">
         <v>304</v>
       </c>
@@ -13236,12 +13235,12 @@
         <v>0</v>
       </c>
       <c r="AC91" s="112"/>
-      <c r="AD91" s="235"/>
+      <c r="AD91" s="175"/>
       <c r="AE91" s="117"/>
-      <c r="AF91" s="164"/>
+      <c r="AF91" s="235"/>
     </row>
     <row r="92" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A92" s="207"/>
+      <c r="A92" s="198"/>
       <c r="B92" s="15" t="s">
         <v>554</v>
       </c>
@@ -13277,12 +13276,12 @@
         <v>0</v>
       </c>
       <c r="AC92" s="112"/>
-      <c r="AD92" s="235"/>
+      <c r="AD92" s="175"/>
       <c r="AE92" s="117"/>
-      <c r="AF92" s="164"/>
+      <c r="AF92" s="235"/>
     </row>
     <row r="93" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A93" s="207"/>
+      <c r="A93" s="198"/>
       <c r="B93" s="15" t="s">
         <v>551</v>
       </c>
@@ -13318,12 +13317,12 @@
         <v>0</v>
       </c>
       <c r="AC93" s="112"/>
-      <c r="AD93" s="235"/>
+      <c r="AD93" s="175"/>
       <c r="AE93" s="117"/>
-      <c r="AF93" s="164"/>
+      <c r="AF93" s="235"/>
     </row>
     <row r="94" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A94" s="208"/>
+      <c r="A94" s="180"/>
       <c r="B94" s="15" t="s">
         <v>309</v>
       </c>
@@ -13377,12 +13376,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD94" s="235"/>
+      <c r="AD94" s="175"/>
       <c r="AE94" s="117"/>
-      <c r="AF94" s="164"/>
+      <c r="AF94" s="235"/>
     </row>
     <row r="95" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A95" s="206" t="s">
+      <c r="A95" s="179" t="s">
         <v>33</v>
       </c>
       <c r="B95" s="15" t="s">
@@ -13420,12 +13419,12 @@
         <v>0</v>
       </c>
       <c r="AC95" s="112"/>
-      <c r="AD95" s="235"/>
+      <c r="AD95" s="175"/>
       <c r="AE95" s="117"/>
-      <c r="AF95" s="164"/>
+      <c r="AF95" s="235"/>
     </row>
     <row r="96" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A96" s="207"/>
+      <c r="A96" s="198"/>
       <c r="B96" s="15" t="s">
         <v>288</v>
       </c>
@@ -13479,12 +13478,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD96" s="235"/>
+      <c r="AD96" s="175"/>
       <c r="AE96" s="117"/>
-      <c r="AF96" s="164"/>
+      <c r="AF96" s="235"/>
     </row>
     <row r="97" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A97" s="207"/>
+      <c r="A97" s="198"/>
       <c r="B97" s="15" t="s">
         <v>304</v>
       </c>
@@ -13520,12 +13519,12 @@
         <v>0</v>
       </c>
       <c r="AC97" s="112"/>
-      <c r="AD97" s="235"/>
+      <c r="AD97" s="175"/>
       <c r="AE97" s="117"/>
-      <c r="AF97" s="164"/>
+      <c r="AF97" s="235"/>
     </row>
     <row r="98" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A98" s="207"/>
+      <c r="A98" s="198"/>
       <c r="B98" s="15" t="s">
         <v>550</v>
       </c>
@@ -13561,12 +13560,12 @@
         <v>0</v>
       </c>
       <c r="AC98" s="112"/>
-      <c r="AD98" s="235"/>
+      <c r="AD98" s="175"/>
       <c r="AE98" s="117"/>
-      <c r="AF98" s="164"/>
+      <c r="AF98" s="235"/>
     </row>
     <row r="99" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A99" s="207"/>
+      <c r="A99" s="198"/>
       <c r="B99" s="15" t="s">
         <v>551</v>
       </c>
@@ -13602,12 +13601,12 @@
         <v>0</v>
       </c>
       <c r="AC99" s="112"/>
-      <c r="AD99" s="235"/>
+      <c r="AD99" s="175"/>
       <c r="AE99" s="117"/>
-      <c r="AF99" s="164"/>
+      <c r="AF99" s="235"/>
     </row>
     <row r="100" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A100" s="207"/>
+      <c r="A100" s="198"/>
       <c r="B100" s="99" t="s">
         <v>309</v>
       </c>
@@ -13643,124 +13642,124 @@
         <v>0</v>
       </c>
       <c r="AC100" s="113"/>
-      <c r="AD100" s="235"/>
+      <c r="AD100" s="175"/>
       <c r="AE100" s="117"/>
-      <c r="AF100" s="164"/>
+      <c r="AF100" s="235"/>
     </row>
     <row r="101" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A101" s="170" t="s">
+      <c r="A101" s="244" t="s">
         <v>153</v>
       </c>
-      <c r="B101" s="170"/>
-      <c r="C101" s="170"/>
-      <c r="D101" s="170"/>
-      <c r="E101" s="170"/>
-      <c r="F101" s="170"/>
-      <c r="G101" s="170"/>
-      <c r="H101" s="170"/>
-      <c r="I101" s="170"/>
-      <c r="J101" s="170"/>
-      <c r="K101" s="170"/>
-      <c r="L101" s="170"/>
-      <c r="M101" s="170"/>
-      <c r="N101" s="170"/>
-      <c r="O101" s="170"/>
-      <c r="P101" s="170"/>
-      <c r="Q101" s="170"/>
-      <c r="R101" s="170"/>
-      <c r="S101" s="170"/>
-      <c r="T101" s="170"/>
-      <c r="U101" s="170"/>
-      <c r="V101" s="170"/>
-      <c r="W101" s="170"/>
-      <c r="X101" s="170"/>
-      <c r="Y101" s="170"/>
-      <c r="Z101" s="170"/>
-      <c r="AA101" s="170"/>
-      <c r="AB101" s="170"/>
-      <c r="AC101" s="170"/>
-      <c r="AD101" s="170"/>
-      <c r="AE101" s="170"/>
-      <c r="AF101" s="170"/>
+      <c r="B101" s="244"/>
+      <c r="C101" s="244"/>
+      <c r="D101" s="244"/>
+      <c r="E101" s="244"/>
+      <c r="F101" s="244"/>
+      <c r="G101" s="244"/>
+      <c r="H101" s="244"/>
+      <c r="I101" s="244"/>
+      <c r="J101" s="244"/>
+      <c r="K101" s="244"/>
+      <c r="L101" s="244"/>
+      <c r="M101" s="244"/>
+      <c r="N101" s="244"/>
+      <c r="O101" s="244"/>
+      <c r="P101" s="244"/>
+      <c r="Q101" s="244"/>
+      <c r="R101" s="244"/>
+      <c r="S101" s="244"/>
+      <c r="T101" s="244"/>
+      <c r="U101" s="244"/>
+      <c r="V101" s="244"/>
+      <c r="W101" s="244"/>
+      <c r="X101" s="244"/>
+      <c r="Y101" s="244"/>
+      <c r="Z101" s="244"/>
+      <c r="AA101" s="244"/>
+      <c r="AB101" s="244"/>
+      <c r="AC101" s="244"/>
+      <c r="AD101" s="244"/>
+      <c r="AE101" s="244"/>
+      <c r="AF101" s="244"/>
     </row>
     <row r="102" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A102" s="200" t="s">
+      <c r="A102" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B102" s="200" t="s">
+      <c r="B102" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C102" s="190" t="s">
+      <c r="C102" s="185" t="s">
         <v>508</v>
       </c>
-      <c r="D102" s="210" t="s">
+      <c r="D102" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="183"/>
-      <c r="F102" s="182" t="s">
+      <c r="E102" s="171"/>
+      <c r="F102" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="183"/>
-      <c r="H102" s="182" t="s">
+      <c r="G102" s="171"/>
+      <c r="H102" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="I102" s="183"/>
-      <c r="J102" s="182" t="s">
+      <c r="I102" s="171"/>
+      <c r="J102" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="K102" s="183"/>
-      <c r="L102" s="182" t="s">
+      <c r="K102" s="171"/>
+      <c r="L102" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="183"/>
-      <c r="N102" s="182" t="s">
+      <c r="M102" s="171"/>
+      <c r="N102" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O102" s="183"/>
-      <c r="P102" s="182" t="s">
+      <c r="O102" s="171"/>
+      <c r="P102" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q102" s="183"/>
-      <c r="R102" s="182" t="s">
+      <c r="Q102" s="171"/>
+      <c r="R102" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S102" s="183"/>
-      <c r="T102" s="182" t="s">
+      <c r="S102" s="171"/>
+      <c r="T102" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U102" s="183"/>
-      <c r="V102" s="182" t="s">
+      <c r="U102" s="171"/>
+      <c r="V102" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W102" s="183"/>
-      <c r="X102" s="182" t="s">
+      <c r="W102" s="171"/>
+      <c r="X102" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y102" s="183"/>
-      <c r="Z102" s="182" t="s">
+      <c r="Y102" s="171"/>
+      <c r="Z102" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA102" s="183"/>
-      <c r="AB102" s="202" t="s">
+      <c r="AA102" s="171"/>
+      <c r="AB102" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="AC102" s="176" t="s">
+      <c r="AC102" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="AD102" s="176" t="s">
+      <c r="AD102" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE102" s="166" t="s">
+      <c r="AE102" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF102" s="166" t="s">
+      <c r="AF102" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="103" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A103" s="201"/>
-      <c r="B103" s="201"/>
-      <c r="C103" s="191"/>
+      <c r="A103" s="188"/>
+      <c r="B103" s="188"/>
+      <c r="C103" s="186"/>
       <c r="D103" s="73" t="s">
         <v>14</v>
       </c>
@@ -13833,14 +13832,14 @@
       <c r="AA103" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB103" s="203"/>
-      <c r="AC103" s="176"/>
-      <c r="AD103" s="176"/>
-      <c r="AE103" s="166"/>
-      <c r="AF103" s="166"/>
+      <c r="AB103" s="173"/>
+      <c r="AC103" s="174"/>
+      <c r="AD103" s="174"/>
+      <c r="AE103" s="169"/>
+      <c r="AF103" s="169"/>
     </row>
     <row r="104" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A104" s="206" t="s">
+      <c r="A104" s="179" t="s">
         <v>44</v>
       </c>
       <c r="B104" s="15" t="s">
@@ -13877,7 +13876,7 @@
         <f>SUM(D104:AA104)</f>
         <v>0</v>
       </c>
-      <c r="AC104" s="177" t="str">
+      <c r="AC104" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D105&gt;D104," * F05-02 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-01"&amp;CHAR(10),""),IF(E105&gt;E104," * F05-02 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-01"&amp;CHAR(10),""),
@@ -13896,18 +13895,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD104" s="235" t="str">
+      <c r="AD104" s="175" t="str">
         <f>CONCATENATE(AC104,AC106,AC107,AC108,AC109,AC111,AC113,AC115,AC117,AC118)</f>
         <v/>
       </c>
       <c r="AE104" s="117"/>
-      <c r="AF104" s="164" t="str">
+      <c r="AF104" s="235" t="str">
         <f>CONCATENATE(AE104,AE105,AE106,AE107,AE108,AE109,AE110,AE111,AE112,AE113,AE114,AE115,AE116,AE117,AE118)</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A105" s="208"/>
+      <c r="A105" s="180"/>
       <c r="B105" s="15" t="s">
         <v>556</v>
       </c>
@@ -13942,13 +13941,13 @@
         <f t="shared" ref="AB105:AB118" si="8">SUM(D105:AA105)</f>
         <v>0</v>
       </c>
-      <c r="AC105" s="178"/>
-      <c r="AD105" s="235"/>
+      <c r="AC105" s="202"/>
+      <c r="AD105" s="175"/>
       <c r="AE105" s="117"/>
-      <c r="AF105" s="164"/>
+      <c r="AF105" s="235"/>
     </row>
     <row r="106" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A106" s="206" t="s">
+      <c r="A106" s="179" t="s">
         <v>45</v>
       </c>
       <c r="B106" s="15" t="s">
@@ -14004,12 +14003,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD106" s="235"/>
+      <c r="AD106" s="175"/>
       <c r="AE106" s="117"/>
-      <c r="AF106" s="164"/>
+      <c r="AF106" s="235"/>
     </row>
     <row r="107" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A107" s="208"/>
+      <c r="A107" s="180"/>
       <c r="B107" s="15" t="s">
         <v>327</v>
       </c>
@@ -14045,12 +14044,12 @@
         <v>0</v>
       </c>
       <c r="AC107" s="112"/>
-      <c r="AD107" s="235"/>
+      <c r="AD107" s="175"/>
       <c r="AE107" s="117"/>
-      <c r="AF107" s="164"/>
+      <c r="AF107" s="235"/>
     </row>
     <row r="108" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A108" s="230" t="s">
+      <c r="A108" s="181" t="s">
         <v>34</v>
       </c>
       <c r="B108" s="93" t="s">
@@ -14106,12 +14105,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD108" s="235"/>
+      <c r="AD108" s="175"/>
       <c r="AE108" s="117"/>
-      <c r="AF108" s="164"/>
+      <c r="AF108" s="235"/>
     </row>
     <row r="109" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A109" s="231"/>
+      <c r="A109" s="182"/>
       <c r="B109" s="93" t="s">
         <v>559</v>
       </c>
@@ -14146,7 +14145,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC109" s="177" t="str">
+      <c r="AC109" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D110&gt;D109," * F05-07 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-06"&amp;CHAR(10),""),IF(E110&gt;E109," * F05-07 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-06"&amp;CHAR(10),""),
@@ -14165,12 +14164,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD109" s="235"/>
+      <c r="AD109" s="175"/>
       <c r="AE109" s="117"/>
-      <c r="AF109" s="164"/>
+      <c r="AF109" s="235"/>
     </row>
     <row r="110" spans="1:32" s="12" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A110" s="231"/>
+      <c r="A110" s="182"/>
       <c r="B110" s="93" t="s">
         <v>560</v>
       </c>
@@ -14205,13 +14204,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC110" s="178"/>
-      <c r="AD110" s="235"/>
+      <c r="AC110" s="202"/>
+      <c r="AD110" s="175"/>
       <c r="AE110" s="117"/>
-      <c r="AF110" s="164"/>
+      <c r="AF110" s="235"/>
     </row>
     <row r="111" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A111" s="231"/>
+      <c r="A111" s="182"/>
       <c r="B111" s="93" t="s">
         <v>561</v>
       </c>
@@ -14246,7 +14245,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC111" s="177" t="str">
+      <c r="AC111" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D112&gt;D111," * F05-09 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-08"&amp;CHAR(10),""),IF(E112&gt;E111," * F05-09 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-08"&amp;CHAR(10),""),
@@ -14265,12 +14264,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD111" s="235"/>
+      <c r="AD111" s="175"/>
       <c r="AE111" s="117"/>
-      <c r="AF111" s="164"/>
+      <c r="AF111" s="235"/>
     </row>
     <row r="112" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A112" s="231"/>
+      <c r="A112" s="182"/>
       <c r="B112" s="93" t="s">
         <v>562</v>
       </c>
@@ -14305,13 +14304,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC112" s="178"/>
-      <c r="AD112" s="235"/>
+      <c r="AC112" s="202"/>
+      <c r="AD112" s="175"/>
       <c r="AE112" s="117"/>
-      <c r="AF112" s="164"/>
+      <c r="AF112" s="235"/>
     </row>
     <row r="113" spans="1:32" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A113" s="231"/>
+      <c r="A113" s="182"/>
       <c r="B113" s="93" t="s">
         <v>563</v>
       </c>
@@ -14346,7 +14345,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC113" s="177" t="str">
+      <c r="AC113" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D114&gt;D113," * F05-11 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-10"&amp;CHAR(10),""),IF(E114&gt;E113," * F05-11 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-10"&amp;CHAR(10),""),
@@ -14365,12 +14364,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD113" s="235"/>
+      <c r="AD113" s="175"/>
       <c r="AE113" s="117"/>
-      <c r="AF113" s="164"/>
+      <c r="AF113" s="235"/>
     </row>
     <row r="114" spans="1:32" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A114" s="236"/>
+      <c r="A114" s="183"/>
       <c r="B114" s="93" t="s">
         <v>564</v>
       </c>
@@ -14405,13 +14404,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC114" s="178"/>
-      <c r="AD114" s="235"/>
+      <c r="AC114" s="202"/>
+      <c r="AD114" s="175"/>
       <c r="AE114" s="117"/>
-      <c r="AF114" s="164"/>
+      <c r="AF114" s="235"/>
     </row>
     <row r="115" spans="1:32" s="12" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A115" s="230" t="s">
+      <c r="A115" s="181" t="s">
         <v>131</v>
       </c>
       <c r="B115" s="93" t="s">
@@ -14448,7 +14447,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC115" s="177" t="str">
+      <c r="AC115" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D116&gt;D115," * F05-13 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-12"&amp;CHAR(10),""),IF(E116&gt;E115," * F05-13 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-12"&amp;CHAR(10),""),
@@ -14467,12 +14466,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD115" s="235"/>
+      <c r="AD115" s="175"/>
       <c r="AE115" s="117"/>
-      <c r="AF115" s="164"/>
+      <c r="AF115" s="235"/>
     </row>
     <row r="116" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A116" s="231"/>
+      <c r="A116" s="182"/>
       <c r="B116" s="93" t="s">
         <v>351</v>
       </c>
@@ -14507,13 +14506,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC116" s="178"/>
-      <c r="AD116" s="235"/>
+      <c r="AC116" s="202"/>
+      <c r="AD116" s="175"/>
       <c r="AE116" s="117"/>
-      <c r="AF116" s="164"/>
+      <c r="AF116" s="235"/>
     </row>
     <row r="117" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A117" s="231"/>
+      <c r="A117" s="182"/>
       <c r="B117" s="93" t="s">
         <v>565</v>
       </c>
@@ -14567,12 +14566,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD117" s="235"/>
+      <c r="AD117" s="175"/>
       <c r="AE117" s="117"/>
-      <c r="AF117" s="164"/>
+      <c r="AF117" s="235"/>
     </row>
     <row r="118" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A118" s="231"/>
+      <c r="A118" s="182"/>
       <c r="B118" s="104" t="s">
         <v>566</v>
       </c>
@@ -14626,124 +14625,124 @@
 )</f>
         <v/>
       </c>
-      <c r="AD118" s="228"/>
+      <c r="AD118" s="176"/>
       <c r="AE118" s="119"/>
-      <c r="AF118" s="164"/>
+      <c r="AF118" s="235"/>
     </row>
     <row r="119" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A119" s="170" t="s">
+      <c r="A119" s="244" t="s">
         <v>155</v>
       </c>
-      <c r="B119" s="170"/>
-      <c r="C119" s="170"/>
-      <c r="D119" s="170"/>
-      <c r="E119" s="170"/>
-      <c r="F119" s="170"/>
-      <c r="G119" s="170"/>
-      <c r="H119" s="170"/>
-      <c r="I119" s="170"/>
-      <c r="J119" s="170"/>
-      <c r="K119" s="170"/>
-      <c r="L119" s="170"/>
-      <c r="M119" s="170"/>
-      <c r="N119" s="170"/>
-      <c r="O119" s="170"/>
-      <c r="P119" s="170"/>
-      <c r="Q119" s="170"/>
-      <c r="R119" s="170"/>
-      <c r="S119" s="170"/>
-      <c r="T119" s="170"/>
-      <c r="U119" s="170"/>
-      <c r="V119" s="170"/>
-      <c r="W119" s="170"/>
-      <c r="X119" s="170"/>
-      <c r="Y119" s="170"/>
-      <c r="Z119" s="170"/>
-      <c r="AA119" s="170"/>
-      <c r="AB119" s="170"/>
-      <c r="AC119" s="170"/>
-      <c r="AD119" s="170"/>
-      <c r="AE119" s="170"/>
-      <c r="AF119" s="170"/>
+      <c r="B119" s="244"/>
+      <c r="C119" s="244"/>
+      <c r="D119" s="244"/>
+      <c r="E119" s="244"/>
+      <c r="F119" s="244"/>
+      <c r="G119" s="244"/>
+      <c r="H119" s="244"/>
+      <c r="I119" s="244"/>
+      <c r="J119" s="244"/>
+      <c r="K119" s="244"/>
+      <c r="L119" s="244"/>
+      <c r="M119" s="244"/>
+      <c r="N119" s="244"/>
+      <c r="O119" s="244"/>
+      <c r="P119" s="244"/>
+      <c r="Q119" s="244"/>
+      <c r="R119" s="244"/>
+      <c r="S119" s="244"/>
+      <c r="T119" s="244"/>
+      <c r="U119" s="244"/>
+      <c r="V119" s="244"/>
+      <c r="W119" s="244"/>
+      <c r="X119" s="244"/>
+      <c r="Y119" s="244"/>
+      <c r="Z119" s="244"/>
+      <c r="AA119" s="244"/>
+      <c r="AB119" s="244"/>
+      <c r="AC119" s="244"/>
+      <c r="AD119" s="244"/>
+      <c r="AE119" s="244"/>
+      <c r="AF119" s="244"/>
     </row>
     <row r="120" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A120" s="200" t="s">
+      <c r="A120" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B120" s="200" t="s">
+      <c r="B120" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C120" s="190" t="s">
+      <c r="C120" s="185" t="s">
         <v>508</v>
       </c>
-      <c r="D120" s="210" t="s">
+      <c r="D120" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="183"/>
-      <c r="F120" s="182" t="s">
+      <c r="E120" s="171"/>
+      <c r="F120" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="183"/>
-      <c r="H120" s="182" t="s">
+      <c r="G120" s="171"/>
+      <c r="H120" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="I120" s="183"/>
-      <c r="J120" s="182" t="s">
+      <c r="I120" s="171"/>
+      <c r="J120" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="K120" s="183"/>
-      <c r="L120" s="182" t="s">
+      <c r="K120" s="171"/>
+      <c r="L120" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M120" s="183"/>
-      <c r="N120" s="182" t="s">
+      <c r="M120" s="171"/>
+      <c r="N120" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O120" s="183"/>
-      <c r="P120" s="182" t="s">
+      <c r="O120" s="171"/>
+      <c r="P120" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q120" s="183"/>
-      <c r="R120" s="182" t="s">
+      <c r="Q120" s="171"/>
+      <c r="R120" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S120" s="183"/>
-      <c r="T120" s="182" t="s">
+      <c r="S120" s="171"/>
+      <c r="T120" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U120" s="183"/>
-      <c r="V120" s="182" t="s">
+      <c r="U120" s="171"/>
+      <c r="V120" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W120" s="183"/>
-      <c r="X120" s="182" t="s">
+      <c r="W120" s="171"/>
+      <c r="X120" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y120" s="183"/>
-      <c r="Z120" s="182" t="s">
+      <c r="Y120" s="171"/>
+      <c r="Z120" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA120" s="183"/>
-      <c r="AB120" s="202" t="s">
+      <c r="AA120" s="171"/>
+      <c r="AB120" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="AC120" s="176" t="s">
+      <c r="AC120" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="AD120" s="176" t="s">
+      <c r="AD120" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE120" s="166" t="s">
+      <c r="AE120" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF120" s="166" t="s">
+      <c r="AF120" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="121" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A121" s="201"/>
-      <c r="B121" s="201"/>
-      <c r="C121" s="191"/>
+      <c r="A121" s="188"/>
+      <c r="B121" s="188"/>
+      <c r="C121" s="186"/>
       <c r="D121" s="73" t="s">
         <v>14</v>
       </c>
@@ -14816,11 +14815,11 @@
       <c r="AA121" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB121" s="203"/>
-      <c r="AC121" s="176"/>
-      <c r="AD121" s="176"/>
-      <c r="AE121" s="166"/>
-      <c r="AF121" s="166"/>
+      <c r="AB121" s="173"/>
+      <c r="AC121" s="174"/>
+      <c r="AD121" s="174"/>
+      <c r="AE121" s="169"/>
+      <c r="AF121" s="169"/>
     </row>
     <row r="122" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A122" s="69" t="s">
@@ -14879,18 +14878,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD122" s="228" t="str">
+      <c r="AD122" s="176" t="str">
         <f>CONCATENATE(AC122,AC123,AC124,AC125,AC126,AC128,AC130,AC132)</f>
         <v/>
       </c>
       <c r="AE122" s="116"/>
-      <c r="AF122" s="164" t="str">
+      <c r="AF122" s="235" t="str">
         <f>CONCATENATE(AE122,AE123,AE124,AE125,AE126,AE127,AE128,AE129,AE130,AE131,AE132,AE133)</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A123" s="206" t="s">
+      <c r="A123" s="179" t="s">
         <v>46</v>
       </c>
       <c r="B123" s="15" t="s">
@@ -14946,7 +14945,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD123" s="229"/>
+      <c r="AD123" s="192"/>
       <c r="AE123" s="116" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -14966,10 +14965,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF123" s="164"/>
+      <c r="AF123" s="235"/>
     </row>
     <row r="124" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A124" s="207"/>
+      <c r="A124" s="198"/>
       <c r="B124" s="15" t="s">
         <v>569</v>
       </c>
@@ -15023,12 +15022,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD124" s="229"/>
+      <c r="AD124" s="192"/>
       <c r="AE124" s="117"/>
-      <c r="AF124" s="164"/>
+      <c r="AF124" s="235"/>
     </row>
     <row r="125" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A125" s="207"/>
+      <c r="A125" s="198"/>
       <c r="B125" s="15" t="s">
         <v>570</v>
       </c>
@@ -15082,12 +15081,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD125" s="229"/>
+      <c r="AD125" s="192"/>
       <c r="AE125" s="117"/>
-      <c r="AF125" s="164"/>
+      <c r="AF125" s="235"/>
     </row>
     <row r="126" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A126" s="207"/>
+      <c r="A126" s="198"/>
       <c r="B126" s="15" t="s">
         <v>571</v>
       </c>
@@ -15122,7 +15121,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC126" s="177" t="str">
+      <c r="AC126" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D127&gt;D126," * F06-06 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-05"&amp;CHAR(10),""),IF(E127&gt;E126," * F06-06 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-05"&amp;CHAR(10),""),
@@ -15141,12 +15140,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD126" s="229"/>
+      <c r="AD126" s="192"/>
       <c r="AE126" s="117"/>
-      <c r="AF126" s="164"/>
+      <c r="AF126" s="235"/>
     </row>
     <row r="127" spans="1:32" s="10" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A127" s="207"/>
+      <c r="A127" s="198"/>
       <c r="B127" s="15" t="s">
         <v>635</v>
       </c>
@@ -15181,13 +15180,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC127" s="178"/>
-      <c r="AD127" s="229"/>
+      <c r="AC127" s="202"/>
+      <c r="AD127" s="192"/>
       <c r="AE127" s="117"/>
-      <c r="AF127" s="164"/>
+      <c r="AF127" s="235"/>
     </row>
     <row r="128" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A128" s="207"/>
+      <c r="A128" s="198"/>
       <c r="B128" s="15" t="s">
         <v>572</v>
       </c>
@@ -15222,7 +15221,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC128" s="177" t="str">
+      <c r="AC128" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D129&gt;D128," * F06-08 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-07"&amp;CHAR(10),""),IF(E129&gt;E128," * F06-08 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-07"&amp;CHAR(10),""),
@@ -15241,12 +15240,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD128" s="229"/>
+      <c r="AD128" s="192"/>
       <c r="AE128" s="117"/>
-      <c r="AF128" s="164"/>
+      <c r="AF128" s="235"/>
     </row>
     <row r="129" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A129" s="207"/>
+      <c r="A129" s="198"/>
       <c r="B129" s="15" t="s">
         <v>636</v>
       </c>
@@ -15281,13 +15280,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC129" s="178"/>
-      <c r="AD129" s="229"/>
+      <c r="AC129" s="202"/>
+      <c r="AD129" s="192"/>
       <c r="AE129" s="117"/>
-      <c r="AF129" s="164"/>
+      <c r="AF129" s="235"/>
     </row>
     <row r="130" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A130" s="207"/>
+      <c r="A130" s="198"/>
       <c r="B130" s="15" t="s">
         <v>573</v>
       </c>
@@ -15322,7 +15321,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC130" s="177" t="str">
+      <c r="AC130" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D131&gt;D130," * F06-10 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-09"&amp;CHAR(10),""),IF(E131&gt;E130," * F06-10 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-09"&amp;CHAR(10),""),
@@ -15341,12 +15340,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD130" s="229"/>
+      <c r="AD130" s="192"/>
       <c r="AE130" s="117"/>
-      <c r="AF130" s="164"/>
+      <c r="AF130" s="235"/>
     </row>
     <row r="131" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A131" s="207"/>
+      <c r="A131" s="198"/>
       <c r="B131" s="15" t="s">
         <v>634</v>
       </c>
@@ -15381,13 +15380,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC131" s="178"/>
-      <c r="AD131" s="229"/>
+      <c r="AC131" s="202"/>
+      <c r="AD131" s="192"/>
       <c r="AE131" s="117"/>
-      <c r="AF131" s="164"/>
+      <c r="AF131" s="235"/>
     </row>
     <row r="132" spans="1:32" s="10" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A132" s="237" t="s">
+      <c r="A132" s="189" t="s">
         <v>149</v>
       </c>
       <c r="B132" s="15" t="s">
@@ -15424,7 +15423,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC132" s="177" t="str">
+      <c r="AC132" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D133&gt;D132," * F06-12 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-11"&amp;CHAR(10),""),IF(E133&gt;E132," * F06-12 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-11"&amp;CHAR(10),""),
@@ -15443,12 +15442,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD132" s="229"/>
+      <c r="AD132" s="192"/>
       <c r="AE132" s="117"/>
-      <c r="AF132" s="164"/>
+      <c r="AF132" s="235"/>
     </row>
     <row r="133" spans="1:32" s="10" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A133" s="238"/>
+      <c r="A133" s="190"/>
       <c r="B133" s="99" t="s">
         <v>575</v>
       </c>
@@ -15483,125 +15482,125 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC133" s="227"/>
-      <c r="AD133" s="229"/>
+      <c r="AC133" s="203"/>
+      <c r="AD133" s="192"/>
       <c r="AE133" s="119"/>
-      <c r="AF133" s="164"/>
+      <c r="AF133" s="235"/>
     </row>
     <row r="134" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A134" s="170" t="s">
+      <c r="A134" s="244" t="s">
         <v>154</v>
       </c>
-      <c r="B134" s="170"/>
-      <c r="C134" s="170"/>
-      <c r="D134" s="170"/>
-      <c r="E134" s="170"/>
-      <c r="F134" s="170"/>
-      <c r="G134" s="170"/>
-      <c r="H134" s="170"/>
-      <c r="I134" s="170"/>
-      <c r="J134" s="170"/>
-      <c r="K134" s="170"/>
-      <c r="L134" s="170"/>
-      <c r="M134" s="170"/>
-      <c r="N134" s="170"/>
-      <c r="O134" s="170"/>
-      <c r="P134" s="170"/>
-      <c r="Q134" s="170"/>
-      <c r="R134" s="170"/>
-      <c r="S134" s="170"/>
-      <c r="T134" s="170"/>
-      <c r="U134" s="170"/>
-      <c r="V134" s="170"/>
-      <c r="W134" s="170"/>
-      <c r="X134" s="170"/>
-      <c r="Y134" s="170"/>
-      <c r="Z134" s="170"/>
-      <c r="AA134" s="170"/>
-      <c r="AB134" s="170"/>
-      <c r="AC134" s="170"/>
-      <c r="AD134" s="170"/>
-      <c r="AE134" s="170"/>
-      <c r="AF134" s="170"/>
+      <c r="B134" s="244"/>
+      <c r="C134" s="244"/>
+      <c r="D134" s="244"/>
+      <c r="E134" s="244"/>
+      <c r="F134" s="244"/>
+      <c r="G134" s="244"/>
+      <c r="H134" s="244"/>
+      <c r="I134" s="244"/>
+      <c r="J134" s="244"/>
+      <c r="K134" s="244"/>
+      <c r="L134" s="244"/>
+      <c r="M134" s="244"/>
+      <c r="N134" s="244"/>
+      <c r="O134" s="244"/>
+      <c r="P134" s="244"/>
+      <c r="Q134" s="244"/>
+      <c r="R134" s="244"/>
+      <c r="S134" s="244"/>
+      <c r="T134" s="244"/>
+      <c r="U134" s="244"/>
+      <c r="V134" s="244"/>
+      <c r="W134" s="244"/>
+      <c r="X134" s="244"/>
+      <c r="Y134" s="244"/>
+      <c r="Z134" s="244"/>
+      <c r="AA134" s="244"/>
+      <c r="AB134" s="244"/>
+      <c r="AC134" s="244"/>
+      <c r="AD134" s="244"/>
+      <c r="AE134" s="244"/>
+      <c r="AF134" s="244"/>
     </row>
     <row r="135" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A135" s="200" t="s">
+      <c r="A135" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B135" s="200" t="s">
+      <c r="B135" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C135" s="190" t="s">
+      <c r="C135" s="185" t="s">
         <v>508</v>
       </c>
-      <c r="D135" s="210" t="s">
+      <c r="D135" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="183"/>
-      <c r="F135" s="182" t="s">
+      <c r="E135" s="171"/>
+      <c r="F135" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="183"/>
-      <c r="H135" s="182" t="s">
+      <c r="G135" s="171"/>
+      <c r="H135" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="I135" s="183"/>
-      <c r="J135" s="182" t="s">
+      <c r="I135" s="171"/>
+      <c r="J135" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="K135" s="183"/>
-      <c r="L135" s="182" t="s">
+      <c r="K135" s="171"/>
+      <c r="L135" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M135" s="183"/>
-      <c r="N135" s="182" t="s">
+      <c r="M135" s="171"/>
+      <c r="N135" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O135" s="183"/>
-      <c r="P135" s="182" t="s">
+      <c r="O135" s="171"/>
+      <c r="P135" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q135" s="183"/>
-      <c r="R135" s="182" t="s">
+      <c r="Q135" s="171"/>
+      <c r="R135" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S135" s="183"/>
-      <c r="T135" s="182" t="s">
+      <c r="S135" s="171"/>
+      <c r="T135" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U135" s="183"/>
-      <c r="V135" s="182" t="s">
+      <c r="U135" s="171"/>
+      <c r="V135" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W135" s="183"/>
-      <c r="X135" s="182" t="s">
+      <c r="W135" s="171"/>
+      <c r="X135" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y135" s="183"/>
-      <c r="Z135" s="182" t="s">
+      <c r="Y135" s="171"/>
+      <c r="Z135" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA135" s="183"/>
-      <c r="AB135" s="202" t="s">
+      <c r="AA135" s="171"/>
+      <c r="AB135" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="AC135" s="176" t="s">
+      <c r="AC135" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="AD135" s="176" t="s">
+      <c r="AD135" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE135" s="166" t="s">
+      <c r="AE135" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF135" s="166" t="s">
+      <c r="AF135" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="136" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A136" s="201"/>
-      <c r="B136" s="201"/>
-      <c r="C136" s="191"/>
+      <c r="A136" s="188"/>
+      <c r="B136" s="188"/>
+      <c r="C136" s="186"/>
       <c r="D136" s="73" t="s">
         <v>14</v>
       </c>
@@ -15674,14 +15673,14 @@
       <c r="AA136" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB136" s="203"/>
-      <c r="AC136" s="176"/>
-      <c r="AD136" s="176"/>
-      <c r="AE136" s="166"/>
-      <c r="AF136" s="166"/>
+      <c r="AB136" s="173"/>
+      <c r="AC136" s="174"/>
+      <c r="AD136" s="174"/>
+      <c r="AE136" s="169"/>
+      <c r="AF136" s="169"/>
     </row>
     <row r="137" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A137" s="187" t="s">
+      <c r="A137" s="191" t="s">
         <v>35</v>
       </c>
       <c r="B137" s="15" t="s">
@@ -15719,7 +15718,7 @@
         <v>0</v>
       </c>
       <c r="AC137" s="112"/>
-      <c r="AD137" s="228" t="str">
+      <c r="AD137" s="176" t="str">
         <f>CONCATENATE(AC137,AC138,AC139,AC140,AC141,AC142,AC143,AC144)</f>
         <v/>
       </c>
@@ -15742,13 +15741,13 @@
 )</f>
         <v/>
       </c>
-      <c r="AF137" s="164" t="str">
+      <c r="AF137" s="235" t="str">
         <f>CONCATENATE(AE137,AE138,AE139,AE140,AE141,AE142,AE143,AE144)</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A138" s="187"/>
+      <c r="A138" s="191"/>
       <c r="B138" s="15" t="s">
         <v>577</v>
       </c>
@@ -15802,7 +15801,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD138" s="229"/>
+      <c r="AD138" s="192"/>
       <c r="AE138" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15822,10 +15821,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF138" s="164"/>
+      <c r="AF138" s="235"/>
     </row>
     <row r="139" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A139" s="187"/>
+      <c r="A139" s="191"/>
       <c r="B139" s="15" t="s">
         <v>578</v>
       </c>
@@ -15879,7 +15878,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD139" s="229"/>
+      <c r="AD139" s="192"/>
       <c r="AE139" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15899,10 +15898,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF139" s="164"/>
+      <c r="AF139" s="235"/>
     </row>
     <row r="140" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A140" s="187"/>
+      <c r="A140" s="191"/>
       <c r="B140" s="15" t="s">
         <v>579</v>
       </c>
@@ -15956,7 +15955,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD140" s="229"/>
+      <c r="AD140" s="192"/>
       <c r="AE140" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15976,10 +15975,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF140" s="164"/>
+      <c r="AF140" s="235"/>
     </row>
     <row r="141" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A141" s="187"/>
+      <c r="A141" s="191"/>
       <c r="B141" s="15" t="s">
         <v>580</v>
       </c>
@@ -16015,12 +16014,12 @@
         <v>0</v>
       </c>
       <c r="AC141" s="112"/>
-      <c r="AD141" s="229"/>
+      <c r="AD141" s="192"/>
       <c r="AE141" s="117"/>
-      <c r="AF141" s="164"/>
+      <c r="AF141" s="235"/>
     </row>
     <row r="142" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A142" s="187" t="s">
+      <c r="A142" s="191" t="s">
         <v>145</v>
       </c>
       <c r="B142" s="15" t="s">
@@ -16076,7 +16075,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD142" s="229"/>
+      <c r="AD142" s="192"/>
       <c r="AE142" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16096,10 +16095,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF142" s="164"/>
+      <c r="AF142" s="235"/>
     </row>
     <row r="143" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A143" s="187"/>
+      <c r="A143" s="191"/>
       <c r="B143" s="15" t="s">
         <v>581</v>
       </c>
@@ -16153,7 +16152,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD143" s="229"/>
+      <c r="AD143" s="192"/>
       <c r="AE143" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16173,10 +16172,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF143" s="164"/>
+      <c r="AF143" s="235"/>
     </row>
     <row r="144" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A144" s="206"/>
+      <c r="A144" s="179"/>
       <c r="B144" s="99" t="s">
         <v>582</v>
       </c>
@@ -16230,7 +16229,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD144" s="229"/>
+      <c r="AD144" s="192"/>
       <c r="AE144" s="119" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16250,122 +16249,122 @@
 )</f>
         <v/>
       </c>
-      <c r="AF144" s="164"/>
+      <c r="AF144" s="235"/>
     </row>
     <row r="145" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A145" s="170" t="s">
+      <c r="A145" s="244" t="s">
         <v>156</v>
       </c>
-      <c r="B145" s="170"/>
-      <c r="C145" s="170"/>
-      <c r="D145" s="170"/>
-      <c r="E145" s="170"/>
-      <c r="F145" s="170"/>
-      <c r="G145" s="170"/>
-      <c r="H145" s="170"/>
-      <c r="I145" s="170"/>
-      <c r="J145" s="170"/>
-      <c r="K145" s="170"/>
-      <c r="L145" s="170"/>
-      <c r="M145" s="170"/>
-      <c r="N145" s="170"/>
-      <c r="O145" s="170"/>
-      <c r="P145" s="170"/>
-      <c r="Q145" s="170"/>
-      <c r="R145" s="170"/>
-      <c r="S145" s="170"/>
-      <c r="T145" s="170"/>
-      <c r="U145" s="170"/>
-      <c r="V145" s="170"/>
-      <c r="W145" s="170"/>
-      <c r="X145" s="170"/>
-      <c r="Y145" s="170"/>
-      <c r="Z145" s="170"/>
-      <c r="AA145" s="170"/>
-      <c r="AB145" s="170"/>
-      <c r="AC145" s="170"/>
-      <c r="AD145" s="170"/>
-      <c r="AE145" s="170"/>
-      <c r="AF145" s="170"/>
+      <c r="B145" s="244"/>
+      <c r="C145" s="244"/>
+      <c r="D145" s="244"/>
+      <c r="E145" s="244"/>
+      <c r="F145" s="244"/>
+      <c r="G145" s="244"/>
+      <c r="H145" s="244"/>
+      <c r="I145" s="244"/>
+      <c r="J145" s="244"/>
+      <c r="K145" s="244"/>
+      <c r="L145" s="244"/>
+      <c r="M145" s="244"/>
+      <c r="N145" s="244"/>
+      <c r="O145" s="244"/>
+      <c r="P145" s="244"/>
+      <c r="Q145" s="244"/>
+      <c r="R145" s="244"/>
+      <c r="S145" s="244"/>
+      <c r="T145" s="244"/>
+      <c r="U145" s="244"/>
+      <c r="V145" s="244"/>
+      <c r="W145" s="244"/>
+      <c r="X145" s="244"/>
+      <c r="Y145" s="244"/>
+      <c r="Z145" s="244"/>
+      <c r="AA145" s="244"/>
+      <c r="AB145" s="244"/>
+      <c r="AC145" s="244"/>
+      <c r="AD145" s="244"/>
+      <c r="AE145" s="244"/>
+      <c r="AF145" s="244"/>
     </row>
     <row r="146" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A146" s="200" t="s">
+      <c r="A146" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B146" s="200" t="s">
+      <c r="B146" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C146" s="190" t="s">
+      <c r="C146" s="185" t="s">
         <v>508</v>
       </c>
-      <c r="D146" s="210" t="s">
+      <c r="D146" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E146" s="183"/>
-      <c r="F146" s="182" t="s">
+      <c r="E146" s="171"/>
+      <c r="F146" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="G146" s="183"/>
-      <c r="H146" s="182" t="s">
+      <c r="G146" s="171"/>
+      <c r="H146" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="I146" s="183"/>
-      <c r="J146" s="182" t="s">
+      <c r="I146" s="171"/>
+      <c r="J146" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="K146" s="183"/>
-      <c r="L146" s="182" t="s">
+      <c r="K146" s="171"/>
+      <c r="L146" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M146" s="183"/>
-      <c r="N146" s="182" t="s">
+      <c r="M146" s="171"/>
+      <c r="N146" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O146" s="183"/>
-      <c r="P146" s="182" t="s">
+      <c r="O146" s="171"/>
+      <c r="P146" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q146" s="183"/>
-      <c r="R146" s="182" t="s">
+      <c r="Q146" s="171"/>
+      <c r="R146" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S146" s="183"/>
-      <c r="T146" s="182" t="s">
+      <c r="S146" s="171"/>
+      <c r="T146" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U146" s="183"/>
-      <c r="V146" s="182" t="s">
+      <c r="U146" s="171"/>
+      <c r="V146" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W146" s="183"/>
-      <c r="X146" s="182" t="s">
+      <c r="W146" s="171"/>
+      <c r="X146" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y146" s="183"/>
-      <c r="Z146" s="182" t="s">
+      <c r="Y146" s="171"/>
+      <c r="Z146" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA146" s="183"/>
-      <c r="AB146" s="224" t="s">
+      <c r="AA146" s="171"/>
+      <c r="AB146" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="AC146" s="226" t="s">
+      <c r="AC146" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="AD146" s="176" t="s">
+      <c r="AD146" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE146" s="166" t="s">
+      <c r="AE146" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF146" s="166" t="s">
+      <c r="AF146" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="147" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A147" s="201"/>
-      <c r="B147" s="201"/>
-      <c r="C147" s="191"/>
+      <c r="A147" s="188"/>
+      <c r="B147" s="188"/>
+      <c r="C147" s="186"/>
       <c r="D147" s="73" t="s">
         <v>14</v>
       </c>
@@ -16438,14 +16437,14 @@
       <c r="AA147" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB147" s="225"/>
-      <c r="AC147" s="193"/>
-      <c r="AD147" s="176"/>
-      <c r="AE147" s="166"/>
-      <c r="AF147" s="166"/>
+      <c r="AB147" s="206"/>
+      <c r="AC147" s="200"/>
+      <c r="AD147" s="174"/>
+      <c r="AE147" s="169"/>
+      <c r="AF147" s="169"/>
     </row>
     <row r="148" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A148" s="206" t="s">
+      <c r="A148" s="179" t="s">
         <v>47</v>
       </c>
       <c r="B148" s="15" t="s">
@@ -16501,36 +16500,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD148" s="228" t="str">
+      <c r="AD148" s="176" t="str">
         <f>CONCATENATE(AC148,AC149,AC150,AC151)</f>
         <v/>
       </c>
-      <c r="AE148" s="117" t="str">
-        <f xml:space="preserve">
-CONCATENATE(
-IF(D148&gt;SUM(D13,D18,D20,D22,D24,D26,D28,D30,D32,D34,D125,D127,D129,D131)," * F07-01 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),IF(E148&gt;SUM(E13,E18,E20,E22,E24,E26,E28,E30,E32,E34,E125,E127,E129,E131)," * F07-01 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),
-IF(F148&gt;SUM(F13,F18,F20,F22,F24,F26,F28,F30,F32,F34,F125,F127,F129,F131)," * F07-01 for Age " &amp;F6&amp;" "&amp; F7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),IF(G148&gt;SUM(G13,G18,G20,G22,G24,G26,G28,G30,G32,G34,G125,G127,G129,G131)," * F07-01 for Age " &amp;F6&amp;" "&amp; G7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),
-IF(H148&gt;SUM(H13,H18,H20,H22,H24,H26,H28,H30,H32,H34,H125,H127,H129,H131)," * F07-01 for Age " &amp;H6&amp;" "&amp; H7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),IF(I148&gt;SUM(I13,I18,I20,I22,I24,I26,I28,I30,I32,I34,I125,I127,I129,I131)," * F07-01 for Age " &amp;H6&amp;" "&amp; I7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),
-IF(J148&gt;SUM(J13,J18,J20,J22,J24,J26,J28,J30,J32,J34,J125,J127,J129,J131)," * F07-01 for Age " &amp;J6&amp;" "&amp; J7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),IF(K148&gt;SUM(K13,K18,K20,K22,K24,K26,K28,K30,K32,K34,K125,K127,K129,K131)," * F07-01 for Age " &amp;J6&amp;" "&amp; K7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),
-IF(L148&gt;SUM(L13,L18,L20,L22,L24,L26,L28,L30,L32,L34,L125,L127,L129,L131)," * F07-01 for Age " &amp;L6&amp;" "&amp; L7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),IF(M148&gt;SUM(M13,M18,M20,M22,M24,M26,M28,M30,M32,M34,M125,M127,M129,M131)," * F07-01 for Age " &amp;L6&amp;" "&amp; M7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),
-IF(N148&gt;SUM(N13,N18,N20,N22,N24,N26,N28,N30,N32,N34,N125,N127,N129,N131)," * F07-01 for Age " &amp;N6&amp;" "&amp; N7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),IF(O148&gt;SUM(O13,O18,O20,O22,O24,O26,O28,O30,O32,O34,O125,O127,O129,O131)," * F07-01 for Age " &amp;N6&amp;" "&amp; O7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),
-IF(P148&gt;SUM(P13,P18,P20,P22,P24,P26,P28,P30,P32,P34,P125,P127,P129,P131)," * F07-01 for Age " &amp;P6&amp;" "&amp; P7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),IF(Q148&gt;SUM(Q13,Q18,Q20,Q22,Q24,Q26,Q28,Q30,Q32,Q34,Q125,Q127,Q129,Q131)," * F07-01 for Age " &amp;P6&amp;" "&amp; Q7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),
-IF(R148&gt;SUM(R13,R18,R20,R22,R24,R26,R28,R30,R32,R34,R125,R127,R129,R131)," * F07-01 for Age " &amp;R6&amp;" "&amp; R7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),IF(S148&gt;SUM(S13,S18,S20,S22,S24,S26,S28,S30,S32,S34,S125,S127,S129,S131)," * F07-01 for Age " &amp;R6&amp;" "&amp; S7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),
-IF(T148&gt;SUM(T13,T18,T20,T22,T24,T26,T28,T30,T32,T34,T125,T127,T129,T131)," * F07-01 for Age " &amp;T6&amp;" "&amp; T7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),IF(U148&gt;SUM(U13,U18,U20,U22,U24,U26,U28,U30,U32,U34,U125,U127,U129,U131)," * F07-01 for Age " &amp;T6&amp;" "&amp; U7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),
-IF(V148&gt;SUM(V13,V18,V20,V22,V24,V26,V28,V30,V32,V34,V125,V127,V129,V131)," * F07-01 for Age " &amp;V6&amp;" "&amp; V7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),IF(W148&gt;SUM(W13,W18,W20,W22,W24,W26,W28,W30,W32,W34,W125,W127,W129,W131)," * F07-01 for Age " &amp;V6&amp;" "&amp; W7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),
-IF(X148&gt;SUM(X13,X18,X20,X22,X24,X26,X28,X30,X32,X34,X125,X127,X129,X131)," * F07-01 for Age " &amp;X6&amp;" "&amp; X7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),IF(Y148&gt;SUM(Y13,Y18,Y20,Y22,Y24,Y26,Y28,Y30,Y32,Y34,Y125,Y127,Y129,Y131)," * F07-01 for Age " &amp;X6&amp;" "&amp; Y7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),
-IF(Z148&gt;SUM(Z13,Z18,Z20,Z22,Z24,Z26,Z28,Z30,Z32,Z34,Z125,Z127,Z129,Z131)," * F07-01 for Age " &amp;Z6&amp;" "&amp; Z7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),IF(AA148&gt;SUM(AA13,AA18,AA20,AA22,AA24,AA26,AA28,AA30,AA32,AA34,AA125,AA127,AA129,AA131)," * F07-01 for Age " &amp;Z6&amp;" "&amp; AA7&amp; " is more than the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),""),
-IF(AB148&gt;SUM(AB13,AB18,AB20,AB22,AB24,AB26,AB28,AB30,AB32,AB34,AB125,AB127,AB129,AB131)," * Total F07-01 is more than Total the SUM of (F01-06+F01-11+F01-13+F01-15+F01-17+F01-19+F01-21+F01-23+F01-25+F01-27+F06-04+F06-06+F06-08+F06-10)"&amp;CHAR(10),"")
-)</f>
-        <v/>
-      </c>
-      <c r="AF148" s="164" t="str">
+      <c r="AE148" s="117"/>
+      <c r="AF148" s="235" t="str">
         <f>CONCATENATE(AE148,AE149,AE150,AE151)</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:32" s="10" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A149" s="207"/>
+      <c r="A149" s="198"/>
       <c r="B149" s="94" t="s">
         <v>584</v>
       </c>
@@ -16584,7 +16565,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD149" s="229"/>
+      <c r="AD149" s="192"/>
       <c r="AE149" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16592,10 +16573,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF149" s="164"/>
+      <c r="AF149" s="235"/>
     </row>
     <row r="150" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A150" s="207"/>
+      <c r="A150" s="198"/>
       <c r="B150" s="15" t="s">
         <v>585</v>
       </c>
@@ -16631,12 +16612,12 @@
         <v>0</v>
       </c>
       <c r="AC150" s="112"/>
-      <c r="AD150" s="229"/>
+      <c r="AD150" s="192"/>
       <c r="AE150" s="117"/>
-      <c r="AF150" s="164"/>
+      <c r="AF150" s="235"/>
     </row>
     <row r="151" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A151" s="207"/>
+      <c r="A151" s="198"/>
       <c r="B151" s="99" t="s">
         <v>586</v>
       </c>
@@ -16690,124 +16671,124 @@
 )</f>
         <v/>
       </c>
-      <c r="AD151" s="229"/>
+      <c r="AD151" s="192"/>
       <c r="AE151" s="119"/>
-      <c r="AF151" s="164"/>
+      <c r="AF151" s="235"/>
     </row>
     <row r="152" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A152" s="170" t="s">
+      <c r="A152" s="244" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="170"/>
-      <c r="C152" s="170"/>
-      <c r="D152" s="170"/>
-      <c r="E152" s="170"/>
-      <c r="F152" s="170"/>
-      <c r="G152" s="170"/>
-      <c r="H152" s="170"/>
-      <c r="I152" s="170"/>
-      <c r="J152" s="170"/>
-      <c r="K152" s="170"/>
-      <c r="L152" s="170"/>
-      <c r="M152" s="170"/>
-      <c r="N152" s="170"/>
-      <c r="O152" s="170"/>
-      <c r="P152" s="170"/>
-      <c r="Q152" s="170"/>
-      <c r="R152" s="170"/>
-      <c r="S152" s="170"/>
-      <c r="T152" s="170"/>
-      <c r="U152" s="170"/>
-      <c r="V152" s="170"/>
-      <c r="W152" s="170"/>
-      <c r="X152" s="170"/>
-      <c r="Y152" s="170"/>
-      <c r="Z152" s="170"/>
-      <c r="AA152" s="170"/>
-      <c r="AB152" s="170"/>
-      <c r="AC152" s="170"/>
-      <c r="AD152" s="170"/>
-      <c r="AE152" s="170"/>
-      <c r="AF152" s="170"/>
+      <c r="B152" s="244"/>
+      <c r="C152" s="244"/>
+      <c r="D152" s="244"/>
+      <c r="E152" s="244"/>
+      <c r="F152" s="244"/>
+      <c r="G152" s="244"/>
+      <c r="H152" s="244"/>
+      <c r="I152" s="244"/>
+      <c r="J152" s="244"/>
+      <c r="K152" s="244"/>
+      <c r="L152" s="244"/>
+      <c r="M152" s="244"/>
+      <c r="N152" s="244"/>
+      <c r="O152" s="244"/>
+      <c r="P152" s="244"/>
+      <c r="Q152" s="244"/>
+      <c r="R152" s="244"/>
+      <c r="S152" s="244"/>
+      <c r="T152" s="244"/>
+      <c r="U152" s="244"/>
+      <c r="V152" s="244"/>
+      <c r="W152" s="244"/>
+      <c r="X152" s="244"/>
+      <c r="Y152" s="244"/>
+      <c r="Z152" s="244"/>
+      <c r="AA152" s="244"/>
+      <c r="AB152" s="244"/>
+      <c r="AC152" s="244"/>
+      <c r="AD152" s="244"/>
+      <c r="AE152" s="244"/>
+      <c r="AF152" s="244"/>
     </row>
     <row r="153" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A153" s="200" t="s">
+      <c r="A153" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B153" s="200" t="s">
+      <c r="B153" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C153" s="190" t="s">
+      <c r="C153" s="185" t="s">
         <v>508</v>
       </c>
-      <c r="D153" s="210" t="s">
+      <c r="D153" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E153" s="183"/>
-      <c r="F153" s="182" t="s">
+      <c r="E153" s="171"/>
+      <c r="F153" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="G153" s="183"/>
-      <c r="H153" s="182" t="s">
+      <c r="G153" s="171"/>
+      <c r="H153" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="I153" s="183"/>
-      <c r="J153" s="182" t="s">
+      <c r="I153" s="171"/>
+      <c r="J153" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="K153" s="183"/>
-      <c r="L153" s="182" t="s">
+      <c r="K153" s="171"/>
+      <c r="L153" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M153" s="183"/>
-      <c r="N153" s="182" t="s">
+      <c r="M153" s="171"/>
+      <c r="N153" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O153" s="183"/>
-      <c r="P153" s="182" t="s">
+      <c r="O153" s="171"/>
+      <c r="P153" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q153" s="183"/>
-      <c r="R153" s="182" t="s">
+      <c r="Q153" s="171"/>
+      <c r="R153" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S153" s="183"/>
-      <c r="T153" s="182" t="s">
+      <c r="S153" s="171"/>
+      <c r="T153" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U153" s="183"/>
-      <c r="V153" s="182" t="s">
+      <c r="U153" s="171"/>
+      <c r="V153" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W153" s="183"/>
-      <c r="X153" s="182" t="s">
+      <c r="W153" s="171"/>
+      <c r="X153" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y153" s="183"/>
-      <c r="Z153" s="182" t="s">
+      <c r="Y153" s="171"/>
+      <c r="Z153" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA153" s="183"/>
-      <c r="AB153" s="224" t="s">
+      <c r="AA153" s="171"/>
+      <c r="AB153" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="AC153" s="226" t="s">
+      <c r="AC153" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="AD153" s="176" t="s">
+      <c r="AD153" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE153" s="166" t="s">
+      <c r="AE153" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF153" s="166" t="s">
+      <c r="AF153" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="154" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A154" s="201"/>
-      <c r="B154" s="201"/>
-      <c r="C154" s="191"/>
+      <c r="A154" s="188"/>
+      <c r="B154" s="188"/>
+      <c r="C154" s="186"/>
       <c r="D154" s="73" t="s">
         <v>14</v>
       </c>
@@ -16880,14 +16861,14 @@
       <c r="AA154" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB154" s="225"/>
-      <c r="AC154" s="193"/>
-      <c r="AD154" s="176"/>
-      <c r="AE154" s="166"/>
-      <c r="AF154" s="166"/>
+      <c r="AB154" s="206"/>
+      <c r="AC154" s="200"/>
+      <c r="AD154" s="174"/>
+      <c r="AE154" s="169"/>
+      <c r="AF154" s="169"/>
     </row>
     <row r="155" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A155" s="206" t="s">
+      <c r="A155" s="179" t="s">
         <v>36</v>
       </c>
       <c r="B155" s="15" t="s">
@@ -16943,18 +16924,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD155" s="228" t="str">
+      <c r="AD155" s="176" t="str">
         <f>CONCATENATE(AC155,AC156,AC157,AC158,AC159,AC160,AC161,AC162,AC163,AC164,AC165)</f>
         <v/>
       </c>
       <c r="AE155" s="117"/>
-      <c r="AF155" s="164" t="str">
+      <c r="AF155" s="235" t="str">
         <f>CONCATENATE(AE155,AE156,AE157,AE158,AE159,AE160,AE161,AE162,AE163,AE164,AE165)</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:32" s="10" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A156" s="207"/>
+      <c r="A156" s="198"/>
       <c r="B156" s="15" t="s">
         <v>430</v>
       </c>
@@ -16990,12 +16971,12 @@
         <v>0</v>
       </c>
       <c r="AC156" s="112"/>
-      <c r="AD156" s="229"/>
+      <c r="AD156" s="192"/>
       <c r="AE156" s="117"/>
-      <c r="AF156" s="164"/>
+      <c r="AF156" s="235"/>
     </row>
     <row r="157" spans="1:32" s="10" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A157" s="207"/>
+      <c r="A157" s="198"/>
       <c r="B157" s="15" t="s">
         <v>431</v>
       </c>
@@ -17031,12 +17012,12 @@
         <v>0</v>
       </c>
       <c r="AC157" s="112"/>
-      <c r="AD157" s="229"/>
+      <c r="AD157" s="192"/>
       <c r="AE157" s="117"/>
-      <c r="AF157" s="164"/>
+      <c r="AF157" s="235"/>
     </row>
     <row r="158" spans="1:32" s="10" customFormat="1" ht="88.35" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A158" s="208"/>
+      <c r="A158" s="180"/>
       <c r="B158" s="15" t="s">
         <v>588</v>
       </c>
@@ -17072,12 +17053,12 @@
         <v>0</v>
       </c>
       <c r="AC158" s="112"/>
-      <c r="AD158" s="229"/>
+      <c r="AD158" s="192"/>
       <c r="AE158" s="117"/>
-      <c r="AF158" s="164"/>
+      <c r="AF158" s="235"/>
     </row>
     <row r="159" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A159" s="187" t="s">
+      <c r="A159" s="191" t="s">
         <v>146</v>
       </c>
       <c r="B159" s="15" t="s">
@@ -17115,12 +17096,12 @@
         <v>0</v>
       </c>
       <c r="AC159" s="112"/>
-      <c r="AD159" s="229"/>
+      <c r="AD159" s="192"/>
       <c r="AE159" s="117"/>
-      <c r="AF159" s="164"/>
+      <c r="AF159" s="235"/>
     </row>
     <row r="160" spans="1:32" s="10" customFormat="1" ht="161.44999999999999" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A160" s="187"/>
+      <c r="A160" s="191"/>
       <c r="B160" s="15" t="s">
         <v>435</v>
       </c>
@@ -17156,12 +17137,12 @@
         <v>0</v>
       </c>
       <c r="AC160" s="112"/>
-      <c r="AD160" s="229"/>
+      <c r="AD160" s="192"/>
       <c r="AE160" s="117"/>
-      <c r="AF160" s="164"/>
+      <c r="AF160" s="235"/>
     </row>
     <row r="161" spans="1:32" s="10" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A161" s="187"/>
+      <c r="A161" s="191"/>
       <c r="B161" s="15" t="s">
         <v>590</v>
       </c>
@@ -17197,12 +17178,12 @@
         <v>0</v>
       </c>
       <c r="AC161" s="112"/>
-      <c r="AD161" s="229"/>
+      <c r="AD161" s="192"/>
       <c r="AE161" s="117"/>
-      <c r="AF161" s="164"/>
+      <c r="AF161" s="235"/>
     </row>
     <row r="162" spans="1:32" s="10" customFormat="1" ht="158.1" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A162" s="187"/>
+      <c r="A162" s="191"/>
       <c r="B162" s="15" t="s">
         <v>591</v>
       </c>
@@ -17238,12 +17219,12 @@
         <v>0</v>
       </c>
       <c r="AC162" s="112"/>
-      <c r="AD162" s="229"/>
+      <c r="AD162" s="192"/>
       <c r="AE162" s="117"/>
-      <c r="AF162" s="164"/>
+      <c r="AF162" s="235"/>
     </row>
     <row r="163" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A163" s="187"/>
+      <c r="A163" s="191"/>
       <c r="B163" s="15" t="s">
         <v>438</v>
       </c>
@@ -17279,12 +17260,12 @@
         <v>0</v>
       </c>
       <c r="AC163" s="112"/>
-      <c r="AD163" s="229"/>
+      <c r="AD163" s="192"/>
       <c r="AE163" s="117"/>
-      <c r="AF163" s="164"/>
+      <c r="AF163" s="235"/>
     </row>
     <row r="164" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A164" s="187"/>
+      <c r="A164" s="191"/>
       <c r="B164" s="15" t="s">
         <v>592</v>
       </c>
@@ -17320,12 +17301,12 @@
         <v>0</v>
       </c>
       <c r="AC164" s="112"/>
-      <c r="AD164" s="229"/>
+      <c r="AD164" s="192"/>
       <c r="AE164" s="117"/>
-      <c r="AF164" s="164"/>
+      <c r="AF164" s="235"/>
     </row>
     <row r="165" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="1">
-      <c r="A165" s="223"/>
+      <c r="A165" s="204"/>
       <c r="B165" s="95" t="s">
         <v>593</v>
       </c>
@@ -17361,9 +17342,9 @@
         <v>0</v>
       </c>
       <c r="AC165" s="115"/>
-      <c r="AD165" s="234"/>
+      <c r="AD165" s="193"/>
       <c r="AE165" s="117"/>
-      <c r="AF165" s="164"/>
+      <c r="AF165" s="235"/>
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.7">
       <c r="A166" s="6"/>
@@ -17403,8 +17384,277 @@
       <c r="M169" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BynSrhim50J2QUyv69Nt+cNNTuJZ6u+bY4YIVDRaOGqJ2Hqx5TdagcajrPce2b+kJX7io9jCzPXkbx29TRJ1Rg==" saltValue="AieI+8+e3npEf/6M/nSsPQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pQx7NKCp+y5dcTv72V6wqgPVYfDJ7MoGCY2tzEce0wPvshWVi9etdkCLqvparv7UgEkAahNEhoMU/bfIIS39dg==" saltValue="p0LAgFFDRCIHuc1eCGHD/Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="293">
+    <mergeCell ref="AF155:AF165"/>
+    <mergeCell ref="AF8:AF36"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="A5:AF5"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AF46:AF47"/>
+    <mergeCell ref="AF66:AF67"/>
+    <mergeCell ref="AF81:AF82"/>
+    <mergeCell ref="AF102:AF103"/>
+    <mergeCell ref="AF120:AF121"/>
+    <mergeCell ref="AF135:AF136"/>
+    <mergeCell ref="AF146:AF147"/>
+    <mergeCell ref="AF153:AF154"/>
+    <mergeCell ref="A152:AF152"/>
+    <mergeCell ref="A145:AF145"/>
+    <mergeCell ref="A134:AF134"/>
+    <mergeCell ref="A119:AF119"/>
+    <mergeCell ref="A101:AF101"/>
+    <mergeCell ref="A80:AF80"/>
+    <mergeCell ref="A65:AF65"/>
+    <mergeCell ref="A45:AF45"/>
+    <mergeCell ref="A37:AF37"/>
+    <mergeCell ref="AF40:AF44"/>
+    <mergeCell ref="AF48:AF64"/>
+    <mergeCell ref="AF68:AF79"/>
+    <mergeCell ref="AF83:AF100"/>
+    <mergeCell ref="AF104:AF118"/>
+    <mergeCell ref="AF122:AF133"/>
+    <mergeCell ref="AF137:AF144"/>
+    <mergeCell ref="AF148:AF151"/>
+    <mergeCell ref="AC48:AC49"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AE102:AE103"/>
+    <mergeCell ref="AE120:AE121"/>
+    <mergeCell ref="AC115:AC116"/>
+    <mergeCell ref="AC113:AC114"/>
+    <mergeCell ref="AC111:AC112"/>
+    <mergeCell ref="AC46:AC47"/>
+    <mergeCell ref="AD8:AD36"/>
+    <mergeCell ref="AE146:AE147"/>
+    <mergeCell ref="AE135:AE136"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="AE46:AE47"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="AB66:AB67"/>
+    <mergeCell ref="AE66:AE67"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="AC53:AC54"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="D38:I39"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A4:AF4"/>
+    <mergeCell ref="AE81:AE82"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="AC66:AC67"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="AB81:AB82"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="V153:W153"/>
+    <mergeCell ref="X153:Y153"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="Z146:AA146"/>
+    <mergeCell ref="AB146:AB147"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="R146:S146"/>
+    <mergeCell ref="T146:U146"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="Z153:AA153"/>
+    <mergeCell ref="AB153:AB154"/>
+    <mergeCell ref="V146:W146"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="AC153:AC154"/>
+    <mergeCell ref="AC146:AC147"/>
+    <mergeCell ref="AC135:AC136"/>
+    <mergeCell ref="AC120:AC121"/>
+    <mergeCell ref="AC102:AC103"/>
+    <mergeCell ref="AC130:AC131"/>
+    <mergeCell ref="AC132:AC133"/>
+    <mergeCell ref="AC128:AC129"/>
+    <mergeCell ref="AC126:AC127"/>
+    <mergeCell ref="AC109:AC110"/>
+    <mergeCell ref="AC104:AC105"/>
+    <mergeCell ref="V135:W135"/>
+    <mergeCell ref="X135:Y135"/>
+    <mergeCell ref="Z135:AA135"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="R135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="AD46:AD47"/>
+    <mergeCell ref="AD40:AD44"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="A123:A131"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="R120:S120"/>
+    <mergeCell ref="T120:U120"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X120:Y120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="V102:W102"/>
+    <mergeCell ref="X102:Y102"/>
+    <mergeCell ref="Z102:AA102"/>
+    <mergeCell ref="AB102:AB103"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="AD155:AD165"/>
+    <mergeCell ref="AD148:AD151"/>
+    <mergeCell ref="AD137:AD144"/>
+    <mergeCell ref="AD135:AD136"/>
+    <mergeCell ref="AD146:AD147"/>
+    <mergeCell ref="AD153:AD154"/>
+    <mergeCell ref="AD122:AD133"/>
+    <mergeCell ref="AD120:AD121"/>
+    <mergeCell ref="AD104:AD118"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="P153:Q153"/>
+    <mergeCell ref="R153:S153"/>
+    <mergeCell ref="T153:U153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:V1"/>
@@ -17429,275 +17679,6 @@
     <mergeCell ref="AD68:AD79"/>
     <mergeCell ref="AD66:AD67"/>
     <mergeCell ref="AD48:AD64"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="P153:Q153"/>
-    <mergeCell ref="R153:S153"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="AD155:AD165"/>
-    <mergeCell ref="AD148:AD151"/>
-    <mergeCell ref="AD137:AD144"/>
-    <mergeCell ref="AD135:AD136"/>
-    <mergeCell ref="AD146:AD147"/>
-    <mergeCell ref="AD153:AD154"/>
-    <mergeCell ref="AD122:AD133"/>
-    <mergeCell ref="AD120:AD121"/>
-    <mergeCell ref="AD104:AD118"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="AD46:AD47"/>
-    <mergeCell ref="AD40:AD44"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="A123:A131"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="R120:S120"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="X120:Y120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="V102:W102"/>
-    <mergeCell ref="X102:Y102"/>
-    <mergeCell ref="Z102:AA102"/>
-    <mergeCell ref="AB102:AB103"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="V135:W135"/>
-    <mergeCell ref="X135:Y135"/>
-    <mergeCell ref="Z135:AA135"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="R135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="AC153:AC154"/>
-    <mergeCell ref="AC146:AC147"/>
-    <mergeCell ref="AC135:AC136"/>
-    <mergeCell ref="AC120:AC121"/>
-    <mergeCell ref="AC102:AC103"/>
-    <mergeCell ref="AC130:AC131"/>
-    <mergeCell ref="AC132:AC133"/>
-    <mergeCell ref="AC128:AC129"/>
-    <mergeCell ref="AC126:AC127"/>
-    <mergeCell ref="AC109:AC110"/>
-    <mergeCell ref="AC104:AC105"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="V153:W153"/>
-    <mergeCell ref="X153:Y153"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="Z146:AA146"/>
-    <mergeCell ref="AB146:AB147"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="L146:M146"/>
-    <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="R146:S146"/>
-    <mergeCell ref="T146:U146"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="Z153:AA153"/>
-    <mergeCell ref="AB153:AB154"/>
-    <mergeCell ref="V146:W146"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="AE81:AE82"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="AC66:AC67"/>
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="AB81:AB82"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="D38:I39"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A4:AF4"/>
-    <mergeCell ref="AE46:AE47"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="AB66:AB67"/>
-    <mergeCell ref="AE66:AE67"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="AC53:AC54"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="A2:AC2"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="AF68:AF79"/>
-    <mergeCell ref="AF83:AF100"/>
-    <mergeCell ref="AF104:AF118"/>
-    <mergeCell ref="AF122:AF133"/>
-    <mergeCell ref="AF137:AF144"/>
-    <mergeCell ref="AF148:AF151"/>
-    <mergeCell ref="AC48:AC49"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AE102:AE103"/>
-    <mergeCell ref="AE120:AE121"/>
-    <mergeCell ref="AC115:AC116"/>
-    <mergeCell ref="AC113:AC114"/>
-    <mergeCell ref="AC111:AC112"/>
-    <mergeCell ref="AC46:AC47"/>
-    <mergeCell ref="AD8:AD36"/>
-    <mergeCell ref="AE146:AE147"/>
-    <mergeCell ref="AE135:AE136"/>
-    <mergeCell ref="AF155:AF165"/>
-    <mergeCell ref="AF8:AF36"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="A5:AF5"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AF46:AF47"/>
-    <mergeCell ref="AF66:AF67"/>
-    <mergeCell ref="AF81:AF82"/>
-    <mergeCell ref="AF102:AF103"/>
-    <mergeCell ref="AF120:AF121"/>
-    <mergeCell ref="AF135:AF136"/>
-    <mergeCell ref="AF146:AF147"/>
-    <mergeCell ref="AF153:AF154"/>
-    <mergeCell ref="A152:AF152"/>
-    <mergeCell ref="A145:AF145"/>
-    <mergeCell ref="A134:AF134"/>
-    <mergeCell ref="A119:AF119"/>
-    <mergeCell ref="A101:AF101"/>
-    <mergeCell ref="A80:AF80"/>
-    <mergeCell ref="A65:AF65"/>
-    <mergeCell ref="A45:AF45"/>
-    <mergeCell ref="A37:AF37"/>
-    <mergeCell ref="AF40:AF44"/>
-    <mergeCell ref="AF48:AF64"/>
   </mergeCells>
   <conditionalFormatting sqref="AC8">
     <cfRule type="notContainsBlanks" dxfId="59" priority="68">

--- a/web/F1v2.xlsx
+++ b/web/F1v2.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InternalSystem\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GeofreyNyabuto\NetbeansProjects\InternalSystem\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A827751C-9712-49F5-AAC8-6CB558B7F102}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC178322-7338-4F1F-9C9E-E065D72F4DF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="a4gUMdZCGkDDzElfhkvI/brsAlzI4GhD8wwWIVFJCtcL8IfIwqWYpVjV2Q6nijKW2ipnQ8sfmugbKli0802lfw==" workbookSaltValue="1iepslPG5jc+WSQINC8vKA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" activeTab="1" xr2:uid="{1C7A72A4-46D5-4130-84F6-E2BF1F1A15D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C7A72A4-46D5-4130-84F6-E2BF1F1A15D0}"/>
   </bookViews>
   <sheets>
     <sheet name="InstructionsForm1A" sheetId="3" r:id="rId1"/>
@@ -4675,46 +4675,73 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4732,42 +4759,237 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4780,233 +5002,11 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6344,13 +6344,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="2:6" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="65" t="s">
@@ -6370,12 +6370,12 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="163"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="2:6" ht="96" customHeight="1" x14ac:dyDescent="0.45">
@@ -6822,16 +6822,16 @@
       </c>
     </row>
     <row r="31" spans="2:6" s="42" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="136"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="155"/>
     </row>
     <row r="32" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="140" t="s">
+      <c r="B32" s="134" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="38" t="s">
@@ -6843,12 +6843,12 @@
       <c r="E32" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="147" t="s">
+      <c r="F32" s="156" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="141"/>
+      <c r="B33" s="135"/>
       <c r="C33" s="38" t="s">
         <v>222</v>
       </c>
@@ -6858,10 +6858,10 @@
       <c r="E33" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="148"/>
+      <c r="F33" s="157"/>
     </row>
     <row r="34" spans="2:6" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="141"/>
+      <c r="B34" s="135"/>
       <c r="C34" s="38" t="s">
         <v>227</v>
       </c>
@@ -6871,10 +6871,10 @@
       <c r="E34" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="148"/>
+      <c r="F34" s="157"/>
     </row>
     <row r="35" spans="2:6" ht="57.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="141"/>
+      <c r="B35" s="135"/>
       <c r="C35" s="38" t="s">
         <v>228</v>
       </c>
@@ -6884,10 +6884,10 @@
       <c r="E35" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="148"/>
+      <c r="F35" s="157"/>
     </row>
     <row r="36" spans="2:6" ht="72.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="142"/>
+      <c r="B36" s="136"/>
       <c r="C36" s="38" t="s">
         <v>230</v>
       </c>
@@ -6897,19 +6897,19 @@
       <c r="E36" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="149"/>
+      <c r="F36" s="158"/>
     </row>
     <row r="37" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="150" t="s">
+      <c r="B37" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="152"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="161"/>
     </row>
     <row r="38" spans="2:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="140" t="s">
+      <c r="B38" s="134" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="38" t="s">
@@ -6926,7 +6926,7 @@
       </c>
     </row>
     <row r="39" spans="2:6" ht="122.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="141"/>
+      <c r="B39" s="135"/>
       <c r="C39" s="38" t="s">
         <v>461</v>
       </c>
@@ -6941,7 +6941,7 @@
       </c>
     </row>
     <row r="40" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="141"/>
+      <c r="B40" s="135"/>
       <c r="C40" s="38" t="s">
         <v>462</v>
       </c>
@@ -6956,7 +6956,7 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="141"/>
+      <c r="B41" s="135"/>
       <c r="C41" s="38" t="s">
         <v>237</v>
       </c>
@@ -6971,7 +6971,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="141"/>
+      <c r="B42" s="135"/>
       <c r="C42" s="38" t="s">
         <v>463</v>
       </c>
@@ -6986,7 +6986,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="140" t="s">
+      <c r="B43" s="134" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="38" t="s">
@@ -7003,7 +7003,7 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="141"/>
+      <c r="B44" s="135"/>
       <c r="C44" s="38" t="s">
         <v>242</v>
       </c>
@@ -7018,7 +7018,7 @@
       </c>
     </row>
     <row r="45" spans="2:6" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="142"/>
+      <c r="B45" s="136"/>
       <c r="C45" s="38" t="s">
         <v>244</v>
       </c>
@@ -7140,7 +7140,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="155" t="s">
+      <c r="B53" s="162" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="32" t="s">
@@ -7157,7 +7157,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="92.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="156"/>
+      <c r="B54" s="163"/>
       <c r="C54" s="32" t="s">
         <v>258</v>
       </c>
@@ -7172,16 +7172,16 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="47.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="134" t="s">
+      <c r="B55" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="135"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="136"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="152"/>
+      <c r="E55" s="152"/>
+      <c r="F55" s="155"/>
     </row>
     <row r="56" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="140" t="s">
+      <c r="B56" s="134" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="38" t="s">
@@ -7198,7 +7198,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="142"/>
+      <c r="B57" s="136"/>
       <c r="C57" s="38" t="s">
         <v>471</v>
       </c>
@@ -7213,7 +7213,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="140" t="s">
+      <c r="B58" s="134" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="38" t="s">
@@ -7230,7 +7230,7 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="142"/>
+      <c r="B59" s="136"/>
       <c r="C59" s="38" t="s">
         <v>471</v>
       </c>
@@ -7245,7 +7245,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="153" t="s">
+      <c r="B60" s="143" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="50" t="s">
@@ -7262,7 +7262,7 @@
       </c>
     </row>
     <row r="61" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="154"/>
+      <c r="B61" s="144"/>
       <c r="C61" s="50" t="s">
         <v>474</v>
       </c>
@@ -7277,7 +7277,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" ht="62.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="153" t="s">
+      <c r="B62" s="143" t="s">
         <v>39</v>
       </c>
       <c r="C62" s="50" t="s">
@@ -7294,7 +7294,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="154"/>
+      <c r="B63" s="144"/>
       <c r="C63" s="50" t="s">
         <v>476</v>
       </c>
@@ -7309,7 +7309,7 @@
       </c>
     </row>
     <row r="64" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="153" t="s">
+      <c r="B64" s="143" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="50" t="s">
@@ -7326,7 +7326,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="154"/>
+      <c r="B65" s="144"/>
       <c r="C65" s="50" t="s">
         <v>478</v>
       </c>
@@ -7341,7 +7341,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="153" t="s">
+      <c r="B66" s="143" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="50" t="s">
@@ -7358,7 +7358,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="154"/>
+      <c r="B67" s="144"/>
       <c r="C67" s="50" t="s">
         <v>480</v>
       </c>
@@ -7373,16 +7373,16 @@
       </c>
     </row>
     <row r="68" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="134" t="s">
+      <c r="B68" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="135"/>
-      <c r="D68" s="135"/>
-      <c r="E68" s="135"/>
-      <c r="F68" s="136"/>
+      <c r="C68" s="152"/>
+      <c r="D68" s="152"/>
+      <c r="E68" s="152"/>
+      <c r="F68" s="155"/>
     </row>
     <row r="69" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="140" t="s">
+      <c r="B69" s="134" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="38" t="s">
@@ -7399,7 +7399,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="141"/>
+      <c r="B70" s="135"/>
       <c r="C70" s="38" t="s">
         <v>288</v>
       </c>
@@ -7414,7 +7414,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="141"/>
+      <c r="B71" s="135"/>
       <c r="C71" s="38" t="s">
         <v>482</v>
       </c>
@@ -7429,7 +7429,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="141"/>
+      <c r="B72" s="135"/>
       <c r="C72" s="38" t="s">
         <v>483</v>
       </c>
@@ -7444,7 +7444,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="75.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="141"/>
+      <c r="B73" s="135"/>
       <c r="C73" s="38" t="s">
         <v>484</v>
       </c>
@@ -7459,7 +7459,7 @@
       </c>
     </row>
     <row r="74" spans="2:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="142"/>
+      <c r="B74" s="136"/>
       <c r="C74" s="38" t="s">
         <v>485</v>
       </c>
@@ -7474,7 +7474,7 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="140" t="s">
+      <c r="B75" s="134" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="38" t="s">
@@ -7491,7 +7491,7 @@
       </c>
     </row>
     <row r="76" spans="2:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="141"/>
+      <c r="B76" s="135"/>
       <c r="C76" s="38" t="s">
         <v>486</v>
       </c>
@@ -7506,7 +7506,7 @@
       </c>
     </row>
     <row r="77" spans="2:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="141"/>
+      <c r="B77" s="135"/>
       <c r="C77" s="38" t="s">
         <v>304</v>
       </c>
@@ -7521,7 +7521,7 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="141"/>
+      <c r="B78" s="135"/>
       <c r="C78" s="38" t="s">
         <v>306</v>
       </c>
@@ -7536,7 +7536,7 @@
       </c>
     </row>
     <row r="79" spans="2:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="141"/>
+      <c r="B79" s="135"/>
       <c r="C79" s="38" t="s">
         <v>484</v>
       </c>
@@ -7551,7 +7551,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" ht="96.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="142"/>
+      <c r="B80" s="136"/>
       <c r="C80" s="38" t="s">
         <v>309</v>
       </c>
@@ -7566,7 +7566,7 @@
       </c>
     </row>
     <row r="81" spans="2:6" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="140" t="s">
+      <c r="B81" s="134" t="s">
         <v>33</v>
       </c>
       <c r="C81" s="38" t="s">
@@ -7583,7 +7583,7 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="72.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="141"/>
+      <c r="B82" s="135"/>
       <c r="C82" s="38" t="s">
         <v>288</v>
       </c>
@@ -7598,7 +7598,7 @@
       </c>
     </row>
     <row r="83" spans="2:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="141"/>
+      <c r="B83" s="135"/>
       <c r="C83" s="38" t="s">
         <v>304</v>
       </c>
@@ -7613,7 +7613,7 @@
       </c>
     </row>
     <row r="84" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="141"/>
+      <c r="B84" s="135"/>
       <c r="C84" s="38" t="s">
         <v>483</v>
       </c>
@@ -7628,7 +7628,7 @@
       </c>
     </row>
     <row r="85" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="141"/>
+      <c r="B85" s="135"/>
       <c r="C85" s="38" t="s">
         <v>484</v>
       </c>
@@ -7643,7 +7643,7 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="142"/>
+      <c r="B86" s="136"/>
       <c r="C86" s="38" t="s">
         <v>309</v>
       </c>
@@ -7658,16 +7658,16 @@
       </c>
     </row>
     <row r="87" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="134" t="s">
+      <c r="B87" s="151" t="s">
         <v>168</v>
       </c>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="136"/>
+      <c r="C87" s="152"/>
+      <c r="D87" s="152"/>
+      <c r="E87" s="152"/>
+      <c r="F87" s="155"/>
     </row>
     <row r="88" spans="2:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="B88" s="140" t="s">
+      <c r="B88" s="134" t="s">
         <v>44</v>
       </c>
       <c r="C88" s="38" t="s">
@@ -7684,7 +7684,7 @@
       </c>
     </row>
     <row r="89" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="142"/>
+      <c r="B89" s="136"/>
       <c r="C89" s="38" t="s">
         <v>488</v>
       </c>
@@ -7699,7 +7699,7 @@
       </c>
     </row>
     <row r="90" spans="2:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="140" t="s">
+      <c r="B90" s="134" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="38" t="s">
@@ -7716,7 +7716,7 @@
       </c>
     </row>
     <row r="91" spans="2:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="142"/>
+      <c r="B91" s="136"/>
       <c r="C91" s="38" t="s">
         <v>327</v>
       </c>
@@ -7731,7 +7731,7 @@
       </c>
     </row>
     <row r="92" spans="2:6" ht="51.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="140" t="s">
+      <c r="B92" s="134" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="32" t="s">
@@ -7748,7 +7748,7 @@
       </c>
     </row>
     <row r="93" spans="2:6" ht="52.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="141"/>
+      <c r="B93" s="135"/>
       <c r="C93" s="32" t="s">
         <v>339</v>
       </c>
@@ -7763,7 +7763,7 @@
       </c>
     </row>
     <row r="94" spans="2:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="141"/>
+      <c r="B94" s="135"/>
       <c r="C94" s="32" t="s">
         <v>340</v>
       </c>
@@ -7778,7 +7778,7 @@
       </c>
     </row>
     <row r="95" spans="2:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="141"/>
+      <c r="B95" s="135"/>
       <c r="C95" s="32" t="s">
         <v>343</v>
       </c>
@@ -7793,7 +7793,7 @@
       </c>
     </row>
     <row r="96" spans="2:6" ht="56.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="141"/>
+      <c r="B96" s="135"/>
       <c r="C96" s="32" t="s">
         <v>346</v>
       </c>
@@ -7808,7 +7808,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="141"/>
+      <c r="B97" s="135"/>
       <c r="C97" s="32" t="s">
         <v>490</v>
       </c>
@@ -7823,7 +7823,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="142"/>
+      <c r="B98" s="136"/>
       <c r="C98" s="32" t="s">
         <v>491</v>
       </c>
@@ -7838,7 +7838,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" s="48" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="158" t="s">
+      <c r="B99" s="148" t="s">
         <v>131</v>
       </c>
       <c r="C99" s="32" t="s">
@@ -7855,7 +7855,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="159"/>
+      <c r="B100" s="149"/>
       <c r="C100" s="32" t="s">
         <v>351</v>
       </c>
@@ -7870,7 +7870,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B101" s="159"/>
+      <c r="B101" s="149"/>
       <c r="C101" s="54" t="s">
         <v>493</v>
       </c>
@@ -7885,7 +7885,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="160"/>
+      <c r="B102" s="150"/>
       <c r="C102" s="54" t="s">
         <v>444</v>
       </c>
@@ -7900,13 +7900,13 @@
       </c>
     </row>
     <row r="103" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B103" s="134" t="s">
+      <c r="B103" s="151" t="s">
         <v>355</v>
       </c>
-      <c r="C103" s="135"/>
-      <c r="D103" s="135"/>
-      <c r="E103" s="135"/>
-      <c r="F103" s="136"/>
+      <c r="C103" s="152"/>
+      <c r="D103" s="152"/>
+      <c r="E103" s="152"/>
+      <c r="F103" s="155"/>
       <c r="H103" s="25" t="s">
         <v>448</v>
       </c>
@@ -7929,7 +7929,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B105" s="140" t="s">
+      <c r="B105" s="134" t="s">
         <v>46</v>
       </c>
       <c r="C105" s="38" t="s">
@@ -7946,7 +7946,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B106" s="141"/>
+      <c r="B106" s="135"/>
       <c r="C106" s="38" t="s">
         <v>359</v>
       </c>
@@ -7961,7 +7961,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" ht="83.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="141"/>
+      <c r="B107" s="135"/>
       <c r="C107" s="38" t="s">
         <v>360</v>
       </c>
@@ -7976,7 +7976,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="141"/>
+      <c r="B108" s="135"/>
       <c r="C108" s="38" t="s">
         <v>496</v>
       </c>
@@ -7991,7 +7991,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="141"/>
+      <c r="B109" s="135"/>
       <c r="C109" s="38" t="s">
         <v>365</v>
       </c>
@@ -8006,7 +8006,7 @@
       </c>
     </row>
     <row r="110" spans="2:8" ht="104.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B110" s="141"/>
+      <c r="B110" s="135"/>
       <c r="C110" s="38" t="s">
         <v>371</v>
       </c>
@@ -8021,7 +8021,7 @@
       </c>
     </row>
     <row r="111" spans="2:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B111" s="141"/>
+      <c r="B111" s="135"/>
       <c r="C111" s="38" t="s">
         <v>372</v>
       </c>
@@ -8036,7 +8036,7 @@
       </c>
     </row>
     <row r="112" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="141"/>
+      <c r="B112" s="135"/>
       <c r="C112" s="38" t="s">
         <v>374</v>
       </c>
@@ -8051,7 +8051,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" ht="98.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B113" s="141"/>
+      <c r="B113" s="135"/>
       <c r="C113" s="38" t="s">
         <v>375</v>
       </c>
@@ -8066,7 +8066,7 @@
       </c>
     </row>
     <row r="114" spans="2:6" ht="96.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B114" s="145" t="s">
+      <c r="B114" s="146" t="s">
         <v>149</v>
       </c>
       <c r="C114" s="32" t="s">
@@ -8083,7 +8083,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B115" s="146"/>
+      <c r="B115" s="147"/>
       <c r="C115" s="32" t="s">
         <v>381</v>
       </c>
@@ -8098,16 +8098,16 @@
       </c>
     </row>
     <row r="116" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B116" s="134" t="s">
+      <c r="B116" s="151" t="s">
         <v>170</v>
       </c>
-      <c r="C116" s="135"/>
-      <c r="D116" s="135"/>
-      <c r="E116" s="135"/>
-      <c r="F116" s="135"/>
+      <c r="C116" s="152"/>
+      <c r="D116" s="152"/>
+      <c r="E116" s="152"/>
+      <c r="F116" s="152"/>
     </row>
     <row r="117" spans="2:6" ht="92.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B117" s="140" t="s">
+      <c r="B117" s="134" t="s">
         <v>35</v>
       </c>
       <c r="C117" s="38" t="s">
@@ -8124,7 +8124,7 @@
       </c>
     </row>
     <row r="118" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="141"/>
+      <c r="B118" s="135"/>
       <c r="C118" s="38" t="s">
         <v>384</v>
       </c>
@@ -8139,7 +8139,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="141"/>
+      <c r="B119" s="135"/>
       <c r="C119" s="38" t="s">
         <v>392</v>
       </c>
@@ -8154,7 +8154,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B120" s="141"/>
+      <c r="B120" s="135"/>
       <c r="C120" s="38" t="s">
         <v>393</v>
       </c>
@@ -8169,7 +8169,7 @@
       </c>
     </row>
     <row r="121" spans="2:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B121" s="142"/>
+      <c r="B121" s="136"/>
       <c r="C121" s="38" t="s">
         <v>394</v>
       </c>
@@ -8184,7 +8184,7 @@
       </c>
     </row>
     <row r="122" spans="2:6" ht="87.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="157" t="s">
+      <c r="B122" s="145" t="s">
         <v>173</v>
       </c>
       <c r="C122" s="38" t="s">
@@ -8201,7 +8201,7 @@
       </c>
     </row>
     <row r="123" spans="2:6" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B123" s="145"/>
+      <c r="B123" s="146"/>
       <c r="C123" s="38" t="s">
         <v>402</v>
       </c>
@@ -8216,7 +8216,7 @@
       </c>
     </row>
     <row r="124" spans="2:6" ht="120.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B124" s="146"/>
+      <c r="B124" s="147"/>
       <c r="C124" s="38" t="s">
         <v>405</v>
       </c>
@@ -8231,16 +8231,16 @@
       </c>
     </row>
     <row r="125" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="134" t="s">
+      <c r="B125" s="151" t="s">
         <v>176</v>
       </c>
-      <c r="C125" s="135"/>
-      <c r="D125" s="135"/>
-      <c r="E125" s="135"/>
-      <c r="F125" s="136"/>
+      <c r="C125" s="152"/>
+      <c r="D125" s="152"/>
+      <c r="E125" s="152"/>
+      <c r="F125" s="155"/>
     </row>
     <row r="126" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B126" s="140" t="s">
+      <c r="B126" s="134" t="s">
         <v>47</v>
       </c>
       <c r="C126" s="38" t="s">
@@ -8257,7 +8257,7 @@
       </c>
     </row>
     <row r="127" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B127" s="141"/>
+      <c r="B127" s="135"/>
       <c r="C127" s="58" t="s">
         <v>409</v>
       </c>
@@ -8272,7 +8272,7 @@
       </c>
     </row>
     <row r="128" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B128" s="141"/>
+      <c r="B128" s="135"/>
       <c r="C128" s="38" t="s">
         <v>503</v>
       </c>
@@ -8287,7 +8287,7 @@
       </c>
     </row>
     <row r="129" spans="2:6" ht="77.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B129" s="142"/>
+      <c r="B129" s="136"/>
       <c r="C129" s="38" t="s">
         <v>414</v>
       </c>
@@ -8302,16 +8302,16 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B130" s="134" t="s">
+      <c r="B130" s="151" t="s">
         <v>177</v>
       </c>
-      <c r="C130" s="135"/>
-      <c r="D130" s="135"/>
-      <c r="E130" s="135"/>
-      <c r="F130" s="136"/>
+      <c r="C130" s="152"/>
+      <c r="D130" s="152"/>
+      <c r="E130" s="152"/>
+      <c r="F130" s="155"/>
     </row>
     <row r="131" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B131" s="140" t="s">
+      <c r="B131" s="134" t="s">
         <v>36</v>
       </c>
       <c r="C131" s="38" t="s">
@@ -8328,7 +8328,7 @@
       </c>
     </row>
     <row r="132" spans="2:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B132" s="141"/>
+      <c r="B132" s="135"/>
       <c r="C132" s="38" t="s">
         <v>430</v>
       </c>
@@ -8343,7 +8343,7 @@
       </c>
     </row>
     <row r="133" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="141"/>
+      <c r="B133" s="135"/>
       <c r="C133" s="38" t="s">
         <v>431</v>
       </c>
@@ -8358,7 +8358,7 @@
       </c>
     </row>
     <row r="134" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B134" s="142"/>
+      <c r="B134" s="136"/>
       <c r="C134" s="38" t="s">
         <v>504</v>
       </c>
@@ -8373,7 +8373,7 @@
       </c>
     </row>
     <row r="135" spans="2:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B135" s="140" t="s">
+      <c r="B135" s="134" t="s">
         <v>505</v>
       </c>
       <c r="C135" s="38" t="s">
@@ -8390,7 +8390,7 @@
       </c>
     </row>
     <row r="136" spans="2:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B136" s="141"/>
+      <c r="B136" s="135"/>
       <c r="C136" s="38" t="s">
         <v>435</v>
       </c>
@@ -8403,7 +8403,7 @@
       <c r="F136" s="138"/>
     </row>
     <row r="137" spans="2:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B137" s="141"/>
+      <c r="B137" s="135"/>
       <c r="C137" s="38" t="s">
         <v>436</v>
       </c>
@@ -8416,7 +8416,7 @@
       <c r="F137" s="138"/>
     </row>
     <row r="138" spans="2:6" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B138" s="141"/>
+      <c r="B138" s="135"/>
       <c r="C138" s="38" t="s">
         <v>437</v>
       </c>
@@ -8429,7 +8429,7 @@
       <c r="F138" s="138"/>
     </row>
     <row r="139" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B139" s="141"/>
+      <c r="B139" s="135"/>
       <c r="C139" s="38" t="s">
         <v>438</v>
       </c>
@@ -8442,7 +8442,7 @@
       <c r="F139" s="138"/>
     </row>
     <row r="140" spans="2:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B140" s="141"/>
+      <c r="B140" s="135"/>
       <c r="C140" s="38" t="s">
         <v>439</v>
       </c>
@@ -8455,7 +8455,7 @@
       <c r="F140" s="138"/>
     </row>
     <row r="141" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B141" s="142"/>
+      <c r="B141" s="136"/>
       <c r="C141" s="60" t="s">
         <v>440</v>
       </c>
@@ -8469,23 +8469,11 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="B105:B113"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="F135:F141"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B131:B134"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B114:B115"/>
@@ -8502,11 +8490,23 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="F135:F141"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B105:B113"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B60:B61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="26" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8530,7 +8530,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="46.5" x14ac:dyDescent="0.7"/>
@@ -8541,8 +8541,9 @@
     <col min="4" max="27" width="24.28515625" style="5" customWidth="1"/>
     <col min="28" max="28" width="62.140625" style="5" customWidth="1"/>
     <col min="29" max="29" width="182.42578125" style="72" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="116.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="191.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="234.140625" style="72" customWidth="1"/>
+    <col min="31" max="31" width="191.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="236.140625" style="2" customWidth="1"/>
     <col min="33" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -8550,82 +8551,82 @@
       <c r="A1" s="130" t="s">
         <v>630</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="233" t="s">
+      <c r="B1" s="195"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="197" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="234"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="233" t="s">
+      <c r="E1" s="198"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="197" t="s">
         <v>629</v>
       </c>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165" t="s">
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="239" t="s">
         <v>640</v>
       </c>
-      <c r="S1" s="165"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="167" t="s">
+      <c r="S1" s="239"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="240"/>
+      <c r="W1" s="241" t="s">
         <v>631</v>
       </c>
-      <c r="X1" s="168"/>
+      <c r="X1" s="242"/>
       <c r="Y1" s="131"/>
       <c r="Z1" s="132" t="s">
         <v>632</v>
       </c>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="224" t="s">
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="180" t="s">
         <v>637</v>
       </c>
-      <c r="AD1" s="225"/>
-      <c r="AE1" s="225"/>
-      <c r="AF1" s="225"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="186" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
-      <c r="N2" s="226"/>
-      <c r="O2" s="226"/>
-      <c r="P2" s="226"/>
-      <c r="Q2" s="226"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="226"/>
-      <c r="AB2" s="226"/>
-      <c r="AC2" s="226"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="186"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="186"/>
+      <c r="W2" s="186"/>
+      <c r="X2" s="186"/>
+      <c r="Y2" s="186"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="186"/>
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="186"/>
       <c r="AD2" s="67"/>
     </row>
     <row r="3" spans="1:32" s="7" customFormat="1" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
@@ -8649,155 +8650,155 @@
       <c r="AD3" s="71"/>
     </row>
     <row r="4" spans="1:32" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="217" t="s">
+      <c r="A4" s="218" t="s">
         <v>641</v>
       </c>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="218"/>
-      <c r="L4" s="218"/>
-      <c r="M4" s="218"/>
-      <c r="N4" s="218"/>
-      <c r="O4" s="218"/>
-      <c r="P4" s="218"/>
-      <c r="Q4" s="218"/>
-      <c r="R4" s="218"/>
-      <c r="S4" s="218"/>
-      <c r="T4" s="218"/>
-      <c r="U4" s="218"/>
-      <c r="V4" s="218"/>
-      <c r="W4" s="218"/>
-      <c r="X4" s="218"/>
-      <c r="Y4" s="218"/>
-      <c r="Z4" s="218"/>
-      <c r="AA4" s="218"/>
-      <c r="AB4" s="218"/>
-      <c r="AC4" s="218"/>
-      <c r="AD4" s="218"/>
-      <c r="AE4" s="218"/>
-      <c r="AF4" s="219"/>
+      <c r="B4" s="219"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="219"/>
+      <c r="K4" s="219"/>
+      <c r="L4" s="219"/>
+      <c r="M4" s="219"/>
+      <c r="N4" s="219"/>
+      <c r="O4" s="219"/>
+      <c r="P4" s="219"/>
+      <c r="Q4" s="219"/>
+      <c r="R4" s="219"/>
+      <c r="S4" s="219"/>
+      <c r="T4" s="219"/>
+      <c r="U4" s="219"/>
+      <c r="V4" s="219"/>
+      <c r="W4" s="219"/>
+      <c r="X4" s="219"/>
+      <c r="Y4" s="219"/>
+      <c r="Z4" s="219"/>
+      <c r="AA4" s="219"/>
+      <c r="AB4" s="219"/>
+      <c r="AC4" s="219"/>
+      <c r="AD4" s="219"/>
+      <c r="AE4" s="219"/>
+      <c r="AF4" s="220"/>
     </row>
     <row r="5" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A5" s="241" t="s">
+      <c r="A5" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="242"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="242"/>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="242"/>
-      <c r="R5" s="242"/>
-      <c r="S5" s="242"/>
-      <c r="T5" s="242"/>
-      <c r="U5" s="242"/>
-      <c r="V5" s="242"/>
-      <c r="W5" s="242"/>
-      <c r="X5" s="242"/>
-      <c r="Y5" s="242"/>
-      <c r="Z5" s="242"/>
-      <c r="AA5" s="242"/>
-      <c r="AB5" s="242"/>
-      <c r="AC5" s="242"/>
-      <c r="AD5" s="242"/>
-      <c r="AE5" s="242"/>
-      <c r="AF5" s="243"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="168"/>
+      <c r="V5" s="168"/>
+      <c r="W5" s="168"/>
+      <c r="X5" s="168"/>
+      <c r="Y5" s="168"/>
+      <c r="Z5" s="168"/>
+      <c r="AA5" s="168"/>
+      <c r="AB5" s="168"/>
+      <c r="AC5" s="168"/>
+      <c r="AD5" s="168"/>
+      <c r="AE5" s="168"/>
+      <c r="AF5" s="169"/>
     </row>
     <row r="6" spans="1:32" s="24" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="233" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="233" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="196" t="s">
+      <c r="C6" s="232" t="s">
         <v>508</v>
       </c>
-      <c r="D6" s="210" t="s">
+      <c r="D6" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="195"/>
-      <c r="F6" s="194" t="s">
+      <c r="E6" s="185"/>
+      <c r="F6" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="195"/>
-      <c r="H6" s="194" t="s">
+      <c r="G6" s="185"/>
+      <c r="H6" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="195"/>
-      <c r="J6" s="194" t="s">
+      <c r="I6" s="185"/>
+      <c r="J6" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="195"/>
-      <c r="L6" s="194" t="s">
+      <c r="K6" s="185"/>
+      <c r="L6" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="195"/>
-      <c r="N6" s="194" t="s">
+      <c r="M6" s="185"/>
+      <c r="N6" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="195"/>
-      <c r="P6" s="194" t="s">
+      <c r="O6" s="185"/>
+      <c r="P6" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="194" t="s">
+      <c r="Q6" s="185"/>
+      <c r="R6" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="195"/>
-      <c r="T6" s="194" t="s">
+      <c r="S6" s="185"/>
+      <c r="T6" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="195"/>
-      <c r="V6" s="194" t="s">
+      <c r="U6" s="185"/>
+      <c r="V6" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="195"/>
-      <c r="X6" s="194" t="s">
+      <c r="W6" s="185"/>
+      <c r="X6" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="195"/>
-      <c r="Z6" s="194" t="s">
+      <c r="Y6" s="185"/>
+      <c r="Z6" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="195"/>
-      <c r="AB6" s="230" t="s">
+      <c r="AA6" s="185"/>
+      <c r="AB6" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="AC6" s="229" t="s">
+      <c r="AC6" s="192" t="s">
         <v>628</v>
       </c>
-      <c r="AD6" s="174" t="s">
+      <c r="AD6" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE6" s="169" t="s">
+      <c r="AE6" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF6" s="169" t="s">
+      <c r="AF6" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:32" s="24" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A7" s="197"/>
-      <c r="B7" s="197"/>
-      <c r="C7" s="196"/>
+      <c r="A7" s="233"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="232"/>
       <c r="D7" s="74" t="s">
         <v>14</v>
       </c>
@@ -8870,14 +8871,14 @@
       <c r="AA7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB7" s="230"/>
-      <c r="AC7" s="200"/>
-      <c r="AD7" s="174"/>
-      <c r="AE7" s="169"/>
-      <c r="AF7" s="169"/>
+      <c r="AB7" s="194"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="176"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="166"/>
     </row>
     <row r="8" spans="1:32" s="10" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A8" s="227" t="s">
+      <c r="A8" s="188" t="s">
         <v>141</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -8914,7 +8915,7 @@
         <f t="shared" ref="AB8:AB12" si="0">SUM(D8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="220" t="str">
+      <c r="AC8" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D9&gt;D8," * F01-02 " &amp;D6&amp;" "&amp; D7&amp; " is more than F01-01"&amp;CHAR(10),""),IF(E9&gt;E8," * F01-02 " &amp;D6&amp;" "&amp; E7&amp; " is more than F01-01"&amp;CHAR(10),""),
@@ -8933,18 +8934,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD8" s="239" t="str">
+      <c r="AD8" s="179" t="str">
         <f>CONCATENATE(AC8,AC10,AC11,AC12,AC14,AC15,AC16,AC17,AC19,AC21,AC23,AC25,AC27,AC29,AC31,AC33,AC35)</f>
         <v/>
       </c>
       <c r="AE8" s="117"/>
-      <c r="AF8" s="240" t="str">
+      <c r="AF8" s="165" t="str">
         <f>CONCATENATE(AE8,AE9,AE10,AE11,AE12,AE13,AE14,AE15,AE16,AE17,AE18,AE19,AE20,AE21,AE22,AE23,AE24,AE25,AE26,AE27,AE28,AE29,AE30,AE31,AE32,AE33,AE34,AE35,AE36)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:32" s="10" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A9" s="228"/>
+      <c r="A9" s="189"/>
       <c r="B9" s="15" t="s">
         <v>507</v>
       </c>
@@ -8979,13 +8980,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="221"/>
-      <c r="AD9" s="239"/>
+      <c r="AC9" s="174"/>
+      <c r="AD9" s="179"/>
       <c r="AE9" s="117"/>
-      <c r="AF9" s="240"/>
+      <c r="AF9" s="165"/>
     </row>
     <row r="10" spans="1:32" s="10" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A10" s="228"/>
+      <c r="A10" s="189"/>
       <c r="B10" s="15" t="s">
         <v>509</v>
       </c>
@@ -9039,12 +9040,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD10" s="239"/>
+      <c r="AD10" s="179"/>
       <c r="AE10" s="117"/>
-      <c r="AF10" s="240"/>
+      <c r="AF10" s="165"/>
     </row>
     <row r="11" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="228"/>
+      <c r="A11" s="189"/>
       <c r="B11" s="15" t="s">
         <v>510</v>
       </c>
@@ -9080,12 +9081,12 @@
         <v>0</v>
       </c>
       <c r="AC11" s="111"/>
-      <c r="AD11" s="239"/>
+      <c r="AD11" s="179"/>
       <c r="AE11" s="117"/>
-      <c r="AF11" s="240"/>
+      <c r="AF11" s="165"/>
     </row>
     <row r="12" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="228"/>
+      <c r="A12" s="189"/>
       <c r="B12" s="15" t="s">
         <v>511</v>
       </c>
@@ -9120,7 +9121,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="220" t="str">
+      <c r="AC12" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D13&gt;D12," * Positive F01-06 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested  F01-05"&amp;CHAR(10),""),IF(E13&gt;E12," * Positive F01-06 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested  F01-05"&amp;CHAR(10),""),
@@ -9139,7 +9140,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD12" s="239"/>
+      <c r="AD12" s="179"/>
       <c r="AE12" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9147,10 +9148,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF12" s="240"/>
+      <c r="AF12" s="165"/>
     </row>
     <row r="13" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="228"/>
+      <c r="A13" s="189"/>
       <c r="B13" s="15" t="s">
         <v>512</v>
       </c>
@@ -9185,13 +9186,13 @@
         <f>SUM(D13:AA13)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="221"/>
-      <c r="AD13" s="239"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="179"/>
       <c r="AE13" s="117"/>
-      <c r="AF13" s="240"/>
+      <c r="AF13" s="165"/>
     </row>
     <row r="14" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="228"/>
+      <c r="A14" s="189"/>
       <c r="B14" s="15" t="s">
         <v>513</v>
       </c>
@@ -9227,12 +9228,12 @@
         <v>0</v>
       </c>
       <c r="AC14" s="111"/>
-      <c r="AD14" s="239"/>
+      <c r="AD14" s="179"/>
       <c r="AE14" s="117"/>
-      <c r="AF14" s="240"/>
+      <c r="AF14" s="165"/>
     </row>
     <row r="15" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="228"/>
+      <c r="A15" s="189"/>
       <c r="B15" s="15" t="s">
         <v>514</v>
       </c>
@@ -9268,12 +9269,12 @@
         <v>0</v>
       </c>
       <c r="AC15" s="111"/>
-      <c r="AD15" s="239"/>
+      <c r="AD15" s="179"/>
       <c r="AE15" s="117"/>
-      <c r="AF15" s="240"/>
+      <c r="AF15" s="165"/>
     </row>
     <row r="16" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="228"/>
+      <c r="A16" s="189"/>
       <c r="B16" s="15" t="s">
         <v>515</v>
       </c>
@@ -9309,12 +9310,12 @@
         <v>0</v>
       </c>
       <c r="AC16" s="111"/>
-      <c r="AD16" s="239"/>
+      <c r="AD16" s="179"/>
       <c r="AE16" s="117"/>
-      <c r="AF16" s="240"/>
+      <c r="AF16" s="165"/>
     </row>
     <row r="17" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="191" t="s">
+      <c r="A17" s="187" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -9351,7 +9352,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="220" t="str">
+      <c r="AC17" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D18&gt;D17," * Positive F01-11 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested  F01-10"&amp;CHAR(10),""),IF(E18&gt;E17," * Positive F01-11 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested  F01-10"&amp;CHAR(10),""),
@@ -9370,7 +9371,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD17" s="239"/>
+      <c r="AD17" s="179"/>
       <c r="AE17" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9378,10 +9379,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF17" s="240"/>
+      <c r="AF17" s="165"/>
     </row>
     <row r="18" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="191"/>
+      <c r="A18" s="187"/>
       <c r="B18" s="15" t="s">
         <v>517</v>
       </c>
@@ -9416,13 +9417,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="221"/>
-      <c r="AD18" s="239"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="179"/>
       <c r="AE18" s="117"/>
-      <c r="AF18" s="240"/>
+      <c r="AF18" s="165"/>
     </row>
     <row r="19" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="191" t="s">
+      <c r="A19" s="187" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -9459,7 +9460,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="220" t="str">
+      <c r="AC19" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D20&gt;D19," * Positive F01-13 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-12"&amp;CHAR(10),""),IF(E20&gt;E19," * Positive F01-13 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-12"&amp;CHAR(10),""),
@@ -9478,7 +9479,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD19" s="239"/>
+      <c r="AD19" s="179"/>
       <c r="AE19" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9486,10 +9487,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF19" s="240"/>
+      <c r="AF19" s="165"/>
     </row>
     <row r="20" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="191"/>
+      <c r="A20" s="187"/>
       <c r="B20" s="15" t="s">
         <v>519</v>
       </c>
@@ -9524,8 +9525,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="221"/>
-      <c r="AD20" s="239"/>
+      <c r="AC20" s="174"/>
+      <c r="AD20" s="179"/>
       <c r="AE20" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9540,10 +9541,10 @@
 "")</f>
         <v/>
       </c>
-      <c r="AF20" s="240"/>
+      <c r="AF20" s="165"/>
     </row>
     <row r="21" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A21" s="191" t="s">
+      <c r="A21" s="187" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -9580,7 +9581,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="220" t="str">
+      <c r="AC21" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D22&gt;D21," * Positive F01-15 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-14"&amp;CHAR(10),""),IF(E22&gt;E21," * Positive F01-15 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-14"&amp;CHAR(10),""),
@@ -9599,7 +9600,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD21" s="239"/>
+      <c r="AD21" s="179"/>
       <c r="AE21" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9607,10 +9608,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF21" s="240"/>
+      <c r="AF21" s="165"/>
     </row>
     <row r="22" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A22" s="191"/>
+      <c r="A22" s="187"/>
       <c r="B22" s="15" t="s">
         <v>519</v>
       </c>
@@ -9645,13 +9646,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="221"/>
-      <c r="AD22" s="239"/>
+      <c r="AC22" s="174"/>
+      <c r="AD22" s="179"/>
       <c r="AE22" s="117"/>
-      <c r="AF22" s="240"/>
+      <c r="AF22" s="165"/>
     </row>
     <row r="23" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A23" s="191" t="s">
+      <c r="A23" s="187" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -9688,7 +9689,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="220" t="str">
+      <c r="AC23" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D24&gt;D23," * Positive F01-17 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-16"&amp;CHAR(10),""),IF(E24&gt;E23," * Positive F01-17 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-16"&amp;CHAR(10),""),
@@ -9707,7 +9708,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD23" s="239"/>
+      <c r="AD23" s="179"/>
       <c r="AE23" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9715,10 +9716,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF23" s="240"/>
+      <c r="AF23" s="165"/>
     </row>
     <row r="24" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A24" s="191"/>
+      <c r="A24" s="187"/>
       <c r="B24" s="15" t="s">
         <v>519</v>
       </c>
@@ -9753,13 +9754,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="221"/>
-      <c r="AD24" s="239"/>
+      <c r="AC24" s="174"/>
+      <c r="AD24" s="179"/>
       <c r="AE24" s="117"/>
-      <c r="AF24" s="240"/>
+      <c r="AF24" s="165"/>
     </row>
     <row r="25" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A25" s="191" t="s">
+      <c r="A25" s="187" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -9796,7 +9797,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="220" t="str">
+      <c r="AC25" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D26&gt;D25," * Positive F01-19 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-18"&amp;CHAR(10),""),IF(E26&gt;E25," * Positive F01-19 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-18"&amp;CHAR(10),""),
@@ -9815,7 +9816,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD25" s="239"/>
+      <c r="AD25" s="179"/>
       <c r="AE25" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9823,10 +9824,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF25" s="240"/>
+      <c r="AF25" s="165"/>
     </row>
     <row r="26" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A26" s="191"/>
+      <c r="A26" s="187"/>
       <c r="B26" s="15" t="s">
         <v>519</v>
       </c>
@@ -9861,13 +9862,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="221"/>
-      <c r="AD26" s="239"/>
+      <c r="AC26" s="174"/>
+      <c r="AD26" s="179"/>
       <c r="AE26" s="117"/>
-      <c r="AF26" s="240"/>
+      <c r="AF26" s="165"/>
     </row>
     <row r="27" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A27" s="191" t="s">
+      <c r="A27" s="187" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -9904,7 +9905,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="220" t="str">
+      <c r="AC27" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D28&gt;D27," * Positive F01-21 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-20"&amp;CHAR(10),""),IF(E28&gt;E27," * Positive F01-21 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-20"&amp;CHAR(10),""),
@@ -9923,7 +9924,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD27" s="239"/>
+      <c r="AD27" s="179"/>
       <c r="AE27" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9931,10 +9932,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF27" s="240"/>
+      <c r="AF27" s="165"/>
     </row>
     <row r="28" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A28" s="191"/>
+      <c r="A28" s="187"/>
       <c r="B28" s="15" t="s">
         <v>519</v>
       </c>
@@ -9969,13 +9970,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="221"/>
-      <c r="AD28" s="239"/>
+      <c r="AC28" s="174"/>
+      <c r="AD28" s="179"/>
       <c r="AE28" s="117"/>
-      <c r="AF28" s="240"/>
+      <c r="AF28" s="165"/>
     </row>
     <row r="29" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A29" s="191" t="s">
+      <c r="A29" s="187" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -10012,7 +10013,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="220" t="str">
+      <c r="AC29" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D30&gt;D29," * Positive F01-23 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-22"&amp;CHAR(10),""),IF(E30&gt;E29," * Positive F01-23 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-22"&amp;CHAR(10),""),
@@ -10031,7 +10032,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD29" s="239"/>
+      <c r="AD29" s="179"/>
       <c r="AE29" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10039,10 +10040,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF29" s="240"/>
+      <c r="AF29" s="165"/>
     </row>
     <row r="30" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A30" s="191"/>
+      <c r="A30" s="187"/>
       <c r="B30" s="15" t="s">
         <v>519</v>
       </c>
@@ -10077,13 +10078,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="221"/>
-      <c r="AD30" s="239"/>
+      <c r="AC30" s="174"/>
+      <c r="AD30" s="179"/>
       <c r="AE30" s="117"/>
-      <c r="AF30" s="240"/>
+      <c r="AF30" s="165"/>
     </row>
     <row r="31" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A31" s="191" t="s">
+      <c r="A31" s="187" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -10120,7 +10121,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="220" t="str">
+      <c r="AC31" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D32&gt;D31," * Positive F01-25 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-24"&amp;CHAR(10),""),IF(E32&gt;E31," * Positive F01-25 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-24"&amp;CHAR(10),""),
@@ -10139,7 +10140,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD31" s="239"/>
+      <c r="AD31" s="179"/>
       <c r="AE31" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10147,10 +10148,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF31" s="240"/>
+      <c r="AF31" s="165"/>
     </row>
     <row r="32" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A32" s="191"/>
+      <c r="A32" s="187"/>
       <c r="B32" s="15" t="s">
         <v>519</v>
       </c>
@@ -10185,13 +10186,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="221"/>
-      <c r="AD32" s="239"/>
+      <c r="AC32" s="174"/>
+      <c r="AD32" s="179"/>
       <c r="AE32" s="117"/>
-      <c r="AF32" s="240"/>
+      <c r="AF32" s="165"/>
     </row>
     <row r="33" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A33" s="179" t="s">
+      <c r="A33" s="206" t="s">
         <v>133</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -10228,7 +10229,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="220" t="str">
+      <c r="AC33" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D34&gt;D33," * Positive F01-27 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-26"&amp;CHAR(10),""),IF(E34&gt;E33," * Positive F01-27 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-26"&amp;CHAR(10),""),
@@ -10247,7 +10248,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD33" s="239"/>
+      <c r="AD33" s="179"/>
       <c r="AE33" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10255,10 +10256,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF33" s="240"/>
+      <c r="AF33" s="165"/>
     </row>
     <row r="34" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A34" s="180"/>
+      <c r="A34" s="208"/>
       <c r="B34" s="15" t="s">
         <v>519</v>
       </c>
@@ -10293,13 +10294,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="221"/>
-      <c r="AD34" s="239"/>
+      <c r="AC34" s="174"/>
+      <c r="AD34" s="179"/>
       <c r="AE34" s="117"/>
-      <c r="AF34" s="240"/>
+      <c r="AF34" s="165"/>
     </row>
     <row r="35" spans="1:32" s="18" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A35" s="222" t="s">
+      <c r="A35" s="204" t="s">
         <v>157</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -10408,7 +10409,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="220" t="str">
+      <c r="AC35" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D36&gt;D35," * Totals HTS Positive F01-29 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Total Tested F01-28"&amp;CHAR(10),""),IF(E36&gt;E35," * Totals HTS Positive F01-29 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Total Tested F01-28"&amp;CHAR(10),""),
@@ -10427,7 +10428,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD35" s="239"/>
+      <c r="AD35" s="179"/>
       <c r="AE35" s="118" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10435,10 +10436,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF35" s="240"/>
+      <c r="AF35" s="165"/>
     </row>
     <row r="36" spans="1:32" s="18" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A36" s="223"/>
+      <c r="A36" s="205"/>
       <c r="B36" s="107" t="s">
         <v>522</v>
       </c>
@@ -10545,8 +10546,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC36" s="238"/>
-      <c r="AD36" s="239"/>
+      <c r="AC36" s="175"/>
+      <c r="AD36" s="179"/>
       <c r="AE36" s="118" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10554,122 +10555,122 @@
 )</f>
         <v/>
       </c>
-      <c r="AF36" s="240"/>
+      <c r="AF36" s="165"/>
     </row>
     <row r="37" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A37" s="244" t="s">
+      <c r="A37" s="170" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="244"/>
-      <c r="C37" s="244"/>
-      <c r="D37" s="244"/>
-      <c r="E37" s="244"/>
-      <c r="F37" s="244"/>
-      <c r="G37" s="244"/>
-      <c r="H37" s="244"/>
-      <c r="I37" s="244"/>
-      <c r="J37" s="244"/>
-      <c r="K37" s="244"/>
-      <c r="L37" s="244"/>
-      <c r="M37" s="244"/>
-      <c r="N37" s="244"/>
-      <c r="O37" s="244"/>
-      <c r="P37" s="244"/>
-      <c r="Q37" s="244"/>
-      <c r="R37" s="244"/>
-      <c r="S37" s="244"/>
-      <c r="T37" s="244"/>
-      <c r="U37" s="244"/>
-      <c r="V37" s="244"/>
-      <c r="W37" s="244"/>
-      <c r="X37" s="244"/>
-      <c r="Y37" s="244"/>
-      <c r="Z37" s="244"/>
-      <c r="AA37" s="244"/>
-      <c r="AB37" s="244"/>
-      <c r="AC37" s="244"/>
-      <c r="AD37" s="244"/>
-      <c r="AE37" s="244"/>
-      <c r="AF37" s="244"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="170"/>
+      <c r="L37" s="170"/>
+      <c r="M37" s="170"/>
+      <c r="N37" s="170"/>
+      <c r="O37" s="170"/>
+      <c r="P37" s="170"/>
+      <c r="Q37" s="170"/>
+      <c r="R37" s="170"/>
+      <c r="S37" s="170"/>
+      <c r="T37" s="170"/>
+      <c r="U37" s="170"/>
+      <c r="V37" s="170"/>
+      <c r="W37" s="170"/>
+      <c r="X37" s="170"/>
+      <c r="Y37" s="170"/>
+      <c r="Z37" s="170"/>
+      <c r="AA37" s="170"/>
+      <c r="AB37" s="170"/>
+      <c r="AC37" s="170"/>
+      <c r="AD37" s="170"/>
+      <c r="AE37" s="170"/>
+      <c r="AF37" s="170"/>
     </row>
     <row r="38" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A38" s="187" t="s">
+      <c r="A38" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="187" t="s">
+      <c r="B38" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C38" s="185" t="s">
+      <c r="C38" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D38" s="211"/>
-      <c r="E38" s="212"/>
-      <c r="F38" s="212"/>
-      <c r="G38" s="212"/>
-      <c r="H38" s="212"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="184" t="s">
+      <c r="D38" s="212"/>
+      <c r="E38" s="213"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="171"/>
-      <c r="L38" s="170" t="s">
+      <c r="K38" s="183"/>
+      <c r="L38" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="171"/>
-      <c r="N38" s="170" t="s">
+      <c r="M38" s="183"/>
+      <c r="N38" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O38" s="171"/>
-      <c r="P38" s="170" t="s">
+      <c r="O38" s="183"/>
+      <c r="P38" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q38" s="171"/>
-      <c r="R38" s="170" t="s">
+      <c r="Q38" s="183"/>
+      <c r="R38" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S38" s="171"/>
-      <c r="T38" s="170" t="s">
+      <c r="S38" s="183"/>
+      <c r="T38" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U38" s="171"/>
-      <c r="V38" s="170" t="s">
+      <c r="U38" s="183"/>
+      <c r="V38" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W38" s="171"/>
-      <c r="X38" s="170" t="s">
+      <c r="W38" s="183"/>
+      <c r="X38" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y38" s="171"/>
-      <c r="Z38" s="170" t="s">
+      <c r="Y38" s="183"/>
+      <c r="Z38" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA38" s="171"/>
-      <c r="AB38" s="172" t="s">
+      <c r="AA38" s="183"/>
+      <c r="AB38" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC38" s="174" t="s">
+      <c r="AC38" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD38" s="174" t="s">
+      <c r="AD38" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE38" s="169" t="s">
+      <c r="AE38" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF38" s="169" t="s">
+      <c r="AF38" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A39" s="188"/>
-      <c r="B39" s="188"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="214"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="215"/>
-      <c r="I39" s="216"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="201"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="215"/>
+      <c r="E39" s="216"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="216"/>
+      <c r="H39" s="216"/>
+      <c r="I39" s="217"/>
       <c r="J39" s="74" t="s">
         <v>14</v>
       </c>
@@ -10724,14 +10725,14 @@
       <c r="AA39" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB39" s="173"/>
-      <c r="AC39" s="174"/>
-      <c r="AD39" s="174"/>
-      <c r="AE39" s="169"/>
-      <c r="AF39" s="169"/>
+      <c r="AB39" s="203"/>
+      <c r="AC39" s="176"/>
+      <c r="AD39" s="176"/>
+      <c r="AE39" s="166"/>
+      <c r="AF39" s="166"/>
     </row>
     <row r="40" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A40" s="191" t="s">
+      <c r="A40" s="187" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -10769,18 +10770,18 @@
         <v>0</v>
       </c>
       <c r="AC40" s="112"/>
-      <c r="AD40" s="176" t="str">
+      <c r="AD40" s="228" t="str">
         <f>CONCATENATE(AC40,AC41,AC42,AC43,AC44)</f>
         <v/>
       </c>
       <c r="AE40" s="117"/>
-      <c r="AF40" s="235" t="str">
+      <c r="AF40" s="164" t="str">
         <f>CONCATENATE(AE40,AE41,AE42,AE43,AE44)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A41" s="191"/>
+      <c r="A41" s="187"/>
       <c r="B41" s="15" t="s">
         <v>222</v>
       </c>
@@ -10816,12 +10817,12 @@
         <v>0</v>
       </c>
       <c r="AC41" s="112"/>
-      <c r="AD41" s="192"/>
+      <c r="AD41" s="229"/>
       <c r="AE41" s="117"/>
-      <c r="AF41" s="235"/>
+      <c r="AF41" s="164"/>
     </row>
     <row r="42" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A42" s="191"/>
+      <c r="A42" s="187"/>
       <c r="B42" s="15" t="s">
         <v>524</v>
       </c>
@@ -10857,12 +10858,12 @@
         <v>0</v>
       </c>
       <c r="AC42" s="112"/>
-      <c r="AD42" s="192"/>
+      <c r="AD42" s="229"/>
       <c r="AE42" s="117"/>
-      <c r="AF42" s="235"/>
+      <c r="AF42" s="164"/>
     </row>
     <row r="43" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A43" s="191"/>
+      <c r="A43" s="187"/>
       <c r="B43" s="15" t="s">
         <v>525</v>
       </c>
@@ -10898,12 +10899,12 @@
         <v>0</v>
       </c>
       <c r="AC43" s="112"/>
-      <c r="AD43" s="192"/>
+      <c r="AD43" s="229"/>
       <c r="AE43" s="117"/>
-      <c r="AF43" s="235"/>
+      <c r="AF43" s="164"/>
     </row>
     <row r="44" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A44" s="179"/>
+      <c r="A44" s="206"/>
       <c r="B44" s="99" t="s">
         <v>526</v>
       </c>
@@ -10939,54 +10940,54 @@
         <v>0</v>
       </c>
       <c r="AC44" s="113"/>
-      <c r="AD44" s="192"/>
+      <c r="AD44" s="229"/>
       <c r="AE44" s="119"/>
-      <c r="AF44" s="235"/>
+      <c r="AF44" s="164"/>
     </row>
     <row r="45" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A45" s="244" t="s">
+      <c r="A45" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="244"/>
-      <c r="C45" s="244"/>
-      <c r="D45" s="244"/>
-      <c r="E45" s="244"/>
-      <c r="F45" s="244"/>
-      <c r="G45" s="244"/>
-      <c r="H45" s="244"/>
-      <c r="I45" s="244"/>
-      <c r="J45" s="244"/>
-      <c r="K45" s="244"/>
-      <c r="L45" s="244"/>
-      <c r="M45" s="244"/>
-      <c r="N45" s="244"/>
-      <c r="O45" s="244"/>
-      <c r="P45" s="244"/>
-      <c r="Q45" s="244"/>
-      <c r="R45" s="244"/>
-      <c r="S45" s="244"/>
-      <c r="T45" s="244"/>
-      <c r="U45" s="244"/>
-      <c r="V45" s="244"/>
-      <c r="W45" s="244"/>
-      <c r="X45" s="244"/>
-      <c r="Y45" s="244"/>
-      <c r="Z45" s="244"/>
-      <c r="AA45" s="244"/>
-      <c r="AB45" s="244"/>
-      <c r="AC45" s="244"/>
-      <c r="AD45" s="244"/>
-      <c r="AE45" s="244"/>
-      <c r="AF45" s="244"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="170"/>
+      <c r="K45" s="170"/>
+      <c r="L45" s="170"/>
+      <c r="M45" s="170"/>
+      <c r="N45" s="170"/>
+      <c r="O45" s="170"/>
+      <c r="P45" s="170"/>
+      <c r="Q45" s="170"/>
+      <c r="R45" s="170"/>
+      <c r="S45" s="170"/>
+      <c r="T45" s="170"/>
+      <c r="U45" s="170"/>
+      <c r="V45" s="170"/>
+      <c r="W45" s="170"/>
+      <c r="X45" s="170"/>
+      <c r="Y45" s="170"/>
+      <c r="Z45" s="170"/>
+      <c r="AA45" s="170"/>
+      <c r="AB45" s="170"/>
+      <c r="AC45" s="170"/>
+      <c r="AD45" s="170"/>
+      <c r="AE45" s="170"/>
+      <c r="AF45" s="170"/>
     </row>
     <row r="46" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A46" s="187" t="s">
+      <c r="A46" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="187" t="s">
+      <c r="B46" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C46" s="185" t="s">
+      <c r="C46" s="190" t="s">
         <v>508</v>
       </c>
       <c r="D46" s="78"/>
@@ -10995,62 +10996,62 @@
       <c r="G46" s="79"/>
       <c r="H46" s="79"/>
       <c r="I46" s="80"/>
-      <c r="J46" s="170" t="s">
+      <c r="J46" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="171"/>
-      <c r="L46" s="170" t="s">
+      <c r="K46" s="183"/>
+      <c r="L46" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="171"/>
-      <c r="N46" s="170" t="s">
+      <c r="M46" s="183"/>
+      <c r="N46" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O46" s="171"/>
-      <c r="P46" s="170" t="s">
+      <c r="O46" s="183"/>
+      <c r="P46" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q46" s="171"/>
-      <c r="R46" s="170" t="s">
+      <c r="Q46" s="183"/>
+      <c r="R46" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S46" s="171"/>
-      <c r="T46" s="170" t="s">
+      <c r="S46" s="183"/>
+      <c r="T46" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U46" s="171"/>
-      <c r="V46" s="170" t="s">
+      <c r="U46" s="183"/>
+      <c r="V46" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W46" s="171"/>
-      <c r="X46" s="170" t="s">
+      <c r="W46" s="183"/>
+      <c r="X46" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y46" s="171"/>
-      <c r="Z46" s="170" t="s">
+      <c r="Y46" s="183"/>
+      <c r="Z46" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA46" s="171"/>
-      <c r="AB46" s="172" t="s">
+      <c r="AA46" s="183"/>
+      <c r="AB46" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC46" s="174" t="s">
+      <c r="AC46" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD46" s="174" t="s">
+      <c r="AD46" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE46" s="169" t="s">
+      <c r="AE46" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF46" s="169" t="s">
+      <c r="AF46" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="47" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A47" s="188"/>
-      <c r="B47" s="188"/>
-      <c r="C47" s="186"/>
+      <c r="A47" s="201"/>
+      <c r="B47" s="201"/>
+      <c r="C47" s="191"/>
       <c r="D47" s="78"/>
       <c r="E47" s="79"/>
       <c r="F47" s="79"/>
@@ -11111,14 +11112,14 @@
       <c r="AA47" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB47" s="173"/>
-      <c r="AC47" s="174"/>
-      <c r="AD47" s="174"/>
-      <c r="AE47" s="169"/>
-      <c r="AF47" s="169"/>
+      <c r="AB47" s="203"/>
+      <c r="AC47" s="176"/>
+      <c r="AD47" s="176"/>
+      <c r="AE47" s="166"/>
+      <c r="AF47" s="166"/>
     </row>
     <row r="48" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A48" s="181" t="s">
+      <c r="A48" s="230" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -11155,7 +11156,7 @@
         <f>SUM(D48:AA48)</f>
         <v>0</v>
       </c>
-      <c r="AC48" s="236" t="str">
+      <c r="AC48" s="171" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D49&gt;D48," * Eligible for PrEP  for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Assessed for HIV risk"&amp;CHAR(10),""),IF(E49&gt;E48," * Eligible for PrEP  for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Assessed for HIV risk"&amp;CHAR(10),""),
@@ -11174,18 +11175,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD48" s="177" t="str">
+      <c r="AD48" s="243" t="str">
         <f>CONCATENATE(AC48,AC50,AC51,AC52,AC53,AC55,AC56,AC57,AC58,AC59,AC60,AC61,AC62,AC63,AC64)</f>
         <v/>
       </c>
       <c r="AE48" s="117"/>
-      <c r="AF48" s="235" t="str">
+      <c r="AF48" s="164" t="str">
         <f>CONCATENATE(AE48,AE49,AE50,AE51,AE52,AE53,AE54,AE55,AE56,AE57,AE58,AE59,AE60,AE61,AE62,AE63,AE64)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A49" s="182"/>
+      <c r="A49" s="231"/>
       <c r="B49" s="15" t="s">
         <v>633</v>
       </c>
@@ -11220,13 +11221,13 @@
         <f t="shared" ref="AB49:AB62" si="5">SUM(D49:AA49)</f>
         <v>0</v>
       </c>
-      <c r="AC49" s="237"/>
-      <c r="AD49" s="178"/>
+      <c r="AC49" s="172"/>
+      <c r="AD49" s="244"/>
       <c r="AE49" s="117"/>
-      <c r="AF49" s="235"/>
+      <c r="AF49" s="164"/>
     </row>
     <row r="50" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A50" s="182"/>
+      <c r="A50" s="231"/>
       <c r="B50" s="15" t="s">
         <v>528</v>
       </c>
@@ -11280,7 +11281,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD50" s="178"/>
+      <c r="AD50" s="244"/>
       <c r="AE50" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -11288,10 +11289,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF50" s="235"/>
+      <c r="AF50" s="164"/>
     </row>
     <row r="51" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A51" s="182"/>
+      <c r="A51" s="231"/>
       <c r="B51" s="15" t="s">
         <v>237</v>
       </c>
@@ -11327,12 +11328,12 @@
         <v>0</v>
       </c>
       <c r="AC51" s="112"/>
-      <c r="AD51" s="178"/>
+      <c r="AD51" s="244"/>
       <c r="AE51" s="117"/>
-      <c r="AF51" s="235"/>
+      <c r="AF51" s="164"/>
     </row>
     <row r="52" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A52" s="182"/>
+      <c r="A52" s="231"/>
       <c r="B52" s="15" t="s">
         <v>529</v>
       </c>
@@ -11368,12 +11369,12 @@
         <v>0</v>
       </c>
       <c r="AC52" s="112"/>
-      <c r="AD52" s="178"/>
+      <c r="AD52" s="244"/>
       <c r="AE52" s="117"/>
-      <c r="AF52" s="235"/>
+      <c r="AF52" s="164"/>
     </row>
     <row r="53" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A53" s="191" t="s">
+      <c r="A53" s="187" t="s">
         <v>37</v>
       </c>
       <c r="B53" s="15" t="s">
@@ -11410,7 +11411,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="201" t="str">
+      <c r="AC53" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D54&gt;D53," * F02-07 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F02-06"&amp;CHAR(10),""),IF(E54&gt;E53," * F02-07 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F02-06"&amp;CHAR(10),""),
@@ -11429,12 +11430,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD53" s="178"/>
+      <c r="AD53" s="244"/>
       <c r="AE53" s="117"/>
-      <c r="AF53" s="235"/>
+      <c r="AF53" s="164"/>
     </row>
     <row r="54" spans="1:32" s="10" customFormat="1" ht="83.85" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A54" s="191"/>
+      <c r="A54" s="187"/>
       <c r="B54" s="15" t="s">
         <v>530</v>
       </c>
@@ -11469,13 +11470,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="202"/>
-      <c r="AD54" s="178"/>
+      <c r="AC54" s="178"/>
+      <c r="AD54" s="244"/>
       <c r="AE54" s="117"/>
-      <c r="AF54" s="235"/>
+      <c r="AF54" s="164"/>
     </row>
     <row r="55" spans="1:32" s="10" customFormat="1" ht="83.85" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A55" s="191"/>
+      <c r="A55" s="187"/>
       <c r="B55" s="15" t="s">
         <v>531</v>
       </c>
@@ -11511,12 +11512,12 @@
         <v>0</v>
       </c>
       <c r="AC55" s="112"/>
-      <c r="AD55" s="178"/>
+      <c r="AD55" s="244"/>
       <c r="AE55" s="117"/>
-      <c r="AF55" s="235"/>
+      <c r="AF55" s="164"/>
     </row>
     <row r="56" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A56" s="179" t="s">
+      <c r="A56" s="206" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -11554,12 +11555,12 @@
         <v>0</v>
       </c>
       <c r="AC56" s="112"/>
-      <c r="AD56" s="178"/>
+      <c r="AD56" s="244"/>
       <c r="AE56" s="117"/>
-      <c r="AF56" s="235"/>
+      <c r="AF56" s="164"/>
     </row>
     <row r="57" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A57" s="198"/>
+      <c r="A57" s="207"/>
       <c r="B57" s="15" t="s">
         <v>533</v>
       </c>
@@ -11595,12 +11596,12 @@
         <v>0</v>
       </c>
       <c r="AC57" s="112"/>
-      <c r="AD57" s="178"/>
+      <c r="AD57" s="244"/>
       <c r="AE57" s="117"/>
-      <c r="AF57" s="235"/>
+      <c r="AF57" s="164"/>
     </row>
     <row r="58" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A58" s="198"/>
+      <c r="A58" s="207"/>
       <c r="B58" s="15" t="s">
         <v>248</v>
       </c>
@@ -11636,12 +11637,12 @@
         <v>0</v>
       </c>
       <c r="AC58" s="112"/>
-      <c r="AD58" s="178"/>
+      <c r="AD58" s="244"/>
       <c r="AE58" s="117"/>
-      <c r="AF58" s="235"/>
+      <c r="AF58" s="164"/>
     </row>
     <row r="59" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A59" s="198"/>
+      <c r="A59" s="207"/>
       <c r="B59" s="15" t="s">
         <v>534</v>
       </c>
@@ -11677,12 +11678,12 @@
         <v>0</v>
       </c>
       <c r="AC59" s="112"/>
-      <c r="AD59" s="178"/>
+      <c r="AD59" s="244"/>
       <c r="AE59" s="117"/>
-      <c r="AF59" s="235"/>
+      <c r="AF59" s="164"/>
     </row>
     <row r="60" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A60" s="198"/>
+      <c r="A60" s="207"/>
       <c r="B60" s="15" t="s">
         <v>535</v>
       </c>
@@ -11718,12 +11719,12 @@
         <v>0</v>
       </c>
       <c r="AC60" s="112"/>
-      <c r="AD60" s="178"/>
+      <c r="AD60" s="244"/>
       <c r="AE60" s="117"/>
-      <c r="AF60" s="235"/>
+      <c r="AF60" s="164"/>
     </row>
     <row r="61" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A61" s="198"/>
+      <c r="A61" s="207"/>
       <c r="B61" s="15" t="s">
         <v>536</v>
       </c>
@@ -11759,12 +11760,12 @@
         <v>0</v>
       </c>
       <c r="AC61" s="112"/>
-      <c r="AD61" s="178"/>
+      <c r="AD61" s="244"/>
       <c r="AE61" s="117"/>
-      <c r="AF61" s="235"/>
+      <c r="AF61" s="164"/>
     </row>
     <row r="62" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A62" s="180"/>
+      <c r="A62" s="208"/>
       <c r="B62" s="15" t="s">
         <v>537</v>
       </c>
@@ -11800,12 +11801,12 @@
         <v>0</v>
       </c>
       <c r="AC62" s="112"/>
-      <c r="AD62" s="178"/>
+      <c r="AD62" s="244"/>
       <c r="AE62" s="117"/>
-      <c r="AF62" s="235"/>
+      <c r="AF62" s="164"/>
     </row>
     <row r="63" spans="1:32" s="10" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A63" s="179" t="s">
+      <c r="A63" s="206" t="s">
         <v>134</v>
       </c>
       <c r="B63" s="93" t="s">
@@ -11840,12 +11841,12 @@
       <c r="AA63" s="87"/>
       <c r="AB63" s="125"/>
       <c r="AC63" s="112"/>
-      <c r="AD63" s="178"/>
+      <c r="AD63" s="244"/>
       <c r="AE63" s="117"/>
-      <c r="AF63" s="235"/>
+      <c r="AF63" s="164"/>
     </row>
     <row r="64" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A64" s="198"/>
+      <c r="A64" s="207"/>
       <c r="B64" s="104" t="s">
         <v>539</v>
       </c>
@@ -11878,124 +11879,124 @@
       <c r="AA64" s="101"/>
       <c r="AB64" s="126"/>
       <c r="AC64" s="113"/>
-      <c r="AD64" s="178"/>
+      <c r="AD64" s="244"/>
       <c r="AE64" s="119"/>
-      <c r="AF64" s="235"/>
+      <c r="AF64" s="164"/>
     </row>
     <row r="65" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A65" s="244" t="s">
+      <c r="A65" s="170" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="244"/>
-      <c r="C65" s="244"/>
-      <c r="D65" s="244"/>
-      <c r="E65" s="244"/>
-      <c r="F65" s="244"/>
-      <c r="G65" s="244"/>
-      <c r="H65" s="244"/>
-      <c r="I65" s="244"/>
-      <c r="J65" s="244"/>
-      <c r="K65" s="244"/>
-      <c r="L65" s="244"/>
-      <c r="M65" s="244"/>
-      <c r="N65" s="244"/>
-      <c r="O65" s="244"/>
-      <c r="P65" s="244"/>
-      <c r="Q65" s="244"/>
-      <c r="R65" s="244"/>
-      <c r="S65" s="244"/>
-      <c r="T65" s="244"/>
-      <c r="U65" s="244"/>
-      <c r="V65" s="244"/>
-      <c r="W65" s="244"/>
-      <c r="X65" s="244"/>
-      <c r="Y65" s="244"/>
-      <c r="Z65" s="244"/>
-      <c r="AA65" s="244"/>
-      <c r="AB65" s="244"/>
-      <c r="AC65" s="244"/>
-      <c r="AD65" s="244"/>
-      <c r="AE65" s="244"/>
-      <c r="AF65" s="244"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="170"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="170"/>
+      <c r="F65" s="170"/>
+      <c r="G65" s="170"/>
+      <c r="H65" s="170"/>
+      <c r="I65" s="170"/>
+      <c r="J65" s="170"/>
+      <c r="K65" s="170"/>
+      <c r="L65" s="170"/>
+      <c r="M65" s="170"/>
+      <c r="N65" s="170"/>
+      <c r="O65" s="170"/>
+      <c r="P65" s="170"/>
+      <c r="Q65" s="170"/>
+      <c r="R65" s="170"/>
+      <c r="S65" s="170"/>
+      <c r="T65" s="170"/>
+      <c r="U65" s="170"/>
+      <c r="V65" s="170"/>
+      <c r="W65" s="170"/>
+      <c r="X65" s="170"/>
+      <c r="Y65" s="170"/>
+      <c r="Z65" s="170"/>
+      <c r="AA65" s="170"/>
+      <c r="AB65" s="170"/>
+      <c r="AC65" s="170"/>
+      <c r="AD65" s="170"/>
+      <c r="AE65" s="170"/>
+      <c r="AF65" s="170"/>
     </row>
     <row r="66" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A66" s="187" t="s">
+      <c r="A66" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="187" t="s">
+      <c r="B66" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C66" s="185" t="s">
+      <c r="C66" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D66" s="184" t="s">
+      <c r="D66" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="171"/>
-      <c r="F66" s="170" t="s">
+      <c r="E66" s="183"/>
+      <c r="F66" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="171"/>
-      <c r="H66" s="170" t="s">
+      <c r="G66" s="183"/>
+      <c r="H66" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I66" s="171"/>
-      <c r="J66" s="170" t="s">
+      <c r="I66" s="183"/>
+      <c r="J66" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="171"/>
-      <c r="L66" s="170" t="s">
+      <c r="K66" s="183"/>
+      <c r="L66" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="171"/>
-      <c r="N66" s="170" t="s">
+      <c r="M66" s="183"/>
+      <c r="N66" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O66" s="171"/>
-      <c r="P66" s="170" t="s">
+      <c r="O66" s="183"/>
+      <c r="P66" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q66" s="171"/>
-      <c r="R66" s="170" t="s">
+      <c r="Q66" s="183"/>
+      <c r="R66" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S66" s="171"/>
-      <c r="T66" s="170" t="s">
+      <c r="S66" s="183"/>
+      <c r="T66" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U66" s="171"/>
-      <c r="V66" s="170" t="s">
+      <c r="U66" s="183"/>
+      <c r="V66" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W66" s="171"/>
-      <c r="X66" s="170" t="s">
+      <c r="W66" s="183"/>
+      <c r="X66" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y66" s="171"/>
-      <c r="Z66" s="170" t="s">
+      <c r="Y66" s="183"/>
+      <c r="Z66" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA66" s="171"/>
-      <c r="AB66" s="172" t="s">
+      <c r="AA66" s="183"/>
+      <c r="AB66" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC66" s="174" t="s">
+      <c r="AC66" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD66" s="174" t="s">
+      <c r="AD66" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE66" s="169" t="s">
+      <c r="AE66" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF66" s="169" t="s">
+      <c r="AF66" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A67" s="188"/>
-      <c r="B67" s="188"/>
-      <c r="C67" s="186"/>
+      <c r="A67" s="201"/>
+      <c r="B67" s="201"/>
+      <c r="C67" s="191"/>
       <c r="D67" s="73" t="s">
         <v>14</v>
       </c>
@@ -12068,14 +12069,14 @@
       <c r="AA67" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB67" s="173"/>
-      <c r="AC67" s="174"/>
-      <c r="AD67" s="174"/>
-      <c r="AE67" s="169"/>
-      <c r="AF67" s="169"/>
+      <c r="AB67" s="203"/>
+      <c r="AC67" s="176"/>
+      <c r="AD67" s="176"/>
+      <c r="AE67" s="166"/>
+      <c r="AF67" s="166"/>
     </row>
     <row r="68" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A68" s="179" t="s">
+      <c r="A68" s="206" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -12131,18 +12132,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD68" s="175" t="str">
+      <c r="AD68" s="235" t="str">
         <f>CONCATENATE(AC68,AC69,AC70,AC71,AC72,AC73,AC74,AC75,AC76,AC77,AC78,AC79)</f>
         <v/>
       </c>
       <c r="AE68" s="117"/>
-      <c r="AF68" s="235" t="str">
+      <c r="AF68" s="164" t="str">
         <f>CONCATENATE(AE68,AE69,AE70,AE71,AE72,AE73,AE74,AE75,AE76,AE77,AE78,AE79)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A69" s="198"/>
+      <c r="A69" s="207"/>
       <c r="B69" s="15" t="s">
         <v>541</v>
       </c>
@@ -12196,12 +12197,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD69" s="175"/>
+      <c r="AD69" s="235"/>
       <c r="AE69" s="117"/>
-      <c r="AF69" s="235"/>
+      <c r="AF69" s="164"/>
     </row>
     <row r="70" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A70" s="179" t="s">
+      <c r="A70" s="206" t="s">
         <v>32</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -12257,12 +12258,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD70" s="175"/>
+      <c r="AD70" s="235"/>
       <c r="AE70" s="117"/>
-      <c r="AF70" s="235"/>
+      <c r="AF70" s="164"/>
     </row>
     <row r="71" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A71" s="198"/>
+      <c r="A71" s="207"/>
       <c r="B71" s="15" t="s">
         <v>541</v>
       </c>
@@ -12316,12 +12317,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD71" s="175"/>
+      <c r="AD71" s="235"/>
       <c r="AE71" s="117"/>
-      <c r="AF71" s="235"/>
+      <c r="AF71" s="164"/>
     </row>
     <row r="72" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A72" s="207" t="s">
+      <c r="A72" s="221" t="s">
         <v>38</v>
       </c>
       <c r="B72" s="20" t="s">
@@ -12359,12 +12360,12 @@
         <v>0</v>
       </c>
       <c r="AC72" s="112"/>
-      <c r="AD72" s="175"/>
+      <c r="AD72" s="235"/>
       <c r="AE72" s="117"/>
-      <c r="AF72" s="235"/>
+      <c r="AF72" s="164"/>
     </row>
     <row r="73" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A73" s="207"/>
+      <c r="A73" s="221"/>
       <c r="B73" s="20" t="s">
         <v>544</v>
       </c>
@@ -12400,12 +12401,12 @@
         <v>0</v>
       </c>
       <c r="AC73" s="112"/>
-      <c r="AD73" s="175"/>
+      <c r="AD73" s="235"/>
       <c r="AE73" s="117"/>
-      <c r="AF73" s="235"/>
+      <c r="AF73" s="164"/>
     </row>
     <row r="74" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A74" s="207" t="s">
+      <c r="A74" s="221" t="s">
         <v>39</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -12443,12 +12444,12 @@
         <v>0</v>
       </c>
       <c r="AC74" s="112"/>
-      <c r="AD74" s="175"/>
+      <c r="AD74" s="235"/>
       <c r="AE74" s="117"/>
-      <c r="AF74" s="235"/>
+      <c r="AF74" s="164"/>
     </row>
     <row r="75" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A75" s="207"/>
+      <c r="A75" s="221"/>
       <c r="B75" s="20" t="s">
         <v>545</v>
       </c>
@@ -12484,12 +12485,12 @@
         <v>0</v>
       </c>
       <c r="AC75" s="112"/>
-      <c r="AD75" s="175"/>
+      <c r="AD75" s="235"/>
       <c r="AE75" s="117"/>
-      <c r="AF75" s="235"/>
+      <c r="AF75" s="164"/>
     </row>
     <row r="76" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A76" s="207" t="s">
+      <c r="A76" s="221" t="s">
         <v>40</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -12527,12 +12528,12 @@
         <v>0</v>
       </c>
       <c r="AC76" s="112"/>
-      <c r="AD76" s="175"/>
+      <c r="AD76" s="235"/>
       <c r="AE76" s="117"/>
-      <c r="AF76" s="235"/>
+      <c r="AF76" s="164"/>
     </row>
     <row r="77" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A77" s="207"/>
+      <c r="A77" s="221"/>
       <c r="B77" s="20" t="s">
         <v>546</v>
       </c>
@@ -12568,12 +12569,12 @@
         <v>0</v>
       </c>
       <c r="AC77" s="112"/>
-      <c r="AD77" s="175"/>
+      <c r="AD77" s="235"/>
       <c r="AE77" s="117"/>
-      <c r="AF77" s="235"/>
+      <c r="AF77" s="164"/>
     </row>
     <row r="78" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A78" s="207" t="s">
+      <c r="A78" s="221" t="s">
         <v>41</v>
       </c>
       <c r="B78" s="20" t="s">
@@ -12611,12 +12612,12 @@
         <v>0</v>
       </c>
       <c r="AC78" s="112"/>
-      <c r="AD78" s="175"/>
+      <c r="AD78" s="235"/>
       <c r="AE78" s="117"/>
-      <c r="AF78" s="235"/>
+      <c r="AF78" s="164"/>
     </row>
     <row r="79" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A79" s="208"/>
+      <c r="A79" s="222"/>
       <c r="B79" s="102" t="s">
         <v>547</v>
       </c>
@@ -12652,54 +12653,54 @@
         <v>0</v>
       </c>
       <c r="AC79" s="113"/>
-      <c r="AD79" s="176"/>
+      <c r="AD79" s="228"/>
       <c r="AE79" s="119"/>
-      <c r="AF79" s="235"/>
+      <c r="AF79" s="164"/>
     </row>
     <row r="80" spans="1:32" s="8" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A80" s="244" t="s">
+      <c r="A80" s="170" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="244"/>
-      <c r="C80" s="244"/>
-      <c r="D80" s="244"/>
-      <c r="E80" s="244"/>
-      <c r="F80" s="244"/>
-      <c r="G80" s="244"/>
-      <c r="H80" s="244"/>
-      <c r="I80" s="244"/>
-      <c r="J80" s="244"/>
-      <c r="K80" s="244"/>
-      <c r="L80" s="244"/>
-      <c r="M80" s="244"/>
-      <c r="N80" s="244"/>
-      <c r="O80" s="244"/>
-      <c r="P80" s="244"/>
-      <c r="Q80" s="244"/>
-      <c r="R80" s="244"/>
-      <c r="S80" s="244"/>
-      <c r="T80" s="244"/>
-      <c r="U80" s="244"/>
-      <c r="V80" s="244"/>
-      <c r="W80" s="244"/>
-      <c r="X80" s="244"/>
-      <c r="Y80" s="244"/>
-      <c r="Z80" s="244"/>
-      <c r="AA80" s="244"/>
-      <c r="AB80" s="244"/>
-      <c r="AC80" s="244"/>
-      <c r="AD80" s="244"/>
-      <c r="AE80" s="244"/>
-      <c r="AF80" s="244"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="170"/>
+      <c r="F80" s="170"/>
+      <c r="G80" s="170"/>
+      <c r="H80" s="170"/>
+      <c r="I80" s="170"/>
+      <c r="J80" s="170"/>
+      <c r="K80" s="170"/>
+      <c r="L80" s="170"/>
+      <c r="M80" s="170"/>
+      <c r="N80" s="170"/>
+      <c r="O80" s="170"/>
+      <c r="P80" s="170"/>
+      <c r="Q80" s="170"/>
+      <c r="R80" s="170"/>
+      <c r="S80" s="170"/>
+      <c r="T80" s="170"/>
+      <c r="U80" s="170"/>
+      <c r="V80" s="170"/>
+      <c r="W80" s="170"/>
+      <c r="X80" s="170"/>
+      <c r="Y80" s="170"/>
+      <c r="Z80" s="170"/>
+      <c r="AA80" s="170"/>
+      <c r="AB80" s="170"/>
+      <c r="AC80" s="170"/>
+      <c r="AD80" s="170"/>
+      <c r="AE80" s="170"/>
+      <c r="AF80" s="170"/>
     </row>
     <row r="81" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A81" s="187" t="s">
+      <c r="A81" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B81" s="187" t="s">
+      <c r="B81" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C81" s="185" t="s">
+      <c r="C81" s="190" t="s">
         <v>508</v>
       </c>
       <c r="D81" s="78"/>
@@ -12710,58 +12711,58 @@
       <c r="I81" s="79"/>
       <c r="J81" s="79"/>
       <c r="K81" s="80"/>
-      <c r="L81" s="184" t="s">
+      <c r="L81" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="M81" s="171"/>
-      <c r="N81" s="170" t="s">
+      <c r="M81" s="183"/>
+      <c r="N81" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O81" s="171"/>
-      <c r="P81" s="170" t="s">
+      <c r="O81" s="183"/>
+      <c r="P81" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q81" s="171"/>
-      <c r="R81" s="170" t="s">
+      <c r="Q81" s="183"/>
+      <c r="R81" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S81" s="171"/>
-      <c r="T81" s="170" t="s">
+      <c r="S81" s="183"/>
+      <c r="T81" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U81" s="171"/>
-      <c r="V81" s="170" t="s">
+      <c r="U81" s="183"/>
+      <c r="V81" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W81" s="171"/>
-      <c r="X81" s="170" t="s">
+      <c r="W81" s="183"/>
+      <c r="X81" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y81" s="171"/>
-      <c r="Z81" s="170" t="s">
+      <c r="Y81" s="183"/>
+      <c r="Z81" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA81" s="171"/>
-      <c r="AB81" s="172" t="s">
+      <c r="AA81" s="183"/>
+      <c r="AB81" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC81" s="174" t="s">
+      <c r="AC81" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD81" s="174" t="s">
+      <c r="AD81" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE81" s="169" t="s">
+      <c r="AE81" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF81" s="169" t="s">
+      <c r="AF81" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="82" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A82" s="188"/>
-      <c r="B82" s="188"/>
-      <c r="C82" s="186"/>
+      <c r="A82" s="201"/>
+      <c r="B82" s="201"/>
+      <c r="C82" s="191"/>
       <c r="D82" s="75"/>
       <c r="E82" s="76"/>
       <c r="F82" s="76"/>
@@ -12818,14 +12819,14 @@
       <c r="AA82" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB82" s="173"/>
-      <c r="AC82" s="174"/>
-      <c r="AD82" s="174"/>
-      <c r="AE82" s="169"/>
-      <c r="AF82" s="169"/>
+      <c r="AB82" s="203"/>
+      <c r="AC82" s="176"/>
+      <c r="AD82" s="176"/>
+      <c r="AE82" s="166"/>
+      <c r="AF82" s="166"/>
     </row>
     <row r="83" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A83" s="179" t="s">
+      <c r="A83" s="206" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -12863,18 +12864,18 @@
         <v>0</v>
       </c>
       <c r="AC83" s="112"/>
-      <c r="AD83" s="175" t="str">
+      <c r="AD83" s="235" t="str">
         <f>CONCATENATE(AC83,AC84,AC85,AC86,AC87,AC88,AC89,AC90,AC91,AC92,AC93,AC94,AC95,AC96,AC97,AC98,AC99,AC100)</f>
         <v/>
       </c>
       <c r="AE83" s="117"/>
-      <c r="AF83" s="235" t="str">
+      <c r="AF83" s="164" t="str">
         <f>CONCATENATE(AE83,AE84,AE85,AE86,AE87,AE88,AE89,AE90,AE91,AE92,AE93,AE94,AE95,AE96,AE97,AE98,AE99,AE100)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A84" s="198"/>
+      <c r="A84" s="207"/>
       <c r="B84" s="15" t="s">
         <v>288</v>
       </c>
@@ -12928,12 +12929,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD84" s="175"/>
+      <c r="AD84" s="235"/>
       <c r="AE84" s="117"/>
-      <c r="AF84" s="235"/>
+      <c r="AF84" s="164"/>
     </row>
     <row r="85" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A85" s="198"/>
+      <c r="A85" s="207"/>
       <c r="B85" s="15" t="s">
         <v>549</v>
       </c>
@@ -12969,12 +12970,12 @@
         <v>0</v>
       </c>
       <c r="AC85" s="112"/>
-      <c r="AD85" s="175"/>
+      <c r="AD85" s="235"/>
       <c r="AE85" s="117"/>
-      <c r="AF85" s="235"/>
+      <c r="AF85" s="164"/>
     </row>
     <row r="86" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A86" s="198"/>
+      <c r="A86" s="207"/>
       <c r="B86" s="15" t="s">
         <v>550</v>
       </c>
@@ -13010,12 +13011,12 @@
         <v>0</v>
       </c>
       <c r="AC86" s="112"/>
-      <c r="AD86" s="175"/>
+      <c r="AD86" s="235"/>
       <c r="AE86" s="117"/>
-      <c r="AF86" s="235"/>
+      <c r="AF86" s="164"/>
     </row>
     <row r="87" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A87" s="198"/>
+      <c r="A87" s="207"/>
       <c r="B87" s="15" t="s">
         <v>551</v>
       </c>
@@ -13051,12 +13052,12 @@
         <v>0</v>
       </c>
       <c r="AC87" s="112"/>
-      <c r="AD87" s="175"/>
+      <c r="AD87" s="235"/>
       <c r="AE87" s="117"/>
-      <c r="AF87" s="235"/>
+      <c r="AF87" s="164"/>
     </row>
     <row r="88" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A88" s="180"/>
+      <c r="A88" s="208"/>
       <c r="B88" s="15" t="s">
         <v>552</v>
       </c>
@@ -13092,12 +13093,12 @@
         <v>0</v>
       </c>
       <c r="AC88" s="112"/>
-      <c r="AD88" s="175"/>
+      <c r="AD88" s="235"/>
       <c r="AE88" s="117"/>
-      <c r="AF88" s="235"/>
+      <c r="AF88" s="164"/>
     </row>
     <row r="89" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A89" s="179" t="s">
+      <c r="A89" s="206" t="s">
         <v>42</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -13135,12 +13136,12 @@
         <v>0</v>
       </c>
       <c r="AC89" s="112"/>
-      <c r="AD89" s="175"/>
+      <c r="AD89" s="235"/>
       <c r="AE89" s="117"/>
-      <c r="AF89" s="235"/>
+      <c r="AF89" s="164"/>
     </row>
     <row r="90" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A90" s="198"/>
+      <c r="A90" s="207"/>
       <c r="B90" s="15" t="s">
         <v>553</v>
       </c>
@@ -13194,12 +13195,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD90" s="175"/>
+      <c r="AD90" s="235"/>
       <c r="AE90" s="117"/>
-      <c r="AF90" s="235"/>
+      <c r="AF90" s="164"/>
     </row>
     <row r="91" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A91" s="198"/>
+      <c r="A91" s="207"/>
       <c r="B91" s="15" t="s">
         <v>304</v>
       </c>
@@ -13235,12 +13236,12 @@
         <v>0</v>
       </c>
       <c r="AC91" s="112"/>
-      <c r="AD91" s="175"/>
+      <c r="AD91" s="235"/>
       <c r="AE91" s="117"/>
-      <c r="AF91" s="235"/>
+      <c r="AF91" s="164"/>
     </row>
     <row r="92" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A92" s="198"/>
+      <c r="A92" s="207"/>
       <c r="B92" s="15" t="s">
         <v>554</v>
       </c>
@@ -13276,12 +13277,12 @@
         <v>0</v>
       </c>
       <c r="AC92" s="112"/>
-      <c r="AD92" s="175"/>
+      <c r="AD92" s="235"/>
       <c r="AE92" s="117"/>
-      <c r="AF92" s="235"/>
+      <c r="AF92" s="164"/>
     </row>
     <row r="93" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A93" s="198"/>
+      <c r="A93" s="207"/>
       <c r="B93" s="15" t="s">
         <v>551</v>
       </c>
@@ -13317,12 +13318,12 @@
         <v>0</v>
       </c>
       <c r="AC93" s="112"/>
-      <c r="AD93" s="175"/>
+      <c r="AD93" s="235"/>
       <c r="AE93" s="117"/>
-      <c r="AF93" s="235"/>
+      <c r="AF93" s="164"/>
     </row>
     <row r="94" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A94" s="180"/>
+      <c r="A94" s="208"/>
       <c r="B94" s="15" t="s">
         <v>309</v>
       </c>
@@ -13376,12 +13377,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD94" s="175"/>
+      <c r="AD94" s="235"/>
       <c r="AE94" s="117"/>
-      <c r="AF94" s="235"/>
+      <c r="AF94" s="164"/>
     </row>
     <row r="95" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A95" s="179" t="s">
+      <c r="A95" s="206" t="s">
         <v>33</v>
       </c>
       <c r="B95" s="15" t="s">
@@ -13419,12 +13420,12 @@
         <v>0</v>
       </c>
       <c r="AC95" s="112"/>
-      <c r="AD95" s="175"/>
+      <c r="AD95" s="235"/>
       <c r="AE95" s="117"/>
-      <c r="AF95" s="235"/>
+      <c r="AF95" s="164"/>
     </row>
     <row r="96" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A96" s="198"/>
+      <c r="A96" s="207"/>
       <c r="B96" s="15" t="s">
         <v>288</v>
       </c>
@@ -13478,12 +13479,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD96" s="175"/>
+      <c r="AD96" s="235"/>
       <c r="AE96" s="117"/>
-      <c r="AF96" s="235"/>
+      <c r="AF96" s="164"/>
     </row>
     <row r="97" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A97" s="198"/>
+      <c r="A97" s="207"/>
       <c r="B97" s="15" t="s">
         <v>304</v>
       </c>
@@ -13519,12 +13520,12 @@
         <v>0</v>
       </c>
       <c r="AC97" s="112"/>
-      <c r="AD97" s="175"/>
+      <c r="AD97" s="235"/>
       <c r="AE97" s="117"/>
-      <c r="AF97" s="235"/>
+      <c r="AF97" s="164"/>
     </row>
     <row r="98" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A98" s="198"/>
+      <c r="A98" s="207"/>
       <c r="B98" s="15" t="s">
         <v>550</v>
       </c>
@@ -13560,12 +13561,12 @@
         <v>0</v>
       </c>
       <c r="AC98" s="112"/>
-      <c r="AD98" s="175"/>
+      <c r="AD98" s="235"/>
       <c r="AE98" s="117"/>
-      <c r="AF98" s="235"/>
+      <c r="AF98" s="164"/>
     </row>
     <row r="99" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A99" s="198"/>
+      <c r="A99" s="207"/>
       <c r="B99" s="15" t="s">
         <v>551</v>
       </c>
@@ -13601,12 +13602,12 @@
         <v>0</v>
       </c>
       <c r="AC99" s="112"/>
-      <c r="AD99" s="175"/>
+      <c r="AD99" s="235"/>
       <c r="AE99" s="117"/>
-      <c r="AF99" s="235"/>
+      <c r="AF99" s="164"/>
     </row>
     <row r="100" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A100" s="198"/>
+      <c r="A100" s="207"/>
       <c r="B100" s="99" t="s">
         <v>309</v>
       </c>
@@ -13642,124 +13643,124 @@
         <v>0</v>
       </c>
       <c r="AC100" s="113"/>
-      <c r="AD100" s="175"/>
+      <c r="AD100" s="235"/>
       <c r="AE100" s="117"/>
-      <c r="AF100" s="235"/>
+      <c r="AF100" s="164"/>
     </row>
     <row r="101" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A101" s="244" t="s">
+      <c r="A101" s="170" t="s">
         <v>153</v>
       </c>
-      <c r="B101" s="244"/>
-      <c r="C101" s="244"/>
-      <c r="D101" s="244"/>
-      <c r="E101" s="244"/>
-      <c r="F101" s="244"/>
-      <c r="G101" s="244"/>
-      <c r="H101" s="244"/>
-      <c r="I101" s="244"/>
-      <c r="J101" s="244"/>
-      <c r="K101" s="244"/>
-      <c r="L101" s="244"/>
-      <c r="M101" s="244"/>
-      <c r="N101" s="244"/>
-      <c r="O101" s="244"/>
-      <c r="P101" s="244"/>
-      <c r="Q101" s="244"/>
-      <c r="R101" s="244"/>
-      <c r="S101" s="244"/>
-      <c r="T101" s="244"/>
-      <c r="U101" s="244"/>
-      <c r="V101" s="244"/>
-      <c r="W101" s="244"/>
-      <c r="X101" s="244"/>
-      <c r="Y101" s="244"/>
-      <c r="Z101" s="244"/>
-      <c r="AA101" s="244"/>
-      <c r="AB101" s="244"/>
-      <c r="AC101" s="244"/>
-      <c r="AD101" s="244"/>
-      <c r="AE101" s="244"/>
-      <c r="AF101" s="244"/>
+      <c r="B101" s="170"/>
+      <c r="C101" s="170"/>
+      <c r="D101" s="170"/>
+      <c r="E101" s="170"/>
+      <c r="F101" s="170"/>
+      <c r="G101" s="170"/>
+      <c r="H101" s="170"/>
+      <c r="I101" s="170"/>
+      <c r="J101" s="170"/>
+      <c r="K101" s="170"/>
+      <c r="L101" s="170"/>
+      <c r="M101" s="170"/>
+      <c r="N101" s="170"/>
+      <c r="O101" s="170"/>
+      <c r="P101" s="170"/>
+      <c r="Q101" s="170"/>
+      <c r="R101" s="170"/>
+      <c r="S101" s="170"/>
+      <c r="T101" s="170"/>
+      <c r="U101" s="170"/>
+      <c r="V101" s="170"/>
+      <c r="W101" s="170"/>
+      <c r="X101" s="170"/>
+      <c r="Y101" s="170"/>
+      <c r="Z101" s="170"/>
+      <c r="AA101" s="170"/>
+      <c r="AB101" s="170"/>
+      <c r="AC101" s="170"/>
+      <c r="AD101" s="170"/>
+      <c r="AE101" s="170"/>
+      <c r="AF101" s="170"/>
     </row>
     <row r="102" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A102" s="187" t="s">
+      <c r="A102" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B102" s="187" t="s">
+      <c r="B102" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C102" s="185" t="s">
+      <c r="C102" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D102" s="184" t="s">
+      <c r="D102" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="171"/>
-      <c r="F102" s="170" t="s">
+      <c r="E102" s="183"/>
+      <c r="F102" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="171"/>
-      <c r="H102" s="170" t="s">
+      <c r="G102" s="183"/>
+      <c r="H102" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I102" s="171"/>
-      <c r="J102" s="170" t="s">
+      <c r="I102" s="183"/>
+      <c r="J102" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K102" s="171"/>
-      <c r="L102" s="170" t="s">
+      <c r="K102" s="183"/>
+      <c r="L102" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="171"/>
-      <c r="N102" s="170" t="s">
+      <c r="M102" s="183"/>
+      <c r="N102" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O102" s="171"/>
-      <c r="P102" s="170" t="s">
+      <c r="O102" s="183"/>
+      <c r="P102" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q102" s="171"/>
-      <c r="R102" s="170" t="s">
+      <c r="Q102" s="183"/>
+      <c r="R102" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S102" s="171"/>
-      <c r="T102" s="170" t="s">
+      <c r="S102" s="183"/>
+      <c r="T102" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U102" s="171"/>
-      <c r="V102" s="170" t="s">
+      <c r="U102" s="183"/>
+      <c r="V102" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W102" s="171"/>
-      <c r="X102" s="170" t="s">
+      <c r="W102" s="183"/>
+      <c r="X102" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y102" s="171"/>
-      <c r="Z102" s="170" t="s">
+      <c r="Y102" s="183"/>
+      <c r="Z102" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA102" s="171"/>
-      <c r="AB102" s="172" t="s">
+      <c r="AA102" s="183"/>
+      <c r="AB102" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC102" s="174" t="s">
+      <c r="AC102" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD102" s="174" t="s">
+      <c r="AD102" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE102" s="169" t="s">
+      <c r="AE102" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF102" s="169" t="s">
+      <c r="AF102" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="103" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A103" s="188"/>
-      <c r="B103" s="188"/>
-      <c r="C103" s="186"/>
+      <c r="A103" s="201"/>
+      <c r="B103" s="201"/>
+      <c r="C103" s="191"/>
       <c r="D103" s="73" t="s">
         <v>14</v>
       </c>
@@ -13832,14 +13833,14 @@
       <c r="AA103" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB103" s="173"/>
-      <c r="AC103" s="174"/>
-      <c r="AD103" s="174"/>
-      <c r="AE103" s="169"/>
-      <c r="AF103" s="169"/>
+      <c r="AB103" s="203"/>
+      <c r="AC103" s="176"/>
+      <c r="AD103" s="176"/>
+      <c r="AE103" s="166"/>
+      <c r="AF103" s="166"/>
     </row>
     <row r="104" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A104" s="179" t="s">
+      <c r="A104" s="206" t="s">
         <v>44</v>
       </c>
       <c r="B104" s="15" t="s">
@@ -13876,7 +13877,7 @@
         <f>SUM(D104:AA104)</f>
         <v>0</v>
       </c>
-      <c r="AC104" s="201" t="str">
+      <c r="AC104" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D105&gt;D104," * F05-02 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-01"&amp;CHAR(10),""),IF(E105&gt;E104," * F05-02 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-01"&amp;CHAR(10),""),
@@ -13895,18 +13896,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD104" s="175" t="str">
+      <c r="AD104" s="235" t="str">
         <f>CONCATENATE(AC104,AC106,AC107,AC108,AC109,AC111,AC113,AC115,AC117,AC118)</f>
         <v/>
       </c>
       <c r="AE104" s="117"/>
-      <c r="AF104" s="235" t="str">
+      <c r="AF104" s="164" t="str">
         <f>CONCATENATE(AE104,AE105,AE106,AE107,AE108,AE109,AE110,AE111,AE112,AE113,AE114,AE115,AE116,AE117,AE118)</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A105" s="180"/>
+      <c r="A105" s="208"/>
       <c r="B105" s="15" t="s">
         <v>556</v>
       </c>
@@ -13941,13 +13942,13 @@
         <f t="shared" ref="AB105:AB118" si="8">SUM(D105:AA105)</f>
         <v>0</v>
       </c>
-      <c r="AC105" s="202"/>
-      <c r="AD105" s="175"/>
+      <c r="AC105" s="178"/>
+      <c r="AD105" s="235"/>
       <c r="AE105" s="117"/>
-      <c r="AF105" s="235"/>
+      <c r="AF105" s="164"/>
     </row>
     <row r="106" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A106" s="179" t="s">
+      <c r="A106" s="206" t="s">
         <v>45</v>
       </c>
       <c r="B106" s="15" t="s">
@@ -14003,12 +14004,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD106" s="175"/>
+      <c r="AD106" s="235"/>
       <c r="AE106" s="117"/>
-      <c r="AF106" s="235"/>
+      <c r="AF106" s="164"/>
     </row>
     <row r="107" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A107" s="180"/>
+      <c r="A107" s="208"/>
       <c r="B107" s="15" t="s">
         <v>327</v>
       </c>
@@ -14044,12 +14045,12 @@
         <v>0</v>
       </c>
       <c r="AC107" s="112"/>
-      <c r="AD107" s="175"/>
+      <c r="AD107" s="235"/>
       <c r="AE107" s="117"/>
-      <c r="AF107" s="235"/>
+      <c r="AF107" s="164"/>
     </row>
     <row r="108" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A108" s="181" t="s">
+      <c r="A108" s="230" t="s">
         <v>34</v>
       </c>
       <c r="B108" s="93" t="s">
@@ -14105,12 +14106,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD108" s="175"/>
+      <c r="AD108" s="235"/>
       <c r="AE108" s="117"/>
-      <c r="AF108" s="235"/>
+      <c r="AF108" s="164"/>
     </row>
     <row r="109" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A109" s="182"/>
+      <c r="A109" s="231"/>
       <c r="B109" s="93" t="s">
         <v>559</v>
       </c>
@@ -14145,7 +14146,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC109" s="201" t="str">
+      <c r="AC109" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D110&gt;D109," * F05-07 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-06"&amp;CHAR(10),""),IF(E110&gt;E109," * F05-07 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-06"&amp;CHAR(10),""),
@@ -14164,12 +14165,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD109" s="175"/>
+      <c r="AD109" s="235"/>
       <c r="AE109" s="117"/>
-      <c r="AF109" s="235"/>
+      <c r="AF109" s="164"/>
     </row>
     <row r="110" spans="1:32" s="12" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A110" s="182"/>
+      <c r="A110" s="231"/>
       <c r="B110" s="93" t="s">
         <v>560</v>
       </c>
@@ -14204,13 +14205,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC110" s="202"/>
-      <c r="AD110" s="175"/>
+      <c r="AC110" s="178"/>
+      <c r="AD110" s="235"/>
       <c r="AE110" s="117"/>
-      <c r="AF110" s="235"/>
+      <c r="AF110" s="164"/>
     </row>
     <row r="111" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A111" s="182"/>
+      <c r="A111" s="231"/>
       <c r="B111" s="93" t="s">
         <v>561</v>
       </c>
@@ -14245,7 +14246,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC111" s="201" t="str">
+      <c r="AC111" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D112&gt;D111," * F05-09 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-08"&amp;CHAR(10),""),IF(E112&gt;E111," * F05-09 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-08"&amp;CHAR(10),""),
@@ -14264,12 +14265,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD111" s="175"/>
+      <c r="AD111" s="235"/>
       <c r="AE111" s="117"/>
-      <c r="AF111" s="235"/>
+      <c r="AF111" s="164"/>
     </row>
     <row r="112" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A112" s="182"/>
+      <c r="A112" s="231"/>
       <c r="B112" s="93" t="s">
         <v>562</v>
       </c>
@@ -14304,13 +14305,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC112" s="202"/>
-      <c r="AD112" s="175"/>
+      <c r="AC112" s="178"/>
+      <c r="AD112" s="235"/>
       <c r="AE112" s="117"/>
-      <c r="AF112" s="235"/>
+      <c r="AF112" s="164"/>
     </row>
     <row r="113" spans="1:32" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A113" s="182"/>
+      <c r="A113" s="231"/>
       <c r="B113" s="93" t="s">
         <v>563</v>
       </c>
@@ -14345,7 +14346,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC113" s="201" t="str">
+      <c r="AC113" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D114&gt;D113," * F05-11 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-10"&amp;CHAR(10),""),IF(E114&gt;E113," * F05-11 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-10"&amp;CHAR(10),""),
@@ -14364,12 +14365,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD113" s="175"/>
+      <c r="AD113" s="235"/>
       <c r="AE113" s="117"/>
-      <c r="AF113" s="235"/>
+      <c r="AF113" s="164"/>
     </row>
     <row r="114" spans="1:32" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A114" s="183"/>
+      <c r="A114" s="236"/>
       <c r="B114" s="93" t="s">
         <v>564</v>
       </c>
@@ -14404,13 +14405,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC114" s="202"/>
-      <c r="AD114" s="175"/>
+      <c r="AC114" s="178"/>
+      <c r="AD114" s="235"/>
       <c r="AE114" s="117"/>
-      <c r="AF114" s="235"/>
+      <c r="AF114" s="164"/>
     </row>
     <row r="115" spans="1:32" s="12" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A115" s="181" t="s">
+      <c r="A115" s="230" t="s">
         <v>131</v>
       </c>
       <c r="B115" s="93" t="s">
@@ -14447,7 +14448,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC115" s="201" t="str">
+      <c r="AC115" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D116&gt;D115," * F05-13 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-12"&amp;CHAR(10),""),IF(E116&gt;E115," * F05-13 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-12"&amp;CHAR(10),""),
@@ -14466,12 +14467,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD115" s="175"/>
+      <c r="AD115" s="235"/>
       <c r="AE115" s="117"/>
-      <c r="AF115" s="235"/>
+      <c r="AF115" s="164"/>
     </row>
     <row r="116" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A116" s="182"/>
+      <c r="A116" s="231"/>
       <c r="B116" s="93" t="s">
         <v>351</v>
       </c>
@@ -14506,13 +14507,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC116" s="202"/>
-      <c r="AD116" s="175"/>
+      <c r="AC116" s="178"/>
+      <c r="AD116" s="235"/>
       <c r="AE116" s="117"/>
-      <c r="AF116" s="235"/>
+      <c r="AF116" s="164"/>
     </row>
     <row r="117" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A117" s="182"/>
+      <c r="A117" s="231"/>
       <c r="B117" s="93" t="s">
         <v>565</v>
       </c>
@@ -14566,12 +14567,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD117" s="175"/>
+      <c r="AD117" s="235"/>
       <c r="AE117" s="117"/>
-      <c r="AF117" s="235"/>
+      <c r="AF117" s="164"/>
     </row>
     <row r="118" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A118" s="182"/>
+      <c r="A118" s="231"/>
       <c r="B118" s="104" t="s">
         <v>566</v>
       </c>
@@ -14625,124 +14626,124 @@
 )</f>
         <v/>
       </c>
-      <c r="AD118" s="176"/>
+      <c r="AD118" s="228"/>
       <c r="AE118" s="119"/>
-      <c r="AF118" s="235"/>
+      <c r="AF118" s="164"/>
     </row>
     <row r="119" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A119" s="244" t="s">
+      <c r="A119" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="B119" s="244"/>
-      <c r="C119" s="244"/>
-      <c r="D119" s="244"/>
-      <c r="E119" s="244"/>
-      <c r="F119" s="244"/>
-      <c r="G119" s="244"/>
-      <c r="H119" s="244"/>
-      <c r="I119" s="244"/>
-      <c r="J119" s="244"/>
-      <c r="K119" s="244"/>
-      <c r="L119" s="244"/>
-      <c r="M119" s="244"/>
-      <c r="N119" s="244"/>
-      <c r="O119" s="244"/>
-      <c r="P119" s="244"/>
-      <c r="Q119" s="244"/>
-      <c r="R119" s="244"/>
-      <c r="S119" s="244"/>
-      <c r="T119" s="244"/>
-      <c r="U119" s="244"/>
-      <c r="V119" s="244"/>
-      <c r="W119" s="244"/>
-      <c r="X119" s="244"/>
-      <c r="Y119" s="244"/>
-      <c r="Z119" s="244"/>
-      <c r="AA119" s="244"/>
-      <c r="AB119" s="244"/>
-      <c r="AC119" s="244"/>
-      <c r="AD119" s="244"/>
-      <c r="AE119" s="244"/>
-      <c r="AF119" s="244"/>
+      <c r="B119" s="170"/>
+      <c r="C119" s="170"/>
+      <c r="D119" s="170"/>
+      <c r="E119" s="170"/>
+      <c r="F119" s="170"/>
+      <c r="G119" s="170"/>
+      <c r="H119" s="170"/>
+      <c r="I119" s="170"/>
+      <c r="J119" s="170"/>
+      <c r="K119" s="170"/>
+      <c r="L119" s="170"/>
+      <c r="M119" s="170"/>
+      <c r="N119" s="170"/>
+      <c r="O119" s="170"/>
+      <c r="P119" s="170"/>
+      <c r="Q119" s="170"/>
+      <c r="R119" s="170"/>
+      <c r="S119" s="170"/>
+      <c r="T119" s="170"/>
+      <c r="U119" s="170"/>
+      <c r="V119" s="170"/>
+      <c r="W119" s="170"/>
+      <c r="X119" s="170"/>
+      <c r="Y119" s="170"/>
+      <c r="Z119" s="170"/>
+      <c r="AA119" s="170"/>
+      <c r="AB119" s="170"/>
+      <c r="AC119" s="170"/>
+      <c r="AD119" s="170"/>
+      <c r="AE119" s="170"/>
+      <c r="AF119" s="170"/>
     </row>
     <row r="120" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A120" s="187" t="s">
+      <c r="A120" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B120" s="187" t="s">
+      <c r="B120" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C120" s="185" t="s">
+      <c r="C120" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D120" s="184" t="s">
+      <c r="D120" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="171"/>
-      <c r="F120" s="170" t="s">
+      <c r="E120" s="183"/>
+      <c r="F120" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="171"/>
-      <c r="H120" s="170" t="s">
+      <c r="G120" s="183"/>
+      <c r="H120" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I120" s="171"/>
-      <c r="J120" s="170" t="s">
+      <c r="I120" s="183"/>
+      <c r="J120" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K120" s="171"/>
-      <c r="L120" s="170" t="s">
+      <c r="K120" s="183"/>
+      <c r="L120" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M120" s="171"/>
-      <c r="N120" s="170" t="s">
+      <c r="M120" s="183"/>
+      <c r="N120" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O120" s="171"/>
-      <c r="P120" s="170" t="s">
+      <c r="O120" s="183"/>
+      <c r="P120" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q120" s="171"/>
-      <c r="R120" s="170" t="s">
+      <c r="Q120" s="183"/>
+      <c r="R120" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S120" s="171"/>
-      <c r="T120" s="170" t="s">
+      <c r="S120" s="183"/>
+      <c r="T120" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U120" s="171"/>
-      <c r="V120" s="170" t="s">
+      <c r="U120" s="183"/>
+      <c r="V120" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W120" s="171"/>
-      <c r="X120" s="170" t="s">
+      <c r="W120" s="183"/>
+      <c r="X120" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y120" s="171"/>
-      <c r="Z120" s="170" t="s">
+      <c r="Y120" s="183"/>
+      <c r="Z120" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA120" s="171"/>
-      <c r="AB120" s="172" t="s">
+      <c r="AA120" s="183"/>
+      <c r="AB120" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC120" s="174" t="s">
+      <c r="AC120" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD120" s="174" t="s">
+      <c r="AD120" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE120" s="169" t="s">
+      <c r="AE120" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF120" s="169" t="s">
+      <c r="AF120" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="121" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A121" s="188"/>
-      <c r="B121" s="188"/>
-      <c r="C121" s="186"/>
+      <c r="A121" s="201"/>
+      <c r="B121" s="201"/>
+      <c r="C121" s="191"/>
       <c r="D121" s="73" t="s">
         <v>14</v>
       </c>
@@ -14815,11 +14816,11 @@
       <c r="AA121" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB121" s="173"/>
-      <c r="AC121" s="174"/>
-      <c r="AD121" s="174"/>
-      <c r="AE121" s="169"/>
-      <c r="AF121" s="169"/>
+      <c r="AB121" s="203"/>
+      <c r="AC121" s="176"/>
+      <c r="AD121" s="176"/>
+      <c r="AE121" s="166"/>
+      <c r="AF121" s="166"/>
     </row>
     <row r="122" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A122" s="69" t="s">
@@ -14878,18 +14879,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD122" s="176" t="str">
+      <c r="AD122" s="228" t="str">
         <f>CONCATENATE(AC122,AC123,AC124,AC125,AC126,AC128,AC130,AC132)</f>
         <v/>
       </c>
       <c r="AE122" s="116"/>
-      <c r="AF122" s="235" t="str">
+      <c r="AF122" s="164" t="str">
         <f>CONCATENATE(AE122,AE123,AE124,AE125,AE126,AE127,AE128,AE129,AE130,AE131,AE132,AE133)</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A123" s="179" t="s">
+      <c r="A123" s="206" t="s">
         <v>46</v>
       </c>
       <c r="B123" s="15" t="s">
@@ -14945,7 +14946,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD123" s="192"/>
+      <c r="AD123" s="229"/>
       <c r="AE123" s="116" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -14965,10 +14966,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF123" s="235"/>
+      <c r="AF123" s="164"/>
     </row>
     <row r="124" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A124" s="198"/>
+      <c r="A124" s="207"/>
       <c r="B124" s="15" t="s">
         <v>569</v>
       </c>
@@ -15022,12 +15023,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD124" s="192"/>
+      <c r="AD124" s="229"/>
       <c r="AE124" s="117"/>
-      <c r="AF124" s="235"/>
+      <c r="AF124" s="164"/>
     </row>
     <row r="125" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A125" s="198"/>
+      <c r="A125" s="207"/>
       <c r="B125" s="15" t="s">
         <v>570</v>
       </c>
@@ -15081,12 +15082,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD125" s="192"/>
+      <c r="AD125" s="229"/>
       <c r="AE125" s="117"/>
-      <c r="AF125" s="235"/>
+      <c r="AF125" s="164"/>
     </row>
     <row r="126" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A126" s="198"/>
+      <c r="A126" s="207"/>
       <c r="B126" s="15" t="s">
         <v>571</v>
       </c>
@@ -15121,7 +15122,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC126" s="201" t="str">
+      <c r="AC126" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D127&gt;D126," * F06-06 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-05"&amp;CHAR(10),""),IF(E127&gt;E126," * F06-06 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-05"&amp;CHAR(10),""),
@@ -15140,12 +15141,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD126" s="192"/>
+      <c r="AD126" s="229"/>
       <c r="AE126" s="117"/>
-      <c r="AF126" s="235"/>
+      <c r="AF126" s="164"/>
     </row>
     <row r="127" spans="1:32" s="10" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A127" s="198"/>
+      <c r="A127" s="207"/>
       <c r="B127" s="15" t="s">
         <v>635</v>
       </c>
@@ -15180,13 +15181,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC127" s="202"/>
-      <c r="AD127" s="192"/>
+      <c r="AC127" s="178"/>
+      <c r="AD127" s="229"/>
       <c r="AE127" s="117"/>
-      <c r="AF127" s="235"/>
+      <c r="AF127" s="164"/>
     </row>
     <row r="128" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A128" s="198"/>
+      <c r="A128" s="207"/>
       <c r="B128" s="15" t="s">
         <v>572</v>
       </c>
@@ -15221,7 +15222,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC128" s="201" t="str">
+      <c r="AC128" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D129&gt;D128," * F06-08 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-07"&amp;CHAR(10),""),IF(E129&gt;E128," * F06-08 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-07"&amp;CHAR(10),""),
@@ -15240,12 +15241,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD128" s="192"/>
+      <c r="AD128" s="229"/>
       <c r="AE128" s="117"/>
-      <c r="AF128" s="235"/>
+      <c r="AF128" s="164"/>
     </row>
     <row r="129" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A129" s="198"/>
+      <c r="A129" s="207"/>
       <c r="B129" s="15" t="s">
         <v>636</v>
       </c>
@@ -15280,13 +15281,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC129" s="202"/>
-      <c r="AD129" s="192"/>
+      <c r="AC129" s="178"/>
+      <c r="AD129" s="229"/>
       <c r="AE129" s="117"/>
-      <c r="AF129" s="235"/>
+      <c r="AF129" s="164"/>
     </row>
     <row r="130" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A130" s="198"/>
+      <c r="A130" s="207"/>
       <c r="B130" s="15" t="s">
         <v>573</v>
       </c>
@@ -15321,7 +15322,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC130" s="201" t="str">
+      <c r="AC130" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D131&gt;D130," * F06-10 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-09"&amp;CHAR(10),""),IF(E131&gt;E130," * F06-10 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-09"&amp;CHAR(10),""),
@@ -15340,12 +15341,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD130" s="192"/>
+      <c r="AD130" s="229"/>
       <c r="AE130" s="117"/>
-      <c r="AF130" s="235"/>
+      <c r="AF130" s="164"/>
     </row>
     <row r="131" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A131" s="198"/>
+      <c r="A131" s="207"/>
       <c r="B131" s="15" t="s">
         <v>634</v>
       </c>
@@ -15380,13 +15381,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC131" s="202"/>
-      <c r="AD131" s="192"/>
+      <c r="AC131" s="178"/>
+      <c r="AD131" s="229"/>
       <c r="AE131" s="117"/>
-      <c r="AF131" s="235"/>
+      <c r="AF131" s="164"/>
     </row>
     <row r="132" spans="1:32" s="10" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A132" s="189" t="s">
+      <c r="A132" s="237" t="s">
         <v>149</v>
       </c>
       <c r="B132" s="15" t="s">
@@ -15423,7 +15424,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC132" s="201" t="str">
+      <c r="AC132" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D133&gt;D132," * F06-12 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-11"&amp;CHAR(10),""),IF(E133&gt;E132," * F06-12 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-11"&amp;CHAR(10),""),
@@ -15442,12 +15443,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD132" s="192"/>
+      <c r="AD132" s="229"/>
       <c r="AE132" s="117"/>
-      <c r="AF132" s="235"/>
+      <c r="AF132" s="164"/>
     </row>
     <row r="133" spans="1:32" s="10" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A133" s="190"/>
+      <c r="A133" s="238"/>
       <c r="B133" s="99" t="s">
         <v>575</v>
       </c>
@@ -15482,125 +15483,125 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC133" s="203"/>
-      <c r="AD133" s="192"/>
+      <c r="AC133" s="227"/>
+      <c r="AD133" s="229"/>
       <c r="AE133" s="119"/>
-      <c r="AF133" s="235"/>
+      <c r="AF133" s="164"/>
     </row>
     <row r="134" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A134" s="244" t="s">
+      <c r="A134" s="170" t="s">
         <v>154</v>
       </c>
-      <c r="B134" s="244"/>
-      <c r="C134" s="244"/>
-      <c r="D134" s="244"/>
-      <c r="E134" s="244"/>
-      <c r="F134" s="244"/>
-      <c r="G134" s="244"/>
-      <c r="H134" s="244"/>
-      <c r="I134" s="244"/>
-      <c r="J134" s="244"/>
-      <c r="K134" s="244"/>
-      <c r="L134" s="244"/>
-      <c r="M134" s="244"/>
-      <c r="N134" s="244"/>
-      <c r="O134" s="244"/>
-      <c r="P134" s="244"/>
-      <c r="Q134" s="244"/>
-      <c r="R134" s="244"/>
-      <c r="S134" s="244"/>
-      <c r="T134" s="244"/>
-      <c r="U134" s="244"/>
-      <c r="V134" s="244"/>
-      <c r="W134" s="244"/>
-      <c r="X134" s="244"/>
-      <c r="Y134" s="244"/>
-      <c r="Z134" s="244"/>
-      <c r="AA134" s="244"/>
-      <c r="AB134" s="244"/>
-      <c r="AC134" s="244"/>
-      <c r="AD134" s="244"/>
-      <c r="AE134" s="244"/>
-      <c r="AF134" s="244"/>
+      <c r="B134" s="170"/>
+      <c r="C134" s="170"/>
+      <c r="D134" s="170"/>
+      <c r="E134" s="170"/>
+      <c r="F134" s="170"/>
+      <c r="G134" s="170"/>
+      <c r="H134" s="170"/>
+      <c r="I134" s="170"/>
+      <c r="J134" s="170"/>
+      <c r="K134" s="170"/>
+      <c r="L134" s="170"/>
+      <c r="M134" s="170"/>
+      <c r="N134" s="170"/>
+      <c r="O134" s="170"/>
+      <c r="P134" s="170"/>
+      <c r="Q134" s="170"/>
+      <c r="R134" s="170"/>
+      <c r="S134" s="170"/>
+      <c r="T134" s="170"/>
+      <c r="U134" s="170"/>
+      <c r="V134" s="170"/>
+      <c r="W134" s="170"/>
+      <c r="X134" s="170"/>
+      <c r="Y134" s="170"/>
+      <c r="Z134" s="170"/>
+      <c r="AA134" s="170"/>
+      <c r="AB134" s="170"/>
+      <c r="AC134" s="170"/>
+      <c r="AD134" s="170"/>
+      <c r="AE134" s="170"/>
+      <c r="AF134" s="170"/>
     </row>
     <row r="135" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A135" s="187" t="s">
+      <c r="A135" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B135" s="187" t="s">
+      <c r="B135" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C135" s="185" t="s">
+      <c r="C135" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D135" s="184" t="s">
+      <c r="D135" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="171"/>
-      <c r="F135" s="170" t="s">
+      <c r="E135" s="183"/>
+      <c r="F135" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="171"/>
-      <c r="H135" s="170" t="s">
+      <c r="G135" s="183"/>
+      <c r="H135" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I135" s="171"/>
-      <c r="J135" s="170" t="s">
+      <c r="I135" s="183"/>
+      <c r="J135" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K135" s="171"/>
-      <c r="L135" s="170" t="s">
+      <c r="K135" s="183"/>
+      <c r="L135" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M135" s="171"/>
-      <c r="N135" s="170" t="s">
+      <c r="M135" s="183"/>
+      <c r="N135" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O135" s="171"/>
-      <c r="P135" s="170" t="s">
+      <c r="O135" s="183"/>
+      <c r="P135" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q135" s="171"/>
-      <c r="R135" s="170" t="s">
+      <c r="Q135" s="183"/>
+      <c r="R135" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S135" s="171"/>
-      <c r="T135" s="170" t="s">
+      <c r="S135" s="183"/>
+      <c r="T135" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U135" s="171"/>
-      <c r="V135" s="170" t="s">
+      <c r="U135" s="183"/>
+      <c r="V135" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W135" s="171"/>
-      <c r="X135" s="170" t="s">
+      <c r="W135" s="183"/>
+      <c r="X135" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y135" s="171"/>
-      <c r="Z135" s="170" t="s">
+      <c r="Y135" s="183"/>
+      <c r="Z135" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA135" s="171"/>
-      <c r="AB135" s="172" t="s">
+      <c r="AA135" s="183"/>
+      <c r="AB135" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC135" s="174" t="s">
+      <c r="AC135" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD135" s="174" t="s">
+      <c r="AD135" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE135" s="169" t="s">
+      <c r="AE135" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF135" s="169" t="s">
+      <c r="AF135" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="136" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A136" s="188"/>
-      <c r="B136" s="188"/>
-      <c r="C136" s="186"/>
+      <c r="A136" s="201"/>
+      <c r="B136" s="201"/>
+      <c r="C136" s="191"/>
       <c r="D136" s="73" t="s">
         <v>14</v>
       </c>
@@ -15673,14 +15674,14 @@
       <c r="AA136" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB136" s="173"/>
-      <c r="AC136" s="174"/>
-      <c r="AD136" s="174"/>
-      <c r="AE136" s="169"/>
-      <c r="AF136" s="169"/>
+      <c r="AB136" s="203"/>
+      <c r="AC136" s="176"/>
+      <c r="AD136" s="176"/>
+      <c r="AE136" s="166"/>
+      <c r="AF136" s="166"/>
     </row>
     <row r="137" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A137" s="191" t="s">
+      <c r="A137" s="187" t="s">
         <v>35</v>
       </c>
       <c r="B137" s="15" t="s">
@@ -15718,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AC137" s="112"/>
-      <c r="AD137" s="176" t="str">
+      <c r="AD137" s="228" t="str">
         <f>CONCATENATE(AC137,AC138,AC139,AC140,AC141,AC142,AC143,AC144)</f>
         <v/>
       </c>
@@ -15741,13 +15742,13 @@
 )</f>
         <v/>
       </c>
-      <c r="AF137" s="235" t="str">
+      <c r="AF137" s="164" t="str">
         <f>CONCATENATE(AE137,AE138,AE139,AE140,AE141,AE142,AE143,AE144)</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A138" s="191"/>
+      <c r="A138" s="187"/>
       <c r="B138" s="15" t="s">
         <v>577</v>
       </c>
@@ -15801,7 +15802,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD138" s="192"/>
+      <c r="AD138" s="229"/>
       <c r="AE138" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15821,10 +15822,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF138" s="235"/>
+      <c r="AF138" s="164"/>
     </row>
     <row r="139" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A139" s="191"/>
+      <c r="A139" s="187"/>
       <c r="B139" s="15" t="s">
         <v>578</v>
       </c>
@@ -15878,7 +15879,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD139" s="192"/>
+      <c r="AD139" s="229"/>
       <c r="AE139" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15898,10 +15899,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF139" s="235"/>
+      <c r="AF139" s="164"/>
     </row>
     <row r="140" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A140" s="191"/>
+      <c r="A140" s="187"/>
       <c r="B140" s="15" t="s">
         <v>579</v>
       </c>
@@ -15955,7 +15956,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD140" s="192"/>
+      <c r="AD140" s="229"/>
       <c r="AE140" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15975,10 +15976,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF140" s="235"/>
+      <c r="AF140" s="164"/>
     </row>
     <row r="141" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A141" s="191"/>
+      <c r="A141" s="187"/>
       <c r="B141" s="15" t="s">
         <v>580</v>
       </c>
@@ -16014,12 +16015,12 @@
         <v>0</v>
       </c>
       <c r="AC141" s="112"/>
-      <c r="AD141" s="192"/>
+      <c r="AD141" s="229"/>
       <c r="AE141" s="117"/>
-      <c r="AF141" s="235"/>
+      <c r="AF141" s="164"/>
     </row>
     <row r="142" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A142" s="191" t="s">
+      <c r="A142" s="187" t="s">
         <v>145</v>
       </c>
       <c r="B142" s="15" t="s">
@@ -16059,23 +16060,23 @@
       <c r="AC142" s="112" t="str">
         <f xml:space="preserve">
 CONCATENATE(
-IF(D142&gt;SUM(D125,D126)," * F06-18 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),IF(E142&gt;SUM(E125,E126,E100)," * F06-18  for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),
-IF(F142&gt;SUM(F125,F126)," * F06-18  for Age " &amp;F6&amp;" "&amp; F7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),IF(G142&gt;SUM(G125,G126,G100)," * F06-18  for Age " &amp;F6&amp;" "&amp; G7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),
-IF(H142&gt;SUM(H125,H126)," * F06-18  for Age " &amp;H6&amp;" "&amp; H7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),IF(I142&gt;SUM(I125,I126,I100)," * F06-18  for Age " &amp;H6&amp;" "&amp; I7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),
-IF(J142&gt;SUM(J125,J126)," * F06-18  for Age " &amp;J6&amp;" "&amp; J7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),IF(K142&gt;SUM(K125,K126,K100)," * F06-18  for Age " &amp;J6&amp;" "&amp; K7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),
-IF(L142&gt;SUM(L125,L126)," * F06-18  for Age " &amp;L6&amp;" "&amp; L7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),IF(M142&gt;SUM(M125,M126,M100)," * F06-18  for Age " &amp;L6&amp;" "&amp; M7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),
-IF(N142&gt;SUM(N125,N126)," * F06-18  for Age " &amp;N6&amp;" "&amp; N7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),IF(O142&gt;SUM(O125,O126,O100)," * F06-18  for Age " &amp;N6&amp;" "&amp; O7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),
-IF(P142&gt;SUM(P125,P126)," * F06-18  for Age " &amp;P6&amp;" "&amp; P7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),IF(Q142&gt;SUM(Q125,Q126,Q100)," * F06-18  for Age " &amp;P6&amp;" "&amp; Q7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),
-IF(R142&gt;SUM(R125,R126)," * F06-18  for Age " &amp;R6&amp;" "&amp; R7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),IF(S142&gt;SUM(S125,S126,S100)," * F06-18  for Age " &amp;R6&amp;" "&amp; S7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),
-IF(T142&gt;SUM(T125,T126)," * F06-18  for Age " &amp;T6&amp;" "&amp; T7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),IF(U142&gt;SUM(U125,U126,U100)," * F06-18  for Age " &amp;T6&amp;" "&amp; U7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),
-IF(V142&gt;SUM(V125,V126)," * F06-18  for Age " &amp;V6&amp;" "&amp; V7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),IF(W142&gt;SUM(W125,W126,W100)," * F06-18  for Age " &amp;V6&amp;" "&amp; W7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),
-IF(X142&gt;SUM(X125,X126)," * F06-18  for Age " &amp;X6&amp;" "&amp; X7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),IF(Y142&gt;SUM(Y125,Y126,Y100)," * F06-18  for Age " &amp;X6&amp;" "&amp; Y7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),
-IF(Z142&gt;SUM(Z125,Z126)," * F06-18  for Age " &amp;Z6&amp;" "&amp; Z7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),IF(AA142&gt;SUM(AA125,AA126,AA100)," * F06-18  for Age " &amp;Z6&amp;" "&amp; AA7&amp; " is more than (F06-04+F06-06)"&amp;CHAR(10),""),
-IF(AB142&gt;SUM(AB125,AB126)," * Total F06-18  is more than (F06-04+F06-06)"&amp;CHAR(10),"")
+IF(D142&gt;SUM(D125,D127,D123)," * F06-18 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),IF(E142&gt;SUM(E125,E127,E123)," * F06-18  for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),
+IF(F142&gt;SUM(F125,F127,F123)," * F06-18  for Age " &amp;F6&amp;" "&amp; F7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),IF(G142&gt;SUM(G125,G127,G123)," * F06-18  for Age " &amp;F6&amp;" "&amp; G7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),
+IF(H142&gt;SUM(H125,H127,H123)," * F06-18  for Age " &amp;H6&amp;" "&amp; H7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),IF(I142&gt;SUM(I125,I127,I123)," * F06-18  for Age " &amp;H6&amp;" "&amp; I7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),
+IF(J142&gt;SUM(J125,J127,J123)," * F06-18  for Age " &amp;J6&amp;" "&amp; J7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),IF(K142&gt;SUM(K125,K127,K123)," * F06-18  for Age " &amp;J6&amp;" "&amp; K7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),
+IF(L142&gt;SUM(L125,L127,L123)," * F06-18  for Age " &amp;L6&amp;" "&amp; L7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),IF(M142&gt;SUM(M125,M127,M123)," * F06-18  for Age " &amp;L6&amp;" "&amp; M7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),
+IF(N142&gt;SUM(N125,N127,N123)," * F06-18  for Age " &amp;N6&amp;" "&amp; N7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),IF(O142&gt;SUM(O125,O127,O123)," * F06-18  for Age " &amp;N6&amp;" "&amp; O7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),
+IF(P142&gt;SUM(P125,P127,P123)," * F06-18  for Age " &amp;P6&amp;" "&amp; P7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),IF(Q142&gt;SUM(Q125,Q127,Q123)," * F06-18  for Age " &amp;P6&amp;" "&amp; Q7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),
+IF(R142&gt;SUM(R125,R127,R123)," * F06-18  for Age " &amp;R6&amp;" "&amp; R7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),IF(S142&gt;SUM(S125,S127,S123)," * F06-18  for Age " &amp;R6&amp;" "&amp; S7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),
+IF(T142&gt;SUM(T125,T127,T123)," * F06-18  for Age " &amp;T6&amp;" "&amp; T7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),IF(U142&gt;SUM(U125,U127,U123)," * F06-18  for Age " &amp;T6&amp;" "&amp; U7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),
+IF(V142&gt;SUM(V125,V127,V123)," * F06-18  for Age " &amp;V6&amp;" "&amp; V7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),IF(W142&gt;SUM(W125,W127,W123)," * F06-18  for Age " &amp;V6&amp;" "&amp; W7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),
+IF(X142&gt;SUM(X125,X127,X123)," * F06-18  for Age " &amp;X6&amp;" "&amp; X7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),IF(Y142&gt;SUM(Y125,Y127,Y123)," * F06-18  for Age " &amp;X6&amp;" "&amp; Y7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),
+IF(Z142&gt;SUM(Z125,Z127,Z123)," * F06-18  for Age " &amp;Z6&amp;" "&amp; Z7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),IF(AA142&gt;SUM(AA125,AA127,AA123)," * F06-18  for Age " &amp;Z6&amp;" "&amp; AA7&amp; " is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),""),
+IF(AB142&gt;SUM(AB125,AB127,AB123)," * Total F06-18  is more than (F06-02+F06-04+F06-06)"&amp;CHAR(10),"")
 )</f>
         <v/>
       </c>
-      <c r="AD142" s="192"/>
+      <c r="AD142" s="229"/>
       <c r="AE142" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16095,10 +16096,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF142" s="235"/>
+      <c r="AF142" s="164"/>
     </row>
     <row r="143" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A143" s="191"/>
+      <c r="A143" s="187"/>
       <c r="B143" s="15" t="s">
         <v>581</v>
       </c>
@@ -16152,7 +16153,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD143" s="192"/>
+      <c r="AD143" s="229"/>
       <c r="AE143" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16172,10 +16173,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF143" s="235"/>
+      <c r="AF143" s="164"/>
     </row>
     <row r="144" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A144" s="179"/>
+      <c r="A144" s="206"/>
       <c r="B144" s="99" t="s">
         <v>582</v>
       </c>
@@ -16229,7 +16230,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD144" s="192"/>
+      <c r="AD144" s="229"/>
       <c r="AE144" s="119" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16249,122 +16250,122 @@
 )</f>
         <v/>
       </c>
-      <c r="AF144" s="235"/>
+      <c r="AF144" s="164"/>
     </row>
     <row r="145" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A145" s="244" t="s">
+      <c r="A145" s="170" t="s">
         <v>156</v>
       </c>
-      <c r="B145" s="244"/>
-      <c r="C145" s="244"/>
-      <c r="D145" s="244"/>
-      <c r="E145" s="244"/>
-      <c r="F145" s="244"/>
-      <c r="G145" s="244"/>
-      <c r="H145" s="244"/>
-      <c r="I145" s="244"/>
-      <c r="J145" s="244"/>
-      <c r="K145" s="244"/>
-      <c r="L145" s="244"/>
-      <c r="M145" s="244"/>
-      <c r="N145" s="244"/>
-      <c r="O145" s="244"/>
-      <c r="P145" s="244"/>
-      <c r="Q145" s="244"/>
-      <c r="R145" s="244"/>
-      <c r="S145" s="244"/>
-      <c r="T145" s="244"/>
-      <c r="U145" s="244"/>
-      <c r="V145" s="244"/>
-      <c r="W145" s="244"/>
-      <c r="X145" s="244"/>
-      <c r="Y145" s="244"/>
-      <c r="Z145" s="244"/>
-      <c r="AA145" s="244"/>
-      <c r="AB145" s="244"/>
-      <c r="AC145" s="244"/>
-      <c r="AD145" s="244"/>
-      <c r="AE145" s="244"/>
-      <c r="AF145" s="244"/>
+      <c r="B145" s="170"/>
+      <c r="C145" s="170"/>
+      <c r="D145" s="170"/>
+      <c r="E145" s="170"/>
+      <c r="F145" s="170"/>
+      <c r="G145" s="170"/>
+      <c r="H145" s="170"/>
+      <c r="I145" s="170"/>
+      <c r="J145" s="170"/>
+      <c r="K145" s="170"/>
+      <c r="L145" s="170"/>
+      <c r="M145" s="170"/>
+      <c r="N145" s="170"/>
+      <c r="O145" s="170"/>
+      <c r="P145" s="170"/>
+      <c r="Q145" s="170"/>
+      <c r="R145" s="170"/>
+      <c r="S145" s="170"/>
+      <c r="T145" s="170"/>
+      <c r="U145" s="170"/>
+      <c r="V145" s="170"/>
+      <c r="W145" s="170"/>
+      <c r="X145" s="170"/>
+      <c r="Y145" s="170"/>
+      <c r="Z145" s="170"/>
+      <c r="AA145" s="170"/>
+      <c r="AB145" s="170"/>
+      <c r="AC145" s="170"/>
+      <c r="AD145" s="170"/>
+      <c r="AE145" s="170"/>
+      <c r="AF145" s="170"/>
     </row>
     <row r="146" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A146" s="187" t="s">
+      <c r="A146" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B146" s="187" t="s">
+      <c r="B146" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C146" s="185" t="s">
+      <c r="C146" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D146" s="184" t="s">
+      <c r="D146" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E146" s="171"/>
-      <c r="F146" s="170" t="s">
+      <c r="E146" s="183"/>
+      <c r="F146" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G146" s="171"/>
-      <c r="H146" s="170" t="s">
+      <c r="G146" s="183"/>
+      <c r="H146" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I146" s="171"/>
-      <c r="J146" s="170" t="s">
+      <c r="I146" s="183"/>
+      <c r="J146" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K146" s="171"/>
-      <c r="L146" s="170" t="s">
+      <c r="K146" s="183"/>
+      <c r="L146" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M146" s="171"/>
-      <c r="N146" s="170" t="s">
+      <c r="M146" s="183"/>
+      <c r="N146" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O146" s="171"/>
-      <c r="P146" s="170" t="s">
+      <c r="O146" s="183"/>
+      <c r="P146" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q146" s="171"/>
-      <c r="R146" s="170" t="s">
+      <c r="Q146" s="183"/>
+      <c r="R146" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S146" s="171"/>
-      <c r="T146" s="170" t="s">
+      <c r="S146" s="183"/>
+      <c r="T146" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U146" s="171"/>
-      <c r="V146" s="170" t="s">
+      <c r="U146" s="183"/>
+      <c r="V146" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W146" s="171"/>
-      <c r="X146" s="170" t="s">
+      <c r="W146" s="183"/>
+      <c r="X146" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y146" s="171"/>
-      <c r="Z146" s="170" t="s">
+      <c r="Y146" s="183"/>
+      <c r="Z146" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA146" s="171"/>
-      <c r="AB146" s="205" t="s">
+      <c r="AA146" s="183"/>
+      <c r="AB146" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="AC146" s="199" t="s">
+      <c r="AC146" s="226" t="s">
         <v>628</v>
       </c>
-      <c r="AD146" s="174" t="s">
+      <c r="AD146" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE146" s="169" t="s">
+      <c r="AE146" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF146" s="169" t="s">
+      <c r="AF146" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="147" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A147" s="188"/>
-      <c r="B147" s="188"/>
-      <c r="C147" s="186"/>
+      <c r="A147" s="201"/>
+      <c r="B147" s="201"/>
+      <c r="C147" s="191"/>
       <c r="D147" s="73" t="s">
         <v>14</v>
       </c>
@@ -16437,14 +16438,14 @@
       <c r="AA147" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB147" s="206"/>
-      <c r="AC147" s="200"/>
-      <c r="AD147" s="174"/>
-      <c r="AE147" s="169"/>
-      <c r="AF147" s="169"/>
+      <c r="AB147" s="225"/>
+      <c r="AC147" s="193"/>
+      <c r="AD147" s="176"/>
+      <c r="AE147" s="166"/>
+      <c r="AF147" s="166"/>
     </row>
     <row r="148" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A148" s="179" t="s">
+      <c r="A148" s="206" t="s">
         <v>47</v>
       </c>
       <c r="B148" s="15" t="s">
@@ -16500,18 +16501,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD148" s="176" t="str">
+      <c r="AD148" s="228" t="str">
         <f>CONCATENATE(AC148,AC149,AC150,AC151)</f>
         <v/>
       </c>
       <c r="AE148" s="117"/>
-      <c r="AF148" s="235" t="str">
+      <c r="AF148" s="164" t="str">
         <f>CONCATENATE(AE148,AE149,AE150,AE151)</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:32" s="10" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A149" s="198"/>
+      <c r="A149" s="207"/>
       <c r="B149" s="94" t="s">
         <v>584</v>
       </c>
@@ -16565,7 +16566,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD149" s="192"/>
+      <c r="AD149" s="229"/>
       <c r="AE149" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16573,10 +16574,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF149" s="235"/>
+      <c r="AF149" s="164"/>
     </row>
     <row r="150" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A150" s="198"/>
+      <c r="A150" s="207"/>
       <c r="B150" s="15" t="s">
         <v>585</v>
       </c>
@@ -16612,12 +16613,12 @@
         <v>0</v>
       </c>
       <c r="AC150" s="112"/>
-      <c r="AD150" s="192"/>
+      <c r="AD150" s="229"/>
       <c r="AE150" s="117"/>
-      <c r="AF150" s="235"/>
+      <c r="AF150" s="164"/>
     </row>
     <row r="151" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A151" s="198"/>
+      <c r="A151" s="207"/>
       <c r="B151" s="99" t="s">
         <v>586</v>
       </c>
@@ -16671,124 +16672,124 @@
 )</f>
         <v/>
       </c>
-      <c r="AD151" s="192"/>
+      <c r="AD151" s="229"/>
       <c r="AE151" s="119"/>
-      <c r="AF151" s="235"/>
+      <c r="AF151" s="164"/>
     </row>
     <row r="152" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A152" s="244" t="s">
+      <c r="A152" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="244"/>
-      <c r="C152" s="244"/>
-      <c r="D152" s="244"/>
-      <c r="E152" s="244"/>
-      <c r="F152" s="244"/>
-      <c r="G152" s="244"/>
-      <c r="H152" s="244"/>
-      <c r="I152" s="244"/>
-      <c r="J152" s="244"/>
-      <c r="K152" s="244"/>
-      <c r="L152" s="244"/>
-      <c r="M152" s="244"/>
-      <c r="N152" s="244"/>
-      <c r="O152" s="244"/>
-      <c r="P152" s="244"/>
-      <c r="Q152" s="244"/>
-      <c r="R152" s="244"/>
-      <c r="S152" s="244"/>
-      <c r="T152" s="244"/>
-      <c r="U152" s="244"/>
-      <c r="V152" s="244"/>
-      <c r="W152" s="244"/>
-      <c r="X152" s="244"/>
-      <c r="Y152" s="244"/>
-      <c r="Z152" s="244"/>
-      <c r="AA152" s="244"/>
-      <c r="AB152" s="244"/>
-      <c r="AC152" s="244"/>
-      <c r="AD152" s="244"/>
-      <c r="AE152" s="244"/>
-      <c r="AF152" s="244"/>
+      <c r="B152" s="170"/>
+      <c r="C152" s="170"/>
+      <c r="D152" s="170"/>
+      <c r="E152" s="170"/>
+      <c r="F152" s="170"/>
+      <c r="G152" s="170"/>
+      <c r="H152" s="170"/>
+      <c r="I152" s="170"/>
+      <c r="J152" s="170"/>
+      <c r="K152" s="170"/>
+      <c r="L152" s="170"/>
+      <c r="M152" s="170"/>
+      <c r="N152" s="170"/>
+      <c r="O152" s="170"/>
+      <c r="P152" s="170"/>
+      <c r="Q152" s="170"/>
+      <c r="R152" s="170"/>
+      <c r="S152" s="170"/>
+      <c r="T152" s="170"/>
+      <c r="U152" s="170"/>
+      <c r="V152" s="170"/>
+      <c r="W152" s="170"/>
+      <c r="X152" s="170"/>
+      <c r="Y152" s="170"/>
+      <c r="Z152" s="170"/>
+      <c r="AA152" s="170"/>
+      <c r="AB152" s="170"/>
+      <c r="AC152" s="170"/>
+      <c r="AD152" s="170"/>
+      <c r="AE152" s="170"/>
+      <c r="AF152" s="170"/>
     </row>
     <row r="153" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A153" s="187" t="s">
+      <c r="A153" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B153" s="187" t="s">
+      <c r="B153" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C153" s="185" t="s">
+      <c r="C153" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D153" s="184" t="s">
+      <c r="D153" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E153" s="171"/>
-      <c r="F153" s="170" t="s">
+      <c r="E153" s="183"/>
+      <c r="F153" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G153" s="171"/>
-      <c r="H153" s="170" t="s">
+      <c r="G153" s="183"/>
+      <c r="H153" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I153" s="171"/>
-      <c r="J153" s="170" t="s">
+      <c r="I153" s="183"/>
+      <c r="J153" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K153" s="171"/>
-      <c r="L153" s="170" t="s">
+      <c r="K153" s="183"/>
+      <c r="L153" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M153" s="171"/>
-      <c r="N153" s="170" t="s">
+      <c r="M153" s="183"/>
+      <c r="N153" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O153" s="171"/>
-      <c r="P153" s="170" t="s">
+      <c r="O153" s="183"/>
+      <c r="P153" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q153" s="171"/>
-      <c r="R153" s="170" t="s">
+      <c r="Q153" s="183"/>
+      <c r="R153" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S153" s="171"/>
-      <c r="T153" s="170" t="s">
+      <c r="S153" s="183"/>
+      <c r="T153" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U153" s="171"/>
-      <c r="V153" s="170" t="s">
+      <c r="U153" s="183"/>
+      <c r="V153" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W153" s="171"/>
-      <c r="X153" s="170" t="s">
+      <c r="W153" s="183"/>
+      <c r="X153" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y153" s="171"/>
-      <c r="Z153" s="170" t="s">
+      <c r="Y153" s="183"/>
+      <c r="Z153" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA153" s="171"/>
-      <c r="AB153" s="205" t="s">
+      <c r="AA153" s="183"/>
+      <c r="AB153" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="AC153" s="199" t="s">
+      <c r="AC153" s="226" t="s">
         <v>628</v>
       </c>
-      <c r="AD153" s="174" t="s">
+      <c r="AD153" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE153" s="169" t="s">
+      <c r="AE153" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF153" s="169" t="s">
+      <c r="AF153" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="154" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A154" s="188"/>
-      <c r="B154" s="188"/>
-      <c r="C154" s="186"/>
+      <c r="A154" s="201"/>
+      <c r="B154" s="201"/>
+      <c r="C154" s="191"/>
       <c r="D154" s="73" t="s">
         <v>14</v>
       </c>
@@ -16861,14 +16862,14 @@
       <c r="AA154" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB154" s="206"/>
-      <c r="AC154" s="200"/>
-      <c r="AD154" s="174"/>
-      <c r="AE154" s="169"/>
-      <c r="AF154" s="169"/>
+      <c r="AB154" s="225"/>
+      <c r="AC154" s="193"/>
+      <c r="AD154" s="176"/>
+      <c r="AE154" s="166"/>
+      <c r="AF154" s="166"/>
     </row>
     <row r="155" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A155" s="179" t="s">
+      <c r="A155" s="206" t="s">
         <v>36</v>
       </c>
       <c r="B155" s="15" t="s">
@@ -16924,18 +16925,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD155" s="176" t="str">
+      <c r="AD155" s="228" t="str">
         <f>CONCATENATE(AC155,AC156,AC157,AC158,AC159,AC160,AC161,AC162,AC163,AC164,AC165)</f>
         <v/>
       </c>
       <c r="AE155" s="117"/>
-      <c r="AF155" s="235" t="str">
+      <c r="AF155" s="164" t="str">
         <f>CONCATENATE(AE155,AE156,AE157,AE158,AE159,AE160,AE161,AE162,AE163,AE164,AE165)</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:32" s="10" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A156" s="198"/>
+      <c r="A156" s="207"/>
       <c r="B156" s="15" t="s">
         <v>430</v>
       </c>
@@ -16971,12 +16972,12 @@
         <v>0</v>
       </c>
       <c r="AC156" s="112"/>
-      <c r="AD156" s="192"/>
+      <c r="AD156" s="229"/>
       <c r="AE156" s="117"/>
-      <c r="AF156" s="235"/>
+      <c r="AF156" s="164"/>
     </row>
     <row r="157" spans="1:32" s="10" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A157" s="198"/>
+      <c r="A157" s="207"/>
       <c r="B157" s="15" t="s">
         <v>431</v>
       </c>
@@ -17012,12 +17013,12 @@
         <v>0</v>
       </c>
       <c r="AC157" s="112"/>
-      <c r="AD157" s="192"/>
+      <c r="AD157" s="229"/>
       <c r="AE157" s="117"/>
-      <c r="AF157" s="235"/>
+      <c r="AF157" s="164"/>
     </row>
     <row r="158" spans="1:32" s="10" customFormat="1" ht="88.35" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A158" s="180"/>
+      <c r="A158" s="208"/>
       <c r="B158" s="15" t="s">
         <v>588</v>
       </c>
@@ -17053,12 +17054,12 @@
         <v>0</v>
       </c>
       <c r="AC158" s="112"/>
-      <c r="AD158" s="192"/>
+      <c r="AD158" s="229"/>
       <c r="AE158" s="117"/>
-      <c r="AF158" s="235"/>
+      <c r="AF158" s="164"/>
     </row>
     <row r="159" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A159" s="191" t="s">
+      <c r="A159" s="187" t="s">
         <v>146</v>
       </c>
       <c r="B159" s="15" t="s">
@@ -17096,12 +17097,12 @@
         <v>0</v>
       </c>
       <c r="AC159" s="112"/>
-      <c r="AD159" s="192"/>
+      <c r="AD159" s="229"/>
       <c r="AE159" s="117"/>
-      <c r="AF159" s="235"/>
+      <c r="AF159" s="164"/>
     </row>
     <row r="160" spans="1:32" s="10" customFormat="1" ht="161.44999999999999" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A160" s="191"/>
+      <c r="A160" s="187"/>
       <c r="B160" s="15" t="s">
         <v>435</v>
       </c>
@@ -17137,12 +17138,12 @@
         <v>0</v>
       </c>
       <c r="AC160" s="112"/>
-      <c r="AD160" s="192"/>
+      <c r="AD160" s="229"/>
       <c r="AE160" s="117"/>
-      <c r="AF160" s="235"/>
+      <c r="AF160" s="164"/>
     </row>
     <row r="161" spans="1:32" s="10" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A161" s="191"/>
+      <c r="A161" s="187"/>
       <c r="B161" s="15" t="s">
         <v>590</v>
       </c>
@@ -17178,12 +17179,12 @@
         <v>0</v>
       </c>
       <c r="AC161" s="112"/>
-      <c r="AD161" s="192"/>
+      <c r="AD161" s="229"/>
       <c r="AE161" s="117"/>
-      <c r="AF161" s="235"/>
+      <c r="AF161" s="164"/>
     </row>
     <row r="162" spans="1:32" s="10" customFormat="1" ht="158.1" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A162" s="191"/>
+      <c r="A162" s="187"/>
       <c r="B162" s="15" t="s">
         <v>591</v>
       </c>
@@ -17219,12 +17220,12 @@
         <v>0</v>
       </c>
       <c r="AC162" s="112"/>
-      <c r="AD162" s="192"/>
+      <c r="AD162" s="229"/>
       <c r="AE162" s="117"/>
-      <c r="AF162" s="235"/>
+      <c r="AF162" s="164"/>
     </row>
     <row r="163" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A163" s="191"/>
+      <c r="A163" s="187"/>
       <c r="B163" s="15" t="s">
         <v>438</v>
       </c>
@@ -17260,12 +17261,12 @@
         <v>0</v>
       </c>
       <c r="AC163" s="112"/>
-      <c r="AD163" s="192"/>
+      <c r="AD163" s="229"/>
       <c r="AE163" s="117"/>
-      <c r="AF163" s="235"/>
+      <c r="AF163" s="164"/>
     </row>
     <row r="164" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A164" s="191"/>
+      <c r="A164" s="187"/>
       <c r="B164" s="15" t="s">
         <v>592</v>
       </c>
@@ -17301,12 +17302,12 @@
         <v>0</v>
       </c>
       <c r="AC164" s="112"/>
-      <c r="AD164" s="192"/>
+      <c r="AD164" s="229"/>
       <c r="AE164" s="117"/>
-      <c r="AF164" s="235"/>
+      <c r="AF164" s="164"/>
     </row>
     <row r="165" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="1">
-      <c r="A165" s="204"/>
+      <c r="A165" s="223"/>
       <c r="B165" s="95" t="s">
         <v>593</v>
       </c>
@@ -17342,9 +17343,9 @@
         <v>0</v>
       </c>
       <c r="AC165" s="115"/>
-      <c r="AD165" s="193"/>
+      <c r="AD165" s="234"/>
       <c r="AE165" s="117"/>
-      <c r="AF165" s="235"/>
+      <c r="AF165" s="164"/>
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.7">
       <c r="A166" s="6"/>
@@ -17384,8 +17385,277 @@
       <c r="M169" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pQx7NKCp+y5dcTv72V6wqgPVYfDJ7MoGCY2tzEce0wPvshWVi9etdkCLqvparv7UgEkAahNEhoMU/bfIIS39dg==" saltValue="p0LAgFFDRCIHuc1eCGHD/Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="645NeKhGO8x89P5gMdxc26+B2HhAAWkWraTMm+muqqGD4z7tXTPbmOwdlDiZaIU67kQ8VQ7kYgCGRPihnF3KZw==" saltValue="ERzFagixgJPKtCNWaym0vA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="293">
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AE153:AE154"/>
+    <mergeCell ref="X146:Y146"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="Z120:AA120"/>
+    <mergeCell ref="AB120:AB121"/>
+    <mergeCell ref="AB135:AB136"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AD102:AD103"/>
+    <mergeCell ref="AD83:AD100"/>
+    <mergeCell ref="AD81:AD82"/>
+    <mergeCell ref="AD68:AD79"/>
+    <mergeCell ref="AD66:AD67"/>
+    <mergeCell ref="AD48:AD64"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="P153:Q153"/>
+    <mergeCell ref="R153:S153"/>
+    <mergeCell ref="T153:U153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="AD155:AD165"/>
+    <mergeCell ref="AD148:AD151"/>
+    <mergeCell ref="AD137:AD144"/>
+    <mergeCell ref="AD135:AD136"/>
+    <mergeCell ref="AD146:AD147"/>
+    <mergeCell ref="AD153:AD154"/>
+    <mergeCell ref="AD122:AD133"/>
+    <mergeCell ref="AD120:AD121"/>
+    <mergeCell ref="AD104:AD118"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="AD46:AD47"/>
+    <mergeCell ref="AD40:AD44"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="A123:A131"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="R120:S120"/>
+    <mergeCell ref="T120:U120"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X120:Y120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="V102:W102"/>
+    <mergeCell ref="X102:Y102"/>
+    <mergeCell ref="Z102:AA102"/>
+    <mergeCell ref="AB102:AB103"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="V135:W135"/>
+    <mergeCell ref="X135:Y135"/>
+    <mergeCell ref="Z135:AA135"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="R135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="AC153:AC154"/>
+    <mergeCell ref="AC146:AC147"/>
+    <mergeCell ref="AC135:AC136"/>
+    <mergeCell ref="AC120:AC121"/>
+    <mergeCell ref="AC102:AC103"/>
+    <mergeCell ref="AC130:AC131"/>
+    <mergeCell ref="AC132:AC133"/>
+    <mergeCell ref="AC128:AC129"/>
+    <mergeCell ref="AC126:AC127"/>
+    <mergeCell ref="AC109:AC110"/>
+    <mergeCell ref="AC104:AC105"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="V153:W153"/>
+    <mergeCell ref="X153:Y153"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="Z146:AA146"/>
+    <mergeCell ref="AB146:AB147"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="R146:S146"/>
+    <mergeCell ref="T146:U146"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="Z153:AA153"/>
+    <mergeCell ref="AB153:AB154"/>
+    <mergeCell ref="V146:W146"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="AE81:AE82"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="AC66:AC67"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="AB81:AB82"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="D38:I39"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A4:AF4"/>
+    <mergeCell ref="AE46:AE47"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="AB66:AB67"/>
+    <mergeCell ref="AE66:AE67"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="AC53:AC54"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="AF68:AF79"/>
+    <mergeCell ref="AF83:AF100"/>
+    <mergeCell ref="AF104:AF118"/>
+    <mergeCell ref="AF122:AF133"/>
+    <mergeCell ref="AF137:AF144"/>
+    <mergeCell ref="AF148:AF151"/>
+    <mergeCell ref="AC48:AC49"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AE102:AE103"/>
+    <mergeCell ref="AE120:AE121"/>
+    <mergeCell ref="AC115:AC116"/>
+    <mergeCell ref="AC113:AC114"/>
+    <mergeCell ref="AC111:AC112"/>
+    <mergeCell ref="AC46:AC47"/>
+    <mergeCell ref="AD8:AD36"/>
+    <mergeCell ref="AE146:AE147"/>
+    <mergeCell ref="AE135:AE136"/>
     <mergeCell ref="AF155:AF165"/>
     <mergeCell ref="AF8:AF36"/>
     <mergeCell ref="AF6:AF7"/>
@@ -17410,275 +17680,6 @@
     <mergeCell ref="A37:AF37"/>
     <mergeCell ref="AF40:AF44"/>
     <mergeCell ref="AF48:AF64"/>
-    <mergeCell ref="AF68:AF79"/>
-    <mergeCell ref="AF83:AF100"/>
-    <mergeCell ref="AF104:AF118"/>
-    <mergeCell ref="AF122:AF133"/>
-    <mergeCell ref="AF137:AF144"/>
-    <mergeCell ref="AF148:AF151"/>
-    <mergeCell ref="AC48:AC49"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AE102:AE103"/>
-    <mergeCell ref="AE120:AE121"/>
-    <mergeCell ref="AC115:AC116"/>
-    <mergeCell ref="AC113:AC114"/>
-    <mergeCell ref="AC111:AC112"/>
-    <mergeCell ref="AC46:AC47"/>
-    <mergeCell ref="AD8:AD36"/>
-    <mergeCell ref="AE146:AE147"/>
-    <mergeCell ref="AE135:AE136"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="A2:AC2"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="AE46:AE47"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="AB66:AB67"/>
-    <mergeCell ref="AE66:AE67"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="AC53:AC54"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="D38:I39"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A4:AF4"/>
-    <mergeCell ref="AE81:AE82"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="AC66:AC67"/>
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="AB81:AB82"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="V153:W153"/>
-    <mergeCell ref="X153:Y153"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="Z146:AA146"/>
-    <mergeCell ref="AB146:AB147"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="L146:M146"/>
-    <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="R146:S146"/>
-    <mergeCell ref="T146:U146"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="Z153:AA153"/>
-    <mergeCell ref="AB153:AB154"/>
-    <mergeCell ref="V146:W146"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="AC153:AC154"/>
-    <mergeCell ref="AC146:AC147"/>
-    <mergeCell ref="AC135:AC136"/>
-    <mergeCell ref="AC120:AC121"/>
-    <mergeCell ref="AC102:AC103"/>
-    <mergeCell ref="AC130:AC131"/>
-    <mergeCell ref="AC132:AC133"/>
-    <mergeCell ref="AC128:AC129"/>
-    <mergeCell ref="AC126:AC127"/>
-    <mergeCell ref="AC109:AC110"/>
-    <mergeCell ref="AC104:AC105"/>
-    <mergeCell ref="V135:W135"/>
-    <mergeCell ref="X135:Y135"/>
-    <mergeCell ref="Z135:AA135"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="R135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="AD46:AD47"/>
-    <mergeCell ref="AD40:AD44"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="A123:A131"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="R120:S120"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="X120:Y120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="V102:W102"/>
-    <mergeCell ref="X102:Y102"/>
-    <mergeCell ref="Z102:AA102"/>
-    <mergeCell ref="AB102:AB103"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="AD155:AD165"/>
-    <mergeCell ref="AD148:AD151"/>
-    <mergeCell ref="AD137:AD144"/>
-    <mergeCell ref="AD135:AD136"/>
-    <mergeCell ref="AD146:AD147"/>
-    <mergeCell ref="AD153:AD154"/>
-    <mergeCell ref="AD122:AD133"/>
-    <mergeCell ref="AD120:AD121"/>
-    <mergeCell ref="AD104:AD118"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="P153:Q153"/>
-    <mergeCell ref="R153:S153"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AE153:AE154"/>
-    <mergeCell ref="X146:Y146"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="Z120:AA120"/>
-    <mergeCell ref="AB120:AB121"/>
-    <mergeCell ref="AB135:AB136"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="AB46:AB47"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AD102:AD103"/>
-    <mergeCell ref="AD83:AD100"/>
-    <mergeCell ref="AD81:AD82"/>
-    <mergeCell ref="AD68:AD79"/>
-    <mergeCell ref="AD66:AD67"/>
-    <mergeCell ref="AD48:AD64"/>
   </mergeCells>
   <conditionalFormatting sqref="AC8">
     <cfRule type="notContainsBlanks" dxfId="59" priority="68">

--- a/web/F1v2.xlsx
+++ b/web/F1v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GeofreyNyabuto\NetbeansProjects\InternalSystem\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC178322-7338-4F1F-9C9E-E065D72F4DF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9669CB-F129-4B27-A287-97731EF7A669}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="a4gUMdZCGkDDzElfhkvI/brsAlzI4GhD8wwWIVFJCtcL8IfIwqWYpVjV2Q6nijKW2ipnQ8sfmugbKli0802lfw==" workbookSaltValue="1iepslPG5jc+WSQINC8vKA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C7A72A4-46D5-4130-84F6-E2BF1F1A15D0}"/>
@@ -4675,6 +4675,24 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4684,14 +4702,59 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4702,78 +4765,237 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4785,228 +5007,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6344,13 +6344,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
     </row>
     <row r="2" spans="2:6" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="65" t="s">
@@ -6370,12 +6370,12 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="2:6" ht="96" customHeight="1" x14ac:dyDescent="0.45">
@@ -6822,16 +6822,16 @@
       </c>
     </row>
     <row r="31" spans="2:6" s="42" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="151" t="s">
+      <c r="B31" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="155"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="136"/>
     </row>
     <row r="32" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="134" t="s">
+      <c r="B32" s="140" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="38" t="s">
@@ -6843,12 +6843,12 @@
       <c r="E32" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="156" t="s">
+      <c r="F32" s="147" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="135"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="38" t="s">
         <v>222</v>
       </c>
@@ -6858,10 +6858,10 @@
       <c r="E33" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="157"/>
+      <c r="F33" s="148"/>
     </row>
     <row r="34" spans="2:6" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="135"/>
+      <c r="B34" s="141"/>
       <c r="C34" s="38" t="s">
         <v>227</v>
       </c>
@@ -6871,10 +6871,10 @@
       <c r="E34" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="157"/>
+      <c r="F34" s="148"/>
     </row>
     <row r="35" spans="2:6" ht="57.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="135"/>
+      <c r="B35" s="141"/>
       <c r="C35" s="38" t="s">
         <v>228</v>
       </c>
@@ -6884,10 +6884,10 @@
       <c r="E35" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="157"/>
+      <c r="F35" s="148"/>
     </row>
     <row r="36" spans="2:6" ht="72.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="136"/>
+      <c r="B36" s="142"/>
       <c r="C36" s="38" t="s">
         <v>230</v>
       </c>
@@ -6897,19 +6897,19 @@
       <c r="E36" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="158"/>
+      <c r="F36" s="149"/>
     </row>
     <row r="37" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="159" t="s">
+      <c r="B37" s="150" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="160"/>
-      <c r="D37" s="160"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="161"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="152"/>
     </row>
     <row r="38" spans="2:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="134" t="s">
+      <c r="B38" s="140" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="38" t="s">
@@ -6926,7 +6926,7 @@
       </c>
     </row>
     <row r="39" spans="2:6" ht="122.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="135"/>
+      <c r="B39" s="141"/>
       <c r="C39" s="38" t="s">
         <v>461</v>
       </c>
@@ -6941,7 +6941,7 @@
       </c>
     </row>
     <row r="40" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="135"/>
+      <c r="B40" s="141"/>
       <c r="C40" s="38" t="s">
         <v>462</v>
       </c>
@@ -6956,7 +6956,7 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="135"/>
+      <c r="B41" s="141"/>
       <c r="C41" s="38" t="s">
         <v>237</v>
       </c>
@@ -6971,7 +6971,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="135"/>
+      <c r="B42" s="141"/>
       <c r="C42" s="38" t="s">
         <v>463</v>
       </c>
@@ -6986,7 +6986,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="134" t="s">
+      <c r="B43" s="140" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="38" t="s">
@@ -7003,7 +7003,7 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="135"/>
+      <c r="B44" s="141"/>
       <c r="C44" s="38" t="s">
         <v>242</v>
       </c>
@@ -7018,7 +7018,7 @@
       </c>
     </row>
     <row r="45" spans="2:6" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="136"/>
+      <c r="B45" s="142"/>
       <c r="C45" s="38" t="s">
         <v>244</v>
       </c>
@@ -7140,7 +7140,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="162" t="s">
+      <c r="B53" s="155" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="32" t="s">
@@ -7157,7 +7157,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="92.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="163"/>
+      <c r="B54" s="156"/>
       <c r="C54" s="32" t="s">
         <v>258</v>
       </c>
@@ -7172,16 +7172,16 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="47.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="152"/>
-      <c r="D55" s="152"/>
-      <c r="E55" s="152"/>
-      <c r="F55" s="155"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="136"/>
     </row>
     <row r="56" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="134" t="s">
+      <c r="B56" s="140" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="38" t="s">
@@ -7198,7 +7198,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="136"/>
+      <c r="B57" s="142"/>
       <c r="C57" s="38" t="s">
         <v>471</v>
       </c>
@@ -7213,7 +7213,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="134" t="s">
+      <c r="B58" s="140" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="38" t="s">
@@ -7230,7 +7230,7 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="136"/>
+      <c r="B59" s="142"/>
       <c r="C59" s="38" t="s">
         <v>471</v>
       </c>
@@ -7245,7 +7245,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="143" t="s">
+      <c r="B60" s="153" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="50" t="s">
@@ -7262,7 +7262,7 @@
       </c>
     </row>
     <row r="61" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="144"/>
+      <c r="B61" s="154"/>
       <c r="C61" s="50" t="s">
         <v>474</v>
       </c>
@@ -7277,7 +7277,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" ht="62.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="143" t="s">
+      <c r="B62" s="153" t="s">
         <v>39</v>
       </c>
       <c r="C62" s="50" t="s">
@@ -7294,7 +7294,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="144"/>
+      <c r="B63" s="154"/>
       <c r="C63" s="50" t="s">
         <v>476</v>
       </c>
@@ -7309,7 +7309,7 @@
       </c>
     </row>
     <row r="64" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="143" t="s">
+      <c r="B64" s="153" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="50" t="s">
@@ -7326,7 +7326,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="144"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="50" t="s">
         <v>478</v>
       </c>
@@ -7341,7 +7341,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="143" t="s">
+      <c r="B66" s="153" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="50" t="s">
@@ -7358,7 +7358,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="144"/>
+      <c r="B67" s="154"/>
       <c r="C67" s="50" t="s">
         <v>480</v>
       </c>
@@ -7373,16 +7373,16 @@
       </c>
     </row>
     <row r="68" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="151" t="s">
+      <c r="B68" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="152"/>
-      <c r="D68" s="152"/>
-      <c r="E68" s="152"/>
-      <c r="F68" s="155"/>
+      <c r="C68" s="135"/>
+      <c r="D68" s="135"/>
+      <c r="E68" s="135"/>
+      <c r="F68" s="136"/>
     </row>
     <row r="69" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="134" t="s">
+      <c r="B69" s="140" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="38" t="s">
@@ -7399,7 +7399,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="135"/>
+      <c r="B70" s="141"/>
       <c r="C70" s="38" t="s">
         <v>288</v>
       </c>
@@ -7414,7 +7414,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="135"/>
+      <c r="B71" s="141"/>
       <c r="C71" s="38" t="s">
         <v>482</v>
       </c>
@@ -7429,7 +7429,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="135"/>
+      <c r="B72" s="141"/>
       <c r="C72" s="38" t="s">
         <v>483</v>
       </c>
@@ -7444,7 +7444,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="75.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="135"/>
+      <c r="B73" s="141"/>
       <c r="C73" s="38" t="s">
         <v>484</v>
       </c>
@@ -7459,7 +7459,7 @@
       </c>
     </row>
     <row r="74" spans="2:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="136"/>
+      <c r="B74" s="142"/>
       <c r="C74" s="38" t="s">
         <v>485</v>
       </c>
@@ -7474,7 +7474,7 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="134" t="s">
+      <c r="B75" s="140" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="38" t="s">
@@ -7491,7 +7491,7 @@
       </c>
     </row>
     <row r="76" spans="2:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="135"/>
+      <c r="B76" s="141"/>
       <c r="C76" s="38" t="s">
         <v>486</v>
       </c>
@@ -7506,7 +7506,7 @@
       </c>
     </row>
     <row r="77" spans="2:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="135"/>
+      <c r="B77" s="141"/>
       <c r="C77" s="38" t="s">
         <v>304</v>
       </c>
@@ -7521,7 +7521,7 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="135"/>
+      <c r="B78" s="141"/>
       <c r="C78" s="38" t="s">
         <v>306</v>
       </c>
@@ -7536,7 +7536,7 @@
       </c>
     </row>
     <row r="79" spans="2:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="135"/>
+      <c r="B79" s="141"/>
       <c r="C79" s="38" t="s">
         <v>484</v>
       </c>
@@ -7551,7 +7551,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" ht="96.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="136"/>
+      <c r="B80" s="142"/>
       <c r="C80" s="38" t="s">
         <v>309</v>
       </c>
@@ -7566,7 +7566,7 @@
       </c>
     </row>
     <row r="81" spans="2:6" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="134" t="s">
+      <c r="B81" s="140" t="s">
         <v>33</v>
       </c>
       <c r="C81" s="38" t="s">
@@ -7583,7 +7583,7 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="72.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="135"/>
+      <c r="B82" s="141"/>
       <c r="C82" s="38" t="s">
         <v>288</v>
       </c>
@@ -7598,7 +7598,7 @@
       </c>
     </row>
     <row r="83" spans="2:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="135"/>
+      <c r="B83" s="141"/>
       <c r="C83" s="38" t="s">
         <v>304</v>
       </c>
@@ -7613,7 +7613,7 @@
       </c>
     </row>
     <row r="84" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="135"/>
+      <c r="B84" s="141"/>
       <c r="C84" s="38" t="s">
         <v>483</v>
       </c>
@@ -7628,7 +7628,7 @@
       </c>
     </row>
     <row r="85" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="135"/>
+      <c r="B85" s="141"/>
       <c r="C85" s="38" t="s">
         <v>484</v>
       </c>
@@ -7643,7 +7643,7 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="136"/>
+      <c r="B86" s="142"/>
       <c r="C86" s="38" t="s">
         <v>309</v>
       </c>
@@ -7658,16 +7658,16 @@
       </c>
     </row>
     <row r="87" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="151" t="s">
+      <c r="B87" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="C87" s="152"/>
-      <c r="D87" s="152"/>
-      <c r="E87" s="152"/>
-      <c r="F87" s="155"/>
+      <c r="C87" s="135"/>
+      <c r="D87" s="135"/>
+      <c r="E87" s="135"/>
+      <c r="F87" s="136"/>
     </row>
     <row r="88" spans="2:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="B88" s="134" t="s">
+      <c r="B88" s="140" t="s">
         <v>44</v>
       </c>
       <c r="C88" s="38" t="s">
@@ -7684,7 +7684,7 @@
       </c>
     </row>
     <row r="89" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="136"/>
+      <c r="B89" s="142"/>
       <c r="C89" s="38" t="s">
         <v>488</v>
       </c>
@@ -7699,7 +7699,7 @@
       </c>
     </row>
     <row r="90" spans="2:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="134" t="s">
+      <c r="B90" s="140" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="38" t="s">
@@ -7716,7 +7716,7 @@
       </c>
     </row>
     <row r="91" spans="2:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="136"/>
+      <c r="B91" s="142"/>
       <c r="C91" s="38" t="s">
         <v>327</v>
       </c>
@@ -7731,7 +7731,7 @@
       </c>
     </row>
     <row r="92" spans="2:6" ht="51.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="134" t="s">
+      <c r="B92" s="140" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="32" t="s">
@@ -7748,7 +7748,7 @@
       </c>
     </row>
     <row r="93" spans="2:6" ht="52.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="135"/>
+      <c r="B93" s="141"/>
       <c r="C93" s="32" t="s">
         <v>339</v>
       </c>
@@ -7763,7 +7763,7 @@
       </c>
     </row>
     <row r="94" spans="2:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="135"/>
+      <c r="B94" s="141"/>
       <c r="C94" s="32" t="s">
         <v>340</v>
       </c>
@@ -7778,7 +7778,7 @@
       </c>
     </row>
     <row r="95" spans="2:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="135"/>
+      <c r="B95" s="141"/>
       <c r="C95" s="32" t="s">
         <v>343</v>
       </c>
@@ -7793,7 +7793,7 @@
       </c>
     </row>
     <row r="96" spans="2:6" ht="56.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="135"/>
+      <c r="B96" s="141"/>
       <c r="C96" s="32" t="s">
         <v>346</v>
       </c>
@@ -7808,7 +7808,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="135"/>
+      <c r="B97" s="141"/>
       <c r="C97" s="32" t="s">
         <v>490</v>
       </c>
@@ -7823,7 +7823,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="136"/>
+      <c r="B98" s="142"/>
       <c r="C98" s="32" t="s">
         <v>491</v>
       </c>
@@ -7838,7 +7838,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" s="48" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="148" t="s">
+      <c r="B99" s="158" t="s">
         <v>131</v>
       </c>
       <c r="C99" s="32" t="s">
@@ -7855,7 +7855,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="149"/>
+      <c r="B100" s="159"/>
       <c r="C100" s="32" t="s">
         <v>351</v>
       </c>
@@ -7870,7 +7870,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B101" s="149"/>
+      <c r="B101" s="159"/>
       <c r="C101" s="54" t="s">
         <v>493</v>
       </c>
@@ -7885,7 +7885,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="150"/>
+      <c r="B102" s="160"/>
       <c r="C102" s="54" t="s">
         <v>444</v>
       </c>
@@ -7900,13 +7900,13 @@
       </c>
     </row>
     <row r="103" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B103" s="151" t="s">
+      <c r="B103" s="134" t="s">
         <v>355</v>
       </c>
-      <c r="C103" s="152"/>
-      <c r="D103" s="152"/>
-      <c r="E103" s="152"/>
-      <c r="F103" s="155"/>
+      <c r="C103" s="135"/>
+      <c r="D103" s="135"/>
+      <c r="E103" s="135"/>
+      <c r="F103" s="136"/>
       <c r="H103" s="25" t="s">
         <v>448</v>
       </c>
@@ -7929,7 +7929,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B105" s="134" t="s">
+      <c r="B105" s="140" t="s">
         <v>46</v>
       </c>
       <c r="C105" s="38" t="s">
@@ -7946,7 +7946,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B106" s="135"/>
+      <c r="B106" s="141"/>
       <c r="C106" s="38" t="s">
         <v>359</v>
       </c>
@@ -7961,7 +7961,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" ht="83.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="135"/>
+      <c r="B107" s="141"/>
       <c r="C107" s="38" t="s">
         <v>360</v>
       </c>
@@ -7976,7 +7976,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="135"/>
+      <c r="B108" s="141"/>
       <c r="C108" s="38" t="s">
         <v>496</v>
       </c>
@@ -7991,7 +7991,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="135"/>
+      <c r="B109" s="141"/>
       <c r="C109" s="38" t="s">
         <v>365</v>
       </c>
@@ -8006,7 +8006,7 @@
       </c>
     </row>
     <row r="110" spans="2:8" ht="104.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B110" s="135"/>
+      <c r="B110" s="141"/>
       <c r="C110" s="38" t="s">
         <v>371</v>
       </c>
@@ -8021,7 +8021,7 @@
       </c>
     </row>
     <row r="111" spans="2:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B111" s="135"/>
+      <c r="B111" s="141"/>
       <c r="C111" s="38" t="s">
         <v>372</v>
       </c>
@@ -8036,7 +8036,7 @@
       </c>
     </row>
     <row r="112" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="135"/>
+      <c r="B112" s="141"/>
       <c r="C112" s="38" t="s">
         <v>374</v>
       </c>
@@ -8051,7 +8051,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" ht="98.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B113" s="135"/>
+      <c r="B113" s="141"/>
       <c r="C113" s="38" t="s">
         <v>375</v>
       </c>
@@ -8066,7 +8066,7 @@
       </c>
     </row>
     <row r="114" spans="2:6" ht="96.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B114" s="146" t="s">
+      <c r="B114" s="145" t="s">
         <v>149</v>
       </c>
       <c r="C114" s="32" t="s">
@@ -8083,7 +8083,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B115" s="147"/>
+      <c r="B115" s="146"/>
       <c r="C115" s="32" t="s">
         <v>381</v>
       </c>
@@ -8098,16 +8098,16 @@
       </c>
     </row>
     <row r="116" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B116" s="151" t="s">
+      <c r="B116" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="C116" s="152"/>
-      <c r="D116" s="152"/>
-      <c r="E116" s="152"/>
-      <c r="F116" s="152"/>
+      <c r="C116" s="135"/>
+      <c r="D116" s="135"/>
+      <c r="E116" s="135"/>
+      <c r="F116" s="135"/>
     </row>
     <row r="117" spans="2:6" ht="92.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B117" s="134" t="s">
+      <c r="B117" s="140" t="s">
         <v>35</v>
       </c>
       <c r="C117" s="38" t="s">
@@ -8124,7 +8124,7 @@
       </c>
     </row>
     <row r="118" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="135"/>
+      <c r="B118" s="141"/>
       <c r="C118" s="38" t="s">
         <v>384</v>
       </c>
@@ -8139,7 +8139,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="135"/>
+      <c r="B119" s="141"/>
       <c r="C119" s="38" t="s">
         <v>392</v>
       </c>
@@ -8154,7 +8154,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B120" s="135"/>
+      <c r="B120" s="141"/>
       <c r="C120" s="38" t="s">
         <v>393</v>
       </c>
@@ -8169,7 +8169,7 @@
       </c>
     </row>
     <row r="121" spans="2:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B121" s="136"/>
+      <c r="B121" s="142"/>
       <c r="C121" s="38" t="s">
         <v>394</v>
       </c>
@@ -8184,7 +8184,7 @@
       </c>
     </row>
     <row r="122" spans="2:6" ht="87.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="145" t="s">
+      <c r="B122" s="157" t="s">
         <v>173</v>
       </c>
       <c r="C122" s="38" t="s">
@@ -8201,7 +8201,7 @@
       </c>
     </row>
     <row r="123" spans="2:6" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B123" s="146"/>
+      <c r="B123" s="145"/>
       <c r="C123" s="38" t="s">
         <v>402</v>
       </c>
@@ -8216,7 +8216,7 @@
       </c>
     </row>
     <row r="124" spans="2:6" ht="120.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B124" s="147"/>
+      <c r="B124" s="146"/>
       <c r="C124" s="38" t="s">
         <v>405</v>
       </c>
@@ -8231,16 +8231,16 @@
       </c>
     </row>
     <row r="125" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="151" t="s">
+      <c r="B125" s="134" t="s">
         <v>176</v>
       </c>
-      <c r="C125" s="152"/>
-      <c r="D125" s="152"/>
-      <c r="E125" s="152"/>
-      <c r="F125" s="155"/>
+      <c r="C125" s="135"/>
+      <c r="D125" s="135"/>
+      <c r="E125" s="135"/>
+      <c r="F125" s="136"/>
     </row>
     <row r="126" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B126" s="134" t="s">
+      <c r="B126" s="140" t="s">
         <v>47</v>
       </c>
       <c r="C126" s="38" t="s">
@@ -8257,7 +8257,7 @@
       </c>
     </row>
     <row r="127" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B127" s="135"/>
+      <c r="B127" s="141"/>
       <c r="C127" s="58" t="s">
         <v>409</v>
       </c>
@@ -8272,7 +8272,7 @@
       </c>
     </row>
     <row r="128" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B128" s="135"/>
+      <c r="B128" s="141"/>
       <c r="C128" s="38" t="s">
         <v>503</v>
       </c>
@@ -8287,7 +8287,7 @@
       </c>
     </row>
     <row r="129" spans="2:6" ht="77.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B129" s="136"/>
+      <c r="B129" s="142"/>
       <c r="C129" s="38" t="s">
         <v>414</v>
       </c>
@@ -8302,16 +8302,16 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B130" s="151" t="s">
+      <c r="B130" s="134" t="s">
         <v>177</v>
       </c>
-      <c r="C130" s="152"/>
-      <c r="D130" s="152"/>
-      <c r="E130" s="152"/>
-      <c r="F130" s="155"/>
+      <c r="C130" s="135"/>
+      <c r="D130" s="135"/>
+      <c r="E130" s="135"/>
+      <c r="F130" s="136"/>
     </row>
     <row r="131" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B131" s="134" t="s">
+      <c r="B131" s="140" t="s">
         <v>36</v>
       </c>
       <c r="C131" s="38" t="s">
@@ -8328,7 +8328,7 @@
       </c>
     </row>
     <row r="132" spans="2:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B132" s="135"/>
+      <c r="B132" s="141"/>
       <c r="C132" s="38" t="s">
         <v>430</v>
       </c>
@@ -8343,7 +8343,7 @@
       </c>
     </row>
     <row r="133" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="135"/>
+      <c r="B133" s="141"/>
       <c r="C133" s="38" t="s">
         <v>431</v>
       </c>
@@ -8358,7 +8358,7 @@
       </c>
     </row>
     <row r="134" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B134" s="136"/>
+      <c r="B134" s="142"/>
       <c r="C134" s="38" t="s">
         <v>504</v>
       </c>
@@ -8373,7 +8373,7 @@
       </c>
     </row>
     <row r="135" spans="2:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B135" s="134" t="s">
+      <c r="B135" s="140" t="s">
         <v>505</v>
       </c>
       <c r="C135" s="38" t="s">
@@ -8390,7 +8390,7 @@
       </c>
     </row>
     <row r="136" spans="2:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B136" s="135"/>
+      <c r="B136" s="141"/>
       <c r="C136" s="38" t="s">
         <v>435</v>
       </c>
@@ -8403,7 +8403,7 @@
       <c r="F136" s="138"/>
     </row>
     <row r="137" spans="2:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B137" s="135"/>
+      <c r="B137" s="141"/>
       <c r="C137" s="38" t="s">
         <v>436</v>
       </c>
@@ -8416,7 +8416,7 @@
       <c r="F137" s="138"/>
     </row>
     <row r="138" spans="2:6" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B138" s="135"/>
+      <c r="B138" s="141"/>
       <c r="C138" s="38" t="s">
         <v>437</v>
       </c>
@@ -8429,7 +8429,7 @@
       <c r="F138" s="138"/>
     </row>
     <row r="139" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B139" s="135"/>
+      <c r="B139" s="141"/>
       <c r="C139" s="38" t="s">
         <v>438</v>
       </c>
@@ -8442,7 +8442,7 @@
       <c r="F139" s="138"/>
     </row>
     <row r="140" spans="2:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B140" s="135"/>
+      <c r="B140" s="141"/>
       <c r="C140" s="38" t="s">
         <v>439</v>
       </c>
@@ -8455,7 +8455,7 @@
       <c r="F140" s="138"/>
     </row>
     <row r="141" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B141" s="136"/>
+      <c r="B141" s="142"/>
       <c r="C141" s="60" t="s">
         <v>440</v>
       </c>
@@ -8469,11 +8469,23 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="F135:F141"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B105:B113"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B116:F116"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B114:B115"/>
@@ -8490,23 +8502,11 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="B105:B113"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="F135:F141"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B131:B134"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="26" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8527,10 +8527,10 @@
   <dimension ref="A1:AF169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="19" zoomScaleNormal="19" zoomScaleSheetLayoutView="23" zoomScalePageLayoutView="21" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomRight" activeCell="AD122" sqref="AD122:AD133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="46.5" x14ac:dyDescent="0.7"/>
@@ -8551,82 +8551,82 @@
       <c r="A1" s="130" t="s">
         <v>630</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="197" t="s">
+      <c r="B1" s="231"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="233" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="198"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="197" t="s">
+      <c r="E1" s="234"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="233" t="s">
         <v>629</v>
       </c>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="239" t="s">
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165" t="s">
         <v>640</v>
       </c>
-      <c r="S1" s="239"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
-      <c r="V1" s="240"/>
-      <c r="W1" s="241" t="s">
+      <c r="S1" s="165"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="167" t="s">
         <v>631</v>
       </c>
-      <c r="X1" s="242"/>
+      <c r="X1" s="168"/>
       <c r="Y1" s="131"/>
       <c r="Z1" s="132" t="s">
         <v>632</v>
       </c>
-      <c r="AA1" s="199"/>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="180" t="s">
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="224" t="s">
         <v>637</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="181"/>
+      <c r="AD1" s="225"/>
+      <c r="AE1" s="225"/>
+      <c r="AF1" s="225"/>
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="226" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186"/>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="186"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
+      <c r="M2" s="226"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="226"/>
+      <c r="AB2" s="226"/>
+      <c r="AC2" s="226"/>
       <c r="AD2" s="67"/>
     </row>
     <row r="3" spans="1:32" s="7" customFormat="1" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
@@ -8650,155 +8650,155 @@
       <c r="AD3" s="71"/>
     </row>
     <row r="4" spans="1:32" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="218" t="s">
+      <c r="A4" s="217" t="s">
         <v>641</v>
       </c>
-      <c r="B4" s="219"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="219"/>
-      <c r="K4" s="219"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="219"/>
-      <c r="N4" s="219"/>
-      <c r="O4" s="219"/>
-      <c r="P4" s="219"/>
-      <c r="Q4" s="219"/>
-      <c r="R4" s="219"/>
-      <c r="S4" s="219"/>
-      <c r="T4" s="219"/>
-      <c r="U4" s="219"/>
-      <c r="V4" s="219"/>
-      <c r="W4" s="219"/>
-      <c r="X4" s="219"/>
-      <c r="Y4" s="219"/>
-      <c r="Z4" s="219"/>
-      <c r="AA4" s="219"/>
-      <c r="AB4" s="219"/>
-      <c r="AC4" s="219"/>
-      <c r="AD4" s="219"/>
-      <c r="AE4" s="219"/>
-      <c r="AF4" s="220"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
+      <c r="K4" s="218"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="218"/>
+      <c r="N4" s="218"/>
+      <c r="O4" s="218"/>
+      <c r="P4" s="218"/>
+      <c r="Q4" s="218"/>
+      <c r="R4" s="218"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="218"/>
+      <c r="U4" s="218"/>
+      <c r="V4" s="218"/>
+      <c r="W4" s="218"/>
+      <c r="X4" s="218"/>
+      <c r="Y4" s="218"/>
+      <c r="Z4" s="218"/>
+      <c r="AA4" s="218"/>
+      <c r="AB4" s="218"/>
+      <c r="AC4" s="218"/>
+      <c r="AD4" s="218"/>
+      <c r="AE4" s="218"/>
+      <c r="AF4" s="219"/>
     </row>
     <row r="5" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="168"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="168"/>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="168"/>
-      <c r="AE5" s="168"/>
-      <c r="AF5" s="169"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="242"/>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="242"/>
+      <c r="R5" s="242"/>
+      <c r="S5" s="242"/>
+      <c r="T5" s="242"/>
+      <c r="U5" s="242"/>
+      <c r="V5" s="242"/>
+      <c r="W5" s="242"/>
+      <c r="X5" s="242"/>
+      <c r="Y5" s="242"/>
+      <c r="Z5" s="242"/>
+      <c r="AA5" s="242"/>
+      <c r="AB5" s="242"/>
+      <c r="AC5" s="242"/>
+      <c r="AD5" s="242"/>
+      <c r="AE5" s="242"/>
+      <c r="AF5" s="243"/>
     </row>
     <row r="6" spans="1:32" s="24" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A6" s="233" t="s">
+      <c r="A6" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="233" t="s">
+      <c r="B6" s="197" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="232" t="s">
+      <c r="C6" s="196" t="s">
         <v>508</v>
       </c>
-      <c r="D6" s="211" t="s">
+      <c r="D6" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="185"/>
-      <c r="F6" s="184" t="s">
+      <c r="E6" s="195"/>
+      <c r="F6" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="185"/>
-      <c r="H6" s="184" t="s">
+      <c r="G6" s="195"/>
+      <c r="H6" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="185"/>
-      <c r="J6" s="184" t="s">
+      <c r="I6" s="195"/>
+      <c r="J6" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="185"/>
-      <c r="L6" s="184" t="s">
+      <c r="K6" s="195"/>
+      <c r="L6" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="185"/>
-      <c r="N6" s="184" t="s">
+      <c r="M6" s="195"/>
+      <c r="N6" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="185"/>
-      <c r="P6" s="184" t="s">
+      <c r="O6" s="195"/>
+      <c r="P6" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="185"/>
-      <c r="R6" s="184" t="s">
+      <c r="Q6" s="195"/>
+      <c r="R6" s="194" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="185"/>
-      <c r="T6" s="184" t="s">
+      <c r="S6" s="195"/>
+      <c r="T6" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="185"/>
-      <c r="V6" s="184" t="s">
+      <c r="U6" s="195"/>
+      <c r="V6" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="185"/>
-      <c r="X6" s="184" t="s">
+      <c r="W6" s="195"/>
+      <c r="X6" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="185"/>
-      <c r="Z6" s="184" t="s">
+      <c r="Y6" s="195"/>
+      <c r="Z6" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="185"/>
-      <c r="AB6" s="194" t="s">
+      <c r="AA6" s="195"/>
+      <c r="AB6" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="AC6" s="192" t="s">
+      <c r="AC6" s="229" t="s">
         <v>628</v>
       </c>
-      <c r="AD6" s="176" t="s">
+      <c r="AD6" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE6" s="166" t="s">
+      <c r="AE6" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF6" s="166" t="s">
+      <c r="AF6" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:32" s="24" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A7" s="233"/>
-      <c r="B7" s="233"/>
-      <c r="C7" s="232"/>
+      <c r="A7" s="197"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="196"/>
       <c r="D7" s="74" t="s">
         <v>14</v>
       </c>
@@ -8871,14 +8871,14 @@
       <c r="AA7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB7" s="194"/>
-      <c r="AC7" s="193"/>
-      <c r="AD7" s="176"/>
-      <c r="AE7" s="166"/>
-      <c r="AF7" s="166"/>
+      <c r="AB7" s="230"/>
+      <c r="AC7" s="200"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="169"/>
+      <c r="AF7" s="169"/>
     </row>
     <row r="8" spans="1:32" s="10" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="227" t="s">
         <v>141</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -8915,7 +8915,7 @@
         <f t="shared" ref="AB8:AB12" si="0">SUM(D8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="173" t="str">
+      <c r="AC8" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D9&gt;D8," * F01-02 " &amp;D6&amp;" "&amp; D7&amp; " is more than F01-01"&amp;CHAR(10),""),IF(E9&gt;E8," * F01-02 " &amp;D6&amp;" "&amp; E7&amp; " is more than F01-01"&amp;CHAR(10),""),
@@ -8934,18 +8934,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD8" s="179" t="str">
+      <c r="AD8" s="239" t="str">
         <f>CONCATENATE(AC8,AC10,AC11,AC12,AC14,AC15,AC16,AC17,AC19,AC21,AC23,AC25,AC27,AC29,AC31,AC33,AC35)</f>
         <v/>
       </c>
       <c r="AE8" s="117"/>
-      <c r="AF8" s="165" t="str">
+      <c r="AF8" s="240" t="str">
         <f>CONCATENATE(AE8,AE9,AE10,AE11,AE12,AE13,AE14,AE15,AE16,AE17,AE18,AE19,AE20,AE21,AE22,AE23,AE24,AE25,AE26,AE27,AE28,AE29,AE30,AE31,AE32,AE33,AE34,AE35,AE36)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:32" s="10" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A9" s="189"/>
+      <c r="A9" s="228"/>
       <c r="B9" s="15" t="s">
         <v>507</v>
       </c>
@@ -8980,13 +8980,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="174"/>
-      <c r="AD9" s="179"/>
+      <c r="AC9" s="221"/>
+      <c r="AD9" s="239"/>
       <c r="AE9" s="117"/>
-      <c r="AF9" s="165"/>
+      <c r="AF9" s="240"/>
     </row>
     <row r="10" spans="1:32" s="10" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A10" s="189"/>
+      <c r="A10" s="228"/>
       <c r="B10" s="15" t="s">
         <v>509</v>
       </c>
@@ -9040,12 +9040,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD10" s="179"/>
+      <c r="AD10" s="239"/>
       <c r="AE10" s="117"/>
-      <c r="AF10" s="165"/>
+      <c r="AF10" s="240"/>
     </row>
     <row r="11" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="189"/>
+      <c r="A11" s="228"/>
       <c r="B11" s="15" t="s">
         <v>510</v>
       </c>
@@ -9081,12 +9081,12 @@
         <v>0</v>
       </c>
       <c r="AC11" s="111"/>
-      <c r="AD11" s="179"/>
+      <c r="AD11" s="239"/>
       <c r="AE11" s="117"/>
-      <c r="AF11" s="165"/>
+      <c r="AF11" s="240"/>
     </row>
     <row r="12" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="189"/>
+      <c r="A12" s="228"/>
       <c r="B12" s="15" t="s">
         <v>511</v>
       </c>
@@ -9121,7 +9121,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="173" t="str">
+      <c r="AC12" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D13&gt;D12," * Positive F01-06 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested  F01-05"&amp;CHAR(10),""),IF(E13&gt;E12," * Positive F01-06 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested  F01-05"&amp;CHAR(10),""),
@@ -9140,7 +9140,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD12" s="179"/>
+      <c r="AD12" s="239"/>
       <c r="AE12" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9148,10 +9148,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF12" s="165"/>
+      <c r="AF12" s="240"/>
     </row>
     <row r="13" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="189"/>
+      <c r="A13" s="228"/>
       <c r="B13" s="15" t="s">
         <v>512</v>
       </c>
@@ -9186,13 +9186,13 @@
         <f>SUM(D13:AA13)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="174"/>
-      <c r="AD13" s="179"/>
+      <c r="AC13" s="221"/>
+      <c r="AD13" s="239"/>
       <c r="AE13" s="117"/>
-      <c r="AF13" s="165"/>
+      <c r="AF13" s="240"/>
     </row>
     <row r="14" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="189"/>
+      <c r="A14" s="228"/>
       <c r="B14" s="15" t="s">
         <v>513</v>
       </c>
@@ -9228,12 +9228,12 @@
         <v>0</v>
       </c>
       <c r="AC14" s="111"/>
-      <c r="AD14" s="179"/>
+      <c r="AD14" s="239"/>
       <c r="AE14" s="117"/>
-      <c r="AF14" s="165"/>
+      <c r="AF14" s="240"/>
     </row>
     <row r="15" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="189"/>
+      <c r="A15" s="228"/>
       <c r="B15" s="15" t="s">
         <v>514</v>
       </c>
@@ -9269,12 +9269,12 @@
         <v>0</v>
       </c>
       <c r="AC15" s="111"/>
-      <c r="AD15" s="179"/>
+      <c r="AD15" s="239"/>
       <c r="AE15" s="117"/>
-      <c r="AF15" s="165"/>
+      <c r="AF15" s="240"/>
     </row>
     <row r="16" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="189"/>
+      <c r="A16" s="228"/>
       <c r="B16" s="15" t="s">
         <v>515</v>
       </c>
@@ -9310,12 +9310,12 @@
         <v>0</v>
       </c>
       <c r="AC16" s="111"/>
-      <c r="AD16" s="179"/>
+      <c r="AD16" s="239"/>
       <c r="AE16" s="117"/>
-      <c r="AF16" s="165"/>
+      <c r="AF16" s="240"/>
     </row>
     <row r="17" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="187" t="s">
+      <c r="A17" s="191" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -9352,7 +9352,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="173" t="str">
+      <c r="AC17" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D18&gt;D17," * Positive F01-11 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested  F01-10"&amp;CHAR(10),""),IF(E18&gt;E17," * Positive F01-11 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested  F01-10"&amp;CHAR(10),""),
@@ -9371,7 +9371,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD17" s="179"/>
+      <c r="AD17" s="239"/>
       <c r="AE17" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9379,10 +9379,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF17" s="165"/>
+      <c r="AF17" s="240"/>
     </row>
     <row r="18" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="187"/>
+      <c r="A18" s="191"/>
       <c r="B18" s="15" t="s">
         <v>517</v>
       </c>
@@ -9417,13 +9417,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="174"/>
-      <c r="AD18" s="179"/>
+      <c r="AC18" s="221"/>
+      <c r="AD18" s="239"/>
       <c r="AE18" s="117"/>
-      <c r="AF18" s="165"/>
+      <c r="AF18" s="240"/>
     </row>
     <row r="19" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="187" t="s">
+      <c r="A19" s="191" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -9460,7 +9460,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="173" t="str">
+      <c r="AC19" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D20&gt;D19," * Positive F01-13 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-12"&amp;CHAR(10),""),IF(E20&gt;E19," * Positive F01-13 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-12"&amp;CHAR(10),""),
@@ -9479,7 +9479,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD19" s="179"/>
+      <c r="AD19" s="239"/>
       <c r="AE19" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9487,10 +9487,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF19" s="165"/>
+      <c r="AF19" s="240"/>
     </row>
     <row r="20" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="187"/>
+      <c r="A20" s="191"/>
       <c r="B20" s="15" t="s">
         <v>519</v>
       </c>
@@ -9525,8 +9525,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="174"/>
-      <c r="AD20" s="179"/>
+      <c r="AC20" s="221"/>
+      <c r="AD20" s="239"/>
       <c r="AE20" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9541,10 +9541,10 @@
 "")</f>
         <v/>
       </c>
-      <c r="AF20" s="165"/>
+      <c r="AF20" s="240"/>
     </row>
     <row r="21" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A21" s="187" t="s">
+      <c r="A21" s="191" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -9581,7 +9581,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="173" t="str">
+      <c r="AC21" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D22&gt;D21," * Positive F01-15 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-14"&amp;CHAR(10),""),IF(E22&gt;E21," * Positive F01-15 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-14"&amp;CHAR(10),""),
@@ -9600,7 +9600,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD21" s="179"/>
+      <c r="AD21" s="239"/>
       <c r="AE21" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9608,10 +9608,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF21" s="165"/>
+      <c r="AF21" s="240"/>
     </row>
     <row r="22" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A22" s="187"/>
+      <c r="A22" s="191"/>
       <c r="B22" s="15" t="s">
         <v>519</v>
       </c>
@@ -9646,13 +9646,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="174"/>
-      <c r="AD22" s="179"/>
+      <c r="AC22" s="221"/>
+      <c r="AD22" s="239"/>
       <c r="AE22" s="117"/>
-      <c r="AF22" s="165"/>
+      <c r="AF22" s="240"/>
     </row>
     <row r="23" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A23" s="187" t="s">
+      <c r="A23" s="191" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -9689,7 +9689,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="173" t="str">
+      <c r="AC23" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D24&gt;D23," * Positive F01-17 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-16"&amp;CHAR(10),""),IF(E24&gt;E23," * Positive F01-17 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-16"&amp;CHAR(10),""),
@@ -9708,7 +9708,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD23" s="179"/>
+      <c r="AD23" s="239"/>
       <c r="AE23" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9716,10 +9716,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF23" s="165"/>
+      <c r="AF23" s="240"/>
     </row>
     <row r="24" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A24" s="187"/>
+      <c r="A24" s="191"/>
       <c r="B24" s="15" t="s">
         <v>519</v>
       </c>
@@ -9754,13 +9754,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="174"/>
-      <c r="AD24" s="179"/>
+      <c r="AC24" s="221"/>
+      <c r="AD24" s="239"/>
       <c r="AE24" s="117"/>
-      <c r="AF24" s="165"/>
+      <c r="AF24" s="240"/>
     </row>
     <row r="25" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A25" s="187" t="s">
+      <c r="A25" s="191" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -9797,7 +9797,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="173" t="str">
+      <c r="AC25" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D26&gt;D25," * Positive F01-19 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-18"&amp;CHAR(10),""),IF(E26&gt;E25," * Positive F01-19 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-18"&amp;CHAR(10),""),
@@ -9816,7 +9816,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD25" s="179"/>
+      <c r="AD25" s="239"/>
       <c r="AE25" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9824,10 +9824,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF25" s="165"/>
+      <c r="AF25" s="240"/>
     </row>
     <row r="26" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A26" s="187"/>
+      <c r="A26" s="191"/>
       <c r="B26" s="15" t="s">
         <v>519</v>
       </c>
@@ -9862,13 +9862,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="174"/>
-      <c r="AD26" s="179"/>
+      <c r="AC26" s="221"/>
+      <c r="AD26" s="239"/>
       <c r="AE26" s="117"/>
-      <c r="AF26" s="165"/>
+      <c r="AF26" s="240"/>
     </row>
     <row r="27" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A27" s="187" t="s">
+      <c r="A27" s="191" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -9905,7 +9905,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="173" t="str">
+      <c r="AC27" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D28&gt;D27," * Positive F01-21 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-20"&amp;CHAR(10),""),IF(E28&gt;E27," * Positive F01-21 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-20"&amp;CHAR(10),""),
@@ -9924,7 +9924,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD27" s="179"/>
+      <c r="AD27" s="239"/>
       <c r="AE27" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9932,10 +9932,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF27" s="165"/>
+      <c r="AF27" s="240"/>
     </row>
     <row r="28" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A28" s="187"/>
+      <c r="A28" s="191"/>
       <c r="B28" s="15" t="s">
         <v>519</v>
       </c>
@@ -9970,13 +9970,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="174"/>
-      <c r="AD28" s="179"/>
+      <c r="AC28" s="221"/>
+      <c r="AD28" s="239"/>
       <c r="AE28" s="117"/>
-      <c r="AF28" s="165"/>
+      <c r="AF28" s="240"/>
     </row>
     <row r="29" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A29" s="187" t="s">
+      <c r="A29" s="191" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -10013,7 +10013,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="173" t="str">
+      <c r="AC29" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D30&gt;D29," * Positive F01-23 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-22"&amp;CHAR(10),""),IF(E30&gt;E29," * Positive F01-23 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-22"&amp;CHAR(10),""),
@@ -10032,7 +10032,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD29" s="179"/>
+      <c r="AD29" s="239"/>
       <c r="AE29" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10040,10 +10040,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF29" s="165"/>
+      <c r="AF29" s="240"/>
     </row>
     <row r="30" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A30" s="187"/>
+      <c r="A30" s="191"/>
       <c r="B30" s="15" t="s">
         <v>519</v>
       </c>
@@ -10078,13 +10078,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="174"/>
-      <c r="AD30" s="179"/>
+      <c r="AC30" s="221"/>
+      <c r="AD30" s="239"/>
       <c r="AE30" s="117"/>
-      <c r="AF30" s="165"/>
+      <c r="AF30" s="240"/>
     </row>
     <row r="31" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A31" s="187" t="s">
+      <c r="A31" s="191" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -10121,7 +10121,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="173" t="str">
+      <c r="AC31" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D32&gt;D31," * Positive F01-25 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-24"&amp;CHAR(10),""),IF(E32&gt;E31," * Positive F01-25 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-24"&amp;CHAR(10),""),
@@ -10140,7 +10140,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD31" s="179"/>
+      <c r="AD31" s="239"/>
       <c r="AE31" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10148,10 +10148,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF31" s="165"/>
+      <c r="AF31" s="240"/>
     </row>
     <row r="32" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A32" s="187"/>
+      <c r="A32" s="191"/>
       <c r="B32" s="15" t="s">
         <v>519</v>
       </c>
@@ -10186,13 +10186,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="174"/>
-      <c r="AD32" s="179"/>
+      <c r="AC32" s="221"/>
+      <c r="AD32" s="239"/>
       <c r="AE32" s="117"/>
-      <c r="AF32" s="165"/>
+      <c r="AF32" s="240"/>
     </row>
     <row r="33" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A33" s="206" t="s">
+      <c r="A33" s="179" t="s">
         <v>133</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -10229,7 +10229,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="173" t="str">
+      <c r="AC33" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D34&gt;D33," * Positive F01-27 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-26"&amp;CHAR(10),""),IF(E34&gt;E33," * Positive F01-27 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-26"&amp;CHAR(10),""),
@@ -10248,7 +10248,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD33" s="179"/>
+      <c r="AD33" s="239"/>
       <c r="AE33" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10256,10 +10256,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF33" s="165"/>
+      <c r="AF33" s="240"/>
     </row>
     <row r="34" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A34" s="208"/>
+      <c r="A34" s="180"/>
       <c r="B34" s="15" t="s">
         <v>519</v>
       </c>
@@ -10294,13 +10294,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="174"/>
-      <c r="AD34" s="179"/>
+      <c r="AC34" s="221"/>
+      <c r="AD34" s="239"/>
       <c r="AE34" s="117"/>
-      <c r="AF34" s="165"/>
+      <c r="AF34" s="240"/>
     </row>
     <row r="35" spans="1:32" s="18" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A35" s="204" t="s">
+      <c r="A35" s="222" t="s">
         <v>157</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -10409,7 +10409,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="173" t="str">
+      <c r="AC35" s="220" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D36&gt;D35," * Totals HTS Positive F01-29 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Total Tested F01-28"&amp;CHAR(10),""),IF(E36&gt;E35," * Totals HTS Positive F01-29 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Total Tested F01-28"&amp;CHAR(10),""),
@@ -10428,7 +10428,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD35" s="179"/>
+      <c r="AD35" s="239"/>
       <c r="AE35" s="118" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10436,10 +10436,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF35" s="165"/>
+      <c r="AF35" s="240"/>
     </row>
     <row r="36" spans="1:32" s="18" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A36" s="205"/>
+      <c r="A36" s="223"/>
       <c r="B36" s="107" t="s">
         <v>522</v>
       </c>
@@ -10546,8 +10546,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC36" s="175"/>
-      <c r="AD36" s="179"/>
+      <c r="AC36" s="238"/>
+      <c r="AD36" s="239"/>
       <c r="AE36" s="118" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10555,122 +10555,122 @@
 )</f>
         <v/>
       </c>
-      <c r="AF36" s="165"/>
+      <c r="AF36" s="240"/>
     </row>
     <row r="37" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A37" s="170" t="s">
+      <c r="A37" s="244" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="170"/>
-      <c r="L37" s="170"/>
-      <c r="M37" s="170"/>
-      <c r="N37" s="170"/>
-      <c r="O37" s="170"/>
-      <c r="P37" s="170"/>
-      <c r="Q37" s="170"/>
-      <c r="R37" s="170"/>
-      <c r="S37" s="170"/>
-      <c r="T37" s="170"/>
-      <c r="U37" s="170"/>
-      <c r="V37" s="170"/>
-      <c r="W37" s="170"/>
-      <c r="X37" s="170"/>
-      <c r="Y37" s="170"/>
-      <c r="Z37" s="170"/>
-      <c r="AA37" s="170"/>
-      <c r="AB37" s="170"/>
-      <c r="AC37" s="170"/>
-      <c r="AD37" s="170"/>
-      <c r="AE37" s="170"/>
-      <c r="AF37" s="170"/>
+      <c r="B37" s="244"/>
+      <c r="C37" s="244"/>
+      <c r="D37" s="244"/>
+      <c r="E37" s="244"/>
+      <c r="F37" s="244"/>
+      <c r="G37" s="244"/>
+      <c r="H37" s="244"/>
+      <c r="I37" s="244"/>
+      <c r="J37" s="244"/>
+      <c r="K37" s="244"/>
+      <c r="L37" s="244"/>
+      <c r="M37" s="244"/>
+      <c r="N37" s="244"/>
+      <c r="O37" s="244"/>
+      <c r="P37" s="244"/>
+      <c r="Q37" s="244"/>
+      <c r="R37" s="244"/>
+      <c r="S37" s="244"/>
+      <c r="T37" s="244"/>
+      <c r="U37" s="244"/>
+      <c r="V37" s="244"/>
+      <c r="W37" s="244"/>
+      <c r="X37" s="244"/>
+      <c r="Y37" s="244"/>
+      <c r="Z37" s="244"/>
+      <c r="AA37" s="244"/>
+      <c r="AB37" s="244"/>
+      <c r="AC37" s="244"/>
+      <c r="AD37" s="244"/>
+      <c r="AE37" s="244"/>
+      <c r="AF37" s="244"/>
     </row>
     <row r="38" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A38" s="200" t="s">
+      <c r="A38" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="200" t="s">
+      <c r="B38" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C38" s="190" t="s">
+      <c r="C38" s="185" t="s">
         <v>508</v>
       </c>
-      <c r="D38" s="212"/>
-      <c r="E38" s="213"/>
-      <c r="F38" s="213"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="210" t="s">
+      <c r="D38" s="211"/>
+      <c r="E38" s="212"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="212"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="213"/>
+      <c r="J38" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="183"/>
-      <c r="L38" s="182" t="s">
+      <c r="K38" s="171"/>
+      <c r="L38" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="183"/>
-      <c r="N38" s="182" t="s">
+      <c r="M38" s="171"/>
+      <c r="N38" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O38" s="183"/>
-      <c r="P38" s="182" t="s">
+      <c r="O38" s="171"/>
+      <c r="P38" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q38" s="183"/>
-      <c r="R38" s="182" t="s">
+      <c r="Q38" s="171"/>
+      <c r="R38" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S38" s="183"/>
-      <c r="T38" s="182" t="s">
+      <c r="S38" s="171"/>
+      <c r="T38" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U38" s="183"/>
-      <c r="V38" s="182" t="s">
+      <c r="U38" s="171"/>
+      <c r="V38" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W38" s="183"/>
-      <c r="X38" s="182" t="s">
+      <c r="W38" s="171"/>
+      <c r="X38" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y38" s="183"/>
-      <c r="Z38" s="182" t="s">
+      <c r="Y38" s="171"/>
+      <c r="Z38" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA38" s="183"/>
-      <c r="AB38" s="202" t="s">
+      <c r="AA38" s="171"/>
+      <c r="AB38" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="AC38" s="176" t="s">
+      <c r="AC38" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="AD38" s="176" t="s">
+      <c r="AD38" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE38" s="166" t="s">
+      <c r="AE38" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF38" s="166" t="s">
+      <c r="AF38" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A39" s="201"/>
-      <c r="B39" s="201"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="215"/>
-      <c r="E39" s="216"/>
-      <c r="F39" s="216"/>
-      <c r="G39" s="216"/>
-      <c r="H39" s="216"/>
-      <c r="I39" s="217"/>
+      <c r="A39" s="188"/>
+      <c r="B39" s="188"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="214"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="215"/>
+      <c r="I39" s="216"/>
       <c r="J39" s="74" t="s">
         <v>14</v>
       </c>
@@ -10725,14 +10725,14 @@
       <c r="AA39" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB39" s="203"/>
-      <c r="AC39" s="176"/>
-      <c r="AD39" s="176"/>
-      <c r="AE39" s="166"/>
-      <c r="AF39" s="166"/>
+      <c r="AB39" s="173"/>
+      <c r="AC39" s="174"/>
+      <c r="AD39" s="174"/>
+      <c r="AE39" s="169"/>
+      <c r="AF39" s="169"/>
     </row>
     <row r="40" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A40" s="187" t="s">
+      <c r="A40" s="191" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -10770,18 +10770,18 @@
         <v>0</v>
       </c>
       <c r="AC40" s="112"/>
-      <c r="AD40" s="228" t="str">
+      <c r="AD40" s="176" t="str">
         <f>CONCATENATE(AC40,AC41,AC42,AC43,AC44)</f>
         <v/>
       </c>
       <c r="AE40" s="117"/>
-      <c r="AF40" s="164" t="str">
+      <c r="AF40" s="235" t="str">
         <f>CONCATENATE(AE40,AE41,AE42,AE43,AE44)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A41" s="187"/>
+      <c r="A41" s="191"/>
       <c r="B41" s="15" t="s">
         <v>222</v>
       </c>
@@ -10817,12 +10817,12 @@
         <v>0</v>
       </c>
       <c r="AC41" s="112"/>
-      <c r="AD41" s="229"/>
+      <c r="AD41" s="192"/>
       <c r="AE41" s="117"/>
-      <c r="AF41" s="164"/>
+      <c r="AF41" s="235"/>
     </row>
     <row r="42" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A42" s="187"/>
+      <c r="A42" s="191"/>
       <c r="B42" s="15" t="s">
         <v>524</v>
       </c>
@@ -10858,12 +10858,12 @@
         <v>0</v>
       </c>
       <c r="AC42" s="112"/>
-      <c r="AD42" s="229"/>
+      <c r="AD42" s="192"/>
       <c r="AE42" s="117"/>
-      <c r="AF42" s="164"/>
+      <c r="AF42" s="235"/>
     </row>
     <row r="43" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A43" s="187"/>
+      <c r="A43" s="191"/>
       <c r="B43" s="15" t="s">
         <v>525</v>
       </c>
@@ -10899,12 +10899,12 @@
         <v>0</v>
       </c>
       <c r="AC43" s="112"/>
-      <c r="AD43" s="229"/>
+      <c r="AD43" s="192"/>
       <c r="AE43" s="117"/>
-      <c r="AF43" s="164"/>
+      <c r="AF43" s="235"/>
     </row>
     <row r="44" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A44" s="206"/>
+      <c r="A44" s="179"/>
       <c r="B44" s="99" t="s">
         <v>526</v>
       </c>
@@ -10940,54 +10940,54 @@
         <v>0</v>
       </c>
       <c r="AC44" s="113"/>
-      <c r="AD44" s="229"/>
+      <c r="AD44" s="192"/>
       <c r="AE44" s="119"/>
-      <c r="AF44" s="164"/>
+      <c r="AF44" s="235"/>
     </row>
     <row r="45" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A45" s="170" t="s">
+      <c r="A45" s="244" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="170"/>
-      <c r="J45" s="170"/>
-      <c r="K45" s="170"/>
-      <c r="L45" s="170"/>
-      <c r="M45" s="170"/>
-      <c r="N45" s="170"/>
-      <c r="O45" s="170"/>
-      <c r="P45" s="170"/>
-      <c r="Q45" s="170"/>
-      <c r="R45" s="170"/>
-      <c r="S45" s="170"/>
-      <c r="T45" s="170"/>
-      <c r="U45" s="170"/>
-      <c r="V45" s="170"/>
-      <c r="W45" s="170"/>
-      <c r="X45" s="170"/>
-      <c r="Y45" s="170"/>
-      <c r="Z45" s="170"/>
-      <c r="AA45" s="170"/>
-      <c r="AB45" s="170"/>
-      <c r="AC45" s="170"/>
-      <c r="AD45" s="170"/>
-      <c r="AE45" s="170"/>
-      <c r="AF45" s="170"/>
+      <c r="B45" s="244"/>
+      <c r="C45" s="244"/>
+      <c r="D45" s="244"/>
+      <c r="E45" s="244"/>
+      <c r="F45" s="244"/>
+      <c r="G45" s="244"/>
+      <c r="H45" s="244"/>
+      <c r="I45" s="244"/>
+      <c r="J45" s="244"/>
+      <c r="K45" s="244"/>
+      <c r="L45" s="244"/>
+      <c r="M45" s="244"/>
+      <c r="N45" s="244"/>
+      <c r="O45" s="244"/>
+      <c r="P45" s="244"/>
+      <c r="Q45" s="244"/>
+      <c r="R45" s="244"/>
+      <c r="S45" s="244"/>
+      <c r="T45" s="244"/>
+      <c r="U45" s="244"/>
+      <c r="V45" s="244"/>
+      <c r="W45" s="244"/>
+      <c r="X45" s="244"/>
+      <c r="Y45" s="244"/>
+      <c r="Z45" s="244"/>
+      <c r="AA45" s="244"/>
+      <c r="AB45" s="244"/>
+      <c r="AC45" s="244"/>
+      <c r="AD45" s="244"/>
+      <c r="AE45" s="244"/>
+      <c r="AF45" s="244"/>
     </row>
     <row r="46" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A46" s="200" t="s">
+      <c r="A46" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="200" t="s">
+      <c r="B46" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C46" s="190" t="s">
+      <c r="C46" s="185" t="s">
         <v>508</v>
       </c>
       <c r="D46" s="78"/>
@@ -10996,62 +10996,62 @@
       <c r="G46" s="79"/>
       <c r="H46" s="79"/>
       <c r="I46" s="80"/>
-      <c r="J46" s="182" t="s">
+      <c r="J46" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="183"/>
-      <c r="L46" s="182" t="s">
+      <c r="K46" s="171"/>
+      <c r="L46" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="183"/>
-      <c r="N46" s="182" t="s">
+      <c r="M46" s="171"/>
+      <c r="N46" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O46" s="183"/>
-      <c r="P46" s="182" t="s">
+      <c r="O46" s="171"/>
+      <c r="P46" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q46" s="183"/>
-      <c r="R46" s="182" t="s">
+      <c r="Q46" s="171"/>
+      <c r="R46" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S46" s="183"/>
-      <c r="T46" s="182" t="s">
+      <c r="S46" s="171"/>
+      <c r="T46" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U46" s="183"/>
-      <c r="V46" s="182" t="s">
+      <c r="U46" s="171"/>
+      <c r="V46" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W46" s="183"/>
-      <c r="X46" s="182" t="s">
+      <c r="W46" s="171"/>
+      <c r="X46" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y46" s="183"/>
-      <c r="Z46" s="182" t="s">
+      <c r="Y46" s="171"/>
+      <c r="Z46" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA46" s="183"/>
-      <c r="AB46" s="202" t="s">
+      <c r="AA46" s="171"/>
+      <c r="AB46" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="AC46" s="176" t="s">
+      <c r="AC46" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="AD46" s="176" t="s">
+      <c r="AD46" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE46" s="166" t="s">
+      <c r="AE46" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF46" s="166" t="s">
+      <c r="AF46" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="47" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A47" s="201"/>
-      <c r="B47" s="201"/>
-      <c r="C47" s="191"/>
+      <c r="A47" s="188"/>
+      <c r="B47" s="188"/>
+      <c r="C47" s="186"/>
       <c r="D47" s="78"/>
       <c r="E47" s="79"/>
       <c r="F47" s="79"/>
@@ -11112,14 +11112,14 @@
       <c r="AA47" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB47" s="203"/>
-      <c r="AC47" s="176"/>
-      <c r="AD47" s="176"/>
-      <c r="AE47" s="166"/>
-      <c r="AF47" s="166"/>
+      <c r="AB47" s="173"/>
+      <c r="AC47" s="174"/>
+      <c r="AD47" s="174"/>
+      <c r="AE47" s="169"/>
+      <c r="AF47" s="169"/>
     </row>
     <row r="48" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A48" s="230" t="s">
+      <c r="A48" s="181" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -11156,7 +11156,7 @@
         <f>SUM(D48:AA48)</f>
         <v>0</v>
       </c>
-      <c r="AC48" s="171" t="str">
+      <c r="AC48" s="236" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D49&gt;D48," * Eligible for PrEP  for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Assessed for HIV risk"&amp;CHAR(10),""),IF(E49&gt;E48," * Eligible for PrEP  for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Assessed for HIV risk"&amp;CHAR(10),""),
@@ -11175,18 +11175,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD48" s="243" t="str">
+      <c r="AD48" s="177" t="str">
         <f>CONCATENATE(AC48,AC50,AC51,AC52,AC53,AC55,AC56,AC57,AC58,AC59,AC60,AC61,AC62,AC63,AC64)</f>
         <v/>
       </c>
       <c r="AE48" s="117"/>
-      <c r="AF48" s="164" t="str">
+      <c r="AF48" s="235" t="str">
         <f>CONCATENATE(AE48,AE49,AE50,AE51,AE52,AE53,AE54,AE55,AE56,AE57,AE58,AE59,AE60,AE61,AE62,AE63,AE64)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A49" s="231"/>
+      <c r="A49" s="182"/>
       <c r="B49" s="15" t="s">
         <v>633</v>
       </c>
@@ -11221,13 +11221,13 @@
         <f t="shared" ref="AB49:AB62" si="5">SUM(D49:AA49)</f>
         <v>0</v>
       </c>
-      <c r="AC49" s="172"/>
-      <c r="AD49" s="244"/>
+      <c r="AC49" s="237"/>
+      <c r="AD49" s="178"/>
       <c r="AE49" s="117"/>
-      <c r="AF49" s="164"/>
+      <c r="AF49" s="235"/>
     </row>
     <row r="50" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A50" s="231"/>
+      <c r="A50" s="182"/>
       <c r="B50" s="15" t="s">
         <v>528</v>
       </c>
@@ -11281,7 +11281,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD50" s="244"/>
+      <c r="AD50" s="178"/>
       <c r="AE50" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -11289,10 +11289,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF50" s="164"/>
+      <c r="AF50" s="235"/>
     </row>
     <row r="51" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A51" s="231"/>
+      <c r="A51" s="182"/>
       <c r="B51" s="15" t="s">
         <v>237</v>
       </c>
@@ -11328,12 +11328,12 @@
         <v>0</v>
       </c>
       <c r="AC51" s="112"/>
-      <c r="AD51" s="244"/>
+      <c r="AD51" s="178"/>
       <c r="AE51" s="117"/>
-      <c r="AF51" s="164"/>
+      <c r="AF51" s="235"/>
     </row>
     <row r="52" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A52" s="231"/>
+      <c r="A52" s="182"/>
       <c r="B52" s="15" t="s">
         <v>529</v>
       </c>
@@ -11369,12 +11369,12 @@
         <v>0</v>
       </c>
       <c r="AC52" s="112"/>
-      <c r="AD52" s="244"/>
+      <c r="AD52" s="178"/>
       <c r="AE52" s="117"/>
-      <c r="AF52" s="164"/>
+      <c r="AF52" s="235"/>
     </row>
     <row r="53" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A53" s="187" t="s">
+      <c r="A53" s="191" t="s">
         <v>37</v>
       </c>
       <c r="B53" s="15" t="s">
@@ -11411,7 +11411,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="177" t="str">
+      <c r="AC53" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D54&gt;D53," * F02-07 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F02-06"&amp;CHAR(10),""),IF(E54&gt;E53," * F02-07 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F02-06"&amp;CHAR(10),""),
@@ -11430,12 +11430,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD53" s="244"/>
+      <c r="AD53" s="178"/>
       <c r="AE53" s="117"/>
-      <c r="AF53" s="164"/>
+      <c r="AF53" s="235"/>
     </row>
     <row r="54" spans="1:32" s="10" customFormat="1" ht="83.85" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A54" s="187"/>
+      <c r="A54" s="191"/>
       <c r="B54" s="15" t="s">
         <v>530</v>
       </c>
@@ -11470,13 +11470,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="178"/>
-      <c r="AD54" s="244"/>
+      <c r="AC54" s="202"/>
+      <c r="AD54" s="178"/>
       <c r="AE54" s="117"/>
-      <c r="AF54" s="164"/>
+      <c r="AF54" s="235"/>
     </row>
     <row r="55" spans="1:32" s="10" customFormat="1" ht="83.85" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A55" s="187"/>
+      <c r="A55" s="191"/>
       <c r="B55" s="15" t="s">
         <v>531</v>
       </c>
@@ -11512,12 +11512,12 @@
         <v>0</v>
       </c>
       <c r="AC55" s="112"/>
-      <c r="AD55" s="244"/>
+      <c r="AD55" s="178"/>
       <c r="AE55" s="117"/>
-      <c r="AF55" s="164"/>
+      <c r="AF55" s="235"/>
     </row>
     <row r="56" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A56" s="206" t="s">
+      <c r="A56" s="179" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -11555,12 +11555,12 @@
         <v>0</v>
       </c>
       <c r="AC56" s="112"/>
-      <c r="AD56" s="244"/>
+      <c r="AD56" s="178"/>
       <c r="AE56" s="117"/>
-      <c r="AF56" s="164"/>
+      <c r="AF56" s="235"/>
     </row>
     <row r="57" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A57" s="207"/>
+      <c r="A57" s="198"/>
       <c r="B57" s="15" t="s">
         <v>533</v>
       </c>
@@ -11596,12 +11596,12 @@
         <v>0</v>
       </c>
       <c r="AC57" s="112"/>
-      <c r="AD57" s="244"/>
+      <c r="AD57" s="178"/>
       <c r="AE57" s="117"/>
-      <c r="AF57" s="164"/>
+      <c r="AF57" s="235"/>
     </row>
     <row r="58" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A58" s="207"/>
+      <c r="A58" s="198"/>
       <c r="B58" s="15" t="s">
         <v>248</v>
       </c>
@@ -11637,12 +11637,12 @@
         <v>0</v>
       </c>
       <c r="AC58" s="112"/>
-      <c r="AD58" s="244"/>
+      <c r="AD58" s="178"/>
       <c r="AE58" s="117"/>
-      <c r="AF58" s="164"/>
+      <c r="AF58" s="235"/>
     </row>
     <row r="59" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A59" s="207"/>
+      <c r="A59" s="198"/>
       <c r="B59" s="15" t="s">
         <v>534</v>
       </c>
@@ -11678,12 +11678,12 @@
         <v>0</v>
       </c>
       <c r="AC59" s="112"/>
-      <c r="AD59" s="244"/>
+      <c r="AD59" s="178"/>
       <c r="AE59" s="117"/>
-      <c r="AF59" s="164"/>
+      <c r="AF59" s="235"/>
     </row>
     <row r="60" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A60" s="207"/>
+      <c r="A60" s="198"/>
       <c r="B60" s="15" t="s">
         <v>535</v>
       </c>
@@ -11719,12 +11719,12 @@
         <v>0</v>
       </c>
       <c r="AC60" s="112"/>
-      <c r="AD60" s="244"/>
+      <c r="AD60" s="178"/>
       <c r="AE60" s="117"/>
-      <c r="AF60" s="164"/>
+      <c r="AF60" s="235"/>
     </row>
     <row r="61" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A61" s="207"/>
+      <c r="A61" s="198"/>
       <c r="B61" s="15" t="s">
         <v>536</v>
       </c>
@@ -11760,12 +11760,12 @@
         <v>0</v>
       </c>
       <c r="AC61" s="112"/>
-      <c r="AD61" s="244"/>
+      <c r="AD61" s="178"/>
       <c r="AE61" s="117"/>
-      <c r="AF61" s="164"/>
+      <c r="AF61" s="235"/>
     </row>
     <row r="62" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A62" s="208"/>
+      <c r="A62" s="180"/>
       <c r="B62" s="15" t="s">
         <v>537</v>
       </c>
@@ -11801,12 +11801,12 @@
         <v>0</v>
       </c>
       <c r="AC62" s="112"/>
-      <c r="AD62" s="244"/>
+      <c r="AD62" s="178"/>
       <c r="AE62" s="117"/>
-      <c r="AF62" s="164"/>
+      <c r="AF62" s="235"/>
     </row>
     <row r="63" spans="1:32" s="10" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A63" s="206" t="s">
+      <c r="A63" s="179" t="s">
         <v>134</v>
       </c>
       <c r="B63" s="93" t="s">
@@ -11841,12 +11841,12 @@
       <c r="AA63" s="87"/>
       <c r="AB63" s="125"/>
       <c r="AC63" s="112"/>
-      <c r="AD63" s="244"/>
+      <c r="AD63" s="178"/>
       <c r="AE63" s="117"/>
-      <c r="AF63" s="164"/>
+      <c r="AF63" s="235"/>
     </row>
     <row r="64" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A64" s="207"/>
+      <c r="A64" s="198"/>
       <c r="B64" s="104" t="s">
         <v>539</v>
       </c>
@@ -11879,124 +11879,124 @@
       <c r="AA64" s="101"/>
       <c r="AB64" s="126"/>
       <c r="AC64" s="113"/>
-      <c r="AD64" s="244"/>
+      <c r="AD64" s="178"/>
       <c r="AE64" s="119"/>
-      <c r="AF64" s="164"/>
+      <c r="AF64" s="235"/>
     </row>
     <row r="65" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A65" s="170" t="s">
+      <c r="A65" s="244" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="170"/>
-      <c r="C65" s="170"/>
-      <c r="D65" s="170"/>
-      <c r="E65" s="170"/>
-      <c r="F65" s="170"/>
-      <c r="G65" s="170"/>
-      <c r="H65" s="170"/>
-      <c r="I65" s="170"/>
-      <c r="J65" s="170"/>
-      <c r="K65" s="170"/>
-      <c r="L65" s="170"/>
-      <c r="M65" s="170"/>
-      <c r="N65" s="170"/>
-      <c r="O65" s="170"/>
-      <c r="P65" s="170"/>
-      <c r="Q65" s="170"/>
-      <c r="R65" s="170"/>
-      <c r="S65" s="170"/>
-      <c r="T65" s="170"/>
-      <c r="U65" s="170"/>
-      <c r="V65" s="170"/>
-      <c r="W65" s="170"/>
-      <c r="X65" s="170"/>
-      <c r="Y65" s="170"/>
-      <c r="Z65" s="170"/>
-      <c r="AA65" s="170"/>
-      <c r="AB65" s="170"/>
-      <c r="AC65" s="170"/>
-      <c r="AD65" s="170"/>
-      <c r="AE65" s="170"/>
-      <c r="AF65" s="170"/>
+      <c r="B65" s="244"/>
+      <c r="C65" s="244"/>
+      <c r="D65" s="244"/>
+      <c r="E65" s="244"/>
+      <c r="F65" s="244"/>
+      <c r="G65" s="244"/>
+      <c r="H65" s="244"/>
+      <c r="I65" s="244"/>
+      <c r="J65" s="244"/>
+      <c r="K65" s="244"/>
+      <c r="L65" s="244"/>
+      <c r="M65" s="244"/>
+      <c r="N65" s="244"/>
+      <c r="O65" s="244"/>
+      <c r="P65" s="244"/>
+      <c r="Q65" s="244"/>
+      <c r="R65" s="244"/>
+      <c r="S65" s="244"/>
+      <c r="T65" s="244"/>
+      <c r="U65" s="244"/>
+      <c r="V65" s="244"/>
+      <c r="W65" s="244"/>
+      <c r="X65" s="244"/>
+      <c r="Y65" s="244"/>
+      <c r="Z65" s="244"/>
+      <c r="AA65" s="244"/>
+      <c r="AB65" s="244"/>
+      <c r="AC65" s="244"/>
+      <c r="AD65" s="244"/>
+      <c r="AE65" s="244"/>
+      <c r="AF65" s="244"/>
     </row>
     <row r="66" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A66" s="200" t="s">
+      <c r="A66" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="200" t="s">
+      <c r="B66" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C66" s="190" t="s">
+      <c r="C66" s="185" t="s">
         <v>508</v>
       </c>
-      <c r="D66" s="210" t="s">
+      <c r="D66" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="183"/>
-      <c r="F66" s="182" t="s">
+      <c r="E66" s="171"/>
+      <c r="F66" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="183"/>
-      <c r="H66" s="182" t="s">
+      <c r="G66" s="171"/>
+      <c r="H66" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="I66" s="183"/>
-      <c r="J66" s="182" t="s">
+      <c r="I66" s="171"/>
+      <c r="J66" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="183"/>
-      <c r="L66" s="182" t="s">
+      <c r="K66" s="171"/>
+      <c r="L66" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="183"/>
-      <c r="N66" s="182" t="s">
+      <c r="M66" s="171"/>
+      <c r="N66" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O66" s="183"/>
-      <c r="P66" s="182" t="s">
+      <c r="O66" s="171"/>
+      <c r="P66" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q66" s="183"/>
-      <c r="R66" s="182" t="s">
+      <c r="Q66" s="171"/>
+      <c r="R66" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S66" s="183"/>
-      <c r="T66" s="182" t="s">
+      <c r="S66" s="171"/>
+      <c r="T66" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U66" s="183"/>
-      <c r="V66" s="182" t="s">
+      <c r="U66" s="171"/>
+      <c r="V66" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W66" s="183"/>
-      <c r="X66" s="182" t="s">
+      <c r="W66" s="171"/>
+      <c r="X66" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y66" s="183"/>
-      <c r="Z66" s="182" t="s">
+      <c r="Y66" s="171"/>
+      <c r="Z66" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA66" s="183"/>
-      <c r="AB66" s="202" t="s">
+      <c r="AA66" s="171"/>
+      <c r="AB66" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="AC66" s="176" t="s">
+      <c r="AC66" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="AD66" s="176" t="s">
+      <c r="AD66" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE66" s="166" t="s">
+      <c r="AE66" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF66" s="166" t="s">
+      <c r="AF66" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A67" s="201"/>
-      <c r="B67" s="201"/>
-      <c r="C67" s="191"/>
+      <c r="A67" s="188"/>
+      <c r="B67" s="188"/>
+      <c r="C67" s="186"/>
       <c r="D67" s="73" t="s">
         <v>14</v>
       </c>
@@ -12069,14 +12069,14 @@
       <c r="AA67" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB67" s="203"/>
-      <c r="AC67" s="176"/>
-      <c r="AD67" s="176"/>
-      <c r="AE67" s="166"/>
-      <c r="AF67" s="166"/>
+      <c r="AB67" s="173"/>
+      <c r="AC67" s="174"/>
+      <c r="AD67" s="174"/>
+      <c r="AE67" s="169"/>
+      <c r="AF67" s="169"/>
     </row>
     <row r="68" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A68" s="206" t="s">
+      <c r="A68" s="179" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -12132,18 +12132,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD68" s="235" t="str">
+      <c r="AD68" s="175" t="str">
         <f>CONCATENATE(AC68,AC69,AC70,AC71,AC72,AC73,AC74,AC75,AC76,AC77,AC78,AC79)</f>
         <v/>
       </c>
       <c r="AE68" s="117"/>
-      <c r="AF68" s="164" t="str">
+      <c r="AF68" s="235" t="str">
         <f>CONCATENATE(AE68,AE69,AE70,AE71,AE72,AE73,AE74,AE75,AE76,AE77,AE78,AE79)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A69" s="207"/>
+      <c r="A69" s="198"/>
       <c r="B69" s="15" t="s">
         <v>541</v>
       </c>
@@ -12197,12 +12197,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD69" s="235"/>
+      <c r="AD69" s="175"/>
       <c r="AE69" s="117"/>
-      <c r="AF69" s="164"/>
+      <c r="AF69" s="235"/>
     </row>
     <row r="70" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A70" s="206" t="s">
+      <c r="A70" s="179" t="s">
         <v>32</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -12258,12 +12258,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD70" s="235"/>
+      <c r="AD70" s="175"/>
       <c r="AE70" s="117"/>
-      <c r="AF70" s="164"/>
+      <c r="AF70" s="235"/>
     </row>
     <row r="71" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A71" s="207"/>
+      <c r="A71" s="198"/>
       <c r="B71" s="15" t="s">
         <v>541</v>
       </c>
@@ -12317,12 +12317,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD71" s="235"/>
+      <c r="AD71" s="175"/>
       <c r="AE71" s="117"/>
-      <c r="AF71" s="164"/>
+      <c r="AF71" s="235"/>
     </row>
     <row r="72" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A72" s="221" t="s">
+      <c r="A72" s="207" t="s">
         <v>38</v>
       </c>
       <c r="B72" s="20" t="s">
@@ -12360,12 +12360,12 @@
         <v>0</v>
       </c>
       <c r="AC72" s="112"/>
-      <c r="AD72" s="235"/>
+      <c r="AD72" s="175"/>
       <c r="AE72" s="117"/>
-      <c r="AF72" s="164"/>
+      <c r="AF72" s="235"/>
     </row>
     <row r="73" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A73" s="221"/>
+      <c r="A73" s="207"/>
       <c r="B73" s="20" t="s">
         <v>544</v>
       </c>
@@ -12401,12 +12401,12 @@
         <v>0</v>
       </c>
       <c r="AC73" s="112"/>
-      <c r="AD73" s="235"/>
+      <c r="AD73" s="175"/>
       <c r="AE73" s="117"/>
-      <c r="AF73" s="164"/>
+      <c r="AF73" s="235"/>
     </row>
     <row r="74" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A74" s="221" t="s">
+      <c r="A74" s="207" t="s">
         <v>39</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -12444,12 +12444,12 @@
         <v>0</v>
       </c>
       <c r="AC74" s="112"/>
-      <c r="AD74" s="235"/>
+      <c r="AD74" s="175"/>
       <c r="AE74" s="117"/>
-      <c r="AF74" s="164"/>
+      <c r="AF74" s="235"/>
     </row>
     <row r="75" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A75" s="221"/>
+      <c r="A75" s="207"/>
       <c r="B75" s="20" t="s">
         <v>545</v>
       </c>
@@ -12485,12 +12485,12 @@
         <v>0</v>
       </c>
       <c r="AC75" s="112"/>
-      <c r="AD75" s="235"/>
+      <c r="AD75" s="175"/>
       <c r="AE75" s="117"/>
-      <c r="AF75" s="164"/>
+      <c r="AF75" s="235"/>
     </row>
     <row r="76" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A76" s="221" t="s">
+      <c r="A76" s="207" t="s">
         <v>40</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -12528,12 +12528,12 @@
         <v>0</v>
       </c>
       <c r="AC76" s="112"/>
-      <c r="AD76" s="235"/>
+      <c r="AD76" s="175"/>
       <c r="AE76" s="117"/>
-      <c r="AF76" s="164"/>
+      <c r="AF76" s="235"/>
     </row>
     <row r="77" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A77" s="221"/>
+      <c r="A77" s="207"/>
       <c r="B77" s="20" t="s">
         <v>546</v>
       </c>
@@ -12569,12 +12569,12 @@
         <v>0</v>
       </c>
       <c r="AC77" s="112"/>
-      <c r="AD77" s="235"/>
+      <c r="AD77" s="175"/>
       <c r="AE77" s="117"/>
-      <c r="AF77" s="164"/>
+      <c r="AF77" s="235"/>
     </row>
     <row r="78" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A78" s="221" t="s">
+      <c r="A78" s="207" t="s">
         <v>41</v>
       </c>
       <c r="B78" s="20" t="s">
@@ -12612,12 +12612,12 @@
         <v>0</v>
       </c>
       <c r="AC78" s="112"/>
-      <c r="AD78" s="235"/>
+      <c r="AD78" s="175"/>
       <c r="AE78" s="117"/>
-      <c r="AF78" s="164"/>
+      <c r="AF78" s="235"/>
     </row>
     <row r="79" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A79" s="222"/>
+      <c r="A79" s="208"/>
       <c r="B79" s="102" t="s">
         <v>547</v>
       </c>
@@ -12653,54 +12653,54 @@
         <v>0</v>
       </c>
       <c r="AC79" s="113"/>
-      <c r="AD79" s="228"/>
+      <c r="AD79" s="176"/>
       <c r="AE79" s="119"/>
-      <c r="AF79" s="164"/>
+      <c r="AF79" s="235"/>
     </row>
     <row r="80" spans="1:32" s="8" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A80" s="170" t="s">
+      <c r="A80" s="244" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="170"/>
-      <c r="C80" s="170"/>
-      <c r="D80" s="170"/>
-      <c r="E80" s="170"/>
-      <c r="F80" s="170"/>
-      <c r="G80" s="170"/>
-      <c r="H80" s="170"/>
-      <c r="I80" s="170"/>
-      <c r="J80" s="170"/>
-      <c r="K80" s="170"/>
-      <c r="L80" s="170"/>
-      <c r="M80" s="170"/>
-      <c r="N80" s="170"/>
-      <c r="O80" s="170"/>
-      <c r="P80" s="170"/>
-      <c r="Q80" s="170"/>
-      <c r="R80" s="170"/>
-      <c r="S80" s="170"/>
-      <c r="T80" s="170"/>
-      <c r="U80" s="170"/>
-      <c r="V80" s="170"/>
-      <c r="W80" s="170"/>
-      <c r="X80" s="170"/>
-      <c r="Y80" s="170"/>
-      <c r="Z80" s="170"/>
-      <c r="AA80" s="170"/>
-      <c r="AB80" s="170"/>
-      <c r="AC80" s="170"/>
-      <c r="AD80" s="170"/>
-      <c r="AE80" s="170"/>
-      <c r="AF80" s="170"/>
+      <c r="B80" s="244"/>
+      <c r="C80" s="244"/>
+      <c r="D80" s="244"/>
+      <c r="E80" s="244"/>
+      <c r="F80" s="244"/>
+      <c r="G80" s="244"/>
+      <c r="H80" s="244"/>
+      <c r="I80" s="244"/>
+      <c r="J80" s="244"/>
+      <c r="K80" s="244"/>
+      <c r="L80" s="244"/>
+      <c r="M80" s="244"/>
+      <c r="N80" s="244"/>
+      <c r="O80" s="244"/>
+      <c r="P80" s="244"/>
+      <c r="Q80" s="244"/>
+      <c r="R80" s="244"/>
+      <c r="S80" s="244"/>
+      <c r="T80" s="244"/>
+      <c r="U80" s="244"/>
+      <c r="V80" s="244"/>
+      <c r="W80" s="244"/>
+      <c r="X80" s="244"/>
+      <c r="Y80" s="244"/>
+      <c r="Z80" s="244"/>
+      <c r="AA80" s="244"/>
+      <c r="AB80" s="244"/>
+      <c r="AC80" s="244"/>
+      <c r="AD80" s="244"/>
+      <c r="AE80" s="244"/>
+      <c r="AF80" s="244"/>
     </row>
     <row r="81" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A81" s="200" t="s">
+      <c r="A81" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B81" s="200" t="s">
+      <c r="B81" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C81" s="190" t="s">
+      <c r="C81" s="185" t="s">
         <v>508</v>
       </c>
       <c r="D81" s="78"/>
@@ -12711,58 +12711,58 @@
       <c r="I81" s="79"/>
       <c r="J81" s="79"/>
       <c r="K81" s="80"/>
-      <c r="L81" s="210" t="s">
+      <c r="L81" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="M81" s="183"/>
-      <c r="N81" s="182" t="s">
+      <c r="M81" s="171"/>
+      <c r="N81" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O81" s="183"/>
-      <c r="P81" s="182" t="s">
+      <c r="O81" s="171"/>
+      <c r="P81" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q81" s="183"/>
-      <c r="R81" s="182" t="s">
+      <c r="Q81" s="171"/>
+      <c r="R81" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S81" s="183"/>
-      <c r="T81" s="182" t="s">
+      <c r="S81" s="171"/>
+      <c r="T81" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U81" s="183"/>
-      <c r="V81" s="182" t="s">
+      <c r="U81" s="171"/>
+      <c r="V81" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W81" s="183"/>
-      <c r="X81" s="182" t="s">
+      <c r="W81" s="171"/>
+      <c r="X81" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y81" s="183"/>
-      <c r="Z81" s="182" t="s">
+      <c r="Y81" s="171"/>
+      <c r="Z81" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA81" s="183"/>
-      <c r="AB81" s="202" t="s">
+      <c r="AA81" s="171"/>
+      <c r="AB81" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="AC81" s="176" t="s">
+      <c r="AC81" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="AD81" s="176" t="s">
+      <c r="AD81" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE81" s="166" t="s">
+      <c r="AE81" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF81" s="166" t="s">
+      <c r="AF81" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="82" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A82" s="201"/>
-      <c r="B82" s="201"/>
-      <c r="C82" s="191"/>
+      <c r="A82" s="188"/>
+      <c r="B82" s="188"/>
+      <c r="C82" s="186"/>
       <c r="D82" s="75"/>
       <c r="E82" s="76"/>
       <c r="F82" s="76"/>
@@ -12819,14 +12819,14 @@
       <c r="AA82" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB82" s="203"/>
-      <c r="AC82" s="176"/>
-      <c r="AD82" s="176"/>
-      <c r="AE82" s="166"/>
-      <c r="AF82" s="166"/>
+      <c r="AB82" s="173"/>
+      <c r="AC82" s="174"/>
+      <c r="AD82" s="174"/>
+      <c r="AE82" s="169"/>
+      <c r="AF82" s="169"/>
     </row>
     <row r="83" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A83" s="206" t="s">
+      <c r="A83" s="179" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -12864,18 +12864,18 @@
         <v>0</v>
       </c>
       <c r="AC83" s="112"/>
-      <c r="AD83" s="235" t="str">
+      <c r="AD83" s="175" t="str">
         <f>CONCATENATE(AC83,AC84,AC85,AC86,AC87,AC88,AC89,AC90,AC91,AC92,AC93,AC94,AC95,AC96,AC97,AC98,AC99,AC100)</f>
         <v/>
       </c>
       <c r="AE83" s="117"/>
-      <c r="AF83" s="164" t="str">
+      <c r="AF83" s="235" t="str">
         <f>CONCATENATE(AE83,AE84,AE85,AE86,AE87,AE88,AE89,AE90,AE91,AE92,AE93,AE94,AE95,AE96,AE97,AE98,AE99,AE100)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A84" s="207"/>
+      <c r="A84" s="198"/>
       <c r="B84" s="15" t="s">
         <v>288</v>
       </c>
@@ -12929,12 +12929,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD84" s="235"/>
+      <c r="AD84" s="175"/>
       <c r="AE84" s="117"/>
-      <c r="AF84" s="164"/>
+      <c r="AF84" s="235"/>
     </row>
     <row r="85" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A85" s="207"/>
+      <c r="A85" s="198"/>
       <c r="B85" s="15" t="s">
         <v>549</v>
       </c>
@@ -12970,12 +12970,12 @@
         <v>0</v>
       </c>
       <c r="AC85" s="112"/>
-      <c r="AD85" s="235"/>
+      <c r="AD85" s="175"/>
       <c r="AE85" s="117"/>
-      <c r="AF85" s="164"/>
+      <c r="AF85" s="235"/>
     </row>
     <row r="86" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A86" s="207"/>
+      <c r="A86" s="198"/>
       <c r="B86" s="15" t="s">
         <v>550</v>
       </c>
@@ -13011,12 +13011,12 @@
         <v>0</v>
       </c>
       <c r="AC86" s="112"/>
-      <c r="AD86" s="235"/>
+      <c r="AD86" s="175"/>
       <c r="AE86" s="117"/>
-      <c r="AF86" s="164"/>
+      <c r="AF86" s="235"/>
     </row>
     <row r="87" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A87" s="207"/>
+      <c r="A87" s="198"/>
       <c r="B87" s="15" t="s">
         <v>551</v>
       </c>
@@ -13052,12 +13052,12 @@
         <v>0</v>
       </c>
       <c r="AC87" s="112"/>
-      <c r="AD87" s="235"/>
+      <c r="AD87" s="175"/>
       <c r="AE87" s="117"/>
-      <c r="AF87" s="164"/>
+      <c r="AF87" s="235"/>
     </row>
     <row r="88" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A88" s="208"/>
+      <c r="A88" s="180"/>
       <c r="B88" s="15" t="s">
         <v>552</v>
       </c>
@@ -13093,12 +13093,12 @@
         <v>0</v>
       </c>
       <c r="AC88" s="112"/>
-      <c r="AD88" s="235"/>
+      <c r="AD88" s="175"/>
       <c r="AE88" s="117"/>
-      <c r="AF88" s="164"/>
+      <c r="AF88" s="235"/>
     </row>
     <row r="89" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A89" s="206" t="s">
+      <c r="A89" s="179" t="s">
         <v>42</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -13136,12 +13136,12 @@
         <v>0</v>
       </c>
       <c r="AC89" s="112"/>
-      <c r="AD89" s="235"/>
+      <c r="AD89" s="175"/>
       <c r="AE89" s="117"/>
-      <c r="AF89" s="164"/>
+      <c r="AF89" s="235"/>
     </row>
     <row r="90" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A90" s="207"/>
+      <c r="A90" s="198"/>
       <c r="B90" s="15" t="s">
         <v>553</v>
       </c>
@@ -13195,12 +13195,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD90" s="235"/>
+      <c r="AD90" s="175"/>
       <c r="AE90" s="117"/>
-      <c r="AF90" s="164"/>
+      <c r="AF90" s="235"/>
     </row>
     <row r="91" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A91" s="207"/>
+      <c r="A91" s="198"/>
       <c r="B91" s="15" t="s">
         <v>304</v>
       </c>
@@ -13236,12 +13236,12 @@
         <v>0</v>
       </c>
       <c r="AC91" s="112"/>
-      <c r="AD91" s="235"/>
+      <c r="AD91" s="175"/>
       <c r="AE91" s="117"/>
-      <c r="AF91" s="164"/>
+      <c r="AF91" s="235"/>
     </row>
     <row r="92" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A92" s="207"/>
+      <c r="A92" s="198"/>
       <c r="B92" s="15" t="s">
         <v>554</v>
       </c>
@@ -13277,12 +13277,12 @@
         <v>0</v>
       </c>
       <c r="AC92" s="112"/>
-      <c r="AD92" s="235"/>
+      <c r="AD92" s="175"/>
       <c r="AE92" s="117"/>
-      <c r="AF92" s="164"/>
+      <c r="AF92" s="235"/>
     </row>
     <row r="93" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A93" s="207"/>
+      <c r="A93" s="198"/>
       <c r="B93" s="15" t="s">
         <v>551</v>
       </c>
@@ -13318,12 +13318,12 @@
         <v>0</v>
       </c>
       <c r="AC93" s="112"/>
-      <c r="AD93" s="235"/>
+      <c r="AD93" s="175"/>
       <c r="AE93" s="117"/>
-      <c r="AF93" s="164"/>
+      <c r="AF93" s="235"/>
     </row>
     <row r="94" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A94" s="208"/>
+      <c r="A94" s="180"/>
       <c r="B94" s="15" t="s">
         <v>309</v>
       </c>
@@ -13377,12 +13377,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD94" s="235"/>
+      <c r="AD94" s="175"/>
       <c r="AE94" s="117"/>
-      <c r="AF94" s="164"/>
+      <c r="AF94" s="235"/>
     </row>
     <row r="95" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A95" s="206" t="s">
+      <c r="A95" s="179" t="s">
         <v>33</v>
       </c>
       <c r="B95" s="15" t="s">
@@ -13420,12 +13420,12 @@
         <v>0</v>
       </c>
       <c r="AC95" s="112"/>
-      <c r="AD95" s="235"/>
+      <c r="AD95" s="175"/>
       <c r="AE95" s="117"/>
-      <c r="AF95" s="164"/>
+      <c r="AF95" s="235"/>
     </row>
     <row r="96" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A96" s="207"/>
+      <c r="A96" s="198"/>
       <c r="B96" s="15" t="s">
         <v>288</v>
       </c>
@@ -13479,12 +13479,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD96" s="235"/>
+      <c r="AD96" s="175"/>
       <c r="AE96" s="117"/>
-      <c r="AF96" s="164"/>
+      <c r="AF96" s="235"/>
     </row>
     <row r="97" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A97" s="207"/>
+      <c r="A97" s="198"/>
       <c r="B97" s="15" t="s">
         <v>304</v>
       </c>
@@ -13520,12 +13520,12 @@
         <v>0</v>
       </c>
       <c r="AC97" s="112"/>
-      <c r="AD97" s="235"/>
+      <c r="AD97" s="175"/>
       <c r="AE97" s="117"/>
-      <c r="AF97" s="164"/>
+      <c r="AF97" s="235"/>
     </row>
     <row r="98" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A98" s="207"/>
+      <c r="A98" s="198"/>
       <c r="B98" s="15" t="s">
         <v>550</v>
       </c>
@@ -13561,12 +13561,12 @@
         <v>0</v>
       </c>
       <c r="AC98" s="112"/>
-      <c r="AD98" s="235"/>
+      <c r="AD98" s="175"/>
       <c r="AE98" s="117"/>
-      <c r="AF98" s="164"/>
+      <c r="AF98" s="235"/>
     </row>
     <row r="99" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A99" s="207"/>
+      <c r="A99" s="198"/>
       <c r="B99" s="15" t="s">
         <v>551</v>
       </c>
@@ -13602,12 +13602,12 @@
         <v>0</v>
       </c>
       <c r="AC99" s="112"/>
-      <c r="AD99" s="235"/>
+      <c r="AD99" s="175"/>
       <c r="AE99" s="117"/>
-      <c r="AF99" s="164"/>
+      <c r="AF99" s="235"/>
     </row>
     <row r="100" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A100" s="207"/>
+      <c r="A100" s="198"/>
       <c r="B100" s="99" t="s">
         <v>309</v>
       </c>
@@ -13643,124 +13643,124 @@
         <v>0</v>
       </c>
       <c r="AC100" s="113"/>
-      <c r="AD100" s="235"/>
+      <c r="AD100" s="175"/>
       <c r="AE100" s="117"/>
-      <c r="AF100" s="164"/>
+      <c r="AF100" s="235"/>
     </row>
     <row r="101" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A101" s="170" t="s">
+      <c r="A101" s="244" t="s">
         <v>153</v>
       </c>
-      <c r="B101" s="170"/>
-      <c r="C101" s="170"/>
-      <c r="D101" s="170"/>
-      <c r="E101" s="170"/>
-      <c r="F101" s="170"/>
-      <c r="G101" s="170"/>
-      <c r="H101" s="170"/>
-      <c r="I101" s="170"/>
-      <c r="J101" s="170"/>
-      <c r="K101" s="170"/>
-      <c r="L101" s="170"/>
-      <c r="M101" s="170"/>
-      <c r="N101" s="170"/>
-      <c r="O101" s="170"/>
-      <c r="P101" s="170"/>
-      <c r="Q101" s="170"/>
-      <c r="R101" s="170"/>
-      <c r="S101" s="170"/>
-      <c r="T101" s="170"/>
-      <c r="U101" s="170"/>
-      <c r="V101" s="170"/>
-      <c r="W101" s="170"/>
-      <c r="X101" s="170"/>
-      <c r="Y101" s="170"/>
-      <c r="Z101" s="170"/>
-      <c r="AA101" s="170"/>
-      <c r="AB101" s="170"/>
-      <c r="AC101" s="170"/>
-      <c r="AD101" s="170"/>
-      <c r="AE101" s="170"/>
-      <c r="AF101" s="170"/>
+      <c r="B101" s="244"/>
+      <c r="C101" s="244"/>
+      <c r="D101" s="244"/>
+      <c r="E101" s="244"/>
+      <c r="F101" s="244"/>
+      <c r="G101" s="244"/>
+      <c r="H101" s="244"/>
+      <c r="I101" s="244"/>
+      <c r="J101" s="244"/>
+      <c r="K101" s="244"/>
+      <c r="L101" s="244"/>
+      <c r="M101" s="244"/>
+      <c r="N101" s="244"/>
+      <c r="O101" s="244"/>
+      <c r="P101" s="244"/>
+      <c r="Q101" s="244"/>
+      <c r="R101" s="244"/>
+      <c r="S101" s="244"/>
+      <c r="T101" s="244"/>
+      <c r="U101" s="244"/>
+      <c r="V101" s="244"/>
+      <c r="W101" s="244"/>
+      <c r="X101" s="244"/>
+      <c r="Y101" s="244"/>
+      <c r="Z101" s="244"/>
+      <c r="AA101" s="244"/>
+      <c r="AB101" s="244"/>
+      <c r="AC101" s="244"/>
+      <c r="AD101" s="244"/>
+      <c r="AE101" s="244"/>
+      <c r="AF101" s="244"/>
     </row>
     <row r="102" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A102" s="200" t="s">
+      <c r="A102" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B102" s="200" t="s">
+      <c r="B102" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C102" s="190" t="s">
+      <c r="C102" s="185" t="s">
         <v>508</v>
       </c>
-      <c r="D102" s="210" t="s">
+      <c r="D102" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="183"/>
-      <c r="F102" s="182" t="s">
+      <c r="E102" s="171"/>
+      <c r="F102" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="183"/>
-      <c r="H102" s="182" t="s">
+      <c r="G102" s="171"/>
+      <c r="H102" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="I102" s="183"/>
-      <c r="J102" s="182" t="s">
+      <c r="I102" s="171"/>
+      <c r="J102" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="K102" s="183"/>
-      <c r="L102" s="182" t="s">
+      <c r="K102" s="171"/>
+      <c r="L102" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="183"/>
-      <c r="N102" s="182" t="s">
+      <c r="M102" s="171"/>
+      <c r="N102" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O102" s="183"/>
-      <c r="P102" s="182" t="s">
+      <c r="O102" s="171"/>
+      <c r="P102" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q102" s="183"/>
-      <c r="R102" s="182" t="s">
+      <c r="Q102" s="171"/>
+      <c r="R102" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S102" s="183"/>
-      <c r="T102" s="182" t="s">
+      <c r="S102" s="171"/>
+      <c r="T102" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U102" s="183"/>
-      <c r="V102" s="182" t="s">
+      <c r="U102" s="171"/>
+      <c r="V102" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W102" s="183"/>
-      <c r="X102" s="182" t="s">
+      <c r="W102" s="171"/>
+      <c r="X102" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y102" s="183"/>
-      <c r="Z102" s="182" t="s">
+      <c r="Y102" s="171"/>
+      <c r="Z102" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA102" s="183"/>
-      <c r="AB102" s="202" t="s">
+      <c r="AA102" s="171"/>
+      <c r="AB102" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="AC102" s="176" t="s">
+      <c r="AC102" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="AD102" s="176" t="s">
+      <c r="AD102" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE102" s="166" t="s">
+      <c r="AE102" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF102" s="166" t="s">
+      <c r="AF102" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="103" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A103" s="201"/>
-      <c r="B103" s="201"/>
-      <c r="C103" s="191"/>
+      <c r="A103" s="188"/>
+      <c r="B103" s="188"/>
+      <c r="C103" s="186"/>
       <c r="D103" s="73" t="s">
         <v>14</v>
       </c>
@@ -13833,14 +13833,14 @@
       <c r="AA103" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB103" s="203"/>
-      <c r="AC103" s="176"/>
-      <c r="AD103" s="176"/>
-      <c r="AE103" s="166"/>
-      <c r="AF103" s="166"/>
+      <c r="AB103" s="173"/>
+      <c r="AC103" s="174"/>
+      <c r="AD103" s="174"/>
+      <c r="AE103" s="169"/>
+      <c r="AF103" s="169"/>
     </row>
     <row r="104" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A104" s="206" t="s">
+      <c r="A104" s="179" t="s">
         <v>44</v>
       </c>
       <c r="B104" s="15" t="s">
@@ -13877,7 +13877,7 @@
         <f>SUM(D104:AA104)</f>
         <v>0</v>
       </c>
-      <c r="AC104" s="177" t="str">
+      <c r="AC104" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D105&gt;D104," * F05-02 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-01"&amp;CHAR(10),""),IF(E105&gt;E104," * F05-02 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-01"&amp;CHAR(10),""),
@@ -13896,18 +13896,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD104" s="235" t="str">
+      <c r="AD104" s="175" t="str">
         <f>CONCATENATE(AC104,AC106,AC107,AC108,AC109,AC111,AC113,AC115,AC117,AC118)</f>
         <v/>
       </c>
       <c r="AE104" s="117"/>
-      <c r="AF104" s="164" t="str">
+      <c r="AF104" s="235" t="str">
         <f>CONCATENATE(AE104,AE105,AE106,AE107,AE108,AE109,AE110,AE111,AE112,AE113,AE114,AE115,AE116,AE117,AE118)</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A105" s="208"/>
+      <c r="A105" s="180"/>
       <c r="B105" s="15" t="s">
         <v>556</v>
       </c>
@@ -13942,13 +13942,13 @@
         <f t="shared" ref="AB105:AB118" si="8">SUM(D105:AA105)</f>
         <v>0</v>
       </c>
-      <c r="AC105" s="178"/>
-      <c r="AD105" s="235"/>
+      <c r="AC105" s="202"/>
+      <c r="AD105" s="175"/>
       <c r="AE105" s="117"/>
-      <c r="AF105" s="164"/>
+      <c r="AF105" s="235"/>
     </row>
     <row r="106" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A106" s="206" t="s">
+      <c r="A106" s="179" t="s">
         <v>45</v>
       </c>
       <c r="B106" s="15" t="s">
@@ -14004,12 +14004,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD106" s="235"/>
+      <c r="AD106" s="175"/>
       <c r="AE106" s="117"/>
-      <c r="AF106" s="164"/>
+      <c r="AF106" s="235"/>
     </row>
     <row r="107" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A107" s="208"/>
+      <c r="A107" s="180"/>
       <c r="B107" s="15" t="s">
         <v>327</v>
       </c>
@@ -14045,12 +14045,12 @@
         <v>0</v>
       </c>
       <c r="AC107" s="112"/>
-      <c r="AD107" s="235"/>
+      <c r="AD107" s="175"/>
       <c r="AE107" s="117"/>
-      <c r="AF107" s="164"/>
+      <c r="AF107" s="235"/>
     </row>
     <row r="108" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A108" s="230" t="s">
+      <c r="A108" s="181" t="s">
         <v>34</v>
       </c>
       <c r="B108" s="93" t="s">
@@ -14106,12 +14106,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD108" s="235"/>
+      <c r="AD108" s="175"/>
       <c r="AE108" s="117"/>
-      <c r="AF108" s="164"/>
+      <c r="AF108" s="235"/>
     </row>
     <row r="109" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A109" s="231"/>
+      <c r="A109" s="182"/>
       <c r="B109" s="93" t="s">
         <v>559</v>
       </c>
@@ -14146,7 +14146,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC109" s="177" t="str">
+      <c r="AC109" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D110&gt;D109," * F05-07 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-06"&amp;CHAR(10),""),IF(E110&gt;E109," * F05-07 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-06"&amp;CHAR(10),""),
@@ -14165,12 +14165,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD109" s="235"/>
+      <c r="AD109" s="175"/>
       <c r="AE109" s="117"/>
-      <c r="AF109" s="164"/>
+      <c r="AF109" s="235"/>
     </row>
     <row r="110" spans="1:32" s="12" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A110" s="231"/>
+      <c r="A110" s="182"/>
       <c r="B110" s="93" t="s">
         <v>560</v>
       </c>
@@ -14205,13 +14205,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC110" s="178"/>
-      <c r="AD110" s="235"/>
+      <c r="AC110" s="202"/>
+      <c r="AD110" s="175"/>
       <c r="AE110" s="117"/>
-      <c r="AF110" s="164"/>
+      <c r="AF110" s="235"/>
     </row>
     <row r="111" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A111" s="231"/>
+      <c r="A111" s="182"/>
       <c r="B111" s="93" t="s">
         <v>561</v>
       </c>
@@ -14246,7 +14246,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC111" s="177" t="str">
+      <c r="AC111" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D112&gt;D111," * F05-09 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-08"&amp;CHAR(10),""),IF(E112&gt;E111," * F05-09 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-08"&amp;CHAR(10),""),
@@ -14265,12 +14265,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD111" s="235"/>
+      <c r="AD111" s="175"/>
       <c r="AE111" s="117"/>
-      <c r="AF111" s="164"/>
+      <c r="AF111" s="235"/>
     </row>
     <row r="112" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A112" s="231"/>
+      <c r="A112" s="182"/>
       <c r="B112" s="93" t="s">
         <v>562</v>
       </c>
@@ -14305,13 +14305,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC112" s="178"/>
-      <c r="AD112" s="235"/>
+      <c r="AC112" s="202"/>
+      <c r="AD112" s="175"/>
       <c r="AE112" s="117"/>
-      <c r="AF112" s="164"/>
+      <c r="AF112" s="235"/>
     </row>
     <row r="113" spans="1:32" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A113" s="231"/>
+      <c r="A113" s="182"/>
       <c r="B113" s="93" t="s">
         <v>563</v>
       </c>
@@ -14346,7 +14346,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC113" s="177" t="str">
+      <c r="AC113" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D114&gt;D113," * F05-11 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-10"&amp;CHAR(10),""),IF(E114&gt;E113," * F05-11 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-10"&amp;CHAR(10),""),
@@ -14365,12 +14365,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD113" s="235"/>
+      <c r="AD113" s="175"/>
       <c r="AE113" s="117"/>
-      <c r="AF113" s="164"/>
+      <c r="AF113" s="235"/>
     </row>
     <row r="114" spans="1:32" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A114" s="236"/>
+      <c r="A114" s="183"/>
       <c r="B114" s="93" t="s">
         <v>564</v>
       </c>
@@ -14405,13 +14405,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC114" s="178"/>
-      <c r="AD114" s="235"/>
+      <c r="AC114" s="202"/>
+      <c r="AD114" s="175"/>
       <c r="AE114" s="117"/>
-      <c r="AF114" s="164"/>
+      <c r="AF114" s="235"/>
     </row>
     <row r="115" spans="1:32" s="12" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A115" s="230" t="s">
+      <c r="A115" s="181" t="s">
         <v>131</v>
       </c>
       <c r="B115" s="93" t="s">
@@ -14448,7 +14448,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC115" s="177" t="str">
+      <c r="AC115" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D116&gt;D115," * F05-13 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-12"&amp;CHAR(10),""),IF(E116&gt;E115," * F05-13 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-12"&amp;CHAR(10),""),
@@ -14467,12 +14467,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD115" s="235"/>
+      <c r="AD115" s="175"/>
       <c r="AE115" s="117"/>
-      <c r="AF115" s="164"/>
+      <c r="AF115" s="235"/>
     </row>
     <row r="116" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A116" s="231"/>
+      <c r="A116" s="182"/>
       <c r="B116" s="93" t="s">
         <v>351</v>
       </c>
@@ -14507,13 +14507,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC116" s="178"/>
-      <c r="AD116" s="235"/>
+      <c r="AC116" s="202"/>
+      <c r="AD116" s="175"/>
       <c r="AE116" s="117"/>
-      <c r="AF116" s="164"/>
+      <c r="AF116" s="235"/>
     </row>
     <row r="117" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A117" s="231"/>
+      <c r="A117" s="182"/>
       <c r="B117" s="93" t="s">
         <v>565</v>
       </c>
@@ -14567,12 +14567,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD117" s="235"/>
+      <c r="AD117" s="175"/>
       <c r="AE117" s="117"/>
-      <c r="AF117" s="164"/>
+      <c r="AF117" s="235"/>
     </row>
     <row r="118" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A118" s="231"/>
+      <c r="A118" s="182"/>
       <c r="B118" s="104" t="s">
         <v>566</v>
       </c>
@@ -14626,124 +14626,124 @@
 )</f>
         <v/>
       </c>
-      <c r="AD118" s="228"/>
+      <c r="AD118" s="176"/>
       <c r="AE118" s="119"/>
-      <c r="AF118" s="164"/>
+      <c r="AF118" s="235"/>
     </row>
     <row r="119" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A119" s="170" t="s">
+      <c r="A119" s="244" t="s">
         <v>155</v>
       </c>
-      <c r="B119" s="170"/>
-      <c r="C119" s="170"/>
-      <c r="D119" s="170"/>
-      <c r="E119" s="170"/>
-      <c r="F119" s="170"/>
-      <c r="G119" s="170"/>
-      <c r="H119" s="170"/>
-      <c r="I119" s="170"/>
-      <c r="J119" s="170"/>
-      <c r="K119" s="170"/>
-      <c r="L119" s="170"/>
-      <c r="M119" s="170"/>
-      <c r="N119" s="170"/>
-      <c r="O119" s="170"/>
-      <c r="P119" s="170"/>
-      <c r="Q119" s="170"/>
-      <c r="R119" s="170"/>
-      <c r="S119" s="170"/>
-      <c r="T119" s="170"/>
-      <c r="U119" s="170"/>
-      <c r="V119" s="170"/>
-      <c r="W119" s="170"/>
-      <c r="X119" s="170"/>
-      <c r="Y119" s="170"/>
-      <c r="Z119" s="170"/>
-      <c r="AA119" s="170"/>
-      <c r="AB119" s="170"/>
-      <c r="AC119" s="170"/>
-      <c r="AD119" s="170"/>
-      <c r="AE119" s="170"/>
-      <c r="AF119" s="170"/>
+      <c r="B119" s="244"/>
+      <c r="C119" s="244"/>
+      <c r="D119" s="244"/>
+      <c r="E119" s="244"/>
+      <c r="F119" s="244"/>
+      <c r="G119" s="244"/>
+      <c r="H119" s="244"/>
+      <c r="I119" s="244"/>
+      <c r="J119" s="244"/>
+      <c r="K119" s="244"/>
+      <c r="L119" s="244"/>
+      <c r="M119" s="244"/>
+      <c r="N119" s="244"/>
+      <c r="O119" s="244"/>
+      <c r="P119" s="244"/>
+      <c r="Q119" s="244"/>
+      <c r="R119" s="244"/>
+      <c r="S119" s="244"/>
+      <c r="T119" s="244"/>
+      <c r="U119" s="244"/>
+      <c r="V119" s="244"/>
+      <c r="W119" s="244"/>
+      <c r="X119" s="244"/>
+      <c r="Y119" s="244"/>
+      <c r="Z119" s="244"/>
+      <c r="AA119" s="244"/>
+      <c r="AB119" s="244"/>
+      <c r="AC119" s="244"/>
+      <c r="AD119" s="244"/>
+      <c r="AE119" s="244"/>
+      <c r="AF119" s="244"/>
     </row>
     <row r="120" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A120" s="200" t="s">
+      <c r="A120" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B120" s="200" t="s">
+      <c r="B120" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C120" s="190" t="s">
+      <c r="C120" s="185" t="s">
         <v>508</v>
       </c>
-      <c r="D120" s="210" t="s">
+      <c r="D120" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="183"/>
-      <c r="F120" s="182" t="s">
+      <c r="E120" s="171"/>
+      <c r="F120" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="183"/>
-      <c r="H120" s="182" t="s">
+      <c r="G120" s="171"/>
+      <c r="H120" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="I120" s="183"/>
-      <c r="J120" s="182" t="s">
+      <c r="I120" s="171"/>
+      <c r="J120" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="K120" s="183"/>
-      <c r="L120" s="182" t="s">
+      <c r="K120" s="171"/>
+      <c r="L120" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M120" s="183"/>
-      <c r="N120" s="182" t="s">
+      <c r="M120" s="171"/>
+      <c r="N120" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O120" s="183"/>
-      <c r="P120" s="182" t="s">
+      <c r="O120" s="171"/>
+      <c r="P120" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q120" s="183"/>
-      <c r="R120" s="182" t="s">
+      <c r="Q120" s="171"/>
+      <c r="R120" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S120" s="183"/>
-      <c r="T120" s="182" t="s">
+      <c r="S120" s="171"/>
+      <c r="T120" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U120" s="183"/>
-      <c r="V120" s="182" t="s">
+      <c r="U120" s="171"/>
+      <c r="V120" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W120" s="183"/>
-      <c r="X120" s="182" t="s">
+      <c r="W120" s="171"/>
+      <c r="X120" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y120" s="183"/>
-      <c r="Z120" s="182" t="s">
+      <c r="Y120" s="171"/>
+      <c r="Z120" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA120" s="183"/>
-      <c r="AB120" s="202" t="s">
+      <c r="AA120" s="171"/>
+      <c r="AB120" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="AC120" s="176" t="s">
+      <c r="AC120" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="AD120" s="176" t="s">
+      <c r="AD120" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE120" s="166" t="s">
+      <c r="AE120" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF120" s="166" t="s">
+      <c r="AF120" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="121" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A121" s="201"/>
-      <c r="B121" s="201"/>
-      <c r="C121" s="191"/>
+      <c r="A121" s="188"/>
+      <c r="B121" s="188"/>
+      <c r="C121" s="186"/>
       <c r="D121" s="73" t="s">
         <v>14</v>
       </c>
@@ -14816,11 +14816,11 @@
       <c r="AA121" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB121" s="203"/>
-      <c r="AC121" s="176"/>
-      <c r="AD121" s="176"/>
-      <c r="AE121" s="166"/>
-      <c r="AF121" s="166"/>
+      <c r="AB121" s="173"/>
+      <c r="AC121" s="174"/>
+      <c r="AD121" s="174"/>
+      <c r="AE121" s="169"/>
+      <c r="AF121" s="169"/>
     </row>
     <row r="122" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A122" s="69" t="s">
@@ -14879,18 +14879,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD122" s="228" t="str">
+      <c r="AD122" s="176" t="str">
         <f>CONCATENATE(AC122,AC123,AC124,AC125,AC126,AC128,AC130,AC132)</f>
         <v/>
       </c>
       <c r="AE122" s="116"/>
-      <c r="AF122" s="164" t="str">
+      <c r="AF122" s="235" t="str">
         <f>CONCATENATE(AE122,AE123,AE124,AE125,AE126,AE127,AE128,AE129,AE130,AE131,AE132,AE133)</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A123" s="206" t="s">
+      <c r="A123" s="179" t="s">
         <v>46</v>
       </c>
       <c r="B123" s="15" t="s">
@@ -14946,7 +14946,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD123" s="229"/>
+      <c r="AD123" s="192"/>
       <c r="AE123" s="116" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -14966,10 +14966,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF123" s="164"/>
+      <c r="AF123" s="235"/>
     </row>
     <row r="124" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A124" s="207"/>
+      <c r="A124" s="198"/>
       <c r="B124" s="15" t="s">
         <v>569</v>
       </c>
@@ -15023,12 +15023,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD124" s="229"/>
+      <c r="AD124" s="192"/>
       <c r="AE124" s="117"/>
-      <c r="AF124" s="164"/>
+      <c r="AF124" s="235"/>
     </row>
     <row r="125" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A125" s="207"/>
+      <c r="A125" s="198"/>
       <c r="B125" s="15" t="s">
         <v>570</v>
       </c>
@@ -15082,12 +15082,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD125" s="229"/>
+      <c r="AD125" s="192"/>
       <c r="AE125" s="117"/>
-      <c r="AF125" s="164"/>
+      <c r="AF125" s="235"/>
     </row>
     <row r="126" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A126" s="207"/>
+      <c r="A126" s="198"/>
       <c r="B126" s="15" t="s">
         <v>571</v>
       </c>
@@ -15122,7 +15122,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC126" s="177" t="str">
+      <c r="AC126" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D127&gt;D126," * F06-06 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-05"&amp;CHAR(10),""),IF(E127&gt;E126," * F06-06 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-05"&amp;CHAR(10),""),
@@ -15141,12 +15141,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD126" s="229"/>
+      <c r="AD126" s="192"/>
       <c r="AE126" s="117"/>
-      <c r="AF126" s="164"/>
+      <c r="AF126" s="235"/>
     </row>
     <row r="127" spans="1:32" s="10" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A127" s="207"/>
+      <c r="A127" s="198"/>
       <c r="B127" s="15" t="s">
         <v>635</v>
       </c>
@@ -15181,13 +15181,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC127" s="178"/>
-      <c r="AD127" s="229"/>
+      <c r="AC127" s="202"/>
+      <c r="AD127" s="192"/>
       <c r="AE127" s="117"/>
-      <c r="AF127" s="164"/>
+      <c r="AF127" s="235"/>
     </row>
     <row r="128" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A128" s="207"/>
+      <c r="A128" s="198"/>
       <c r="B128" s="15" t="s">
         <v>572</v>
       </c>
@@ -15222,7 +15222,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC128" s="177" t="str">
+      <c r="AC128" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D129&gt;D128," * F06-08 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-07"&amp;CHAR(10),""),IF(E129&gt;E128," * F06-08 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-07"&amp;CHAR(10),""),
@@ -15241,12 +15241,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD128" s="229"/>
+      <c r="AD128" s="192"/>
       <c r="AE128" s="117"/>
-      <c r="AF128" s="164"/>
+      <c r="AF128" s="235"/>
     </row>
     <row r="129" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A129" s="207"/>
+      <c r="A129" s="198"/>
       <c r="B129" s="15" t="s">
         <v>636</v>
       </c>
@@ -15281,13 +15281,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC129" s="178"/>
-      <c r="AD129" s="229"/>
+      <c r="AC129" s="202"/>
+      <c r="AD129" s="192"/>
       <c r="AE129" s="117"/>
-      <c r="AF129" s="164"/>
+      <c r="AF129" s="235"/>
     </row>
     <row r="130" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A130" s="207"/>
+      <c r="A130" s="198"/>
       <c r="B130" s="15" t="s">
         <v>573</v>
       </c>
@@ -15322,7 +15322,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC130" s="177" t="str">
+      <c r="AC130" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D131&gt;D130," * F06-10 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-09"&amp;CHAR(10),""),IF(E131&gt;E130," * F06-10 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-09"&amp;CHAR(10),""),
@@ -15341,12 +15341,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD130" s="229"/>
+      <c r="AD130" s="192"/>
       <c r="AE130" s="117"/>
-      <c r="AF130" s="164"/>
+      <c r="AF130" s="235"/>
     </row>
     <row r="131" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A131" s="207"/>
+      <c r="A131" s="198"/>
       <c r="B131" s="15" t="s">
         <v>634</v>
       </c>
@@ -15381,13 +15381,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC131" s="178"/>
-      <c r="AD131" s="229"/>
+      <c r="AC131" s="202"/>
+      <c r="AD131" s="192"/>
       <c r="AE131" s="117"/>
-      <c r="AF131" s="164"/>
+      <c r="AF131" s="235"/>
     </row>
     <row r="132" spans="1:32" s="10" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A132" s="237" t="s">
+      <c r="A132" s="189" t="s">
         <v>149</v>
       </c>
       <c r="B132" s="15" t="s">
@@ -15424,7 +15424,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC132" s="177" t="str">
+      <c r="AC132" s="201" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D133&gt;D132," * F06-12 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-11"&amp;CHAR(10),""),IF(E133&gt;E132," * F06-12 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-11"&amp;CHAR(10),""),
@@ -15443,12 +15443,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD132" s="229"/>
+      <c r="AD132" s="192"/>
       <c r="AE132" s="117"/>
-      <c r="AF132" s="164"/>
+      <c r="AF132" s="235"/>
     </row>
     <row r="133" spans="1:32" s="10" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A133" s="238"/>
+      <c r="A133" s="190"/>
       <c r="B133" s="99" t="s">
         <v>575</v>
       </c>
@@ -15483,125 +15483,125 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC133" s="227"/>
-      <c r="AD133" s="229"/>
+      <c r="AC133" s="203"/>
+      <c r="AD133" s="192"/>
       <c r="AE133" s="119"/>
-      <c r="AF133" s="164"/>
+      <c r="AF133" s="235"/>
     </row>
     <row r="134" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A134" s="170" t="s">
+      <c r="A134" s="244" t="s">
         <v>154</v>
       </c>
-      <c r="B134" s="170"/>
-      <c r="C134" s="170"/>
-      <c r="D134" s="170"/>
-      <c r="E134" s="170"/>
-      <c r="F134" s="170"/>
-      <c r="G134" s="170"/>
-      <c r="H134" s="170"/>
-      <c r="I134" s="170"/>
-      <c r="J134" s="170"/>
-      <c r="K134" s="170"/>
-      <c r="L134" s="170"/>
-      <c r="M134" s="170"/>
-      <c r="N134" s="170"/>
-      <c r="O134" s="170"/>
-      <c r="P134" s="170"/>
-      <c r="Q134" s="170"/>
-      <c r="R134" s="170"/>
-      <c r="S134" s="170"/>
-      <c r="T134" s="170"/>
-      <c r="U134" s="170"/>
-      <c r="V134" s="170"/>
-      <c r="W134" s="170"/>
-      <c r="X134" s="170"/>
-      <c r="Y134" s="170"/>
-      <c r="Z134" s="170"/>
-      <c r="AA134" s="170"/>
-      <c r="AB134" s="170"/>
-      <c r="AC134" s="170"/>
-      <c r="AD134" s="170"/>
-      <c r="AE134" s="170"/>
-      <c r="AF134" s="170"/>
+      <c r="B134" s="244"/>
+      <c r="C134" s="244"/>
+      <c r="D134" s="244"/>
+      <c r="E134" s="244"/>
+      <c r="F134" s="244"/>
+      <c r="G134" s="244"/>
+      <c r="H134" s="244"/>
+      <c r="I134" s="244"/>
+      <c r="J134" s="244"/>
+      <c r="K134" s="244"/>
+      <c r="L134" s="244"/>
+      <c r="M134" s="244"/>
+      <c r="N134" s="244"/>
+      <c r="O134" s="244"/>
+      <c r="P134" s="244"/>
+      <c r="Q134" s="244"/>
+      <c r="R134" s="244"/>
+      <c r="S134" s="244"/>
+      <c r="T134" s="244"/>
+      <c r="U134" s="244"/>
+      <c r="V134" s="244"/>
+      <c r="W134" s="244"/>
+      <c r="X134" s="244"/>
+      <c r="Y134" s="244"/>
+      <c r="Z134" s="244"/>
+      <c r="AA134" s="244"/>
+      <c r="AB134" s="244"/>
+      <c r="AC134" s="244"/>
+      <c r="AD134" s="244"/>
+      <c r="AE134" s="244"/>
+      <c r="AF134" s="244"/>
     </row>
     <row r="135" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A135" s="200" t="s">
+      <c r="A135" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B135" s="200" t="s">
+      <c r="B135" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C135" s="190" t="s">
+      <c r="C135" s="185" t="s">
         <v>508</v>
       </c>
-      <c r="D135" s="210" t="s">
+      <c r="D135" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="183"/>
-      <c r="F135" s="182" t="s">
+      <c r="E135" s="171"/>
+      <c r="F135" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="183"/>
-      <c r="H135" s="182" t="s">
+      <c r="G135" s="171"/>
+      <c r="H135" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="I135" s="183"/>
-      <c r="J135" s="182" t="s">
+      <c r="I135" s="171"/>
+      <c r="J135" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="K135" s="183"/>
-      <c r="L135" s="182" t="s">
+      <c r="K135" s="171"/>
+      <c r="L135" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M135" s="183"/>
-      <c r="N135" s="182" t="s">
+      <c r="M135" s="171"/>
+      <c r="N135" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O135" s="183"/>
-      <c r="P135" s="182" t="s">
+      <c r="O135" s="171"/>
+      <c r="P135" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q135" s="183"/>
-      <c r="R135" s="182" t="s">
+      <c r="Q135" s="171"/>
+      <c r="R135" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S135" s="183"/>
-      <c r="T135" s="182" t="s">
+      <c r="S135" s="171"/>
+      <c r="T135" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U135" s="183"/>
-      <c r="V135" s="182" t="s">
+      <c r="U135" s="171"/>
+      <c r="V135" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W135" s="183"/>
-      <c r="X135" s="182" t="s">
+      <c r="W135" s="171"/>
+      <c r="X135" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y135" s="183"/>
-      <c r="Z135" s="182" t="s">
+      <c r="Y135" s="171"/>
+      <c r="Z135" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA135" s="183"/>
-      <c r="AB135" s="202" t="s">
+      <c r="AA135" s="171"/>
+      <c r="AB135" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="AC135" s="176" t="s">
+      <c r="AC135" s="174" t="s">
         <v>628</v>
       </c>
-      <c r="AD135" s="176" t="s">
+      <c r="AD135" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE135" s="166" t="s">
+      <c r="AE135" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF135" s="166" t="s">
+      <c r="AF135" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="136" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A136" s="201"/>
-      <c r="B136" s="201"/>
-      <c r="C136" s="191"/>
+      <c r="A136" s="188"/>
+      <c r="B136" s="188"/>
+      <c r="C136" s="186"/>
       <c r="D136" s="73" t="s">
         <v>14</v>
       </c>
@@ -15674,14 +15674,14 @@
       <c r="AA136" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB136" s="203"/>
-      <c r="AC136" s="176"/>
-      <c r="AD136" s="176"/>
-      <c r="AE136" s="166"/>
-      <c r="AF136" s="166"/>
+      <c r="AB136" s="173"/>
+      <c r="AC136" s="174"/>
+      <c r="AD136" s="174"/>
+      <c r="AE136" s="169"/>
+      <c r="AF136" s="169"/>
     </row>
     <row r="137" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A137" s="187" t="s">
+      <c r="A137" s="191" t="s">
         <v>35</v>
       </c>
       <c r="B137" s="15" t="s">
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AC137" s="112"/>
-      <c r="AD137" s="228" t="str">
+      <c r="AD137" s="176" t="str">
         <f>CONCATENATE(AC137,AC138,AC139,AC140,AC141,AC142,AC143,AC144)</f>
         <v/>
       </c>
@@ -15742,13 +15742,13 @@
 )</f>
         <v/>
       </c>
-      <c r="AF137" s="164" t="str">
+      <c r="AF137" s="235" t="str">
         <f>CONCATENATE(AE137,AE138,AE139,AE140,AE141,AE142,AE143,AE144)</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A138" s="187"/>
+      <c r="A138" s="191"/>
       <c r="B138" s="15" t="s">
         <v>577</v>
       </c>
@@ -15802,7 +15802,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD138" s="229"/>
+      <c r="AD138" s="192"/>
       <c r="AE138" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15822,10 +15822,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF138" s="164"/>
+      <c r="AF138" s="235"/>
     </row>
     <row r="139" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A139" s="187"/>
+      <c r="A139" s="191"/>
       <c r="B139" s="15" t="s">
         <v>578</v>
       </c>
@@ -15879,7 +15879,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD139" s="229"/>
+      <c r="AD139" s="192"/>
       <c r="AE139" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15899,10 +15899,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF139" s="164"/>
+      <c r="AF139" s="235"/>
     </row>
     <row r="140" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A140" s="187"/>
+      <c r="A140" s="191"/>
       <c r="B140" s="15" t="s">
         <v>579</v>
       </c>
@@ -15956,7 +15956,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD140" s="229"/>
+      <c r="AD140" s="192"/>
       <c r="AE140" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15976,10 +15976,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF140" s="164"/>
+      <c r="AF140" s="235"/>
     </row>
     <row r="141" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A141" s="187"/>
+      <c r="A141" s="191"/>
       <c r="B141" s="15" t="s">
         <v>580</v>
       </c>
@@ -16015,12 +16015,12 @@
         <v>0</v>
       </c>
       <c r="AC141" s="112"/>
-      <c r="AD141" s="229"/>
+      <c r="AD141" s="192"/>
       <c r="AE141" s="117"/>
-      <c r="AF141" s="164"/>
+      <c r="AF141" s="235"/>
     </row>
     <row r="142" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A142" s="187" t="s">
+      <c r="A142" s="191" t="s">
         <v>145</v>
       </c>
       <c r="B142" s="15" t="s">
@@ -16076,30 +16076,30 @@
 )</f>
         <v/>
       </c>
-      <c r="AD142" s="229"/>
+      <c r="AD142" s="192"/>
       <c r="AE142" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
-IF(D142&lt;SUM(D125,D127)," * Sum of (F06-04+F06-06) for Age " &amp;D6&amp;" "&amp; D7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(E142&lt;SUM(E125,E127,E100)," * Sum of (F06-04+F06-06) for Age " &amp;D6&amp;" "&amp; E7&amp; " is greater than F06-18"&amp;CHAR(10),""),
-IF(F142&lt;SUM(F125,F127)," * Sum of (F06-04+F06-06) for Age " &amp;F6&amp;" "&amp; F7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(G142&lt;SUM(G125,G127,G100)," * Sum of (F06-04+F06-06) for Age " &amp;F6&amp;" "&amp; G7&amp; " is greater than F06-18"&amp;CHAR(10),""),
-IF(H142&lt;SUM(H125,H127)," * Sum of (F06-04+F06-06) for Age " &amp;H6&amp;" "&amp; H7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(I142&lt;SUM(I125,I127,I100)," * Sum of (F06-04+F06-06) for Age " &amp;H6&amp;" "&amp; I7&amp; " is greater than F06-18"&amp;CHAR(10),""),
-IF(J142&lt;SUM(J125,J127)," * Sum of (F06-04+F06-06) for Age " &amp;J6&amp;" "&amp; J7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(K142&lt;SUM(K125,K127,K100)," * Sum of (F06-04+F06-06) for Age " &amp;J6&amp;" "&amp; K7&amp; " is greater than F06-18"&amp;CHAR(10),""),
-IF(L142&lt;SUM(L125,L127)," * Sum of (F06-04+F06-06) for Age " &amp;L6&amp;" "&amp; L7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(M142&lt;SUM(M125,M127,M100)," * Sum of (F06-04+F06-06) for Age " &amp;L6&amp;" "&amp; M7&amp; " is greater than F06-18"&amp;CHAR(10),""),
-IF(N142&lt;SUM(N125,N127)," * Sum of (F06-04+F06-06) for Age " &amp;N6&amp;" "&amp; N7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(O142&lt;SUM(O125,O127,O100)," * Sum of (F06-04+F06-06) for Age " &amp;N6&amp;" "&amp; O7&amp; " is greater than F06-18"&amp;CHAR(10),""),
-IF(P142&lt;SUM(P125,P127)," * Sum of (F06-04+F06-06) for Age " &amp;P6&amp;" "&amp; P7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(Q142&lt;SUM(Q125,Q127,Q100)," * Sum of (F06-04+F06-06) for Age " &amp;P6&amp;" "&amp; Q7&amp; " is greater than F06-18"&amp;CHAR(10),""),
-IF(R142&lt;SUM(R125,R127)," * Sum of (F06-04+F06-06) for Age " &amp;R6&amp;" "&amp; R7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(S142&lt;SUM(S125,S127,S100)," * Sum of (F06-04+F06-06) for Age " &amp;R6&amp;" "&amp; S7&amp; " is greater than F06-18"&amp;CHAR(10),""),
-IF(T142&lt;SUM(T125,T127)," * Sum of (F06-04+F06-06) for Age " &amp;T6&amp;" "&amp; T7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(U142&lt;SUM(U125,U127,U100)," * Sum of (F06-04+F06-06) for Age " &amp;T6&amp;" "&amp; U7&amp; " is greater than F06-18"&amp;CHAR(10),""),
-IF(V142&lt;SUM(V125,V127)," * Sum of (F06-04+F06-06) for Age " &amp;V6&amp;" "&amp; V7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(W142&lt;SUM(W125,W127,W100)," * Sum of (F06-04+F06-06) for Age " &amp;V6&amp;" "&amp; W7&amp; " is greater than F06-18"&amp;CHAR(10),""),
-IF(X142&lt;SUM(X125,X127)," * Sum of (F06-04+F06-06) for Age " &amp;X6&amp;" "&amp; X7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(Y142&lt;SUM(Y125,Y127,Y100)," * Sum of (F06-04+F06-06) for Age " &amp;X6&amp;" "&amp; Y7&amp; " is greater than F06-18"&amp;CHAR(10),""),
-IF(Z142&lt;SUM(Z125,Z127)," * Sum of (F06-04+F06-06) for Age " &amp;Z6&amp;" "&amp; Z7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(AA142&lt;SUM(AA125,AA127,AA100)," * Sum of (F06-04+F06-06) for Age " &amp;Z6&amp;" "&amp; AA7&amp; " is greater than F06-18"&amp;CHAR(10),""),
-IF(AB142&lt;SUM(AB125,AB127)," * Total Sum of (F06-04+F06-06) is greater than F06-18"&amp;CHAR(10),"")
+IF(D142&lt;SUM(D125,D123,D127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;D6&amp;" "&amp; D7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(E142&lt;SUM(E125,E123,E127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;D6&amp;" "&amp; E7&amp; " is greater than F06-18"&amp;CHAR(10),""),
+IF(F142&lt;SUM(F125,F123,F127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;F6&amp;" "&amp; F7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(G142&lt;SUM(G125,G123,G127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;F6&amp;" "&amp; G7&amp; " is greater than F06-18"&amp;CHAR(10),""),
+IF(H142&lt;SUM(H125,H123,H127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;H6&amp;" "&amp; H7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(I142&lt;SUM(I125,I123,I127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;H6&amp;" "&amp; I7&amp; " is greater than F06-18"&amp;CHAR(10),""),
+IF(J142&lt;SUM(J125,J123,J127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;J6&amp;" "&amp; J7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(K142&lt;SUM(K125,K123,K127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;J6&amp;" "&amp; K7&amp; " is greater than F06-18"&amp;CHAR(10),""),
+IF(L142&lt;SUM(L125,L123,L127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;L6&amp;" "&amp; L7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(M142&lt;SUM(M125,M123,M127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;L6&amp;" "&amp; M7&amp; " is greater than F06-18"&amp;CHAR(10),""),
+IF(N142&lt;SUM(N125,N123,N127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;N6&amp;" "&amp; N7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(O142&lt;SUM(O125,O123,O127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;N6&amp;" "&amp; O7&amp; " is greater than F06-18"&amp;CHAR(10),""),
+IF(P142&lt;SUM(P125,P123,P127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;P6&amp;" "&amp; P7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(Q142&lt;SUM(Q125,Q123,Q127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;P6&amp;" "&amp; Q7&amp; " is greater than F06-18"&amp;CHAR(10),""),
+IF(R142&lt;SUM(R125,R123,R127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;R6&amp;" "&amp; R7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(S142&lt;SUM(S125,S123,S127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;R6&amp;" "&amp; S7&amp; " is greater than F06-18"&amp;CHAR(10),""),
+IF(T142&lt;SUM(T125,T123,T127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;T6&amp;" "&amp; T7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(U142&lt;SUM(U125,U123,U127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;T6&amp;" "&amp; U7&amp; " is greater than F06-18"&amp;CHAR(10),""),
+IF(V142&lt;SUM(V125,V123,V127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;V6&amp;" "&amp; V7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(W142&lt;SUM(W125,W123,W127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;V6&amp;" "&amp; W7&amp; " is greater than F06-18"&amp;CHAR(10),""),
+IF(X142&lt;SUM(X125,X123,X127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;X6&amp;" "&amp; X7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(Y142&lt;SUM(Y125,Y123,Y127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;X6&amp;" "&amp; Y7&amp; " is greater than F06-18"&amp;CHAR(10),""),
+IF(Z142&lt;SUM(Z125,Z123,Z127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;Z6&amp;" "&amp; Z7&amp; " is greater than F06-18"&amp;CHAR(10),""),IF(AA142&lt;SUM(AA125,AA123,AA127)," * Sum of (F06-02+F06-04+F06-06) for Age " &amp;Z6&amp;" "&amp; AA7&amp; " is greater than F06-18"&amp;CHAR(10),""),
+IF(AB142&lt;SUM(AB125,AB123,AB127)," * Total Sum of (F06-02+F06-04+F06-06) is greater than F06-18"&amp;CHAR(10),"")
 )</f>
         <v/>
       </c>
-      <c r="AF142" s="164"/>
+      <c r="AF142" s="235"/>
     </row>
     <row r="143" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A143" s="187"/>
+      <c r="A143" s="191"/>
       <c r="B143" s="15" t="s">
         <v>581</v>
       </c>
@@ -16153,7 +16153,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD143" s="229"/>
+      <c r="AD143" s="192"/>
       <c r="AE143" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16173,10 +16173,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF143" s="164"/>
+      <c r="AF143" s="235"/>
     </row>
     <row r="144" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A144" s="206"/>
+      <c r="A144" s="179"/>
       <c r="B144" s="99" t="s">
         <v>582</v>
       </c>
@@ -16230,7 +16230,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD144" s="229"/>
+      <c r="AD144" s="192"/>
       <c r="AE144" s="119" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16250,122 +16250,122 @@
 )</f>
         <v/>
       </c>
-      <c r="AF144" s="164"/>
+      <c r="AF144" s="235"/>
     </row>
     <row r="145" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A145" s="170" t="s">
+      <c r="A145" s="244" t="s">
         <v>156</v>
       </c>
-      <c r="B145" s="170"/>
-      <c r="C145" s="170"/>
-      <c r="D145" s="170"/>
-      <c r="E145" s="170"/>
-      <c r="F145" s="170"/>
-      <c r="G145" s="170"/>
-      <c r="H145" s="170"/>
-      <c r="I145" s="170"/>
-      <c r="J145" s="170"/>
-      <c r="K145" s="170"/>
-      <c r="L145" s="170"/>
-      <c r="M145" s="170"/>
-      <c r="N145" s="170"/>
-      <c r="O145" s="170"/>
-      <c r="P145" s="170"/>
-      <c r="Q145" s="170"/>
-      <c r="R145" s="170"/>
-      <c r="S145" s="170"/>
-      <c r="T145" s="170"/>
-      <c r="U145" s="170"/>
-      <c r="V145" s="170"/>
-      <c r="W145" s="170"/>
-      <c r="X145" s="170"/>
-      <c r="Y145" s="170"/>
-      <c r="Z145" s="170"/>
-      <c r="AA145" s="170"/>
-      <c r="AB145" s="170"/>
-      <c r="AC145" s="170"/>
-      <c r="AD145" s="170"/>
-      <c r="AE145" s="170"/>
-      <c r="AF145" s="170"/>
+      <c r="B145" s="244"/>
+      <c r="C145" s="244"/>
+      <c r="D145" s="244"/>
+      <c r="E145" s="244"/>
+      <c r="F145" s="244"/>
+      <c r="G145" s="244"/>
+      <c r="H145" s="244"/>
+      <c r="I145" s="244"/>
+      <c r="J145" s="244"/>
+      <c r="K145" s="244"/>
+      <c r="L145" s="244"/>
+      <c r="M145" s="244"/>
+      <c r="N145" s="244"/>
+      <c r="O145" s="244"/>
+      <c r="P145" s="244"/>
+      <c r="Q145" s="244"/>
+      <c r="R145" s="244"/>
+      <c r="S145" s="244"/>
+      <c r="T145" s="244"/>
+      <c r="U145" s="244"/>
+      <c r="V145" s="244"/>
+      <c r="W145" s="244"/>
+      <c r="X145" s="244"/>
+      <c r="Y145" s="244"/>
+      <c r="Z145" s="244"/>
+      <c r="AA145" s="244"/>
+      <c r="AB145" s="244"/>
+      <c r="AC145" s="244"/>
+      <c r="AD145" s="244"/>
+      <c r="AE145" s="244"/>
+      <c r="AF145" s="244"/>
     </row>
     <row r="146" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A146" s="200" t="s">
+      <c r="A146" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B146" s="200" t="s">
+      <c r="B146" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C146" s="190" t="s">
+      <c r="C146" s="185" t="s">
         <v>508</v>
       </c>
-      <c r="D146" s="210" t="s">
+      <c r="D146" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E146" s="183"/>
-      <c r="F146" s="182" t="s">
+      <c r="E146" s="171"/>
+      <c r="F146" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="G146" s="183"/>
-      <c r="H146" s="182" t="s">
+      <c r="G146" s="171"/>
+      <c r="H146" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="I146" s="183"/>
-      <c r="J146" s="182" t="s">
+      <c r="I146" s="171"/>
+      <c r="J146" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="K146" s="183"/>
-      <c r="L146" s="182" t="s">
+      <c r="K146" s="171"/>
+      <c r="L146" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M146" s="183"/>
-      <c r="N146" s="182" t="s">
+      <c r="M146" s="171"/>
+      <c r="N146" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O146" s="183"/>
-      <c r="P146" s="182" t="s">
+      <c r="O146" s="171"/>
+      <c r="P146" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q146" s="183"/>
-      <c r="R146" s="182" t="s">
+      <c r="Q146" s="171"/>
+      <c r="R146" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S146" s="183"/>
-      <c r="T146" s="182" t="s">
+      <c r="S146" s="171"/>
+      <c r="T146" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U146" s="183"/>
-      <c r="V146" s="182" t="s">
+      <c r="U146" s="171"/>
+      <c r="V146" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W146" s="183"/>
-      <c r="X146" s="182" t="s">
+      <c r="W146" s="171"/>
+      <c r="X146" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y146" s="183"/>
-      <c r="Z146" s="182" t="s">
+      <c r="Y146" s="171"/>
+      <c r="Z146" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA146" s="183"/>
-      <c r="AB146" s="224" t="s">
+      <c r="AA146" s="171"/>
+      <c r="AB146" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="AC146" s="226" t="s">
+      <c r="AC146" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="AD146" s="176" t="s">
+      <c r="AD146" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE146" s="166" t="s">
+      <c r="AE146" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF146" s="166" t="s">
+      <c r="AF146" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="147" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A147" s="201"/>
-      <c r="B147" s="201"/>
-      <c r="C147" s="191"/>
+      <c r="A147" s="188"/>
+      <c r="B147" s="188"/>
+      <c r="C147" s="186"/>
       <c r="D147" s="73" t="s">
         <v>14</v>
       </c>
@@ -16438,14 +16438,14 @@
       <c r="AA147" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB147" s="225"/>
-      <c r="AC147" s="193"/>
-      <c r="AD147" s="176"/>
-      <c r="AE147" s="166"/>
-      <c r="AF147" s="166"/>
+      <c r="AB147" s="206"/>
+      <c r="AC147" s="200"/>
+      <c r="AD147" s="174"/>
+      <c r="AE147" s="169"/>
+      <c r="AF147" s="169"/>
     </row>
     <row r="148" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A148" s="206" t="s">
+      <c r="A148" s="179" t="s">
         <v>47</v>
       </c>
       <c r="B148" s="15" t="s">
@@ -16501,18 +16501,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD148" s="228" t="str">
+      <c r="AD148" s="176" t="str">
         <f>CONCATENATE(AC148,AC149,AC150,AC151)</f>
         <v/>
       </c>
       <c r="AE148" s="117"/>
-      <c r="AF148" s="164" t="str">
+      <c r="AF148" s="235" t="str">
         <f>CONCATENATE(AE148,AE149,AE150,AE151)</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:32" s="10" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A149" s="207"/>
+      <c r="A149" s="198"/>
       <c r="B149" s="94" t="s">
         <v>584</v>
       </c>
@@ -16566,7 +16566,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD149" s="229"/>
+      <c r="AD149" s="192"/>
       <c r="AE149" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16574,10 +16574,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF149" s="164"/>
+      <c r="AF149" s="235"/>
     </row>
     <row r="150" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A150" s="207"/>
+      <c r="A150" s="198"/>
       <c r="B150" s="15" t="s">
         <v>585</v>
       </c>
@@ -16613,12 +16613,12 @@
         <v>0</v>
       </c>
       <c r="AC150" s="112"/>
-      <c r="AD150" s="229"/>
+      <c r="AD150" s="192"/>
       <c r="AE150" s="117"/>
-      <c r="AF150" s="164"/>
+      <c r="AF150" s="235"/>
     </row>
     <row r="151" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A151" s="207"/>
+      <c r="A151" s="198"/>
       <c r="B151" s="99" t="s">
         <v>586</v>
       </c>
@@ -16672,124 +16672,124 @@
 )</f>
         <v/>
       </c>
-      <c r="AD151" s="229"/>
+      <c r="AD151" s="192"/>
       <c r="AE151" s="119"/>
-      <c r="AF151" s="164"/>
+      <c r="AF151" s="235"/>
     </row>
     <row r="152" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A152" s="170" t="s">
+      <c r="A152" s="244" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="170"/>
-      <c r="C152" s="170"/>
-      <c r="D152" s="170"/>
-      <c r="E152" s="170"/>
-      <c r="F152" s="170"/>
-      <c r="G152" s="170"/>
-      <c r="H152" s="170"/>
-      <c r="I152" s="170"/>
-      <c r="J152" s="170"/>
-      <c r="K152" s="170"/>
-      <c r="L152" s="170"/>
-      <c r="M152" s="170"/>
-      <c r="N152" s="170"/>
-      <c r="O152" s="170"/>
-      <c r="P152" s="170"/>
-      <c r="Q152" s="170"/>
-      <c r="R152" s="170"/>
-      <c r="S152" s="170"/>
-      <c r="T152" s="170"/>
-      <c r="U152" s="170"/>
-      <c r="V152" s="170"/>
-      <c r="W152" s="170"/>
-      <c r="X152" s="170"/>
-      <c r="Y152" s="170"/>
-      <c r="Z152" s="170"/>
-      <c r="AA152" s="170"/>
-      <c r="AB152" s="170"/>
-      <c r="AC152" s="170"/>
-      <c r="AD152" s="170"/>
-      <c r="AE152" s="170"/>
-      <c r="AF152" s="170"/>
+      <c r="B152" s="244"/>
+      <c r="C152" s="244"/>
+      <c r="D152" s="244"/>
+      <c r="E152" s="244"/>
+      <c r="F152" s="244"/>
+      <c r="G152" s="244"/>
+      <c r="H152" s="244"/>
+      <c r="I152" s="244"/>
+      <c r="J152" s="244"/>
+      <c r="K152" s="244"/>
+      <c r="L152" s="244"/>
+      <c r="M152" s="244"/>
+      <c r="N152" s="244"/>
+      <c r="O152" s="244"/>
+      <c r="P152" s="244"/>
+      <c r="Q152" s="244"/>
+      <c r="R152" s="244"/>
+      <c r="S152" s="244"/>
+      <c r="T152" s="244"/>
+      <c r="U152" s="244"/>
+      <c r="V152" s="244"/>
+      <c r="W152" s="244"/>
+      <c r="X152" s="244"/>
+      <c r="Y152" s="244"/>
+      <c r="Z152" s="244"/>
+      <c r="AA152" s="244"/>
+      <c r="AB152" s="244"/>
+      <c r="AC152" s="244"/>
+      <c r="AD152" s="244"/>
+      <c r="AE152" s="244"/>
+      <c r="AF152" s="244"/>
     </row>
     <row r="153" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A153" s="200" t="s">
+      <c r="A153" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="B153" s="200" t="s">
+      <c r="B153" s="187" t="s">
         <v>594</v>
       </c>
-      <c r="C153" s="190" t="s">
+      <c r="C153" s="185" t="s">
         <v>508</v>
       </c>
-      <c r="D153" s="210" t="s">
+      <c r="D153" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E153" s="183"/>
-      <c r="F153" s="182" t="s">
+      <c r="E153" s="171"/>
+      <c r="F153" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="G153" s="183"/>
-      <c r="H153" s="182" t="s">
+      <c r="G153" s="171"/>
+      <c r="H153" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="I153" s="183"/>
-      <c r="J153" s="182" t="s">
+      <c r="I153" s="171"/>
+      <c r="J153" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="K153" s="183"/>
-      <c r="L153" s="182" t="s">
+      <c r="K153" s="171"/>
+      <c r="L153" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="M153" s="183"/>
-      <c r="N153" s="182" t="s">
+      <c r="M153" s="171"/>
+      <c r="N153" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="O153" s="183"/>
-      <c r="P153" s="182" t="s">
+      <c r="O153" s="171"/>
+      <c r="P153" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="Q153" s="183"/>
-      <c r="R153" s="182" t="s">
+      <c r="Q153" s="171"/>
+      <c r="R153" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="S153" s="183"/>
-      <c r="T153" s="182" t="s">
+      <c r="S153" s="171"/>
+      <c r="T153" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="U153" s="183"/>
-      <c r="V153" s="182" t="s">
+      <c r="U153" s="171"/>
+      <c r="V153" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="W153" s="183"/>
-      <c r="X153" s="182" t="s">
+      <c r="W153" s="171"/>
+      <c r="X153" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="Y153" s="183"/>
-      <c r="Z153" s="182" t="s">
+      <c r="Y153" s="171"/>
+      <c r="Z153" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="AA153" s="183"/>
-      <c r="AB153" s="224" t="s">
+      <c r="AA153" s="171"/>
+      <c r="AB153" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="AC153" s="226" t="s">
+      <c r="AC153" s="199" t="s">
         <v>628</v>
       </c>
-      <c r="AD153" s="176" t="s">
+      <c r="AD153" s="174" t="s">
         <v>638</v>
       </c>
-      <c r="AE153" s="166" t="s">
+      <c r="AE153" s="169" t="s">
         <v>639</v>
       </c>
-      <c r="AF153" s="166" t="s">
+      <c r="AF153" s="169" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="154" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A154" s="201"/>
-      <c r="B154" s="201"/>
-      <c r="C154" s="191"/>
+      <c r="A154" s="188"/>
+      <c r="B154" s="188"/>
+      <c r="C154" s="186"/>
       <c r="D154" s="73" t="s">
         <v>14</v>
       </c>
@@ -16862,14 +16862,14 @@
       <c r="AA154" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB154" s="225"/>
-      <c r="AC154" s="193"/>
-      <c r="AD154" s="176"/>
-      <c r="AE154" s="166"/>
-      <c r="AF154" s="166"/>
+      <c r="AB154" s="206"/>
+      <c r="AC154" s="200"/>
+      <c r="AD154" s="174"/>
+      <c r="AE154" s="169"/>
+      <c r="AF154" s="169"/>
     </row>
     <row r="155" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A155" s="206" t="s">
+      <c r="A155" s="179" t="s">
         <v>36</v>
       </c>
       <c r="B155" s="15" t="s">
@@ -16925,18 +16925,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD155" s="228" t="str">
+      <c r="AD155" s="176" t="str">
         <f>CONCATENATE(AC155,AC156,AC157,AC158,AC159,AC160,AC161,AC162,AC163,AC164,AC165)</f>
         <v/>
       </c>
       <c r="AE155" s="117"/>
-      <c r="AF155" s="164" t="str">
+      <c r="AF155" s="235" t="str">
         <f>CONCATENATE(AE155,AE156,AE157,AE158,AE159,AE160,AE161,AE162,AE163,AE164,AE165)</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:32" s="10" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A156" s="207"/>
+      <c r="A156" s="198"/>
       <c r="B156" s="15" t="s">
         <v>430</v>
       </c>
@@ -16972,12 +16972,12 @@
         <v>0</v>
       </c>
       <c r="AC156" s="112"/>
-      <c r="AD156" s="229"/>
+      <c r="AD156" s="192"/>
       <c r="AE156" s="117"/>
-      <c r="AF156" s="164"/>
+      <c r="AF156" s="235"/>
     </row>
     <row r="157" spans="1:32" s="10" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A157" s="207"/>
+      <c r="A157" s="198"/>
       <c r="B157" s="15" t="s">
         <v>431</v>
       </c>
@@ -17013,12 +17013,12 @@
         <v>0</v>
       </c>
       <c r="AC157" s="112"/>
-      <c r="AD157" s="229"/>
+      <c r="AD157" s="192"/>
       <c r="AE157" s="117"/>
-      <c r="AF157" s="164"/>
+      <c r="AF157" s="235"/>
     </row>
     <row r="158" spans="1:32" s="10" customFormat="1" ht="88.35" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A158" s="208"/>
+      <c r="A158" s="180"/>
       <c r="B158" s="15" t="s">
         <v>588</v>
       </c>
@@ -17054,12 +17054,12 @@
         <v>0</v>
       </c>
       <c r="AC158" s="112"/>
-      <c r="AD158" s="229"/>
+      <c r="AD158" s="192"/>
       <c r="AE158" s="117"/>
-      <c r="AF158" s="164"/>
+      <c r="AF158" s="235"/>
     </row>
     <row r="159" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A159" s="187" t="s">
+      <c r="A159" s="191" t="s">
         <v>146</v>
       </c>
       <c r="B159" s="15" t="s">
@@ -17097,12 +17097,12 @@
         <v>0</v>
       </c>
       <c r="AC159" s="112"/>
-      <c r="AD159" s="229"/>
+      <c r="AD159" s="192"/>
       <c r="AE159" s="117"/>
-      <c r="AF159" s="164"/>
+      <c r="AF159" s="235"/>
     </row>
     <row r="160" spans="1:32" s="10" customFormat="1" ht="161.44999999999999" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A160" s="187"/>
+      <c r="A160" s="191"/>
       <c r="B160" s="15" t="s">
         <v>435</v>
       </c>
@@ -17138,12 +17138,12 @@
         <v>0</v>
       </c>
       <c r="AC160" s="112"/>
-      <c r="AD160" s="229"/>
+      <c r="AD160" s="192"/>
       <c r="AE160" s="117"/>
-      <c r="AF160" s="164"/>
+      <c r="AF160" s="235"/>
     </row>
     <row r="161" spans="1:32" s="10" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A161" s="187"/>
+      <c r="A161" s="191"/>
       <c r="B161" s="15" t="s">
         <v>590</v>
       </c>
@@ -17179,12 +17179,12 @@
         <v>0</v>
       </c>
       <c r="AC161" s="112"/>
-      <c r="AD161" s="229"/>
+      <c r="AD161" s="192"/>
       <c r="AE161" s="117"/>
-      <c r="AF161" s="164"/>
+      <c r="AF161" s="235"/>
     </row>
     <row r="162" spans="1:32" s="10" customFormat="1" ht="158.1" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A162" s="187"/>
+      <c r="A162" s="191"/>
       <c r="B162" s="15" t="s">
         <v>591</v>
       </c>
@@ -17220,12 +17220,12 @@
         <v>0</v>
       </c>
       <c r="AC162" s="112"/>
-      <c r="AD162" s="229"/>
+      <c r="AD162" s="192"/>
       <c r="AE162" s="117"/>
-      <c r="AF162" s="164"/>
+      <c r="AF162" s="235"/>
     </row>
     <row r="163" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A163" s="187"/>
+      <c r="A163" s="191"/>
       <c r="B163" s="15" t="s">
         <v>438</v>
       </c>
@@ -17261,12 +17261,12 @@
         <v>0</v>
       </c>
       <c r="AC163" s="112"/>
-      <c r="AD163" s="229"/>
+      <c r="AD163" s="192"/>
       <c r="AE163" s="117"/>
-      <c r="AF163" s="164"/>
+      <c r="AF163" s="235"/>
     </row>
     <row r="164" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A164" s="187"/>
+      <c r="A164" s="191"/>
       <c r="B164" s="15" t="s">
         <v>592</v>
       </c>
@@ -17302,12 +17302,12 @@
         <v>0</v>
       </c>
       <c r="AC164" s="112"/>
-      <c r="AD164" s="229"/>
+      <c r="AD164" s="192"/>
       <c r="AE164" s="117"/>
-      <c r="AF164" s="164"/>
+      <c r="AF164" s="235"/>
     </row>
     <row r="165" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="1">
-      <c r="A165" s="223"/>
+      <c r="A165" s="204"/>
       <c r="B165" s="95" t="s">
         <v>593</v>
       </c>
@@ -17343,9 +17343,9 @@
         <v>0</v>
       </c>
       <c r="AC165" s="115"/>
-      <c r="AD165" s="234"/>
+      <c r="AD165" s="193"/>
       <c r="AE165" s="117"/>
-      <c r="AF165" s="164"/>
+      <c r="AF165" s="235"/>
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.7">
       <c r="A166" s="6"/>
@@ -17385,8 +17385,277 @@
       <c r="M169" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="645NeKhGO8x89P5gMdxc26+B2HhAAWkWraTMm+muqqGD4z7tXTPbmOwdlDiZaIU67kQ8VQ7kYgCGRPihnF3KZw==" saltValue="ERzFagixgJPKtCNWaym0vA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="293">
+    <mergeCell ref="AF155:AF165"/>
+    <mergeCell ref="AF8:AF36"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="A5:AF5"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AF46:AF47"/>
+    <mergeCell ref="AF66:AF67"/>
+    <mergeCell ref="AF81:AF82"/>
+    <mergeCell ref="AF102:AF103"/>
+    <mergeCell ref="AF120:AF121"/>
+    <mergeCell ref="AF135:AF136"/>
+    <mergeCell ref="AF146:AF147"/>
+    <mergeCell ref="AF153:AF154"/>
+    <mergeCell ref="A152:AF152"/>
+    <mergeCell ref="A145:AF145"/>
+    <mergeCell ref="A134:AF134"/>
+    <mergeCell ref="A119:AF119"/>
+    <mergeCell ref="A101:AF101"/>
+    <mergeCell ref="A80:AF80"/>
+    <mergeCell ref="A65:AF65"/>
+    <mergeCell ref="A45:AF45"/>
+    <mergeCell ref="A37:AF37"/>
+    <mergeCell ref="AF40:AF44"/>
+    <mergeCell ref="AF48:AF64"/>
+    <mergeCell ref="AF68:AF79"/>
+    <mergeCell ref="AF83:AF100"/>
+    <mergeCell ref="AF104:AF118"/>
+    <mergeCell ref="AF122:AF133"/>
+    <mergeCell ref="AF137:AF144"/>
+    <mergeCell ref="AF148:AF151"/>
+    <mergeCell ref="AC48:AC49"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AE102:AE103"/>
+    <mergeCell ref="AE120:AE121"/>
+    <mergeCell ref="AC115:AC116"/>
+    <mergeCell ref="AC113:AC114"/>
+    <mergeCell ref="AC111:AC112"/>
+    <mergeCell ref="AC46:AC47"/>
+    <mergeCell ref="AD8:AD36"/>
+    <mergeCell ref="AE146:AE147"/>
+    <mergeCell ref="AE135:AE136"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="AE46:AE47"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="AB66:AB67"/>
+    <mergeCell ref="AE66:AE67"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="AC53:AC54"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="D38:I39"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A4:AF4"/>
+    <mergeCell ref="AE81:AE82"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="AC66:AC67"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="AB81:AB82"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="V153:W153"/>
+    <mergeCell ref="X153:Y153"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="Z146:AA146"/>
+    <mergeCell ref="AB146:AB147"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="R146:S146"/>
+    <mergeCell ref="T146:U146"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="Z153:AA153"/>
+    <mergeCell ref="AB153:AB154"/>
+    <mergeCell ref="V146:W146"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="AC153:AC154"/>
+    <mergeCell ref="AC146:AC147"/>
+    <mergeCell ref="AC135:AC136"/>
+    <mergeCell ref="AC120:AC121"/>
+    <mergeCell ref="AC102:AC103"/>
+    <mergeCell ref="AC130:AC131"/>
+    <mergeCell ref="AC132:AC133"/>
+    <mergeCell ref="AC128:AC129"/>
+    <mergeCell ref="AC126:AC127"/>
+    <mergeCell ref="AC109:AC110"/>
+    <mergeCell ref="AC104:AC105"/>
+    <mergeCell ref="V135:W135"/>
+    <mergeCell ref="X135:Y135"/>
+    <mergeCell ref="Z135:AA135"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="R135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="AD46:AD47"/>
+    <mergeCell ref="AD40:AD44"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="A123:A131"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="R120:S120"/>
+    <mergeCell ref="T120:U120"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X120:Y120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="V102:W102"/>
+    <mergeCell ref="X102:Y102"/>
+    <mergeCell ref="Z102:AA102"/>
+    <mergeCell ref="AB102:AB103"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="AD155:AD165"/>
+    <mergeCell ref="AD148:AD151"/>
+    <mergeCell ref="AD137:AD144"/>
+    <mergeCell ref="AD135:AD136"/>
+    <mergeCell ref="AD146:AD147"/>
+    <mergeCell ref="AD153:AD154"/>
+    <mergeCell ref="AD122:AD133"/>
+    <mergeCell ref="AD120:AD121"/>
+    <mergeCell ref="AD104:AD118"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="P153:Q153"/>
+    <mergeCell ref="R153:S153"/>
+    <mergeCell ref="T153:U153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:V1"/>
@@ -17411,275 +17680,6 @@
     <mergeCell ref="AD68:AD79"/>
     <mergeCell ref="AD66:AD67"/>
     <mergeCell ref="AD48:AD64"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="P153:Q153"/>
-    <mergeCell ref="R153:S153"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="AD155:AD165"/>
-    <mergeCell ref="AD148:AD151"/>
-    <mergeCell ref="AD137:AD144"/>
-    <mergeCell ref="AD135:AD136"/>
-    <mergeCell ref="AD146:AD147"/>
-    <mergeCell ref="AD153:AD154"/>
-    <mergeCell ref="AD122:AD133"/>
-    <mergeCell ref="AD120:AD121"/>
-    <mergeCell ref="AD104:AD118"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="AD46:AD47"/>
-    <mergeCell ref="AD40:AD44"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="A123:A131"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="R120:S120"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="X120:Y120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="V102:W102"/>
-    <mergeCell ref="X102:Y102"/>
-    <mergeCell ref="Z102:AA102"/>
-    <mergeCell ref="AB102:AB103"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="V135:W135"/>
-    <mergeCell ref="X135:Y135"/>
-    <mergeCell ref="Z135:AA135"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="R135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="AC153:AC154"/>
-    <mergeCell ref="AC146:AC147"/>
-    <mergeCell ref="AC135:AC136"/>
-    <mergeCell ref="AC120:AC121"/>
-    <mergeCell ref="AC102:AC103"/>
-    <mergeCell ref="AC130:AC131"/>
-    <mergeCell ref="AC132:AC133"/>
-    <mergeCell ref="AC128:AC129"/>
-    <mergeCell ref="AC126:AC127"/>
-    <mergeCell ref="AC109:AC110"/>
-    <mergeCell ref="AC104:AC105"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="V153:W153"/>
-    <mergeCell ref="X153:Y153"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="Z146:AA146"/>
-    <mergeCell ref="AB146:AB147"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="L146:M146"/>
-    <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="R146:S146"/>
-    <mergeCell ref="T146:U146"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="Z153:AA153"/>
-    <mergeCell ref="AB153:AB154"/>
-    <mergeCell ref="V146:W146"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="AE81:AE82"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="AC66:AC67"/>
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="AB81:AB82"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="D38:I39"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A4:AF4"/>
-    <mergeCell ref="AE46:AE47"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="AB66:AB67"/>
-    <mergeCell ref="AE66:AE67"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="AC53:AC54"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="A2:AC2"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="AF68:AF79"/>
-    <mergeCell ref="AF83:AF100"/>
-    <mergeCell ref="AF104:AF118"/>
-    <mergeCell ref="AF122:AF133"/>
-    <mergeCell ref="AF137:AF144"/>
-    <mergeCell ref="AF148:AF151"/>
-    <mergeCell ref="AC48:AC49"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AE102:AE103"/>
-    <mergeCell ref="AE120:AE121"/>
-    <mergeCell ref="AC115:AC116"/>
-    <mergeCell ref="AC113:AC114"/>
-    <mergeCell ref="AC111:AC112"/>
-    <mergeCell ref="AC46:AC47"/>
-    <mergeCell ref="AD8:AD36"/>
-    <mergeCell ref="AE146:AE147"/>
-    <mergeCell ref="AE135:AE136"/>
-    <mergeCell ref="AF155:AF165"/>
-    <mergeCell ref="AF8:AF36"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="A5:AF5"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AF46:AF47"/>
-    <mergeCell ref="AF66:AF67"/>
-    <mergeCell ref="AF81:AF82"/>
-    <mergeCell ref="AF102:AF103"/>
-    <mergeCell ref="AF120:AF121"/>
-    <mergeCell ref="AF135:AF136"/>
-    <mergeCell ref="AF146:AF147"/>
-    <mergeCell ref="AF153:AF154"/>
-    <mergeCell ref="A152:AF152"/>
-    <mergeCell ref="A145:AF145"/>
-    <mergeCell ref="A134:AF134"/>
-    <mergeCell ref="A119:AF119"/>
-    <mergeCell ref="A101:AF101"/>
-    <mergeCell ref="A80:AF80"/>
-    <mergeCell ref="A65:AF65"/>
-    <mergeCell ref="A45:AF45"/>
-    <mergeCell ref="A37:AF37"/>
-    <mergeCell ref="AF40:AF44"/>
-    <mergeCell ref="AF48:AF64"/>
   </mergeCells>
   <conditionalFormatting sqref="AC8">
     <cfRule type="notContainsBlanks" dxfId="59" priority="68">

--- a/web/F1v2.xlsx
+++ b/web/F1v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GeofreyNyabuto\NetbeansProjects\InternalSystem\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InternalSystem\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9669CB-F129-4B27-A287-97731EF7A669}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99C0345-653C-4AEA-82E7-CD18188D7848}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="a4gUMdZCGkDDzElfhkvI/brsAlzI4GhD8wwWIVFJCtcL8IfIwqWYpVjV2Q6nijKW2ipnQ8sfmugbKli0802lfw==" workbookSaltValue="1iepslPG5jc+WSQINC8vKA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C7A72A4-46D5-4130-84F6-E2BF1F1A15D0}"/>
@@ -4675,46 +4675,73 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4732,42 +4759,237 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4780,233 +5002,11 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6344,13 +6344,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="2:6" s="30" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="65" t="s">
@@ -6370,12 +6370,12 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="163"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="2:6" ht="96" customHeight="1" x14ac:dyDescent="0.45">
@@ -6822,16 +6822,16 @@
       </c>
     </row>
     <row r="31" spans="2:6" s="42" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="136"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="155"/>
     </row>
     <row r="32" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="140" t="s">
+      <c r="B32" s="134" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="38" t="s">
@@ -6843,12 +6843,12 @@
       <c r="E32" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="147" t="s">
+      <c r="F32" s="156" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="141"/>
+      <c r="B33" s="135"/>
       <c r="C33" s="38" t="s">
         <v>222</v>
       </c>
@@ -6858,10 +6858,10 @@
       <c r="E33" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="148"/>
+      <c r="F33" s="157"/>
     </row>
     <row r="34" spans="2:6" ht="39.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="141"/>
+      <c r="B34" s="135"/>
       <c r="C34" s="38" t="s">
         <v>227</v>
       </c>
@@ -6871,10 +6871,10 @@
       <c r="E34" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="148"/>
+      <c r="F34" s="157"/>
     </row>
     <row r="35" spans="2:6" ht="57.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="141"/>
+      <c r="B35" s="135"/>
       <c r="C35" s="38" t="s">
         <v>228</v>
       </c>
@@ -6884,10 +6884,10 @@
       <c r="E35" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="148"/>
+      <c r="F35" s="157"/>
     </row>
     <row r="36" spans="2:6" ht="72.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="142"/>
+      <c r="B36" s="136"/>
       <c r="C36" s="38" t="s">
         <v>230</v>
       </c>
@@ -6897,19 +6897,19 @@
       <c r="E36" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="149"/>
+      <c r="F36" s="158"/>
     </row>
     <row r="37" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="150" t="s">
+      <c r="B37" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="152"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="161"/>
     </row>
     <row r="38" spans="2:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="140" t="s">
+      <c r="B38" s="134" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="38" t="s">
@@ -6926,7 +6926,7 @@
       </c>
     </row>
     <row r="39" spans="2:6" ht="122.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="141"/>
+      <c r="B39" s="135"/>
       <c r="C39" s="38" t="s">
         <v>461</v>
       </c>
@@ -6941,7 +6941,7 @@
       </c>
     </row>
     <row r="40" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="141"/>
+      <c r="B40" s="135"/>
       <c r="C40" s="38" t="s">
         <v>462</v>
       </c>
@@ -6956,7 +6956,7 @@
       </c>
     </row>
     <row r="41" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="141"/>
+      <c r="B41" s="135"/>
       <c r="C41" s="38" t="s">
         <v>237</v>
       </c>
@@ -6971,7 +6971,7 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="141"/>
+      <c r="B42" s="135"/>
       <c r="C42" s="38" t="s">
         <v>463</v>
       </c>
@@ -6986,7 +6986,7 @@
       </c>
     </row>
     <row r="43" spans="2:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="140" t="s">
+      <c r="B43" s="134" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="38" t="s">
@@ -7003,7 +7003,7 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="141"/>
+      <c r="B44" s="135"/>
       <c r="C44" s="38" t="s">
         <v>242</v>
       </c>
@@ -7018,7 +7018,7 @@
       </c>
     </row>
     <row r="45" spans="2:6" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="142"/>
+      <c r="B45" s="136"/>
       <c r="C45" s="38" t="s">
         <v>244</v>
       </c>
@@ -7140,7 +7140,7 @@
       </c>
     </row>
     <row r="53" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="155" t="s">
+      <c r="B53" s="162" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="32" t="s">
@@ -7157,7 +7157,7 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="92.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="156"/>
+      <c r="B54" s="163"/>
       <c r="C54" s="32" t="s">
         <v>258</v>
       </c>
@@ -7172,16 +7172,16 @@
       </c>
     </row>
     <row r="55" spans="2:6" ht="47.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="134" t="s">
+      <c r="B55" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="135"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="136"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="152"/>
+      <c r="E55" s="152"/>
+      <c r="F55" s="155"/>
     </row>
     <row r="56" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="140" t="s">
+      <c r="B56" s="134" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="38" t="s">
@@ -7198,7 +7198,7 @@
       </c>
     </row>
     <row r="57" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="142"/>
+      <c r="B57" s="136"/>
       <c r="C57" s="38" t="s">
         <v>471</v>
       </c>
@@ -7213,7 +7213,7 @@
       </c>
     </row>
     <row r="58" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="140" t="s">
+      <c r="B58" s="134" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="38" t="s">
@@ -7230,7 +7230,7 @@
       </c>
     </row>
     <row r="59" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="142"/>
+      <c r="B59" s="136"/>
       <c r="C59" s="38" t="s">
         <v>471</v>
       </c>
@@ -7245,7 +7245,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="153" t="s">
+      <c r="B60" s="143" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="50" t="s">
@@ -7262,7 +7262,7 @@
       </c>
     </row>
     <row r="61" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="154"/>
+      <c r="B61" s="144"/>
       <c r="C61" s="50" t="s">
         <v>474</v>
       </c>
@@ -7277,7 +7277,7 @@
       </c>
     </row>
     <row r="62" spans="2:6" ht="62.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="153" t="s">
+      <c r="B62" s="143" t="s">
         <v>39</v>
       </c>
       <c r="C62" s="50" t="s">
@@ -7294,7 +7294,7 @@
       </c>
     </row>
     <row r="63" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="154"/>
+      <c r="B63" s="144"/>
       <c r="C63" s="50" t="s">
         <v>476</v>
       </c>
@@ -7309,7 +7309,7 @@
       </c>
     </row>
     <row r="64" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="153" t="s">
+      <c r="B64" s="143" t="s">
         <v>40</v>
       </c>
       <c r="C64" s="50" t="s">
@@ -7326,7 +7326,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="154"/>
+      <c r="B65" s="144"/>
       <c r="C65" s="50" t="s">
         <v>478</v>
       </c>
@@ -7341,7 +7341,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="153" t="s">
+      <c r="B66" s="143" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="50" t="s">
@@ -7358,7 +7358,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" ht="56.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="154"/>
+      <c r="B67" s="144"/>
       <c r="C67" s="50" t="s">
         <v>480</v>
       </c>
@@ -7373,16 +7373,16 @@
       </c>
     </row>
     <row r="68" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="134" t="s">
+      <c r="B68" s="151" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="135"/>
-      <c r="D68" s="135"/>
-      <c r="E68" s="135"/>
-      <c r="F68" s="136"/>
+      <c r="C68" s="152"/>
+      <c r="D68" s="152"/>
+      <c r="E68" s="152"/>
+      <c r="F68" s="155"/>
     </row>
     <row r="69" spans="2:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="140" t="s">
+      <c r="B69" s="134" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="38" t="s">
@@ -7399,7 +7399,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="141"/>
+      <c r="B70" s="135"/>
       <c r="C70" s="38" t="s">
         <v>288</v>
       </c>
@@ -7414,7 +7414,7 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="141"/>
+      <c r="B71" s="135"/>
       <c r="C71" s="38" t="s">
         <v>482</v>
       </c>
@@ -7429,7 +7429,7 @@
       </c>
     </row>
     <row r="72" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="141"/>
+      <c r="B72" s="135"/>
       <c r="C72" s="38" t="s">
         <v>483</v>
       </c>
@@ -7444,7 +7444,7 @@
       </c>
     </row>
     <row r="73" spans="2:6" ht="75.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="141"/>
+      <c r="B73" s="135"/>
       <c r="C73" s="38" t="s">
         <v>484</v>
       </c>
@@ -7459,7 +7459,7 @@
       </c>
     </row>
     <row r="74" spans="2:6" ht="99.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="142"/>
+      <c r="B74" s="136"/>
       <c r="C74" s="38" t="s">
         <v>485</v>
       </c>
@@ -7474,7 +7474,7 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="140" t="s">
+      <c r="B75" s="134" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="38" t="s">
@@ -7491,7 +7491,7 @@
       </c>
     </row>
     <row r="76" spans="2:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="141"/>
+      <c r="B76" s="135"/>
       <c r="C76" s="38" t="s">
         <v>486</v>
       </c>
@@ -7506,7 +7506,7 @@
       </c>
     </row>
     <row r="77" spans="2:6" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="141"/>
+      <c r="B77" s="135"/>
       <c r="C77" s="38" t="s">
         <v>304</v>
       </c>
@@ -7521,7 +7521,7 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="141"/>
+      <c r="B78" s="135"/>
       <c r="C78" s="38" t="s">
         <v>306</v>
       </c>
@@ -7536,7 +7536,7 @@
       </c>
     </row>
     <row r="79" spans="2:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="141"/>
+      <c r="B79" s="135"/>
       <c r="C79" s="38" t="s">
         <v>484</v>
       </c>
@@ -7551,7 +7551,7 @@
       </c>
     </row>
     <row r="80" spans="2:6" ht="96.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="142"/>
+      <c r="B80" s="136"/>
       <c r="C80" s="38" t="s">
         <v>309</v>
       </c>
@@ -7566,7 +7566,7 @@
       </c>
     </row>
     <row r="81" spans="2:6" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="140" t="s">
+      <c r="B81" s="134" t="s">
         <v>33</v>
       </c>
       <c r="C81" s="38" t="s">
@@ -7583,7 +7583,7 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="72.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="141"/>
+      <c r="B82" s="135"/>
       <c r="C82" s="38" t="s">
         <v>288</v>
       </c>
@@ -7598,7 +7598,7 @@
       </c>
     </row>
     <row r="83" spans="2:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="141"/>
+      <c r="B83" s="135"/>
       <c r="C83" s="38" t="s">
         <v>304</v>
       </c>
@@ -7613,7 +7613,7 @@
       </c>
     </row>
     <row r="84" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="141"/>
+      <c r="B84" s="135"/>
       <c r="C84" s="38" t="s">
         <v>483</v>
       </c>
@@ -7628,7 +7628,7 @@
       </c>
     </row>
     <row r="85" spans="2:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="141"/>
+      <c r="B85" s="135"/>
       <c r="C85" s="38" t="s">
         <v>484</v>
       </c>
@@ -7643,7 +7643,7 @@
       </c>
     </row>
     <row r="86" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="142"/>
+      <c r="B86" s="136"/>
       <c r="C86" s="38" t="s">
         <v>309</v>
       </c>
@@ -7658,16 +7658,16 @@
       </c>
     </row>
     <row r="87" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="134" t="s">
+      <c r="B87" s="151" t="s">
         <v>168</v>
       </c>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="136"/>
+      <c r="C87" s="152"/>
+      <c r="D87" s="152"/>
+      <c r="E87" s="152"/>
+      <c r="F87" s="155"/>
     </row>
     <row r="88" spans="2:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="B88" s="140" t="s">
+      <c r="B88" s="134" t="s">
         <v>44</v>
       </c>
       <c r="C88" s="38" t="s">
@@ -7684,7 +7684,7 @@
       </c>
     </row>
     <row r="89" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="142"/>
+      <c r="B89" s="136"/>
       <c r="C89" s="38" t="s">
         <v>488</v>
       </c>
@@ -7699,7 +7699,7 @@
       </c>
     </row>
     <row r="90" spans="2:6" ht="53.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="140" t="s">
+      <c r="B90" s="134" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="38" t="s">
@@ -7716,7 +7716,7 @@
       </c>
     </row>
     <row r="91" spans="2:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="142"/>
+      <c r="B91" s="136"/>
       <c r="C91" s="38" t="s">
         <v>327</v>
       </c>
@@ -7731,7 +7731,7 @@
       </c>
     </row>
     <row r="92" spans="2:6" ht="51.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="140" t="s">
+      <c r="B92" s="134" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="32" t="s">
@@ -7748,7 +7748,7 @@
       </c>
     </row>
     <row r="93" spans="2:6" ht="52.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="141"/>
+      <c r="B93" s="135"/>
       <c r="C93" s="32" t="s">
         <v>339</v>
       </c>
@@ -7763,7 +7763,7 @@
       </c>
     </row>
     <row r="94" spans="2:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="141"/>
+      <c r="B94" s="135"/>
       <c r="C94" s="32" t="s">
         <v>340</v>
       </c>
@@ -7778,7 +7778,7 @@
       </c>
     </row>
     <row r="95" spans="2:6" ht="65.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="141"/>
+      <c r="B95" s="135"/>
       <c r="C95" s="32" t="s">
         <v>343</v>
       </c>
@@ -7793,7 +7793,7 @@
       </c>
     </row>
     <row r="96" spans="2:6" ht="56.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B96" s="141"/>
+      <c r="B96" s="135"/>
       <c r="C96" s="32" t="s">
         <v>346</v>
       </c>
@@ -7808,7 +7808,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="141"/>
+      <c r="B97" s="135"/>
       <c r="C97" s="32" t="s">
         <v>490</v>
       </c>
@@ -7823,7 +7823,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="142"/>
+      <c r="B98" s="136"/>
       <c r="C98" s="32" t="s">
         <v>491</v>
       </c>
@@ -7838,7 +7838,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" s="48" customFormat="1" ht="74.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="158" t="s">
+      <c r="B99" s="148" t="s">
         <v>131</v>
       </c>
       <c r="C99" s="32" t="s">
@@ -7855,7 +7855,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="159"/>
+      <c r="B100" s="149"/>
       <c r="C100" s="32" t="s">
         <v>351</v>
       </c>
@@ -7870,7 +7870,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B101" s="159"/>
+      <c r="B101" s="149"/>
       <c r="C101" s="54" t="s">
         <v>493</v>
       </c>
@@ -7885,7 +7885,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="160"/>
+      <c r="B102" s="150"/>
       <c r="C102" s="54" t="s">
         <v>444</v>
       </c>
@@ -7900,13 +7900,13 @@
       </c>
     </row>
     <row r="103" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B103" s="134" t="s">
+      <c r="B103" s="151" t="s">
         <v>355</v>
       </c>
-      <c r="C103" s="135"/>
-      <c r="D103" s="135"/>
-      <c r="E103" s="135"/>
-      <c r="F103" s="136"/>
+      <c r="C103" s="152"/>
+      <c r="D103" s="152"/>
+      <c r="E103" s="152"/>
+      <c r="F103" s="155"/>
       <c r="H103" s="25" t="s">
         <v>448</v>
       </c>
@@ -7929,7 +7929,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B105" s="140" t="s">
+      <c r="B105" s="134" t="s">
         <v>46</v>
       </c>
       <c r="C105" s="38" t="s">
@@ -7946,7 +7946,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B106" s="141"/>
+      <c r="B106" s="135"/>
       <c r="C106" s="38" t="s">
         <v>359</v>
       </c>
@@ -7961,7 +7961,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" ht="83.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B107" s="141"/>
+      <c r="B107" s="135"/>
       <c r="C107" s="38" t="s">
         <v>360</v>
       </c>
@@ -7976,7 +7976,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="141"/>
+      <c r="B108" s="135"/>
       <c r="C108" s="38" t="s">
         <v>496</v>
       </c>
@@ -7991,7 +7991,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="141"/>
+      <c r="B109" s="135"/>
       <c r="C109" s="38" t="s">
         <v>365</v>
       </c>
@@ -8006,7 +8006,7 @@
       </c>
     </row>
     <row r="110" spans="2:8" ht="104.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B110" s="141"/>
+      <c r="B110" s="135"/>
       <c r="C110" s="38" t="s">
         <v>371</v>
       </c>
@@ -8021,7 +8021,7 @@
       </c>
     </row>
     <row r="111" spans="2:8" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B111" s="141"/>
+      <c r="B111" s="135"/>
       <c r="C111" s="38" t="s">
         <v>372</v>
       </c>
@@ -8036,7 +8036,7 @@
       </c>
     </row>
     <row r="112" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="141"/>
+      <c r="B112" s="135"/>
       <c r="C112" s="38" t="s">
         <v>374</v>
       </c>
@@ -8051,7 +8051,7 @@
       </c>
     </row>
     <row r="113" spans="2:6" ht="98.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B113" s="141"/>
+      <c r="B113" s="135"/>
       <c r="C113" s="38" t="s">
         <v>375</v>
       </c>
@@ -8066,7 +8066,7 @@
       </c>
     </row>
     <row r="114" spans="2:6" ht="96.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B114" s="145" t="s">
+      <c r="B114" s="146" t="s">
         <v>149</v>
       </c>
       <c r="C114" s="32" t="s">
@@ -8083,7 +8083,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B115" s="146"/>
+      <c r="B115" s="147"/>
       <c r="C115" s="32" t="s">
         <v>381</v>
       </c>
@@ -8098,16 +8098,16 @@
       </c>
     </row>
     <row r="116" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B116" s="134" t="s">
+      <c r="B116" s="151" t="s">
         <v>170</v>
       </c>
-      <c r="C116" s="135"/>
-      <c r="D116" s="135"/>
-      <c r="E116" s="135"/>
-      <c r="F116" s="135"/>
+      <c r="C116" s="152"/>
+      <c r="D116" s="152"/>
+      <c r="E116" s="152"/>
+      <c r="F116" s="152"/>
     </row>
     <row r="117" spans="2:6" ht="92.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B117" s="140" t="s">
+      <c r="B117" s="134" t="s">
         <v>35</v>
       </c>
       <c r="C117" s="38" t="s">
@@ -8124,7 +8124,7 @@
       </c>
     </row>
     <row r="118" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="141"/>
+      <c r="B118" s="135"/>
       <c r="C118" s="38" t="s">
         <v>384</v>
       </c>
@@ -8139,7 +8139,7 @@
       </c>
     </row>
     <row r="119" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="141"/>
+      <c r="B119" s="135"/>
       <c r="C119" s="38" t="s">
         <v>392</v>
       </c>
@@ -8154,7 +8154,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" ht="56.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B120" s="141"/>
+      <c r="B120" s="135"/>
       <c r="C120" s="38" t="s">
         <v>393</v>
       </c>
@@ -8169,7 +8169,7 @@
       </c>
     </row>
     <row r="121" spans="2:6" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B121" s="142"/>
+      <c r="B121" s="136"/>
       <c r="C121" s="38" t="s">
         <v>394</v>
       </c>
@@ -8184,7 +8184,7 @@
       </c>
     </row>
     <row r="122" spans="2:6" ht="87.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B122" s="157" t="s">
+      <c r="B122" s="145" t="s">
         <v>173</v>
       </c>
       <c r="C122" s="38" t="s">
@@ -8201,7 +8201,7 @@
       </c>
     </row>
     <row r="123" spans="2:6" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B123" s="145"/>
+      <c r="B123" s="146"/>
       <c r="C123" s="38" t="s">
         <v>402</v>
       </c>
@@ -8216,7 +8216,7 @@
       </c>
     </row>
     <row r="124" spans="2:6" ht="120.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B124" s="146"/>
+      <c r="B124" s="147"/>
       <c r="C124" s="38" t="s">
         <v>405</v>
       </c>
@@ -8231,16 +8231,16 @@
       </c>
     </row>
     <row r="125" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="134" t="s">
+      <c r="B125" s="151" t="s">
         <v>176</v>
       </c>
-      <c r="C125" s="135"/>
-      <c r="D125" s="135"/>
-      <c r="E125" s="135"/>
-      <c r="F125" s="136"/>
+      <c r="C125" s="152"/>
+      <c r="D125" s="152"/>
+      <c r="E125" s="152"/>
+      <c r="F125" s="155"/>
     </row>
     <row r="126" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B126" s="140" t="s">
+      <c r="B126" s="134" t="s">
         <v>47</v>
       </c>
       <c r="C126" s="38" t="s">
@@ -8257,7 +8257,7 @@
       </c>
     </row>
     <row r="127" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B127" s="141"/>
+      <c r="B127" s="135"/>
       <c r="C127" s="58" t="s">
         <v>409</v>
       </c>
@@ -8272,7 +8272,7 @@
       </c>
     </row>
     <row r="128" spans="2:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B128" s="141"/>
+      <c r="B128" s="135"/>
       <c r="C128" s="38" t="s">
         <v>503</v>
       </c>
@@ -8287,7 +8287,7 @@
       </c>
     </row>
     <row r="129" spans="2:6" ht="77.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B129" s="142"/>
+      <c r="B129" s="136"/>
       <c r="C129" s="38" t="s">
         <v>414</v>
       </c>
@@ -8302,16 +8302,16 @@
       </c>
     </row>
     <row r="130" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B130" s="134" t="s">
+      <c r="B130" s="151" t="s">
         <v>177</v>
       </c>
-      <c r="C130" s="135"/>
-      <c r="D130" s="135"/>
-      <c r="E130" s="135"/>
-      <c r="F130" s="136"/>
+      <c r="C130" s="152"/>
+      <c r="D130" s="152"/>
+      <c r="E130" s="152"/>
+      <c r="F130" s="155"/>
     </row>
     <row r="131" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B131" s="140" t="s">
+      <c r="B131" s="134" t="s">
         <v>36</v>
       </c>
       <c r="C131" s="38" t="s">
@@ -8328,7 +8328,7 @@
       </c>
     </row>
     <row r="132" spans="2:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B132" s="141"/>
+      <c r="B132" s="135"/>
       <c r="C132" s="38" t="s">
         <v>430</v>
       </c>
@@ -8343,7 +8343,7 @@
       </c>
     </row>
     <row r="133" spans="2:6" ht="75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="141"/>
+      <c r="B133" s="135"/>
       <c r="C133" s="38" t="s">
         <v>431</v>
       </c>
@@ -8358,7 +8358,7 @@
       </c>
     </row>
     <row r="134" spans="2:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B134" s="142"/>
+      <c r="B134" s="136"/>
       <c r="C134" s="38" t="s">
         <v>504</v>
       </c>
@@ -8373,7 +8373,7 @@
       </c>
     </row>
     <row r="135" spans="2:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B135" s="140" t="s">
+      <c r="B135" s="134" t="s">
         <v>505</v>
       </c>
       <c r="C135" s="38" t="s">
@@ -8390,7 +8390,7 @@
       </c>
     </row>
     <row r="136" spans="2:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B136" s="141"/>
+      <c r="B136" s="135"/>
       <c r="C136" s="38" t="s">
         <v>435</v>
       </c>
@@ -8403,7 +8403,7 @@
       <c r="F136" s="138"/>
     </row>
     <row r="137" spans="2:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B137" s="141"/>
+      <c r="B137" s="135"/>
       <c r="C137" s="38" t="s">
         <v>436</v>
       </c>
@@ -8416,7 +8416,7 @@
       <c r="F137" s="138"/>
     </row>
     <row r="138" spans="2:6" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B138" s="141"/>
+      <c r="B138" s="135"/>
       <c r="C138" s="38" t="s">
         <v>437</v>
       </c>
@@ -8429,7 +8429,7 @@
       <c r="F138" s="138"/>
     </row>
     <row r="139" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B139" s="141"/>
+      <c r="B139" s="135"/>
       <c r="C139" s="38" t="s">
         <v>438</v>
       </c>
@@ -8442,7 +8442,7 @@
       <c r="F139" s="138"/>
     </row>
     <row r="140" spans="2:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B140" s="141"/>
+      <c r="B140" s="135"/>
       <c r="C140" s="38" t="s">
         <v>439</v>
       </c>
@@ -8455,7 +8455,7 @@
       <c r="F140" s="138"/>
     </row>
     <row r="141" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B141" s="142"/>
+      <c r="B141" s="136"/>
       <c r="C141" s="60" t="s">
         <v>440</v>
       </c>
@@ -8469,23 +8469,11 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="B105:B113"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="F135:F141"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B131:B134"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B114:B115"/>
@@ -8502,11 +8490,23 @@
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="F135:F141"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B105:B113"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B60:B61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="26" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8527,10 +8527,10 @@
   <dimension ref="A1:AF169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="19" zoomScaleNormal="19" zoomScaleSheetLayoutView="23" zoomScalePageLayoutView="21" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AD122" sqref="AD122:AD133"/>
+      <selection pane="bottomRight" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="46.5" x14ac:dyDescent="0.7"/>
@@ -8551,82 +8551,82 @@
       <c r="A1" s="130" t="s">
         <v>630</v>
       </c>
-      <c r="B1" s="231"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="233" t="s">
+      <c r="B1" s="195"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="197" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="234"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="233" t="s">
+      <c r="E1" s="198"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="197" t="s">
         <v>629</v>
       </c>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165" t="s">
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="239" t="s">
         <v>640</v>
       </c>
-      <c r="S1" s="165"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="167" t="s">
+      <c r="S1" s="239"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="240"/>
+      <c r="W1" s="241" t="s">
         <v>631</v>
       </c>
-      <c r="X1" s="168"/>
+      <c r="X1" s="242"/>
       <c r="Y1" s="131"/>
       <c r="Z1" s="132" t="s">
         <v>632</v>
       </c>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="224" t="s">
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="180" t="s">
         <v>637</v>
       </c>
-      <c r="AD1" s="225"/>
-      <c r="AE1" s="225"/>
-      <c r="AF1" s="225"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="186" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
-      <c r="N2" s="226"/>
-      <c r="O2" s="226"/>
-      <c r="P2" s="226"/>
-      <c r="Q2" s="226"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="226"/>
-      <c r="AB2" s="226"/>
-      <c r="AC2" s="226"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="186"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="186"/>
+      <c r="W2" s="186"/>
+      <c r="X2" s="186"/>
+      <c r="Y2" s="186"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="186"/>
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="186"/>
       <c r="AD2" s="67"/>
     </row>
     <row r="3" spans="1:32" s="7" customFormat="1" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="1.35">
@@ -8650,155 +8650,155 @@
       <c r="AD3" s="71"/>
     </row>
     <row r="4" spans="1:32" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="217" t="s">
+      <c r="A4" s="218" t="s">
         <v>641</v>
       </c>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
-      <c r="J4" s="218"/>
-      <c r="K4" s="218"/>
-      <c r="L4" s="218"/>
-      <c r="M4" s="218"/>
-      <c r="N4" s="218"/>
-      <c r="O4" s="218"/>
-      <c r="P4" s="218"/>
-      <c r="Q4" s="218"/>
-      <c r="R4" s="218"/>
-      <c r="S4" s="218"/>
-      <c r="T4" s="218"/>
-      <c r="U4" s="218"/>
-      <c r="V4" s="218"/>
-      <c r="W4" s="218"/>
-      <c r="X4" s="218"/>
-      <c r="Y4" s="218"/>
-      <c r="Z4" s="218"/>
-      <c r="AA4" s="218"/>
-      <c r="AB4" s="218"/>
-      <c r="AC4" s="218"/>
-      <c r="AD4" s="218"/>
-      <c r="AE4" s="218"/>
-      <c r="AF4" s="219"/>
+      <c r="B4" s="219"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="219"/>
+      <c r="K4" s="219"/>
+      <c r="L4" s="219"/>
+      <c r="M4" s="219"/>
+      <c r="N4" s="219"/>
+      <c r="O4" s="219"/>
+      <c r="P4" s="219"/>
+      <c r="Q4" s="219"/>
+      <c r="R4" s="219"/>
+      <c r="S4" s="219"/>
+      <c r="T4" s="219"/>
+      <c r="U4" s="219"/>
+      <c r="V4" s="219"/>
+      <c r="W4" s="219"/>
+      <c r="X4" s="219"/>
+      <c r="Y4" s="219"/>
+      <c r="Z4" s="219"/>
+      <c r="AA4" s="219"/>
+      <c r="AB4" s="219"/>
+      <c r="AC4" s="219"/>
+      <c r="AD4" s="219"/>
+      <c r="AE4" s="219"/>
+      <c r="AF4" s="220"/>
     </row>
     <row r="5" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A5" s="241" t="s">
+      <c r="A5" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="242"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="242"/>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="242"/>
-      <c r="R5" s="242"/>
-      <c r="S5" s="242"/>
-      <c r="T5" s="242"/>
-      <c r="U5" s="242"/>
-      <c r="V5" s="242"/>
-      <c r="W5" s="242"/>
-      <c r="X5" s="242"/>
-      <c r="Y5" s="242"/>
-      <c r="Z5" s="242"/>
-      <c r="AA5" s="242"/>
-      <c r="AB5" s="242"/>
-      <c r="AC5" s="242"/>
-      <c r="AD5" s="242"/>
-      <c r="AE5" s="242"/>
-      <c r="AF5" s="243"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="168"/>
+      <c r="Q5" s="168"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="168"/>
+      <c r="T5" s="168"/>
+      <c r="U5" s="168"/>
+      <c r="V5" s="168"/>
+      <c r="W5" s="168"/>
+      <c r="X5" s="168"/>
+      <c r="Y5" s="168"/>
+      <c r="Z5" s="168"/>
+      <c r="AA5" s="168"/>
+      <c r="AB5" s="168"/>
+      <c r="AC5" s="168"/>
+      <c r="AD5" s="168"/>
+      <c r="AE5" s="168"/>
+      <c r="AF5" s="169"/>
     </row>
     <row r="6" spans="1:32" s="24" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="233" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="233" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="196" t="s">
+      <c r="C6" s="232" t="s">
         <v>508</v>
       </c>
-      <c r="D6" s="210" t="s">
+      <c r="D6" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="195"/>
-      <c r="F6" s="194" t="s">
+      <c r="E6" s="185"/>
+      <c r="F6" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="195"/>
-      <c r="H6" s="194" t="s">
+      <c r="G6" s="185"/>
+      <c r="H6" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="195"/>
-      <c r="J6" s="194" t="s">
+      <c r="I6" s="185"/>
+      <c r="J6" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="195"/>
-      <c r="L6" s="194" t="s">
+      <c r="K6" s="185"/>
+      <c r="L6" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="195"/>
-      <c r="N6" s="194" t="s">
+      <c r="M6" s="185"/>
+      <c r="N6" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="195"/>
-      <c r="P6" s="194" t="s">
+      <c r="O6" s="185"/>
+      <c r="P6" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="194" t="s">
+      <c r="Q6" s="185"/>
+      <c r="R6" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="S6" s="195"/>
-      <c r="T6" s="194" t="s">
+      <c r="S6" s="185"/>
+      <c r="T6" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="195"/>
-      <c r="V6" s="194" t="s">
+      <c r="U6" s="185"/>
+      <c r="V6" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="195"/>
-      <c r="X6" s="194" t="s">
+      <c r="W6" s="185"/>
+      <c r="X6" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="Y6" s="195"/>
-      <c r="Z6" s="194" t="s">
+      <c r="Y6" s="185"/>
+      <c r="Z6" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="195"/>
-      <c r="AB6" s="230" t="s">
+      <c r="AA6" s="185"/>
+      <c r="AB6" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="AC6" s="229" t="s">
+      <c r="AC6" s="192" t="s">
         <v>628</v>
       </c>
-      <c r="AD6" s="174" t="s">
+      <c r="AD6" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE6" s="169" t="s">
+      <c r="AE6" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF6" s="169" t="s">
+      <c r="AF6" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:32" s="24" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A7" s="197"/>
-      <c r="B7" s="197"/>
-      <c r="C7" s="196"/>
+      <c r="A7" s="233"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="232"/>
       <c r="D7" s="74" t="s">
         <v>14</v>
       </c>
@@ -8871,14 +8871,14 @@
       <c r="AA7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB7" s="230"/>
-      <c r="AC7" s="200"/>
-      <c r="AD7" s="174"/>
-      <c r="AE7" s="169"/>
-      <c r="AF7" s="169"/>
+      <c r="AB7" s="194"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="176"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="166"/>
     </row>
     <row r="8" spans="1:32" s="10" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A8" s="227" t="s">
+      <c r="A8" s="188" t="s">
         <v>141</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -8915,7 +8915,7 @@
         <f t="shared" ref="AB8:AB12" si="0">SUM(D8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="220" t="str">
+      <c r="AC8" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D9&gt;D8," * F01-02 " &amp;D6&amp;" "&amp; D7&amp; " is more than F01-01"&amp;CHAR(10),""),IF(E9&gt;E8," * F01-02 " &amp;D6&amp;" "&amp; E7&amp; " is more than F01-01"&amp;CHAR(10),""),
@@ -8934,18 +8934,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD8" s="239" t="str">
+      <c r="AD8" s="179" t="str">
         <f>CONCATENATE(AC8,AC10,AC11,AC12,AC14,AC15,AC16,AC17,AC19,AC21,AC23,AC25,AC27,AC29,AC31,AC33,AC35)</f>
         <v/>
       </c>
       <c r="AE8" s="117"/>
-      <c r="AF8" s="240" t="str">
+      <c r="AF8" s="165" t="str">
         <f>CONCATENATE(AE8,AE9,AE10,AE11,AE12,AE13,AE14,AE15,AE16,AE17,AE18,AE19,AE20,AE21,AE22,AE23,AE24,AE25,AE26,AE27,AE28,AE29,AE30,AE31,AE32,AE33,AE34,AE35,AE36)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:32" s="10" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A9" s="228"/>
+      <c r="A9" s="189"/>
       <c r="B9" s="15" t="s">
         <v>507</v>
       </c>
@@ -8980,13 +8980,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="221"/>
-      <c r="AD9" s="239"/>
+      <c r="AC9" s="174"/>
+      <c r="AD9" s="179"/>
       <c r="AE9" s="117"/>
-      <c r="AF9" s="240"/>
+      <c r="AF9" s="165"/>
     </row>
     <row r="10" spans="1:32" s="10" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A10" s="228"/>
+      <c r="A10" s="189"/>
       <c r="B10" s="15" t="s">
         <v>509</v>
       </c>
@@ -9040,12 +9040,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD10" s="239"/>
+      <c r="AD10" s="179"/>
       <c r="AE10" s="117"/>
-      <c r="AF10" s="240"/>
+      <c r="AF10" s="165"/>
     </row>
     <row r="11" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="228"/>
+      <c r="A11" s="189"/>
       <c r="B11" s="15" t="s">
         <v>510</v>
       </c>
@@ -9081,12 +9081,12 @@
         <v>0</v>
       </c>
       <c r="AC11" s="111"/>
-      <c r="AD11" s="239"/>
+      <c r="AD11" s="179"/>
       <c r="AE11" s="117"/>
-      <c r="AF11" s="240"/>
+      <c r="AF11" s="165"/>
     </row>
     <row r="12" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="228"/>
+      <c r="A12" s="189"/>
       <c r="B12" s="15" t="s">
         <v>511</v>
       </c>
@@ -9121,7 +9121,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="220" t="str">
+      <c r="AC12" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D13&gt;D12," * Positive F01-06 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested  F01-05"&amp;CHAR(10),""),IF(E13&gt;E12," * Positive F01-06 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested  F01-05"&amp;CHAR(10),""),
@@ -9140,7 +9140,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD12" s="239"/>
+      <c r="AD12" s="179"/>
       <c r="AE12" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9148,10 +9148,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF12" s="240"/>
+      <c r="AF12" s="165"/>
     </row>
     <row r="13" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="228"/>
+      <c r="A13" s="189"/>
       <c r="B13" s="15" t="s">
         <v>512</v>
       </c>
@@ -9186,13 +9186,13 @@
         <f>SUM(D13:AA13)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="221"/>
-      <c r="AD13" s="239"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="179"/>
       <c r="AE13" s="117"/>
-      <c r="AF13" s="240"/>
+      <c r="AF13" s="165"/>
     </row>
     <row r="14" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="228"/>
+      <c r="A14" s="189"/>
       <c r="B14" s="15" t="s">
         <v>513</v>
       </c>
@@ -9228,12 +9228,12 @@
         <v>0</v>
       </c>
       <c r="AC14" s="111"/>
-      <c r="AD14" s="239"/>
+      <c r="AD14" s="179"/>
       <c r="AE14" s="117"/>
-      <c r="AF14" s="240"/>
+      <c r="AF14" s="165"/>
     </row>
     <row r="15" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="228"/>
+      <c r="A15" s="189"/>
       <c r="B15" s="15" t="s">
         <v>514</v>
       </c>
@@ -9269,12 +9269,12 @@
         <v>0</v>
       </c>
       <c r="AC15" s="111"/>
-      <c r="AD15" s="239"/>
+      <c r="AD15" s="179"/>
       <c r="AE15" s="117"/>
-      <c r="AF15" s="240"/>
+      <c r="AF15" s="165"/>
     </row>
     <row r="16" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="228"/>
+      <c r="A16" s="189"/>
       <c r="B16" s="15" t="s">
         <v>515</v>
       </c>
@@ -9310,12 +9310,12 @@
         <v>0</v>
       </c>
       <c r="AC16" s="111"/>
-      <c r="AD16" s="239"/>
+      <c r="AD16" s="179"/>
       <c r="AE16" s="117"/>
-      <c r="AF16" s="240"/>
+      <c r="AF16" s="165"/>
     </row>
     <row r="17" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="191" t="s">
+      <c r="A17" s="187" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -9352,7 +9352,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="220" t="str">
+      <c r="AC17" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D18&gt;D17," * Positive F01-11 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested  F01-10"&amp;CHAR(10),""),IF(E18&gt;E17," * Positive F01-11 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested  F01-10"&amp;CHAR(10),""),
@@ -9371,7 +9371,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD17" s="239"/>
+      <c r="AD17" s="179"/>
       <c r="AE17" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9379,10 +9379,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF17" s="240"/>
+      <c r="AF17" s="165"/>
     </row>
     <row r="18" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="191"/>
+      <c r="A18" s="187"/>
       <c r="B18" s="15" t="s">
         <v>517</v>
       </c>
@@ -9417,13 +9417,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="221"/>
-      <c r="AD18" s="239"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="179"/>
       <c r="AE18" s="117"/>
-      <c r="AF18" s="240"/>
+      <c r="AF18" s="165"/>
     </row>
     <row r="19" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="191" t="s">
+      <c r="A19" s="187" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -9460,7 +9460,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="220" t="str">
+      <c r="AC19" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D20&gt;D19," * Positive F01-13 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-12"&amp;CHAR(10),""),IF(E20&gt;E19," * Positive F01-13 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-12"&amp;CHAR(10),""),
@@ -9479,7 +9479,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD19" s="239"/>
+      <c r="AD19" s="179"/>
       <c r="AE19" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9487,10 +9487,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF19" s="240"/>
+      <c r="AF19" s="165"/>
     </row>
     <row r="20" spans="1:32" s="11" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="191"/>
+      <c r="A20" s="187"/>
       <c r="B20" s="15" t="s">
         <v>519</v>
       </c>
@@ -9525,8 +9525,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="221"/>
-      <c r="AD20" s="239"/>
+      <c r="AC20" s="174"/>
+      <c r="AD20" s="179"/>
       <c r="AE20" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9541,10 +9541,10 @@
 "")</f>
         <v/>
       </c>
-      <c r="AF20" s="240"/>
+      <c r="AF20" s="165"/>
     </row>
     <row r="21" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A21" s="191" t="s">
+      <c r="A21" s="187" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -9581,7 +9581,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="220" t="str">
+      <c r="AC21" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D22&gt;D21," * Positive F01-15 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-14"&amp;CHAR(10),""),IF(E22&gt;E21," * Positive F01-15 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-14"&amp;CHAR(10),""),
@@ -9600,7 +9600,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD21" s="239"/>
+      <c r="AD21" s="179"/>
       <c r="AE21" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9608,10 +9608,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF21" s="240"/>
+      <c r="AF21" s="165"/>
     </row>
     <row r="22" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A22" s="191"/>
+      <c r="A22" s="187"/>
       <c r="B22" s="15" t="s">
         <v>519</v>
       </c>
@@ -9646,13 +9646,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="221"/>
-      <c r="AD22" s="239"/>
+      <c r="AC22" s="174"/>
+      <c r="AD22" s="179"/>
       <c r="AE22" s="117"/>
-      <c r="AF22" s="240"/>
+      <c r="AF22" s="165"/>
     </row>
     <row r="23" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A23" s="191" t="s">
+      <c r="A23" s="187" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -9689,7 +9689,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="220" t="str">
+      <c r="AC23" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D24&gt;D23," * Positive F01-17 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-16"&amp;CHAR(10),""),IF(E24&gt;E23," * Positive F01-17 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-16"&amp;CHAR(10),""),
@@ -9708,7 +9708,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD23" s="239"/>
+      <c r="AD23" s="179"/>
       <c r="AE23" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9716,10 +9716,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF23" s="240"/>
+      <c r="AF23" s="165"/>
     </row>
     <row r="24" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A24" s="191"/>
+      <c r="A24" s="187"/>
       <c r="B24" s="15" t="s">
         <v>519</v>
       </c>
@@ -9754,13 +9754,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="221"/>
-      <c r="AD24" s="239"/>
+      <c r="AC24" s="174"/>
+      <c r="AD24" s="179"/>
       <c r="AE24" s="117"/>
-      <c r="AF24" s="240"/>
+      <c r="AF24" s="165"/>
     </row>
     <row r="25" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A25" s="191" t="s">
+      <c r="A25" s="187" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -9797,7 +9797,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="220" t="str">
+      <c r="AC25" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D26&gt;D25," * Positive F01-19 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-18"&amp;CHAR(10),""),IF(E26&gt;E25," * Positive F01-19 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-18"&amp;CHAR(10),""),
@@ -9816,7 +9816,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD25" s="239"/>
+      <c r="AD25" s="179"/>
       <c r="AE25" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9824,10 +9824,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF25" s="240"/>
+      <c r="AF25" s="165"/>
     </row>
     <row r="26" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A26" s="191"/>
+      <c r="A26" s="187"/>
       <c r="B26" s="15" t="s">
         <v>519</v>
       </c>
@@ -9862,13 +9862,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="221"/>
-      <c r="AD26" s="239"/>
+      <c r="AC26" s="174"/>
+      <c r="AD26" s="179"/>
       <c r="AE26" s="117"/>
-      <c r="AF26" s="240"/>
+      <c r="AF26" s="165"/>
     </row>
     <row r="27" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A27" s="191" t="s">
+      <c r="A27" s="187" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -9905,7 +9905,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="220" t="str">
+      <c r="AC27" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D28&gt;D27," * Positive F01-21 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-20"&amp;CHAR(10),""),IF(E28&gt;E27," * Positive F01-21 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-20"&amp;CHAR(10),""),
@@ -9924,7 +9924,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD27" s="239"/>
+      <c r="AD27" s="179"/>
       <c r="AE27" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -9932,10 +9932,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF27" s="240"/>
+      <c r="AF27" s="165"/>
     </row>
     <row r="28" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A28" s="191"/>
+      <c r="A28" s="187"/>
       <c r="B28" s="15" t="s">
         <v>519</v>
       </c>
@@ -9970,13 +9970,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="221"/>
-      <c r="AD28" s="239"/>
+      <c r="AC28" s="174"/>
+      <c r="AD28" s="179"/>
       <c r="AE28" s="117"/>
-      <c r="AF28" s="240"/>
+      <c r="AF28" s="165"/>
     </row>
     <row r="29" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A29" s="191" t="s">
+      <c r="A29" s="187" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -10013,7 +10013,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="220" t="str">
+      <c r="AC29" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D30&gt;D29," * Positive F01-23 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-22"&amp;CHAR(10),""),IF(E30&gt;E29," * Positive F01-23 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-22"&amp;CHAR(10),""),
@@ -10032,7 +10032,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD29" s="239"/>
+      <c r="AD29" s="179"/>
       <c r="AE29" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10040,10 +10040,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF29" s="240"/>
+      <c r="AF29" s="165"/>
     </row>
     <row r="30" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A30" s="191"/>
+      <c r="A30" s="187"/>
       <c r="B30" s="15" t="s">
         <v>519</v>
       </c>
@@ -10078,13 +10078,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="221"/>
-      <c r="AD30" s="239"/>
+      <c r="AC30" s="174"/>
+      <c r="AD30" s="179"/>
       <c r="AE30" s="117"/>
-      <c r="AF30" s="240"/>
+      <c r="AF30" s="165"/>
     </row>
     <row r="31" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A31" s="191" t="s">
+      <c r="A31" s="187" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
@@ -10121,7 +10121,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="220" t="str">
+      <c r="AC31" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D32&gt;D31," * Positive F01-25 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-24"&amp;CHAR(10),""),IF(E32&gt;E31," * Positive F01-25 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-24"&amp;CHAR(10),""),
@@ -10140,7 +10140,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD31" s="239"/>
+      <c r="AD31" s="179"/>
       <c r="AE31" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10148,10 +10148,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF31" s="240"/>
+      <c r="AF31" s="165"/>
     </row>
     <row r="32" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A32" s="191"/>
+      <c r="A32" s="187"/>
       <c r="B32" s="15" t="s">
         <v>519</v>
       </c>
@@ -10186,13 +10186,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="221"/>
-      <c r="AD32" s="239"/>
+      <c r="AC32" s="174"/>
+      <c r="AD32" s="179"/>
       <c r="AE32" s="117"/>
-      <c r="AF32" s="240"/>
+      <c r="AF32" s="165"/>
     </row>
     <row r="33" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A33" s="179" t="s">
+      <c r="A33" s="206" t="s">
         <v>133</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -10229,7 +10229,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="220" t="str">
+      <c r="AC33" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D34&gt;D33," * Positive F01-27 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Tested F01-26"&amp;CHAR(10),""),IF(E34&gt;E33," * Positive F01-27 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Tested F01-26"&amp;CHAR(10),""),
@@ -10248,7 +10248,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD33" s="239"/>
+      <c r="AD33" s="179"/>
       <c r="AE33" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10256,10 +10256,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF33" s="240"/>
+      <c r="AF33" s="165"/>
     </row>
     <row r="34" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A34" s="180"/>
+      <c r="A34" s="208"/>
       <c r="B34" s="15" t="s">
         <v>519</v>
       </c>
@@ -10294,13 +10294,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="221"/>
-      <c r="AD34" s="239"/>
+      <c r="AC34" s="174"/>
+      <c r="AD34" s="179"/>
       <c r="AE34" s="117"/>
-      <c r="AF34" s="240"/>
+      <c r="AF34" s="165"/>
     </row>
     <row r="35" spans="1:32" s="18" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A35" s="222" t="s">
+      <c r="A35" s="204" t="s">
         <v>157</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -10409,7 +10409,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="220" t="str">
+      <c r="AC35" s="173" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D36&gt;D35," * Totals HTS Positive F01-29 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Total Tested F01-28"&amp;CHAR(10),""),IF(E36&gt;E35," * Totals HTS Positive F01-29 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Total Tested F01-28"&amp;CHAR(10),""),
@@ -10428,7 +10428,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD35" s="239"/>
+      <c r="AD35" s="179"/>
       <c r="AE35" s="118" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10436,10 +10436,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF35" s="240"/>
+      <c r="AF35" s="165"/>
     </row>
     <row r="36" spans="1:32" s="18" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A36" s="223"/>
+      <c r="A36" s="205"/>
       <c r="B36" s="107" t="s">
         <v>522</v>
       </c>
@@ -10546,8 +10546,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC36" s="238"/>
-      <c r="AD36" s="239"/>
+      <c r="AC36" s="175"/>
+      <c r="AD36" s="179"/>
       <c r="AE36" s="118" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -10555,122 +10555,122 @@
 )</f>
         <v/>
       </c>
-      <c r="AF36" s="240"/>
+      <c r="AF36" s="165"/>
     </row>
     <row r="37" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A37" s="244" t="s">
+      <c r="A37" s="170" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="244"/>
-      <c r="C37" s="244"/>
-      <c r="D37" s="244"/>
-      <c r="E37" s="244"/>
-      <c r="F37" s="244"/>
-      <c r="G37" s="244"/>
-      <c r="H37" s="244"/>
-      <c r="I37" s="244"/>
-      <c r="J37" s="244"/>
-      <c r="K37" s="244"/>
-      <c r="L37" s="244"/>
-      <c r="M37" s="244"/>
-      <c r="N37" s="244"/>
-      <c r="O37" s="244"/>
-      <c r="P37" s="244"/>
-      <c r="Q37" s="244"/>
-      <c r="R37" s="244"/>
-      <c r="S37" s="244"/>
-      <c r="T37" s="244"/>
-      <c r="U37" s="244"/>
-      <c r="V37" s="244"/>
-      <c r="W37" s="244"/>
-      <c r="X37" s="244"/>
-      <c r="Y37" s="244"/>
-      <c r="Z37" s="244"/>
-      <c r="AA37" s="244"/>
-      <c r="AB37" s="244"/>
-      <c r="AC37" s="244"/>
-      <c r="AD37" s="244"/>
-      <c r="AE37" s="244"/>
-      <c r="AF37" s="244"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="170"/>
+      <c r="L37" s="170"/>
+      <c r="M37" s="170"/>
+      <c r="N37" s="170"/>
+      <c r="O37" s="170"/>
+      <c r="P37" s="170"/>
+      <c r="Q37" s="170"/>
+      <c r="R37" s="170"/>
+      <c r="S37" s="170"/>
+      <c r="T37" s="170"/>
+      <c r="U37" s="170"/>
+      <c r="V37" s="170"/>
+      <c r="W37" s="170"/>
+      <c r="X37" s="170"/>
+      <c r="Y37" s="170"/>
+      <c r="Z37" s="170"/>
+      <c r="AA37" s="170"/>
+      <c r="AB37" s="170"/>
+      <c r="AC37" s="170"/>
+      <c r="AD37" s="170"/>
+      <c r="AE37" s="170"/>
+      <c r="AF37" s="170"/>
     </row>
     <row r="38" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A38" s="187" t="s">
+      <c r="A38" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="187" t="s">
+      <c r="B38" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C38" s="185" t="s">
+      <c r="C38" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D38" s="211"/>
-      <c r="E38" s="212"/>
-      <c r="F38" s="212"/>
-      <c r="G38" s="212"/>
-      <c r="H38" s="212"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="184" t="s">
+      <c r="D38" s="212"/>
+      <c r="E38" s="213"/>
+      <c r="F38" s="213"/>
+      <c r="G38" s="213"/>
+      <c r="H38" s="213"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="171"/>
-      <c r="L38" s="170" t="s">
+      <c r="K38" s="183"/>
+      <c r="L38" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="171"/>
-      <c r="N38" s="170" t="s">
+      <c r="M38" s="183"/>
+      <c r="N38" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O38" s="171"/>
-      <c r="P38" s="170" t="s">
+      <c r="O38" s="183"/>
+      <c r="P38" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q38" s="171"/>
-      <c r="R38" s="170" t="s">
+      <c r="Q38" s="183"/>
+      <c r="R38" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S38" s="171"/>
-      <c r="T38" s="170" t="s">
+      <c r="S38" s="183"/>
+      <c r="T38" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U38" s="171"/>
-      <c r="V38" s="170" t="s">
+      <c r="U38" s="183"/>
+      <c r="V38" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W38" s="171"/>
-      <c r="X38" s="170" t="s">
+      <c r="W38" s="183"/>
+      <c r="X38" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y38" s="171"/>
-      <c r="Z38" s="170" t="s">
+      <c r="Y38" s="183"/>
+      <c r="Z38" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA38" s="171"/>
-      <c r="AB38" s="172" t="s">
+      <c r="AA38" s="183"/>
+      <c r="AB38" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC38" s="174" t="s">
+      <c r="AC38" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD38" s="174" t="s">
+      <c r="AD38" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE38" s="169" t="s">
+      <c r="AE38" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF38" s="169" t="s">
+      <c r="AF38" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A39" s="188"/>
-      <c r="B39" s="188"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="214"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="215"/>
-      <c r="I39" s="216"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="201"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="215"/>
+      <c r="E39" s="216"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="216"/>
+      <c r="H39" s="216"/>
+      <c r="I39" s="217"/>
       <c r="J39" s="74" t="s">
         <v>14</v>
       </c>
@@ -10725,14 +10725,14 @@
       <c r="AA39" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB39" s="173"/>
-      <c r="AC39" s="174"/>
-      <c r="AD39" s="174"/>
-      <c r="AE39" s="169"/>
-      <c r="AF39" s="169"/>
+      <c r="AB39" s="203"/>
+      <c r="AC39" s="176"/>
+      <c r="AD39" s="176"/>
+      <c r="AE39" s="166"/>
+      <c r="AF39" s="166"/>
     </row>
     <row r="40" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A40" s="191" t="s">
+      <c r="A40" s="187" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -10770,18 +10770,18 @@
         <v>0</v>
       </c>
       <c r="AC40" s="112"/>
-      <c r="AD40" s="176" t="str">
+      <c r="AD40" s="228" t="str">
         <f>CONCATENATE(AC40,AC41,AC42,AC43,AC44)</f>
         <v/>
       </c>
       <c r="AE40" s="117"/>
-      <c r="AF40" s="235" t="str">
+      <c r="AF40" s="164" t="str">
         <f>CONCATENATE(AE40,AE41,AE42,AE43,AE44)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A41" s="191"/>
+      <c r="A41" s="187"/>
       <c r="B41" s="15" t="s">
         <v>222</v>
       </c>
@@ -10817,12 +10817,12 @@
         <v>0</v>
       </c>
       <c r="AC41" s="112"/>
-      <c r="AD41" s="192"/>
+      <c r="AD41" s="229"/>
       <c r="AE41" s="117"/>
-      <c r="AF41" s="235"/>
+      <c r="AF41" s="164"/>
     </row>
     <row r="42" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A42" s="191"/>
+      <c r="A42" s="187"/>
       <c r="B42" s="15" t="s">
         <v>524</v>
       </c>
@@ -10858,12 +10858,12 @@
         <v>0</v>
       </c>
       <c r="AC42" s="112"/>
-      <c r="AD42" s="192"/>
+      <c r="AD42" s="229"/>
       <c r="AE42" s="117"/>
-      <c r="AF42" s="235"/>
+      <c r="AF42" s="164"/>
     </row>
     <row r="43" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A43" s="191"/>
+      <c r="A43" s="187"/>
       <c r="B43" s="15" t="s">
         <v>525</v>
       </c>
@@ -10899,12 +10899,12 @@
         <v>0</v>
       </c>
       <c r="AC43" s="112"/>
-      <c r="AD43" s="192"/>
+      <c r="AD43" s="229"/>
       <c r="AE43" s="117"/>
-      <c r="AF43" s="235"/>
+      <c r="AF43" s="164"/>
     </row>
     <row r="44" spans="1:32" s="10" customFormat="1" ht="120.6" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A44" s="179"/>
+      <c r="A44" s="206"/>
       <c r="B44" s="99" t="s">
         <v>526</v>
       </c>
@@ -10940,54 +10940,54 @@
         <v>0</v>
       </c>
       <c r="AC44" s="113"/>
-      <c r="AD44" s="192"/>
+      <c r="AD44" s="229"/>
       <c r="AE44" s="119"/>
-      <c r="AF44" s="235"/>
+      <c r="AF44" s="164"/>
     </row>
     <row r="45" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A45" s="244" t="s">
+      <c r="A45" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="244"/>
-      <c r="C45" s="244"/>
-      <c r="D45" s="244"/>
-      <c r="E45" s="244"/>
-      <c r="F45" s="244"/>
-      <c r="G45" s="244"/>
-      <c r="H45" s="244"/>
-      <c r="I45" s="244"/>
-      <c r="J45" s="244"/>
-      <c r="K45" s="244"/>
-      <c r="L45" s="244"/>
-      <c r="M45" s="244"/>
-      <c r="N45" s="244"/>
-      <c r="O45" s="244"/>
-      <c r="P45" s="244"/>
-      <c r="Q45" s="244"/>
-      <c r="R45" s="244"/>
-      <c r="S45" s="244"/>
-      <c r="T45" s="244"/>
-      <c r="U45" s="244"/>
-      <c r="V45" s="244"/>
-      <c r="W45" s="244"/>
-      <c r="X45" s="244"/>
-      <c r="Y45" s="244"/>
-      <c r="Z45" s="244"/>
-      <c r="AA45" s="244"/>
-      <c r="AB45" s="244"/>
-      <c r="AC45" s="244"/>
-      <c r="AD45" s="244"/>
-      <c r="AE45" s="244"/>
-      <c r="AF45" s="244"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="170"/>
+      <c r="K45" s="170"/>
+      <c r="L45" s="170"/>
+      <c r="M45" s="170"/>
+      <c r="N45" s="170"/>
+      <c r="O45" s="170"/>
+      <c r="P45" s="170"/>
+      <c r="Q45" s="170"/>
+      <c r="R45" s="170"/>
+      <c r="S45" s="170"/>
+      <c r="T45" s="170"/>
+      <c r="U45" s="170"/>
+      <c r="V45" s="170"/>
+      <c r="W45" s="170"/>
+      <c r="X45" s="170"/>
+      <c r="Y45" s="170"/>
+      <c r="Z45" s="170"/>
+      <c r="AA45" s="170"/>
+      <c r="AB45" s="170"/>
+      <c r="AC45" s="170"/>
+      <c r="AD45" s="170"/>
+      <c r="AE45" s="170"/>
+      <c r="AF45" s="170"/>
     </row>
     <row r="46" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A46" s="187" t="s">
+      <c r="A46" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="187" t="s">
+      <c r="B46" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C46" s="185" t="s">
+      <c r="C46" s="190" t="s">
         <v>508</v>
       </c>
       <c r="D46" s="78"/>
@@ -10996,62 +10996,62 @@
       <c r="G46" s="79"/>
       <c r="H46" s="79"/>
       <c r="I46" s="80"/>
-      <c r="J46" s="170" t="s">
+      <c r="J46" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K46" s="171"/>
-      <c r="L46" s="170" t="s">
+      <c r="K46" s="183"/>
+      <c r="L46" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="171"/>
-      <c r="N46" s="170" t="s">
+      <c r="M46" s="183"/>
+      <c r="N46" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O46" s="171"/>
-      <c r="P46" s="170" t="s">
+      <c r="O46" s="183"/>
+      <c r="P46" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q46" s="171"/>
-      <c r="R46" s="170" t="s">
+      <c r="Q46" s="183"/>
+      <c r="R46" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S46" s="171"/>
-      <c r="T46" s="170" t="s">
+      <c r="S46" s="183"/>
+      <c r="T46" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U46" s="171"/>
-      <c r="V46" s="170" t="s">
+      <c r="U46" s="183"/>
+      <c r="V46" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W46" s="171"/>
-      <c r="X46" s="170" t="s">
+      <c r="W46" s="183"/>
+      <c r="X46" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y46" s="171"/>
-      <c r="Z46" s="170" t="s">
+      <c r="Y46" s="183"/>
+      <c r="Z46" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA46" s="171"/>
-      <c r="AB46" s="172" t="s">
+      <c r="AA46" s="183"/>
+      <c r="AB46" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC46" s="174" t="s">
+      <c r="AC46" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD46" s="174" t="s">
+      <c r="AD46" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE46" s="169" t="s">
+      <c r="AE46" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF46" s="169" t="s">
+      <c r="AF46" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="47" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A47" s="188"/>
-      <c r="B47" s="188"/>
-      <c r="C47" s="186"/>
+      <c r="A47" s="201"/>
+      <c r="B47" s="201"/>
+      <c r="C47" s="191"/>
       <c r="D47" s="78"/>
       <c r="E47" s="79"/>
       <c r="F47" s="79"/>
@@ -11112,14 +11112,14 @@
       <c r="AA47" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB47" s="173"/>
-      <c r="AC47" s="174"/>
-      <c r="AD47" s="174"/>
-      <c r="AE47" s="169"/>
-      <c r="AF47" s="169"/>
+      <c r="AB47" s="203"/>
+      <c r="AC47" s="176"/>
+      <c r="AD47" s="176"/>
+      <c r="AE47" s="166"/>
+      <c r="AF47" s="166"/>
     </row>
     <row r="48" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A48" s="181" t="s">
+      <c r="A48" s="230" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="15" t="s">
@@ -11156,7 +11156,7 @@
         <f>SUM(D48:AA48)</f>
         <v>0</v>
       </c>
-      <c r="AC48" s="236" t="str">
+      <c r="AC48" s="171" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D49&gt;D48," * Eligible for PrEP  for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than Assessed for HIV risk"&amp;CHAR(10),""),IF(E49&gt;E48," * Eligible for PrEP  for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than Assessed for HIV risk"&amp;CHAR(10),""),
@@ -11175,18 +11175,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD48" s="177" t="str">
+      <c r="AD48" s="243" t="str">
         <f>CONCATENATE(AC48,AC50,AC51,AC52,AC53,AC55,AC56,AC57,AC58,AC59,AC60,AC61,AC62,AC63,AC64)</f>
         <v/>
       </c>
       <c r="AE48" s="117"/>
-      <c r="AF48" s="235" t="str">
+      <c r="AF48" s="164" t="str">
         <f>CONCATENATE(AE48,AE49,AE50,AE51,AE52,AE53,AE54,AE55,AE56,AE57,AE58,AE59,AE60,AE61,AE62,AE63,AE64)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A49" s="182"/>
+      <c r="A49" s="231"/>
       <c r="B49" s="15" t="s">
         <v>633</v>
       </c>
@@ -11221,13 +11221,13 @@
         <f t="shared" ref="AB49:AB62" si="5">SUM(D49:AA49)</f>
         <v>0</v>
       </c>
-      <c r="AC49" s="237"/>
-      <c r="AD49" s="178"/>
+      <c r="AC49" s="172"/>
+      <c r="AD49" s="244"/>
       <c r="AE49" s="117"/>
-      <c r="AF49" s="235"/>
+      <c r="AF49" s="164"/>
     </row>
     <row r="50" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A50" s="182"/>
+      <c r="A50" s="231"/>
       <c r="B50" s="15" t="s">
         <v>528</v>
       </c>
@@ -11281,7 +11281,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD50" s="178"/>
+      <c r="AD50" s="244"/>
       <c r="AE50" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -11289,10 +11289,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF50" s="235"/>
+      <c r="AF50" s="164"/>
     </row>
     <row r="51" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A51" s="182"/>
+      <c r="A51" s="231"/>
       <c r="B51" s="15" t="s">
         <v>237</v>
       </c>
@@ -11328,12 +11328,12 @@
         <v>0</v>
       </c>
       <c r="AC51" s="112"/>
-      <c r="AD51" s="178"/>
+      <c r="AD51" s="244"/>
       <c r="AE51" s="117"/>
-      <c r="AF51" s="235"/>
+      <c r="AF51" s="164"/>
     </row>
     <row r="52" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A52" s="182"/>
+      <c r="A52" s="231"/>
       <c r="B52" s="15" t="s">
         <v>529</v>
       </c>
@@ -11369,12 +11369,12 @@
         <v>0</v>
       </c>
       <c r="AC52" s="112"/>
-      <c r="AD52" s="178"/>
+      <c r="AD52" s="244"/>
       <c r="AE52" s="117"/>
-      <c r="AF52" s="235"/>
+      <c r="AF52" s="164"/>
     </row>
     <row r="53" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A53" s="191" t="s">
+      <c r="A53" s="187" t="s">
         <v>37</v>
       </c>
       <c r="B53" s="15" t="s">
@@ -11411,7 +11411,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="201" t="str">
+      <c r="AC53" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D54&gt;D53," * F02-07 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F02-06"&amp;CHAR(10),""),IF(E54&gt;E53," * F02-07 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F02-06"&amp;CHAR(10),""),
@@ -11430,12 +11430,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD53" s="178"/>
+      <c r="AD53" s="244"/>
       <c r="AE53" s="117"/>
-      <c r="AF53" s="235"/>
+      <c r="AF53" s="164"/>
     </row>
     <row r="54" spans="1:32" s="10" customFormat="1" ht="83.85" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A54" s="191"/>
+      <c r="A54" s="187"/>
       <c r="B54" s="15" t="s">
         <v>530</v>
       </c>
@@ -11470,13 +11470,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="202"/>
-      <c r="AD54" s="178"/>
+      <c r="AC54" s="178"/>
+      <c r="AD54" s="244"/>
       <c r="AE54" s="117"/>
-      <c r="AF54" s="235"/>
+      <c r="AF54" s="164"/>
     </row>
     <row r="55" spans="1:32" s="10" customFormat="1" ht="83.85" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A55" s="191"/>
+      <c r="A55" s="187"/>
       <c r="B55" s="15" t="s">
         <v>531</v>
       </c>
@@ -11512,12 +11512,12 @@
         <v>0</v>
       </c>
       <c r="AC55" s="112"/>
-      <c r="AD55" s="178"/>
+      <c r="AD55" s="244"/>
       <c r="AE55" s="117"/>
-      <c r="AF55" s="235"/>
+      <c r="AF55" s="164"/>
     </row>
     <row r="56" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A56" s="179" t="s">
+      <c r="A56" s="206" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -11555,12 +11555,12 @@
         <v>0</v>
       </c>
       <c r="AC56" s="112"/>
-      <c r="AD56" s="178"/>
+      <c r="AD56" s="244"/>
       <c r="AE56" s="117"/>
-      <c r="AF56" s="235"/>
+      <c r="AF56" s="164"/>
     </row>
     <row r="57" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A57" s="198"/>
+      <c r="A57" s="207"/>
       <c r="B57" s="15" t="s">
         <v>533</v>
       </c>
@@ -11596,12 +11596,12 @@
         <v>0</v>
       </c>
       <c r="AC57" s="112"/>
-      <c r="AD57" s="178"/>
+      <c r="AD57" s="244"/>
       <c r="AE57" s="117"/>
-      <c r="AF57" s="235"/>
+      <c r="AF57" s="164"/>
     </row>
     <row r="58" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A58" s="198"/>
+      <c r="A58" s="207"/>
       <c r="B58" s="15" t="s">
         <v>248</v>
       </c>
@@ -11637,12 +11637,12 @@
         <v>0</v>
       </c>
       <c r="AC58" s="112"/>
-      <c r="AD58" s="178"/>
+      <c r="AD58" s="244"/>
       <c r="AE58" s="117"/>
-      <c r="AF58" s="235"/>
+      <c r="AF58" s="164"/>
     </row>
     <row r="59" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A59" s="198"/>
+      <c r="A59" s="207"/>
       <c r="B59" s="15" t="s">
         <v>534</v>
       </c>
@@ -11678,12 +11678,12 @@
         <v>0</v>
       </c>
       <c r="AC59" s="112"/>
-      <c r="AD59" s="178"/>
+      <c r="AD59" s="244"/>
       <c r="AE59" s="117"/>
-      <c r="AF59" s="235"/>
+      <c r="AF59" s="164"/>
     </row>
     <row r="60" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A60" s="198"/>
+      <c r="A60" s="207"/>
       <c r="B60" s="15" t="s">
         <v>535</v>
       </c>
@@ -11719,12 +11719,12 @@
         <v>0</v>
       </c>
       <c r="AC60" s="112"/>
-      <c r="AD60" s="178"/>
+      <c r="AD60" s="244"/>
       <c r="AE60" s="117"/>
-      <c r="AF60" s="235"/>
+      <c r="AF60" s="164"/>
     </row>
     <row r="61" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A61" s="198"/>
+      <c r="A61" s="207"/>
       <c r="B61" s="15" t="s">
         <v>536</v>
       </c>
@@ -11760,12 +11760,12 @@
         <v>0</v>
       </c>
       <c r="AC61" s="112"/>
-      <c r="AD61" s="178"/>
+      <c r="AD61" s="244"/>
       <c r="AE61" s="117"/>
-      <c r="AF61" s="235"/>
+      <c r="AF61" s="164"/>
     </row>
     <row r="62" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A62" s="180"/>
+      <c r="A62" s="208"/>
       <c r="B62" s="15" t="s">
         <v>537</v>
       </c>
@@ -11801,12 +11801,12 @@
         <v>0</v>
       </c>
       <c r="AC62" s="112"/>
-      <c r="AD62" s="178"/>
+      <c r="AD62" s="244"/>
       <c r="AE62" s="117"/>
-      <c r="AF62" s="235"/>
+      <c r="AF62" s="164"/>
     </row>
     <row r="63" spans="1:32" s="10" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A63" s="179" t="s">
+      <c r="A63" s="206" t="s">
         <v>134</v>
       </c>
       <c r="B63" s="93" t="s">
@@ -11841,12 +11841,12 @@
       <c r="AA63" s="87"/>
       <c r="AB63" s="125"/>
       <c r="AC63" s="112"/>
-      <c r="AD63" s="178"/>
+      <c r="AD63" s="244"/>
       <c r="AE63" s="117"/>
-      <c r="AF63" s="235"/>
+      <c r="AF63" s="164"/>
     </row>
     <row r="64" spans="1:32" s="10" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A64" s="198"/>
+      <c r="A64" s="207"/>
       <c r="B64" s="104" t="s">
         <v>539</v>
       </c>
@@ -11879,124 +11879,124 @@
       <c r="AA64" s="101"/>
       <c r="AB64" s="126"/>
       <c r="AC64" s="113"/>
-      <c r="AD64" s="178"/>
+      <c r="AD64" s="244"/>
       <c r="AE64" s="119"/>
-      <c r="AF64" s="235"/>
+      <c r="AF64" s="164"/>
     </row>
     <row r="65" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A65" s="244" t="s">
+      <c r="A65" s="170" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="244"/>
-      <c r="C65" s="244"/>
-      <c r="D65" s="244"/>
-      <c r="E65" s="244"/>
-      <c r="F65" s="244"/>
-      <c r="G65" s="244"/>
-      <c r="H65" s="244"/>
-      <c r="I65" s="244"/>
-      <c r="J65" s="244"/>
-      <c r="K65" s="244"/>
-      <c r="L65" s="244"/>
-      <c r="M65" s="244"/>
-      <c r="N65" s="244"/>
-      <c r="O65" s="244"/>
-      <c r="P65" s="244"/>
-      <c r="Q65" s="244"/>
-      <c r="R65" s="244"/>
-      <c r="S65" s="244"/>
-      <c r="T65" s="244"/>
-      <c r="U65" s="244"/>
-      <c r="V65" s="244"/>
-      <c r="W65" s="244"/>
-      <c r="X65" s="244"/>
-      <c r="Y65" s="244"/>
-      <c r="Z65" s="244"/>
-      <c r="AA65" s="244"/>
-      <c r="AB65" s="244"/>
-      <c r="AC65" s="244"/>
-      <c r="AD65" s="244"/>
-      <c r="AE65" s="244"/>
-      <c r="AF65" s="244"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="170"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="170"/>
+      <c r="F65" s="170"/>
+      <c r="G65" s="170"/>
+      <c r="H65" s="170"/>
+      <c r="I65" s="170"/>
+      <c r="J65" s="170"/>
+      <c r="K65" s="170"/>
+      <c r="L65" s="170"/>
+      <c r="M65" s="170"/>
+      <c r="N65" s="170"/>
+      <c r="O65" s="170"/>
+      <c r="P65" s="170"/>
+      <c r="Q65" s="170"/>
+      <c r="R65" s="170"/>
+      <c r="S65" s="170"/>
+      <c r="T65" s="170"/>
+      <c r="U65" s="170"/>
+      <c r="V65" s="170"/>
+      <c r="W65" s="170"/>
+      <c r="X65" s="170"/>
+      <c r="Y65" s="170"/>
+      <c r="Z65" s="170"/>
+      <c r="AA65" s="170"/>
+      <c r="AB65" s="170"/>
+      <c r="AC65" s="170"/>
+      <c r="AD65" s="170"/>
+      <c r="AE65" s="170"/>
+      <c r="AF65" s="170"/>
     </row>
     <row r="66" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A66" s="187" t="s">
+      <c r="A66" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B66" s="187" t="s">
+      <c r="B66" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C66" s="185" t="s">
+      <c r="C66" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D66" s="184" t="s">
+      <c r="D66" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="171"/>
-      <c r="F66" s="170" t="s">
+      <c r="E66" s="183"/>
+      <c r="F66" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="171"/>
-      <c r="H66" s="170" t="s">
+      <c r="G66" s="183"/>
+      <c r="H66" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I66" s="171"/>
-      <c r="J66" s="170" t="s">
+      <c r="I66" s="183"/>
+      <c r="J66" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K66" s="171"/>
-      <c r="L66" s="170" t="s">
+      <c r="K66" s="183"/>
+      <c r="L66" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="171"/>
-      <c r="N66" s="170" t="s">
+      <c r="M66" s="183"/>
+      <c r="N66" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O66" s="171"/>
-      <c r="P66" s="170" t="s">
+      <c r="O66" s="183"/>
+      <c r="P66" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q66" s="171"/>
-      <c r="R66" s="170" t="s">
+      <c r="Q66" s="183"/>
+      <c r="R66" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S66" s="171"/>
-      <c r="T66" s="170" t="s">
+      <c r="S66" s="183"/>
+      <c r="T66" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U66" s="171"/>
-      <c r="V66" s="170" t="s">
+      <c r="U66" s="183"/>
+      <c r="V66" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W66" s="171"/>
-      <c r="X66" s="170" t="s">
+      <c r="W66" s="183"/>
+      <c r="X66" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y66" s="171"/>
-      <c r="Z66" s="170" t="s">
+      <c r="Y66" s="183"/>
+      <c r="Z66" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA66" s="171"/>
-      <c r="AB66" s="172" t="s">
+      <c r="AA66" s="183"/>
+      <c r="AB66" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC66" s="174" t="s">
+      <c r="AC66" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD66" s="174" t="s">
+      <c r="AD66" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE66" s="169" t="s">
+      <c r="AE66" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF66" s="169" t="s">
+      <c r="AF66" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A67" s="188"/>
-      <c r="B67" s="188"/>
-      <c r="C67" s="186"/>
+      <c r="A67" s="201"/>
+      <c r="B67" s="201"/>
+      <c r="C67" s="191"/>
       <c r="D67" s="73" t="s">
         <v>14</v>
       </c>
@@ -12069,14 +12069,14 @@
       <c r="AA67" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB67" s="173"/>
-      <c r="AC67" s="174"/>
-      <c r="AD67" s="174"/>
-      <c r="AE67" s="169"/>
-      <c r="AF67" s="169"/>
+      <c r="AB67" s="203"/>
+      <c r="AC67" s="176"/>
+      <c r="AD67" s="176"/>
+      <c r="AE67" s="166"/>
+      <c r="AF67" s="166"/>
     </row>
     <row r="68" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A68" s="179" t="s">
+      <c r="A68" s="206" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -12132,18 +12132,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD68" s="175" t="str">
+      <c r="AD68" s="235" t="str">
         <f>CONCATENATE(AC68,AC69,AC70,AC71,AC72,AC73,AC74,AC75,AC76,AC77,AC78,AC79)</f>
         <v/>
       </c>
       <c r="AE68" s="117"/>
-      <c r="AF68" s="235" t="str">
+      <c r="AF68" s="164" t="str">
         <f>CONCATENATE(AE68,AE69,AE70,AE71,AE72,AE73,AE74,AE75,AE76,AE77,AE78,AE79)</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A69" s="198"/>
+      <c r="A69" s="207"/>
       <c r="B69" s="15" t="s">
         <v>541</v>
       </c>
@@ -12197,12 +12197,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD69" s="175"/>
+      <c r="AD69" s="235"/>
       <c r="AE69" s="117"/>
-      <c r="AF69" s="235"/>
+      <c r="AF69" s="164"/>
     </row>
     <row r="70" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A70" s="179" t="s">
+      <c r="A70" s="206" t="s">
         <v>32</v>
       </c>
       <c r="B70" s="15" t="s">
@@ -12258,12 +12258,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD70" s="175"/>
+      <c r="AD70" s="235"/>
       <c r="AE70" s="117"/>
-      <c r="AF70" s="235"/>
+      <c r="AF70" s="164"/>
     </row>
     <row r="71" spans="1:32" s="10" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A71" s="198"/>
+      <c r="A71" s="207"/>
       <c r="B71" s="15" t="s">
         <v>541</v>
       </c>
@@ -12317,12 +12317,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD71" s="175"/>
+      <c r="AD71" s="235"/>
       <c r="AE71" s="117"/>
-      <c r="AF71" s="235"/>
+      <c r="AF71" s="164"/>
     </row>
     <row r="72" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A72" s="207" t="s">
+      <c r="A72" s="221" t="s">
         <v>38</v>
       </c>
       <c r="B72" s="20" t="s">
@@ -12360,12 +12360,12 @@
         <v>0</v>
       </c>
       <c r="AC72" s="112"/>
-      <c r="AD72" s="175"/>
+      <c r="AD72" s="235"/>
       <c r="AE72" s="117"/>
-      <c r="AF72" s="235"/>
+      <c r="AF72" s="164"/>
     </row>
     <row r="73" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A73" s="207"/>
+      <c r="A73" s="221"/>
       <c r="B73" s="20" t="s">
         <v>544</v>
       </c>
@@ -12401,12 +12401,12 @@
         <v>0</v>
       </c>
       <c r="AC73" s="112"/>
-      <c r="AD73" s="175"/>
+      <c r="AD73" s="235"/>
       <c r="AE73" s="117"/>
-      <c r="AF73" s="235"/>
+      <c r="AF73" s="164"/>
     </row>
     <row r="74" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A74" s="207" t="s">
+      <c r="A74" s="221" t="s">
         <v>39</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -12444,12 +12444,12 @@
         <v>0</v>
       </c>
       <c r="AC74" s="112"/>
-      <c r="AD74" s="175"/>
+      <c r="AD74" s="235"/>
       <c r="AE74" s="117"/>
-      <c r="AF74" s="235"/>
+      <c r="AF74" s="164"/>
     </row>
     <row r="75" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A75" s="207"/>
+      <c r="A75" s="221"/>
       <c r="B75" s="20" t="s">
         <v>545</v>
       </c>
@@ -12485,12 +12485,12 @@
         <v>0</v>
       </c>
       <c r="AC75" s="112"/>
-      <c r="AD75" s="175"/>
+      <c r="AD75" s="235"/>
       <c r="AE75" s="117"/>
-      <c r="AF75" s="235"/>
+      <c r="AF75" s="164"/>
     </row>
     <row r="76" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A76" s="207" t="s">
+      <c r="A76" s="221" t="s">
         <v>40</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -12528,12 +12528,12 @@
         <v>0</v>
       </c>
       <c r="AC76" s="112"/>
-      <c r="AD76" s="175"/>
+      <c r="AD76" s="235"/>
       <c r="AE76" s="117"/>
-      <c r="AF76" s="235"/>
+      <c r="AF76" s="164"/>
     </row>
     <row r="77" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A77" s="207"/>
+      <c r="A77" s="221"/>
       <c r="B77" s="20" t="s">
         <v>546</v>
       </c>
@@ -12569,12 +12569,12 @@
         <v>0</v>
       </c>
       <c r="AC77" s="112"/>
-      <c r="AD77" s="175"/>
+      <c r="AD77" s="235"/>
       <c r="AE77" s="117"/>
-      <c r="AF77" s="235"/>
+      <c r="AF77" s="164"/>
     </row>
     <row r="78" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A78" s="207" t="s">
+      <c r="A78" s="221" t="s">
         <v>41</v>
       </c>
       <c r="B78" s="20" t="s">
@@ -12612,12 +12612,12 @@
         <v>0</v>
       </c>
       <c r="AC78" s="112"/>
-      <c r="AD78" s="175"/>
+      <c r="AD78" s="235"/>
       <c r="AE78" s="117"/>
-      <c r="AF78" s="235"/>
+      <c r="AF78" s="164"/>
     </row>
     <row r="79" spans="1:32" s="12" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A79" s="208"/>
+      <c r="A79" s="222"/>
       <c r="B79" s="102" t="s">
         <v>547</v>
       </c>
@@ -12653,54 +12653,54 @@
         <v>0</v>
       </c>
       <c r="AC79" s="113"/>
-      <c r="AD79" s="176"/>
+      <c r="AD79" s="228"/>
       <c r="AE79" s="119"/>
-      <c r="AF79" s="235"/>
+      <c r="AF79" s="164"/>
     </row>
     <row r="80" spans="1:32" s="8" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A80" s="244" t="s">
+      <c r="A80" s="170" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="244"/>
-      <c r="C80" s="244"/>
-      <c r="D80" s="244"/>
-      <c r="E80" s="244"/>
-      <c r="F80" s="244"/>
-      <c r="G80" s="244"/>
-      <c r="H80" s="244"/>
-      <c r="I80" s="244"/>
-      <c r="J80" s="244"/>
-      <c r="K80" s="244"/>
-      <c r="L80" s="244"/>
-      <c r="M80" s="244"/>
-      <c r="N80" s="244"/>
-      <c r="O80" s="244"/>
-      <c r="P80" s="244"/>
-      <c r="Q80" s="244"/>
-      <c r="R80" s="244"/>
-      <c r="S80" s="244"/>
-      <c r="T80" s="244"/>
-      <c r="U80" s="244"/>
-      <c r="V80" s="244"/>
-      <c r="W80" s="244"/>
-      <c r="X80" s="244"/>
-      <c r="Y80" s="244"/>
-      <c r="Z80" s="244"/>
-      <c r="AA80" s="244"/>
-      <c r="AB80" s="244"/>
-      <c r="AC80" s="244"/>
-      <c r="AD80" s="244"/>
-      <c r="AE80" s="244"/>
-      <c r="AF80" s="244"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="170"/>
+      <c r="F80" s="170"/>
+      <c r="G80" s="170"/>
+      <c r="H80" s="170"/>
+      <c r="I80" s="170"/>
+      <c r="J80" s="170"/>
+      <c r="K80" s="170"/>
+      <c r="L80" s="170"/>
+      <c r="M80" s="170"/>
+      <c r="N80" s="170"/>
+      <c r="O80" s="170"/>
+      <c r="P80" s="170"/>
+      <c r="Q80" s="170"/>
+      <c r="R80" s="170"/>
+      <c r="S80" s="170"/>
+      <c r="T80" s="170"/>
+      <c r="U80" s="170"/>
+      <c r="V80" s="170"/>
+      <c r="W80" s="170"/>
+      <c r="X80" s="170"/>
+      <c r="Y80" s="170"/>
+      <c r="Z80" s="170"/>
+      <c r="AA80" s="170"/>
+      <c r="AB80" s="170"/>
+      <c r="AC80" s="170"/>
+      <c r="AD80" s="170"/>
+      <c r="AE80" s="170"/>
+      <c r="AF80" s="170"/>
     </row>
     <row r="81" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A81" s="187" t="s">
+      <c r="A81" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B81" s="187" t="s">
+      <c r="B81" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C81" s="185" t="s">
+      <c r="C81" s="190" t="s">
         <v>508</v>
       </c>
       <c r="D81" s="78"/>
@@ -12711,58 +12711,58 @@
       <c r="I81" s="79"/>
       <c r="J81" s="79"/>
       <c r="K81" s="80"/>
-      <c r="L81" s="184" t="s">
+      <c r="L81" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="M81" s="171"/>
-      <c r="N81" s="170" t="s">
+      <c r="M81" s="183"/>
+      <c r="N81" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O81" s="171"/>
-      <c r="P81" s="170" t="s">
+      <c r="O81" s="183"/>
+      <c r="P81" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q81" s="171"/>
-      <c r="R81" s="170" t="s">
+      <c r="Q81" s="183"/>
+      <c r="R81" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S81" s="171"/>
-      <c r="T81" s="170" t="s">
+      <c r="S81" s="183"/>
+      <c r="T81" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U81" s="171"/>
-      <c r="V81" s="170" t="s">
+      <c r="U81" s="183"/>
+      <c r="V81" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W81" s="171"/>
-      <c r="X81" s="170" t="s">
+      <c r="W81" s="183"/>
+      <c r="X81" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y81" s="171"/>
-      <c r="Z81" s="170" t="s">
+      <c r="Y81" s="183"/>
+      <c r="Z81" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA81" s="171"/>
-      <c r="AB81" s="172" t="s">
+      <c r="AA81" s="183"/>
+      <c r="AB81" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC81" s="174" t="s">
+      <c r="AC81" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD81" s="174" t="s">
+      <c r="AD81" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE81" s="169" t="s">
+      <c r="AE81" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF81" s="169" t="s">
+      <c r="AF81" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="82" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A82" s="188"/>
-      <c r="B82" s="188"/>
-      <c r="C82" s="186"/>
+      <c r="A82" s="201"/>
+      <c r="B82" s="201"/>
+      <c r="C82" s="191"/>
       <c r="D82" s="75"/>
       <c r="E82" s="76"/>
       <c r="F82" s="76"/>
@@ -12819,14 +12819,14 @@
       <c r="AA82" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB82" s="173"/>
-      <c r="AC82" s="174"/>
-      <c r="AD82" s="174"/>
-      <c r="AE82" s="169"/>
-      <c r="AF82" s="169"/>
+      <c r="AB82" s="203"/>
+      <c r="AC82" s="176"/>
+      <c r="AD82" s="176"/>
+      <c r="AE82" s="166"/>
+      <c r="AF82" s="166"/>
     </row>
     <row r="83" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A83" s="179" t="s">
+      <c r="A83" s="206" t="s">
         <v>43</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -12864,18 +12864,18 @@
         <v>0</v>
       </c>
       <c r="AC83" s="112"/>
-      <c r="AD83" s="175" t="str">
+      <c r="AD83" s="235" t="str">
         <f>CONCATENATE(AC83,AC84,AC85,AC86,AC87,AC88,AC89,AC90,AC91,AC92,AC93,AC94,AC95,AC96,AC97,AC98,AC99,AC100)</f>
         <v/>
       </c>
       <c r="AE83" s="117"/>
-      <c r="AF83" s="235" t="str">
+      <c r="AF83" s="164" t="str">
         <f>CONCATENATE(AE83,AE84,AE85,AE86,AE87,AE88,AE89,AE90,AE91,AE92,AE93,AE94,AE95,AE96,AE97,AE98,AE99,AE100)</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A84" s="198"/>
+      <c r="A84" s="207"/>
       <c r="B84" s="15" t="s">
         <v>288</v>
       </c>
@@ -12929,12 +12929,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD84" s="175"/>
+      <c r="AD84" s="235"/>
       <c r="AE84" s="117"/>
-      <c r="AF84" s="235"/>
+      <c r="AF84" s="164"/>
     </row>
     <row r="85" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A85" s="198"/>
+      <c r="A85" s="207"/>
       <c r="B85" s="15" t="s">
         <v>549</v>
       </c>
@@ -12970,12 +12970,12 @@
         <v>0</v>
       </c>
       <c r="AC85" s="112"/>
-      <c r="AD85" s="175"/>
+      <c r="AD85" s="235"/>
       <c r="AE85" s="117"/>
-      <c r="AF85" s="235"/>
+      <c r="AF85" s="164"/>
     </row>
     <row r="86" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A86" s="198"/>
+      <c r="A86" s="207"/>
       <c r="B86" s="15" t="s">
         <v>550</v>
       </c>
@@ -13011,12 +13011,12 @@
         <v>0</v>
       </c>
       <c r="AC86" s="112"/>
-      <c r="AD86" s="175"/>
+      <c r="AD86" s="235"/>
       <c r="AE86" s="117"/>
-      <c r="AF86" s="235"/>
+      <c r="AF86" s="164"/>
     </row>
     <row r="87" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A87" s="198"/>
+      <c r="A87" s="207"/>
       <c r="B87" s="15" t="s">
         <v>551</v>
       </c>
@@ -13052,12 +13052,12 @@
         <v>0</v>
       </c>
       <c r="AC87" s="112"/>
-      <c r="AD87" s="175"/>
+      <c r="AD87" s="235"/>
       <c r="AE87" s="117"/>
-      <c r="AF87" s="235"/>
+      <c r="AF87" s="164"/>
     </row>
     <row r="88" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A88" s="180"/>
+      <c r="A88" s="208"/>
       <c r="B88" s="15" t="s">
         <v>552</v>
       </c>
@@ -13093,12 +13093,12 @@
         <v>0</v>
       </c>
       <c r="AC88" s="112"/>
-      <c r="AD88" s="175"/>
+      <c r="AD88" s="235"/>
       <c r="AE88" s="117"/>
-      <c r="AF88" s="235"/>
+      <c r="AF88" s="164"/>
     </row>
     <row r="89" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A89" s="179" t="s">
+      <c r="A89" s="206" t="s">
         <v>42</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -13136,12 +13136,12 @@
         <v>0</v>
       </c>
       <c r="AC89" s="112"/>
-      <c r="AD89" s="175"/>
+      <c r="AD89" s="235"/>
       <c r="AE89" s="117"/>
-      <c r="AF89" s="235"/>
+      <c r="AF89" s="164"/>
     </row>
     <row r="90" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A90" s="198"/>
+      <c r="A90" s="207"/>
       <c r="B90" s="15" t="s">
         <v>553</v>
       </c>
@@ -13195,12 +13195,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD90" s="175"/>
+      <c r="AD90" s="235"/>
       <c r="AE90" s="117"/>
-      <c r="AF90" s="235"/>
+      <c r="AF90" s="164"/>
     </row>
     <row r="91" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A91" s="198"/>
+      <c r="A91" s="207"/>
       <c r="B91" s="15" t="s">
         <v>304</v>
       </c>
@@ -13236,12 +13236,12 @@
         <v>0</v>
       </c>
       <c r="AC91" s="112"/>
-      <c r="AD91" s="175"/>
+      <c r="AD91" s="235"/>
       <c r="AE91" s="117"/>
-      <c r="AF91" s="235"/>
+      <c r="AF91" s="164"/>
     </row>
     <row r="92" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A92" s="198"/>
+      <c r="A92" s="207"/>
       <c r="B92" s="15" t="s">
         <v>554</v>
       </c>
@@ -13277,12 +13277,12 @@
         <v>0</v>
       </c>
       <c r="AC92" s="112"/>
-      <c r="AD92" s="175"/>
+      <c r="AD92" s="235"/>
       <c r="AE92" s="117"/>
-      <c r="AF92" s="235"/>
+      <c r="AF92" s="164"/>
     </row>
     <row r="93" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A93" s="198"/>
+      <c r="A93" s="207"/>
       <c r="B93" s="15" t="s">
         <v>551</v>
       </c>
@@ -13318,12 +13318,12 @@
         <v>0</v>
       </c>
       <c r="AC93" s="112"/>
-      <c r="AD93" s="175"/>
+      <c r="AD93" s="235"/>
       <c r="AE93" s="117"/>
-      <c r="AF93" s="235"/>
+      <c r="AF93" s="164"/>
     </row>
     <row r="94" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A94" s="180"/>
+      <c r="A94" s="208"/>
       <c r="B94" s="15" t="s">
         <v>309</v>
       </c>
@@ -13377,12 +13377,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD94" s="175"/>
+      <c r="AD94" s="235"/>
       <c r="AE94" s="117"/>
-      <c r="AF94" s="235"/>
+      <c r="AF94" s="164"/>
     </row>
     <row r="95" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A95" s="179" t="s">
+      <c r="A95" s="206" t="s">
         <v>33</v>
       </c>
       <c r="B95" s="15" t="s">
@@ -13420,12 +13420,12 @@
         <v>0</v>
       </c>
       <c r="AC95" s="112"/>
-      <c r="AD95" s="175"/>
+      <c r="AD95" s="235"/>
       <c r="AE95" s="117"/>
-      <c r="AF95" s="235"/>
+      <c r="AF95" s="164"/>
     </row>
     <row r="96" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A96" s="198"/>
+      <c r="A96" s="207"/>
       <c r="B96" s="15" t="s">
         <v>288</v>
       </c>
@@ -13479,12 +13479,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD96" s="175"/>
+      <c r="AD96" s="235"/>
       <c r="AE96" s="117"/>
-      <c r="AF96" s="235"/>
+      <c r="AF96" s="164"/>
     </row>
     <row r="97" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A97" s="198"/>
+      <c r="A97" s="207"/>
       <c r="B97" s="15" t="s">
         <v>304</v>
       </c>
@@ -13520,12 +13520,12 @@
         <v>0</v>
       </c>
       <c r="AC97" s="112"/>
-      <c r="AD97" s="175"/>
+      <c r="AD97" s="235"/>
       <c r="AE97" s="117"/>
-      <c r="AF97" s="235"/>
+      <c r="AF97" s="164"/>
     </row>
     <row r="98" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A98" s="198"/>
+      <c r="A98" s="207"/>
       <c r="B98" s="15" t="s">
         <v>550</v>
       </c>
@@ -13561,12 +13561,12 @@
         <v>0</v>
       </c>
       <c r="AC98" s="112"/>
-      <c r="AD98" s="175"/>
+      <c r="AD98" s="235"/>
       <c r="AE98" s="117"/>
-      <c r="AF98" s="235"/>
+      <c r="AF98" s="164"/>
     </row>
     <row r="99" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A99" s="198"/>
+      <c r="A99" s="207"/>
       <c r="B99" s="15" t="s">
         <v>551</v>
       </c>
@@ -13602,12 +13602,12 @@
         <v>0</v>
       </c>
       <c r="AC99" s="112"/>
-      <c r="AD99" s="175"/>
+      <c r="AD99" s="235"/>
       <c r="AE99" s="117"/>
-      <c r="AF99" s="235"/>
+      <c r="AF99" s="164"/>
     </row>
     <row r="100" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A100" s="198"/>
+      <c r="A100" s="207"/>
       <c r="B100" s="99" t="s">
         <v>309</v>
       </c>
@@ -13643,124 +13643,124 @@
         <v>0</v>
       </c>
       <c r="AC100" s="113"/>
-      <c r="AD100" s="175"/>
+      <c r="AD100" s="235"/>
       <c r="AE100" s="117"/>
-      <c r="AF100" s="235"/>
+      <c r="AF100" s="164"/>
     </row>
     <row r="101" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A101" s="244" t="s">
+      <c r="A101" s="170" t="s">
         <v>153</v>
       </c>
-      <c r="B101" s="244"/>
-      <c r="C101" s="244"/>
-      <c r="D101" s="244"/>
-      <c r="E101" s="244"/>
-      <c r="F101" s="244"/>
-      <c r="G101" s="244"/>
-      <c r="H101" s="244"/>
-      <c r="I101" s="244"/>
-      <c r="J101" s="244"/>
-      <c r="K101" s="244"/>
-      <c r="L101" s="244"/>
-      <c r="M101" s="244"/>
-      <c r="N101" s="244"/>
-      <c r="O101" s="244"/>
-      <c r="P101" s="244"/>
-      <c r="Q101" s="244"/>
-      <c r="R101" s="244"/>
-      <c r="S101" s="244"/>
-      <c r="T101" s="244"/>
-      <c r="U101" s="244"/>
-      <c r="V101" s="244"/>
-      <c r="W101" s="244"/>
-      <c r="X101" s="244"/>
-      <c r="Y101" s="244"/>
-      <c r="Z101" s="244"/>
-      <c r="AA101" s="244"/>
-      <c r="AB101" s="244"/>
-      <c r="AC101" s="244"/>
-      <c r="AD101" s="244"/>
-      <c r="AE101" s="244"/>
-      <c r="AF101" s="244"/>
+      <c r="B101" s="170"/>
+      <c r="C101" s="170"/>
+      <c r="D101" s="170"/>
+      <c r="E101" s="170"/>
+      <c r="F101" s="170"/>
+      <c r="G101" s="170"/>
+      <c r="H101" s="170"/>
+      <c r="I101" s="170"/>
+      <c r="J101" s="170"/>
+      <c r="K101" s="170"/>
+      <c r="L101" s="170"/>
+      <c r="M101" s="170"/>
+      <c r="N101" s="170"/>
+      <c r="O101" s="170"/>
+      <c r="P101" s="170"/>
+      <c r="Q101" s="170"/>
+      <c r="R101" s="170"/>
+      <c r="S101" s="170"/>
+      <c r="T101" s="170"/>
+      <c r="U101" s="170"/>
+      <c r="V101" s="170"/>
+      <c r="W101" s="170"/>
+      <c r="X101" s="170"/>
+      <c r="Y101" s="170"/>
+      <c r="Z101" s="170"/>
+      <c r="AA101" s="170"/>
+      <c r="AB101" s="170"/>
+      <c r="AC101" s="170"/>
+      <c r="AD101" s="170"/>
+      <c r="AE101" s="170"/>
+      <c r="AF101" s="170"/>
     </row>
     <row r="102" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A102" s="187" t="s">
+      <c r="A102" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B102" s="187" t="s">
+      <c r="B102" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C102" s="185" t="s">
+      <c r="C102" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D102" s="184" t="s">
+      <c r="D102" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="171"/>
-      <c r="F102" s="170" t="s">
+      <c r="E102" s="183"/>
+      <c r="F102" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="171"/>
-      <c r="H102" s="170" t="s">
+      <c r="G102" s="183"/>
+      <c r="H102" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I102" s="171"/>
-      <c r="J102" s="170" t="s">
+      <c r="I102" s="183"/>
+      <c r="J102" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K102" s="171"/>
-      <c r="L102" s="170" t="s">
+      <c r="K102" s="183"/>
+      <c r="L102" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="171"/>
-      <c r="N102" s="170" t="s">
+      <c r="M102" s="183"/>
+      <c r="N102" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O102" s="171"/>
-      <c r="P102" s="170" t="s">
+      <c r="O102" s="183"/>
+      <c r="P102" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q102" s="171"/>
-      <c r="R102" s="170" t="s">
+      <c r="Q102" s="183"/>
+      <c r="R102" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S102" s="171"/>
-      <c r="T102" s="170" t="s">
+      <c r="S102" s="183"/>
+      <c r="T102" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U102" s="171"/>
-      <c r="V102" s="170" t="s">
+      <c r="U102" s="183"/>
+      <c r="V102" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W102" s="171"/>
-      <c r="X102" s="170" t="s">
+      <c r="W102" s="183"/>
+      <c r="X102" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y102" s="171"/>
-      <c r="Z102" s="170" t="s">
+      <c r="Y102" s="183"/>
+      <c r="Z102" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA102" s="171"/>
-      <c r="AB102" s="172" t="s">
+      <c r="AA102" s="183"/>
+      <c r="AB102" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC102" s="174" t="s">
+      <c r="AC102" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD102" s="174" t="s">
+      <c r="AD102" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE102" s="169" t="s">
+      <c r="AE102" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF102" s="169" t="s">
+      <c r="AF102" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="103" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A103" s="188"/>
-      <c r="B103" s="188"/>
-      <c r="C103" s="186"/>
+      <c r="A103" s="201"/>
+      <c r="B103" s="201"/>
+      <c r="C103" s="191"/>
       <c r="D103" s="73" t="s">
         <v>14</v>
       </c>
@@ -13833,14 +13833,14 @@
       <c r="AA103" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB103" s="173"/>
-      <c r="AC103" s="174"/>
-      <c r="AD103" s="174"/>
-      <c r="AE103" s="169"/>
-      <c r="AF103" s="169"/>
+      <c r="AB103" s="203"/>
+      <c r="AC103" s="176"/>
+      <c r="AD103" s="176"/>
+      <c r="AE103" s="166"/>
+      <c r="AF103" s="166"/>
     </row>
     <row r="104" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A104" s="179" t="s">
+      <c r="A104" s="206" t="s">
         <v>44</v>
       </c>
       <c r="B104" s="15" t="s">
@@ -13877,7 +13877,7 @@
         <f>SUM(D104:AA104)</f>
         <v>0</v>
       </c>
-      <c r="AC104" s="201" t="str">
+      <c r="AC104" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D105&gt;D104," * F05-02 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-01"&amp;CHAR(10),""),IF(E105&gt;E104," * F05-02 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-01"&amp;CHAR(10),""),
@@ -13896,18 +13896,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD104" s="175" t="str">
+      <c r="AD104" s="235" t="str">
         <f>CONCATENATE(AC104,AC106,AC107,AC108,AC109,AC111,AC113,AC115,AC117,AC118)</f>
         <v/>
       </c>
       <c r="AE104" s="117"/>
-      <c r="AF104" s="235" t="str">
+      <c r="AF104" s="164" t="str">
         <f>CONCATENATE(AE104,AE105,AE106,AE107,AE108,AE109,AE110,AE111,AE112,AE113,AE114,AE115,AE116,AE117,AE118)</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A105" s="180"/>
+      <c r="A105" s="208"/>
       <c r="B105" s="15" t="s">
         <v>556</v>
       </c>
@@ -13942,13 +13942,13 @@
         <f t="shared" ref="AB105:AB118" si="8">SUM(D105:AA105)</f>
         <v>0</v>
       </c>
-      <c r="AC105" s="202"/>
-      <c r="AD105" s="175"/>
+      <c r="AC105" s="178"/>
+      <c r="AD105" s="235"/>
       <c r="AE105" s="117"/>
-      <c r="AF105" s="235"/>
+      <c r="AF105" s="164"/>
     </row>
     <row r="106" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A106" s="179" t="s">
+      <c r="A106" s="206" t="s">
         <v>45</v>
       </c>
       <c r="B106" s="15" t="s">
@@ -14004,12 +14004,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD106" s="175"/>
+      <c r="AD106" s="235"/>
       <c r="AE106" s="117"/>
-      <c r="AF106" s="235"/>
+      <c r="AF106" s="164"/>
     </row>
     <row r="107" spans="1:32" s="10" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A107" s="180"/>
+      <c r="A107" s="208"/>
       <c r="B107" s="15" t="s">
         <v>327</v>
       </c>
@@ -14045,12 +14045,12 @@
         <v>0</v>
       </c>
       <c r="AC107" s="112"/>
-      <c r="AD107" s="175"/>
+      <c r="AD107" s="235"/>
       <c r="AE107" s="117"/>
-      <c r="AF107" s="235"/>
+      <c r="AF107" s="164"/>
     </row>
     <row r="108" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A108" s="181" t="s">
+      <c r="A108" s="230" t="s">
         <v>34</v>
       </c>
       <c r="B108" s="93" t="s">
@@ -14106,12 +14106,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD108" s="175"/>
+      <c r="AD108" s="235"/>
       <c r="AE108" s="117"/>
-      <c r="AF108" s="235"/>
+      <c r="AF108" s="164"/>
     </row>
     <row r="109" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A109" s="182"/>
+      <c r="A109" s="231"/>
       <c r="B109" s="93" t="s">
         <v>559</v>
       </c>
@@ -14146,7 +14146,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC109" s="201" t="str">
+      <c r="AC109" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D110&gt;D109," * F05-07 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-06"&amp;CHAR(10),""),IF(E110&gt;E109," * F05-07 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-06"&amp;CHAR(10),""),
@@ -14165,12 +14165,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD109" s="175"/>
+      <c r="AD109" s="235"/>
       <c r="AE109" s="117"/>
-      <c r="AF109" s="235"/>
+      <c r="AF109" s="164"/>
     </row>
     <row r="110" spans="1:32" s="12" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A110" s="182"/>
+      <c r="A110" s="231"/>
       <c r="B110" s="93" t="s">
         <v>560</v>
       </c>
@@ -14205,13 +14205,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC110" s="202"/>
-      <c r="AD110" s="175"/>
+      <c r="AC110" s="178"/>
+      <c r="AD110" s="235"/>
       <c r="AE110" s="117"/>
-      <c r="AF110" s="235"/>
+      <c r="AF110" s="164"/>
     </row>
     <row r="111" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A111" s="182"/>
+      <c r="A111" s="231"/>
       <c r="B111" s="93" t="s">
         <v>561</v>
       </c>
@@ -14246,7 +14246,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC111" s="201" t="str">
+      <c r="AC111" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D112&gt;D111," * F05-09 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-08"&amp;CHAR(10),""),IF(E112&gt;E111," * F05-09 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-08"&amp;CHAR(10),""),
@@ -14265,12 +14265,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD111" s="175"/>
+      <c r="AD111" s="235"/>
       <c r="AE111" s="117"/>
-      <c r="AF111" s="235"/>
+      <c r="AF111" s="164"/>
     </row>
     <row r="112" spans="1:32" s="12" customFormat="1" ht="78.95" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A112" s="182"/>
+      <c r="A112" s="231"/>
       <c r="B112" s="93" t="s">
         <v>562</v>
       </c>
@@ -14305,13 +14305,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC112" s="202"/>
-      <c r="AD112" s="175"/>
+      <c r="AC112" s="178"/>
+      <c r="AD112" s="235"/>
       <c r="AE112" s="117"/>
-      <c r="AF112" s="235"/>
+      <c r="AF112" s="164"/>
     </row>
     <row r="113" spans="1:32" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A113" s="182"/>
+      <c r="A113" s="231"/>
       <c r="B113" s="93" t="s">
         <v>563</v>
       </c>
@@ -14346,7 +14346,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC113" s="201" t="str">
+      <c r="AC113" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D114&gt;D113," * F05-11 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-10"&amp;CHAR(10),""),IF(E114&gt;E113," * F05-11 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-10"&amp;CHAR(10),""),
@@ -14365,12 +14365,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD113" s="175"/>
+      <c r="AD113" s="235"/>
       <c r="AE113" s="117"/>
-      <c r="AF113" s="235"/>
+      <c r="AF113" s="164"/>
     </row>
     <row r="114" spans="1:32" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A114" s="183"/>
+      <c r="A114" s="236"/>
       <c r="B114" s="93" t="s">
         <v>564</v>
       </c>
@@ -14405,13 +14405,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC114" s="202"/>
-      <c r="AD114" s="175"/>
+      <c r="AC114" s="178"/>
+      <c r="AD114" s="235"/>
       <c r="AE114" s="117"/>
-      <c r="AF114" s="235"/>
+      <c r="AF114" s="164"/>
     </row>
     <row r="115" spans="1:32" s="12" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A115" s="181" t="s">
+      <c r="A115" s="230" t="s">
         <v>131</v>
       </c>
       <c r="B115" s="93" t="s">
@@ -14448,7 +14448,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC115" s="201" t="str">
+      <c r="AC115" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D116&gt;D115," * F05-13 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F05-12"&amp;CHAR(10),""),IF(E116&gt;E115," * F05-13 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F05-12"&amp;CHAR(10),""),
@@ -14467,12 +14467,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD115" s="175"/>
+      <c r="AD115" s="235"/>
       <c r="AE115" s="117"/>
-      <c r="AF115" s="235"/>
+      <c r="AF115" s="164"/>
     </row>
     <row r="116" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A116" s="182"/>
+      <c r="A116" s="231"/>
       <c r="B116" s="93" t="s">
         <v>351</v>
       </c>
@@ -14507,13 +14507,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC116" s="202"/>
-      <c r="AD116" s="175"/>
+      <c r="AC116" s="178"/>
+      <c r="AD116" s="235"/>
       <c r="AE116" s="117"/>
-      <c r="AF116" s="235"/>
+      <c r="AF116" s="164"/>
     </row>
     <row r="117" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A117" s="182"/>
+      <c r="A117" s="231"/>
       <c r="B117" s="93" t="s">
         <v>565</v>
       </c>
@@ -14567,12 +14567,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD117" s="175"/>
+      <c r="AD117" s="235"/>
       <c r="AE117" s="117"/>
-      <c r="AF117" s="235"/>
+      <c r="AF117" s="164"/>
     </row>
     <row r="118" spans="1:32" s="12" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A118" s="182"/>
+      <c r="A118" s="231"/>
       <c r="B118" s="104" t="s">
         <v>566</v>
       </c>
@@ -14626,124 +14626,124 @@
 )</f>
         <v/>
       </c>
-      <c r="AD118" s="176"/>
+      <c r="AD118" s="228"/>
       <c r="AE118" s="119"/>
-      <c r="AF118" s="235"/>
+      <c r="AF118" s="164"/>
     </row>
     <row r="119" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A119" s="244" t="s">
+      <c r="A119" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="B119" s="244"/>
-      <c r="C119" s="244"/>
-      <c r="D119" s="244"/>
-      <c r="E119" s="244"/>
-      <c r="F119" s="244"/>
-      <c r="G119" s="244"/>
-      <c r="H119" s="244"/>
-      <c r="I119" s="244"/>
-      <c r="J119" s="244"/>
-      <c r="K119" s="244"/>
-      <c r="L119" s="244"/>
-      <c r="M119" s="244"/>
-      <c r="N119" s="244"/>
-      <c r="O119" s="244"/>
-      <c r="P119" s="244"/>
-      <c r="Q119" s="244"/>
-      <c r="R119" s="244"/>
-      <c r="S119" s="244"/>
-      <c r="T119" s="244"/>
-      <c r="U119" s="244"/>
-      <c r="V119" s="244"/>
-      <c r="W119" s="244"/>
-      <c r="X119" s="244"/>
-      <c r="Y119" s="244"/>
-      <c r="Z119" s="244"/>
-      <c r="AA119" s="244"/>
-      <c r="AB119" s="244"/>
-      <c r="AC119" s="244"/>
-      <c r="AD119" s="244"/>
-      <c r="AE119" s="244"/>
-      <c r="AF119" s="244"/>
+      <c r="B119" s="170"/>
+      <c r="C119" s="170"/>
+      <c r="D119" s="170"/>
+      <c r="E119" s="170"/>
+      <c r="F119" s="170"/>
+      <c r="G119" s="170"/>
+      <c r="H119" s="170"/>
+      <c r="I119" s="170"/>
+      <c r="J119" s="170"/>
+      <c r="K119" s="170"/>
+      <c r="L119" s="170"/>
+      <c r="M119" s="170"/>
+      <c r="N119" s="170"/>
+      <c r="O119" s="170"/>
+      <c r="P119" s="170"/>
+      <c r="Q119" s="170"/>
+      <c r="R119" s="170"/>
+      <c r="S119" s="170"/>
+      <c r="T119" s="170"/>
+      <c r="U119" s="170"/>
+      <c r="V119" s="170"/>
+      <c r="W119" s="170"/>
+      <c r="X119" s="170"/>
+      <c r="Y119" s="170"/>
+      <c r="Z119" s="170"/>
+      <c r="AA119" s="170"/>
+      <c r="AB119" s="170"/>
+      <c r="AC119" s="170"/>
+      <c r="AD119" s="170"/>
+      <c r="AE119" s="170"/>
+      <c r="AF119" s="170"/>
     </row>
     <row r="120" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A120" s="187" t="s">
+      <c r="A120" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B120" s="187" t="s">
+      <c r="B120" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C120" s="185" t="s">
+      <c r="C120" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D120" s="184" t="s">
+      <c r="D120" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="171"/>
-      <c r="F120" s="170" t="s">
+      <c r="E120" s="183"/>
+      <c r="F120" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G120" s="171"/>
-      <c r="H120" s="170" t="s">
+      <c r="G120" s="183"/>
+      <c r="H120" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I120" s="171"/>
-      <c r="J120" s="170" t="s">
+      <c r="I120" s="183"/>
+      <c r="J120" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K120" s="171"/>
-      <c r="L120" s="170" t="s">
+      <c r="K120" s="183"/>
+      <c r="L120" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M120" s="171"/>
-      <c r="N120" s="170" t="s">
+      <c r="M120" s="183"/>
+      <c r="N120" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O120" s="171"/>
-      <c r="P120" s="170" t="s">
+      <c r="O120" s="183"/>
+      <c r="P120" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q120" s="171"/>
-      <c r="R120" s="170" t="s">
+      <c r="Q120" s="183"/>
+      <c r="R120" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S120" s="171"/>
-      <c r="T120" s="170" t="s">
+      <c r="S120" s="183"/>
+      <c r="T120" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U120" s="171"/>
-      <c r="V120" s="170" t="s">
+      <c r="U120" s="183"/>
+      <c r="V120" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W120" s="171"/>
-      <c r="X120" s="170" t="s">
+      <c r="W120" s="183"/>
+      <c r="X120" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y120" s="171"/>
-      <c r="Z120" s="170" t="s">
+      <c r="Y120" s="183"/>
+      <c r="Z120" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA120" s="171"/>
-      <c r="AB120" s="172" t="s">
+      <c r="AA120" s="183"/>
+      <c r="AB120" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC120" s="174" t="s">
+      <c r="AC120" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD120" s="174" t="s">
+      <c r="AD120" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE120" s="169" t="s">
+      <c r="AE120" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF120" s="169" t="s">
+      <c r="AF120" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="121" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A121" s="188"/>
-      <c r="B121" s="188"/>
-      <c r="C121" s="186"/>
+      <c r="A121" s="201"/>
+      <c r="B121" s="201"/>
+      <c r="C121" s="191"/>
       <c r="D121" s="73" t="s">
         <v>14</v>
       </c>
@@ -14816,11 +14816,11 @@
       <c r="AA121" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB121" s="173"/>
-      <c r="AC121" s="174"/>
-      <c r="AD121" s="174"/>
-      <c r="AE121" s="169"/>
-      <c r="AF121" s="169"/>
+      <c r="AB121" s="203"/>
+      <c r="AC121" s="176"/>
+      <c r="AD121" s="176"/>
+      <c r="AE121" s="166"/>
+      <c r="AF121" s="166"/>
     </row>
     <row r="122" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
       <c r="A122" s="69" t="s">
@@ -14879,18 +14879,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD122" s="176" t="str">
+      <c r="AD122" s="228" t="str">
         <f>CONCATENATE(AC122,AC123,AC124,AC125,AC126,AC128,AC130,AC132)</f>
         <v/>
       </c>
       <c r="AE122" s="116"/>
-      <c r="AF122" s="235" t="str">
+      <c r="AF122" s="164" t="str">
         <f>CONCATENATE(AE122,AE123,AE124,AE125,AE126,AE127,AE128,AE129,AE130,AE131,AE132,AE133)</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A123" s="179" t="s">
+      <c r="A123" s="206" t="s">
         <v>46</v>
       </c>
       <c r="B123" s="15" t="s">
@@ -14946,7 +14946,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD123" s="192"/>
+      <c r="AD123" s="229"/>
       <c r="AE123" s="116" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -14966,10 +14966,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF123" s="235"/>
+      <c r="AF123" s="164"/>
     </row>
     <row r="124" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A124" s="198"/>
+      <c r="A124" s="207"/>
       <c r="B124" s="15" t="s">
         <v>569</v>
       </c>
@@ -15023,12 +15023,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD124" s="192"/>
+      <c r="AD124" s="229"/>
       <c r="AE124" s="117"/>
-      <c r="AF124" s="235"/>
+      <c r="AF124" s="164"/>
     </row>
     <row r="125" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A125" s="198"/>
+      <c r="A125" s="207"/>
       <c r="B125" s="15" t="s">
         <v>570</v>
       </c>
@@ -15082,12 +15082,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD125" s="192"/>
+      <c r="AD125" s="229"/>
       <c r="AE125" s="117"/>
-      <c r="AF125" s="235"/>
+      <c r="AF125" s="164"/>
     </row>
     <row r="126" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A126" s="198"/>
+      <c r="A126" s="207"/>
       <c r="B126" s="15" t="s">
         <v>571</v>
       </c>
@@ -15122,7 +15122,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC126" s="201" t="str">
+      <c r="AC126" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D127&gt;D126," * F06-06 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-05"&amp;CHAR(10),""),IF(E127&gt;E126," * F06-06 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-05"&amp;CHAR(10),""),
@@ -15141,12 +15141,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD126" s="192"/>
+      <c r="AD126" s="229"/>
       <c r="AE126" s="117"/>
-      <c r="AF126" s="235"/>
+      <c r="AF126" s="164"/>
     </row>
     <row r="127" spans="1:32" s="10" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A127" s="198"/>
+      <c r="A127" s="207"/>
       <c r="B127" s="15" t="s">
         <v>635</v>
       </c>
@@ -15181,13 +15181,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC127" s="202"/>
-      <c r="AD127" s="192"/>
+      <c r="AC127" s="178"/>
+      <c r="AD127" s="229"/>
       <c r="AE127" s="117"/>
-      <c r="AF127" s="235"/>
+      <c r="AF127" s="164"/>
     </row>
     <row r="128" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A128" s="198"/>
+      <c r="A128" s="207"/>
       <c r="B128" s="15" t="s">
         <v>572</v>
       </c>
@@ -15222,7 +15222,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC128" s="201" t="str">
+      <c r="AC128" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D129&gt;D128," * F06-08 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-07"&amp;CHAR(10),""),IF(E129&gt;E128," * F06-08 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-07"&amp;CHAR(10),""),
@@ -15241,12 +15241,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD128" s="192"/>
+      <c r="AD128" s="229"/>
       <c r="AE128" s="117"/>
-      <c r="AF128" s="235"/>
+      <c r="AF128" s="164"/>
     </row>
     <row r="129" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A129" s="198"/>
+      <c r="A129" s="207"/>
       <c r="B129" s="15" t="s">
         <v>636</v>
       </c>
@@ -15281,13 +15281,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC129" s="202"/>
-      <c r="AD129" s="192"/>
+      <c r="AC129" s="178"/>
+      <c r="AD129" s="229"/>
       <c r="AE129" s="117"/>
-      <c r="AF129" s="235"/>
+      <c r="AF129" s="164"/>
     </row>
     <row r="130" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A130" s="198"/>
+      <c r="A130" s="207"/>
       <c r="B130" s="15" t="s">
         <v>573</v>
       </c>
@@ -15322,7 +15322,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC130" s="201" t="str">
+      <c r="AC130" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D131&gt;D130," * F06-10 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-09"&amp;CHAR(10),""),IF(E131&gt;E130," * F06-10 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-09"&amp;CHAR(10),""),
@@ -15341,12 +15341,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD130" s="192"/>
+      <c r="AD130" s="229"/>
       <c r="AE130" s="117"/>
-      <c r="AF130" s="235"/>
+      <c r="AF130" s="164"/>
     </row>
     <row r="131" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A131" s="198"/>
+      <c r="A131" s="207"/>
       <c r="B131" s="15" t="s">
         <v>634</v>
       </c>
@@ -15381,13 +15381,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC131" s="202"/>
-      <c r="AD131" s="192"/>
+      <c r="AC131" s="178"/>
+      <c r="AD131" s="229"/>
       <c r="AE131" s="117"/>
-      <c r="AF131" s="235"/>
+      <c r="AF131" s="164"/>
     </row>
     <row r="132" spans="1:32" s="10" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A132" s="189" t="s">
+      <c r="A132" s="237" t="s">
         <v>149</v>
       </c>
       <c r="B132" s="15" t="s">
@@ -15424,7 +15424,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC132" s="201" t="str">
+      <c r="AC132" s="177" t="str">
         <f xml:space="preserve">
 CONCATENATE(
 IF(D133&gt;D132," * F06-12 for Age " &amp;D6&amp;" "&amp; D7&amp; " is more than F06-11"&amp;CHAR(10),""),IF(E133&gt;E132," * F06-12 for Age " &amp;D6&amp;" "&amp; E7&amp; " is more than F06-11"&amp;CHAR(10),""),
@@ -15443,12 +15443,12 @@
 )</f>
         <v/>
       </c>
-      <c r="AD132" s="192"/>
+      <c r="AD132" s="229"/>
       <c r="AE132" s="117"/>
-      <c r="AF132" s="235"/>
+      <c r="AF132" s="164"/>
     </row>
     <row r="133" spans="1:32" s="10" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A133" s="190"/>
+      <c r="A133" s="238"/>
       <c r="B133" s="99" t="s">
         <v>575</v>
       </c>
@@ -15483,125 +15483,125 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC133" s="203"/>
-      <c r="AD133" s="192"/>
+      <c r="AC133" s="227"/>
+      <c r="AD133" s="229"/>
       <c r="AE133" s="119"/>
-      <c r="AF133" s="235"/>
+      <c r="AF133" s="164"/>
     </row>
     <row r="134" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A134" s="244" t="s">
+      <c r="A134" s="170" t="s">
         <v>154</v>
       </c>
-      <c r="B134" s="244"/>
-      <c r="C134" s="244"/>
-      <c r="D134" s="244"/>
-      <c r="E134" s="244"/>
-      <c r="F134" s="244"/>
-      <c r="G134" s="244"/>
-      <c r="H134" s="244"/>
-      <c r="I134" s="244"/>
-      <c r="J134" s="244"/>
-      <c r="K134" s="244"/>
-      <c r="L134" s="244"/>
-      <c r="M134" s="244"/>
-      <c r="N134" s="244"/>
-      <c r="O134" s="244"/>
-      <c r="P134" s="244"/>
-      <c r="Q134" s="244"/>
-      <c r="R134" s="244"/>
-      <c r="S134" s="244"/>
-      <c r="T134" s="244"/>
-      <c r="U134" s="244"/>
-      <c r="V134" s="244"/>
-      <c r="W134" s="244"/>
-      <c r="X134" s="244"/>
-      <c r="Y134" s="244"/>
-      <c r="Z134" s="244"/>
-      <c r="AA134" s="244"/>
-      <c r="AB134" s="244"/>
-      <c r="AC134" s="244"/>
-      <c r="AD134" s="244"/>
-      <c r="AE134" s="244"/>
-      <c r="AF134" s="244"/>
+      <c r="B134" s="170"/>
+      <c r="C134" s="170"/>
+      <c r="D134" s="170"/>
+      <c r="E134" s="170"/>
+      <c r="F134" s="170"/>
+      <c r="G134" s="170"/>
+      <c r="H134" s="170"/>
+      <c r="I134" s="170"/>
+      <c r="J134" s="170"/>
+      <c r="K134" s="170"/>
+      <c r="L134" s="170"/>
+      <c r="M134" s="170"/>
+      <c r="N134" s="170"/>
+      <c r="O134" s="170"/>
+      <c r="P134" s="170"/>
+      <c r="Q134" s="170"/>
+      <c r="R134" s="170"/>
+      <c r="S134" s="170"/>
+      <c r="T134" s="170"/>
+      <c r="U134" s="170"/>
+      <c r="V134" s="170"/>
+      <c r="W134" s="170"/>
+      <c r="X134" s="170"/>
+      <c r="Y134" s="170"/>
+      <c r="Z134" s="170"/>
+      <c r="AA134" s="170"/>
+      <c r="AB134" s="170"/>
+      <c r="AC134" s="170"/>
+      <c r="AD134" s="170"/>
+      <c r="AE134" s="170"/>
+      <c r="AF134" s="170"/>
     </row>
     <row r="135" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A135" s="187" t="s">
+      <c r="A135" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B135" s="187" t="s">
+      <c r="B135" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C135" s="185" t="s">
+      <c r="C135" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D135" s="184" t="s">
+      <c r="D135" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="171"/>
-      <c r="F135" s="170" t="s">
+      <c r="E135" s="183"/>
+      <c r="F135" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="171"/>
-      <c r="H135" s="170" t="s">
+      <c r="G135" s="183"/>
+      <c r="H135" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I135" s="171"/>
-      <c r="J135" s="170" t="s">
+      <c r="I135" s="183"/>
+      <c r="J135" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K135" s="171"/>
-      <c r="L135" s="170" t="s">
+      <c r="K135" s="183"/>
+      <c r="L135" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M135" s="171"/>
-      <c r="N135" s="170" t="s">
+      <c r="M135" s="183"/>
+      <c r="N135" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O135" s="171"/>
-      <c r="P135" s="170" t="s">
+      <c r="O135" s="183"/>
+      <c r="P135" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q135" s="171"/>
-      <c r="R135" s="170" t="s">
+      <c r="Q135" s="183"/>
+      <c r="R135" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S135" s="171"/>
-      <c r="T135" s="170" t="s">
+      <c r="S135" s="183"/>
+      <c r="T135" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U135" s="171"/>
-      <c r="V135" s="170" t="s">
+      <c r="U135" s="183"/>
+      <c r="V135" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W135" s="171"/>
-      <c r="X135" s="170" t="s">
+      <c r="W135" s="183"/>
+      <c r="X135" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y135" s="171"/>
-      <c r="Z135" s="170" t="s">
+      <c r="Y135" s="183"/>
+      <c r="Z135" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA135" s="171"/>
-      <c r="AB135" s="172" t="s">
+      <c r="AA135" s="183"/>
+      <c r="AB135" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="AC135" s="174" t="s">
+      <c r="AC135" s="176" t="s">
         <v>628</v>
       </c>
-      <c r="AD135" s="174" t="s">
+      <c r="AD135" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE135" s="169" t="s">
+      <c r="AE135" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF135" s="169" t="s">
+      <c r="AF135" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="136" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A136" s="188"/>
-      <c r="B136" s="188"/>
-      <c r="C136" s="186"/>
+      <c r="A136" s="201"/>
+      <c r="B136" s="201"/>
+      <c r="C136" s="191"/>
       <c r="D136" s="73" t="s">
         <v>14</v>
       </c>
@@ -15674,14 +15674,14 @@
       <c r="AA136" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB136" s="173"/>
-      <c r="AC136" s="174"/>
-      <c r="AD136" s="174"/>
-      <c r="AE136" s="169"/>
-      <c r="AF136" s="169"/>
+      <c r="AB136" s="203"/>
+      <c r="AC136" s="176"/>
+      <c r="AD136" s="176"/>
+      <c r="AE136" s="166"/>
+      <c r="AF136" s="166"/>
     </row>
     <row r="137" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A137" s="191" t="s">
+      <c r="A137" s="187" t="s">
         <v>35</v>
       </c>
       <c r="B137" s="15" t="s">
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AC137" s="112"/>
-      <c r="AD137" s="176" t="str">
+      <c r="AD137" s="228" t="str">
         <f>CONCATENATE(AC137,AC138,AC139,AC140,AC141,AC142,AC143,AC144)</f>
         <v/>
       </c>
@@ -15742,13 +15742,13 @@
 )</f>
         <v/>
       </c>
-      <c r="AF137" s="235" t="str">
+      <c r="AF137" s="164" t="str">
         <f>CONCATENATE(AE137,AE138,AE139,AE140,AE141,AE142,AE143,AE144)</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A138" s="191"/>
+      <c r="A138" s="187"/>
       <c r="B138" s="15" t="s">
         <v>577</v>
       </c>
@@ -15802,7 +15802,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD138" s="192"/>
+      <c r="AD138" s="229"/>
       <c r="AE138" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15822,10 +15822,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF138" s="235"/>
+      <c r="AF138" s="164"/>
     </row>
     <row r="139" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A139" s="191"/>
+      <c r="A139" s="187"/>
       <c r="B139" s="15" t="s">
         <v>578</v>
       </c>
@@ -15879,7 +15879,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD139" s="192"/>
+      <c r="AD139" s="229"/>
       <c r="AE139" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15899,10 +15899,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF139" s="235"/>
+      <c r="AF139" s="164"/>
     </row>
     <row r="140" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A140" s="191"/>
+      <c r="A140" s="187"/>
       <c r="B140" s="15" t="s">
         <v>579</v>
       </c>
@@ -15956,7 +15956,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD140" s="192"/>
+      <c r="AD140" s="229"/>
       <c r="AE140" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -15976,10 +15976,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF140" s="235"/>
+      <c r="AF140" s="164"/>
     </row>
     <row r="141" spans="1:32" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A141" s="191"/>
+      <c r="A141" s="187"/>
       <c r="B141" s="15" t="s">
         <v>580</v>
       </c>
@@ -16015,12 +16015,12 @@
         <v>0</v>
       </c>
       <c r="AC141" s="112"/>
-      <c r="AD141" s="192"/>
+      <c r="AD141" s="229"/>
       <c r="AE141" s="117"/>
-      <c r="AF141" s="235"/>
+      <c r="AF141" s="164"/>
     </row>
     <row r="142" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A142" s="191" t="s">
+      <c r="A142" s="187" t="s">
         <v>145</v>
       </c>
       <c r="B142" s="15" t="s">
@@ -16076,7 +16076,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD142" s="192"/>
+      <c r="AD142" s="229"/>
       <c r="AE142" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16096,10 +16096,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF142" s="235"/>
+      <c r="AF142" s="164"/>
     </row>
     <row r="143" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A143" s="191"/>
+      <c r="A143" s="187"/>
       <c r="B143" s="15" t="s">
         <v>581</v>
       </c>
@@ -16153,7 +16153,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD143" s="192"/>
+      <c r="AD143" s="229"/>
       <c r="AE143" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16173,10 +16173,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF143" s="235"/>
+      <c r="AF143" s="164"/>
     </row>
     <row r="144" spans="1:32" s="10" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A144" s="179"/>
+      <c r="A144" s="206"/>
       <c r="B144" s="99" t="s">
         <v>582</v>
       </c>
@@ -16230,7 +16230,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD144" s="192"/>
+      <c r="AD144" s="229"/>
       <c r="AE144" s="119" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16250,122 +16250,122 @@
 )</f>
         <v/>
       </c>
-      <c r="AF144" s="235"/>
+      <c r="AF144" s="164"/>
     </row>
     <row r="145" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A145" s="244" t="s">
+      <c r="A145" s="170" t="s">
         <v>156</v>
       </c>
-      <c r="B145" s="244"/>
-      <c r="C145" s="244"/>
-      <c r="D145" s="244"/>
-      <c r="E145" s="244"/>
-      <c r="F145" s="244"/>
-      <c r="G145" s="244"/>
-      <c r="H145" s="244"/>
-      <c r="I145" s="244"/>
-      <c r="J145" s="244"/>
-      <c r="K145" s="244"/>
-      <c r="L145" s="244"/>
-      <c r="M145" s="244"/>
-      <c r="N145" s="244"/>
-      <c r="O145" s="244"/>
-      <c r="P145" s="244"/>
-      <c r="Q145" s="244"/>
-      <c r="R145" s="244"/>
-      <c r="S145" s="244"/>
-      <c r="T145" s="244"/>
-      <c r="U145" s="244"/>
-      <c r="V145" s="244"/>
-      <c r="W145" s="244"/>
-      <c r="X145" s="244"/>
-      <c r="Y145" s="244"/>
-      <c r="Z145" s="244"/>
-      <c r="AA145" s="244"/>
-      <c r="AB145" s="244"/>
-      <c r="AC145" s="244"/>
-      <c r="AD145" s="244"/>
-      <c r="AE145" s="244"/>
-      <c r="AF145" s="244"/>
+      <c r="B145" s="170"/>
+      <c r="C145" s="170"/>
+      <c r="D145" s="170"/>
+      <c r="E145" s="170"/>
+      <c r="F145" s="170"/>
+      <c r="G145" s="170"/>
+      <c r="H145" s="170"/>
+      <c r="I145" s="170"/>
+      <c r="J145" s="170"/>
+      <c r="K145" s="170"/>
+      <c r="L145" s="170"/>
+      <c r="M145" s="170"/>
+      <c r="N145" s="170"/>
+      <c r="O145" s="170"/>
+      <c r="P145" s="170"/>
+      <c r="Q145" s="170"/>
+      <c r="R145" s="170"/>
+      <c r="S145" s="170"/>
+      <c r="T145" s="170"/>
+      <c r="U145" s="170"/>
+      <c r="V145" s="170"/>
+      <c r="W145" s="170"/>
+      <c r="X145" s="170"/>
+      <c r="Y145" s="170"/>
+      <c r="Z145" s="170"/>
+      <c r="AA145" s="170"/>
+      <c r="AB145" s="170"/>
+      <c r="AC145" s="170"/>
+      <c r="AD145" s="170"/>
+      <c r="AE145" s="170"/>
+      <c r="AF145" s="170"/>
     </row>
     <row r="146" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A146" s="187" t="s">
+      <c r="A146" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B146" s="187" t="s">
+      <c r="B146" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C146" s="185" t="s">
+      <c r="C146" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D146" s="184" t="s">
+      <c r="D146" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E146" s="171"/>
-      <c r="F146" s="170" t="s">
+      <c r="E146" s="183"/>
+      <c r="F146" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G146" s="171"/>
-      <c r="H146" s="170" t="s">
+      <c r="G146" s="183"/>
+      <c r="H146" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I146" s="171"/>
-      <c r="J146" s="170" t="s">
+      <c r="I146" s="183"/>
+      <c r="J146" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K146" s="171"/>
-      <c r="L146" s="170" t="s">
+      <c r="K146" s="183"/>
+      <c r="L146" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M146" s="171"/>
-      <c r="N146" s="170" t="s">
+      <c r="M146" s="183"/>
+      <c r="N146" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O146" s="171"/>
-      <c r="P146" s="170" t="s">
+      <c r="O146" s="183"/>
+      <c r="P146" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q146" s="171"/>
-      <c r="R146" s="170" t="s">
+      <c r="Q146" s="183"/>
+      <c r="R146" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S146" s="171"/>
-      <c r="T146" s="170" t="s">
+      <c r="S146" s="183"/>
+      <c r="T146" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U146" s="171"/>
-      <c r="V146" s="170" t="s">
+      <c r="U146" s="183"/>
+      <c r="V146" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W146" s="171"/>
-      <c r="X146" s="170" t="s">
+      <c r="W146" s="183"/>
+      <c r="X146" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y146" s="171"/>
-      <c r="Z146" s="170" t="s">
+      <c r="Y146" s="183"/>
+      <c r="Z146" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA146" s="171"/>
-      <c r="AB146" s="205" t="s">
+      <c r="AA146" s="183"/>
+      <c r="AB146" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="AC146" s="199" t="s">
+      <c r="AC146" s="226" t="s">
         <v>628</v>
       </c>
-      <c r="AD146" s="174" t="s">
+      <c r="AD146" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE146" s="169" t="s">
+      <c r="AE146" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF146" s="169" t="s">
+      <c r="AF146" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="147" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A147" s="188"/>
-      <c r="B147" s="188"/>
-      <c r="C147" s="186"/>
+      <c r="A147" s="201"/>
+      <c r="B147" s="201"/>
+      <c r="C147" s="191"/>
       <c r="D147" s="73" t="s">
         <v>14</v>
       </c>
@@ -16438,14 +16438,14 @@
       <c r="AA147" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB147" s="206"/>
-      <c r="AC147" s="200"/>
-      <c r="AD147" s="174"/>
-      <c r="AE147" s="169"/>
-      <c r="AF147" s="169"/>
+      <c r="AB147" s="225"/>
+      <c r="AC147" s="193"/>
+      <c r="AD147" s="176"/>
+      <c r="AE147" s="166"/>
+      <c r="AF147" s="166"/>
     </row>
     <row r="148" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A148" s="179" t="s">
+      <c r="A148" s="206" t="s">
         <v>47</v>
       </c>
       <c r="B148" s="15" t="s">
@@ -16501,18 +16501,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD148" s="176" t="str">
+      <c r="AD148" s="228" t="str">
         <f>CONCATENATE(AC148,AC149,AC150,AC151)</f>
         <v/>
       </c>
       <c r="AE148" s="117"/>
-      <c r="AF148" s="235" t="str">
+      <c r="AF148" s="164" t="str">
         <f>CONCATENATE(AE148,AE149,AE150,AE151)</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:32" s="10" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A149" s="198"/>
+      <c r="A149" s="207"/>
       <c r="B149" s="94" t="s">
         <v>584</v>
       </c>
@@ -16566,7 +16566,7 @@
 )</f>
         <v/>
       </c>
-      <c r="AD149" s="192"/>
+      <c r="AD149" s="229"/>
       <c r="AE149" s="117" t="str">
         <f xml:space="preserve">
 CONCATENATE(
@@ -16574,10 +16574,10 @@
 )</f>
         <v/>
       </c>
-      <c r="AF149" s="235"/>
+      <c r="AF149" s="164"/>
     </row>
     <row r="150" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A150" s="198"/>
+      <c r="A150" s="207"/>
       <c r="B150" s="15" t="s">
         <v>585</v>
       </c>
@@ -16613,12 +16613,12 @@
         <v>0</v>
       </c>
       <c r="AC150" s="112"/>
-      <c r="AD150" s="192"/>
+      <c r="AD150" s="229"/>
       <c r="AE150" s="117"/>
-      <c r="AF150" s="235"/>
+      <c r="AF150" s="164"/>
     </row>
     <row r="151" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A151" s="198"/>
+      <c r="A151" s="207"/>
       <c r="B151" s="99" t="s">
         <v>586</v>
       </c>
@@ -16672,124 +16672,124 @@
 )</f>
         <v/>
       </c>
-      <c r="AD151" s="192"/>
+      <c r="AD151" s="229"/>
       <c r="AE151" s="119"/>
-      <c r="AF151" s="235"/>
+      <c r="AF151" s="164"/>
     </row>
     <row r="152" spans="1:32" s="8" customFormat="1" ht="76.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A152" s="244" t="s">
+      <c r="A152" s="170" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="244"/>
-      <c r="C152" s="244"/>
-      <c r="D152" s="244"/>
-      <c r="E152" s="244"/>
-      <c r="F152" s="244"/>
-      <c r="G152" s="244"/>
-      <c r="H152" s="244"/>
-      <c r="I152" s="244"/>
-      <c r="J152" s="244"/>
-      <c r="K152" s="244"/>
-      <c r="L152" s="244"/>
-      <c r="M152" s="244"/>
-      <c r="N152" s="244"/>
-      <c r="O152" s="244"/>
-      <c r="P152" s="244"/>
-      <c r="Q152" s="244"/>
-      <c r="R152" s="244"/>
-      <c r="S152" s="244"/>
-      <c r="T152" s="244"/>
-      <c r="U152" s="244"/>
-      <c r="V152" s="244"/>
-      <c r="W152" s="244"/>
-      <c r="X152" s="244"/>
-      <c r="Y152" s="244"/>
-      <c r="Z152" s="244"/>
-      <c r="AA152" s="244"/>
-      <c r="AB152" s="244"/>
-      <c r="AC152" s="244"/>
-      <c r="AD152" s="244"/>
-      <c r="AE152" s="244"/>
-      <c r="AF152" s="244"/>
+      <c r="B152" s="170"/>
+      <c r="C152" s="170"/>
+      <c r="D152" s="170"/>
+      <c r="E152" s="170"/>
+      <c r="F152" s="170"/>
+      <c r="G152" s="170"/>
+      <c r="H152" s="170"/>
+      <c r="I152" s="170"/>
+      <c r="J152" s="170"/>
+      <c r="K152" s="170"/>
+      <c r="L152" s="170"/>
+      <c r="M152" s="170"/>
+      <c r="N152" s="170"/>
+      <c r="O152" s="170"/>
+      <c r="P152" s="170"/>
+      <c r="Q152" s="170"/>
+      <c r="R152" s="170"/>
+      <c r="S152" s="170"/>
+      <c r="T152" s="170"/>
+      <c r="U152" s="170"/>
+      <c r="V152" s="170"/>
+      <c r="W152" s="170"/>
+      <c r="X152" s="170"/>
+      <c r="Y152" s="170"/>
+      <c r="Z152" s="170"/>
+      <c r="AA152" s="170"/>
+      <c r="AB152" s="170"/>
+      <c r="AC152" s="170"/>
+      <c r="AD152" s="170"/>
+      <c r="AE152" s="170"/>
+      <c r="AF152" s="170"/>
     </row>
     <row r="153" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A153" s="187" t="s">
+      <c r="A153" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="B153" s="187" t="s">
+      <c r="B153" s="200" t="s">
         <v>594</v>
       </c>
-      <c r="C153" s="185" t="s">
+      <c r="C153" s="190" t="s">
         <v>508</v>
       </c>
-      <c r="D153" s="184" t="s">
+      <c r="D153" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E153" s="171"/>
-      <c r="F153" s="170" t="s">
+      <c r="E153" s="183"/>
+      <c r="F153" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="G153" s="171"/>
-      <c r="H153" s="170" t="s">
+      <c r="G153" s="183"/>
+      <c r="H153" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="I153" s="171"/>
-      <c r="J153" s="170" t="s">
+      <c r="I153" s="183"/>
+      <c r="J153" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="K153" s="171"/>
-      <c r="L153" s="170" t="s">
+      <c r="K153" s="183"/>
+      <c r="L153" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="M153" s="171"/>
-      <c r="N153" s="170" t="s">
+      <c r="M153" s="183"/>
+      <c r="N153" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="O153" s="171"/>
-      <c r="P153" s="170" t="s">
+      <c r="O153" s="183"/>
+      <c r="P153" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="Q153" s="171"/>
-      <c r="R153" s="170" t="s">
+      <c r="Q153" s="183"/>
+      <c r="R153" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="S153" s="171"/>
-      <c r="T153" s="170" t="s">
+      <c r="S153" s="183"/>
+      <c r="T153" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="U153" s="171"/>
-      <c r="V153" s="170" t="s">
+      <c r="U153" s="183"/>
+      <c r="V153" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="W153" s="171"/>
-      <c r="X153" s="170" t="s">
+      <c r="W153" s="183"/>
+      <c r="X153" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="Y153" s="171"/>
-      <c r="Z153" s="170" t="s">
+      <c r="Y153" s="183"/>
+      <c r="Z153" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="AA153" s="171"/>
-      <c r="AB153" s="205" t="s">
+      <c r="AA153" s="183"/>
+      <c r="AB153" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="AC153" s="199" t="s">
+      <c r="AC153" s="226" t="s">
         <v>628</v>
       </c>
-      <c r="AD153" s="174" t="s">
+      <c r="AD153" s="176" t="s">
         <v>638</v>
       </c>
-      <c r="AE153" s="169" t="s">
+      <c r="AE153" s="166" t="s">
         <v>639</v>
       </c>
-      <c r="AF153" s="169" t="s">
+      <c r="AF153" s="166" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="154" spans="1:32" s="9" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A154" s="188"/>
-      <c r="B154" s="188"/>
-      <c r="C154" s="186"/>
+      <c r="A154" s="201"/>
+      <c r="B154" s="201"/>
+      <c r="C154" s="191"/>
       <c r="D154" s="73" t="s">
         <v>14</v>
       </c>
@@ -16862,14 +16862,14 @@
       <c r="AA154" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="AB154" s="206"/>
-      <c r="AC154" s="200"/>
-      <c r="AD154" s="174"/>
-      <c r="AE154" s="169"/>
-      <c r="AF154" s="169"/>
+      <c r="AB154" s="225"/>
+      <c r="AC154" s="193"/>
+      <c r="AD154" s="176"/>
+      <c r="AE154" s="166"/>
+      <c r="AF154" s="166"/>
     </row>
     <row r="155" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A155" s="179" t="s">
+      <c r="A155" s="206" t="s">
         <v>36</v>
       </c>
       <c r="B155" s="15" t="s">
@@ -16925,18 +16925,18 @@
 )</f>
         <v/>
       </c>
-      <c r="AD155" s="176" t="str">
+      <c r="AD155" s="228" t="str">
         <f>CONCATENATE(AC155,AC156,AC157,AC158,AC159,AC160,AC161,AC162,AC163,AC164,AC165)</f>
         <v/>
       </c>
       <c r="AE155" s="117"/>
-      <c r="AF155" s="235" t="str">
+      <c r="AF155" s="164" t="str">
         <f>CONCATENATE(AE155,AE156,AE157,AE158,AE159,AE160,AE161,AE162,AE163,AE164,AE165)</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:32" s="10" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A156" s="198"/>
+      <c r="A156" s="207"/>
       <c r="B156" s="15" t="s">
         <v>430</v>
       </c>
@@ -16972,12 +16972,12 @@
         <v>0</v>
       </c>
       <c r="AC156" s="112"/>
-      <c r="AD156" s="192"/>
+      <c r="AD156" s="229"/>
       <c r="AE156" s="117"/>
-      <c r="AF156" s="235"/>
+      <c r="AF156" s="164"/>
     </row>
     <row r="157" spans="1:32" s="10" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A157" s="198"/>
+      <c r="A157" s="207"/>
       <c r="B157" s="15" t="s">
         <v>431</v>
       </c>
@@ -17013,12 +17013,12 @@
         <v>0</v>
       </c>
       <c r="AC157" s="112"/>
-      <c r="AD157" s="192"/>
+      <c r="AD157" s="229"/>
       <c r="AE157" s="117"/>
-      <c r="AF157" s="235"/>
+      <c r="AF157" s="164"/>
     </row>
     <row r="158" spans="1:32" s="10" customFormat="1" ht="88.35" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A158" s="180"/>
+      <c r="A158" s="208"/>
       <c r="B158" s="15" t="s">
         <v>588</v>
       </c>
@@ -17054,12 +17054,12 @@
         <v>0</v>
       </c>
       <c r="AC158" s="112"/>
-      <c r="AD158" s="192"/>
+      <c r="AD158" s="229"/>
       <c r="AE158" s="117"/>
-      <c r="AF158" s="235"/>
+      <c r="AF158" s="164"/>
     </row>
     <row r="159" spans="1:32" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A159" s="191" t="s">
+      <c r="A159" s="187" t="s">
         <v>146</v>
       </c>
       <c r="B159" s="15" t="s">
@@ -17097,12 +17097,12 @@
         <v>0</v>
       </c>
       <c r="AC159" s="112"/>
-      <c r="AD159" s="192"/>
+      <c r="AD159" s="229"/>
       <c r="AE159" s="117"/>
-      <c r="AF159" s="235"/>
+      <c r="AF159" s="164"/>
     </row>
     <row r="160" spans="1:32" s="10" customFormat="1" ht="161.44999999999999" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A160" s="191"/>
+      <c r="A160" s="187"/>
       <c r="B160" s="15" t="s">
         <v>435</v>
       </c>
@@ -17138,12 +17138,12 @@
         <v>0</v>
       </c>
       <c r="AC160" s="112"/>
-      <c r="AD160" s="192"/>
+      <c r="AD160" s="229"/>
       <c r="AE160" s="117"/>
-      <c r="AF160" s="235"/>
+      <c r="AF160" s="164"/>
     </row>
     <row r="161" spans="1:32" s="10" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A161" s="191"/>
+      <c r="A161" s="187"/>
       <c r="B161" s="15" t="s">
         <v>590</v>
       </c>
@@ -17179,12 +17179,12 @@
         <v>0</v>
       </c>
       <c r="AC161" s="112"/>
-      <c r="AD161" s="192"/>
+      <c r="AD161" s="229"/>
       <c r="AE161" s="117"/>
-      <c r="AF161" s="235"/>
+      <c r="AF161" s="164"/>
     </row>
     <row r="162" spans="1:32" s="10" customFormat="1" ht="158.1" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A162" s="191"/>
+      <c r="A162" s="187"/>
       <c r="B162" s="15" t="s">
         <v>591</v>
       </c>
@@ -17220,12 +17220,12 @@
         <v>0</v>
       </c>
       <c r="AC162" s="112"/>
-      <c r="AD162" s="192"/>
+      <c r="AD162" s="229"/>
       <c r="AE162" s="117"/>
-      <c r="AF162" s="235"/>
+      <c r="AF162" s="164"/>
     </row>
     <row r="163" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A163" s="191"/>
+      <c r="A163" s="187"/>
       <c r="B163" s="15" t="s">
         <v>438</v>
       </c>
@@ -17261,12 +17261,12 @@
         <v>0</v>
       </c>
       <c r="AC163" s="112"/>
-      <c r="AD163" s="192"/>
+      <c r="AD163" s="229"/>
       <c r="AE163" s="117"/>
-      <c r="AF163" s="235"/>
+      <c r="AF163" s="164"/>
     </row>
     <row r="164" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A164" s="191"/>
+      <c r="A164" s="187"/>
       <c r="B164" s="15" t="s">
         <v>592</v>
       </c>
@@ -17302,12 +17302,12 @@
         <v>0</v>
       </c>
       <c r="AC164" s="112"/>
-      <c r="AD164" s="192"/>
+      <c r="AD164" s="229"/>
       <c r="AE164" s="117"/>
-      <c r="AF164" s="235"/>
+      <c r="AF164" s="164"/>
     </row>
     <row r="165" spans="1:32" s="10" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="1">
-      <c r="A165" s="204"/>
+      <c r="A165" s="223"/>
       <c r="B165" s="95" t="s">
         <v>593</v>
       </c>
@@ -17343,9 +17343,9 @@
         <v>0</v>
       </c>
       <c r="AC165" s="115"/>
-      <c r="AD165" s="193"/>
+      <c r="AD165" s="234"/>
       <c r="AE165" s="117"/>
-      <c r="AF165" s="235"/>
+      <c r="AF165" s="164"/>
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.7">
       <c r="A166" s="6"/>
@@ -17385,8 +17385,277 @@
       <c r="M169" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3ZgzV/PdsMAdGokErtQbr54qlDcwd4zrFC9lnj7Jwk6Evilchep3DCTXpOWBggq6XrSZ8veK2w0HqorAHdXdUA==" saltValue="YNxtRUtyEObvLuRIpgHYCA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="293">
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AE153:AE154"/>
+    <mergeCell ref="X146:Y146"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="Z120:AA120"/>
+    <mergeCell ref="AB120:AB121"/>
+    <mergeCell ref="AB135:AB136"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AD102:AD103"/>
+    <mergeCell ref="AD83:AD100"/>
+    <mergeCell ref="AD81:AD82"/>
+    <mergeCell ref="AD68:AD79"/>
+    <mergeCell ref="AD66:AD67"/>
+    <mergeCell ref="AD48:AD64"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="P153:Q153"/>
+    <mergeCell ref="R153:S153"/>
+    <mergeCell ref="T153:U153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="AD155:AD165"/>
+    <mergeCell ref="AD148:AD151"/>
+    <mergeCell ref="AD137:AD144"/>
+    <mergeCell ref="AD135:AD136"/>
+    <mergeCell ref="AD146:AD147"/>
+    <mergeCell ref="AD153:AD154"/>
+    <mergeCell ref="AD122:AD133"/>
+    <mergeCell ref="AD120:AD121"/>
+    <mergeCell ref="AD104:AD118"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="AD46:AD47"/>
+    <mergeCell ref="AD40:AD44"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="A123:A131"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="R120:S120"/>
+    <mergeCell ref="T120:U120"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X120:Y120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="V102:W102"/>
+    <mergeCell ref="X102:Y102"/>
+    <mergeCell ref="Z102:AA102"/>
+    <mergeCell ref="AB102:AB103"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="R102:S102"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="V135:W135"/>
+    <mergeCell ref="X135:Y135"/>
+    <mergeCell ref="Z135:AA135"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="R135:S135"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="AC153:AC154"/>
+    <mergeCell ref="AC146:AC147"/>
+    <mergeCell ref="AC135:AC136"/>
+    <mergeCell ref="AC120:AC121"/>
+    <mergeCell ref="AC102:AC103"/>
+    <mergeCell ref="AC130:AC131"/>
+    <mergeCell ref="AC132:AC133"/>
+    <mergeCell ref="AC128:AC129"/>
+    <mergeCell ref="AC126:AC127"/>
+    <mergeCell ref="AC109:AC110"/>
+    <mergeCell ref="AC104:AC105"/>
+    <mergeCell ref="A159:A165"/>
+    <mergeCell ref="V153:W153"/>
+    <mergeCell ref="X153:Y153"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="Z146:AA146"/>
+    <mergeCell ref="AB146:AB147"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P146:Q146"/>
+    <mergeCell ref="R146:S146"/>
+    <mergeCell ref="T146:U146"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="Z153:AA153"/>
+    <mergeCell ref="AB153:AB154"/>
+    <mergeCell ref="V146:W146"/>
+    <mergeCell ref="A155:A158"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="AE81:AE82"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="AC66:AC67"/>
+    <mergeCell ref="AC81:AC82"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="AB81:AB82"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="D38:I39"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A4:AF4"/>
+    <mergeCell ref="AE46:AE47"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="AB66:AB67"/>
+    <mergeCell ref="AE66:AE67"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="AC53:AC54"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="A2:AC2"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="AF68:AF79"/>
+    <mergeCell ref="AF83:AF100"/>
+    <mergeCell ref="AF104:AF118"/>
+    <mergeCell ref="AF122:AF133"/>
+    <mergeCell ref="AF137:AF144"/>
+    <mergeCell ref="AF148:AF151"/>
+    <mergeCell ref="AC48:AC49"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AC25:AC26"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="AC29:AC30"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AE102:AE103"/>
+    <mergeCell ref="AE120:AE121"/>
+    <mergeCell ref="AC115:AC116"/>
+    <mergeCell ref="AC113:AC114"/>
+    <mergeCell ref="AC111:AC112"/>
+    <mergeCell ref="AC46:AC47"/>
+    <mergeCell ref="AD8:AD36"/>
+    <mergeCell ref="AE146:AE147"/>
+    <mergeCell ref="AE135:AE136"/>
     <mergeCell ref="AF155:AF165"/>
     <mergeCell ref="AF8:AF36"/>
     <mergeCell ref="AF6:AF7"/>
@@ -17411,275 +17680,6 @@
     <mergeCell ref="A37:AF37"/>
     <mergeCell ref="AF40:AF44"/>
     <mergeCell ref="AF48:AF64"/>
-    <mergeCell ref="AF68:AF79"/>
-    <mergeCell ref="AF83:AF100"/>
-    <mergeCell ref="AF104:AF118"/>
-    <mergeCell ref="AF122:AF133"/>
-    <mergeCell ref="AF137:AF144"/>
-    <mergeCell ref="AF148:AF151"/>
-    <mergeCell ref="AC48:AC49"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AC25:AC26"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AC29:AC30"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AE102:AE103"/>
-    <mergeCell ref="AE120:AE121"/>
-    <mergeCell ref="AC115:AC116"/>
-    <mergeCell ref="AC113:AC114"/>
-    <mergeCell ref="AC111:AC112"/>
-    <mergeCell ref="AC46:AC47"/>
-    <mergeCell ref="AD8:AD36"/>
-    <mergeCell ref="AE146:AE147"/>
-    <mergeCell ref="AE135:AE136"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="A2:AC2"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="AE46:AE47"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AC17:AC18"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="AB38:AB39"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="AB66:AB67"/>
-    <mergeCell ref="AE66:AE67"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="AC53:AC54"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="D38:I39"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A4:AF4"/>
-    <mergeCell ref="AE81:AE82"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="AC66:AC67"/>
-    <mergeCell ref="AC81:AC82"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="AB81:AB82"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="V153:W153"/>
-    <mergeCell ref="X153:Y153"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="Z146:AA146"/>
-    <mergeCell ref="AB146:AB147"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="L146:M146"/>
-    <mergeCell ref="N146:O146"/>
-    <mergeCell ref="P146:Q146"/>
-    <mergeCell ref="R146:S146"/>
-    <mergeCell ref="T146:U146"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="Z153:AA153"/>
-    <mergeCell ref="AB153:AB154"/>
-    <mergeCell ref="V146:W146"/>
-    <mergeCell ref="A155:A158"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="AC153:AC154"/>
-    <mergeCell ref="AC146:AC147"/>
-    <mergeCell ref="AC135:AC136"/>
-    <mergeCell ref="AC120:AC121"/>
-    <mergeCell ref="AC102:AC103"/>
-    <mergeCell ref="AC130:AC131"/>
-    <mergeCell ref="AC132:AC133"/>
-    <mergeCell ref="AC128:AC129"/>
-    <mergeCell ref="AC126:AC127"/>
-    <mergeCell ref="AC109:AC110"/>
-    <mergeCell ref="AC104:AC105"/>
-    <mergeCell ref="V135:W135"/>
-    <mergeCell ref="X135:Y135"/>
-    <mergeCell ref="Z135:AA135"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="L135:M135"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="R135:S135"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="AD46:AD47"/>
-    <mergeCell ref="AD40:AD44"/>
-    <mergeCell ref="AD38:AD39"/>
-    <mergeCell ref="A123:A131"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="R120:S120"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="X120:Y120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="V102:W102"/>
-    <mergeCell ref="X102:Y102"/>
-    <mergeCell ref="Z102:AA102"/>
-    <mergeCell ref="AB102:AB103"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="R102:S102"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="AD155:AD165"/>
-    <mergeCell ref="AD148:AD151"/>
-    <mergeCell ref="AD137:AD144"/>
-    <mergeCell ref="AD135:AD136"/>
-    <mergeCell ref="AD146:AD147"/>
-    <mergeCell ref="AD153:AD154"/>
-    <mergeCell ref="AD122:AD133"/>
-    <mergeCell ref="AD120:AD121"/>
-    <mergeCell ref="AD104:AD118"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="P153:Q153"/>
-    <mergeCell ref="R153:S153"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AE153:AE154"/>
-    <mergeCell ref="X146:Y146"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="Z120:AA120"/>
-    <mergeCell ref="AB120:AB121"/>
-    <mergeCell ref="AB135:AB136"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="AB46:AB47"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AD102:AD103"/>
-    <mergeCell ref="AD83:AD100"/>
-    <mergeCell ref="AD81:AD82"/>
-    <mergeCell ref="AD68:AD79"/>
-    <mergeCell ref="AD66:AD67"/>
-    <mergeCell ref="AD48:AD64"/>
   </mergeCells>
   <conditionalFormatting sqref="AC8">
     <cfRule type="notContainsBlanks" dxfId="59" priority="68">
